--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="개발비" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="285">
   <si>
     <t>Vendor</t>
   </si>
@@ -1055,6 +1055,26 @@
   <si>
     <t>P005634282</t>
     <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer PCB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery CON</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>824-22-003-00-005000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mill-Max </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring-Loaded Connector</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2215,7 +2235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -2809,6 +2829,36 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,38 +2868,14 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="77">
@@ -3230,7 +3256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -3256,28 +3282,28 @@
     </row>
     <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="270" t="s">
+      <c r="B9" s="271" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="268"/>
-      <c r="D9" s="265" t="s">
+      <c r="C9" s="272"/>
+      <c r="D9" s="275" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="265"/>
-      <c r="F9" s="265"/>
-      <c r="G9" s="268" t="s">
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="272" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="268" t="s">
+      <c r="H9" s="272" t="s">
         <v>157</v>
       </c>
-      <c r="I9" s="266" t="s">
+      <c r="I9" s="276" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:14" s="183" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="272"/>
-      <c r="C10" s="269"/>
+      <c r="B10" s="273"/>
+      <c r="C10" s="274"/>
       <c r="D10" s="184" t="s">
         <v>153</v>
       </c>
@@ -3287,15 +3313,15 @@
       <c r="F10" s="184" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="269"/>
-      <c r="H10" s="269"/>
-      <c r="I10" s="267"/>
+      <c r="G10" s="274"/>
+      <c r="H10" s="274"/>
+      <c r="I10" s="277"/>
     </row>
     <row r="11" spans="2:14" s="183" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="273" t="s">
+      <c r="B11" s="269" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="274"/>
+      <c r="C11" s="270"/>
       <c r="D11" s="186">
         <v>0.25</v>
       </c>
@@ -3319,7 +3345,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="270" t="s">
+      <c r="B12" s="271" t="s">
         <v>161</v>
       </c>
       <c r="C12" s="185" t="s">
@@ -3360,7 +3386,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="271"/>
+      <c r="B13" s="278"/>
       <c r="C13" s="189" t="s">
         <v>158</v>
       </c>
@@ -3387,7 +3413,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="272"/>
+      <c r="B14" s="273"/>
       <c r="C14" s="192" t="s">
         <v>159</v>
       </c>
@@ -3414,7 +3440,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="270" t="s">
+      <c r="B15" s="271" t="s">
         <v>163</v>
       </c>
       <c r="C15" s="185" t="s">
@@ -3443,7 +3469,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="271"/>
+      <c r="B16" s="278"/>
       <c r="C16" s="189" t="s">
         <v>158</v>
       </c>
@@ -3470,7 +3496,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="272"/>
+      <c r="B17" s="273"/>
       <c r="C17" s="192" t="s">
         <v>159</v>
       </c>
@@ -3514,28 +3540,28 @@
     </row>
     <row r="21" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="270" t="s">
+      <c r="B22" s="271" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="268"/>
-      <c r="D22" s="265" t="s">
+      <c r="C22" s="272"/>
+      <c r="D22" s="275" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="265"/>
-      <c r="F22" s="265"/>
-      <c r="G22" s="268" t="s">
+      <c r="E22" s="275"/>
+      <c r="F22" s="275"/>
+      <c r="G22" s="272" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="268" t="s">
+      <c r="H22" s="272" t="s">
         <v>157</v>
       </c>
-      <c r="I22" s="266" t="s">
+      <c r="I22" s="276" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="272"/>
-      <c r="C23" s="269"/>
+      <c r="B23" s="273"/>
+      <c r="C23" s="274"/>
       <c r="D23" s="184" t="s">
         <v>153</v>
       </c>
@@ -3545,15 +3571,15 @@
       <c r="F23" s="184" t="s">
         <v>164</v>
       </c>
-      <c r="G23" s="269"/>
-      <c r="H23" s="269"/>
-      <c r="I23" s="267"/>
+      <c r="G23" s="274"/>
+      <c r="H23" s="274"/>
+      <c r="I23" s="277"/>
     </row>
     <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="273" t="s">
+      <c r="B24" s="269" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="274"/>
+      <c r="C24" s="270"/>
       <c r="D24" s="195">
         <v>1</v>
       </c>
@@ -3578,28 +3604,28 @@
     </row>
     <row r="26" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="270" t="s">
+      <c r="B27" s="271" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="268"/>
-      <c r="D27" s="265" t="s">
+      <c r="C27" s="272"/>
+      <c r="D27" s="275" t="s">
         <v>152</v>
       </c>
-      <c r="E27" s="265"/>
-      <c r="F27" s="265"/>
-      <c r="G27" s="268" t="s">
+      <c r="E27" s="275"/>
+      <c r="F27" s="275"/>
+      <c r="G27" s="272" t="s">
         <v>156</v>
       </c>
-      <c r="H27" s="268" t="s">
+      <c r="H27" s="272" t="s">
         <v>157</v>
       </c>
-      <c r="I27" s="266" t="s">
+      <c r="I27" s="276" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="272"/>
-      <c r="C28" s="269"/>
+      <c r="B28" s="273"/>
+      <c r="C28" s="274"/>
       <c r="D28" s="184" t="s">
         <v>153</v>
       </c>
@@ -3609,15 +3635,15 @@
       <c r="F28" s="184" t="s">
         <v>155</v>
       </c>
-      <c r="G28" s="269"/>
-      <c r="H28" s="269"/>
-      <c r="I28" s="267"/>
+      <c r="G28" s="274"/>
+      <c r="H28" s="274"/>
+      <c r="I28" s="277"/>
     </row>
     <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="273" t="s">
+      <c r="B29" s="269" t="s">
         <v>166</v>
       </c>
-      <c r="C29" s="274"/>
+      <c r="C29" s="270"/>
       <c r="D29" s="195">
         <v>3</v>
       </c>
@@ -3658,11 +3684,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B9:C10"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
@@ -3672,12 +3699,11 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5836,15 +5862,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="87.875" customWidth="1"/>
     <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
@@ -6652,25 +6678,29 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="57" t="s">
+        <v>280</v>
+      </c>
+    </row>
     <row r="32" spans="1:13" s="231" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="275"/>
-      <c r="B32" s="276" t="s">
+      <c r="A32" s="265"/>
+      <c r="B32" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="276" t="s">
+      <c r="C32" s="266" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="276" t="s">
+      <c r="D32" s="266" t="s">
         <v>101</v>
       </c>
       <c r="E32" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="276" t="s">
+      <c r="F32" s="266" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="277" t="s">
+      <c r="G32" s="267" t="s">
         <v>102</v>
       </c>
       <c r="H32" s="133" t="s">
@@ -6752,333 +6782,409 @@
         <v>279</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="137" t="s">
+    <row r="35" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="280" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="141" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="141" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="146" t="s">
+        <v>104</v>
+      </c>
+      <c r="J36" s="146" t="s">
+        <v>105</v>
+      </c>
+      <c r="K36" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="147" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="279" t="s">
+        <v>282</v>
+      </c>
+      <c r="C37" s="279" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" s="279" t="s">
+        <v>284</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="91">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3520</v>
+      </c>
+      <c r="H37" s="91">
+        <v>1</v>
+      </c>
+      <c r="I37" s="91">
+        <v>2</v>
+      </c>
+      <c r="J37" s="84">
+        <f>G37*I37</f>
+        <v>7040</v>
+      </c>
+      <c r="K37" s="35"/>
+      <c r="L37" s="129" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="138"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="142">
+      <c r="C39" s="138"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="136"/>
+      <c r="I39" s="142">
         <v>10</v>
       </c>
-      <c r="J37" s="136"/>
-      <c r="K37" s="136"/>
-      <c r="L37" s="145"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="136"/>
-    </row>
-    <row r="38" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="131" t="s">
+      <c r="J39" s="136"/>
+      <c r="K39" s="136"/>
+      <c r="L39" s="145"/>
+      <c r="M39" s="136"/>
+      <c r="N39" s="136"/>
+    </row>
+    <row r="40" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="131" t="s">
+      <c r="C40" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="131" t="s">
+      <c r="D40" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="82" t="s">
+      <c r="E40" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="131" t="s">
+      <c r="F40" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="131" t="s">
+      <c r="G40" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="H38" s="133" t="s">
+      <c r="H40" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="I38" s="133" t="s">
+      <c r="I40" s="133" t="s">
         <v>104</v>
       </c>
-      <c r="J38" s="133" t="s">
+      <c r="J40" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="K38" s="32" t="s">
+      <c r="K40" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L38" s="134" t="s">
+      <c r="L40" s="134" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="152" t="s">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="152" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="154" t="s">
+      <c r="C41" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="154" t="s">
+      <c r="D41" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E41" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="153">
-        <v>1</v>
-      </c>
-      <c r="G39" s="155">
+      <c r="F41" s="153">
+        <v>1</v>
+      </c>
+      <c r="G41" s="155">
         <v>210</v>
       </c>
-      <c r="H39" s="153">
+      <c r="H41" s="153">
         <v>50</v>
       </c>
-      <c r="I39" s="153">
+      <c r="I41" s="153">
         <v>50</v>
       </c>
-      <c r="J39" s="155">
+      <c r="J41" s="155">
         <v>10500</v>
       </c>
-      <c r="K39" s="35"/>
-      <c r="L39" s="132" t="s">
+      <c r="K41" s="35"/>
+      <c r="L41" s="132" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="157" t="s">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="158" t="s">
+      <c r="C42" s="158" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="158" t="s">
+      <c r="D42" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E42" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="140">
-        <v>1</v>
-      </c>
-      <c r="G40" s="140">
+      <c r="F42" s="140">
+        <v>1</v>
+      </c>
+      <c r="G42" s="140">
         <v>210</v>
       </c>
-      <c r="H40" s="140">
+      <c r="H42" s="140">
         <v>10</v>
       </c>
-      <c r="I40" s="140">
+      <c r="I42" s="140">
         <v>10</v>
       </c>
-      <c r="J40" s="143">
+      <c r="J42" s="143">
         <v>2100</v>
       </c>
-      <c r="K40" s="112"/>
-      <c r="L40" s="162" t="s">
+      <c r="K42" s="112"/>
+      <c r="L42" s="162" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="171" t="s">
+    <row r="43" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="171" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159" t="s">
+      <c r="C43" s="159"/>
+      <c r="D43" s="159" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E43" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="160">
+      <c r="F43" s="160">
         <v>2</v>
       </c>
-      <c r="G41" s="165">
+      <c r="G43" s="165">
         <v>80</v>
       </c>
-      <c r="H41" s="160">
+      <c r="H43" s="160">
         <v>100</v>
       </c>
-      <c r="I41" s="160">
+      <c r="I43" s="160">
         <v>100</v>
       </c>
-      <c r="J41" s="161">
+      <c r="J43" s="161">
         <v>4000</v>
       </c>
-      <c r="K41" s="36"/>
-      <c r="L41" s="163" t="s">
+      <c r="K43" s="36"/>
+      <c r="L43" s="163" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="136"/>
-      <c r="C42" s="144"/>
-      <c r="D42" s="149"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="136"/>
-      <c r="K42" s="148"/>
-    </row>
-    <row r="43" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="151" t="s">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="136"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="149"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="136"/>
+      <c r="K44" s="148"/>
+    </row>
+    <row r="45" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="151" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="144"/>
-      <c r="D43" s="149"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="148"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="148"/>
-    </row>
-    <row r="44" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="139" t="s">
+      <c r="C45" s="144"/>
+      <c r="D45" s="149"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="149"/>
+      <c r="J45" s="149"/>
+      <c r="K45" s="148"/>
+    </row>
+    <row r="46" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="141" t="s">
+      <c r="C46" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="141" t="s">
+      <c r="D46" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="111"/>
-      <c r="F44" s="141" t="s">
+      <c r="E46" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="141" t="s">
+      <c r="G46" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="H44" s="146" t="s">
+      <c r="H46" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="146" t="s">
+      <c r="I46" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="J44" s="146" t="s">
+      <c r="J46" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="K44" s="32" t="s">
+      <c r="K46" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L44" s="147" t="s">
+      <c r="L46" s="147" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="170" t="s">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="170" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="154" t="s">
+      <c r="C47" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="154" t="s">
+      <c r="D47" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E47" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="153">
-        <v>1</v>
-      </c>
-      <c r="G45" s="167">
+      <c r="F47" s="153">
+        <v>1</v>
+      </c>
+      <c r="G47" s="167">
         <v>270</v>
       </c>
-      <c r="H45" s="153"/>
-      <c r="I45" s="153">
+      <c r="H47" s="153"/>
+      <c r="I47" s="153">
         <v>20</v>
       </c>
-      <c r="J45" s="155">
+      <c r="J47" s="155">
         <v>0</v>
       </c>
-      <c r="K45" s="35"/>
-      <c r="L45" s="168" t="s">
+      <c r="K47" s="35"/>
+      <c r="L47" s="168" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="169" t="s">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B48" s="169" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="140" t="s">
+      <c r="C48" s="140" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="158" t="s">
+      <c r="D48" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E48" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="140">
-        <v>1</v>
-      </c>
-      <c r="G46" s="164">
+      <c r="F48" s="140">
+        <v>1</v>
+      </c>
+      <c r="G48" s="164">
         <v>200</v>
       </c>
-      <c r="H46" s="140">
+      <c r="H48" s="140">
         <v>10</v>
       </c>
-      <c r="I46" s="140">
+      <c r="I48" s="140">
         <v>10</v>
       </c>
-      <c r="J46" s="143">
+      <c r="J48" s="143">
         <v>2000</v>
       </c>
-      <c r="K46" s="112"/>
-      <c r="L46" s="162" t="s">
+      <c r="K48" s="112"/>
+      <c r="L48" s="162" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="110" t="s">
+    <row r="49" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="160" t="s">
+      <c r="C49" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="159" t="s">
+      <c r="D49" s="159" t="s">
         <v>125</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E49" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="160">
-        <v>1</v>
-      </c>
-      <c r="G47" s="165">
+      <c r="F49" s="160">
+        <v>1</v>
+      </c>
+      <c r="G49" s="165">
         <v>200</v>
       </c>
-      <c r="H47" s="160">
+      <c r="H49" s="160">
         <v>10</v>
       </c>
-      <c r="I47" s="160">
+      <c r="I49" s="160">
         <v>10</v>
       </c>
-      <c r="J47" s="161">
+      <c r="J49" s="161">
         <v>2000</v>
       </c>
-      <c r="K47" s="36"/>
-      <c r="L47" s="163" t="s">
+      <c r="K49" s="36"/>
+      <c r="L49" s="163" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J48" s="278">
-        <f>SUM(J29:J47)</f>
-        <v>61200</v>
-      </c>
-    </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J50" s="11">
-        <f>J25+J48</f>
-        <v>734320</v>
-      </c>
-    </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J51" s="120">
-        <f>J50*0.1</f>
-        <v>73432</v>
-      </c>
-    </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J52" s="124">
-        <f>SUM(J50:J51)</f>
-        <v>807752</v>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J50" s="268">
+        <f>SUM(J29:J49)</f>
+        <v>68240</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J52" s="11">
+        <f>J25+J50</f>
+        <v>741360</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J53" s="120">
+        <f>J52*0.1</f>
+        <v>74136</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J54" s="124">
+        <f>SUM(J52:J53)</f>
+        <v>815496</v>
       </c>
     </row>
   </sheetData>

--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개발비" sheetId="7" r:id="rId1"/>
     <sheet name="부품 구입비" sheetId="9" r:id="rId2"/>
     <sheet name="Transformer" sheetId="1" r:id="rId3"/>
     <sheet name="0314" sheetId="8" r:id="rId4"/>
-    <sheet name="0331" sheetId="5" r:id="rId5"/>
+    <sheet name="0403" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">'0314'!$B$4:$F$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="299">
   <si>
     <t>Vendor</t>
   </si>
@@ -45,22 +45,22 @@
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>상품코드</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ICbanQ</t>
   </si>
   <si>
     <t>ICbanQ</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002101847 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>NTD5802N</t>
@@ -70,11 +70,11 @@
   </si>
   <si>
     <t>53398-0471</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>50058-8000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
@@ -87,11 +87,11 @@
   </si>
   <si>
     <t>51021-0400</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin Housing, Female</t>
@@ -107,94 +107,94 @@
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>P000740132</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>P005634281</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CTX210609-R</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>TRANSFORMER CCFL 6W 13V 11MA SMD Turn-R:100</t>
   </si>
   <si>
     <t>CTX210605-R</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>P002058985</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>P005831162</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>P002058197</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007073878 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>부가세</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>부품 Total</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CAP TANT 220UF 16V 10% 2917</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>P008221708</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>장보고 재고 있음</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2/5일 구매</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>T491D227K016AT</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>재고 없음</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007223445 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2/8일 구매</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -222,859 +222,914 @@
       </rPr>
       <t>-R</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>B180212004001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>주문번호</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2/12일 구매</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BZT52C5V1S</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIODE, ZENER, 5.1V, 0.2W, SOD-323 </t>
+  </si>
+  <si>
+    <t>P007475431</t>
+  </si>
+  <si>
+    <t>LF용 포함 구매</t>
+  </si>
+  <si>
+    <t>Transformer 하네스</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>V_Desc</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>필요수량</t>
+  </si>
+  <si>
+    <t>구매수량</t>
+  </si>
+  <si>
+    <t>구매금액</t>
+  </si>
+  <si>
+    <t>ICBanQ</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>51021-0500</t>
+  </si>
+  <si>
+    <t>1.25mm Pitch Housing, Female, 5-Pin</t>
+  </si>
+  <si>
+    <t>P005634254</t>
+  </si>
+  <si>
+    <t>09-50-1021</t>
+  </si>
+  <si>
+    <t>3.96mm Pitch SPOX™ Crimp Housing, Female, with Friction Ramp, 2-Pin</t>
+  </si>
+  <si>
+    <t>P005634535</t>
+  </si>
+  <si>
+    <t>08-70-1031</t>
+  </si>
+  <si>
+    <t>SPOX Crimp Terminal 5194, 18-24 AWG, Brass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P005634546 </t>
+  </si>
+  <si>
+    <t>GND 하네스</t>
+  </si>
+  <si>
+    <t>NA645</t>
+  </si>
+  <si>
+    <t>라이트컴</t>
+  </si>
+  <si>
+    <t>Coms 컨넥터-DC파워 2.5Ø x 0.7(각형)</t>
+  </si>
+  <si>
+    <t>P004707690</t>
+  </si>
+  <si>
+    <t>악어클립 대(검정색)</t>
+  </si>
+  <si>
+    <t>Any Vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P007314617 </t>
+  </si>
+  <si>
+    <t>악어클립 대(빨간색)</t>
+  </si>
+  <si>
+    <t>P007314616</t>
+  </si>
+  <si>
+    <t>Pipette Main</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch Program</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업기간</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Month</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day[20/Month]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hour[3/Day]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>시급</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>가중치</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF Gen MCU</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF Control MCU</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 작업</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 작업</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hour[3.5/Day]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>H/W</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>M/E</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette 2차</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set 수량</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>구매 Cost</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICBanQ 3/14</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>STPS120M</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>1.0 Amp 20 Volt DIODE</t>
+  </si>
+  <si>
+    <t>P001539333</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMBJ12CA</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>bi-directional Vr=12V 600W TVS_diode</t>
+  </si>
+  <si>
+    <t>P004928252</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007475431</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF용 포함 구매</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-011C_SMD</t>
+  </si>
+  <si>
+    <t>DC Power Jack, 0.7 Pie, DC Plug, SMD</t>
+  </si>
+  <si>
+    <t>P005658771</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>053048-0310</t>
+  </si>
+  <si>
+    <t>1.25mm Pitch DIP CON, Right Angle 3-Pin</t>
+  </si>
+  <si>
+    <t>P005634294</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>053048-0710</t>
+  </si>
+  <si>
+    <t>1.25mm Pitch DIP CON, Right Angle 7-Pin</t>
+  </si>
+  <si>
+    <t>P005634298</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>HI05-AG0272</t>
+  </si>
+  <si>
+    <t>HYUP JIN</t>
+  </si>
+  <si>
+    <t>Micro USB type-B 5PIN SOCKET</t>
+  </si>
+  <si>
+    <t>P005659337</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>F0603E2R50FSTR</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>FUSE BOARD MOUNT 2.5A 32VDC 0603</t>
+  </si>
+  <si>
+    <t>P001574681</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 point 삭제 예정</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSS5131-153ML</t>
+  </si>
+  <si>
+    <t>Coilcraft</t>
+  </si>
+  <si>
+    <t>INDUCTOR, PWR, 15UH, 1.5A, 20%,32MHZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P002266417 </t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQM2HPZ2R2MG0</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>FIXED IND 2.2UH 1.3A 80 MOHM SMD, SRF 40MHz</t>
+  </si>
+  <si>
+    <t>P008172717</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASMT-YTD2-0BB02</t>
+  </si>
+  <si>
+    <t>Avago</t>
+  </si>
+  <si>
+    <t>3 color type LED 6-pin, TOP View, R745mcd, G1600mcd, B380mcd</t>
+  </si>
+  <si>
+    <t>P000725384</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-21/W1D-ANPHY/3T</t>
+  </si>
+  <si>
+    <t>EVERLIGHT</t>
+  </si>
+  <si>
+    <t>Backlight LED SMD 2012 White</t>
+  </si>
+  <si>
+    <t>P005609815</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-21/R6C-AP1Q2/3T</t>
+  </si>
+  <si>
+    <t>Backlight LED SMD 1608 Red</t>
+  </si>
+  <si>
+    <t>P005609821</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-217/W1D-APQHY/3T</t>
+  </si>
+  <si>
+    <t>Backlight LED SMD 1608 White</t>
+  </si>
+  <si>
+    <t>P000098995</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>재품이 없어 고휘도 구매</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-213/G6C-AN1P2 /3T</t>
+  </si>
+  <si>
+    <t>Backlight LED SMD 1608 Green</t>
+  </si>
+  <si>
+    <t>P005609818</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTT-1139P1</t>
+  </si>
+  <si>
+    <t>CT Electronics</t>
+  </si>
+  <si>
+    <t>Tack S/W</t>
+  </si>
+  <si>
+    <t>P000092681</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOQ</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKRMABE010</t>
+  </si>
+  <si>
+    <t>APLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P001566090 </t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F070RBT6</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>ARM Cortex-M0 Value line, 128 Kbytes Flash, 48 MHz CPU, SMD/SMT</t>
+  </si>
+  <si>
+    <t>MCP73831T-2ACI/OT</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>Charge management controller</t>
+  </si>
+  <si>
+    <t>P000166190</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM2735XMF</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>1.6-MHz Space-Efficient Boost and SEPIC DC-DC Regulator 24V 2.1A</t>
+  </si>
+  <si>
+    <t>P006290287</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM3671MF-3.3</t>
+  </si>
+  <si>
+    <t>2-MHz, 600-mA Step-Down DC-DC Converter</t>
+  </si>
+  <si>
+    <t>P007302353</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS3801L30</t>
+  </si>
+  <si>
+    <t>Reset IC Vth=2.64V Delay=200msec</t>
+  </si>
+  <si>
+    <t>P007092561</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Main</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery 하네스</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 Cost</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICBanQ 3/14</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>51021-0300</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25mm Pitch Housing, Female, 3-Pin</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005634252</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer 하네스</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>51021-0700</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25mm Pitch Housing, Female, 7-Pin</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005634256</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>50058 양단 1007 케이블</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005634320</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>50058 양단 케이블 L=100mm, Black</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Proto-type 부품 구매</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer V1.0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cost : </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette V1.0 / LF MCU 일부</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette과 overlap되는 LF MCU 부품 구매</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>053398-0571</t>
+  </si>
+  <si>
+    <t>1.25mm Pitch SMD CON, Vertical 5-Pin</t>
+  </si>
+  <si>
+    <t>구매수량</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>EX-936ESD</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> EXSO </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>정전기 방지 온도조절형 인두, 소비전력:60W, 온도:220℃ ~ 480℃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>P001909039</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LedSol 3001 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXSO</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 무연인두기, 75W, 온도: 100~500℃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007193509</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LedSol-100 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>아날로그 무연인두기 , 24V 75W, 온도: 200~480℃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007193511</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LedSol-200 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 무연인두기, 24V 70W, 온도: 200~480℃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007193512</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX-888D(70W)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 무연인두기, 26V 70W, 온도: 200~480℃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005688453</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FX-951</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 무연인두기, 24V 75W, 온도: 200~450℃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>P005688454</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXSO</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LedSol 3001 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>디지털 무연인두기, 75W, 온도: 100~500℃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P007193509</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LedSol-100 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>아날로그 무연인두기 , 24V 75W, 온도: 200~480℃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P007193511</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX-888D(70W)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P005688453</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>디지털 무연인두기, 26V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LedSol-200 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P007193512</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>디지털 무연인두기, 24V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>디지털 무연인두기, 24V 75W, 온도: 200~450℃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18-K</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO FX-888(FX-8801) 전용 인두 칼팁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P002116124</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18-3.5K</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18-B</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO FX-888(FX-8801) 전용 인두 팁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P002116123 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>B3474</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Rubber Cleaner</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>A1561</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO A1561 클리닝와이어</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P004702618</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>A1559</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAKKO A1561 클리닝와이어</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P004702618</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO A1559 스폰지</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>P004704819</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAKKO FX-888(FX-8801) 전용 인두 칼팁</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P002116124</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAKKO FX-888(FX-8801) 전용 인두 팁</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">P002116123 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>T18-B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>T18-3.5K</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>T18-K</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPPON 18</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO 18 SPPON DESOLDERING TOOL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPPON 18</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P004702809</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>18N.18G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO SPPON NOZZLE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P004702809</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ic114</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BZT52C5V1S</t>
-  </si>
-  <si>
-    <t>Diodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIODE, ZENER, 5.1V, 0.2W, SOD-323 </t>
-  </si>
-  <si>
-    <t>P007475431</t>
-  </si>
-  <si>
-    <t>LF용 포함 구매</t>
-  </si>
-  <si>
-    <t>Transformer 하네스</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>V_Desc</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>필요수량</t>
-  </si>
-  <si>
-    <t>구매수량</t>
-  </si>
-  <si>
-    <t>구매금액</t>
-  </si>
-  <si>
-    <t>ICBanQ</t>
-  </si>
-  <si>
-    <t>Molex</t>
-  </si>
-  <si>
-    <t>51021-0500</t>
-  </si>
-  <si>
-    <t>1.25mm Pitch Housing, Female, 5-Pin</t>
-  </si>
-  <si>
-    <t>P005634254</t>
-  </si>
-  <si>
-    <t>09-50-1021</t>
-  </si>
-  <si>
-    <t>3.96mm Pitch SPOX™ Crimp Housing, Female, with Friction Ramp, 2-Pin</t>
-  </si>
-  <si>
-    <t>P005634535</t>
-  </si>
-  <si>
-    <t>08-70-1031</t>
-  </si>
-  <si>
-    <t>SPOX Crimp Terminal 5194, 18-24 AWG, Brass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P005634546 </t>
-  </si>
-  <si>
-    <t>GND 하네스</t>
-  </si>
-  <si>
-    <t>NA645</t>
-  </si>
-  <si>
-    <t>라이트컴</t>
-  </si>
-  <si>
-    <t>Coms 컨넥터-DC파워 2.5Ø x 0.7(각형)</t>
-  </si>
-  <si>
-    <t>P004707690</t>
-  </si>
-  <si>
-    <t>악어클립 대(검정색)</t>
-  </si>
-  <si>
-    <t>Any Vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P007314617 </t>
-  </si>
-  <si>
-    <t>악어클립 대(빨간색)</t>
-  </si>
-  <si>
-    <t>P007314616</t>
-  </si>
-  <si>
-    <t>Pipette Main</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>UL1007-AWG20</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>UL전선</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (검정색)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002329495 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (빨강)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002329190 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>칩저항 키트</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any vender</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1005 사이즈 F급(1%) 160종 칩저항 키트 - (100개들이)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P001907055</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>JL-0232 적색</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Any vender</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>P001907055</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">더블 바나나플러그 / 적색 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>JL-0232 적색</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>P005658758</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GHG630DCE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOSCH </t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>열풍기(히터건) (GHG630DCE)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> BOSCH </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>P007320842</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST-LINK/V2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICD/PROGRAMMER, FOR STM8, STM32</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P001648331</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENGINEER SL-04</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENGINEER SL-04 DESK-TOP LOUPE, 렌즈 직경 75mm, 배율 3X</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P004704041 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>8611L</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>8611L LED조명 확대경, 렌즈 직경 89mm, 배율 3X</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>P004704064</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>8611L</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">P004704041 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENGINEER SL-04 DESK-TOP LOUPE, 렌즈 직경 75mm, 배율 3X</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENGINEER SL-04</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>8611L LED조명 확대경, 렌즈 직경 89mm, 배율 3X</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Touch Program</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업기간</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Month</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day[20/Month]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hour[3/Day]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>시급</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>가중치</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>LF Gen MCU</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>LF Control MCU</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 작업</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 작업</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hour[3.5/Day]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>H/W</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>M/E</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette 2차</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비 및 소모품</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set 수량</t>
-  </si>
-  <si>
-    <t>Unit Cost</t>
-  </si>
-  <si>
-    <t>구매 Cost</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>824-22-003-00-005000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mill-Max</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mill-Max Pin &amp; Socket Connectors </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P008110102</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer PCB</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>STPS120M</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>1.0 Amp 20 Volt DIODE</t>
-  </si>
-  <si>
-    <t>P001539333</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMBJ12CA</t>
-  </si>
-  <si>
-    <t>KD</t>
-  </si>
-  <si>
-    <t>bi-directional Vr=12V 600W TVS_diode</t>
-  </si>
-  <si>
-    <t>P004928252</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>P007475431</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>LF용 포함 구매</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC-011C_SMD</t>
-  </si>
-  <si>
-    <t>DC Power Jack, 0.7 Pie, DC Plug, SMD</t>
-  </si>
-  <si>
-    <t>P005658771</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>053048-0310</t>
-  </si>
-  <si>
-    <t>1.25mm Pitch DIP CON, Right Angle 3-Pin</t>
-  </si>
-  <si>
-    <t>P005634294</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>053048-0710</t>
-  </si>
-  <si>
-    <t>1.25mm Pitch DIP CON, Right Angle 7-Pin</t>
-  </si>
-  <si>
-    <t>P005634298</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>HI05-AG0272</t>
-  </si>
-  <si>
-    <t>HYUP JIN</t>
-  </si>
-  <si>
-    <t>Micro USB type-B 5PIN SOCKET</t>
-  </si>
-  <si>
-    <t>P005659337</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>F0603E2R50FSTR</t>
-  </si>
-  <si>
-    <t>AVX</t>
-  </si>
-  <si>
-    <t>FUSE BOARD MOUNT 2.5A 32VDC 0603</t>
-  </si>
-  <si>
-    <t>P001574681</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 point 삭제 예정</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSS5131-153ML</t>
-  </si>
-  <si>
-    <t>Coilcraft</t>
-  </si>
-  <si>
-    <t>INDUCTOR, PWR, 15UH, 1.5A, 20%,32MHZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P002266417 </t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQM2HPZ2R2MG0</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>FIXED IND 2.2UH 1.3A 80 MOHM SMD, SRF 40MHz</t>
-  </si>
-  <si>
-    <t>P008172717</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASMT-YTD2-0BB02</t>
-  </si>
-  <si>
-    <t>Avago</t>
-  </si>
-  <si>
-    <t>3 color type LED 6-pin, TOP View, R745mcd, G1600mcd, B380mcd</t>
-  </si>
-  <si>
-    <t>P000725384</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>17-21/W1D-ANPHY/3T</t>
-  </si>
-  <si>
-    <t>EVERLIGHT</t>
-  </si>
-  <si>
-    <t>Backlight LED SMD 2012 White</t>
-  </si>
-  <si>
-    <t>P005609815</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>19-21/R6C-AP1Q2/3T</t>
-  </si>
-  <si>
-    <t>Backlight LED SMD 1608 Red</t>
-  </si>
-  <si>
-    <t>P005609821</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>19-217/W1D-APQHY/3T</t>
-  </si>
-  <si>
-    <t>Backlight LED SMD 1608 White</t>
-  </si>
-  <si>
-    <t>P000098995</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>재품이 없어 고휘도 구매</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>19-213/G6C-AN1P2 /3T</t>
-  </si>
-  <si>
-    <t>Backlight LED SMD 1608 Green</t>
-  </si>
-  <si>
-    <t>P005609818</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>CTT-1139P1</t>
-  </si>
-  <si>
-    <t>CT Electronics</t>
-  </si>
-  <si>
-    <t>Tack S/W</t>
-  </si>
-  <si>
-    <t>P000092681</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOQ</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKRMABE010</t>
-  </si>
-  <si>
-    <t>APLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P001566090 </t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>STM32F070RBT6</t>
-  </si>
-  <si>
-    <t>STMicroelectronics</t>
-  </si>
-  <si>
-    <t>ARM Cortex-M0 Value line, 128 Kbytes Flash, 48 MHz CPU, SMD/SMT</t>
-  </si>
-  <si>
-    <t>MCP73831T-2ACI/OT</t>
-  </si>
-  <si>
-    <t>Microchip</t>
-  </si>
-  <si>
-    <t>Charge management controller</t>
-  </si>
-  <si>
-    <t>P000166190</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>LM2735XMF</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>1.6-MHz Space-Efficient Boost and SEPIC DC-DC Regulator 24V 2.1A</t>
-  </si>
-  <si>
-    <t>P006290287</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>LM3671MF-3.3</t>
-  </si>
-  <si>
-    <t>2-MHz, 600-mA Step-Down DC-DC Converter</t>
-  </si>
-  <si>
-    <t>P007302353</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS3801L30</t>
-  </si>
-  <si>
-    <t>Reset IC Vth=2.64V Delay=200msec</t>
-  </si>
-  <si>
-    <t>P007092561</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette Main</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battery 하네스</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매 Cost</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICBanQ 3/14</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>51021-0300</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.25mm Pitch Housing, Female, 3-Pin</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>P005634252</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transformer 하네스</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>51021-0700</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.25mm Pitch Housing, Female, 7-Pin</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>P005634256</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>50058 양단 1007 케이블</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>P005634320</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>50058 양단 케이블 L=100mm, Black</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette Proto-type 부품 구매</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transformer V1.0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Total cost : </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette V1.0 / LF MCU 일부</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette과 overlap되는 LF MCU 부품 구매</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ON Semiconductor</t>
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>053398-0571</t>
-  </si>
-  <si>
-    <t>1.25mm Pitch SMD CON, Vertical 5-Pin</t>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>P005634282</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transformer PCB</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battery CON</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>824-22-003-00-005000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Mill-Max </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring-Loaded Connector</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 소진</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette V1.0 부품 및 장비</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험실에서 사용할 장비 및 Pipette 관련 추가 부품</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1089,12 +1144,20 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1344,7 +1407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1548,8 +1611,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1934,19 +2003,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -2010,232 +2066,241 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -2250,7 +2315,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2259,7 +2324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2274,32 +2339,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2313,24 +2378,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2343,26 +2408,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2375,13 +2440,13 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2394,31 +2459,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="26" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="27" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="23" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="24" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2448,170 +2501,56 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="34" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="33" borderId="24" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="69" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="33" borderId="11" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="29" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="53">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="24" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="15" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="24" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="53">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="53" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="53" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="10" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="11" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="69" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="17" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="53" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="11" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="53" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="14" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="53" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="20" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="18" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="21" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="17" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="20" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="14" xfId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="15" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="53" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="53" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="53" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2628,68 +2567,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="75" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="75" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="75" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="75" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="75">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="75" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="75">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="75" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="23" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="33" borderId="23" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="24" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="33" borderId="24" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="34" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="33" borderId="33" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="23" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="33" borderId="23" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="75" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="75" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="75" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="75" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="76" applyFont="1" applyBorder="1">
@@ -2701,46 +2640,46 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="15" xfId="75" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="15" xfId="75" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="16" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="69" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="69" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="18" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="17" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="17" xfId="75" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="18" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="17" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="17" xfId="75" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="18" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="22" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="18" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="22" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2749,7 +2688,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2795,23 +2734,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2829,56 +2768,171 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="33" borderId="23" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="33" borderId="24" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="77" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="77" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="33" borderId="10" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="33" borderId="11" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="15" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="21" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="78" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="33" borderId="24" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="78" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="14" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="78" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="18" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="78" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="20" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="20" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="21" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="78" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="14" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="15" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="53" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="80">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색1 2" xfId="56"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
@@ -2935,6 +2989,7 @@
     <cellStyle name="쉼표 [0] 4 2" xfId="62"/>
     <cellStyle name="쉼표 [0] 5" xfId="51"/>
     <cellStyle name="쉼표 [0] 6" xfId="54"/>
+    <cellStyle name="쉼표 [0] 6 2" xfId="79"/>
     <cellStyle name="쉼표 [0] 7" xfId="76"/>
     <cellStyle name="연결된 셀" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -2952,9 +3007,11 @@
     <cellStyle name="표준 10" xfId="42"/>
     <cellStyle name="표준 2" xfId="43"/>
     <cellStyle name="표준 2 2" xfId="69"/>
+    <cellStyle name="표준 2 3" xfId="77"/>
     <cellStyle name="표준 3" xfId="52"/>
     <cellStyle name="표준 3 2" xfId="73"/>
     <cellStyle name="표준 4" xfId="53"/>
+    <cellStyle name="표준 4 2" xfId="78"/>
     <cellStyle name="표준 5" xfId="75"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2962,6 +3019,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3010,7 +3070,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3045,7 +3105,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3278,51 +3338,51 @@
   <sheetData>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C6" s="5"/>
-      <c r="G6" s="182"/>
+      <c r="G6" s="140"/>
     </row>
     <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="271" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="272"/>
-      <c r="D9" s="275" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="275"/>
-      <c r="F9" s="275"/>
-      <c r="G9" s="272" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="272" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="276" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" s="183" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="273"/>
-      <c r="C10" s="274"/>
-      <c r="D10" s="184" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="184" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="184" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="274"/>
-      <c r="H10" s="274"/>
-      <c r="I10" s="277"/>
-    </row>
-    <row r="11" spans="2:14" s="183" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="269" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="270"/>
-      <c r="D11" s="186">
+      <c r="B9" s="272" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="273"/>
+      <c r="D9" s="276" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="276"/>
+      <c r="F9" s="276"/>
+      <c r="G9" s="273" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="273" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="277" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="141" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="274"/>
+      <c r="C10" s="275"/>
+      <c r="D10" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="142" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="142" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="275"/>
+      <c r="H10" s="275"/>
+      <c r="I10" s="278"/>
+    </row>
+    <row r="11" spans="2:14" s="141" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="270" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="271"/>
+      <c r="D11" s="144">
         <v>0.25</v>
       </c>
       <c r="E11" s="23">
@@ -3333,25 +3393,25 @@
         <f t="shared" ref="F11:F17" si="1">E11*3</f>
         <v>15</v>
       </c>
-      <c r="G11" s="187">
+      <c r="G11" s="145">
         <v>30000</v>
       </c>
       <c r="H11" s="23">
         <v>0.8</v>
       </c>
-      <c r="I11" s="188">
+      <c r="I11" s="146">
         <f t="shared" ref="I11:I17" si="2">F11*G11*H11</f>
         <v>360000</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="271" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="185" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="186">
+      <c r="B12" s="272" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="143" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="144">
         <v>1.5</v>
       </c>
       <c r="E12" s="23">
@@ -3362,13 +3422,13 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="G12" s="187">
+      <c r="G12" s="145">
         <v>30000</v>
       </c>
       <c r="H12" s="23">
         <v>0.8</v>
       </c>
-      <c r="I12" s="188">
+      <c r="I12" s="146">
         <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
@@ -3386,11 +3446,11 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="278"/>
-      <c r="C13" s="189" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="190">
+      <c r="B13" s="279"/>
+      <c r="C13" s="147" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="148">
         <v>0.5</v>
       </c>
       <c r="E13" s="19">
@@ -3407,17 +3467,17 @@
       <c r="H13" s="19">
         <v>0.8</v>
       </c>
-      <c r="I13" s="191">
+      <c r="I13" s="149">
         <f t="shared" si="2"/>
         <v>720000</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="273"/>
-      <c r="C14" s="192" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="193">
+      <c r="B14" s="274"/>
+      <c r="C14" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="151">
         <v>1</v>
       </c>
       <c r="E14" s="2">
@@ -3434,19 +3494,19 @@
       <c r="H14" s="2">
         <v>0.8</v>
       </c>
-      <c r="I14" s="194">
+      <c r="I14" s="152">
         <f t="shared" si="2"/>
         <v>1440000</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="271" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="185" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="186">
+      <c r="B15" s="272" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="143" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="144">
         <v>4</v>
       </c>
       <c r="E15" s="23">
@@ -3457,23 +3517,23 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="G15" s="187">
+      <c r="G15" s="145">
         <v>30000</v>
       </c>
       <c r="H15" s="23">
         <v>0.8</v>
       </c>
-      <c r="I15" s="188">
+      <c r="I15" s="146">
         <f t="shared" si="2"/>
         <v>5760000</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="278"/>
-      <c r="C16" s="189" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="190">
+      <c r="B16" s="279"/>
+      <c r="C16" s="147" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="148">
         <v>0</v>
       </c>
       <c r="E16" s="19">
@@ -3490,17 +3550,17 @@
       <c r="H16" s="19">
         <v>0.8</v>
       </c>
-      <c r="I16" s="191">
+      <c r="I16" s="149">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="273"/>
-      <c r="C17" s="192" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="193">
+      <c r="B17" s="274"/>
+      <c r="C17" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="151">
         <v>0.5</v>
       </c>
       <c r="E17" s="2">
@@ -3517,7 +3577,7 @@
       <c r="H17" s="2">
         <v>0.8</v>
       </c>
-      <c r="I17" s="194">
+      <c r="I17" s="152">
         <f t="shared" si="2"/>
         <v>720000</v>
       </c>
@@ -3540,128 +3600,128 @@
     </row>
     <row r="21" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="271" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="272"/>
-      <c r="D22" s="275" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="275"/>
-      <c r="F22" s="275"/>
-      <c r="G22" s="272" t="s">
-        <v>156</v>
-      </c>
-      <c r="H22" s="272" t="s">
-        <v>157</v>
-      </c>
-      <c r="I22" s="276" t="s">
-        <v>160</v>
+      <c r="B22" s="272" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="273"/>
+      <c r="D22" s="276" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="276"/>
+      <c r="F22" s="276"/>
+      <c r="G22" s="273" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="273" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="277" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="273"/>
-      <c r="C23" s="274"/>
-      <c r="D23" s="184" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="184" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="184" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" s="274"/>
-      <c r="H23" s="274"/>
-      <c r="I23" s="277"/>
+      <c r="B23" s="274"/>
+      <c r="C23" s="275"/>
+      <c r="D23" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="142" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="142" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="275"/>
+      <c r="H23" s="275"/>
+      <c r="I23" s="278"/>
     </row>
     <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="269" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="270"/>
-      <c r="D24" s="195">
-        <v>1</v>
-      </c>
-      <c r="E24" s="111">
+      <c r="B24" s="270" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="271"/>
+      <c r="D24" s="153">
+        <v>1</v>
+      </c>
+      <c r="E24" s="106">
         <f>D24*20</f>
         <v>20</v>
       </c>
-      <c r="F24" s="111">
+      <c r="F24" s="106">
         <f>E24*3.5</f>
         <v>70</v>
       </c>
-      <c r="G24" s="196">
+      <c r="G24" s="154">
         <v>30000</v>
       </c>
-      <c r="H24" s="111">
-        <v>1</v>
-      </c>
-      <c r="I24" s="197">
+      <c r="H24" s="106">
+        <v>1</v>
+      </c>
+      <c r="I24" s="155">
         <f>F24*G24*H24</f>
         <v>2100000</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="271" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="272"/>
-      <c r="D27" s="275" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="275"/>
-      <c r="F27" s="275"/>
-      <c r="G27" s="272" t="s">
-        <v>156</v>
-      </c>
-      <c r="H27" s="272" t="s">
-        <v>157</v>
-      </c>
-      <c r="I27" s="276" t="s">
-        <v>160</v>
+      <c r="B27" s="272" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="273"/>
+      <c r="D27" s="276" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="276"/>
+      <c r="F27" s="276"/>
+      <c r="G27" s="273" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="273" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="277" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="273"/>
-      <c r="C28" s="274"/>
-      <c r="D28" s="184" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" s="184" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="184" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" s="274"/>
-      <c r="H28" s="274"/>
-      <c r="I28" s="277"/>
+      <c r="B28" s="274"/>
+      <c r="C28" s="275"/>
+      <c r="D28" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="142" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="142" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="275"/>
+      <c r="H28" s="275"/>
+      <c r="I28" s="278"/>
     </row>
     <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="269" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="270"/>
-      <c r="D29" s="195">
+      <c r="B29" s="270" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="271"/>
+      <c r="D29" s="153">
         <v>3</v>
       </c>
-      <c r="E29" s="111">
+      <c r="E29" s="106">
         <f>D29*20</f>
         <v>60</v>
       </c>
-      <c r="F29" s="111">
+      <c r="F29" s="106">
         <f>E29*3</f>
         <v>180</v>
       </c>
-      <c r="G29" s="196">
+      <c r="G29" s="154">
         <v>22000</v>
       </c>
-      <c r="H29" s="111">
-        <v>1</v>
-      </c>
-      <c r="I29" s="197">
+      <c r="H29" s="106">
+        <v>1</v>
+      </c>
+      <c r="I29" s="155">
         <f>F29*G29*H29</f>
         <v>3960000</v>
       </c>
@@ -3677,7 +3737,7 @@
       </c>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I34" s="181">
+      <c r="I34" s="139">
         <f>I32/I33</f>
         <v>22222.222222222223</v>
       </c>
@@ -3705,7 +3765,7 @@
     <mergeCell ref="B27:C28"/>
     <mergeCell ref="D27:F27"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3714,177 +3774,185 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.75" style="250" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="248" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="208" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="206" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="55.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="252" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" s="249">
+      <c r="C3" s="210" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="207">
         <f>SUM(D5:D25)</f>
-        <v>700940</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" s="251" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="253" t="s">
-        <v>266</v>
-      </c>
-      <c r="C4" s="254" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" s="255" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="254" t="s">
-        <v>273</v>
+        <v>1570330</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="209" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="211" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="212" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="213" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="212" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="256">
+      <c r="B5" s="214">
         <v>43075</v>
       </c>
-      <c r="C5" s="257" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" s="258">
+      <c r="C5" s="215" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="216">
         <v>62080</v>
       </c>
-      <c r="E5" s="257"/>
+      <c r="E5" s="215"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="259">
+      <c r="B6" s="217">
         <v>43136</v>
       </c>
-      <c r="C6" s="260" t="s">
-        <v>270</v>
-      </c>
-      <c r="D6" s="261">
+      <c r="C6" s="218" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="219">
         <v>81880</v>
       </c>
-      <c r="E6" s="260"/>
+      <c r="E6" s="218"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="259">
+      <c r="B7" s="217">
         <v>43139</v>
       </c>
-      <c r="C7" s="260" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" s="261">
+      <c r="C7" s="218" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="219">
         <v>42900</v>
       </c>
-      <c r="E7" s="260"/>
+      <c r="E7" s="218"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="259">
+      <c r="B8" s="217">
         <v>43173</v>
       </c>
-      <c r="C8" s="260" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8" s="261">
+      <c r="C8" s="218" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="219">
         <v>514080</v>
       </c>
-      <c r="E8" s="260" t="s">
-        <v>274</v>
+      <c r="E8" s="218" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="261"/>
-      <c r="E9" s="260"/>
+      <c r="B9" s="217">
+        <v>43193</v>
+      </c>
+      <c r="C9" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="219">
+        <v>869390</v>
+      </c>
+      <c r="E9" s="218" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="259"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="261"/>
-      <c r="E10" s="260"/>
+      <c r="B10" s="217"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="218"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="259"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="260"/>
+      <c r="B11" s="217"/>
+      <c r="C11" s="218"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="218"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="259"/>
-      <c r="C12" s="260"/>
-      <c r="D12" s="261"/>
-      <c r="E12" s="260"/>
+      <c r="B12" s="217"/>
+      <c r="C12" s="218"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="218"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="259"/>
-      <c r="C13" s="260"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="260"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="218"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="218"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="259"/>
-      <c r="C14" s="260"/>
-      <c r="D14" s="261"/>
-      <c r="E14" s="260"/>
+      <c r="B14" s="217"/>
+      <c r="C14" s="218"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="218"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="259"/>
-      <c r="C15" s="260"/>
-      <c r="D15" s="261"/>
-      <c r="E15" s="260"/>
+      <c r="B15" s="217"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="218"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="259"/>
-      <c r="C16" s="260"/>
-      <c r="D16" s="261"/>
-      <c r="E16" s="260"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="219"/>
+      <c r="E16" s="218"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="259"/>
-      <c r="C17" s="260"/>
-      <c r="D17" s="261"/>
-      <c r="E17" s="260"/>
+      <c r="B17" s="217"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="218"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="259"/>
-      <c r="C18" s="260"/>
-      <c r="D18" s="261"/>
-      <c r="E18" s="260"/>
+      <c r="B18" s="217"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="218"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="259"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="261"/>
-      <c r="E19" s="260"/>
+      <c r="B19" s="217"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="218"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="259"/>
-      <c r="C20" s="260"/>
-      <c r="D20" s="261"/>
-      <c r="E20" s="260"/>
+      <c r="B20" s="217"/>
+      <c r="C20" s="218"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="218"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="259"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="261"/>
-      <c r="E21" s="260"/>
+      <c r="B21" s="217"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="218"/>
     </row>
     <row r="22" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="262"/>
-      <c r="C22" s="263"/>
-      <c r="D22" s="264"/>
-      <c r="E22" s="263"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="221"/>
+      <c r="D22" s="222"/>
+      <c r="E22" s="221"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -4537,7 +4605,7 @@
       <c r="K32" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -4553,1049 +4621,1049 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="200"/>
-    <col min="2" max="2" width="6" style="200" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="201" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="200" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.625" style="200" customWidth="1"/>
-    <col min="6" max="7" width="9" style="200"/>
-    <col min="8" max="8" width="9.375" style="200" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9" style="200"/>
-    <col min="13" max="13" width="9.875" style="200" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="200" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" style="200" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="200"/>
+    <col min="1" max="1" width="9" style="158"/>
+    <col min="2" max="2" width="6" style="158" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="159" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="158" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.625" style="158" customWidth="1"/>
+    <col min="6" max="7" width="9" style="158"/>
+    <col min="8" max="8" width="9.375" style="158" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9" style="158"/>
+    <col min="13" max="13" width="9.875" style="158" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="158" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5" style="158" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="158"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="199"/>
+    <row r="1" spans="1:15" s="156" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="157"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J2" s="142" t="s">
-        <v>169</v>
+      <c r="J2" s="124" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="198" t="s">
-        <v>252</v>
-      </c>
-      <c r="J3" s="142">
+      <c r="B3" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="124">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="202"/>
-      <c r="B4" s="203" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="204" t="s">
+      <c r="A4" s="160"/>
+      <c r="B4" s="161" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="204" t="s">
+      <c r="D4" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="204" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="204" t="s">
+      <c r="E4" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="204" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="205" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="206" t="s">
-        <v>171</v>
-      </c>
-      <c r="J4" s="133" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" s="133" t="s">
+      <c r="G4" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="163" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="164" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="133" t="s">
-        <v>104</v>
-      </c>
-      <c r="M4" s="133" t="s">
-        <v>105</v>
-      </c>
-      <c r="N4" s="134" t="s">
-        <v>172</v>
+      <c r="L4" s="121" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="122" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="207">
+      <c r="B5" s="165">
         <v>15</v>
       </c>
-      <c r="C5" s="209" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="208" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="208" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="208">
-        <v>1</v>
-      </c>
-      <c r="G5" s="208">
+      <c r="C5" s="167" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="166">
+        <v>1</v>
+      </c>
+      <c r="G5" s="166">
         <v>520</v>
       </c>
-      <c r="H5" s="210">
+      <c r="H5" s="168">
         <f t="shared" ref="H5:H14" si="0">F5*G5</f>
         <v>520</v>
       </c>
-      <c r="I5" s="215">
+      <c r="I5" s="173">
         <v>380</v>
       </c>
-      <c r="J5" s="156">
+      <c r="J5" s="128">
         <f t="shared" ref="J5:J25" si="1">F5*J$3</f>
         <v>20</v>
       </c>
-      <c r="K5" s="208">
-        <v>1</v>
-      </c>
-      <c r="L5" s="208">
+      <c r="K5" s="166">
+        <v>1</v>
+      </c>
+      <c r="L5" s="166">
         <v>20</v>
       </c>
-      <c r="M5" s="220">
+      <c r="M5" s="178">
         <f t="shared" ref="M5:M11" si="2">I5*L5</f>
         <v>7600</v>
       </c>
-      <c r="N5" s="217" t="s">
-        <v>176</v>
+      <c r="N5" s="175" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="211">
+      <c r="B6" s="169">
         <v>16</v>
       </c>
-      <c r="C6" s="213" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="212" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" s="212" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="212">
-        <v>1</v>
-      </c>
-      <c r="G6" s="212">
+      <c r="C6" s="171" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="170" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="170">
+        <v>1</v>
+      </c>
+      <c r="G6" s="170">
         <v>200</v>
       </c>
-      <c r="H6" s="214">
+      <c r="H6" s="172">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I6" s="218">
+      <c r="I6" s="176">
         <v>200</v>
       </c>
-      <c r="J6" s="219">
+      <c r="J6" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K6" s="212">
+      <c r="K6" s="170">
         <v>10</v>
       </c>
-      <c r="L6" s="212">
+      <c r="L6" s="170">
         <v>20</v>
       </c>
-      <c r="M6" s="220">
+      <c r="M6" s="178">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="N6" s="221" t="s">
-        <v>180</v>
+      <c r="N6" s="179" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="211">
+      <c r="B7" s="169">
         <v>18</v>
       </c>
-      <c r="C7" s="213" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="212" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="212" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" s="212">
-        <v>1</v>
-      </c>
-      <c r="G7" s="212">
+      <c r="C7" s="171" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="170" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="170">
+        <v>1</v>
+      </c>
+      <c r="G7" s="170">
         <v>380</v>
       </c>
-      <c r="H7" s="214">
+      <c r="H7" s="172">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="I7" s="218">
+      <c r="I7" s="176">
         <v>380</v>
       </c>
-      <c r="J7" s="219">
+      <c r="J7" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K7" s="212">
+      <c r="K7" s="170">
         <v>10</v>
       </c>
-      <c r="L7" s="212">
+      <c r="L7" s="170">
         <v>10</v>
       </c>
-      <c r="M7" s="220">
+      <c r="M7" s="178">
         <f t="shared" si="2"/>
         <v>3800</v>
       </c>
-      <c r="N7" s="221" t="s">
-        <v>185</v>
+      <c r="N7" s="179" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="211">
+      <c r="B8" s="169">
         <v>19</v>
       </c>
-      <c r="C8" s="213" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="212" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="212" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="212">
-        <v>1</v>
-      </c>
-      <c r="G8" s="212">
+      <c r="C8" s="171" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="170" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="170" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="170">
+        <v>1</v>
+      </c>
+      <c r="G8" s="170">
         <v>110</v>
       </c>
-      <c r="H8" s="214">
+      <c r="H8" s="172">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="I8" s="218">
+      <c r="I8" s="176">
         <v>110</v>
       </c>
-      <c r="J8" s="219">
+      <c r="J8" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K8" s="212">
+      <c r="K8" s="170">
         <v>10</v>
       </c>
-      <c r="L8" s="212">
+      <c r="L8" s="170">
         <v>20</v>
       </c>
-      <c r="M8" s="220">
+      <c r="M8" s="178">
         <f t="shared" si="2"/>
         <v>2200</v>
       </c>
-      <c r="N8" s="221" t="s">
-        <v>188</v>
+      <c r="N8" s="179" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="211">
+      <c r="B9" s="169">
         <v>20</v>
       </c>
-      <c r="C9" s="213" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" s="212" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="212" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" s="212">
-        <v>1</v>
-      </c>
-      <c r="G9" s="212">
+      <c r="C9" s="171" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="170" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="170" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="170">
+        <v>1</v>
+      </c>
+      <c r="G9" s="170">
         <v>220</v>
       </c>
-      <c r="H9" s="214">
+      <c r="H9" s="172">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="I9" s="218">
+      <c r="I9" s="176">
         <v>220</v>
       </c>
-      <c r="J9" s="219">
+      <c r="J9" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K9" s="212">
+      <c r="K9" s="170">
         <v>10</v>
       </c>
-      <c r="L9" s="212">
+      <c r="L9" s="170">
         <v>20</v>
       </c>
-      <c r="M9" s="220">
+      <c r="M9" s="178">
         <f t="shared" si="2"/>
         <v>4400</v>
       </c>
-      <c r="N9" s="221" t="s">
-        <v>191</v>
+      <c r="N9" s="179" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="211">
+      <c r="B10" s="169">
         <v>21</v>
       </c>
-      <c r="C10" s="213" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="212" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="212" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="212">
-        <v>1</v>
-      </c>
-      <c r="G10" s="212">
+      <c r="C10" s="171" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="170" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="170" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="170">
+        <v>1</v>
+      </c>
+      <c r="G10" s="170">
         <v>260</v>
       </c>
-      <c r="H10" s="214">
+      <c r="H10" s="172">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="I10" s="218">
+      <c r="I10" s="176">
         <v>320</v>
       </c>
-      <c r="J10" s="219">
+      <c r="J10" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K10" s="212">
-        <v>1</v>
-      </c>
-      <c r="L10" s="212">
+      <c r="K10" s="170">
+        <v>1</v>
+      </c>
+      <c r="L10" s="170">
         <v>20</v>
       </c>
-      <c r="M10" s="220">
+      <c r="M10" s="178">
         <f t="shared" si="2"/>
         <v>6400</v>
       </c>
-      <c r="N10" s="221" t="s">
-        <v>195</v>
+      <c r="N10" s="179" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="211">
+      <c r="B11" s="169">
         <v>22</v>
       </c>
-      <c r="C11" s="213" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="212" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="212" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="212">
-        <v>1</v>
-      </c>
-      <c r="G11" s="212">
+      <c r="C11" s="171" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="170" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="170" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="170">
+        <v>1</v>
+      </c>
+      <c r="G11" s="170">
         <v>420</v>
       </c>
-      <c r="H11" s="214">
+      <c r="H11" s="172">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="I11" s="218">
+      <c r="I11" s="176">
         <v>350</v>
       </c>
-      <c r="J11" s="219">
+      <c r="J11" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K11" s="212">
-        <v>1</v>
-      </c>
-      <c r="L11" s="223">
+      <c r="K11" s="170">
+        <v>1</v>
+      </c>
+      <c r="L11" s="181">
         <v>20</v>
       </c>
-      <c r="M11" s="220">
+      <c r="M11" s="178">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="N11" s="221" t="s">
-        <v>199</v>
-      </c>
-      <c r="O11" s="200" t="s">
-        <v>200</v>
+      <c r="N11" s="179" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="158" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="211">
+      <c r="B12" s="169">
         <v>23</v>
       </c>
-      <c r="C12" s="213" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="212" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="212" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="212">
-        <v>1</v>
-      </c>
-      <c r="G12" s="212">
+      <c r="C12" s="171" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="170" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="170" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="170">
+        <v>1</v>
+      </c>
+      <c r="G12" s="170">
         <v>2150</v>
       </c>
-      <c r="H12" s="214">
+      <c r="H12" s="172">
         <f t="shared" si="0"/>
         <v>2150</v>
       </c>
-      <c r="I12" s="218">
+      <c r="I12" s="176">
         <v>1880</v>
       </c>
-      <c r="J12" s="219">
+      <c r="J12" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K12" s="212">
-        <v>1</v>
-      </c>
-      <c r="L12" s="212">
+      <c r="K12" s="170">
+        <v>1</v>
+      </c>
+      <c r="L12" s="170">
         <v>20</v>
       </c>
-      <c r="M12" s="220">
+      <c r="M12" s="178">
         <f>I12*L12</f>
         <v>37600</v>
       </c>
-      <c r="N12" s="221" t="s">
-        <v>204</v>
+      <c r="N12" s="179" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="211">
+      <c r="B13" s="169">
         <v>24</v>
       </c>
-      <c r="C13" s="213" t="s">
-        <v>205</v>
-      </c>
-      <c r="D13" s="212" t="s">
-        <v>206</v>
-      </c>
-      <c r="E13" s="212" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13" s="212">
-        <v>1</v>
-      </c>
-      <c r="G13" s="212">
+      <c r="C13" s="171" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="170" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="170" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="170">
+        <v>1</v>
+      </c>
+      <c r="G13" s="170">
         <v>480</v>
       </c>
-      <c r="H13" s="214">
+      <c r="H13" s="172">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="I13" s="218">
+      <c r="I13" s="176">
         <v>260</v>
       </c>
-      <c r="J13" s="219">
+      <c r="J13" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K13" s="212">
-        <v>1</v>
-      </c>
-      <c r="L13" s="222">
+      <c r="K13" s="170">
+        <v>1</v>
+      </c>
+      <c r="L13" s="180">
         <v>100</v>
       </c>
-      <c r="M13" s="220">
+      <c r="M13" s="178">
         <f t="shared" ref="M13:M25" si="3">I13*L13</f>
         <v>26000</v>
       </c>
-      <c r="N13" s="221" t="s">
-        <v>208</v>
-      </c>
-      <c r="O13" s="200" t="s">
-        <v>182</v>
+      <c r="N13" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="O13" s="158" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="211">
+      <c r="B14" s="169">
         <v>25</v>
       </c>
-      <c r="C14" s="213" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" s="212" t="s">
-        <v>210</v>
-      </c>
-      <c r="E14" s="212" t="s">
-        <v>211</v>
-      </c>
-      <c r="F14" s="212">
-        <v>1</v>
-      </c>
-      <c r="G14" s="212">
+      <c r="C14" s="171" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="170" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="170" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="170">
+        <v>1</v>
+      </c>
+      <c r="G14" s="170">
         <v>720</v>
       </c>
-      <c r="H14" s="214">
+      <c r="H14" s="172">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="I14" s="218">
+      <c r="I14" s="176">
         <v>1270</v>
       </c>
-      <c r="J14" s="219">
+      <c r="J14" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K14" s="212">
-        <v>1</v>
-      </c>
-      <c r="L14" s="212">
+      <c r="K14" s="170">
+        <v>1</v>
+      </c>
+      <c r="L14" s="170">
         <v>20</v>
       </c>
-      <c r="M14" s="220">
+      <c r="M14" s="178">
         <f t="shared" si="3"/>
         <v>25400</v>
       </c>
-      <c r="N14" s="221" t="s">
-        <v>212</v>
+      <c r="N14" s="179" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="211">
+      <c r="B15" s="169">
         <v>26</v>
       </c>
-      <c r="C15" s="213" t="s">
-        <v>213</v>
-      </c>
-      <c r="D15" s="212" t="s">
-        <v>214</v>
-      </c>
-      <c r="E15" s="212" t="s">
-        <v>215</v>
-      </c>
-      <c r="F15" s="212">
-        <v>1</v>
-      </c>
-      <c r="G15" s="212">
+      <c r="C15" s="171" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="170" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="170" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="170">
+        <v>1</v>
+      </c>
+      <c r="G15" s="170">
         <v>20</v>
       </c>
-      <c r="H15" s="224">
+      <c r="H15" s="182">
         <v>40</v>
       </c>
-      <c r="I15" s="218">
+      <c r="I15" s="176">
         <v>40</v>
       </c>
-      <c r="J15" s="219">
+      <c r="J15" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K15" s="212">
+      <c r="K15" s="170">
         <v>10</v>
       </c>
-      <c r="L15" s="212">
+      <c r="L15" s="170">
         <v>20</v>
       </c>
-      <c r="M15" s="220">
+      <c r="M15" s="178">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="N15" s="221" t="s">
-        <v>216</v>
+      <c r="N15" s="179" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="211">
+      <c r="B16" s="169">
         <v>27</v>
       </c>
-      <c r="C16" s="213" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="212" t="s">
-        <v>214</v>
-      </c>
-      <c r="E16" s="212" t="s">
-        <v>218</v>
-      </c>
-      <c r="F16" s="212">
-        <v>1</v>
-      </c>
-      <c r="G16" s="212">
+      <c r="C16" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="170" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="170" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="170">
+        <v>1</v>
+      </c>
+      <c r="G16" s="170">
         <v>20</v>
       </c>
-      <c r="H16" s="214">
+      <c r="H16" s="172">
         <f t="shared" ref="H16:H21" si="4">F16*G16</f>
         <v>20</v>
       </c>
-      <c r="I16" s="218">
+      <c r="I16" s="176">
         <v>20</v>
       </c>
-      <c r="J16" s="219">
+      <c r="J16" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K16" s="212">
+      <c r="K16" s="170">
         <v>10</v>
       </c>
-      <c r="L16" s="222">
+      <c r="L16" s="180">
         <v>40</v>
       </c>
-      <c r="M16" s="220">
+      <c r="M16" s="178">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="N16" s="221" t="s">
-        <v>219</v>
-      </c>
-      <c r="O16" s="200" t="s">
-        <v>182</v>
+      <c r="N16" s="179" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" s="158" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="211">
+      <c r="B17" s="169">
         <v>28</v>
       </c>
-      <c r="C17" s="213" t="s">
-        <v>220</v>
-      </c>
-      <c r="D17" s="212" t="s">
-        <v>214</v>
-      </c>
-      <c r="E17" s="212" t="s">
-        <v>221</v>
-      </c>
-      <c r="F17" s="212">
-        <v>1</v>
-      </c>
-      <c r="G17" s="212">
+      <c r="C17" s="171" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="170" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="170" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="170">
+        <v>1</v>
+      </c>
+      <c r="G17" s="170">
         <v>40</v>
       </c>
-      <c r="H17" s="214">
+      <c r="H17" s="172">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="I17" s="218">
+      <c r="I17" s="176">
         <v>250</v>
       </c>
-      <c r="J17" s="219">
+      <c r="J17" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K17" s="212">
+      <c r="K17" s="170">
         <v>10</v>
       </c>
-      <c r="L17" s="212">
+      <c r="L17" s="170">
         <v>20</v>
       </c>
-      <c r="M17" s="220">
+      <c r="M17" s="178">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="N17" s="225" t="s">
-        <v>222</v>
-      </c>
-      <c r="O17" s="200" t="s">
-        <v>223</v>
+      <c r="N17" s="183" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" s="158" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="211">
+      <c r="B18" s="169">
         <v>29</v>
       </c>
-      <c r="C18" s="213" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="212" t="s">
-        <v>214</v>
-      </c>
-      <c r="E18" s="212" t="s">
-        <v>225</v>
-      </c>
-      <c r="F18" s="212">
-        <v>1</v>
-      </c>
-      <c r="G18" s="212">
+      <c r="C18" s="171" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="170" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="170" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="170">
+        <v>1</v>
+      </c>
+      <c r="G18" s="170">
         <v>20</v>
       </c>
-      <c r="H18" s="214">
+      <c r="H18" s="172">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="I18" s="218">
+      <c r="I18" s="176">
         <v>20</v>
       </c>
-      <c r="J18" s="219">
+      <c r="J18" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K18" s="212">
+      <c r="K18" s="170">
         <v>10</v>
       </c>
-      <c r="L18" s="222">
+      <c r="L18" s="180">
         <v>40</v>
       </c>
-      <c r="M18" s="220">
+      <c r="M18" s="178">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="N18" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="O18" s="200" t="s">
-        <v>182</v>
+      <c r="N18" s="183" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" s="158" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="211">
+      <c r="B19" s="169">
         <v>31</v>
       </c>
-      <c r="C19" s="213" t="s">
-        <v>227</v>
-      </c>
-      <c r="D19" s="212" t="s">
-        <v>228</v>
-      </c>
-      <c r="E19" s="212" t="s">
-        <v>229</v>
-      </c>
-      <c r="F19" s="212">
-        <v>1</v>
-      </c>
-      <c r="G19" s="212">
+      <c r="C19" s="171" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="170" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="170" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="170">
+        <v>1</v>
+      </c>
+      <c r="G19" s="170">
         <v>160</v>
       </c>
-      <c r="H19" s="214">
+      <c r="H19" s="172">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="I19" s="218">
+      <c r="I19" s="176">
         <v>160</v>
       </c>
-      <c r="J19" s="219">
+      <c r="J19" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K19" s="212">
+      <c r="K19" s="170">
         <v>50</v>
       </c>
-      <c r="L19" s="223">
+      <c r="L19" s="181">
         <v>50</v>
       </c>
-      <c r="M19" s="220">
+      <c r="M19" s="178">
         <f t="shared" si="3"/>
         <v>8000</v>
       </c>
-      <c r="N19" s="221" t="s">
-        <v>230</v>
-      </c>
-      <c r="O19" s="200" t="s">
-        <v>231</v>
+      <c r="N19" s="179" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" s="158" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="211">
+      <c r="B20" s="169">
         <v>32</v>
       </c>
-      <c r="C20" s="213" t="s">
-        <v>232</v>
-      </c>
-      <c r="D20" s="212" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" s="212" t="s">
-        <v>229</v>
-      </c>
-      <c r="F20" s="212">
+      <c r="C20" s="171" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="170" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="170" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="170">
         <v>3</v>
       </c>
-      <c r="G20" s="212">
+      <c r="G20" s="170">
         <v>280</v>
       </c>
-      <c r="H20" s="214">
+      <c r="H20" s="172">
         <f t="shared" si="4"/>
         <v>840</v>
       </c>
-      <c r="I20" s="218">
+      <c r="I20" s="176">
         <v>270</v>
       </c>
-      <c r="J20" s="219">
+      <c r="J20" s="177">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K20" s="212">
-        <v>1</v>
-      </c>
-      <c r="L20" s="212">
+      <c r="K20" s="170">
+        <v>1</v>
+      </c>
+      <c r="L20" s="170">
         <v>60</v>
       </c>
-      <c r="M20" s="220">
+      <c r="M20" s="178">
         <f t="shared" si="3"/>
         <v>16200</v>
       </c>
-      <c r="N20" s="221" t="s">
-        <v>234</v>
+      <c r="N20" s="179" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="211">
+      <c r="B21" s="169">
         <v>33</v>
       </c>
-      <c r="C21" s="213" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21" s="212" t="s">
-        <v>236</v>
-      </c>
-      <c r="E21" s="212" t="s">
-        <v>237</v>
-      </c>
-      <c r="F21" s="212">
-        <v>1</v>
-      </c>
-      <c r="G21" s="212">
+      <c r="C21" s="171" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="170" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="170" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="170">
+        <v>1</v>
+      </c>
+      <c r="G21" s="170">
         <v>3970</v>
       </c>
-      <c r="H21" s="214">
+      <c r="H21" s="172">
         <f t="shared" si="4"/>
         <v>3970</v>
       </c>
-      <c r="I21" s="218">
+      <c r="I21" s="176">
         <v>2340</v>
       </c>
-      <c r="J21" s="219">
+      <c r="J21" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K21" s="212">
-        <v>1</v>
-      </c>
-      <c r="L21" s="222">
+      <c r="K21" s="170">
+        <v>1</v>
+      </c>
+      <c r="L21" s="180">
         <v>40</v>
       </c>
-      <c r="M21" s="220">
+      <c r="M21" s="178">
         <f t="shared" si="3"/>
         <v>93600</v>
       </c>
-      <c r="N21" s="221" t="s">
-        <v>181</v>
-      </c>
-      <c r="O21" s="200" t="s">
-        <v>182</v>
+      <c r="N21" s="179" t="s">
+        <v>115</v>
+      </c>
+      <c r="O21" s="158" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="211">
+      <c r="B22" s="169">
         <v>34</v>
       </c>
-      <c r="C22" s="213" t="s">
-        <v>238</v>
-      </c>
-      <c r="D22" s="212" t="s">
-        <v>239</v>
-      </c>
-      <c r="E22" s="212" t="s">
-        <v>240</v>
-      </c>
-      <c r="F22" s="212">
-        <v>1</v>
-      </c>
-      <c r="G22" s="212">
+      <c r="C22" s="171" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="170" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="170" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="170">
+        <v>1</v>
+      </c>
+      <c r="G22" s="170">
         <v>750</v>
       </c>
-      <c r="H22" s="214">
+      <c r="H22" s="172">
         <v>3240</v>
       </c>
-      <c r="I22" s="218">
+      <c r="I22" s="176">
         <v>550</v>
       </c>
-      <c r="J22" s="219">
+      <c r="J22" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K22" s="212">
-        <v>1</v>
-      </c>
-      <c r="L22" s="212">
+      <c r="K22" s="170">
+        <v>1</v>
+      </c>
+      <c r="L22" s="170">
         <v>25</v>
       </c>
-      <c r="M22" s="220">
+      <c r="M22" s="178">
         <f t="shared" si="3"/>
         <v>13750</v>
       </c>
-      <c r="N22" s="221" t="s">
-        <v>241</v>
+      <c r="N22" s="179" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="211">
+      <c r="B23" s="169">
         <v>35</v>
       </c>
-      <c r="C23" s="213" t="s">
-        <v>242</v>
-      </c>
-      <c r="D23" s="212" t="s">
-        <v>243</v>
-      </c>
-      <c r="E23" s="212" t="s">
-        <v>244</v>
-      </c>
-      <c r="F23" s="212">
-        <v>1</v>
-      </c>
-      <c r="G23" s="212">
+      <c r="C23" s="171" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="170" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="170" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="170">
+        <v>1</v>
+      </c>
+      <c r="G23" s="170">
         <v>2850</v>
       </c>
-      <c r="H23" s="214">
+      <c r="H23" s="172">
         <f>F23*G23</f>
         <v>2850</v>
       </c>
-      <c r="I23" s="218">
+      <c r="I23" s="176">
         <v>3240</v>
       </c>
-      <c r="J23" s="219">
+      <c r="J23" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K23" s="212">
-        <v>1</v>
-      </c>
-      <c r="L23" s="212">
+      <c r="K23" s="170">
+        <v>1</v>
+      </c>
+      <c r="L23" s="170">
         <v>20</v>
       </c>
-      <c r="M23" s="220">
+      <c r="M23" s="178">
         <f t="shared" si="3"/>
         <v>64800</v>
       </c>
-      <c r="N23" s="221" t="s">
-        <v>245</v>
+      <c r="N23" s="179" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="211">
+      <c r="B24" s="169">
         <v>36</v>
       </c>
-      <c r="C24" s="213" t="s">
-        <v>246</v>
-      </c>
-      <c r="D24" s="212" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" s="212" t="s">
-        <v>247</v>
-      </c>
-      <c r="F24" s="212">
-        <v>1</v>
-      </c>
-      <c r="G24" s="212">
+      <c r="C24" s="171" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="170" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="170" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="170">
+        <v>1</v>
+      </c>
+      <c r="G24" s="170">
         <v>1750</v>
       </c>
-      <c r="H24" s="214">
+      <c r="H24" s="172">
         <f>F24*G24</f>
         <v>1750</v>
       </c>
-      <c r="I24" s="218">
+      <c r="I24" s="176">
         <v>1000</v>
       </c>
-      <c r="J24" s="219">
+      <c r="J24" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K24" s="212">
-        <v>1</v>
-      </c>
-      <c r="L24" s="222">
+      <c r="K24" s="170">
+        <v>1</v>
+      </c>
+      <c r="L24" s="180">
         <v>60</v>
       </c>
-      <c r="M24" s="220">
+      <c r="M24" s="178">
         <f t="shared" si="3"/>
         <v>60000</v>
       </c>
-      <c r="N24" s="221" t="s">
-        <v>248</v>
-      </c>
-      <c r="O24" s="200" t="s">
+      <c r="N24" s="179" t="s">
         <v>182</v>
       </c>
+      <c r="O24" s="158" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="211">
+      <c r="B25" s="169">
         <v>37</v>
       </c>
-      <c r="C25" s="213" t="s">
-        <v>249</v>
-      </c>
-      <c r="D25" s="212" t="s">
-        <v>243</v>
-      </c>
-      <c r="E25" s="212" t="s">
-        <v>250</v>
-      </c>
-      <c r="F25" s="212">
-        <v>1</v>
-      </c>
-      <c r="G25" s="212">
+      <c r="C25" s="171" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="170" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="170" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="170">
+        <v>1</v>
+      </c>
+      <c r="G25" s="170">
         <v>870</v>
       </c>
-      <c r="H25" s="214">
+      <c r="H25" s="172">
         <f>F25*G25</f>
         <v>870</v>
       </c>
-      <c r="I25" s="218">
+      <c r="I25" s="176">
         <v>870</v>
       </c>
-      <c r="J25" s="219">
+      <c r="J25" s="177">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K25" s="212">
+      <c r="K25" s="170">
         <v>5</v>
       </c>
-      <c r="L25" s="222">
+      <c r="L25" s="180">
         <v>40</v>
       </c>
-      <c r="M25" s="220">
+      <c r="M25" s="178">
         <f t="shared" si="3"/>
         <v>34800</v>
       </c>
-      <c r="N25" s="221" t="s">
-        <v>251</v>
-      </c>
-      <c r="O25" s="200" t="s">
-        <v>182</v>
+      <c r="N25" s="179" t="s">
+        <v>185</v>
+      </c>
+      <c r="O25" s="158" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H26" s="226">
+      <c r="H26" s="184">
         <f>SUM(H5:H25)</f>
         <v>19260</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="231" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="229"/>
-      <c r="B29" s="230" t="s">
-        <v>253</v>
-      </c>
-      <c r="D29" s="229"/>
-      <c r="K29" s="142">
+    <row r="29" spans="1:15" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="187"/>
+      <c r="B29" s="188" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="187"/>
+      <c r="K29" s="124">
         <v>10</v>
       </c>
-      <c r="N29" s="232">
+      <c r="N29" s="190">
         <v>43172</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="231" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="233" t="s">
-        <v>100</v>
+    <row r="30" spans="1:15" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="191" t="s">
+        <v>58</v>
       </c>
       <c r="C30" s="60" t="s">
         <v>17</v>
@@ -5604,103 +5672,103 @@
         <v>0</v>
       </c>
       <c r="E30" s="60" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="F30" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="60" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="H30" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="I30" s="146" t="s">
-        <v>254</v>
-      </c>
-      <c r="J30" s="146" t="s">
-        <v>103</v>
-      </c>
-      <c r="K30" s="146" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="J30" s="125" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="146" t="s">
-        <v>104</v>
-      </c>
-      <c r="M30" s="146" t="s">
-        <v>105</v>
-      </c>
-      <c r="N30" s="147" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="231" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="179">
+      <c r="L30" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="M30" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" s="126" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="189" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="137">
         <v>2</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>256</v>
-      </c>
-      <c r="D31" s="234" t="s">
-        <v>107</v>
+        <v>190</v>
+      </c>
+      <c r="D31" s="192" t="s">
+        <v>65</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>257</v>
-      </c>
-      <c r="F31" s="234">
-        <v>1</v>
-      </c>
-      <c r="G31" s="234">
+        <v>191</v>
+      </c>
+      <c r="F31" s="192">
+        <v>1</v>
+      </c>
+      <c r="G31" s="192">
         <v>140</v>
       </c>
-      <c r="H31" s="220">
+      <c r="H31" s="178">
         <f>F31*G31</f>
         <v>140</v>
       </c>
-      <c r="I31" s="234">
+      <c r="I31" s="192">
         <v>140</v>
       </c>
-      <c r="J31" s="219">
+      <c r="J31" s="177">
         <f>F31*K$3</f>
         <v>0</v>
       </c>
-      <c r="K31" s="234">
+      <c r="K31" s="192">
         <v>10</v>
       </c>
-      <c r="L31" s="234">
+      <c r="L31" s="192">
         <v>10</v>
       </c>
-      <c r="M31" s="220">
+      <c r="M31" s="178">
         <f t="shared" ref="M31" si="5">I31*L31</f>
         <v>1400</v>
       </c>
-      <c r="N31" s="235" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="231" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="236"/>
-      <c r="D32" s="237"/>
-      <c r="E32" s="236"/>
-      <c r="H32" s="238"/>
-      <c r="I32" s="238"/>
-      <c r="J32" s="150"/>
-      <c r="M32" s="238"/>
-    </row>
-    <row r="33" spans="1:14" s="231" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="229"/>
-      <c r="B33" s="230" t="s">
-        <v>259</v>
-      </c>
-      <c r="C33" s="229"/>
-      <c r="J33" s="142">
+      <c r="N31" s="193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="189" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="194"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="194"/>
+      <c r="H32" s="196"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="127"/>
+      <c r="M32" s="196"/>
+    </row>
+    <row r="33" spans="1:14" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="187"/>
+      <c r="B33" s="188" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="187"/>
+      <c r="J33" s="124">
         <v>10</v>
       </c>
-      <c r="M33" s="232"/>
-    </row>
-    <row r="34" spans="1:14" s="231" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="233" t="s">
-        <v>100</v>
+      <c r="M33" s="190"/>
+    </row>
+    <row r="34" spans="1:14" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="191" t="s">
+        <v>58</v>
       </c>
       <c r="C34" s="60" t="s">
         <v>17</v>
@@ -5709,152 +5777,152 @@
         <v>0</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="F34" s="60" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="60" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="H34" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="I34" s="146" t="s">
-        <v>254</v>
-      </c>
-      <c r="J34" s="146" t="s">
-        <v>103</v>
-      </c>
-      <c r="K34" s="146" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="J34" s="125" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="L34" s="146" t="s">
-        <v>104</v>
-      </c>
-      <c r="M34" s="146" t="s">
-        <v>105</v>
-      </c>
-      <c r="N34" s="147" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="231" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="239">
-        <v>1</v>
-      </c>
-      <c r="C35" s="241" t="s">
-        <v>260</v>
-      </c>
-      <c r="D35" s="240" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="242" t="s">
-        <v>261</v>
-      </c>
-      <c r="F35" s="240">
-        <v>1</v>
-      </c>
-      <c r="G35" s="240">
+      <c r="L34" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="M34" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="N34" s="126" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="189" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="197">
+        <v>1</v>
+      </c>
+      <c r="C35" s="199" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="198" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="200" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" s="198">
+        <v>1</v>
+      </c>
+      <c r="G35" s="198">
         <v>230</v>
       </c>
-      <c r="H35" s="216">
+      <c r="H35" s="174">
         <f>F35*G35</f>
         <v>230</v>
       </c>
-      <c r="I35" s="240">
+      <c r="I35" s="198">
         <v>230</v>
       </c>
-      <c r="J35" s="156">
+      <c r="J35" s="128">
         <f>F35*K$3</f>
         <v>0</v>
       </c>
-      <c r="K35" s="240">
+      <c r="K35" s="198">
         <v>10</v>
       </c>
-      <c r="L35" s="240">
+      <c r="L35" s="198">
         <v>20</v>
       </c>
-      <c r="M35" s="210">
+      <c r="M35" s="168">
         <f t="shared" ref="M35" si="6">I35*L35</f>
         <v>4600</v>
       </c>
-      <c r="N35" s="243" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="231" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="180"/>
-      <c r="C36" s="244" t="s">
-        <v>263</v>
-      </c>
-      <c r="D36" s="244" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="244" t="s">
-        <v>265</v>
-      </c>
-      <c r="F36" s="244">
+      <c r="N35" s="201" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="138"/>
+      <c r="C36" s="202" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="202" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="202" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="202">
         <v>8</v>
       </c>
-      <c r="G36" s="244">
+      <c r="G36" s="202">
         <v>130</v>
       </c>
-      <c r="H36" s="245">
+      <c r="H36" s="203">
         <f>F36*G36</f>
         <v>1040</v>
       </c>
-      <c r="I36" s="245">
+      <c r="I36" s="203">
         <v>130</v>
       </c>
-      <c r="J36" s="166">
+      <c r="J36" s="129">
         <f>F36*K$3</f>
         <v>0</v>
       </c>
-      <c r="K36" s="244">
+      <c r="K36" s="202">
         <v>300</v>
       </c>
-      <c r="L36" s="244">
+      <c r="L36" s="202">
         <v>300</v>
       </c>
-      <c r="M36" s="246">
+      <c r="M36" s="204">
         <f>I36*L36</f>
         <v>39000</v>
       </c>
-      <c r="N36" s="247" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="231" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="236"/>
-      <c r="D37" s="237"/>
-      <c r="E37" s="236"/>
-      <c r="H37" s="238"/>
-      <c r="I37" s="238"/>
-      <c r="J37" s="150"/>
-      <c r="M37" s="238"/>
+      <c r="N36" s="205" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="189" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="194"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="194"/>
+      <c r="H37" s="196"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="127"/>
+      <c r="M37" s="196"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M38" s="227">
+      <c r="M38" s="185">
         <f>SUM(M5:M36)</f>
         <v>467950</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M39" s="228">
+      <c r="M39" s="186">
         <f>M38*0.1</f>
         <v>46795</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M40" s="227">
+      <c r="M40" s="185">
         <f>M38+M39</f>
         <v>514745</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B4:F4"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5862,34 +5930,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="87.875" customWidth="1"/>
-    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="57" t="s">
-        <v>168</v>
-      </c>
-    </row>
+    <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="225" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="82" t="s">
@@ -5901,7 +5967,7 @@
       <c r="E2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="226" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="82" t="s">
@@ -5911,32 +5977,32 @@
         <v>5</v>
       </c>
       <c r="I2" s="82" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="J2" s="82" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="K2" s="82" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
       <c r="L2" s="83" t="s">
-        <v>50</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>54</v>
+      <c r="B3" s="227" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="228" t="s">
+        <v>218</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="72">
+      <c r="F3" s="229">
         <v>1</v>
       </c>
       <c r="G3" s="21">
@@ -5945,119 +6011,119 @@
       <c r="H3" s="13">
         <v>1</v>
       </c>
-      <c r="I3" s="101"/>
+      <c r="I3" s="97"/>
       <c r="J3" s="74">
-        <f t="shared" ref="J3" si="0">G3*I3</f>
+        <f t="shared" ref="J3:J11" si="0">G3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="35"/>
       <c r="L3" s="37" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>59</v>
+      <c r="B4" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>221</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>61</v>
+        <v>222</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="91">
+      <c r="F4" s="87">
         <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>275000</v>
       </c>
-      <c r="H4" s="91">
-        <v>1</v>
-      </c>
-      <c r="I4" s="91"/>
+      <c r="H4" s="87">
+        <v>1</v>
+      </c>
+      <c r="I4" s="87"/>
       <c r="J4" s="84">
-        <f t="shared" ref="J4:J11" si="1">G4*I4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="18" t="s">
-        <v>62</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="91" t="s">
-        <v>59</v>
+      <c r="B5" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>221</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>64</v>
+        <v>225</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="91">
+      <c r="F5" s="87">
         <v>1</v>
       </c>
       <c r="G5" s="3">
         <v>110000</v>
       </c>
-      <c r="H5" s="91">
-        <v>1</v>
-      </c>
-      <c r="I5" s="91"/>
+      <c r="H5" s="87">
+        <v>1</v>
+      </c>
+      <c r="I5" s="87"/>
       <c r="J5" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="18" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="90" t="s">
-        <v>69</v>
+      <c r="B6" s="86" t="s">
+        <v>227</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19" t="s">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="91">
+      <c r="F6" s="87">
         <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>132000</v>
       </c>
-      <c r="H6" s="91">
-        <v>1</v>
-      </c>
-      <c r="I6" s="91"/>
+      <c r="H6" s="87">
+        <v>1</v>
+      </c>
+      <c r="I6" s="87"/>
       <c r="J6" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="18" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="92" t="s">
-        <v>66</v>
+      <c r="B7" s="88" t="s">
+        <v>230</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>9</v>
@@ -6074,116 +6140,116 @@
       <c r="I7" s="53">
         <v>2</v>
       </c>
-      <c r="J7" s="93">
-        <f t="shared" si="1"/>
+      <c r="J7" s="89">
+        <f t="shared" si="0"/>
         <v>280000</v>
       </c>
       <c r="K7" s="17"/>
-      <c r="L7" s="94" t="s">
-        <v>67</v>
+      <c r="L7" s="90" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="97" t="s">
+      <c r="B8" s="91" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="96">
-        <v>1</v>
-      </c>
-      <c r="G8" s="98">
+      <c r="F8" s="92">
+        <v>1</v>
+      </c>
+      <c r="G8" s="94">
         <v>270000</v>
       </c>
-      <c r="H8" s="96">
-        <v>1</v>
-      </c>
-      <c r="I8" s="96"/>
-      <c r="J8" s="99">
-        <f t="shared" si="1"/>
+      <c r="H8" s="92">
+        <v>1</v>
+      </c>
+      <c r="I8" s="92"/>
+      <c r="J8" s="95">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="97"/>
-      <c r="L8" s="100" t="s">
-        <v>58</v>
+      <c r="K8" s="93"/>
+      <c r="L8" s="96" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="89" t="s">
-        <v>56</v>
+      <c r="B9" s="98" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>238</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="89">
-        <v>1</v>
-      </c>
-      <c r="G9" s="103">
+      <c r="F9" s="85">
+        <v>1</v>
+      </c>
+      <c r="G9" s="99">
         <v>12000</v>
       </c>
-      <c r="H9" s="89">
-        <v>1</v>
-      </c>
-      <c r="I9" s="89"/>
+      <c r="H9" s="85">
+        <v>1</v>
+      </c>
+      <c r="I9" s="85"/>
       <c r="J9" s="74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="23"/>
-      <c r="L9" s="104" t="s">
-        <v>82</v>
+      <c r="L9" s="100" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="91" t="s">
-        <v>56</v>
+      <c r="B10" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>238</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="87">
         <v>1</v>
       </c>
       <c r="G10" s="19"/>
-      <c r="H10" s="91">
-        <v>1</v>
-      </c>
-      <c r="I10" s="91"/>
+      <c r="H10" s="87">
+        <v>1</v>
+      </c>
+      <c r="I10" s="87"/>
       <c r="J10" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="92" t="s">
-        <v>85</v>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="88" t="s">
+        <v>242</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>9</v>
@@ -6191,7 +6257,7 @@
       <c r="F11" s="53">
         <v>1</v>
       </c>
-      <c r="G11" s="105">
+      <c r="G11" s="101">
         <v>6500</v>
       </c>
       <c r="H11" s="53">
@@ -6200,24 +6266,24 @@
       <c r="I11" s="53">
         <v>2</v>
       </c>
-      <c r="J11" s="93">
-        <f t="shared" si="1"/>
+      <c r="J11" s="89">
+        <f t="shared" si="0"/>
         <v>13000</v>
       </c>
       <c r="K11" s="17"/>
-      <c r="L11" s="94" t="s">
-        <v>84</v>
+      <c r="L11" s="90" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="106" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="91" t="s">
-        <v>56</v>
+      <c r="B12" s="102" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>238</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -6229,14 +6295,14 @@
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="92" t="s">
-        <v>75</v>
+      <c r="B13" s="88" t="s">
+        <v>247</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>9</v>
@@ -6244,7 +6310,7 @@
       <c r="F13" s="53">
         <v>1</v>
       </c>
-      <c r="G13" s="105">
+      <c r="G13" s="101">
         <v>4000</v>
       </c>
       <c r="H13" s="53">
@@ -6253,24 +6319,24 @@
       <c r="I13" s="53">
         <v>2</v>
       </c>
-      <c r="J13" s="93">
+      <c r="J13" s="89">
         <f>G13*I13</f>
         <v>8000</v>
       </c>
       <c r="K13" s="17"/>
-      <c r="L13" s="94" t="s">
-        <v>78</v>
+      <c r="L13" s="90" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="92" t="s">
-        <v>76</v>
+      <c r="B14" s="88" t="s">
+        <v>250</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>9</v>
@@ -6278,7 +6344,7 @@
       <c r="F14" s="53">
         <v>1</v>
       </c>
-      <c r="G14" s="105">
+      <c r="G14" s="101">
         <v>4500</v>
       </c>
       <c r="H14" s="53">
@@ -6287,24 +6353,24 @@
       <c r="I14" s="53">
         <v>2</v>
       </c>
-      <c r="J14" s="93">
+      <c r="J14" s="89">
         <f>G14*I14</f>
         <v>9000</v>
       </c>
       <c r="K14" s="17"/>
-      <c r="L14" s="94" t="s">
-        <v>80</v>
+      <c r="L14" s="90" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="92" t="s">
-        <v>89</v>
+      <c r="B15" s="88" t="s">
+        <v>253</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>88</v>
+        <v>254</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>9</v>
@@ -6312,7 +6378,7 @@
       <c r="F15" s="53">
         <v>1</v>
       </c>
-      <c r="G15" s="105">
+      <c r="G15" s="101">
         <v>16500</v>
       </c>
       <c r="H15" s="53">
@@ -6321,49 +6387,49 @@
       <c r="I15" s="53">
         <v>1</v>
       </c>
-      <c r="J15" s="93">
+      <c r="J15" s="89">
         <f>G15*I15</f>
         <v>16500</v>
       </c>
       <c r="K15" s="17"/>
-      <c r="L15" s="94" t="s">
-        <v>92</v>
+      <c r="L15" s="90" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="135" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="125" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="125">
-        <v>1</v>
-      </c>
-      <c r="G16" s="114">
+      <c r="B16" s="123" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="119" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="112" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="119">
+        <v>1</v>
+      </c>
+      <c r="G16" s="109">
         <v>4100</v>
       </c>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="113"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="92" t="s">
-        <v>128</v>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="108"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="88" t="s">
+        <v>259</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>130</v>
+        <v>261</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>9</v>
@@ -6380,24 +6446,24 @@
       <c r="I17" s="53">
         <v>1</v>
       </c>
-      <c r="J17" s="93">
-        <f>G17*I17</f>
+      <c r="J17" s="89">
+        <f t="shared" ref="J17:J22" si="1">G17*I17</f>
         <v>9000</v>
       </c>
       <c r="K17" s="17"/>
-      <c r="L17" s="94" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="92" t="s">
-        <v>128</v>
+      <c r="L17" s="90" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="88" t="s">
+        <v>259</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>9</v>
@@ -6414,24 +6480,24 @@
       <c r="I18" s="53">
         <v>1</v>
       </c>
-      <c r="J18" s="93">
-        <f>G18*I18</f>
+      <c r="J18" s="89">
+        <f t="shared" si="1"/>
         <v>9000</v>
       </c>
       <c r="K18" s="17"/>
-      <c r="L18" s="94" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="123" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="116" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="115" t="s">
-        <v>135</v>
+      <c r="L18" s="90" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="117" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="111" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="110" t="s">
+        <v>267</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>9</v>
@@ -6439,7 +6505,7 @@
       <c r="F19" s="53">
         <v>1</v>
       </c>
-      <c r="G19" s="122">
+      <c r="G19" s="116">
         <v>180000</v>
       </c>
       <c r="H19" s="53">
@@ -6448,24 +6514,24 @@
       <c r="I19" s="53">
         <v>1</v>
       </c>
-      <c r="J19" s="93">
-        <f>G19*I19</f>
+      <c r="J19" s="89">
+        <f t="shared" si="1"/>
         <v>180000</v>
       </c>
-      <c r="K19" s="115"/>
-      <c r="L19" s="119" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="123" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="116" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="115" t="s">
-        <v>138</v>
+      <c r="K19" s="110"/>
+      <c r="L19" s="114" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="117" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="111" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="110" t="s">
+        <v>271</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>9</v>
@@ -6473,33 +6539,33 @@
       <c r="F20" s="53">
         <v>1</v>
       </c>
-      <c r="G20" s="122">
+      <c r="G20" s="116">
         <v>1210</v>
       </c>
-      <c r="H20" s="116">
+      <c r="H20" s="111">
         <v>1</v>
       </c>
       <c r="I20" s="53">
         <v>2</v>
       </c>
-      <c r="J20" s="93">
-        <f>G20*I20</f>
+      <c r="J20" s="89">
+        <f t="shared" si="1"/>
         <v>2420</v>
       </c>
-      <c r="K20" s="115"/>
-      <c r="L20" s="119" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="123" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="116" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="115" t="s">
-        <v>142</v>
+      <c r="K20" s="110"/>
+      <c r="L20" s="114" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="117" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="111" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="110" t="s">
+        <v>275</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>9</v>
@@ -6507,7 +6573,7 @@
       <c r="F21" s="53">
         <v>1</v>
       </c>
-      <c r="G21" s="122">
+      <c r="G21" s="116">
         <v>101200</v>
       </c>
       <c r="H21" s="53">
@@ -6516,679 +6582,679 @@
       <c r="I21" s="53">
         <v>1</v>
       </c>
-      <c r="J21" s="93">
-        <f>G21*I21</f>
+      <c r="J21" s="89">
+        <f t="shared" si="1"/>
         <v>101200</v>
       </c>
-      <c r="K21" s="115"/>
-      <c r="L21" s="119" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="126" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="172" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="34" t="s">
+      <c r="K21" s="110"/>
+      <c r="L21" s="114" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="117" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="110" t="s">
+        <v>279</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="91">
-        <v>1</v>
-      </c>
-      <c r="G22" s="173">
+      <c r="F22" s="53">
+        <v>2</v>
+      </c>
+      <c r="G22" s="116">
+        <v>24500</v>
+      </c>
+      <c r="H22" s="53">
+        <v>1</v>
+      </c>
+      <c r="I22" s="53">
+        <v>2</v>
+      </c>
+      <c r="J22" s="230">
+        <f t="shared" si="1"/>
+        <v>49000</v>
+      </c>
+      <c r="K22" s="110"/>
+      <c r="L22" s="114" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="120" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="113"/>
+      <c r="D23" s="130" t="s">
+        <v>282</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="87">
+        <v>1</v>
+      </c>
+      <c r="G23" s="131">
         <v>40000</v>
       </c>
-      <c r="H22" s="118"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="172"/>
-      <c r="L22" s="175" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="17" t="s">
+      <c r="H23" s="113"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="133" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="103" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104" t="s">
+        <v>285</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="53">
-        <v>1</v>
-      </c>
-      <c r="G23" s="81">
+      <c r="F24" s="53">
+        <v>1</v>
+      </c>
+      <c r="G24" s="81">
         <v>45000</v>
       </c>
-      <c r="H23" s="53">
-        <v>1</v>
-      </c>
-      <c r="I23" s="53">
-        <v>1</v>
-      </c>
-      <c r="J23" s="93">
-        <f>G23*I23</f>
+      <c r="H24" s="53">
+        <v>1</v>
+      </c>
+      <c r="I24" s="53">
+        <v>1</v>
+      </c>
+      <c r="J24" s="89">
+        <f>G24*I24</f>
         <v>45000</v>
       </c>
-      <c r="K23" s="108"/>
-      <c r="L23" s="109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="176"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="176"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="176"/>
-      <c r="K24" s="176"/>
-      <c r="L24" s="176"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J25" s="11">
-        <f>SUM(J3:J23)</f>
-        <v>673120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="57" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="141" t="s">
+      <c r="K24" s="104"/>
+      <c r="L24" s="105" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J26" s="11">
+        <f>SUM(J3:J24)</f>
+        <v>722120</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="141" t="s">
+      <c r="C30" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="82" t="s">
+      <c r="D30" s="232" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="141" t="s">
+      <c r="F30" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="141" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" s="146" t="s">
+      <c r="G30" s="232" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="146" t="s">
+      <c r="I30" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="126" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="233" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="234" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="234" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="85">
+        <v>3</v>
+      </c>
+      <c r="G31" s="145">
+        <v>60</v>
+      </c>
+      <c r="H31" s="85">
+        <v>1</v>
+      </c>
+      <c r="I31" s="85">
+        <v>120</v>
+      </c>
+      <c r="J31" s="74">
+        <f>G31*I31</f>
+        <v>7200</v>
+      </c>
+      <c r="K31" s="35"/>
+      <c r="L31" s="235" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="236" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="237" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="76">
+        <v>1</v>
+      </c>
+      <c r="G32" s="238">
+        <v>3520</v>
+      </c>
+      <c r="H32" s="76">
+        <v>1</v>
+      </c>
+      <c r="I32" s="76">
+        <v>2</v>
+      </c>
+      <c r="J32" s="239">
+        <f>G32*I32</f>
+        <v>7040</v>
+      </c>
+      <c r="K32" s="36"/>
+      <c r="L32" s="240" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="241" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="223"/>
+      <c r="B36" s="224" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="224" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="224" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="224" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="224" t="s">
         <v>104</v>
       </c>
-      <c r="J29" s="146" t="s">
-        <v>105</v>
-      </c>
-      <c r="K29" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29" s="147" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="121" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="127" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="128" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="34" t="s">
+      <c r="H36" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="121" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="L36" s="242" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="192" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="192" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="91">
-        <v>3</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F37" s="192">
+        <v>2</v>
+      </c>
+      <c r="G37" s="192">
+        <v>1020</v>
+      </c>
+      <c r="H37" s="192">
+        <v>1</v>
+      </c>
+      <c r="I37" s="192">
+        <v>20</v>
+      </c>
+      <c r="J37" s="243">
+        <f>G37*I37</f>
+        <v>20400</v>
+      </c>
+      <c r="K37" s="35"/>
+      <c r="L37" s="193" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="192" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="192" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="192" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="192">
+        <v>1</v>
+      </c>
+      <c r="G38" s="192">
+        <v>130</v>
+      </c>
+      <c r="H38" s="192">
+        <v>100</v>
+      </c>
+      <c r="I38" s="192">
+        <v>100</v>
+      </c>
+      <c r="J38" s="243">
+        <f>G38*I38</f>
+        <v>13000</v>
+      </c>
+      <c r="K38" s="36"/>
+      <c r="L38" s="193" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="241" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="244"/>
+      <c r="D41" s="236"/>
+      <c r="E41" s="236"/>
+      <c r="F41" s="236"/>
+      <c r="G41" s="236"/>
+      <c r="H41" s="236"/>
+      <c r="I41" s="124">
+        <v>10</v>
+      </c>
+      <c r="J41" s="236"/>
+      <c r="K41" s="236"/>
+      <c r="L41" s="245"/>
+      <c r="M41" s="236"/>
+      <c r="N41" s="236"/>
+    </row>
+    <row r="42" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="246" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="246" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="246" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="246" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="91">
-        <v>1</v>
-      </c>
-      <c r="I30" s="91">
-        <v>120</v>
-      </c>
-      <c r="J30" s="84">
-        <f>G30*I30</f>
-        <v>7200</v>
-      </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="129" t="s">
-        <v>97</v>
-      </c>
-      <c r="M30" s="130" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="57" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="231" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="265"/>
-      <c r="B32" s="266" t="s">
+      <c r="H42" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="121" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="K42" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="L42" s="122" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="247" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="248" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="248" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="234">
+        <v>1</v>
+      </c>
+      <c r="G43" s="249">
+        <v>210</v>
+      </c>
+      <c r="H43" s="234">
+        <v>50</v>
+      </c>
+      <c r="I43" s="234">
+        <v>50</v>
+      </c>
+      <c r="J43" s="249">
+        <v>10500</v>
+      </c>
+      <c r="K43" s="35"/>
+      <c r="L43" s="235" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="250" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="251" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="251" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="252">
+        <v>1</v>
+      </c>
+      <c r="G44" s="252">
+        <v>210</v>
+      </c>
+      <c r="H44" s="252">
+        <v>10</v>
+      </c>
+      <c r="I44" s="252">
+        <v>10</v>
+      </c>
+      <c r="J44" s="253">
+        <v>2100</v>
+      </c>
+      <c r="K44" s="107"/>
+      <c r="L44" s="254" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="255" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="256"/>
+      <c r="D45" s="256" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="257">
+        <v>2</v>
+      </c>
+      <c r="G45" s="258">
+        <v>80</v>
+      </c>
+      <c r="H45" s="257">
+        <v>100</v>
+      </c>
+      <c r="I45" s="257">
+        <v>100</v>
+      </c>
+      <c r="J45" s="259">
+        <v>4000</v>
+      </c>
+      <c r="K45" s="36"/>
+      <c r="L45" s="260" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="236"/>
+      <c r="C46" s="261"/>
+      <c r="D46" s="262"/>
+      <c r="F46" s="261"/>
+      <c r="G46" s="236"/>
+      <c r="H46" s="263"/>
+      <c r="I46" s="236"/>
+      <c r="J46" s="236"/>
+      <c r="K46" s="263"/>
+    </row>
+    <row r="47" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="261"/>
+      <c r="D47" s="262"/>
+      <c r="F47" s="261"/>
+      <c r="G47" s="262"/>
+      <c r="H47" s="263"/>
+      <c r="I47" s="262"/>
+      <c r="J47" s="262"/>
+      <c r="K47" s="263"/>
+    </row>
+    <row r="48" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="266" t="s">
+      <c r="C48" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="266" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="266" t="s">
+      <c r="D48" s="232" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="106"/>
+      <c r="F48" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="267" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="133" t="s">
+      <c r="G48" s="232" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="133" t="s">
-        <v>104</v>
-      </c>
-      <c r="J32" s="133" t="s">
-        <v>105</v>
-      </c>
-      <c r="L32" s="147" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" s="231" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="234" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="234" t="s">
-        <v>275</v>
-      </c>
-      <c r="D33" s="234" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="34" t="s">
+      <c r="I48" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="J48" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="K48" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="L48" s="126" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B49" s="233" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="248" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="248" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="234">
-        <v>2</v>
-      </c>
-      <c r="G33" s="234">
-        <v>1020</v>
-      </c>
-      <c r="H33" s="234">
-        <v>1</v>
-      </c>
-      <c r="I33" s="234">
+      <c r="F49" s="234">
+        <v>1</v>
+      </c>
+      <c r="G49" s="265">
+        <v>270</v>
+      </c>
+      <c r="H49" s="234"/>
+      <c r="I49" s="234">
         <v>20</v>
       </c>
-      <c r="J33" s="84">
-        <f>G33*I33</f>
-        <v>20400</v>
-      </c>
-      <c r="L33" s="235" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" s="231" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="234" t="s">
-        <v>277</v>
-      </c>
-      <c r="C34" s="234" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="234" t="s">
-        <v>278</v>
-      </c>
-      <c r="E34" s="34" t="s">
+      <c r="J49" s="249">
+        <v>0</v>
+      </c>
+      <c r="K49" s="35"/>
+      <c r="L49" s="266" t="s">
+        <v>79</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B50" s="267" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="252" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="251" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="234">
-        <v>1</v>
-      </c>
-      <c r="G34" s="234">
-        <v>130</v>
-      </c>
-      <c r="H34" s="234">
-        <v>100</v>
-      </c>
-      <c r="I34" s="234">
-        <v>100</v>
-      </c>
-      <c r="J34" s="84">
-        <f>G34*I34</f>
-        <v>13000</v>
-      </c>
-      <c r="L34" s="235" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="280" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="141" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="141" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" s="146" t="s">
-        <v>5</v>
-      </c>
-      <c r="I36" s="146" t="s">
-        <v>104</v>
-      </c>
-      <c r="J36" s="146" t="s">
-        <v>105</v>
-      </c>
-      <c r="K36" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="L36" s="147" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="279" t="s">
-        <v>282</v>
-      </c>
-      <c r="C37" s="279" t="s">
-        <v>283</v>
-      </c>
-      <c r="D37" s="279" t="s">
-        <v>284</v>
-      </c>
-      <c r="E37" s="34" t="s">
+      <c r="F50" s="252">
+        <v>1</v>
+      </c>
+      <c r="G50" s="268">
+        <v>200</v>
+      </c>
+      <c r="H50" s="252">
+        <v>10</v>
+      </c>
+      <c r="I50" s="252">
+        <v>10</v>
+      </c>
+      <c r="J50" s="253">
+        <v>2000</v>
+      </c>
+      <c r="K50" s="107"/>
+      <c r="L50" s="254" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="269" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="257" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="256" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="91">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
-        <v>3520</v>
-      </c>
-      <c r="H37" s="91">
-        <v>1</v>
-      </c>
-      <c r="I37" s="91">
-        <v>2</v>
-      </c>
-      <c r="J37" s="84">
-        <f>G37*I37</f>
-        <v>7040</v>
-      </c>
-      <c r="K37" s="35"/>
-      <c r="L37" s="129" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="138"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="142">
+      <c r="F51" s="257">
+        <v>1</v>
+      </c>
+      <c r="G51" s="258">
+        <v>200</v>
+      </c>
+      <c r="H51" s="257">
         <v>10</v>
       </c>
-      <c r="J39" s="136"/>
-      <c r="K39" s="136"/>
-      <c r="L39" s="145"/>
-      <c r="M39" s="136"/>
-      <c r="N39" s="136"/>
-    </row>
-    <row r="40" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="131" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="131" t="s">
-        <v>102</v>
-      </c>
-      <c r="H40" s="133" t="s">
-        <v>5</v>
-      </c>
-      <c r="I40" s="133" t="s">
-        <v>104</v>
-      </c>
-      <c r="J40" s="133" t="s">
-        <v>105</v>
-      </c>
-      <c r="K40" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="L40" s="134" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="152" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="154" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="154" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="153">
-        <v>1</v>
-      </c>
-      <c r="G41" s="155">
-        <v>210</v>
-      </c>
-      <c r="H41" s="153">
-        <v>50</v>
-      </c>
-      <c r="I41" s="153">
-        <v>50</v>
-      </c>
-      <c r="J41" s="155">
-        <v>10500</v>
-      </c>
-      <c r="K41" s="35"/>
-      <c r="L41" s="132" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="157" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="158" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="158" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="140">
-        <v>1</v>
-      </c>
-      <c r="G42" s="140">
-        <v>210</v>
-      </c>
-      <c r="H42" s="140">
+      <c r="I51" s="257">
         <v>10</v>
       </c>
-      <c r="I42" s="140">
-        <v>10</v>
-      </c>
-      <c r="J42" s="143">
-        <v>2100</v>
-      </c>
-      <c r="K42" s="112"/>
-      <c r="L42" s="162" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="171" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="159"/>
-      <c r="D43" s="159" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="160">
-        <v>2</v>
-      </c>
-      <c r="G43" s="165">
-        <v>80</v>
-      </c>
-      <c r="H43" s="160">
-        <v>100</v>
-      </c>
-      <c r="I43" s="160">
-        <v>100</v>
-      </c>
-      <c r="J43" s="161">
-        <v>4000</v>
-      </c>
-      <c r="K43" s="36"/>
-      <c r="L43" s="163" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="136"/>
-      <c r="C44" s="144"/>
-      <c r="D44" s="149"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="136"/>
-      <c r="J44" s="136"/>
-      <c r="K44" s="148"/>
-    </row>
-    <row r="45" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="151" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="144"/>
-      <c r="D45" s="149"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="149"/>
-      <c r="J45" s="149"/>
-      <c r="K45" s="148"/>
-    </row>
-    <row r="46" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="141" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46" s="146" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="146" t="s">
-        <v>104</v>
-      </c>
-      <c r="J46" s="146" t="s">
-        <v>105</v>
-      </c>
-      <c r="K46" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="L46" s="147" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="170" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="154" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="154" t="s">
-        <v>120</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="153">
-        <v>1</v>
-      </c>
-      <c r="G47" s="167">
-        <v>270</v>
-      </c>
-      <c r="H47" s="153"/>
-      <c r="I47" s="153">
-        <v>20</v>
-      </c>
-      <c r="J47" s="155">
-        <v>0</v>
-      </c>
-      <c r="K47" s="35"/>
-      <c r="L47" s="168" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="169" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="140" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" s="158" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="140">
-        <v>1</v>
-      </c>
-      <c r="G48" s="164">
-        <v>200</v>
-      </c>
-      <c r="H48" s="140">
-        <v>10</v>
-      </c>
-      <c r="I48" s="140">
-        <v>10</v>
-      </c>
-      <c r="J48" s="143">
+      <c r="J51" s="259">
         <v>2000</v>
       </c>
-      <c r="K48" s="112"/>
-      <c r="L48" s="162" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="160" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="159" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="160">
-        <v>1</v>
-      </c>
-      <c r="G49" s="165">
-        <v>200</v>
-      </c>
-      <c r="H49" s="160">
-        <v>10</v>
-      </c>
-      <c r="I49" s="160">
-        <v>10</v>
-      </c>
-      <c r="J49" s="161">
-        <v>2000</v>
-      </c>
-      <c r="K49" s="36"/>
-      <c r="L49" s="163" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J50" s="268">
-        <f>SUM(J29:J49)</f>
+      <c r="K51" s="36"/>
+      <c r="L51" s="260" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J52" s="5">
+        <f>SUM(J30:J51)</f>
         <v>68240</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J52" s="11">
-        <f>J25+J50</f>
-        <v>741360</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J53" s="120">
-        <f>J52*0.1</f>
-        <v>74136</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J54" s="124">
-        <f>SUM(J52:J53)</f>
-        <v>815496</v>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J54" s="11">
+        <f>J26+J52</f>
+        <v>790360</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J55" s="115">
+        <f>J54*0.1</f>
+        <v>79036</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J56" s="118">
+        <f>SUM(J54:J55)</f>
+        <v>869396</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>

--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -8,20 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="개발비" sheetId="7" r:id="rId1"/>
-    <sheet name="부품 구입비" sheetId="9" r:id="rId2"/>
-    <sheet name="Transformer" sheetId="1" r:id="rId3"/>
-    <sheet name="0314" sheetId="8" r:id="rId4"/>
-    <sheet name="0403" sheetId="10" r:id="rId5"/>
+    <sheet name="작업비" sheetId="11" r:id="rId2"/>
+    <sheet name="부품 구입비" sheetId="9" r:id="rId3"/>
+    <sheet name="Transformer" sheetId="1" r:id="rId4"/>
+    <sheet name="0314" sheetId="8" r:id="rId5"/>
+    <sheet name="0403" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3">'0314'!$B$4:$F$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4">'0314'!$B$4:$F$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="318">
   <si>
     <t>Vendor</t>
   </si>
@@ -1131,18 +1132,95 @@
     <t>실험실에서 사용할 장비 및 Pipette 관련 추가 부품</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>부자재</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>수삽</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>소계</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업내용</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>이윤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>제이엘텍</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal mask</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample용 견적</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품비</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF Generator MCU Board</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;?_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="181" formatCode="0\ &quot;%&quot;"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -2300,7 +2378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -2901,36 +2979,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="78" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="26" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3316,8 +3434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3342,28 +3460,28 @@
     </row>
     <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="272" t="s">
+      <c r="B9" s="275" t="s">
         <v>97</v>
       </c>
       <c r="C9" s="273"/>
-      <c r="D9" s="276" t="s">
+      <c r="D9" s="270" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="276"/>
-      <c r="F9" s="276"/>
+      <c r="E9" s="270"/>
+      <c r="F9" s="270"/>
       <c r="G9" s="273" t="s">
         <v>91</v>
       </c>
       <c r="H9" s="273" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="277" t="s">
+      <c r="I9" s="271" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:14" s="141" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="274"/>
-      <c r="C10" s="275"/>
+      <c r="B10" s="277"/>
+      <c r="C10" s="274"/>
       <c r="D10" s="142" t="s">
         <v>88</v>
       </c>
@@ -3373,24 +3491,24 @@
       <c r="F10" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="275"/>
-      <c r="H10" s="275"/>
-      <c r="I10" s="278"/>
+      <c r="G10" s="274"/>
+      <c r="H10" s="274"/>
+      <c r="I10" s="272"/>
     </row>
     <row r="11" spans="2:14" s="141" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="270" t="s">
+      <c r="B11" s="278" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="271"/>
+      <c r="C11" s="279"/>
       <c r="D11" s="144">
         <v>0.25</v>
       </c>
       <c r="E11" s="23">
-        <f t="shared" ref="E11:E17" si="0">D11*20</f>
+        <f>D11*20</f>
         <v>5</v>
       </c>
       <c r="F11" s="23">
-        <f t="shared" ref="F11:F17" si="1">E11*3</f>
+        <f>E11*3</f>
         <v>15</v>
       </c>
       <c r="G11" s="145">
@@ -3400,12 +3518,12 @@
         <v>0.8</v>
       </c>
       <c r="I11" s="146">
-        <f t="shared" ref="I11:I17" si="2">F11*G11*H11</f>
+        <f>F11*G11*H11</f>
         <v>360000</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="272" t="s">
+      <c r="B12" s="275" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="143" t="s">
@@ -3415,11 +3533,11 @@
         <v>1.5</v>
       </c>
       <c r="E12" s="23">
-        <f t="shared" si="0"/>
+        <f>D12*20</f>
         <v>30</v>
       </c>
       <c r="F12" s="23">
-        <f t="shared" si="1"/>
+        <f>E12*3</f>
         <v>90</v>
       </c>
       <c r="G12" s="145">
@@ -3429,7 +3547,7 @@
         <v>0.8</v>
       </c>
       <c r="I12" s="146">
-        <f t="shared" si="2"/>
+        <f>F12*G12*H12</f>
         <v>2160000</v>
       </c>
       <c r="K12" s="5"/>
@@ -3446,7 +3564,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="279"/>
+      <c r="B13" s="276"/>
       <c r="C13" s="147" t="s">
         <v>93</v>
       </c>
@@ -3454,11 +3572,11 @@
         <v>0.5</v>
       </c>
       <c r="E13" s="19">
-        <f t="shared" si="0"/>
+        <f>D13*20</f>
         <v>10</v>
       </c>
       <c r="F13" s="19">
-        <f t="shared" si="1"/>
+        <f>E13*3</f>
         <v>30</v>
       </c>
       <c r="G13" s="3">
@@ -3468,12 +3586,12 @@
         <v>0.8</v>
       </c>
       <c r="I13" s="149">
-        <f t="shared" si="2"/>
+        <f>F13*G13*H13</f>
         <v>720000</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="274"/>
+      <c r="B14" s="277"/>
       <c r="C14" s="150" t="s">
         <v>94</v>
       </c>
@@ -3481,11 +3599,11 @@
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
+        <f>D14*20</f>
         <v>20</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
+        <f>E14*3</f>
         <v>60</v>
       </c>
       <c r="G14" s="4">
@@ -3495,12 +3613,12 @@
         <v>0.8</v>
       </c>
       <c r="I14" s="152">
-        <f t="shared" si="2"/>
+        <f>F14*G14*H14</f>
         <v>1440000</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="272" t="s">
+      <c r="B15" s="275" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="143" t="s">
@@ -3510,11 +3628,11 @@
         <v>4</v>
       </c>
       <c r="E15" s="23">
-        <f t="shared" si="0"/>
+        <f>D15*20</f>
         <v>80</v>
       </c>
       <c r="F15" s="23">
-        <f t="shared" si="1"/>
+        <f>E15*3</f>
         <v>240</v>
       </c>
       <c r="G15" s="145">
@@ -3524,12 +3642,12 @@
         <v>0.8</v>
       </c>
       <c r="I15" s="146">
-        <f t="shared" si="2"/>
+        <f>F15*G15*H15</f>
         <v>5760000</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="279"/>
+      <c r="B16" s="276"/>
       <c r="C16" s="147" t="s">
         <v>93</v>
       </c>
@@ -3537,11 +3655,11 @@
         <v>0</v>
       </c>
       <c r="E16" s="19">
-        <f t="shared" si="0"/>
+        <f>D16*20</f>
         <v>0</v>
       </c>
       <c r="F16" s="19">
-        <f t="shared" si="1"/>
+        <f>E16*3</f>
         <v>0</v>
       </c>
       <c r="G16" s="3">
@@ -3551,12 +3669,12 @@
         <v>0.8</v>
       </c>
       <c r="I16" s="149">
-        <f t="shared" si="2"/>
+        <f>F16*G16*H16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="274"/>
+      <c r="B17" s="277"/>
       <c r="C17" s="150" t="s">
         <v>94</v>
       </c>
@@ -3564,11 +3682,11 @@
         <v>0.5</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
+        <f>D17*20</f>
         <v>10</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
+        <f>E17*3</f>
         <v>30</v>
       </c>
       <c r="G17" s="4">
@@ -3578,7 +3696,7 @@
         <v>0.8</v>
       </c>
       <c r="I17" s="152">
-        <f t="shared" si="2"/>
+        <f>F17*G17*H17</f>
         <v>720000</v>
       </c>
     </row>
@@ -3600,28 +3718,28 @@
     </row>
     <row r="21" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="272" t="s">
+      <c r="B22" s="275" t="s">
         <v>97</v>
       </c>
       <c r="C22" s="273"/>
-      <c r="D22" s="276" t="s">
+      <c r="D22" s="270" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="276"/>
-      <c r="F22" s="276"/>
+      <c r="E22" s="270"/>
+      <c r="F22" s="270"/>
       <c r="G22" s="273" t="s">
         <v>91</v>
       </c>
       <c r="H22" s="273" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="277" t="s">
+      <c r="I22" s="271" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="274"/>
-      <c r="C23" s="275"/>
+      <c r="B23" s="277"/>
+      <c r="C23" s="274"/>
       <c r="D23" s="142" t="s">
         <v>88</v>
       </c>
@@ -3631,15 +3749,15 @@
       <c r="F23" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="275"/>
-      <c r="H23" s="275"/>
-      <c r="I23" s="278"/>
+      <c r="G23" s="274"/>
+      <c r="H23" s="274"/>
+      <c r="I23" s="272"/>
     </row>
     <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="270" t="s">
+      <c r="B24" s="278" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="271"/>
+      <c r="C24" s="279"/>
       <c r="D24" s="153">
         <v>1</v>
       </c>
@@ -3664,28 +3782,28 @@
     </row>
     <row r="26" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="272" t="s">
+      <c r="B27" s="275" t="s">
         <v>97</v>
       </c>
       <c r="C27" s="273"/>
-      <c r="D27" s="276" t="s">
+      <c r="D27" s="270" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="276"/>
-      <c r="F27" s="276"/>
+      <c r="E27" s="270"/>
+      <c r="F27" s="270"/>
       <c r="G27" s="273" t="s">
         <v>91</v>
       </c>
       <c r="H27" s="273" t="s">
         <v>92</v>
       </c>
-      <c r="I27" s="277" t="s">
+      <c r="I27" s="271" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="274"/>
-      <c r="C28" s="275"/>
+      <c r="B28" s="277"/>
+      <c r="C28" s="274"/>
       <c r="D28" s="142" t="s">
         <v>88</v>
       </c>
@@ -3695,15 +3813,15 @@
       <c r="F28" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="275"/>
-      <c r="H28" s="275"/>
-      <c r="I28" s="278"/>
+      <c r="G28" s="274"/>
+      <c r="H28" s="274"/>
+      <c r="I28" s="272"/>
     </row>
     <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="270" t="s">
+      <c r="B29" s="278" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="271"/>
+      <c r="C29" s="279"/>
       <c r="D29" s="153">
         <v>3</v>
       </c>
@@ -3744,12 +3862,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
@@ -3759,23 +3876,494 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B9:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="57"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="57" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="H2" s="57"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="57" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="292" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="293" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="293" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="294" t="s">
+        <v>304</v>
+      </c>
+      <c r="H5" s="292" t="s">
+        <v>306</v>
+      </c>
+      <c r="I5" s="293" t="s">
+        <v>302</v>
+      </c>
+      <c r="J5" s="293" t="s">
+        <v>303</v>
+      </c>
+      <c r="K5" s="294" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="289" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="145">
+        <v>169</v>
+      </c>
+      <c r="E6" s="145">
+        <v>630</v>
+      </c>
+      <c r="F6" s="216">
+        <f>D6*E6</f>
+        <v>106470</v>
+      </c>
+      <c r="H6" s="289" t="s">
+        <v>300</v>
+      </c>
+      <c r="I6" s="145">
+        <v>169</v>
+      </c>
+      <c r="J6" s="145">
+        <v>500</v>
+      </c>
+      <c r="K6" s="216">
+        <f>I6*J6</f>
+        <v>84500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="290" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="281">
+        <v>15</v>
+      </c>
+      <c r="E7" s="283" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="282">
+        <f>F6*D7/100</f>
+        <v>15970.5</v>
+      </c>
+      <c r="H7" s="290" t="s">
+        <v>299</v>
+      </c>
+      <c r="I7" s="281">
+        <v>15</v>
+      </c>
+      <c r="J7" s="283" t="s">
+        <v>309</v>
+      </c>
+      <c r="K7" s="282">
+        <f>K6*I7/100</f>
+        <v>12675</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="291" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="284">
+        <v>15</v>
+      </c>
+      <c r="E8" s="285" t="s">
+        <v>310</v>
+      </c>
+      <c r="F8" s="286">
+        <f>F6*D8/100</f>
+        <v>15970.5</v>
+      </c>
+      <c r="H8" s="291" t="s">
+        <v>311</v>
+      </c>
+      <c r="I8" s="284">
+        <v>0</v>
+      </c>
+      <c r="J8" s="285" t="s">
+        <v>310</v>
+      </c>
+      <c r="K8" s="286">
+        <f>K6*I8/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="278" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" s="279"/>
+      <c r="E9" s="279"/>
+      <c r="F9" s="297">
+        <f>SUM(F6:F8)</f>
+        <v>138411</v>
+      </c>
+      <c r="H9" s="278" t="s">
+        <v>305</v>
+      </c>
+      <c r="I9" s="279"/>
+      <c r="J9" s="279"/>
+      <c r="K9" s="297">
+        <f>SUM(K6:K8)</f>
+        <v>97175</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="295" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" s="296" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" s="295" t="s">
+        <v>306</v>
+      </c>
+      <c r="I11" s="296" t="s">
+        <v>307</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="298" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="145">
+        <v>4</v>
+      </c>
+      <c r="E12" s="145">
+        <f>F9</f>
+        <v>138411</v>
+      </c>
+      <c r="F12" s="100">
+        <f>D12*E12</f>
+        <v>553644</v>
+      </c>
+      <c r="H12" s="298" t="s">
+        <v>300</v>
+      </c>
+      <c r="I12" s="145">
+        <v>4</v>
+      </c>
+      <c r="J12" s="145">
+        <f>K9</f>
+        <v>97175</v>
+      </c>
+      <c r="K12" s="100">
+        <f>I12*J12</f>
+        <v>388700</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="291" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="299">
+        <f>D13*E13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="291" t="s">
+        <v>316</v>
+      </c>
+      <c r="I13" s="4">
+        <v>4</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="299">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="278" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="279"/>
+      <c r="E14" s="287">
+        <f>F12</f>
+        <v>553644</v>
+      </c>
+      <c r="F14" s="288"/>
+      <c r="H14" s="278" t="s">
+        <v>308</v>
+      </c>
+      <c r="I14" s="279"/>
+      <c r="J14" s="287">
+        <f>K12</f>
+        <v>388700</v>
+      </c>
+      <c r="K14" s="288"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="280"/>
+      <c r="D15" s="280"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="292" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" s="293" t="s">
+        <v>302</v>
+      </c>
+      <c r="E18" s="293" t="s">
+        <v>303</v>
+      </c>
+      <c r="F18" s="294" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="289" t="s">
+        <v>313</v>
+      </c>
+      <c r="D19" s="145">
+        <v>37</v>
+      </c>
+      <c r="E19" s="145">
+        <v>670</v>
+      </c>
+      <c r="F19" s="216">
+        <f>D19*E19</f>
+        <v>24790</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="290" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="281">
+        <v>15</v>
+      </c>
+      <c r="E20" s="283" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" s="282">
+        <f>F19*D20/100</f>
+        <v>3718.5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="291" t="s">
+        <v>311</v>
+      </c>
+      <c r="D21" s="284">
+        <v>15</v>
+      </c>
+      <c r="E21" s="285" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21" s="286">
+        <f>F19*D21/100</f>
+        <v>3718.5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="278" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="279"/>
+      <c r="E22" s="279"/>
+      <c r="F22" s="297">
+        <f>SUM(F19:F21)</f>
+        <v>32227</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="295" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" s="296" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="298" t="s">
+        <v>300</v>
+      </c>
+      <c r="D25" s="145">
+        <v>4</v>
+      </c>
+      <c r="E25" s="145">
+        <f>F22</f>
+        <v>32227</v>
+      </c>
+      <c r="F25" s="100">
+        <f>D25*E25</f>
+        <v>128908</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="291" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>110000</v>
+      </c>
+      <c r="F26" s="299">
+        <f>D26*E26</f>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="291" t="s">
+        <v>316</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="299">
+        <f>D27*E27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="57"/>
+    </row>
+    <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="278" t="s">
+        <v>308</v>
+      </c>
+      <c r="D28" s="279"/>
+      <c r="E28" s="287">
+        <f>SUM(F25:F27)</f>
+        <v>238908</v>
+      </c>
+      <c r="F28" s="288"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3958,7 +4546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K32"/>
   <sheetViews>
@@ -4611,7 +5199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
@@ -5928,7 +6516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>

--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="개발비" sheetId="7" r:id="rId1"/>
@@ -13,16 +13,17 @@
     <sheet name="Transformer" sheetId="1" r:id="rId4"/>
     <sheet name="0314" sheetId="8" r:id="rId5"/>
     <sheet name="0403" sheetId="10" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">'0314'!$B$4:$F$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="333">
   <si>
     <t>Vendor</t>
   </si>
@@ -1208,6 +1209,66 @@
     <t>LF Generator MCU Board</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>NETmate DVI-D 싱글링크 케이블 1.8M</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NETMATE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HIPPO 6구 접지 멀티탭 멀티탭 - 기본 1.5M </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HIPPO 6구 접지 멀티탭 멀티탭 - 3M </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIPPO</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>KFT HT-5023 스트리퍼 (AWG20~30)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">KFT </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P001415029</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이스트 [135-0805]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P008012287</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>정전기매트 120cm*1M</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P000119604</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P007311227 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P000147079 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험실 물품 구매</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1220,7 +1281,7 @@
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="0.0"/>
-    <numFmt numFmtId="181" formatCode="0\ &quot;%&quot;"/>
+    <numFmt numFmtId="180" formatCode="0\ &quot;%&quot;"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -2378,7 +2439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -2979,55 +3040,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="78" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3049,6 +3071,48 @@
     <xf numFmtId="41" fontId="26" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3188,7 +3252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3223,7 +3287,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3460,28 +3524,28 @@
     </row>
     <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="275" t="s">
+      <c r="B9" s="289" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="273"/>
-      <c r="D9" s="270" t="s">
+      <c r="C9" s="290"/>
+      <c r="D9" s="293" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="270"/>
-      <c r="F9" s="270"/>
-      <c r="G9" s="273" t="s">
+      <c r="E9" s="293"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="290" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="273" t="s">
+      <c r="H9" s="290" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="271" t="s">
+      <c r="I9" s="294" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:14" s="141" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="277"/>
-      <c r="C10" s="274"/>
+      <c r="B10" s="291"/>
+      <c r="C10" s="292"/>
       <c r="D10" s="142" t="s">
         <v>88</v>
       </c>
@@ -3491,24 +3555,24 @@
       <c r="F10" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="274"/>
-      <c r="H10" s="274"/>
-      <c r="I10" s="272"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="295"/>
     </row>
     <row r="11" spans="2:14" s="141" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="278" t="s">
+      <c r="B11" s="287" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="279"/>
+      <c r="C11" s="288"/>
       <c r="D11" s="144">
         <v>0.25</v>
       </c>
       <c r="E11" s="23">
-        <f>D11*20</f>
+        <f t="shared" ref="E11:E17" si="0">D11*20</f>
         <v>5</v>
       </c>
       <c r="F11" s="23">
-        <f>E11*3</f>
+        <f t="shared" ref="F11:F17" si="1">E11*3</f>
         <v>15</v>
       </c>
       <c r="G11" s="145">
@@ -3518,12 +3582,12 @@
         <v>0.8</v>
       </c>
       <c r="I11" s="146">
-        <f>F11*G11*H11</f>
+        <f t="shared" ref="I11:I17" si="2">F11*G11*H11</f>
         <v>360000</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="275" t="s">
+      <c r="B12" s="289" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="143" t="s">
@@ -3533,11 +3597,11 @@
         <v>1.5</v>
       </c>
       <c r="E12" s="23">
-        <f>D12*20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F12" s="23">
-        <f>E12*3</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G12" s="145">
@@ -3547,7 +3611,7 @@
         <v>0.8</v>
       </c>
       <c r="I12" s="146">
-        <f>F12*G12*H12</f>
+        <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
       <c r="K12" s="5"/>
@@ -3564,7 +3628,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="276"/>
+      <c r="B13" s="296"/>
       <c r="C13" s="147" t="s">
         <v>93</v>
       </c>
@@ -3572,11 +3636,11 @@
         <v>0.5</v>
       </c>
       <c r="E13" s="19">
-        <f>D13*20</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F13" s="19">
-        <f>E13*3</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="G13" s="3">
@@ -3586,12 +3650,12 @@
         <v>0.8</v>
       </c>
       <c r="I13" s="149">
-        <f>F13*G13*H13</f>
+        <f t="shared" si="2"/>
         <v>720000</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="277"/>
+      <c r="B14" s="291"/>
       <c r="C14" s="150" t="s">
         <v>94</v>
       </c>
@@ -3599,11 +3663,11 @@
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <f>D14*20</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F14" s="2">
-        <f>E14*3</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="G14" s="4">
@@ -3613,12 +3677,12 @@
         <v>0.8</v>
       </c>
       <c r="I14" s="152">
-        <f>F14*G14*H14</f>
+        <f t="shared" si="2"/>
         <v>1440000</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="275" t="s">
+      <c r="B15" s="289" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="143" t="s">
@@ -3628,11 +3692,11 @@
         <v>4</v>
       </c>
       <c r="E15" s="23">
-        <f>D15*20</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="F15" s="23">
-        <f>E15*3</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="G15" s="145">
@@ -3642,12 +3706,12 @@
         <v>0.8</v>
       </c>
       <c r="I15" s="146">
-        <f>F15*G15*H15</f>
+        <f t="shared" si="2"/>
         <v>5760000</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="276"/>
+      <c r="B16" s="296"/>
       <c r="C16" s="147" t="s">
         <v>93</v>
       </c>
@@ -3655,11 +3719,11 @@
         <v>0</v>
       </c>
       <c r="E16" s="19">
-        <f>D16*20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="19">
-        <f>E16*3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="3">
@@ -3669,12 +3733,12 @@
         <v>0.8</v>
       </c>
       <c r="I16" s="149">
-        <f>F16*G16*H16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="277"/>
+      <c r="B17" s="291"/>
       <c r="C17" s="150" t="s">
         <v>94</v>
       </c>
@@ -3682,11 +3746,11 @@
         <v>0.5</v>
       </c>
       <c r="E17" s="2">
-        <f>D17*20</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F17" s="2">
-        <f>E17*3</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="G17" s="4">
@@ -3696,7 +3760,7 @@
         <v>0.8</v>
       </c>
       <c r="I17" s="152">
-        <f>F17*G17*H17</f>
+        <f t="shared" si="2"/>
         <v>720000</v>
       </c>
     </row>
@@ -3718,28 +3782,28 @@
     </row>
     <row r="21" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="275" t="s">
+      <c r="B22" s="289" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="273"/>
-      <c r="D22" s="270" t="s">
+      <c r="C22" s="290"/>
+      <c r="D22" s="293" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="270"/>
-      <c r="F22" s="270"/>
-      <c r="G22" s="273" t="s">
+      <c r="E22" s="293"/>
+      <c r="F22" s="293"/>
+      <c r="G22" s="290" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="273" t="s">
+      <c r="H22" s="290" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="271" t="s">
+      <c r="I22" s="294" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="277"/>
-      <c r="C23" s="274"/>
+      <c r="B23" s="291"/>
+      <c r="C23" s="292"/>
       <c r="D23" s="142" t="s">
         <v>88</v>
       </c>
@@ -3749,15 +3813,15 @@
       <c r="F23" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="274"/>
-      <c r="H23" s="274"/>
-      <c r="I23" s="272"/>
+      <c r="G23" s="292"/>
+      <c r="H23" s="292"/>
+      <c r="I23" s="295"/>
     </row>
     <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="278" t="s">
+      <c r="B24" s="287" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="279"/>
+      <c r="C24" s="288"/>
       <c r="D24" s="153">
         <v>1</v>
       </c>
@@ -3782,28 +3846,28 @@
     </row>
     <row r="26" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="275" t="s">
+      <c r="B27" s="289" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="273"/>
-      <c r="D27" s="270" t="s">
+      <c r="C27" s="290"/>
+      <c r="D27" s="293" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="270"/>
-      <c r="F27" s="270"/>
-      <c r="G27" s="273" t="s">
+      <c r="E27" s="293"/>
+      <c r="F27" s="293"/>
+      <c r="G27" s="290" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="273" t="s">
+      <c r="H27" s="290" t="s">
         <v>92</v>
       </c>
-      <c r="I27" s="271" t="s">
+      <c r="I27" s="294" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="277"/>
-      <c r="C28" s="274"/>
+      <c r="B28" s="291"/>
+      <c r="C28" s="292"/>
       <c r="D28" s="142" t="s">
         <v>88</v>
       </c>
@@ -3813,15 +3877,15 @@
       <c r="F28" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="274"/>
-      <c r="H28" s="274"/>
-      <c r="I28" s="272"/>
+      <c r="G28" s="292"/>
+      <c r="H28" s="292"/>
+      <c r="I28" s="295"/>
     </row>
     <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="278" t="s">
+      <c r="B29" s="287" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="279"/>
+      <c r="C29" s="288"/>
       <c r="D29" s="153">
         <v>3</v>
       </c>
@@ -3862,11 +3926,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B9:C10"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
@@ -3876,12 +3941,11 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3893,7 +3957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -3936,33 +4000,33 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="292" t="s">
+      <c r="C5" s="279" t="s">
         <v>306</v>
       </c>
-      <c r="D5" s="293" t="s">
+      <c r="D5" s="280" t="s">
         <v>302</v>
       </c>
-      <c r="E5" s="293" t="s">
+      <c r="E5" s="280" t="s">
         <v>303</v>
       </c>
-      <c r="F5" s="294" t="s">
+      <c r="F5" s="281" t="s">
         <v>304</v>
       </c>
-      <c r="H5" s="292" t="s">
+      <c r="H5" s="279" t="s">
         <v>306</v>
       </c>
-      <c r="I5" s="293" t="s">
+      <c r="I5" s="280" t="s">
         <v>302</v>
       </c>
-      <c r="J5" s="293" t="s">
+      <c r="J5" s="280" t="s">
         <v>303</v>
       </c>
-      <c r="K5" s="294" t="s">
+      <c r="K5" s="281" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="289" t="s">
+      <c r="C6" s="276" t="s">
         <v>300</v>
       </c>
       <c r="D6" s="145">
@@ -3975,7 +4039,7 @@
         <f>D6*E6</f>
         <v>106470</v>
       </c>
-      <c r="H6" s="289" t="s">
+      <c r="H6" s="276" t="s">
         <v>300</v>
       </c>
       <c r="I6" s="145">
@@ -3990,77 +4054,77 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="277" t="s">
         <v>299</v>
       </c>
-      <c r="D7" s="281">
+      <c r="D7" s="270">
         <v>15</v>
       </c>
-      <c r="E7" s="283" t="s">
+      <c r="E7" s="272" t="s">
         <v>309</v>
       </c>
-      <c r="F7" s="282">
+      <c r="F7" s="271">
         <f>F6*D7/100</f>
         <v>15970.5</v>
       </c>
-      <c r="H7" s="290" t="s">
+      <c r="H7" s="277" t="s">
         <v>299</v>
       </c>
-      <c r="I7" s="281">
+      <c r="I7" s="270">
         <v>15</v>
       </c>
-      <c r="J7" s="283" t="s">
+      <c r="J7" s="272" t="s">
         <v>309</v>
       </c>
-      <c r="K7" s="282">
+      <c r="K7" s="271">
         <f>K6*I7/100</f>
         <v>12675</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="291" t="s">
+      <c r="C8" s="278" t="s">
         <v>311</v>
       </c>
-      <c r="D8" s="284">
+      <c r="D8" s="273">
         <v>15</v>
       </c>
-      <c r="E8" s="285" t="s">
+      <c r="E8" s="274" t="s">
         <v>310</v>
       </c>
-      <c r="F8" s="286">
+      <c r="F8" s="275">
         <f>F6*D8/100</f>
         <v>15970.5</v>
       </c>
-      <c r="H8" s="291" t="s">
+      <c r="H8" s="278" t="s">
         <v>311</v>
       </c>
-      <c r="I8" s="284">
+      <c r="I8" s="273">
         <v>0</v>
       </c>
-      <c r="J8" s="285" t="s">
+      <c r="J8" s="274" t="s">
         <v>310</v>
       </c>
-      <c r="K8" s="286">
+      <c r="K8" s="275">
         <f>K6*I8/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="278" t="s">
+      <c r="C9" s="287" t="s">
         <v>305</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="297">
+      <c r="D9" s="288"/>
+      <c r="E9" s="288"/>
+      <c r="F9" s="284">
         <f>SUM(F6:F8)</f>
         <v>138411</v>
       </c>
-      <c r="H9" s="278" t="s">
+      <c r="H9" s="287" t="s">
         <v>305</v>
       </c>
-      <c r="I9" s="279"/>
-      <c r="J9" s="279"/>
-      <c r="K9" s="297">
+      <c r="I9" s="288"/>
+      <c r="J9" s="288"/>
+      <c r="K9" s="284">
         <f>SUM(K6:K8)</f>
         <v>97175</v>
       </c>
@@ -4074,10 +4138,10 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="295" t="s">
+      <c r="C11" s="282" t="s">
         <v>306</v>
       </c>
-      <c r="D11" s="296" t="s">
+      <c r="D11" s="283" t="s">
         <v>307</v>
       </c>
       <c r="E11" s="32" t="s">
@@ -4086,10 +4150,10 @@
       <c r="F11" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="H11" s="295" t="s">
+      <c r="H11" s="282" t="s">
         <v>306</v>
       </c>
-      <c r="I11" s="296" t="s">
+      <c r="I11" s="283" t="s">
         <v>307</v>
       </c>
       <c r="J11" s="32" t="s">
@@ -4100,7 +4164,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="298" t="s">
+      <c r="C12" s="285" t="s">
         <v>300</v>
       </c>
       <c r="D12" s="145">
@@ -4114,7 +4178,7 @@
         <f>D12*E12</f>
         <v>553644</v>
       </c>
-      <c r="H12" s="298" t="s">
+      <c r="H12" s="285" t="s">
         <v>300</v>
       </c>
       <c r="I12" s="145">
@@ -4130,7 +4194,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="291" t="s">
+      <c r="C13" s="278" t="s">
         <v>316</v>
       </c>
       <c r="D13" s="4">
@@ -4139,11 +4203,11 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="299">
+      <c r="F13" s="286">
         <f>D13*E13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="291" t="s">
+      <c r="H13" s="278" t="s">
         <v>316</v>
       </c>
       <c r="I13" s="4">
@@ -4152,34 +4216,34 @@
       <c r="J13" s="4">
         <v>0</v>
       </c>
-      <c r="K13" s="299">
+      <c r="K13" s="286">
         <f>I13*J13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="278" t="s">
+      <c r="C14" s="287" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="279"/>
-      <c r="E14" s="287">
+      <c r="D14" s="288"/>
+      <c r="E14" s="297">
         <f>F12</f>
         <v>553644</v>
       </c>
-      <c r="F14" s="288"/>
-      <c r="H14" s="278" t="s">
+      <c r="F14" s="298"/>
+      <c r="H14" s="287" t="s">
         <v>308</v>
       </c>
-      <c r="I14" s="279"/>
-      <c r="J14" s="287">
+      <c r="I14" s="288"/>
+      <c r="J14" s="297">
         <f>K12</f>
         <v>388700</v>
       </c>
-      <c r="K14" s="288"/>
+      <c r="K14" s="298"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="280"/>
-      <c r="D15" s="280"/>
+      <c r="C15" s="299"/>
+      <c r="D15" s="299"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
@@ -4194,21 +4258,21 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="292" t="s">
+      <c r="C18" s="279" t="s">
         <v>306</v>
       </c>
-      <c r="D18" s="293" t="s">
+      <c r="D18" s="280" t="s">
         <v>302</v>
       </c>
-      <c r="E18" s="293" t="s">
+      <c r="E18" s="280" t="s">
         <v>303</v>
       </c>
-      <c r="F18" s="294" t="s">
+      <c r="F18" s="281" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="289" t="s">
+      <c r="C19" s="276" t="s">
         <v>313</v>
       </c>
       <c r="D19" s="145">
@@ -4223,42 +4287,42 @@
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="290" t="s">
+      <c r="C20" s="277" t="s">
         <v>299</v>
       </c>
-      <c r="D20" s="281">
+      <c r="D20" s="270">
         <v>15</v>
       </c>
-      <c r="E20" s="283" t="s">
+      <c r="E20" s="272" t="s">
         <v>309</v>
       </c>
-      <c r="F20" s="282">
+      <c r="F20" s="271">
         <f>F19*D20/100</f>
         <v>3718.5</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="291" t="s">
+      <c r="C21" s="278" t="s">
         <v>311</v>
       </c>
-      <c r="D21" s="284">
+      <c r="D21" s="273">
         <v>15</v>
       </c>
-      <c r="E21" s="285" t="s">
+      <c r="E21" s="274" t="s">
         <v>310</v>
       </c>
-      <c r="F21" s="286">
+      <c r="F21" s="275">
         <f>F19*D21/100</f>
         <v>3718.5</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="278" t="s">
+      <c r="C22" s="287" t="s">
         <v>305</v>
       </c>
-      <c r="D22" s="279"/>
-      <c r="E22" s="279"/>
-      <c r="F22" s="297">
+      <c r="D22" s="288"/>
+      <c r="E22" s="288"/>
+      <c r="F22" s="284">
         <f>SUM(F19:F21)</f>
         <v>32227</v>
       </c>
@@ -4269,10 +4333,10 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="295" t="s">
+      <c r="C24" s="282" t="s">
         <v>306</v>
       </c>
-      <c r="D24" s="296" t="s">
+      <c r="D24" s="283" t="s">
         <v>307</v>
       </c>
       <c r="E24" s="32" t="s">
@@ -4283,7 +4347,7 @@
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="298" t="s">
+      <c r="C25" s="285" t="s">
         <v>300</v>
       </c>
       <c r="D25" s="145">
@@ -4299,7 +4363,7 @@
       </c>
     </row>
     <row r="26" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="291" t="s">
+      <c r="C26" s="278" t="s">
         <v>314</v>
       </c>
       <c r="D26" s="4">
@@ -4308,13 +4372,13 @@
       <c r="E26" s="4">
         <v>110000</v>
       </c>
-      <c r="F26" s="299">
+      <c r="F26" s="286">
         <f>D26*E26</f>
         <v>110000</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="291" t="s">
+      <c r="C27" s="278" t="s">
         <v>316</v>
       </c>
       <c r="D27" s="4">
@@ -4323,22 +4387,22 @@
       <c r="E27" s="4">
         <v>0</v>
       </c>
-      <c r="F27" s="299">
+      <c r="F27" s="286">
         <f>D27*E27</f>
         <v>0</v>
       </c>
       <c r="H27" s="57"/>
     </row>
     <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="278" t="s">
+      <c r="C28" s="287" t="s">
         <v>308</v>
       </c>
-      <c r="D28" s="279"/>
-      <c r="E28" s="287">
+      <c r="D28" s="288"/>
+      <c r="E28" s="297">
         <f>SUM(F25:F27)</f>
         <v>238908</v>
       </c>
-      <c r="F28" s="288"/>
+      <c r="F28" s="298"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6520,8 +6584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7846,4 +7910,326 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="41.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="57" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="225" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="226" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="J3" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="L3" s="83" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="98" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="300" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="23">
+        <v>1</v>
+      </c>
+      <c r="G4" s="145">
+        <v>8500</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23">
+        <v>1</v>
+      </c>
+      <c r="J4" s="40">
+        <f>G4*I4</f>
+        <v>8500</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="302" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="86" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="41">
+        <f t="shared" ref="J5:J9" si="0">G5*I5</f>
+        <v>6000</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="90" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="86" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19">
+        <v>1</v>
+      </c>
+      <c r="J6" s="41">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="90" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="102" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="301">
+        <v>7000</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="41">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="90" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="102" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2600</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19">
+        <v>1</v>
+      </c>
+      <c r="J8" s="41">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="90" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="102" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="301">
+        <v>22000</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19">
+        <v>2</v>
+      </c>
+      <c r="J9" s="41">
+        <f t="shared" si="0"/>
+        <v>44000</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="90" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="86"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="86"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="86"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="86"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="237"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="286"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J15" s="48">
+        <f>SUM(J4:J14)</f>
+        <v>76100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J16" s="115">
+        <f>J15*0.1</f>
+        <v>7610</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="50">
+        <f>J15+J16</f>
+        <v>83710</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">'0314'!$B$4:$F$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="334">
   <si>
     <t>Vendor</t>
   </si>
@@ -1186,10 +1186,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>제이엘텍</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>SMD</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1267,6 +1263,14 @@
   </si>
   <si>
     <t>실험실 물품 구매</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>제이엘텍 - Sample build 견적</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF GEN MCU 부품 구매</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3071,48 +3075,48 @@
     <xf numFmtId="41" fontId="26" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3252,7 +3256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3287,7 +3291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3524,28 +3528,28 @@
     </row>
     <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="289" t="s">
+      <c r="B9" s="295" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="290"/>
-      <c r="D9" s="293" t="s">
+      <c r="C9" s="293"/>
+      <c r="D9" s="290" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="290" t="s">
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="293" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="290" t="s">
+      <c r="H9" s="293" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="294" t="s">
+      <c r="I9" s="291" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:14" s="141" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="291"/>
-      <c r="C10" s="292"/>
+      <c r="B10" s="297"/>
+      <c r="C10" s="294"/>
       <c r="D10" s="142" t="s">
         <v>88</v>
       </c>
@@ -3555,15 +3559,15 @@
       <c r="F10" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="292"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="295"/>
+      <c r="G10" s="294"/>
+      <c r="H10" s="294"/>
+      <c r="I10" s="292"/>
     </row>
     <row r="11" spans="2:14" s="141" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="287" t="s">
+      <c r="B11" s="298" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="288"/>
+      <c r="C11" s="299"/>
       <c r="D11" s="144">
         <v>0.25</v>
       </c>
@@ -3587,7 +3591,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="289" t="s">
+      <c r="B12" s="295" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="143" t="s">
@@ -3655,7 +3659,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="291"/>
+      <c r="B14" s="297"/>
       <c r="C14" s="150" t="s">
         <v>94</v>
       </c>
@@ -3682,7 +3686,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="289" t="s">
+      <c r="B15" s="295" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="143" t="s">
@@ -3738,7 +3742,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="291"/>
+      <c r="B17" s="297"/>
       <c r="C17" s="150" t="s">
         <v>94</v>
       </c>
@@ -3782,28 +3786,28 @@
     </row>
     <row r="21" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="289" t="s">
+      <c r="B22" s="295" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="290"/>
-      <c r="D22" s="293" t="s">
+      <c r="C22" s="293"/>
+      <c r="D22" s="290" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="293"/>
-      <c r="F22" s="293"/>
-      <c r="G22" s="290" t="s">
+      <c r="E22" s="290"/>
+      <c r="F22" s="290"/>
+      <c r="G22" s="293" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="290" t="s">
+      <c r="H22" s="293" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="294" t="s">
+      <c r="I22" s="291" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="291"/>
-      <c r="C23" s="292"/>
+      <c r="B23" s="297"/>
+      <c r="C23" s="294"/>
       <c r="D23" s="142" t="s">
         <v>88</v>
       </c>
@@ -3813,15 +3817,15 @@
       <c r="F23" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="292"/>
-      <c r="H23" s="292"/>
-      <c r="I23" s="295"/>
+      <c r="G23" s="294"/>
+      <c r="H23" s="294"/>
+      <c r="I23" s="292"/>
     </row>
     <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="287" t="s">
+      <c r="B24" s="298" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="288"/>
+      <c r="C24" s="299"/>
       <c r="D24" s="153">
         <v>1</v>
       </c>
@@ -3846,28 +3850,28 @@
     </row>
     <row r="26" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="289" t="s">
+      <c r="B27" s="295" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="290"/>
-      <c r="D27" s="293" t="s">
+      <c r="C27" s="293"/>
+      <c r="D27" s="290" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="293"/>
-      <c r="F27" s="293"/>
-      <c r="G27" s="290" t="s">
+      <c r="E27" s="290"/>
+      <c r="F27" s="290"/>
+      <c r="G27" s="293" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="290" t="s">
+      <c r="H27" s="293" t="s">
         <v>92</v>
       </c>
-      <c r="I27" s="294" t="s">
+      <c r="I27" s="291" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="291"/>
-      <c r="C28" s="292"/>
+      <c r="B28" s="297"/>
+      <c r="C28" s="294"/>
       <c r="D28" s="142" t="s">
         <v>88</v>
       </c>
@@ -3877,15 +3881,15 @@
       <c r="F28" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="292"/>
-      <c r="H28" s="292"/>
-      <c r="I28" s="295"/>
+      <c r="G28" s="294"/>
+      <c r="H28" s="294"/>
+      <c r="I28" s="292"/>
     </row>
     <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="287" t="s">
+      <c r="B29" s="298" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="288"/>
+      <c r="C29" s="299"/>
       <c r="D29" s="153">
         <v>3</v>
       </c>
@@ -3926,12 +3930,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
@@ -3941,11 +3944,12 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B9:C10"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3958,7 +3962,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="C4" sqref="C4:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3975,7 +3979,7 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" s="57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3985,12 +3989,12 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="57" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="57" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="H4" s="57" t="s">
         <v>301</v>
@@ -4110,20 +4114,20 @@
       </c>
     </row>
     <row r="9" spans="2:11" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="298" t="s">
         <v>305</v>
       </c>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
       <c r="F9" s="284">
         <f>SUM(F6:F8)</f>
         <v>138411</v>
       </c>
-      <c r="H9" s="287" t="s">
+      <c r="H9" s="298" t="s">
         <v>305</v>
       </c>
-      <c r="I9" s="288"/>
-      <c r="J9" s="288"/>
+      <c r="I9" s="299"/>
+      <c r="J9" s="299"/>
       <c r="K9" s="284">
         <f>SUM(K6:K8)</f>
         <v>97175</v>
@@ -4195,7 +4199,7 @@
     </row>
     <row r="13" spans="2:11" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="278" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D13" s="4">
         <v>4</v>
@@ -4208,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="278" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I13" s="4">
         <v>4</v>
@@ -4222,28 +4226,28 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="287" t="s">
+      <c r="C14" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="288"/>
-      <c r="E14" s="297">
+      <c r="D14" s="299"/>
+      <c r="E14" s="300">
         <f>F12</f>
         <v>553644</v>
       </c>
-      <c r="F14" s="298"/>
-      <c r="H14" s="287" t="s">
+      <c r="F14" s="301"/>
+      <c r="H14" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="I14" s="288"/>
-      <c r="J14" s="297">
+      <c r="I14" s="299"/>
+      <c r="J14" s="300">
         <f>K12</f>
         <v>388700</v>
       </c>
-      <c r="K14" s="298"/>
+      <c r="K14" s="301"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="299"/>
-      <c r="D15" s="299"/>
+      <c r="C15" s="302"/>
+      <c r="D15" s="302"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
@@ -4273,17 +4277,17 @@
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="276" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D19" s="145">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E19" s="145">
         <v>670</v>
       </c>
       <c r="F19" s="216">
         <f>D19*E19</f>
-        <v>24790</v>
+        <v>34840</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
@@ -4298,7 +4302,7 @@
       </c>
       <c r="F20" s="271">
         <f>F19*D20/100</f>
-        <v>3718.5</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4313,18 +4317,18 @@
       </c>
       <c r="F21" s="275">
         <f>F19*D21/100</f>
-        <v>3718.5</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="287" t="s">
+      <c r="C22" s="298" t="s">
         <v>305</v>
       </c>
-      <c r="D22" s="288"/>
-      <c r="E22" s="288"/>
+      <c r="D22" s="299"/>
+      <c r="E22" s="299"/>
       <c r="F22" s="284">
         <f>SUM(F19:F21)</f>
-        <v>32227</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4347,24 +4351,24 @@
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="285" t="s">
-        <v>300</v>
+      <c r="C25" s="276" t="s">
+        <v>312</v>
       </c>
       <c r="D25" s="145">
         <v>4</v>
       </c>
       <c r="E25" s="145">
         <f>F22</f>
-        <v>32227</v>
+        <v>45292</v>
       </c>
       <c r="F25" s="100">
         <f>D25*E25</f>
-        <v>128908</v>
+        <v>181168</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="278" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -4379,7 +4383,7 @@
     </row>
     <row r="27" spans="3:8" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="278" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
@@ -4394,15 +4398,15 @@
       <c r="H27" s="57"/>
     </row>
     <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="287" t="s">
+      <c r="C28" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="D28" s="288"/>
-      <c r="E28" s="297">
+      <c r="D28" s="299"/>
+      <c r="E28" s="300">
         <f>SUM(F25:F27)</f>
-        <v>238908</v>
-      </c>
-      <c r="F28" s="298"/>
+        <v>291168</v>
+      </c>
+      <c r="F28" s="301"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4419,6 +4423,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7914,10 +7919,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L17"/>
+  <dimension ref="B2:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7931,7 +7936,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7971,13 +7976,13 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="98" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>319</v>
-      </c>
       <c r="D4" s="23"/>
-      <c r="E4" s="300" t="s">
+      <c r="E4" s="287" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="23">
@@ -7995,16 +8000,16 @@
         <v>8500</v>
       </c>
       <c r="K4" s="23"/>
-      <c r="L4" s="302" t="s">
-        <v>331</v>
+      <c r="L4" s="289" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="86" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -8026,15 +8031,15 @@
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="90" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="86" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>321</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>322</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -8056,15 +8061,15 @@
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="90" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="102" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>323</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>324</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -8073,7 +8078,7 @@
       <c r="F7" s="19">
         <v>1</v>
       </c>
-      <c r="G7" s="301">
+      <c r="G7" s="288">
         <v>7000</v>
       </c>
       <c r="H7" s="19"/>
@@ -8086,12 +8091,12 @@
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="90" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="102" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -8114,12 +8119,12 @@
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="90" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="102" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -8129,7 +8134,7 @@
       <c r="F9" s="19">
         <v>1</v>
       </c>
-      <c r="G9" s="301">
+      <c r="G9" s="288">
         <v>22000</v>
       </c>
       <c r="H9" s="19"/>
@@ -8142,7 +8147,7 @@
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="90" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -8222,10 +8227,50 @@
         <v>7610</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J17" s="50">
         <f>J15+J16</f>
         <v>83710</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="225" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="226" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="J20" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="L20" s="83" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
@@ -13,17 +13,17 @@
     <sheet name="Transformer" sheetId="1" r:id="rId4"/>
     <sheet name="0314" sheetId="8" r:id="rId5"/>
     <sheet name="0403" sheetId="10" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId7"/>
+    <sheet name="0409" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">'0314'!$B$4:$F$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="352">
   <si>
     <t>Vendor</t>
   </si>
@@ -1206,14 +1206,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>NETmate DVI-D 싱글링크 케이블 1.8M</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>NETMATE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">HIPPO 6구 접지 멀티탭 멀티탭 - 기본 1.5M </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1258,10 +1250,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">P000147079 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>실험실 물품 구매</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1272,6 +1260,69 @@
   <si>
     <t>LF GEN MCU 부품 구매</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEADER_2.54mm_2x5</t>
+  </si>
+  <si>
+    <t>Anyvendor</t>
+  </si>
+  <si>
+    <t>53047-0210</t>
+  </si>
+  <si>
+    <t>HEADER_2.0mm_2x20</t>
+  </si>
+  <si>
+    <t>YST-1502 SMD</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>ABS07AIG-32.768KHZ-6-D-T</t>
+  </si>
+  <si>
+    <t>ABRACON</t>
+  </si>
+  <si>
+    <t>ABM3-8.000MHZ-D2Y-T</t>
+  </si>
+  <si>
+    <t>2.54mm pitch 10-pin(2x5) Header L=11.5mm(1-molding)</t>
+  </si>
+  <si>
+    <t>1.25mm pitch CON 2-pin, Throgh hole  type</t>
+  </si>
+  <si>
+    <t>2.00mm pitch 40-pin(20x2) Header L=8.8mm(1-molding)</t>
+  </si>
+  <si>
+    <t>TACH Switch 8.0x3.7, T=2.5mm SMD</t>
+  </si>
+  <si>
+    <t>32.768KHz Crystal 6pF 20PPM</t>
+  </si>
+  <si>
+    <t>CRYSTAL 8.0000MHZ 18PF SMD</t>
+  </si>
+  <si>
+    <t>P005666489</t>
+  </si>
+  <si>
+    <t>P005634306</t>
+  </si>
+  <si>
+    <t>P005675364</t>
+  </si>
+  <si>
+    <t>P000096310</t>
+  </si>
+  <si>
+    <t>P007366368</t>
+  </si>
+  <si>
+    <t>P008215485</t>
   </si>
 </sst>
 </file>
@@ -2209,7 +2260,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="80">
+  <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2442,8 +2493,56 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -3075,9 +3174,25 @@
     <xf numFmtId="41" fontId="26" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3087,27 +3202,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="41" fontId="26" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3117,32 +3214,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="17" xfId="95" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="18" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="80">
+  <cellStyles count="96">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색1 2" xfId="56"/>
+    <cellStyle name="20% - 강조색1 3" xfId="83"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2 2" xfId="58"/>
+    <cellStyle name="20% - 강조색2 3" xfId="85"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3 2" xfId="60"/>
+    <cellStyle name="20% - 강조색3 3" xfId="87"/>
     <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 강조색4 2" xfId="63"/>
+    <cellStyle name="20% - 강조색4 3" xfId="89"/>
     <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 강조색5 2" xfId="65"/>
+    <cellStyle name="20% - 강조색5 3" xfId="91"/>
     <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 강조색6 2" xfId="67"/>
+    <cellStyle name="20% - 강조색6 3" xfId="93"/>
     <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 강조색1 2" xfId="57"/>
+    <cellStyle name="40% - 강조색1 3" xfId="84"/>
     <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 강조색2 2" xfId="59"/>
+    <cellStyle name="40% - 강조색2 3" xfId="86"/>
     <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 강조색3 2" xfId="61"/>
+    <cellStyle name="40% - 강조색3 3" xfId="88"/>
     <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 강조색4 2" xfId="64"/>
+    <cellStyle name="40% - 강조색4 3" xfId="90"/>
     <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 강조색5 2" xfId="66"/>
+    <cellStyle name="40% - 강조색5 3" xfId="92"/>
     <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 강조색6 2" xfId="68"/>
+    <cellStyle name="40% - 강조색6 3" xfId="94"/>
     <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
@@ -3161,6 +3297,7 @@
     <cellStyle name="메모 2" xfId="45"/>
     <cellStyle name="메모 2 2" xfId="74"/>
     <cellStyle name="메모 3" xfId="55"/>
+    <cellStyle name="메모 4" xfId="82"/>
     <cellStyle name="보통" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="14" builtinId="23" customBuiltin="1"/>
@@ -3169,6 +3306,7 @@
     <cellStyle name="쉼표 [0] 2 2" xfId="49"/>
     <cellStyle name="쉼표 [0] 2 2 2" xfId="72"/>
     <cellStyle name="쉼표 [0] 2 3" xfId="70"/>
+    <cellStyle name="쉼표 [0] 2 4" xfId="95"/>
     <cellStyle name="쉼표 [0] 3" xfId="48"/>
     <cellStyle name="쉼표 [0] 3 2" xfId="71"/>
     <cellStyle name="쉼표 [0] 4" xfId="44"/>
@@ -3177,6 +3315,7 @@
     <cellStyle name="쉼표 [0] 6" xfId="54"/>
     <cellStyle name="쉼표 [0] 6 2" xfId="79"/>
     <cellStyle name="쉼표 [0] 7" xfId="76"/>
+    <cellStyle name="쉼표 [0] 8" xfId="81"/>
     <cellStyle name="연결된 셀" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="입력" xfId="10" builtinId="20" customBuiltin="1"/>
@@ -3199,15 +3338,13 @@
     <cellStyle name="표준 4" xfId="53"/>
     <cellStyle name="표준 4 2" xfId="78"/>
     <cellStyle name="표준 5" xfId="75"/>
+    <cellStyle name="표준 6" xfId="80"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3256,7 +3393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3291,7 +3428,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3528,28 +3665,28 @@
     </row>
     <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="295" t="s">
+      <c r="B9" s="290" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="293"/>
-      <c r="D9" s="290" t="s">
+      <c r="C9" s="291"/>
+      <c r="D9" s="294" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="290"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="293" t="s">
+      <c r="E9" s="294"/>
+      <c r="F9" s="294"/>
+      <c r="G9" s="291" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="293" t="s">
+      <c r="H9" s="291" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="291" t="s">
+      <c r="I9" s="295" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:14" s="141" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="297"/>
-      <c r="C10" s="294"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="293"/>
       <c r="D10" s="142" t="s">
         <v>88</v>
       </c>
@@ -3559,15 +3696,15 @@
       <c r="F10" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="294"/>
-      <c r="H10" s="294"/>
-      <c r="I10" s="292"/>
+      <c r="G10" s="293"/>
+      <c r="H10" s="293"/>
+      <c r="I10" s="296"/>
     </row>
     <row r="11" spans="2:14" s="141" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="298" t="s">
+      <c r="B11" s="288" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="299"/>
+      <c r="C11" s="289"/>
       <c r="D11" s="144">
         <v>0.25</v>
       </c>
@@ -3591,7 +3728,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="295" t="s">
+      <c r="B12" s="290" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="143" t="s">
@@ -3632,7 +3769,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="296"/>
+      <c r="B13" s="297"/>
       <c r="C13" s="147" t="s">
         <v>93</v>
       </c>
@@ -3659,7 +3796,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="297"/>
+      <c r="B14" s="292"/>
       <c r="C14" s="150" t="s">
         <v>94</v>
       </c>
@@ -3686,7 +3823,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="295" t="s">
+      <c r="B15" s="290" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="143" t="s">
@@ -3715,7 +3852,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="296"/>
+      <c r="B16" s="297"/>
       <c r="C16" s="147" t="s">
         <v>93</v>
       </c>
@@ -3742,7 +3879,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="297"/>
+      <c r="B17" s="292"/>
       <c r="C17" s="150" t="s">
         <v>94</v>
       </c>
@@ -3786,28 +3923,28 @@
     </row>
     <row r="21" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="295" t="s">
+      <c r="B22" s="290" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="293"/>
-      <c r="D22" s="290" t="s">
+      <c r="C22" s="291"/>
+      <c r="D22" s="294" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="290"/>
-      <c r="F22" s="290"/>
-      <c r="G22" s="293" t="s">
+      <c r="E22" s="294"/>
+      <c r="F22" s="294"/>
+      <c r="G22" s="291" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="293" t="s">
+      <c r="H22" s="291" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="291" t="s">
+      <c r="I22" s="295" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="297"/>
-      <c r="C23" s="294"/>
+      <c r="B23" s="292"/>
+      <c r="C23" s="293"/>
       <c r="D23" s="142" t="s">
         <v>88</v>
       </c>
@@ -3817,15 +3954,15 @@
       <c r="F23" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="294"/>
-      <c r="H23" s="294"/>
-      <c r="I23" s="292"/>
+      <c r="G23" s="293"/>
+      <c r="H23" s="293"/>
+      <c r="I23" s="296"/>
     </row>
     <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="298" t="s">
+      <c r="B24" s="288" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="299"/>
+      <c r="C24" s="289"/>
       <c r="D24" s="153">
         <v>1</v>
       </c>
@@ -3850,28 +3987,28 @@
     </row>
     <row r="26" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="295" t="s">
+      <c r="B27" s="290" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="293"/>
-      <c r="D27" s="290" t="s">
+      <c r="C27" s="291"/>
+      <c r="D27" s="294" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="290"/>
-      <c r="F27" s="290"/>
-      <c r="G27" s="293" t="s">
+      <c r="E27" s="294"/>
+      <c r="F27" s="294"/>
+      <c r="G27" s="291" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="293" t="s">
+      <c r="H27" s="291" t="s">
         <v>92</v>
       </c>
-      <c r="I27" s="291" t="s">
+      <c r="I27" s="295" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="297"/>
-      <c r="C28" s="294"/>
+      <c r="B28" s="292"/>
+      <c r="C28" s="293"/>
       <c r="D28" s="142" t="s">
         <v>88</v>
       </c>
@@ -3881,15 +4018,15 @@
       <c r="F28" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="294"/>
-      <c r="H28" s="294"/>
-      <c r="I28" s="292"/>
+      <c r="G28" s="293"/>
+      <c r="H28" s="293"/>
+      <c r="I28" s="296"/>
     </row>
     <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="298" t="s">
+      <c r="B29" s="288" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="299"/>
+      <c r="C29" s="289"/>
       <c r="D29" s="153">
         <v>3</v>
       </c>
@@ -3930,11 +4067,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B9:C10"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
@@ -3944,12 +4082,11 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3994,7 +4131,7 @@
     </row>
     <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="57" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H4" s="57" t="s">
         <v>301</v>
@@ -4114,20 +4251,20 @@
       </c>
     </row>
     <row r="9" spans="2:11" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="298" t="s">
+      <c r="C9" s="288" t="s">
         <v>305</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
       <c r="F9" s="284">
         <f>SUM(F6:F8)</f>
         <v>138411</v>
       </c>
-      <c r="H9" s="298" t="s">
+      <c r="H9" s="288" t="s">
         <v>305</v>
       </c>
-      <c r="I9" s="299"/>
-      <c r="J9" s="299"/>
+      <c r="I9" s="289"/>
+      <c r="J9" s="289"/>
       <c r="K9" s="284">
         <f>SUM(K6:K8)</f>
         <v>97175</v>
@@ -4226,28 +4363,28 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="298" t="s">
+      <c r="C14" s="288" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="299"/>
-      <c r="E14" s="300">
+      <c r="D14" s="289"/>
+      <c r="E14" s="298">
         <f>F12</f>
         <v>553644</v>
       </c>
-      <c r="F14" s="301"/>
-      <c r="H14" s="298" t="s">
+      <c r="F14" s="299"/>
+      <c r="H14" s="288" t="s">
         <v>308</v>
       </c>
-      <c r="I14" s="299"/>
-      <c r="J14" s="300">
+      <c r="I14" s="289"/>
+      <c r="J14" s="298">
         <f>K12</f>
         <v>388700</v>
       </c>
-      <c r="K14" s="301"/>
+      <c r="K14" s="299"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="302"/>
-      <c r="D15" s="302"/>
+      <c r="C15" s="300"/>
+      <c r="D15" s="300"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
@@ -4321,11 +4458,11 @@
       </c>
     </row>
     <row r="22" spans="3:8" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="298" t="s">
+      <c r="C22" s="288" t="s">
         <v>305</v>
       </c>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
+      <c r="D22" s="289"/>
+      <c r="E22" s="289"/>
       <c r="F22" s="284">
         <f>SUM(F19:F21)</f>
         <v>45292</v>
@@ -4398,15 +4535,15 @@
       <c r="H27" s="57"/>
     </row>
     <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="298" t="s">
+      <c r="C28" s="288" t="s">
         <v>308</v>
       </c>
-      <c r="D28" s="299"/>
-      <c r="E28" s="300">
+      <c r="D28" s="289"/>
+      <c r="E28" s="298">
         <f>SUM(F25:F27)</f>
         <v>291168</v>
       </c>
-      <c r="F28" s="301"/>
+      <c r="F28" s="299"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7919,27 +8056,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L20"/>
+  <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="D32" sqref="D31:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="41.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="57" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="225" t="s">
         <v>17</v>
       </c>
@@ -7975,41 +8112,41 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="86" t="s">
         <v>317</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="287" t="s">
+      <c r="C4" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="23">
-        <v>1</v>
-      </c>
-      <c r="G4" s="145">
-        <v>8500</v>
-      </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23">
-        <v>1</v>
-      </c>
-      <c r="J4" s="40">
-        <f>G4*I4</f>
-        <v>8500</v>
-      </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="289" t="s">
-        <v>330</v>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19">
+        <v>1</v>
+      </c>
+      <c r="J4" s="41">
+        <f t="shared" ref="J4:J8" si="0">G4*I4</f>
+        <v>6000</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="90" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="86" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>319</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>321</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -8019,26 +8156,26 @@
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19">
         <v>1</v>
       </c>
       <c r="J5" s="41">
-        <f t="shared" ref="J5:J9" si="0">G5*I5</f>
-        <v>6000</v>
+        <f t="shared" si="0"/>
+        <v>8000</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="90" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="102" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="34" t="s">
         <v>321</v>
       </c>
       <c r="D6" s="19"/>
@@ -8048,8 +8185,8 @@
       <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
-        <v>8000</v>
+      <c r="G6" s="287">
+        <v>7000</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19">
@@ -8057,20 +8194,18 @@
       </c>
       <c r="J6" s="41">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="90" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="102" t="s">
-        <v>322</v>
-      </c>
-      <c r="C7" s="34" t="s">
         <v>323</v>
       </c>
+      <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
         <v>9</v>
@@ -8078,8 +8213,8 @@
       <c r="F7" s="19">
         <v>1</v>
       </c>
-      <c r="G7" s="288">
-        <v>7000</v>
+      <c r="G7" s="9">
+        <v>2600</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19">
@@ -8087,7 +8222,7 @@
       </c>
       <c r="J7" s="41">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>2600</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="90" t="s">
@@ -8106,16 +8241,16 @@
       <c r="F8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="9">
-        <v>2600</v>
+      <c r="G8" s="287">
+        <v>22000</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="41">
         <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>44000</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="90" t="s">
@@ -8123,32 +8258,17 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="102" t="s">
-        <v>327</v>
-      </c>
+      <c r="B9" s="86"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="288">
-        <v>22000</v>
-      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="19">
-        <v>2</v>
-      </c>
-      <c r="J9" s="41">
-        <f t="shared" si="0"/>
-        <v>44000</v>
-      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="19"/>
-      <c r="L9" s="90" t="s">
-        <v>328</v>
-      </c>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="86"/>
@@ -8189,92 +8309,308 @@
       <c r="K12" s="19"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="86"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="237"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="286"/>
+    <row r="13" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="237"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="286"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J14" s="48">
+        <f>SUM(J4:J13)</f>
+        <v>67600</v>
+      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J15" s="48">
-        <f>SUM(J4:J14)</f>
-        <v>76100</v>
+      <c r="J15" s="115">
+        <f>J14*0.1</f>
+        <v>6760</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J16" s="115">
-        <f>J15*0.1</f>
-        <v>7610</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J17" s="50">
-        <f>J15+J16</f>
-        <v>83710</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+      <c r="J16" s="50">
+        <f>J14+J15</f>
+        <v>74360</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="225" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="226" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="J19" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="L19" s="83" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="302" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" s="302" t="s">
+        <v>332</v>
+      </c>
+      <c r="D20" s="304" t="s">
+        <v>340</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="305">
+        <v>1</v>
+      </c>
+      <c r="G20" s="306">
+        <v>30</v>
+      </c>
+      <c r="H20" s="307">
+        <v>1</v>
+      </c>
+      <c r="I20" s="308">
+        <v>10</v>
+      </c>
+      <c r="J20" s="41">
+        <f>G20*I20</f>
+        <v>300</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="309" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="301" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="225" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="226" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="82" t="s">
-        <v>212</v>
-      </c>
-      <c r="J20" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K20" s="82" t="s">
-        <v>214</v>
-      </c>
-      <c r="L20" s="83" t="s">
-        <v>215</v>
+      <c r="C21" s="301" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="303" t="s">
+        <v>341</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="305">
+        <v>1</v>
+      </c>
+      <c r="G21" s="306">
+        <v>50</v>
+      </c>
+      <c r="H21" s="307">
+        <v>100</v>
+      </c>
+      <c r="I21" s="308">
+        <v>100</v>
+      </c>
+      <c r="J21" s="41">
+        <f t="shared" ref="J21:J25" si="1">G21*I21</f>
+        <v>5000</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="309" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="302" t="s">
+        <v>334</v>
+      </c>
+      <c r="C22" s="302" t="s">
+        <v>332</v>
+      </c>
+      <c r="D22" s="304" t="s">
+        <v>342</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="305">
+        <v>2</v>
+      </c>
+      <c r="G22" s="306">
+        <v>290</v>
+      </c>
+      <c r="H22" s="307">
+        <v>1</v>
+      </c>
+      <c r="I22" s="308">
+        <v>20</v>
+      </c>
+      <c r="J22" s="41">
+        <f t="shared" si="1"/>
+        <v>5800</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="309" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="301" t="s">
+        <v>335</v>
+      </c>
+      <c r="C23" s="301" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" s="303" t="s">
+        <v>343</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="305">
+        <v>1</v>
+      </c>
+      <c r="G23" s="306">
+        <v>100</v>
+      </c>
+      <c r="H23" s="307">
+        <v>10</v>
+      </c>
+      <c r="I23" s="308">
+        <v>10</v>
+      </c>
+      <c r="J23" s="41">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="309" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="302" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" s="301" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" s="303" t="s">
+        <v>344</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="305">
+        <v>1</v>
+      </c>
+      <c r="G24" s="306">
+        <v>430</v>
+      </c>
+      <c r="H24" s="307">
+        <v>1</v>
+      </c>
+      <c r="I24" s="308">
+        <v>10</v>
+      </c>
+      <c r="J24" s="41">
+        <f t="shared" si="1"/>
+        <v>4300</v>
+      </c>
+      <c r="K24" s="19"/>
+      <c r="L24" s="309" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="301" t="s">
+        <v>339</v>
+      </c>
+      <c r="C25" s="301" t="s">
+        <v>338</v>
+      </c>
+      <c r="D25" s="303" t="s">
+        <v>345</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="305">
+        <v>1</v>
+      </c>
+      <c r="G25" s="306">
+        <v>430</v>
+      </c>
+      <c r="H25" s="307">
+        <v>1</v>
+      </c>
+      <c r="I25" s="308">
+        <v>10</v>
+      </c>
+      <c r="J25" s="41">
+        <f t="shared" si="1"/>
+        <v>4300</v>
+      </c>
+      <c r="K25" s="19"/>
+      <c r="L25" s="309" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J26" s="48">
+        <f>SUM(J20:J25)</f>
+        <v>20700</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J27" s="115">
+        <f>J26*0.1</f>
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J28" s="50">
+        <f>J26+J27</f>
+        <v>22770</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J31" s="115">
+        <f>J16+J28</f>
+        <v>97130</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="개발비" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">'0314'!$B$4:$F$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -47,22 +47,22 @@
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>상품코드</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ICbanQ</t>
   </si>
   <si>
     <t>ICbanQ</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002101847 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>NTD5802N</t>
@@ -72,11 +72,11 @@
   </si>
   <si>
     <t>53398-0471</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>50058-8000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
@@ -89,11 +89,11 @@
   </si>
   <si>
     <t>51021-0400</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin Housing, Female</t>
@@ -109,94 +109,94 @@
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P000740132</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P005634281</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CTX210609-R</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>TRANSFORMER CCFL 6W 13V 11MA SMD Turn-R:100</t>
   </si>
   <si>
     <t>CTX210605-R</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P002058985</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P005831162</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P002058197</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007073878 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>부가세</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>부품 Total</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CAP TANT 220UF 16V 10% 2917</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P008221708</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>장보고 재고 있음</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2/5일 구매</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>T491D227K016AT</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>재고 없음</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007223445 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2/8일 구매</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -224,19 +224,19 @@
       </rPr>
       <t>-R</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>B180212004001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>주문번호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2/12일 구매</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BZT52C5V1S</t>
@@ -339,75 +339,75 @@
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Touch Program</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>작업기간</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Month</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Day[20/Month]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Hour[3/Day]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>시급</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>가중치</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>LF Gen MCU</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>LF Control MCU</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Cost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1차 작업</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Item</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2차 작업</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Hour[3.5/Day]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>H/W</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>M/E</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Pipette 2차</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Set 수량</t>
@@ -417,11 +417,11 @@
   </si>
   <si>
     <t>구매 Cost</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>STPS120M</t>
@@ -434,7 +434,7 @@
   </si>
   <si>
     <t>P001539333</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>SMBJ12CA</t>
@@ -447,15 +447,15 @@
   </si>
   <si>
     <t>P004928252</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>P007475431</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>LF용 포함 구매</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DC-011C_SMD</t>
@@ -465,7 +465,7 @@
   </si>
   <si>
     <t>P005658771</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>053048-0310</t>
@@ -475,7 +475,7 @@
   </si>
   <si>
     <t>P005634294</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>053048-0710</t>
@@ -485,7 +485,7 @@
   </si>
   <si>
     <t>P005634298</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>HI05-AG0272</t>
@@ -498,7 +498,7 @@
   </si>
   <si>
     <t>P005659337</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>F0603E2R50FSTR</t>
@@ -511,11 +511,11 @@
   </si>
   <si>
     <t>P001574681</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1 point 삭제 예정</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MSS5131-153ML</t>
@@ -528,7 +528,7 @@
   </si>
   <si>
     <t xml:space="preserve">P002266417 </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>LQM2HPZ2R2MG0</t>
@@ -541,7 +541,7 @@
   </si>
   <si>
     <t>P008172717</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ASMT-YTD2-0BB02</t>
@@ -554,7 +554,7 @@
   </si>
   <si>
     <t>P000725384</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>17-21/W1D-ANPHY/3T</t>
@@ -567,7 +567,7 @@
   </si>
   <si>
     <t>P005609815</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>19-21/R6C-AP1Q2/3T</t>
@@ -577,7 +577,7 @@
   </si>
   <si>
     <t>P005609821</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>19-217/W1D-APQHY/3T</t>
@@ -587,11 +587,11 @@
   </si>
   <si>
     <t>P000098995</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>재품이 없어 고휘도 구매</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>19-213/G6C-AN1P2 /3T</t>
@@ -601,7 +601,7 @@
   </si>
   <si>
     <t>P005609818</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>CTT-1139P1</t>
@@ -614,11 +614,11 @@
   </si>
   <si>
     <t>P000092681</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MOQ</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>SKRMABE010</t>
@@ -628,7 +628,7 @@
   </si>
   <si>
     <t xml:space="preserve">P001566090 </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>STM32F070RBT6</t>
@@ -650,7 +650,7 @@
   </si>
   <si>
     <t>P000166190</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>LM2735XMF</t>
@@ -663,7 +663,7 @@
   </si>
   <si>
     <t>P006290287</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>LM3671MF-3.3</t>
@@ -673,7 +673,7 @@
   </si>
   <si>
     <t>P007302353</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>TPS3801L30</t>
@@ -683,99 +683,99 @@
   </si>
   <si>
     <t>P007092561</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Battery 하네스</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>구매 Cost</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>51021-0300</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch Housing, Female, 3-Pin</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>P005634252</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Transformer 하네스</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>51021-0700</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch Housing, Female, 7-Pin</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>P005634256</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>50058 양단 1007 케이블</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>P005634320</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>50058 양단 케이블 L=100mm, Black</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Cost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Item</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Proto-type 부품 구매</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Transformer V1.0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Total cost : </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Pipette V1.0 / LF MCU 일부</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Pipette과 overlap되는 LF MCU 부품 구매</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ON Semiconductor</t>
@@ -788,478 +788,478 @@
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>주문번호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>EX-936ESD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> EXSO </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>정전기 방지 온도조절형 인두, 소비전력:60W, 온도:220℃ ~ 480℃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P001909039</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol 3001 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>EXSO</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 75W, 온도: 100~500℃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P007193509</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol-100 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>아날로그 무연인두기 , 24V 75W, 온도: 200~480℃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P007193511</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol-200 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 24V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P007193512</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>FX-888D(70W)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 26V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P005688453</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>FX-951</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 24V 75W, 온도: 200~450℃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P005688454</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>T18-K</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO FX-888(FX-8801) 전용 인두 칼팁</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P002116124</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>T18-3.5K</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>T18-B</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO FX-888(FX-8801) 전용 인두 팁</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002116123 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>B3474</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Rubber Cleaner</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>A1561</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO A1561 클리닝와이어</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P004702618</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>A1559</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO A1559 스폰지</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P004704819</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>SPPON 18</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO 18 SPPON DESOLDERING TOOL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P004702809</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>18N.18G</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO SPPON NOZZLE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ic114</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>UL1007-AWG20</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>UL전선</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (검정색)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002329495 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (빨강)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002329190 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>칩저항 키트</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Any vender</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1005 사이즈 F급(1%) 160종 칩저항 키트 - (100개들이)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P001907055</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>JL-0232 적색</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Any vender</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">더블 바나나플러그 / 적색 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P005658758</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>GHG630DCE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> BOSCH </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>열풍기(히터건) (GHG630DCE)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P007320842</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ST-LINK/V2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STMicroelectronics</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ICD/PROGRAMMER, FOR STM8, STM32</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P001648331</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ENGINEER SL-04</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ENGINEER SL-04 DESK-TOP LOUPE, 렌즈 직경 75mm, 배율 3X</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P004704041 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>8611L</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>8611L LED조명 확대경, 렌즈 직경 89mm, 배율 3X</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P004704064</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>824-22-003-00-005000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Mill-Max</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Mill-Max Pin &amp; Socket Connectors </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P008110102</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Transformer PCB</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>P005634282</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>재고 소진</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Pipette V1.0 부품 및 장비</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>실험실에서 사용할 장비 및 Pipette 관련 추가 부품</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>부자재</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>수삽</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>개인</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Point</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>단가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>금액</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>소계</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>작업내용</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>합계</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>이윤</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>SMD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Metal mask</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Sample용 견적</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>부품비</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>LF Generator MCU Board</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">HIPPO 6구 접지 멀티탭 멀티탭 - 기본 1.5M </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">HIPPO 6구 접지 멀티탭 멀티탭 - 3M </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>HIPPO</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>KFT HT-5023 스트리퍼 (AWG20~30)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">KFT </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P001415029</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>페이스트 [135-0805]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P008012287</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>정전기매트 120cm*1M</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P000119604</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007311227 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>실험실 물품 구매</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>제이엘텍 - Sample build 견적</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>LF GEN MCU 부품 구매</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>HEADER_2.54mm_2x5</t>
@@ -1338,12 +1338,20 @@
     <numFmt numFmtId="179" formatCode="0.0"/>
     <numFmt numFmtId="180" formatCode="0\ &quot;%&quot;"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2262,283 +2270,283 @@
   </borders>
   <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2557,7 +2565,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2566,7 +2574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2581,32 +2589,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2620,24 +2628,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2650,26 +2658,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2682,13 +2690,13 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2701,16 +2709,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="27" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="28" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2759,34 +2767,34 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="33" borderId="24" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="24" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="69" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="33" borderId="11" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="69" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="11" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2809,68 +2817,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="75" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="75" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="75" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="75" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="75">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="75" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="75">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="75" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="33" borderId="23" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="23" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="33" borderId="24" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="24" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="33" borderId="33" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="33" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="33" borderId="23" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="23" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="75" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="75" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="75" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="75" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="76" applyFont="1" applyBorder="1">
@@ -2882,46 +2890,46 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="15" xfId="75" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="15" xfId="75" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="16" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="69" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="69" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="18" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="17" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="17" xfId="75" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="18" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="17" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="17" xfId="75" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="18" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="22" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="18" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="22" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2930,7 +2938,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2976,23 +2984,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3010,137 +3018,137 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="33" borderId="23" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="23" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="33" borderId="24" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="24" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="77" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="77" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="77" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="77" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="33" borderId="10" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="10" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="33" borderId="11" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="11" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="15" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="15" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="78">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="21" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="78" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="21" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="78" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="78" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="78" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="33" borderId="24" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="78" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="24" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="78" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="78" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="14" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="78" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="14" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="78" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="18" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="78" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="17" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="18" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="78" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="20" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="20" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="21" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="78" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="14" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="15" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="78" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="20" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="20" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="21" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="78" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="14" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="15" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="17" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="78" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3153,93 +3161,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="26" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="27" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="95" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="18" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="17" xfId="95" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="18" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="96">
@@ -3346,6 +3354,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3393,7 +3404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3428,7 +3439,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3639,8 +3650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3665,28 +3676,28 @@
     </row>
     <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="290" t="s">
+      <c r="B9" s="302" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="291"/>
-      <c r="D9" s="294" t="s">
+      <c r="C9" s="300"/>
+      <c r="D9" s="297" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="294"/>
-      <c r="F9" s="294"/>
-      <c r="G9" s="291" t="s">
+      <c r="E9" s="297"/>
+      <c r="F9" s="297"/>
+      <c r="G9" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="291" t="s">
+      <c r="H9" s="300" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="295" t="s">
+      <c r="I9" s="298" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:14" s="141" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="292"/>
-      <c r="C10" s="293"/>
+      <c r="B10" s="304"/>
+      <c r="C10" s="301"/>
       <c r="D10" s="142" t="s">
         <v>88</v>
       </c>
@@ -3696,15 +3707,15 @@
       <c r="F10" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="293"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="296"/>
+      <c r="G10" s="301"/>
+      <c r="H10" s="301"/>
+      <c r="I10" s="299"/>
     </row>
     <row r="11" spans="2:14" s="141" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="288" t="s">
+      <c r="B11" s="305" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="289"/>
+      <c r="C11" s="306"/>
       <c r="D11" s="144">
         <v>0.25</v>
       </c>
@@ -3728,7 +3739,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="290" t="s">
+      <c r="B12" s="302" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="143" t="s">
@@ -3769,7 +3780,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="297"/>
+      <c r="B13" s="303"/>
       <c r="C13" s="147" t="s">
         <v>93</v>
       </c>
@@ -3796,7 +3807,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="292"/>
+      <c r="B14" s="304"/>
       <c r="C14" s="150" t="s">
         <v>94</v>
       </c>
@@ -3823,7 +3834,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="290" t="s">
+      <c r="B15" s="302" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="143" t="s">
@@ -3852,7 +3863,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="297"/>
+      <c r="B16" s="303"/>
       <c r="C16" s="147" t="s">
         <v>93</v>
       </c>
@@ -3879,7 +3890,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="292"/>
+      <c r="B17" s="304"/>
       <c r="C17" s="150" t="s">
         <v>94</v>
       </c>
@@ -3923,28 +3934,28 @@
     </row>
     <row r="21" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="290" t="s">
+      <c r="B22" s="302" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="291"/>
-      <c r="D22" s="294" t="s">
+      <c r="C22" s="300"/>
+      <c r="D22" s="297" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="294"/>
-      <c r="F22" s="294"/>
-      <c r="G22" s="291" t="s">
+      <c r="E22" s="297"/>
+      <c r="F22" s="297"/>
+      <c r="G22" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="291" t="s">
+      <c r="H22" s="300" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="295" t="s">
+      <c r="I22" s="298" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="292"/>
-      <c r="C23" s="293"/>
+      <c r="B23" s="304"/>
+      <c r="C23" s="301"/>
       <c r="D23" s="142" t="s">
         <v>88</v>
       </c>
@@ -3954,15 +3965,15 @@
       <c r="F23" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="293"/>
-      <c r="H23" s="293"/>
-      <c r="I23" s="296"/>
+      <c r="G23" s="301"/>
+      <c r="H23" s="301"/>
+      <c r="I23" s="299"/>
     </row>
     <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="288" t="s">
+      <c r="B24" s="305" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="289"/>
+      <c r="C24" s="306"/>
       <c r="D24" s="153">
         <v>1</v>
       </c>
@@ -3987,28 +3998,28 @@
     </row>
     <row r="26" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="290" t="s">
+      <c r="B27" s="302" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="291"/>
-      <c r="D27" s="294" t="s">
+      <c r="C27" s="300"/>
+      <c r="D27" s="297" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="294"/>
-      <c r="F27" s="294"/>
-      <c r="G27" s="291" t="s">
+      <c r="E27" s="297"/>
+      <c r="F27" s="297"/>
+      <c r="G27" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="291" t="s">
+      <c r="H27" s="300" t="s">
         <v>92</v>
       </c>
-      <c r="I27" s="295" t="s">
+      <c r="I27" s="298" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="292"/>
-      <c r="C28" s="293"/>
+      <c r="B28" s="304"/>
+      <c r="C28" s="301"/>
       <c r="D28" s="142" t="s">
         <v>88</v>
       </c>
@@ -4018,15 +4029,15 @@
       <c r="F28" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="293"/>
-      <c r="H28" s="293"/>
-      <c r="I28" s="296"/>
+      <c r="G28" s="301"/>
+      <c r="H28" s="301"/>
+      <c r="I28" s="299"/>
     </row>
     <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="288" t="s">
+      <c r="B29" s="305" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="289"/>
+      <c r="C29" s="306"/>
       <c r="D29" s="153">
         <v>3</v>
       </c>
@@ -4067,12 +4078,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
@@ -4082,13 +4092,14 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B9:C10"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4099,7 +4110,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F14"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4251,20 +4262,20 @@
       </c>
     </row>
     <row r="9" spans="2:11" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="288" t="s">
+      <c r="C9" s="305" t="s">
         <v>305</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
+      <c r="D9" s="306"/>
+      <c r="E9" s="306"/>
       <c r="F9" s="284">
         <f>SUM(F6:F8)</f>
         <v>138411</v>
       </c>
-      <c r="H9" s="288" t="s">
+      <c r="H9" s="305" t="s">
         <v>305</v>
       </c>
-      <c r="I9" s="289"/>
-      <c r="J9" s="289"/>
+      <c r="I9" s="306"/>
+      <c r="J9" s="306"/>
       <c r="K9" s="284">
         <f>SUM(K6:K8)</f>
         <v>97175</v>
@@ -4363,28 +4374,28 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="288" t="s">
+      <c r="C14" s="305" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="289"/>
-      <c r="E14" s="298">
+      <c r="D14" s="306"/>
+      <c r="E14" s="307">
         <f>F12</f>
         <v>553644</v>
       </c>
-      <c r="F14" s="299"/>
-      <c r="H14" s="288" t="s">
+      <c r="F14" s="308"/>
+      <c r="H14" s="305" t="s">
         <v>308</v>
       </c>
-      <c r="I14" s="289"/>
-      <c r="J14" s="298">
+      <c r="I14" s="306"/>
+      <c r="J14" s="307">
         <f>K12</f>
         <v>388700</v>
       </c>
-      <c r="K14" s="299"/>
+      <c r="K14" s="308"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="300"/>
-      <c r="D15" s="300"/>
+      <c r="C15" s="309"/>
+      <c r="D15" s="309"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
@@ -4458,11 +4469,11 @@
       </c>
     </row>
     <row r="22" spans="3:8" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="288" t="s">
+      <c r="C22" s="305" t="s">
         <v>305</v>
       </c>
-      <c r="D22" s="289"/>
-      <c r="E22" s="289"/>
+      <c r="D22" s="306"/>
+      <c r="E22" s="306"/>
       <c r="F22" s="284">
         <f>SUM(F19:F21)</f>
         <v>45292</v>
@@ -4535,15 +4546,15 @@
       <c r="H27" s="57"/>
     </row>
     <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="288" t="s">
+      <c r="C28" s="305" t="s">
         <v>308</v>
       </c>
-      <c r="D28" s="289"/>
-      <c r="E28" s="298">
+      <c r="D28" s="306"/>
+      <c r="E28" s="307">
         <f>SUM(F25:F27)</f>
         <v>291168</v>
       </c>
-      <c r="F28" s="299"/>
+      <c r="F28" s="308"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4558,7 +4569,7 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4746,7 +4757,7 @@
       <c r="E22" s="221"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -4757,7 +4768,7 @@
   <dimension ref="B2:K32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5399,7 +5410,7 @@
       <c r="K32" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -6716,7 +6727,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B4:F4"/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6726,8 +6737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8048,7 +8059,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -8058,8 +8069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D31:D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8381,28 +8392,28 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="302" t="s">
+      <c r="B20" s="289" t="s">
         <v>331</v>
       </c>
-      <c r="C20" s="302" t="s">
+      <c r="C20" s="289" t="s">
         <v>332</v>
       </c>
-      <c r="D20" s="304" t="s">
+      <c r="D20" s="291" t="s">
         <v>340</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="305">
-        <v>1</v>
-      </c>
-      <c r="G20" s="306">
+      <c r="F20" s="292">
+        <v>1</v>
+      </c>
+      <c r="G20" s="293">
         <v>30</v>
       </c>
-      <c r="H20" s="307">
-        <v>1</v>
-      </c>
-      <c r="I20" s="308">
+      <c r="H20" s="294">
+        <v>1</v>
+      </c>
+      <c r="I20" s="295">
         <v>10</v>
       </c>
       <c r="J20" s="41">
@@ -8410,33 +8421,33 @@
         <v>300</v>
       </c>
       <c r="K20" s="19"/>
-      <c r="L20" s="309" t="s">
+      <c r="L20" s="296" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="301" t="s">
+      <c r="B21" s="288" t="s">
         <v>333</v>
       </c>
-      <c r="C21" s="301" t="s">
+      <c r="C21" s="288" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="303" t="s">
+      <c r="D21" s="290" t="s">
         <v>341</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="305">
-        <v>1</v>
-      </c>
-      <c r="G21" s="306">
+      <c r="F21" s="292">
+        <v>1</v>
+      </c>
+      <c r="G21" s="293">
         <v>50</v>
       </c>
-      <c r="H21" s="307">
+      <c r="H21" s="294">
         <v>100</v>
       </c>
-      <c r="I21" s="308">
+      <c r="I21" s="295">
         <v>100</v>
       </c>
       <c r="J21" s="41">
@@ -8444,33 +8455,33 @@
         <v>5000</v>
       </c>
       <c r="K21" s="19"/>
-      <c r="L21" s="309" t="s">
+      <c r="L21" s="296" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="302" t="s">
+      <c r="B22" s="289" t="s">
         <v>334</v>
       </c>
-      <c r="C22" s="302" t="s">
+      <c r="C22" s="289" t="s">
         <v>332</v>
       </c>
-      <c r="D22" s="304" t="s">
+      <c r="D22" s="291" t="s">
         <v>342</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="305">
+      <c r="F22" s="292">
         <v>2</v>
       </c>
-      <c r="G22" s="306">
+      <c r="G22" s="293">
         <v>290</v>
       </c>
-      <c r="H22" s="307">
-        <v>1</v>
-      </c>
-      <c r="I22" s="308">
+      <c r="H22" s="294">
+        <v>1</v>
+      </c>
+      <c r="I22" s="295">
         <v>20</v>
       </c>
       <c r="J22" s="41">
@@ -8478,33 +8489,33 @@
         <v>5800</v>
       </c>
       <c r="K22" s="19"/>
-      <c r="L22" s="309" t="s">
+      <c r="L22" s="296" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="301" t="s">
+      <c r="B23" s="288" t="s">
         <v>335</v>
       </c>
-      <c r="C23" s="301" t="s">
+      <c r="C23" s="288" t="s">
         <v>336</v>
       </c>
-      <c r="D23" s="303" t="s">
+      <c r="D23" s="290" t="s">
         <v>343</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="305">
-        <v>1</v>
-      </c>
-      <c r="G23" s="306">
+      <c r="F23" s="292">
+        <v>1</v>
+      </c>
+      <c r="G23" s="293">
         <v>100</v>
       </c>
-      <c r="H23" s="307">
+      <c r="H23" s="294">
         <v>10</v>
       </c>
-      <c r="I23" s="308">
+      <c r="I23" s="295">
         <v>10</v>
       </c>
       <c r="J23" s="41">
@@ -8512,33 +8523,33 @@
         <v>1000</v>
       </c>
       <c r="K23" s="19"/>
-      <c r="L23" s="309" t="s">
+      <c r="L23" s="296" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="302" t="s">
+      <c r="B24" s="289" t="s">
         <v>337</v>
       </c>
-      <c r="C24" s="301" t="s">
+      <c r="C24" s="288" t="s">
         <v>338</v>
       </c>
-      <c r="D24" s="303" t="s">
+      <c r="D24" s="290" t="s">
         <v>344</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="305">
-        <v>1</v>
-      </c>
-      <c r="G24" s="306">
+      <c r="F24" s="292">
+        <v>1</v>
+      </c>
+      <c r="G24" s="293">
         <v>430</v>
       </c>
-      <c r="H24" s="307">
-        <v>1</v>
-      </c>
-      <c r="I24" s="308">
+      <c r="H24" s="294">
+        <v>1</v>
+      </c>
+      <c r="I24" s="295">
         <v>10</v>
       </c>
       <c r="J24" s="41">
@@ -8546,33 +8557,33 @@
         <v>4300</v>
       </c>
       <c r="K24" s="19"/>
-      <c r="L24" s="309" t="s">
+      <c r="L24" s="296" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="301" t="s">
+      <c r="B25" s="288" t="s">
         <v>339</v>
       </c>
-      <c r="C25" s="301" t="s">
+      <c r="C25" s="288" t="s">
         <v>338</v>
       </c>
-      <c r="D25" s="303" t="s">
+      <c r="D25" s="290" t="s">
         <v>345</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="305">
-        <v>1</v>
-      </c>
-      <c r="G25" s="306">
+      <c r="F25" s="292">
+        <v>1</v>
+      </c>
+      <c r="G25" s="293">
         <v>430</v>
       </c>
-      <c r="H25" s="307">
-        <v>1</v>
-      </c>
-      <c r="I25" s="308">
+      <c r="H25" s="294">
+        <v>1</v>
+      </c>
+      <c r="I25" s="295">
         <v>10</v>
       </c>
       <c r="J25" s="41">
@@ -8580,7 +8591,7 @@
         <v>4300</v>
       </c>
       <c r="K25" s="19"/>
-      <c r="L25" s="309" t="s">
+      <c r="L25" s="296" t="s">
         <v>351</v>
       </c>
     </row>
@@ -8609,7 +8620,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>

--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">'0314'!$B$4:$F$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="353">
   <si>
     <t>Vendor</t>
   </si>
@@ -156,10 +156,6 @@
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1323,6 +1319,14 @@
   </si>
   <si>
     <t>P008215485</t>
+  </si>
+  <si>
+    <t>Exso</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2550,7 +2554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -2645,9 +2649,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2750,7 +2751,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2763,7 +2763,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3052,18 +3051,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="78" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="15" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="78">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="21" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="78" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3103,9 +3096,6 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="17" xfId="79" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="18" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="78" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3119,9 +3109,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="20" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="21" xfId="78" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="78" applyFill="1" applyBorder="1">
@@ -3207,8 +3194,23 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="95" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="18" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3219,27 +3221,9 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="41" fontId="27" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3248,6 +3232,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="15" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="18" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="21" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="18" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="96">
@@ -3404,7 +3409,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3439,7 +3444,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3672,51 +3677,51 @@
   <sheetData>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C6" s="5"/>
-      <c r="G6" s="140"/>
+      <c r="G6" s="137"/>
     </row>
     <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="302" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="300"/>
-      <c r="D9" s="297" t="s">
+      <c r="B9" s="291" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="292"/>
+      <c r="D9" s="295" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="292" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="292" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="296" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="138" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="293"/>
+      <c r="C10" s="294"/>
+      <c r="D10" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="300" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="300" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="298" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" s="141" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="304"/>
-      <c r="C10" s="301"/>
-      <c r="D10" s="142" t="s">
+      <c r="E10" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="142" t="s">
+      <c r="F10" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="142" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="301"/>
-      <c r="H10" s="301"/>
-      <c r="I10" s="299"/>
-    </row>
-    <row r="11" spans="2:14" s="141" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="305" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="306"/>
-      <c r="D11" s="144">
+      <c r="G10" s="294"/>
+      <c r="H10" s="294"/>
+      <c r="I10" s="297"/>
+    </row>
+    <row r="11" spans="2:14" s="138" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="289" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="290"/>
+      <c r="D11" s="141">
         <v>0.25</v>
       </c>
       <c r="E11" s="23">
@@ -3727,25 +3732,25 @@
         <f t="shared" ref="F11:F17" si="1">E11*3</f>
         <v>15</v>
       </c>
-      <c r="G11" s="145">
+      <c r="G11" s="142">
         <v>30000</v>
       </c>
       <c r="H11" s="23">
         <v>0.8</v>
       </c>
-      <c r="I11" s="146">
+      <c r="I11" s="143">
         <f t="shared" ref="I11:I17" si="2">F11*G11*H11</f>
         <v>360000</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="302" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="143" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="144">
+      <c r="B12" s="291" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="140" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="141">
         <v>1.5</v>
       </c>
       <c r="E12" s="23">
@@ -3756,13 +3761,13 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="G12" s="145">
+      <c r="G12" s="142">
         <v>30000</v>
       </c>
       <c r="H12" s="23">
         <v>0.8</v>
       </c>
-      <c r="I12" s="146">
+      <c r="I12" s="143">
         <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
@@ -3780,11 +3785,11 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="303"/>
-      <c r="C13" s="147" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="148">
+      <c r="B13" s="298"/>
+      <c r="C13" s="144" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="145">
         <v>0.5</v>
       </c>
       <c r="E13" s="19">
@@ -3801,17 +3806,17 @@
       <c r="H13" s="19">
         <v>0.8</v>
       </c>
-      <c r="I13" s="149">
+      <c r="I13" s="146">
         <f t="shared" si="2"/>
         <v>720000</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="304"/>
-      <c r="C14" s="150" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="151">
+      <c r="B14" s="293"/>
+      <c r="C14" s="147" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="148">
         <v>1</v>
       </c>
       <c r="E14" s="2">
@@ -3828,19 +3833,19 @@
       <c r="H14" s="2">
         <v>0.8</v>
       </c>
-      <c r="I14" s="152">
+      <c r="I14" s="149">
         <f t="shared" si="2"/>
         <v>1440000</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="302" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="143" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="144">
+      <c r="B15" s="291" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="140" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="141">
         <v>4</v>
       </c>
       <c r="E15" s="23">
@@ -3851,23 +3856,23 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="G15" s="145">
+      <c r="G15" s="142">
         <v>30000</v>
       </c>
       <c r="H15" s="23">
         <v>0.8</v>
       </c>
-      <c r="I15" s="146">
+      <c r="I15" s="143">
         <f t="shared" si="2"/>
         <v>5760000</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="303"/>
-      <c r="C16" s="147" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="148">
+      <c r="B16" s="298"/>
+      <c r="C16" s="144" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="145">
         <v>0</v>
       </c>
       <c r="E16" s="19">
@@ -3884,17 +3889,17 @@
       <c r="H16" s="19">
         <v>0.8</v>
       </c>
-      <c r="I16" s="149">
+      <c r="I16" s="146">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="304"/>
-      <c r="C17" s="150" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="151">
+      <c r="B17" s="293"/>
+      <c r="C17" s="147" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="148">
         <v>0.5</v>
       </c>
       <c r="E17" s="2">
@@ -3911,7 +3916,7 @@
       <c r="H17" s="2">
         <v>0.8</v>
       </c>
-      <c r="I17" s="152">
+      <c r="I17" s="149">
         <f t="shared" si="2"/>
         <v>720000</v>
       </c>
@@ -3934,128 +3939,128 @@
     </row>
     <row r="21" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="302" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="300"/>
-      <c r="D22" s="297" t="s">
+      <c r="B22" s="291" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="292"/>
+      <c r="D22" s="295" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="295"/>
+      <c r="F22" s="295"/>
+      <c r="G22" s="292" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="292" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="296" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="293"/>
+      <c r="C23" s="294"/>
+      <c r="D23" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="297"/>
-      <c r="F22" s="297"/>
-      <c r="G22" s="300" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="300" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="298" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="304"/>
-      <c r="C23" s="301"/>
-      <c r="D23" s="142" t="s">
+      <c r="E23" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="142" t="s">
+      <c r="F23" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="294"/>
+      <c r="H23" s="294"/>
+      <c r="I23" s="297"/>
+    </row>
+    <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="289" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="301"/>
-      <c r="H23" s="301"/>
-      <c r="I23" s="299"/>
-    </row>
-    <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="305" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="306"/>
-      <c r="D24" s="153">
-        <v>1</v>
-      </c>
-      <c r="E24" s="106">
+      <c r="C24" s="290"/>
+      <c r="D24" s="150">
+        <v>1</v>
+      </c>
+      <c r="E24" s="104">
         <f>D24*20</f>
         <v>20</v>
       </c>
-      <c r="F24" s="106">
+      <c r="F24" s="104">
         <f>E24*3.5</f>
         <v>70</v>
       </c>
-      <c r="G24" s="154">
+      <c r="G24" s="151">
         <v>30000</v>
       </c>
-      <c r="H24" s="106">
-        <v>1</v>
-      </c>
-      <c r="I24" s="155">
+      <c r="H24" s="104">
+        <v>1</v>
+      </c>
+      <c r="I24" s="152">
         <f>F24*G24*H24</f>
         <v>2100000</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="302" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="300"/>
-      <c r="D27" s="297" t="s">
+      <c r="B27" s="291" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="292"/>
+      <c r="D27" s="295" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="295"/>
+      <c r="F27" s="295"/>
+      <c r="G27" s="292" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="292" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="296" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="293"/>
+      <c r="C28" s="294"/>
+      <c r="D28" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="297"/>
-      <c r="F27" s="297"/>
-      <c r="G27" s="300" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="300" t="s">
-        <v>92</v>
-      </c>
-      <c r="I27" s="298" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="304"/>
-      <c r="C28" s="301"/>
-      <c r="D28" s="142" t="s">
+      <c r="E28" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="142" t="s">
+      <c r="F28" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="142" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="301"/>
-      <c r="H28" s="301"/>
-      <c r="I28" s="299"/>
+      <c r="G28" s="294"/>
+      <c r="H28" s="294"/>
+      <c r="I28" s="297"/>
     </row>
     <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="305" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="306"/>
-      <c r="D29" s="153">
+      <c r="B29" s="289" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="290"/>
+      <c r="D29" s="150">
         <v>3</v>
       </c>
-      <c r="E29" s="106">
+      <c r="E29" s="104">
         <f>D29*20</f>
         <v>60</v>
       </c>
-      <c r="F29" s="106">
+      <c r="F29" s="104">
         <f>E29*3</f>
         <v>180</v>
       </c>
-      <c r="G29" s="154">
+      <c r="G29" s="151">
         <v>22000</v>
       </c>
-      <c r="H29" s="106">
-        <v>1</v>
-      </c>
-      <c r="I29" s="155">
+      <c r="H29" s="104">
+        <v>1</v>
+      </c>
+      <c r="I29" s="152">
         <f>F29*G29*H29</f>
         <v>3960000</v>
       </c>
@@ -4071,18 +4076,19 @@
       </c>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I34" s="139">
+      <c r="I34" s="136">
         <f>I32/I33</f>
         <v>22222.222222222223</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B9:C10"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
@@ -4092,12 +4098,11 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4117,166 +4122,166 @@
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.125" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="56" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="57"/>
+    <col min="8" max="8" width="9" style="56"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
-        <v>314</v>
+      <c r="B1" s="56" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
-        <v>316</v>
+      <c r="B3" s="56" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>301</v>
+      <c r="C4" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>300</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="279" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" s="280" t="s">
+      <c r="C5" s="272" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="273" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="273" t="s">
         <v>302</v>
       </c>
-      <c r="E5" s="280" t="s">
+      <c r="F5" s="274" t="s">
         <v>303</v>
       </c>
-      <c r="F5" s="281" t="s">
-        <v>304</v>
-      </c>
-      <c r="H5" s="279" t="s">
-        <v>306</v>
-      </c>
-      <c r="I5" s="280" t="s">
+      <c r="H5" s="272" t="s">
+        <v>305</v>
+      </c>
+      <c r="I5" s="273" t="s">
+        <v>301</v>
+      </c>
+      <c r="J5" s="273" t="s">
         <v>302</v>
       </c>
-      <c r="J5" s="280" t="s">
+      <c r="K5" s="274" t="s">
         <v>303</v>
       </c>
-      <c r="K5" s="281" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="276" t="s">
-        <v>300</v>
-      </c>
-      <c r="D6" s="145">
+      <c r="C6" s="269" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="142">
         <v>169</v>
       </c>
-      <c r="E6" s="145">
+      <c r="E6" s="142">
         <v>630</v>
       </c>
-      <c r="F6" s="216">
+      <c r="F6" s="213">
         <f>D6*E6</f>
         <v>106470</v>
       </c>
-      <c r="H6" s="276" t="s">
-        <v>300</v>
-      </c>
-      <c r="I6" s="145">
+      <c r="H6" s="269" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" s="142">
         <v>169</v>
       </c>
-      <c r="J6" s="145">
+      <c r="J6" s="142">
         <v>500</v>
       </c>
-      <c r="K6" s="216">
+      <c r="K6" s="213">
         <f>I6*J6</f>
         <v>84500</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="277" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7" s="270">
+      <c r="C7" s="270" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="263">
         <v>15</v>
       </c>
-      <c r="E7" s="272" t="s">
-        <v>309</v>
-      </c>
-      <c r="F7" s="271">
+      <c r="E7" s="265" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" s="264">
         <f>F6*D7/100</f>
         <v>15970.5</v>
       </c>
-      <c r="H7" s="277" t="s">
-        <v>299</v>
-      </c>
-      <c r="I7" s="270">
+      <c r="H7" s="270" t="s">
+        <v>298</v>
+      </c>
+      <c r="I7" s="263">
         <v>15</v>
       </c>
-      <c r="J7" s="272" t="s">
-        <v>309</v>
-      </c>
-      <c r="K7" s="271">
+      <c r="J7" s="265" t="s">
+        <v>308</v>
+      </c>
+      <c r="K7" s="264">
         <f>K6*I7/100</f>
         <v>12675</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="278" t="s">
-        <v>311</v>
-      </c>
-      <c r="D8" s="273">
+      <c r="C8" s="271" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="266">
         <v>15</v>
       </c>
-      <c r="E8" s="274" t="s">
-        <v>310</v>
-      </c>
-      <c r="F8" s="275">
+      <c r="E8" s="267" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="268">
         <f>F6*D8/100</f>
         <v>15970.5</v>
       </c>
-      <c r="H8" s="278" t="s">
-        <v>311</v>
-      </c>
-      <c r="I8" s="273">
+      <c r="H8" s="271" t="s">
+        <v>310</v>
+      </c>
+      <c r="I8" s="266">
         <v>0</v>
       </c>
-      <c r="J8" s="274" t="s">
-        <v>310</v>
-      </c>
-      <c r="K8" s="275">
+      <c r="J8" s="267" t="s">
+        <v>309</v>
+      </c>
+      <c r="K8" s="268">
         <f>K6*I8/100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="305" t="s">
-        <v>305</v>
-      </c>
-      <c r="D9" s="306"/>
-      <c r="E9" s="306"/>
-      <c r="F9" s="284">
+    <row r="9" spans="2:11" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="289" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="277">
         <f>SUM(F6:F8)</f>
         <v>138411</v>
       </c>
-      <c r="H9" s="305" t="s">
-        <v>305</v>
-      </c>
-      <c r="I9" s="306"/>
-      <c r="J9" s="306"/>
-      <c r="K9" s="284">
+      <c r="H9" s="289" t="s">
+        <v>304</v>
+      </c>
+      <c r="I9" s="290"/>
+      <c r="J9" s="290"/>
+      <c r="K9" s="277">
         <f>SUM(K6:K8)</f>
         <v>97175</v>
       </c>
@@ -4290,64 +4295,64 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="282" t="s">
+      <c r="C11" s="275" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="276" t="s">
         <v>306</v>
       </c>
-      <c r="D11" s="283" t="s">
-        <v>307</v>
-      </c>
       <c r="E11" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="H11" s="282" t="s">
+      <c r="H11" s="275" t="s">
+        <v>305</v>
+      </c>
+      <c r="I11" s="276" t="s">
         <v>306</v>
       </c>
-      <c r="I11" s="283" t="s">
-        <v>307</v>
-      </c>
       <c r="J11" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="K11" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="K11" s="33" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="285" t="s">
-        <v>300</v>
-      </c>
-      <c r="D12" s="145">
+      <c r="C12" s="278" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="142">
         <v>4</v>
       </c>
-      <c r="E12" s="145">
+      <c r="E12" s="142">
         <f>F9</f>
         <v>138411</v>
       </c>
-      <c r="F12" s="100">
+      <c r="F12" s="99">
         <f>D12*E12</f>
         <v>553644</v>
       </c>
-      <c r="H12" s="285" t="s">
-        <v>300</v>
-      </c>
-      <c r="I12" s="145">
+      <c r="H12" s="278" t="s">
+        <v>299</v>
+      </c>
+      <c r="I12" s="142">
         <v>4</v>
       </c>
-      <c r="J12" s="145">
+      <c r="J12" s="142">
         <f>K9</f>
         <v>97175</v>
       </c>
-      <c r="K12" s="100">
+      <c r="K12" s="99">
         <f>I12*J12</f>
         <v>388700</v>
       </c>
     </row>
     <row r="13" spans="2:11" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="278" t="s">
-        <v>315</v>
+      <c r="C13" s="271" t="s">
+        <v>314</v>
       </c>
       <c r="D13" s="4">
         <v>4</v>
@@ -4355,12 +4360,12 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="286">
+      <c r="F13" s="279">
         <f>D13*E13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="278" t="s">
-        <v>315</v>
+      <c r="H13" s="271" t="s">
+        <v>314</v>
       </c>
       <c r="I13" s="4">
         <v>4</v>
@@ -4368,34 +4373,34 @@
       <c r="J13" s="4">
         <v>0</v>
       </c>
-      <c r="K13" s="286">
+      <c r="K13" s="279">
         <f>I13*J13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="305" t="s">
-        <v>308</v>
-      </c>
-      <c r="D14" s="306"/>
-      <c r="E14" s="307">
+      <c r="C14" s="289" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="290"/>
+      <c r="E14" s="299">
         <f>F12</f>
         <v>553644</v>
       </c>
-      <c r="F14" s="308"/>
-      <c r="H14" s="305" t="s">
-        <v>308</v>
-      </c>
-      <c r="I14" s="306"/>
-      <c r="J14" s="307">
+      <c r="F14" s="300"/>
+      <c r="H14" s="289" t="s">
+        <v>307</v>
+      </c>
+      <c r="I14" s="290"/>
+      <c r="J14" s="299">
         <f>K12</f>
         <v>388700</v>
       </c>
-      <c r="K14" s="308"/>
+      <c r="K14" s="300"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="309"/>
-      <c r="D15" s="309"/>
+      <c r="C15" s="301"/>
+      <c r="D15" s="301"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
@@ -4410,71 +4415,71 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="279" t="s">
-        <v>306</v>
-      </c>
-      <c r="D18" s="280" t="s">
+      <c r="C18" s="272" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="273" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" s="273" t="s">
         <v>302</v>
       </c>
-      <c r="E18" s="280" t="s">
+      <c r="F18" s="274" t="s">
         <v>303</v>
       </c>
-      <c r="F18" s="281" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="276" t="s">
-        <v>312</v>
-      </c>
-      <c r="D19" s="145">
+      <c r="C19" s="269" t="s">
+        <v>311</v>
+      </c>
+      <c r="D19" s="142">
         <v>52</v>
       </c>
-      <c r="E19" s="145">
+      <c r="E19" s="142">
         <v>670</v>
       </c>
-      <c r="F19" s="216">
+      <c r="F19" s="213">
         <f>D19*E19</f>
         <v>34840</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="277" t="s">
-        <v>299</v>
-      </c>
-      <c r="D20" s="270">
+      <c r="C20" s="270" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" s="263">
         <v>15</v>
       </c>
-      <c r="E20" s="272" t="s">
-        <v>309</v>
-      </c>
-      <c r="F20" s="271">
+      <c r="E20" s="265" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" s="264">
         <f>F19*D20/100</f>
         <v>5226</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="278" t="s">
-        <v>311</v>
-      </c>
-      <c r="D21" s="273">
+      <c r="C21" s="271" t="s">
+        <v>310</v>
+      </c>
+      <c r="D21" s="266">
         <v>15</v>
       </c>
-      <c r="E21" s="274" t="s">
-        <v>310</v>
-      </c>
-      <c r="F21" s="275">
+      <c r="E21" s="267" t="s">
+        <v>309</v>
+      </c>
+      <c r="F21" s="268">
         <f>F19*D21/100</f>
         <v>5226</v>
       </c>
     </row>
-    <row r="22" spans="3:8" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="305" t="s">
-        <v>305</v>
-      </c>
-      <c r="D22" s="306"/>
-      <c r="E22" s="306"/>
-      <c r="F22" s="284">
+    <row r="22" spans="3:8" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="289" t="s">
+        <v>304</v>
+      </c>
+      <c r="D22" s="290"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="277">
         <f>SUM(F19:F21)</f>
         <v>45292</v>
       </c>
@@ -4485,38 +4490,38 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="282" t="s">
+      <c r="C24" s="275" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" s="276" t="s">
         <v>306</v>
       </c>
-      <c r="D24" s="283" t="s">
-        <v>307</v>
-      </c>
       <c r="E24" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="F24" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="F24" s="33" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="276" t="s">
-        <v>312</v>
-      </c>
-      <c r="D25" s="145">
+      <c r="C25" s="269" t="s">
+        <v>311</v>
+      </c>
+      <c r="D25" s="142">
         <v>4</v>
       </c>
-      <c r="E25" s="145">
+      <c r="E25" s="142">
         <f>F22</f>
         <v>45292</v>
       </c>
-      <c r="F25" s="100">
+      <c r="F25" s="99">
         <f>D25*E25</f>
         <v>181168</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="278" t="s">
-        <v>313</v>
+      <c r="C26" s="271" t="s">
+        <v>312</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -4524,14 +4529,14 @@
       <c r="E26" s="4">
         <v>110000</v>
       </c>
-      <c r="F26" s="286">
+      <c r="F26" s="279">
         <f>D26*E26</f>
         <v>110000</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="278" t="s">
-        <v>315</v>
+      <c r="C27" s="271" t="s">
+        <v>314</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
@@ -4539,22 +4544,22 @@
       <c r="E27" s="4">
         <v>0</v>
       </c>
-      <c r="F27" s="286">
+      <c r="F27" s="279">
         <f>D27*E27</f>
         <v>0</v>
       </c>
-      <c r="H27" s="57"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="305" t="s">
-        <v>308</v>
-      </c>
-      <c r="D28" s="306"/>
-      <c r="E28" s="307">
+      <c r="C28" s="289" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" s="290"/>
+      <c r="E28" s="299">
         <f>SUM(F25:F27)</f>
         <v>291168</v>
       </c>
-      <c r="F28" s="308"/>
+      <c r="F28" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4585,176 +4590,176 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.75" style="208" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="206" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="205" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="203" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="55.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="210" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="207">
+      <c r="C3" s="207" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="204">
         <f>SUM(D5:D25)</f>
         <v>1570330</v>
       </c>
     </row>
-    <row r="4" spans="2:5" s="209" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="211" t="s">
+    <row r="4" spans="2:5" s="206" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="208" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="209" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="210" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="212" t="s">
+      <c r="E4" s="209" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="211">
+        <v>43075</v>
+      </c>
+      <c r="C5" s="212" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="213" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4" s="212" t="s">
+      <c r="D5" s="213">
+        <v>62080</v>
+      </c>
+      <c r="E5" s="212"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="214">
+        <v>43136</v>
+      </c>
+      <c r="C6" s="215" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="216">
+        <v>81880</v>
+      </c>
+      <c r="E6" s="215"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="214">
+        <v>43139</v>
+      </c>
+      <c r="C7" s="215" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="216">
+        <v>42900</v>
+      </c>
+      <c r="E7" s="215"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="214">
+        <v>43173</v>
+      </c>
+      <c r="C8" s="215" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="216">
+        <v>514080</v>
+      </c>
+      <c r="E8" s="215" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="214">
-        <v>43075</v>
-      </c>
-      <c r="C5" s="215" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="216">
-        <v>62080</v>
-      </c>
-      <c r="E5" s="215"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="217">
-        <v>43136</v>
-      </c>
-      <c r="C6" s="218" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="219">
-        <v>81880</v>
-      </c>
-      <c r="E6" s="218"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="217">
-        <v>43139</v>
-      </c>
-      <c r="C7" s="218" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" s="219">
-        <v>42900</v>
-      </c>
-      <c r="E7" s="218"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="217">
-        <v>43173</v>
-      </c>
-      <c r="C8" s="218" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="219">
-        <v>514080</v>
-      </c>
-      <c r="E8" s="218" t="s">
-        <v>208</v>
-      </c>
-    </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="217">
+      <c r="B9" s="214">
         <v>43193</v>
       </c>
-      <c r="C9" s="218" t="s">
+      <c r="C9" s="215" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="216">
+        <v>869390</v>
+      </c>
+      <c r="E9" s="215" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="219">
-        <v>869390</v>
-      </c>
-      <c r="E9" s="218" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="217"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="218"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="215"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="217"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="218"/>
+      <c r="B11" s="214"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="215"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="217"/>
-      <c r="C12" s="218"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="218"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="215"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="215"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="217"/>
-      <c r="C13" s="218"/>
-      <c r="D13" s="219"/>
-      <c r="E13" s="218"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="215"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="217"/>
-      <c r="C14" s="218"/>
-      <c r="D14" s="219"/>
-      <c r="E14" s="218"/>
+      <c r="B14" s="214"/>
+      <c r="C14" s="215"/>
+      <c r="D14" s="216"/>
+      <c r="E14" s="215"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="217"/>
-      <c r="C15" s="218"/>
-      <c r="D15" s="219"/>
-      <c r="E15" s="218"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="215"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="217"/>
-      <c r="C16" s="218"/>
-      <c r="D16" s="219"/>
-      <c r="E16" s="218"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="216"/>
+      <c r="E16" s="215"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="217"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="218"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="215"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="217"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="219"/>
-      <c r="E18" s="218"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="215"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="217"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="218"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="215"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="217"/>
-      <c r="C20" s="218"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="218"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="215"/>
+      <c r="D20" s="216"/>
+      <c r="E20" s="215"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="217"/>
-      <c r="C21" s="218"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="218"/>
+      <c r="B21" s="214"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="216"/>
+      <c r="E21" s="215"/>
     </row>
     <row r="22" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="220"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="222"/>
-      <c r="E22" s="221"/>
+      <c r="B22" s="217"/>
+      <c r="C22" s="218"/>
+      <c r="D22" s="219"/>
+      <c r="E22" s="218"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -4768,7 +4773,7 @@
   <dimension ref="B2:K32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4785,8 +4790,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="57" t="s">
-        <v>43</v>
+      <c r="B2" s="56" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4840,7 +4845,7 @@
       <c r="G4" s="21">
         <v>100</v>
       </c>
-      <c r="H4" s="80">
+      <c r="H4" s="79">
         <v>50</v>
       </c>
       <c r="I4" s="40">
@@ -4885,21 +4890,21 @@
     </row>
     <row r="6" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="22">
         <v>2</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="54" t="s">
+      <c r="D6" s="310" t="s">
+        <v>352</v>
+      </c>
+      <c r="E6" s="53" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="22">
         <v>1</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="54">
         <v>960</v>
       </c>
       <c r="H6" s="7">
@@ -4909,7 +4914,7 @@
         <v>16400</v>
       </c>
       <c r="J6" s="19"/>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="55" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4945,68 +4950,68 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="63">
-        <v>1</v>
-      </c>
-      <c r="D8" s="64" t="s">
+      <c r="C8" s="62">
+        <v>1</v>
+      </c>
+      <c r="D8" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="65">
         <v>2</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="66">
         <v>7100</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="66">
         <v>0</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="67">
         <f t="shared" ref="I8:I11" si="0">G8*H8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="69" t="s">
+      <c r="J8" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="68" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="63">
-        <v>1</v>
-      </c>
-      <c r="D9" s="64" t="s">
+      <c r="C9" s="62">
+        <v>1</v>
+      </c>
+      <c r="D9" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="66">
-        <v>1</v>
-      </c>
-      <c r="G9" s="67">
+      <c r="F9" s="65">
+        <v>1</v>
+      </c>
+      <c r="G9" s="66">
         <v>10080</v>
       </c>
-      <c r="H9" s="67">
+      <c r="H9" s="66">
         <v>0</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="69" t="s">
+      <c r="J9" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="68" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5091,7 +5096,7 @@
       <c r="G12" s="16">
         <v>20</v>
       </c>
-      <c r="H12" s="79">
+      <c r="H12" s="78">
         <v>200</v>
       </c>
       <c r="I12" s="44">
@@ -5099,10 +5104,10 @@
         <v>4000</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
@@ -5134,8 +5139,8 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="57" t="s">
-        <v>47</v>
+      <c r="B16" s="56" t="s">
+        <v>46</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -5173,13 +5178,13 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="72">
-        <v>1</v>
-      </c>
-      <c r="D18" s="73" t="s">
+      <c r="C18" s="71">
+        <v>1</v>
+      </c>
+      <c r="D18" s="72" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="35" t="s">
@@ -5191,10 +5196,10 @@
       <c r="G18" s="21">
         <v>7100</v>
       </c>
-      <c r="H18" s="80">
+      <c r="H18" s="79">
         <v>2</v>
       </c>
-      <c r="I18" s="74">
+      <c r="I18" s="73">
         <f t="shared" ref="I18:I20" si="1">G18*H18</f>
         <v>14200</v>
       </c>
@@ -5204,58 +5209,58 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="66">
-        <v>1</v>
-      </c>
-      <c r="D19" s="65" t="s">
+      <c r="C19" s="65">
+        <v>1</v>
+      </c>
+      <c r="D19" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="66">
-        <v>1</v>
-      </c>
-      <c r="G19" s="67">
+      <c r="F19" s="65">
+        <v>1</v>
+      </c>
+      <c r="G19" s="66">
         <v>11090</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="66">
         <v>0</v>
       </c>
-      <c r="I19" s="68">
+      <c r="I19" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="69" t="s">
+      <c r="J19" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="75">
+      <c r="B20" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="74">
         <v>10</v>
       </c>
-      <c r="D20" s="58" t="s">
-        <v>40</v>
+      <c r="D20" s="57" t="s">
+        <v>39</v>
       </c>
       <c r="E20" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="75">
         <v>5</v>
       </c>
       <c r="G20" s="4">
         <v>2280</v>
       </c>
-      <c r="H20" s="81">
+      <c r="H20" s="80">
         <v>10</v>
       </c>
       <c r="I20" s="44">
@@ -5264,7 +5269,7 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
@@ -5289,8 +5294,8 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="57" t="s">
-        <v>51</v>
+      <c r="B27" s="56" t="s">
+        <v>50</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5330,17 +5335,17 @@
         <v>7</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="72">
-        <v>1</v>
-      </c>
-      <c r="D29" s="73" t="s">
+      <c r="B29" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="71">
+        <v>1</v>
+      </c>
+      <c r="D29" s="72" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="35" t="s">
@@ -5352,16 +5357,16 @@
       <c r="G29" s="21">
         <v>13200</v>
       </c>
-      <c r="H29" s="80">
+      <c r="H29" s="79">
         <v>4</v>
       </c>
-      <c r="I29" s="74">
+      <c r="I29" s="73">
         <f t="shared" ref="I29" si="2">G29*H29</f>
         <v>52800</v>
       </c>
       <c r="J29" s="35"/>
       <c r="K29" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
@@ -5426,1301 +5431,1301 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="158"/>
-    <col min="2" max="2" width="6" style="158" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="159" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="158" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.625" style="158" customWidth="1"/>
-    <col min="6" max="7" width="9" style="158"/>
-    <col min="8" max="8" width="9.375" style="158" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9" style="158"/>
-    <col min="13" max="13" width="9.875" style="158" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="158" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" style="158" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="158"/>
+    <col min="1" max="1" width="9" style="155"/>
+    <col min="2" max="2" width="6" style="155" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="156" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="155" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.625" style="155" customWidth="1"/>
+    <col min="6" max="7" width="9" style="155"/>
+    <col min="8" max="8" width="9.375" style="155" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9" style="155"/>
+    <col min="13" max="13" width="9.875" style="155" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="155" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5" style="155" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="155"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="156" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="157"/>
+    <row r="1" spans="1:15" s="153" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="154"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J2" s="124" t="s">
+      <c r="J2" s="121" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="153" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" s="121">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="157"/>
+      <c r="B4" s="158" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="159" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="159" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="159" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="159" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="156" t="s">
-        <v>186</v>
-      </c>
-      <c r="J3" s="124">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="160"/>
-      <c r="B4" s="161" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="162" t="s">
+      <c r="H4" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="162" t="s">
+      <c r="I4" s="161" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="163" t="s">
+      <c r="J4" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="164" t="s">
+      <c r="K4" s="118" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="118" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="121" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="121" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="121" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="121" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="122" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="162">
+        <v>15</v>
+      </c>
+      <c r="C5" s="164" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="165">
-        <v>15</v>
-      </c>
-      <c r="C5" s="167" t="s">
+      <c r="D5" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="166" t="s">
+      <c r="E5" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="166" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="166">
-        <v>1</v>
-      </c>
-      <c r="G5" s="166">
+      <c r="F5" s="163">
+        <v>1</v>
+      </c>
+      <c r="G5" s="163">
         <v>520</v>
       </c>
-      <c r="H5" s="168">
+      <c r="H5" s="165">
         <f t="shared" ref="H5:H14" si="0">F5*G5</f>
         <v>520</v>
       </c>
-      <c r="I5" s="173">
+      <c r="I5" s="170">
         <v>380</v>
       </c>
-      <c r="J5" s="128">
+      <c r="J5" s="125">
         <f t="shared" ref="J5:J25" si="1">F5*J$3</f>
         <v>20</v>
       </c>
-      <c r="K5" s="166">
-        <v>1</v>
-      </c>
-      <c r="L5" s="166">
+      <c r="K5" s="163">
+        <v>1</v>
+      </c>
+      <c r="L5" s="163">
         <v>20</v>
       </c>
-      <c r="M5" s="178">
+      <c r="M5" s="175">
         <f t="shared" ref="M5:M11" si="2">I5*L5</f>
         <v>7600</v>
       </c>
-      <c r="N5" s="175" t="s">
+      <c r="N5" s="172" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="166">
+        <v>16</v>
+      </c>
+      <c r="C6" s="168" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="169">
-        <v>16</v>
-      </c>
-      <c r="C6" s="171" t="s">
+      <c r="D6" s="167" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="170" t="s">
+      <c r="E6" s="167" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="170" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="170">
-        <v>1</v>
-      </c>
-      <c r="G6" s="170">
+      <c r="F6" s="167">
+        <v>1</v>
+      </c>
+      <c r="G6" s="167">
         <v>200</v>
       </c>
-      <c r="H6" s="172">
+      <c r="H6" s="169">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I6" s="176">
+      <c r="I6" s="173">
         <v>200</v>
       </c>
-      <c r="J6" s="177">
+      <c r="J6" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K6" s="170">
+      <c r="K6" s="167">
         <v>10</v>
       </c>
-      <c r="L6" s="170">
+      <c r="L6" s="167">
         <v>20</v>
       </c>
-      <c r="M6" s="178">
+      <c r="M6" s="175">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="N6" s="179" t="s">
-        <v>114</v>
+      <c r="N6" s="176" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="169">
+      <c r="B7" s="166">
         <v>18</v>
       </c>
-      <c r="C7" s="171" t="s">
+      <c r="C7" s="168" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="167" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="170" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="170" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="170">
-        <v>1</v>
-      </c>
-      <c r="G7" s="170">
+      <c r="F7" s="167">
+        <v>1</v>
+      </c>
+      <c r="G7" s="167">
         <v>380</v>
       </c>
-      <c r="H7" s="172">
+      <c r="H7" s="169">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="I7" s="176">
+      <c r="I7" s="173">
         <v>380</v>
       </c>
-      <c r="J7" s="177">
+      <c r="J7" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K7" s="170">
+      <c r="K7" s="167">
         <v>10</v>
       </c>
-      <c r="L7" s="170">
+      <c r="L7" s="167">
         <v>10</v>
       </c>
-      <c r="M7" s="178">
+      <c r="M7" s="175">
         <f t="shared" si="2"/>
         <v>3800</v>
       </c>
-      <c r="N7" s="179" t="s">
+      <c r="N7" s="176" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="166">
+        <v>19</v>
+      </c>
+      <c r="C8" s="168" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="169">
-        <v>19</v>
-      </c>
-      <c r="C8" s="171" t="s">
+      <c r="D8" s="167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="170" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="170" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="170">
-        <v>1</v>
-      </c>
-      <c r="G8" s="170">
+      <c r="F8" s="167">
+        <v>1</v>
+      </c>
+      <c r="G8" s="167">
         <v>110</v>
       </c>
-      <c r="H8" s="172">
+      <c r="H8" s="169">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="I8" s="176">
+      <c r="I8" s="173">
         <v>110</v>
       </c>
-      <c r="J8" s="177">
+      <c r="J8" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K8" s="170">
+      <c r="K8" s="167">
         <v>10</v>
       </c>
-      <c r="L8" s="170">
+      <c r="L8" s="167">
         <v>20</v>
       </c>
-      <c r="M8" s="178">
+      <c r="M8" s="175">
         <f t="shared" si="2"/>
         <v>2200</v>
       </c>
-      <c r="N8" s="179" t="s">
+      <c r="N8" s="176" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="166">
+        <v>20</v>
+      </c>
+      <c r="C9" s="168" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="169">
-        <v>20</v>
-      </c>
-      <c r="C9" s="171" t="s">
+      <c r="D9" s="167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="170" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="170" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="170">
-        <v>1</v>
-      </c>
-      <c r="G9" s="170">
+      <c r="F9" s="167">
+        <v>1</v>
+      </c>
+      <c r="G9" s="167">
         <v>220</v>
       </c>
-      <c r="H9" s="172">
+      <c r="H9" s="169">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="I9" s="176">
+      <c r="I9" s="173">
         <v>220</v>
       </c>
-      <c r="J9" s="177">
+      <c r="J9" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K9" s="170">
+      <c r="K9" s="167">
         <v>10</v>
       </c>
-      <c r="L9" s="170">
+      <c r="L9" s="167">
         <v>20</v>
       </c>
-      <c r="M9" s="178">
+      <c r="M9" s="175">
         <f t="shared" si="2"/>
         <v>4400</v>
       </c>
-      <c r="N9" s="179" t="s">
+      <c r="N9" s="176" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="166">
+        <v>21</v>
+      </c>
+      <c r="C10" s="168" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="169">
-        <v>21</v>
-      </c>
-      <c r="C10" s="171" t="s">
+      <c r="D10" s="167" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="170" t="s">
+      <c r="E10" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="170" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="170">
-        <v>1</v>
-      </c>
-      <c r="G10" s="170">
+      <c r="F10" s="167">
+        <v>1</v>
+      </c>
+      <c r="G10" s="167">
         <v>260</v>
       </c>
-      <c r="H10" s="172">
+      <c r="H10" s="169">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="I10" s="176">
+      <c r="I10" s="173">
         <v>320</v>
       </c>
-      <c r="J10" s="177">
+      <c r="J10" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K10" s="170">
-        <v>1</v>
-      </c>
-      <c r="L10" s="170">
+      <c r="K10" s="167">
+        <v>1</v>
+      </c>
+      <c r="L10" s="167">
         <v>20</v>
       </c>
-      <c r="M10" s="178">
+      <c r="M10" s="175">
         <f t="shared" si="2"/>
         <v>6400</v>
       </c>
-      <c r="N10" s="179" t="s">
+      <c r="N10" s="176" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="166">
+        <v>22</v>
+      </c>
+      <c r="C11" s="168" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="169">
-        <v>22</v>
-      </c>
-      <c r="C11" s="171" t="s">
+      <c r="D11" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="170" t="s">
+      <c r="E11" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="170" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="170">
-        <v>1</v>
-      </c>
-      <c r="G11" s="170">
+      <c r="F11" s="167">
+        <v>1</v>
+      </c>
+      <c r="G11" s="167">
         <v>420</v>
       </c>
-      <c r="H11" s="172">
+      <c r="H11" s="169">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="I11" s="176">
+      <c r="I11" s="173">
         <v>350</v>
       </c>
-      <c r="J11" s="177">
+      <c r="J11" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K11" s="170">
-        <v>1</v>
-      </c>
-      <c r="L11" s="181">
+      <c r="K11" s="167">
+        <v>1</v>
+      </c>
+      <c r="L11" s="178">
         <v>20</v>
       </c>
-      <c r="M11" s="178">
+      <c r="M11" s="175">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="N11" s="179" t="s">
+      <c r="N11" s="176" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="O11" s="158" t="s">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="166">
+        <v>23</v>
+      </c>
+      <c r="C12" s="168" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="169">
-        <v>23</v>
-      </c>
-      <c r="C12" s="171" t="s">
+      <c r="D12" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="170" t="s">
+      <c r="E12" s="167" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="170" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="170">
-        <v>1</v>
-      </c>
-      <c r="G12" s="170">
+      <c r="F12" s="167">
+        <v>1</v>
+      </c>
+      <c r="G12" s="167">
         <v>2150</v>
       </c>
-      <c r="H12" s="172">
+      <c r="H12" s="169">
         <f t="shared" si="0"/>
         <v>2150</v>
       </c>
-      <c r="I12" s="176">
+      <c r="I12" s="173">
         <v>1880</v>
       </c>
-      <c r="J12" s="177">
+      <c r="J12" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K12" s="170">
-        <v>1</v>
-      </c>
-      <c r="L12" s="170">
+      <c r="K12" s="167">
+        <v>1</v>
+      </c>
+      <c r="L12" s="167">
         <v>20</v>
       </c>
-      <c r="M12" s="178">
+      <c r="M12" s="175">
         <f>I12*L12</f>
         <v>37600</v>
       </c>
-      <c r="N12" s="179" t="s">
+      <c r="N12" s="176" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="166">
+        <v>24</v>
+      </c>
+      <c r="C13" s="168" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="169">
-        <v>24</v>
-      </c>
-      <c r="C13" s="171" t="s">
+      <c r="D13" s="167" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="170" t="s">
+      <c r="E13" s="167" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="170" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="170">
-        <v>1</v>
-      </c>
-      <c r="G13" s="170">
+      <c r="F13" s="167">
+        <v>1</v>
+      </c>
+      <c r="G13" s="167">
         <v>480</v>
       </c>
-      <c r="H13" s="172">
+      <c r="H13" s="169">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="I13" s="176">
+      <c r="I13" s="173">
         <v>260</v>
       </c>
-      <c r="J13" s="177">
+      <c r="J13" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K13" s="170">
-        <v>1</v>
-      </c>
-      <c r="L13" s="180">
+      <c r="K13" s="167">
+        <v>1</v>
+      </c>
+      <c r="L13" s="177">
         <v>100</v>
       </c>
-      <c r="M13" s="178">
+      <c r="M13" s="175">
         <f t="shared" ref="M13:M25" si="3">I13*L13</f>
         <v>26000</v>
       </c>
-      <c r="N13" s="179" t="s">
+      <c r="N13" s="176" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" s="155" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="166">
+        <v>25</v>
+      </c>
+      <c r="C14" s="168" t="s">
         <v>142</v>
       </c>
-      <c r="O13" s="158" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="169">
-        <v>25</v>
-      </c>
-      <c r="C14" s="171" t="s">
+      <c r="D14" s="167" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="170" t="s">
+      <c r="E14" s="167" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="170" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="170">
-        <v>1</v>
-      </c>
-      <c r="G14" s="170">
+      <c r="F14" s="167">
+        <v>1</v>
+      </c>
+      <c r="G14" s="167">
         <v>720</v>
       </c>
-      <c r="H14" s="172">
+      <c r="H14" s="169">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="I14" s="176">
+      <c r="I14" s="173">
         <v>1270</v>
       </c>
-      <c r="J14" s="177">
+      <c r="J14" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K14" s="170">
-        <v>1</v>
-      </c>
-      <c r="L14" s="170">
+      <c r="K14" s="167">
+        <v>1</v>
+      </c>
+      <c r="L14" s="167">
         <v>20</v>
       </c>
-      <c r="M14" s="178">
+      <c r="M14" s="175">
         <f t="shared" si="3"/>
         <v>25400</v>
       </c>
-      <c r="N14" s="179" t="s">
+      <c r="N14" s="176" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="166">
+        <v>26</v>
+      </c>
+      <c r="C15" s="168" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="169">
-        <v>26</v>
-      </c>
-      <c r="C15" s="171" t="s">
+      <c r="D15" s="167" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="170" t="s">
+      <c r="E15" s="167" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="170" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="170">
-        <v>1</v>
-      </c>
-      <c r="G15" s="170">
+      <c r="F15" s="167">
+        <v>1</v>
+      </c>
+      <c r="G15" s="167">
         <v>20</v>
       </c>
-      <c r="H15" s="182">
+      <c r="H15" s="179">
         <v>40</v>
       </c>
-      <c r="I15" s="176">
+      <c r="I15" s="173">
         <v>40</v>
       </c>
-      <c r="J15" s="177">
+      <c r="J15" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K15" s="170">
+      <c r="K15" s="167">
         <v>10</v>
       </c>
-      <c r="L15" s="170">
+      <c r="L15" s="167">
         <v>20</v>
       </c>
-      <c r="M15" s="178">
+      <c r="M15" s="175">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="N15" s="179" t="s">
+      <c r="N15" s="176" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="166">
+        <v>27</v>
+      </c>
+      <c r="C16" s="168" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="169">
-        <v>27</v>
-      </c>
-      <c r="C16" s="171" t="s">
+      <c r="D16" s="167" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="167" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="170" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="170" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="170">
-        <v>1</v>
-      </c>
-      <c r="G16" s="170">
+      <c r="F16" s="167">
+        <v>1</v>
+      </c>
+      <c r="G16" s="167">
         <v>20</v>
       </c>
-      <c r="H16" s="172">
+      <c r="H16" s="169">
         <f t="shared" ref="H16:H21" si="4">F16*G16</f>
         <v>20</v>
       </c>
-      <c r="I16" s="176">
+      <c r="I16" s="173">
         <v>20</v>
       </c>
-      <c r="J16" s="177">
+      <c r="J16" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K16" s="170">
+      <c r="K16" s="167">
         <v>10</v>
       </c>
-      <c r="L16" s="180">
+      <c r="L16" s="177">
         <v>40</v>
       </c>
-      <c r="M16" s="178">
+      <c r="M16" s="175">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="N16" s="179" t="s">
+      <c r="N16" s="176" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" s="155" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="166">
+        <v>28</v>
+      </c>
+      <c r="C17" s="168" t="s">
         <v>153</v>
       </c>
-      <c r="O16" s="158" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="169">
-        <v>28</v>
-      </c>
-      <c r="C17" s="171" t="s">
+      <c r="D17" s="167" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="170" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="170" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="170">
-        <v>1</v>
-      </c>
-      <c r="G17" s="170">
+      <c r="F17" s="167">
+        <v>1</v>
+      </c>
+      <c r="G17" s="167">
         <v>40</v>
       </c>
-      <c r="H17" s="172">
+      <c r="H17" s="169">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="I17" s="176">
+      <c r="I17" s="173">
         <v>250</v>
       </c>
-      <c r="J17" s="177">
+      <c r="J17" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K17" s="170">
+      <c r="K17" s="167">
         <v>10</v>
       </c>
-      <c r="L17" s="170">
+      <c r="L17" s="167">
         <v>20</v>
       </c>
-      <c r="M17" s="178">
+      <c r="M17" s="175">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="N17" s="183" t="s">
+      <c r="N17" s="180" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="O17" s="158" t="s">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="166">
+        <v>29</v>
+      </c>
+      <c r="C18" s="168" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="169">
-        <v>29</v>
-      </c>
-      <c r="C18" s="171" t="s">
+      <c r="D18" s="167" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="167" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="170" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="170" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="170">
-        <v>1</v>
-      </c>
-      <c r="G18" s="170">
+      <c r="F18" s="167">
+        <v>1</v>
+      </c>
+      <c r="G18" s="167">
         <v>20</v>
       </c>
-      <c r="H18" s="172">
+      <c r="H18" s="169">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="I18" s="176">
+      <c r="I18" s="173">
         <v>20</v>
       </c>
-      <c r="J18" s="177">
+      <c r="J18" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K18" s="170">
+      <c r="K18" s="167">
         <v>10</v>
       </c>
-      <c r="L18" s="180">
+      <c r="L18" s="177">
         <v>40</v>
       </c>
-      <c r="M18" s="178">
+      <c r="M18" s="175">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="N18" s="183" t="s">
+      <c r="N18" s="180" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" s="155" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="166">
+        <v>31</v>
+      </c>
+      <c r="C19" s="168" t="s">
         <v>160</v>
       </c>
-      <c r="O18" s="158" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="169">
-        <v>31</v>
-      </c>
-      <c r="C19" s="171" t="s">
+      <c r="D19" s="167" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="170" t="s">
+      <c r="E19" s="167" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="170" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" s="170">
-        <v>1</v>
-      </c>
-      <c r="G19" s="170">
+      <c r="F19" s="167">
+        <v>1</v>
+      </c>
+      <c r="G19" s="167">
         <v>160</v>
       </c>
-      <c r="H19" s="172">
+      <c r="H19" s="169">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="I19" s="176">
+      <c r="I19" s="173">
         <v>160</v>
       </c>
-      <c r="J19" s="177">
+      <c r="J19" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K19" s="170">
+      <c r="K19" s="167">
         <v>50</v>
       </c>
-      <c r="L19" s="181">
+      <c r="L19" s="178">
         <v>50</v>
       </c>
-      <c r="M19" s="178">
+      <c r="M19" s="175">
         <f t="shared" si="3"/>
         <v>8000</v>
       </c>
-      <c r="N19" s="179" t="s">
+      <c r="N19" s="176" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="O19" s="158" t="s">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="166">
+        <v>32</v>
+      </c>
+      <c r="C20" s="168" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="169">
-        <v>32</v>
-      </c>
-      <c r="C20" s="171" t="s">
+      <c r="D20" s="167" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="170" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="170" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="170">
+      <c r="E20" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="167">
         <v>3</v>
       </c>
-      <c r="G20" s="170">
+      <c r="G20" s="167">
         <v>280</v>
       </c>
-      <c r="H20" s="172">
+      <c r="H20" s="169">
         <f t="shared" si="4"/>
         <v>840</v>
       </c>
-      <c r="I20" s="176">
+      <c r="I20" s="173">
         <v>270</v>
       </c>
-      <c r="J20" s="177">
+      <c r="J20" s="174">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K20" s="170">
-        <v>1</v>
-      </c>
-      <c r="L20" s="170">
+      <c r="K20" s="167">
+        <v>1</v>
+      </c>
+      <c r="L20" s="167">
         <v>60</v>
       </c>
-      <c r="M20" s="178">
+      <c r="M20" s="175">
         <f t="shared" si="3"/>
         <v>16200</v>
       </c>
-      <c r="N20" s="179" t="s">
+      <c r="N20" s="176" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="166">
+        <v>33</v>
+      </c>
+      <c r="C21" s="168" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="169">
-        <v>33</v>
-      </c>
-      <c r="C21" s="171" t="s">
+      <c r="D21" s="167" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="170" t="s">
+      <c r="E21" s="167" t="s">
         <v>170</v>
       </c>
-      <c r="E21" s="170" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="170">
-        <v>1</v>
-      </c>
-      <c r="G21" s="170">
+      <c r="F21" s="167">
+        <v>1</v>
+      </c>
+      <c r="G21" s="167">
         <v>3970</v>
       </c>
-      <c r="H21" s="172">
+      <c r="H21" s="169">
         <f t="shared" si="4"/>
         <v>3970</v>
       </c>
-      <c r="I21" s="176">
+      <c r="I21" s="173">
         <v>2340</v>
       </c>
-      <c r="J21" s="177">
+      <c r="J21" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K21" s="170">
-        <v>1</v>
-      </c>
-      <c r="L21" s="180">
+      <c r="K21" s="167">
+        <v>1</v>
+      </c>
+      <c r="L21" s="177">
         <v>40</v>
       </c>
-      <c r="M21" s="178">
+      <c r="M21" s="175">
         <f t="shared" si="3"/>
         <v>93600</v>
       </c>
-      <c r="N21" s="179" t="s">
+      <c r="N21" s="176" t="s">
+        <v>114</v>
+      </c>
+      <c r="O21" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="O21" s="158" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="169">
+      <c r="B22" s="166">
         <v>34</v>
       </c>
-      <c r="C22" s="171" t="s">
+      <c r="C22" s="168" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="167" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="170" t="s">
+      <c r="E22" s="167" t="s">
         <v>173</v>
       </c>
-      <c r="E22" s="170" t="s">
-        <v>174</v>
-      </c>
-      <c r="F22" s="170">
-        <v>1</v>
-      </c>
-      <c r="G22" s="170">
+      <c r="F22" s="167">
+        <v>1</v>
+      </c>
+      <c r="G22" s="167">
         <v>750</v>
       </c>
-      <c r="H22" s="172">
+      <c r="H22" s="169">
         <v>3240</v>
       </c>
-      <c r="I22" s="176">
+      <c r="I22" s="173">
         <v>550</v>
       </c>
-      <c r="J22" s="177">
+      <c r="J22" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K22" s="170">
-        <v>1</v>
-      </c>
-      <c r="L22" s="170">
+      <c r="K22" s="167">
+        <v>1</v>
+      </c>
+      <c r="L22" s="167">
         <v>25</v>
       </c>
-      <c r="M22" s="178">
+      <c r="M22" s="175">
         <f t="shared" si="3"/>
         <v>13750</v>
       </c>
-      <c r="N22" s="179" t="s">
+      <c r="N22" s="176" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="166">
+        <v>35</v>
+      </c>
+      <c r="C23" s="168" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="169">
-        <v>35</v>
-      </c>
-      <c r="C23" s="171" t="s">
+      <c r="D23" s="167" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="170" t="s">
+      <c r="E23" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="170" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" s="170">
-        <v>1</v>
-      </c>
-      <c r="G23" s="170">
+      <c r="F23" s="167">
+        <v>1</v>
+      </c>
+      <c r="G23" s="167">
         <v>2850</v>
       </c>
-      <c r="H23" s="172">
+      <c r="H23" s="169">
         <f>F23*G23</f>
         <v>2850</v>
       </c>
-      <c r="I23" s="176">
+      <c r="I23" s="173">
         <v>3240</v>
       </c>
-      <c r="J23" s="177">
+      <c r="J23" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K23" s="170">
-        <v>1</v>
-      </c>
-      <c r="L23" s="170">
+      <c r="K23" s="167">
+        <v>1</v>
+      </c>
+      <c r="L23" s="167">
         <v>20</v>
       </c>
-      <c r="M23" s="178">
+      <c r="M23" s="175">
         <f t="shared" si="3"/>
         <v>64800</v>
       </c>
-      <c r="N23" s="179" t="s">
+      <c r="N23" s="176" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="166">
+        <v>36</v>
+      </c>
+      <c r="C24" s="168" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="169">
-        <v>36</v>
-      </c>
-      <c r="C24" s="171" t="s">
+      <c r="D24" s="167" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="167" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="170" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="170" t="s">
-        <v>181</v>
-      </c>
-      <c r="F24" s="170">
-        <v>1</v>
-      </c>
-      <c r="G24" s="170">
+      <c r="F24" s="167">
+        <v>1</v>
+      </c>
+      <c r="G24" s="167">
         <v>1750</v>
       </c>
-      <c r="H24" s="172">
+      <c r="H24" s="169">
         <f>F24*G24</f>
         <v>1750</v>
       </c>
-      <c r="I24" s="176">
+      <c r="I24" s="173">
         <v>1000</v>
       </c>
-      <c r="J24" s="177">
+      <c r="J24" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K24" s="170">
-        <v>1</v>
-      </c>
-      <c r="L24" s="180">
+      <c r="K24" s="167">
+        <v>1</v>
+      </c>
+      <c r="L24" s="177">
         <v>60</v>
       </c>
-      <c r="M24" s="178">
+      <c r="M24" s="175">
         <f t="shared" si="3"/>
         <v>60000</v>
       </c>
-      <c r="N24" s="179" t="s">
+      <c r="N24" s="176" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24" s="155" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="166">
+        <v>37</v>
+      </c>
+      <c r="C25" s="168" t="s">
         <v>182</v>
       </c>
-      <c r="O24" s="158" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="169">
-        <v>37</v>
-      </c>
-      <c r="C25" s="171" t="s">
+      <c r="D25" s="167" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="167" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="170" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" s="170" t="s">
-        <v>184</v>
-      </c>
-      <c r="F25" s="170">
-        <v>1</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="167">
+        <v>1</v>
+      </c>
+      <c r="G25" s="167">
         <v>870</v>
       </c>
-      <c r="H25" s="172">
+      <c r="H25" s="169">
         <f>F25*G25</f>
         <v>870</v>
       </c>
-      <c r="I25" s="176">
+      <c r="I25" s="173">
         <v>870</v>
       </c>
-      <c r="J25" s="177">
+      <c r="J25" s="174">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K25" s="170">
+      <c r="K25" s="167">
         <v>5</v>
       </c>
-      <c r="L25" s="180">
+      <c r="L25" s="177">
         <v>40</v>
       </c>
-      <c r="M25" s="178">
+      <c r="M25" s="175">
         <f t="shared" si="3"/>
         <v>34800</v>
       </c>
-      <c r="N25" s="179" t="s">
-        <v>185</v>
-      </c>
-      <c r="O25" s="158" t="s">
-        <v>116</v>
+      <c r="N25" s="176" t="s">
+        <v>184</v>
+      </c>
+      <c r="O25" s="155" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H26" s="184">
+      <c r="H26" s="181">
         <f>SUM(H5:H25)</f>
         <v>19260</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="187"/>
-      <c r="B29" s="188" t="s">
+    <row r="29" spans="1:15" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="184"/>
+      <c r="B29" s="185" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="184"/>
+      <c r="K29" s="121">
+        <v>10</v>
+      </c>
+      <c r="N29" s="187">
+        <v>43172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="188" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="D29" s="187"/>
-      <c r="K29" s="124">
-        <v>10</v>
-      </c>
-      <c r="N29" s="190">
-        <v>43172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="191" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="60" t="s">
+      <c r="J30" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="125" t="s">
+      <c r="K30" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="J30" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="K30" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="L30" s="125" t="s">
-        <v>62</v>
-      </c>
-      <c r="M30" s="125" t="s">
-        <v>63</v>
-      </c>
-      <c r="N30" s="126" t="s">
+    </row>
+    <row r="31" spans="1:15" s="186" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="134">
+        <v>2</v>
+      </c>
+      <c r="C31" s="60" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="137">
-        <v>2</v>
-      </c>
-      <c r="C31" s="61" t="s">
+      <c r="D31" s="189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="D31" s="192" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" s="192">
-        <v>1</v>
-      </c>
-      <c r="G31" s="192">
+      <c r="F31" s="189">
+        <v>1</v>
+      </c>
+      <c r="G31" s="189">
         <v>140</v>
       </c>
-      <c r="H31" s="178">
+      <c r="H31" s="175">
         <f>F31*G31</f>
         <v>140</v>
       </c>
-      <c r="I31" s="192">
+      <c r="I31" s="189">
         <v>140</v>
       </c>
-      <c r="J31" s="177">
+      <c r="J31" s="174">
         <f>F31*K$3</f>
         <v>0</v>
       </c>
-      <c r="K31" s="192">
+      <c r="K31" s="189">
         <v>10</v>
       </c>
-      <c r="L31" s="192">
+      <c r="L31" s="189">
         <v>10</v>
       </c>
-      <c r="M31" s="178">
+      <c r="M31" s="175">
         <f t="shared" ref="M31" si="5">I31*L31</f>
         <v>1400</v>
       </c>
-      <c r="N31" s="193" t="s">
+      <c r="N31" s="190" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="186" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="191"/>
+      <c r="D32" s="192"/>
+      <c r="E32" s="191"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="124"/>
+      <c r="M32" s="193"/>
+    </row>
+    <row r="33" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="184"/>
+      <c r="B33" s="185" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="194"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="194"/>
-      <c r="H32" s="196"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="127"/>
-      <c r="M32" s="196"/>
-    </row>
-    <row r="33" spans="1:14" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="187"/>
-      <c r="B33" s="188" t="s">
+      <c r="C33" s="184"/>
+      <c r="J33" s="121">
+        <v>10</v>
+      </c>
+      <c r="M33" s="187"/>
+    </row>
+    <row r="34" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="188" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="J34" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="M34" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="N34" s="123" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="186" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="194">
+        <v>1</v>
+      </c>
+      <c r="C35" s="196" t="s">
         <v>193</v>
       </c>
-      <c r="C33" s="187"/>
-      <c r="J33" s="124">
-        <v>10</v>
-      </c>
-      <c r="M33" s="190"/>
-    </row>
-    <row r="34" spans="1:14" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="191" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="H34" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="I34" s="125" t="s">
-        <v>188</v>
-      </c>
-      <c r="J34" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="K34" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="L34" s="125" t="s">
-        <v>62</v>
-      </c>
-      <c r="M34" s="125" t="s">
-        <v>63</v>
-      </c>
-      <c r="N34" s="126" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="197">
-        <v>1</v>
-      </c>
-      <c r="C35" s="199" t="s">
+      <c r="D35" s="195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="197" t="s">
         <v>194</v>
       </c>
-      <c r="D35" s="198" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="200" t="s">
-        <v>195</v>
-      </c>
-      <c r="F35" s="198">
-        <v>1</v>
-      </c>
-      <c r="G35" s="198">
+      <c r="F35" s="195">
+        <v>1</v>
+      </c>
+      <c r="G35" s="195">
         <v>230</v>
       </c>
-      <c r="H35" s="174">
+      <c r="H35" s="171">
         <f>F35*G35</f>
         <v>230</v>
       </c>
-      <c r="I35" s="198">
+      <c r="I35" s="195">
         <v>230</v>
       </c>
-      <c r="J35" s="128">
+      <c r="J35" s="125">
         <f>F35*K$3</f>
         <v>0</v>
       </c>
-      <c r="K35" s="198">
+      <c r="K35" s="195">
         <v>10</v>
       </c>
-      <c r="L35" s="198">
+      <c r="L35" s="195">
         <v>20</v>
       </c>
-      <c r="M35" s="168">
+      <c r="M35" s="165">
         <f t="shared" ref="M35" si="6">I35*L35</f>
         <v>4600</v>
       </c>
-      <c r="N35" s="201" t="s">
+      <c r="N35" s="198" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="135"/>
+      <c r="C36" s="199" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="138"/>
-      <c r="C36" s="202" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" s="202" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="202" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="202">
+      <c r="D36" s="199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="199" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" s="199">
         <v>8</v>
       </c>
-      <c r="G36" s="202">
+      <c r="G36" s="199">
         <v>130</v>
       </c>
-      <c r="H36" s="203">
+      <c r="H36" s="200">
         <f>F36*G36</f>
         <v>1040</v>
       </c>
-      <c r="I36" s="203">
+      <c r="I36" s="200">
         <v>130</v>
       </c>
-      <c r="J36" s="129">
+      <c r="J36" s="126">
         <f>F36*K$3</f>
         <v>0</v>
       </c>
-      <c r="K36" s="202">
+      <c r="K36" s="199">
         <v>300</v>
       </c>
-      <c r="L36" s="202">
+      <c r="L36" s="199">
         <v>300</v>
       </c>
-      <c r="M36" s="204">
+      <c r="M36" s="201">
         <f>I36*L36</f>
         <v>39000</v>
       </c>
-      <c r="N36" s="205" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="189" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="194"/>
-      <c r="D37" s="195"/>
-      <c r="E37" s="194"/>
-      <c r="H37" s="196"/>
-      <c r="I37" s="196"/>
-      <c r="J37" s="127"/>
-      <c r="M37" s="196"/>
+      <c r="N36" s="202" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="186" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="191"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="191"/>
+      <c r="H37" s="193"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="124"/>
+      <c r="M37" s="193"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M38" s="185">
+      <c r="M38" s="182">
         <f>SUM(M5:M36)</f>
         <v>467950</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M39" s="186">
+      <c r="M39" s="183">
         <f>M38*0.1</f>
         <v>46795</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M40" s="185">
+      <c r="M40" s="182">
         <f>M38+M39</f>
         <v>514745</v>
       </c>
@@ -6737,8 +6742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6760,54 +6765,54 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="82" t="s">
+      <c r="D2" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="226" t="s">
+      <c r="F2" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="K2" s="81" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="L2" s="82" t="s">
         <v>214</v>
       </c>
-      <c r="L2" s="83" t="s">
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="224" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="227" t="s">
+      <c r="C3" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="D3" s="225" t="s">
         <v>217</v>
-      </c>
-      <c r="D3" s="228" t="s">
-        <v>218</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="229">
+      <c r="F3" s="226">
         <v>1</v>
       </c>
       <c r="G3" s="21">
@@ -6816,230 +6821,230 @@
       <c r="H3" s="13">
         <v>1</v>
       </c>
-      <c r="I3" s="97"/>
-      <c r="J3" s="74">
+      <c r="I3" s="96"/>
+      <c r="J3" s="73">
         <f t="shared" ref="J3:J11" si="0">G3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="35"/>
       <c r="L3" s="37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="85" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="86" t="s">
+      <c r="C4" s="86" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="D4" s="19" t="s">
         <v>221</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>222</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="87">
+      <c r="F4" s="86">
         <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>275000</v>
       </c>
-      <c r="H4" s="87">
-        <v>1</v>
-      </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="84">
+      <c r="H4" s="86">
+        <v>1</v>
+      </c>
+      <c r="I4" s="86"/>
+      <c r="J4" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="85" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="86" t="s">
+      <c r="C5" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>225</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="87">
+      <c r="F5" s="86">
         <v>1</v>
       </c>
       <c r="G5" s="3">
         <v>110000</v>
       </c>
-      <c r="H5" s="87">
-        <v>1</v>
-      </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="84">
+      <c r="H5" s="86">
+        <v>1</v>
+      </c>
+      <c r="I5" s="86"/>
+      <c r="J5" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="85" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="86" t="s">
-        <v>227</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="87">
+      <c r="F6" s="86">
         <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>132000</v>
       </c>
-      <c r="H6" s="87">
-        <v>1</v>
-      </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="84">
+      <c r="H6" s="86">
+        <v>1</v>
+      </c>
+      <c r="I6" s="86"/>
+      <c r="J6" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="87" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="88" t="s">
+      <c r="C7" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="D7" s="17" t="s">
         <v>231</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>232</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="52">
         <v>1</v>
       </c>
       <c r="G7" s="7">
         <v>140000</v>
       </c>
-      <c r="H7" s="53">
-        <v>1</v>
-      </c>
-      <c r="I7" s="53">
+      <c r="H7" s="52">
+        <v>1</v>
+      </c>
+      <c r="I7" s="52">
         <v>2</v>
       </c>
-      <c r="J7" s="89">
+      <c r="J7" s="88">
         <f t="shared" si="0"/>
         <v>280000</v>
       </c>
       <c r="K7" s="17"/>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="90" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="91" t="s">
+      <c r="C8" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="C8" s="92" t="s">
-        <v>231</v>
-      </c>
-      <c r="D8" s="93" t="s">
-        <v>235</v>
-      </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="92">
-        <v>1</v>
-      </c>
-      <c r="G8" s="94">
+      <c r="F8" s="91">
+        <v>1</v>
+      </c>
+      <c r="G8" s="93">
         <v>270000</v>
       </c>
-      <c r="H8" s="92">
-        <v>1</v>
-      </c>
-      <c r="I8" s="92"/>
-      <c r="J8" s="95">
+      <c r="H8" s="91">
+        <v>1</v>
+      </c>
+      <c r="I8" s="91"/>
+      <c r="J8" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="93"/>
-      <c r="L8" s="96" t="s">
+      <c r="K8" s="92"/>
+      <c r="L8" s="95" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="97" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="98" t="s">
+      <c r="C9" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="D9" s="23" t="s">
         <v>238</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>239</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="85">
-        <v>1</v>
-      </c>
-      <c r="G9" s="99">
+      <c r="F9" s="84">
+        <v>1</v>
+      </c>
+      <c r="G9" s="98">
         <v>12000</v>
       </c>
-      <c r="H9" s="85">
-        <v>1</v>
-      </c>
-      <c r="I9" s="85"/>
-      <c r="J9" s="74">
+      <c r="H9" s="84">
+        <v>1</v>
+      </c>
+      <c r="I9" s="84"/>
+      <c r="J9" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="23"/>
-      <c r="L9" s="100" t="s">
+      <c r="L9" s="99" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="85" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>238</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>239</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="87">
+      <c r="F10" s="86">
         <v>1</v>
       </c>
       <c r="G10" s="19"/>
-      <c r="H10" s="87">
-        <v>1</v>
-      </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="84">
+      <c r="H10" s="86">
+        <v>1</v>
+      </c>
+      <c r="I10" s="86"/>
+      <c r="J10" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7047,48 +7052,48 @@
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="87" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>242</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>243</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="53">
-        <v>1</v>
-      </c>
-      <c r="G11" s="101">
+      <c r="F11" s="52">
+        <v>1</v>
+      </c>
+      <c r="G11" s="100">
         <v>6500</v>
       </c>
-      <c r="H11" s="53">
-        <v>1</v>
-      </c>
-      <c r="I11" s="53">
+      <c r="H11" s="52">
+        <v>1</v>
+      </c>
+      <c r="I11" s="52">
         <v>2</v>
       </c>
-      <c r="J11" s="89">
+      <c r="J11" s="88">
         <f t="shared" si="0"/>
         <v>13000</v>
       </c>
       <c r="K11" s="17"/>
-      <c r="L11" s="90" t="s">
+      <c r="L11" s="302" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="101" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="102" t="s">
+      <c r="C12" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>245</v>
-      </c>
-      <c r="C12" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>246</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -7100,405 +7105,405 @@
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="87" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>247</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>248</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="53">
-        <v>1</v>
-      </c>
-      <c r="G13" s="101">
+      <c r="F13" s="52">
+        <v>1</v>
+      </c>
+      <c r="G13" s="100">
         <v>4000</v>
       </c>
-      <c r="H13" s="53">
-        <v>1</v>
-      </c>
-      <c r="I13" s="53">
+      <c r="H13" s="52">
+        <v>1</v>
+      </c>
+      <c r="I13" s="52">
         <v>2</v>
       </c>
-      <c r="J13" s="89">
+      <c r="J13" s="88">
         <f>G13*I13</f>
         <v>8000</v>
       </c>
       <c r="K13" s="17"/>
-      <c r="L13" s="90" t="s">
+      <c r="L13" s="302" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="87" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="88" t="s">
+      <c r="C14" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>250</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>231</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>251</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="53">
-        <v>1</v>
-      </c>
-      <c r="G14" s="101">
+      <c r="F14" s="52">
+        <v>1</v>
+      </c>
+      <c r="G14" s="100">
         <v>4500</v>
       </c>
-      <c r="H14" s="53">
-        <v>1</v>
-      </c>
-      <c r="I14" s="53">
+      <c r="H14" s="52">
+        <v>1</v>
+      </c>
+      <c r="I14" s="52">
         <v>2</v>
       </c>
-      <c r="J14" s="89">
+      <c r="J14" s="88">
         <f>G14*I14</f>
         <v>9000</v>
       </c>
       <c r="K14" s="17"/>
-      <c r="L14" s="90" t="s">
+      <c r="L14" s="302" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="87" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="88" t="s">
+      <c r="C15" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>253</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>254</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="53">
-        <v>1</v>
-      </c>
-      <c r="G15" s="101">
+      <c r="F15" s="52">
+        <v>1</v>
+      </c>
+      <c r="G15" s="100">
         <v>16500</v>
       </c>
-      <c r="H15" s="53">
-        <v>1</v>
-      </c>
-      <c r="I15" s="53">
-        <v>1</v>
-      </c>
-      <c r="J15" s="89">
+      <c r="H15" s="52">
+        <v>1</v>
+      </c>
+      <c r="I15" s="52">
+        <v>1</v>
+      </c>
+      <c r="J15" s="88">
         <f>G15*I15</f>
         <v>16500</v>
       </c>
       <c r="K15" s="17"/>
-      <c r="L15" s="90" t="s">
+      <c r="L15" s="302" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="120" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="123" t="s">
+      <c r="C16" s="116" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="110" t="s">
         <v>256</v>
       </c>
-      <c r="C16" s="119" t="s">
-        <v>231</v>
-      </c>
-      <c r="D16" s="112" t="s">
+      <c r="E16" s="110" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="112" t="s">
+      <c r="F16" s="116">
+        <v>1</v>
+      </c>
+      <c r="G16" s="107">
+        <v>4100</v>
+      </c>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="106"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="F16" s="119">
-        <v>1</v>
-      </c>
-      <c r="G16" s="109">
-        <v>4100</v>
-      </c>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="108"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="88" t="s">
+      <c r="C17" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="D17" s="17" t="s">
         <v>260</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>261</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="52">
         <v>1</v>
       </c>
       <c r="G17" s="7">
         <v>9000</v>
       </c>
-      <c r="H17" s="53">
-        <v>1</v>
-      </c>
-      <c r="I17" s="53">
-        <v>1</v>
-      </c>
-      <c r="J17" s="89">
+      <c r="H17" s="52">
+        <v>1</v>
+      </c>
+      <c r="I17" s="52">
+        <v>1</v>
+      </c>
+      <c r="J17" s="88">
         <f t="shared" ref="J17:J22" si="1">G17*I17</f>
         <v>9000</v>
       </c>
       <c r="K17" s="17"/>
-      <c r="L17" s="90" t="s">
+      <c r="L17" s="302" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="88" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>263</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="52">
         <v>1</v>
       </c>
       <c r="G18" s="7">
         <v>9000</v>
       </c>
-      <c r="H18" s="53">
-        <v>1</v>
-      </c>
-      <c r="I18" s="53">
-        <v>1</v>
-      </c>
-      <c r="J18" s="89">
+      <c r="H18" s="52">
+        <v>1</v>
+      </c>
+      <c r="I18" s="52">
+        <v>1</v>
+      </c>
+      <c r="J18" s="88">
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
       <c r="K18" s="17"/>
-      <c r="L18" s="90" t="s">
+      <c r="L18" s="302" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="114" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="117" t="s">
+      <c r="C19" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="C19" s="111" t="s">
+      <c r="D19" s="108" t="s">
         <v>266</v>
-      </c>
-      <c r="D19" s="110" t="s">
-        <v>267</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53">
-        <v>1</v>
-      </c>
-      <c r="G19" s="116">
+      <c r="F19" s="52">
+        <v>1</v>
+      </c>
+      <c r="G19" s="113">
         <v>180000</v>
       </c>
-      <c r="H19" s="53">
-        <v>1</v>
-      </c>
-      <c r="I19" s="53">
-        <v>1</v>
-      </c>
-      <c r="J19" s="89">
+      <c r="H19" s="52">
+        <v>1</v>
+      </c>
+      <c r="I19" s="52">
+        <v>1</v>
+      </c>
+      <c r="J19" s="88">
         <f t="shared" si="1"/>
         <v>180000</v>
       </c>
-      <c r="K19" s="110"/>
-      <c r="L19" s="114" t="s">
+      <c r="K19" s="108"/>
+      <c r="L19" s="303" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="114" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="117" t="s">
+      <c r="C20" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="D20" s="108" t="s">
         <v>270</v>
-      </c>
-      <c r="D20" s="110" t="s">
-        <v>271</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="53">
-        <v>1</v>
-      </c>
-      <c r="G20" s="116">
+      <c r="F20" s="52">
+        <v>1</v>
+      </c>
+      <c r="G20" s="113">
         <v>1210</v>
       </c>
-      <c r="H20" s="111">
-        <v>1</v>
-      </c>
-      <c r="I20" s="53">
+      <c r="H20" s="109">
+        <v>1</v>
+      </c>
+      <c r="I20" s="52">
         <v>2</v>
       </c>
-      <c r="J20" s="89">
+      <c r="J20" s="88">
         <f t="shared" si="1"/>
         <v>2420</v>
       </c>
-      <c r="K20" s="110"/>
-      <c r="L20" s="114" t="s">
+      <c r="K20" s="108"/>
+      <c r="L20" s="303" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="114" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="117" t="s">
+      <c r="C21" s="109" t="s">
         <v>273</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="D21" s="108" t="s">
         <v>274</v>
-      </c>
-      <c r="D21" s="110" t="s">
-        <v>275</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="53">
-        <v>1</v>
-      </c>
-      <c r="G21" s="116">
+      <c r="F21" s="52">
+        <v>1</v>
+      </c>
+      <c r="G21" s="113">
         <v>101200</v>
       </c>
-      <c r="H21" s="53">
-        <v>1</v>
-      </c>
-      <c r="I21" s="53">
-        <v>1</v>
-      </c>
-      <c r="J21" s="89">
+      <c r="H21" s="52">
+        <v>1</v>
+      </c>
+      <c r="I21" s="52">
+        <v>1</v>
+      </c>
+      <c r="J21" s="88">
         <f t="shared" si="1"/>
         <v>101200</v>
       </c>
-      <c r="K21" s="110"/>
-      <c r="L21" s="114" t="s">
+      <c r="K21" s="108"/>
+      <c r="L21" s="303" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="114" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="117" t="s">
+      <c r="C22" s="109" t="s">
         <v>277</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="D22" s="108" t="s">
         <v>278</v>
-      </c>
-      <c r="D22" s="110" t="s">
-        <v>279</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="52">
         <v>2</v>
       </c>
-      <c r="G22" s="116">
+      <c r="G22" s="113">
         <v>24500</v>
       </c>
-      <c r="H22" s="53">
-        <v>1</v>
-      </c>
-      <c r="I22" s="53">
+      <c r="H22" s="52">
+        <v>1</v>
+      </c>
+      <c r="I22" s="52">
         <v>2</v>
       </c>
-      <c r="J22" s="230">
+      <c r="J22" s="227">
         <f t="shared" si="1"/>
         <v>49000</v>
       </c>
-      <c r="K22" s="110"/>
-      <c r="L22" s="114" t="s">
+      <c r="K22" s="108"/>
+      <c r="L22" s="303" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="117" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="120" t="s">
+      <c r="C23" s="111"/>
+      <c r="D23" s="127" t="s">
         <v>281</v>
-      </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="130" t="s">
-        <v>282</v>
       </c>
       <c r="E23" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="87">
-        <v>1</v>
-      </c>
-      <c r="G23" s="131">
+      <c r="F23" s="86">
+        <v>1</v>
+      </c>
+      <c r="G23" s="128">
         <v>40000</v>
       </c>
-      <c r="H23" s="113"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="133" t="s">
+      <c r="H23" s="111"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="130" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="102" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="103" t="s">
+      <c r="C24" s="103"/>
+      <c r="D24" s="103" t="s">
         <v>284</v>
-      </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104" t="s">
-        <v>285</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="53">
-        <v>1</v>
-      </c>
-      <c r="G24" s="81">
+      <c r="F24" s="52">
+        <v>1</v>
+      </c>
+      <c r="G24" s="80">
         <v>45000</v>
       </c>
-      <c r="H24" s="53">
-        <v>1</v>
-      </c>
-      <c r="I24" s="53">
-        <v>1</v>
-      </c>
-      <c r="J24" s="89">
+      <c r="H24" s="52">
+        <v>1</v>
+      </c>
+      <c r="I24" s="52">
+        <v>1</v>
+      </c>
+      <c r="J24" s="88">
         <f>G24*I24</f>
         <v>45000</v>
       </c>
-      <c r="K24" s="104"/>
-      <c r="L24" s="105" t="s">
-        <v>286</v>
+      <c r="K24" s="103"/>
+      <c r="L24" s="309" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
       <c r="E25" s="38"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="134"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="J26" s="11">
@@ -7507,531 +7512,531 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="57" t="s">
-        <v>85</v>
+      <c r="B29" s="56" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="231" t="s">
+      <c r="B30" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="232" t="s">
+      <c r="C30" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="232" t="s">
-        <v>59</v>
+      <c r="D30" s="229" t="s">
+        <v>58</v>
       </c>
       <c r="E30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="232" t="s">
+      <c r="F30" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="232" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="125" t="s">
+      <c r="G30" s="229" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="125" t="s">
+      <c r="I30" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="122" t="s">
         <v>62</v>
-      </c>
-      <c r="J30" s="125" t="s">
-        <v>63</v>
       </c>
       <c r="K30" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L30" s="126" t="s">
-        <v>64</v>
+      <c r="L30" s="123" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="233" t="s">
+      <c r="B31" s="230" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="231" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="234" t="s">
+      <c r="D31" s="231" t="s">
         <v>53</v>
-      </c>
-      <c r="D31" s="234" t="s">
-        <v>54</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="85">
+      <c r="F31" s="84">
         <v>3</v>
       </c>
-      <c r="G31" s="145">
+      <c r="G31" s="142">
         <v>60</v>
       </c>
-      <c r="H31" s="85">
-        <v>1</v>
-      </c>
-      <c r="I31" s="85">
+      <c r="H31" s="84">
+        <v>1</v>
+      </c>
+      <c r="I31" s="84">
         <v>120</v>
       </c>
-      <c r="J31" s="74">
+      <c r="J31" s="73">
         <f>G31*I31</f>
         <v>7200</v>
       </c>
       <c r="K31" s="35"/>
-      <c r="L31" s="235" t="s">
+      <c r="L31" s="304" t="s">
+        <v>54</v>
+      </c>
+      <c r="M31" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="M31" s="236" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="32" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="237" t="s">
+      <c r="B32" s="233" t="s">
+        <v>286</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="E32" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="76">
-        <v>1</v>
-      </c>
-      <c r="G32" s="238">
+      <c r="F32" s="75">
+        <v>1</v>
+      </c>
+      <c r="G32" s="234">
         <v>3520</v>
       </c>
-      <c r="H32" s="76">
-        <v>1</v>
-      </c>
-      <c r="I32" s="76">
+      <c r="H32" s="75">
+        <v>1</v>
+      </c>
+      <c r="I32" s="75">
         <v>2</v>
       </c>
-      <c r="J32" s="239">
+      <c r="J32" s="235">
         <f>G32*I32</f>
         <v>7040</v>
       </c>
       <c r="K32" s="36"/>
-      <c r="L32" s="240" t="s">
+      <c r="L32" s="306" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="236" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="241" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="223"/>
-      <c r="B36" s="224" t="s">
+    <row r="36" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="220"/>
+      <c r="B36" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="224" t="s">
+      <c r="C36" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="224" t="s">
-        <v>59</v>
+      <c r="D36" s="221" t="s">
+        <v>58</v>
       </c>
       <c r="E36" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="224" t="s">
+      <c r="F36" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="224" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" s="121" t="s">
+      <c r="G36" s="221" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="121" t="s">
+      <c r="I36" s="118" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="121" t="s">
-        <v>63</v>
-      </c>
       <c r="K36" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="L36" s="237" t="s">
         <v>292</v>
       </c>
-      <c r="L36" s="242" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="192" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="192" t="s">
-        <v>209</v>
-      </c>
-      <c r="D37" s="192" t="s">
-        <v>23</v>
+    </row>
+    <row r="37" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="189" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" s="310" t="s">
+        <v>352</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="192">
+      <c r="F37" s="189">
         <v>2</v>
       </c>
-      <c r="G37" s="192">
+      <c r="G37" s="189">
         <v>1020</v>
       </c>
-      <c r="H37" s="192">
-        <v>1</v>
-      </c>
-      <c r="I37" s="192">
+      <c r="H37" s="189">
+        <v>1</v>
+      </c>
+      <c r="I37" s="189">
         <v>20</v>
       </c>
-      <c r="J37" s="243">
+      <c r="J37" s="238">
         <f>G37*I37</f>
         <v>20400</v>
       </c>
       <c r="K37" s="35"/>
-      <c r="L37" s="193" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="189" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="192" t="s">
+      <c r="L37" s="190" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="189" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="189" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="189" t="s">
         <v>210</v>
-      </c>
-      <c r="C38" s="192" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="192" t="s">
-        <v>211</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="192">
-        <v>1</v>
-      </c>
-      <c r="G38" s="192">
+      <c r="F38" s="189">
+        <v>1</v>
+      </c>
+      <c r="G38" s="189">
         <v>130</v>
       </c>
-      <c r="H38" s="192">
+      <c r="H38" s="189">
         <v>100</v>
       </c>
-      <c r="I38" s="192">
+      <c r="I38" s="189">
         <v>100</v>
       </c>
-      <c r="J38" s="243">
+      <c r="J38" s="238">
         <f>G38*I38</f>
         <v>13000</v>
       </c>
       <c r="K38" s="36"/>
-      <c r="L38" s="193" t="s">
-        <v>295</v>
+      <c r="L38" s="308" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="241" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="244"/>
-      <c r="D41" s="236"/>
-      <c r="E41" s="236"/>
-      <c r="F41" s="236"/>
-      <c r="G41" s="236"/>
-      <c r="H41" s="236"/>
-      <c r="I41" s="124">
+      <c r="B41" s="236" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="239"/>
+      <c r="D41" s="232"/>
+      <c r="E41" s="232"/>
+      <c r="F41" s="232"/>
+      <c r="G41" s="232"/>
+      <c r="H41" s="232"/>
+      <c r="I41" s="121">
         <v>10</v>
       </c>
-      <c r="J41" s="236"/>
-      <c r="K41" s="236"/>
-      <c r="L41" s="245"/>
-      <c r="M41" s="236"/>
-      <c r="N41" s="236"/>
+      <c r="J41" s="232"/>
+      <c r="K41" s="232"/>
+      <c r="L41" s="240"/>
+      <c r="M41" s="232"/>
+      <c r="N41" s="232"/>
     </row>
     <row r="42" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="246" t="s">
+      <c r="B42" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="246" t="s">
+      <c r="C42" s="241" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="246" t="s">
+      <c r="D42" s="241" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="241" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="246" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="246" t="s">
-        <v>60</v>
-      </c>
-      <c r="H42" s="121" t="s">
+      <c r="H42" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="121" t="s">
+      <c r="I42" s="118" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="J42" s="121" t="s">
+      <c r="K42" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="L42" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="K42" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="L42" s="122" t="s">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="242" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="243" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="247" t="s">
+      <c r="D43" s="243" t="s">
         <v>66</v>
-      </c>
-      <c r="C43" s="248" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="248" t="s">
-        <v>67</v>
       </c>
       <c r="E43" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="234">
-        <v>1</v>
-      </c>
-      <c r="G43" s="249">
+      <c r="F43" s="231">
+        <v>1</v>
+      </c>
+      <c r="G43" s="244">
         <v>210</v>
       </c>
-      <c r="H43" s="234">
+      <c r="H43" s="231">
         <v>50</v>
       </c>
-      <c r="I43" s="234">
+      <c r="I43" s="231">
         <v>50</v>
       </c>
-      <c r="J43" s="249">
+      <c r="J43" s="244">
         <v>10500</v>
       </c>
       <c r="K43" s="35"/>
-      <c r="L43" s="235" t="s">
+      <c r="L43" s="304" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="245" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="250" t="s">
+      <c r="C44" s="246" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="246" t="s">
         <v>69</v>
-      </c>
-      <c r="C44" s="251" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="251" t="s">
-        <v>70</v>
       </c>
       <c r="E44" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="252">
-        <v>1</v>
-      </c>
-      <c r="G44" s="252">
+      <c r="F44" s="247">
+        <v>1</v>
+      </c>
+      <c r="G44" s="247">
         <v>210</v>
       </c>
-      <c r="H44" s="252">
+      <c r="H44" s="247">
         <v>10</v>
       </c>
-      <c r="I44" s="252">
+      <c r="I44" s="247">
         <v>10</v>
       </c>
-      <c r="J44" s="253">
+      <c r="J44" s="248">
         <v>2100</v>
       </c>
-      <c r="K44" s="107"/>
-      <c r="L44" s="254" t="s">
+      <c r="K44" s="105"/>
+      <c r="L44" s="307" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="249" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="255" t="s">
+      <c r="C45" s="250"/>
+      <c r="D45" s="250" t="s">
         <v>72</v>
-      </c>
-      <c r="C45" s="256"/>
-      <c r="D45" s="256" t="s">
-        <v>73</v>
       </c>
       <c r="E45" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="257">
+      <c r="F45" s="251">
         <v>2</v>
       </c>
-      <c r="G45" s="258">
+      <c r="G45" s="252">
         <v>80</v>
       </c>
-      <c r="H45" s="257">
+      <c r="H45" s="251">
         <v>100</v>
       </c>
-      <c r="I45" s="257">
+      <c r="I45" s="251">
         <v>100</v>
       </c>
-      <c r="J45" s="259">
+      <c r="J45" s="253">
         <v>4000</v>
       </c>
       <c r="K45" s="36"/>
-      <c r="L45" s="260" t="s">
+      <c r="L45" s="306" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="232"/>
+      <c r="C46" s="254"/>
+      <c r="D46" s="255"/>
+      <c r="F46" s="254"/>
+      <c r="G46" s="232"/>
+      <c r="H46" s="256"/>
+      <c r="I46" s="232"/>
+      <c r="J46" s="232"/>
+      <c r="K46" s="256"/>
+    </row>
+    <row r="47" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="257" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="236"/>
-      <c r="C46" s="261"/>
-      <c r="D46" s="262"/>
-      <c r="F46" s="261"/>
-      <c r="G46" s="236"/>
-      <c r="H46" s="263"/>
-      <c r="I46" s="236"/>
-      <c r="J46" s="236"/>
-      <c r="K46" s="263"/>
-    </row>
-    <row r="47" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="264" t="s">
+      <c r="C47" s="254"/>
+      <c r="D47" s="255"/>
+      <c r="F47" s="254"/>
+      <c r="G47" s="255"/>
+      <c r="H47" s="256"/>
+      <c r="I47" s="255"/>
+      <c r="J47" s="255"/>
+      <c r="K47" s="256"/>
+    </row>
+    <row r="48" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="228" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="229" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="229" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="104"/>
+      <c r="F48" s="229" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="229" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="L48" s="123" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B49" s="230" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="261"/>
-      <c r="D47" s="262"/>
-      <c r="F47" s="261"/>
-      <c r="G47" s="262"/>
-      <c r="H47" s="263"/>
-      <c r="I47" s="262"/>
-      <c r="J47" s="262"/>
-      <c r="K47" s="263"/>
-    </row>
-    <row r="48" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="231" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="232" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="106"/>
-      <c r="F48" s="232" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="232" t="s">
-        <v>60</v>
-      </c>
-      <c r="H48" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="125" t="s">
-        <v>62</v>
-      </c>
-      <c r="J48" s="125" t="s">
-        <v>63</v>
-      </c>
-      <c r="K48" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="L48" s="126" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="233" t="s">
+      <c r="C49" s="243" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="248" t="s">
+      <c r="D49" s="243" t="s">
         <v>77</v>
-      </c>
-      <c r="D49" s="248" t="s">
-        <v>78</v>
       </c>
       <c r="E49" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="234">
-        <v>1</v>
-      </c>
-      <c r="G49" s="265">
+      <c r="F49" s="231">
+        <v>1</v>
+      </c>
+      <c r="G49" s="258">
         <v>270</v>
       </c>
-      <c r="H49" s="234"/>
-      <c r="I49" s="234">
+      <c r="H49" s="231"/>
+      <c r="I49" s="231">
         <v>20</v>
       </c>
-      <c r="J49" s="249">
+      <c r="J49" s="244">
         <v>0</v>
       </c>
       <c r="K49" s="35"/>
-      <c r="L49" s="266" t="s">
+      <c r="L49" s="259" t="s">
+        <v>78</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B50" s="260" t="s">
         <v>79</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="267" t="s">
+      <c r="C50" s="247" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="252" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="251" t="s">
-        <v>80</v>
+      <c r="D50" s="246" t="s">
+        <v>79</v>
       </c>
       <c r="E50" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="252">
-        <v>1</v>
-      </c>
-      <c r="G50" s="268">
+      <c r="F50" s="247">
+        <v>1</v>
+      </c>
+      <c r="G50" s="261">
         <v>200</v>
       </c>
-      <c r="H50" s="252">
+      <c r="H50" s="247">
         <v>10</v>
       </c>
-      <c r="I50" s="252">
+      <c r="I50" s="247">
         <v>10</v>
       </c>
-      <c r="J50" s="253">
+      <c r="J50" s="248">
         <v>2000</v>
       </c>
-      <c r="K50" s="107"/>
-      <c r="L50" s="254" t="s">
+      <c r="K50" s="105"/>
+      <c r="L50" s="307" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="262" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="269" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="257" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="256" t="s">
-        <v>83</v>
+      <c r="C51" s="251" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="250" t="s">
+        <v>82</v>
       </c>
       <c r="E51" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="257">
-        <v>1</v>
-      </c>
-      <c r="G51" s="258">
+      <c r="F51" s="251">
+        <v>1</v>
+      </c>
+      <c r="G51" s="252">
         <v>200</v>
       </c>
-      <c r="H51" s="257">
+      <c r="H51" s="251">
         <v>10</v>
       </c>
-      <c r="I51" s="257">
+      <c r="I51" s="251">
         <v>10</v>
       </c>
-      <c r="J51" s="259">
+      <c r="J51" s="253">
         <v>2000</v>
       </c>
       <c r="K51" s="36"/>
-      <c r="L51" s="260" t="s">
-        <v>84</v>
+      <c r="L51" s="306" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
@@ -8047,13 +8052,13 @@
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="J55" s="115">
+      <c r="J55" s="112">
         <f>J54*0.1</f>
         <v>79036</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="J56" s="118">
+      <c r="J56" s="115">
         <f>SUM(J54:J55)</f>
         <v>869396</v>
       </c>
@@ -8070,7 +8075,7 @@
   <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8083,51 +8088,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="57" t="s">
-        <v>328</v>
+      <c r="B2" s="56" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="225" t="s">
+      <c r="B3" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="82" t="s">
+      <c r="D3" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="226" t="s">
+      <c r="F3" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="K3" s="81" t="s">
         <v>213</v>
       </c>
-      <c r="K3" s="82" t="s">
+      <c r="L3" s="82" t="s">
         <v>214</v>
       </c>
-      <c r="L3" s="83" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="86" t="s">
-        <v>317</v>
+      <c r="B4" s="85" t="s">
+        <v>316</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -8148,16 +8153,16 @@
         <v>6000</v>
       </c>
       <c r="K4" s="19"/>
-      <c r="L4" s="90" t="s">
-        <v>327</v>
+      <c r="L4" s="302" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="85" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>318</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>319</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -8178,16 +8183,16 @@
         <v>8000</v>
       </c>
       <c r="K5" s="19"/>
-      <c r="L5" s="90" t="s">
-        <v>327</v>
+      <c r="L5" s="302" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="101" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>320</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>321</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -8196,7 +8201,7 @@
       <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="287">
+      <c r="G6" s="280">
         <v>7000</v>
       </c>
       <c r="H6" s="19"/>
@@ -8208,15 +8213,17 @@
         <v>7000</v>
       </c>
       <c r="K6" s="19"/>
-      <c r="L6" s="90" t="s">
+      <c r="L6" s="302" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="101" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="102" t="s">
-        <v>323</v>
-      </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="19" t="s">
+        <v>351</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
         <v>9</v>
@@ -8236,13 +8243,13 @@
         <v>2600</v>
       </c>
       <c r="K7" s="19"/>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="302" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="101" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="102" t="s">
-        <v>325</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -8252,7 +8259,7 @@
       <c r="F8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="287">
+      <c r="G8" s="280">
         <v>22000</v>
       </c>
       <c r="H8" s="19"/>
@@ -8264,12 +8271,12 @@
         <v>44000</v>
       </c>
       <c r="K8" s="19"/>
-      <c r="L8" s="90" t="s">
-        <v>326</v>
+      <c r="L8" s="302" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="86"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -8282,7 +8289,7 @@
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="86"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -8295,7 +8302,7 @@
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="86"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -8308,7 +8315,7 @@
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="86"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -8321,7 +8328,7 @@
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="237"/>
+      <c r="B13" s="233"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -8331,7 +8338,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="286"/>
+      <c r="L13" s="279"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J14" s="48">
@@ -8340,7 +8347,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J15" s="115">
+      <c r="J15" s="112">
         <f>J14*0.1</f>
         <v>6760</v>
       </c>
@@ -8353,67 +8360,67 @@
     </row>
     <row r="18" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="222" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="223" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="J19" s="81" t="s">
+        <v>212</v>
+      </c>
+      <c r="K19" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="L19" s="82" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="282" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="225" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="226" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="82" t="s">
-        <v>212</v>
-      </c>
-      <c r="J19" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="K19" s="82" t="s">
-        <v>214</v>
-      </c>
-      <c r="L19" s="83" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="289" t="s">
+      <c r="C20" s="282" t="s">
         <v>331</v>
       </c>
-      <c r="C20" s="289" t="s">
-        <v>332</v>
-      </c>
-      <c r="D20" s="291" t="s">
-        <v>340</v>
+      <c r="D20" s="284" t="s">
+        <v>339</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="292">
-        <v>1</v>
-      </c>
-      <c r="G20" s="293">
+      <c r="F20" s="285">
+        <v>1</v>
+      </c>
+      <c r="G20" s="286">
         <v>30</v>
       </c>
-      <c r="H20" s="294">
-        <v>1</v>
-      </c>
-      <c r="I20" s="295">
+      <c r="H20" s="287">
+        <v>1</v>
+      </c>
+      <c r="I20" s="288">
         <v>10</v>
       </c>
       <c r="J20" s="41">
@@ -8421,33 +8428,33 @@
         <v>300</v>
       </c>
       <c r="K20" s="19"/>
-      <c r="L20" s="296" t="s">
-        <v>346</v>
+      <c r="L20" s="305" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="288" t="s">
-        <v>333</v>
-      </c>
-      <c r="C21" s="288" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="290" t="s">
-        <v>341</v>
+      <c r="B21" s="281" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="281" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="283" t="s">
+        <v>340</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="292">
-        <v>1</v>
-      </c>
-      <c r="G21" s="293">
+      <c r="F21" s="285">
+        <v>1</v>
+      </c>
+      <c r="G21" s="286">
         <v>50</v>
       </c>
-      <c r="H21" s="294">
+      <c r="H21" s="287">
         <v>100</v>
       </c>
-      <c r="I21" s="295">
+      <c r="I21" s="288">
         <v>100</v>
       </c>
       <c r="J21" s="41">
@@ -8455,33 +8462,33 @@
         <v>5000</v>
       </c>
       <c r="K21" s="19"/>
-      <c r="L21" s="296" t="s">
-        <v>347</v>
+      <c r="L21" s="305" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="289" t="s">
-        <v>334</v>
-      </c>
-      <c r="C22" s="289" t="s">
-        <v>332</v>
-      </c>
-      <c r="D22" s="291" t="s">
-        <v>342</v>
+      <c r="B22" s="282" t="s">
+        <v>333</v>
+      </c>
+      <c r="C22" s="282" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22" s="284" t="s">
+        <v>341</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="292">
+      <c r="F22" s="285">
         <v>2</v>
       </c>
-      <c r="G22" s="293">
+      <c r="G22" s="286">
         <v>290</v>
       </c>
-      <c r="H22" s="294">
-        <v>1</v>
-      </c>
-      <c r="I22" s="295">
+      <c r="H22" s="287">
+        <v>1</v>
+      </c>
+      <c r="I22" s="288">
         <v>20</v>
       </c>
       <c r="J22" s="41">
@@ -8489,33 +8496,33 @@
         <v>5800</v>
       </c>
       <c r="K22" s="19"/>
-      <c r="L22" s="296" t="s">
-        <v>348</v>
+      <c r="L22" s="305" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="288" t="s">
+      <c r="B23" s="281" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" s="281" t="s">
         <v>335</v>
       </c>
-      <c r="C23" s="288" t="s">
-        <v>336</v>
-      </c>
-      <c r="D23" s="290" t="s">
-        <v>343</v>
+      <c r="D23" s="283" t="s">
+        <v>342</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="292">
-        <v>1</v>
-      </c>
-      <c r="G23" s="293">
+      <c r="F23" s="285">
+        <v>1</v>
+      </c>
+      <c r="G23" s="286">
         <v>100</v>
       </c>
-      <c r="H23" s="294">
+      <c r="H23" s="287">
         <v>10</v>
       </c>
-      <c r="I23" s="295">
+      <c r="I23" s="288">
         <v>10</v>
       </c>
       <c r="J23" s="41">
@@ -8523,33 +8530,33 @@
         <v>1000</v>
       </c>
       <c r="K23" s="19"/>
-      <c r="L23" s="296" t="s">
-        <v>349</v>
+      <c r="L23" s="305" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="289" t="s">
+      <c r="B24" s="282" t="s">
+        <v>336</v>
+      </c>
+      <c r="C24" s="281" t="s">
         <v>337</v>
       </c>
-      <c r="C24" s="288" t="s">
-        <v>338</v>
-      </c>
-      <c r="D24" s="290" t="s">
-        <v>344</v>
+      <c r="D24" s="283" t="s">
+        <v>343</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="292">
-        <v>1</v>
-      </c>
-      <c r="G24" s="293">
+      <c r="F24" s="285">
+        <v>1</v>
+      </c>
+      <c r="G24" s="286">
         <v>430</v>
       </c>
-      <c r="H24" s="294">
-        <v>1</v>
-      </c>
-      <c r="I24" s="295">
+      <c r="H24" s="287">
+        <v>1</v>
+      </c>
+      <c r="I24" s="288">
         <v>10</v>
       </c>
       <c r="J24" s="41">
@@ -8557,33 +8564,33 @@
         <v>4300</v>
       </c>
       <c r="K24" s="19"/>
-      <c r="L24" s="296" t="s">
-        <v>350</v>
+      <c r="L24" s="305" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="288" t="s">
-        <v>339</v>
-      </c>
-      <c r="C25" s="288" t="s">
+      <c r="B25" s="281" t="s">
         <v>338</v>
       </c>
-      <c r="D25" s="290" t="s">
-        <v>345</v>
+      <c r="C25" s="281" t="s">
+        <v>337</v>
+      </c>
+      <c r="D25" s="283" t="s">
+        <v>344</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="292">
-        <v>1</v>
-      </c>
-      <c r="G25" s="293">
+      <c r="F25" s="285">
+        <v>1</v>
+      </c>
+      <c r="G25" s="286">
         <v>430</v>
       </c>
-      <c r="H25" s="294">
-        <v>1</v>
-      </c>
-      <c r="I25" s="295">
+      <c r="H25" s="287">
+        <v>1</v>
+      </c>
+      <c r="I25" s="288">
         <v>10</v>
       </c>
       <c r="J25" s="41">
@@ -8591,8 +8598,8 @@
         <v>4300</v>
       </c>
       <c r="K25" s="19"/>
-      <c r="L25" s="296" t="s">
-        <v>351</v>
+      <c r="L25" s="305" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
@@ -8602,7 +8609,7 @@
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J27" s="115">
+      <c r="J27" s="112">
         <f>J26*0.1</f>
         <v>2070</v>
       </c>
@@ -8614,7 +8621,7 @@
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J31" s="115">
+      <c r="J31" s="112">
         <f>J16+J28</f>
         <v>97130</v>
       </c>

--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="개발비" sheetId="7" r:id="rId1"/>
@@ -14,16 +14,17 @@
     <sheet name="0314" sheetId="8" r:id="rId5"/>
     <sheet name="0403" sheetId="10" r:id="rId6"/>
     <sheet name="0409" sheetId="12" r:id="rId7"/>
+    <sheet name="0420" sheetId="13" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">'0314'!$B$4:$F$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="355">
   <si>
     <t>Vendor</t>
   </si>
@@ -47,22 +48,22 @@
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>상품코드</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ICbanQ</t>
   </si>
   <si>
     <t>ICbanQ</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002101847 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>NTD5802N</t>
@@ -72,11 +73,11 @@
   </si>
   <si>
     <t>53398-0471</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>50058-8000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
@@ -89,11 +90,11 @@
   </si>
   <si>
     <t>51021-0400</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin Housing, Female</t>
@@ -109,90 +110,90 @@
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P000740132</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P005634281</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CTX210609-R</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>TRANSFORMER CCFL 6W 13V 11MA SMD Turn-R:100</t>
   </si>
   <si>
     <t>CTX210605-R</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P002058985</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P005831162</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P002058197</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007073878 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>부가세</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>부품 Total</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CAP TANT 220UF 16V 10% 2917</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P008221708</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>장보고 재고 있음</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2/5일 구매</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>T491D227K016AT</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>재고 없음</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007223445 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2/8일 구매</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -220,19 +221,19 @@
       </rPr>
       <t>-R</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B180212004001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>주문번호</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2/12일 구매</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BZT52C5V1S</t>
@@ -335,75 +336,75 @@
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Touch Program</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>작업기간</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Month</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Day[20/Month]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Hour[3/Day]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>시급</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>가중치</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LF Gen MCU</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LF Control MCU</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Cost</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1차 작업</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Item</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2차 작업</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Hour[3.5/Day]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>H/W</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>M/E</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Pipette 2차</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Set 수량</t>
@@ -413,11 +414,11 @@
   </si>
   <si>
     <t>구매 Cost</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>STPS120M</t>
@@ -430,7 +431,7 @@
   </si>
   <si>
     <t>P001539333</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>SMBJ12CA</t>
@@ -443,15 +444,15 @@
   </si>
   <si>
     <t>P004928252</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>P007475431</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>LF용 포함 구매</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DC-011C_SMD</t>
@@ -461,7 +462,7 @@
   </si>
   <si>
     <t>P005658771</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>053048-0310</t>
@@ -471,7 +472,7 @@
   </si>
   <si>
     <t>P005634294</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>053048-0710</t>
@@ -481,7 +482,7 @@
   </si>
   <si>
     <t>P005634298</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>HI05-AG0272</t>
@@ -494,7 +495,7 @@
   </si>
   <si>
     <t>P005659337</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>F0603E2R50FSTR</t>
@@ -507,11 +508,11 @@
   </si>
   <si>
     <t>P001574681</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1 point 삭제 예정</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>MSS5131-153ML</t>
@@ -524,7 +525,7 @@
   </si>
   <si>
     <t xml:space="preserve">P002266417 </t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>LQM2HPZ2R2MG0</t>
@@ -537,7 +538,7 @@
   </si>
   <si>
     <t>P008172717</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ASMT-YTD2-0BB02</t>
@@ -550,7 +551,7 @@
   </si>
   <si>
     <t>P000725384</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>17-21/W1D-ANPHY/3T</t>
@@ -563,7 +564,7 @@
   </si>
   <si>
     <t>P005609815</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>19-21/R6C-AP1Q2/3T</t>
@@ -573,7 +574,7 @@
   </si>
   <si>
     <t>P005609821</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>19-217/W1D-APQHY/3T</t>
@@ -583,11 +584,11 @@
   </si>
   <si>
     <t>P000098995</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>재품이 없어 고휘도 구매</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>19-213/G6C-AN1P2 /3T</t>
@@ -597,7 +598,7 @@
   </si>
   <si>
     <t>P005609818</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>CTT-1139P1</t>
@@ -610,11 +611,11 @@
   </si>
   <si>
     <t>P000092681</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>MOQ</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>SKRMABE010</t>
@@ -624,7 +625,7 @@
   </si>
   <si>
     <t xml:space="preserve">P001566090 </t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>STM32F070RBT6</t>
@@ -646,7 +647,7 @@
   </si>
   <si>
     <t>P000166190</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>LM2735XMF</t>
@@ -659,7 +660,7 @@
   </si>
   <si>
     <t>P006290287</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>LM3671MF-3.3</t>
@@ -669,7 +670,7 @@
   </si>
   <si>
     <t>P007302353</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>TPS3801L30</t>
@@ -679,99 +680,99 @@
   </si>
   <si>
     <t>P007092561</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Battery 하네스</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>구매 Cost</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>51021-0300</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch Housing, Female, 3-Pin</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>P005634252</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Transformer 하네스</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>51021-0700</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch Housing, Female, 7-Pin</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>P005634256</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>50058 양단 1007 케이블</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>P005634320</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>50058 양단 케이블 L=100mm, Black</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Cost</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Item</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Proto-type 부품 구매</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Transformer V1.0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Total cost : </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Pipette V1.0 / LF MCU 일부</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Pipette과 overlap되는 LF MCU 부품 구매</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ON Semiconductor</t>
@@ -784,478 +785,478 @@
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>주문번호</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>EX-936ESD</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> EXSO </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>정전기 방지 온도조절형 인두, 소비전력:60W, 온도:220℃ ~ 480℃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P001909039</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol 3001 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>EXSO</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 75W, 온도: 100~500℃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P007193509</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol-100 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>아날로그 무연인두기 , 24V 75W, 온도: 200~480℃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P007193511</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol-200 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 24V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P007193512</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FX-888D(70W)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 26V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P005688453</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FX-951</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 24V 75W, 온도: 200~450℃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P005688454</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>T18-K</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO FX-888(FX-8801) 전용 인두 칼팁</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P002116124</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>T18-3.5K</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>T18-B</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO FX-888(FX-8801) 전용 인두 팁</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002116123 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B3474</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Rubber Cleaner</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A1561</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO A1561 클리닝와이어</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P004702618</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A1559</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO A1559 스폰지</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P004704819</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SPPON 18</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO 18 SPPON DESOLDERING TOOL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P004702809</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>18N.18G</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO SPPON NOZZLE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ic114</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>UL1007-AWG20</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>UL전선</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (검정색)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002329495 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (빨강)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002329190 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>칩저항 키트</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Any vender</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1005 사이즈 F급(1%) 160종 칩저항 키트 - (100개들이)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P001907055</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>JL-0232 적색</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Any vender</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">더블 바나나플러그 / 적색 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P005658758</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>GHG630DCE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> BOSCH </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>열풍기(히터건) (GHG630DCE)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P007320842</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ST-LINK/V2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>STMicroelectronics</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ICD/PROGRAMMER, FOR STM8, STM32</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P001648331</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ENGINEER SL-04</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ENGINEER SL-04 DESK-TOP LOUPE, 렌즈 직경 75mm, 배율 3X</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P004704041 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>8611L</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>8611L LED조명 확대경, 렌즈 직경 89mm, 배율 3X</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P004704064</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>824-22-003-00-005000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Mill-Max</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Mill-Max Pin &amp; Socket Connectors </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P008110102</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Transformer PCB</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>P005634282</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>재고 소진</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Pipette V1.0 부품 및 장비</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>실험실에서 사용할 장비 및 Pipette 관련 추가 부품</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>부자재</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>수삽</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>개인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Point</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>단가</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>금액</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>소계</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>작업내용</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>합계</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>이윤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SMD</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Metal mask</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Sample용 견적</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>부품비</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LF Generator MCU Board</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">HIPPO 6구 접지 멀티탭 멀티탭 - 기본 1.5M </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">HIPPO 6구 접지 멀티탭 멀티탭 - 3M </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>HIPPO</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>KFT HT-5023 스트리퍼 (AWG20~30)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">KFT </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P001415029</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>페이스트 [135-0805]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P008012287</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>정전기매트 120cm*1M</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>P000119604</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007311227 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>실험실 물품 구매</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>제이엘텍 - Sample build 견적</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LF GEN MCU 부품 구매</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>HEADER_2.54mm_2x5</t>
@@ -1322,18 +1323,26 @@
   </si>
   <si>
     <t>Exso</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB Artwork</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;?_-;_-@_-"/>
@@ -1341,13 +1350,23 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="0.0"/>
     <numFmt numFmtId="180" formatCode="0\ &quot;%&quot;"/>
+    <numFmt numFmtId="183" formatCode="0.0\ &quot;ea&quot;"/>
+    <numFmt numFmtId="184" formatCode="0.0\ &quot;일&quot;"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2274,287 +2293,287 @@
   </borders>
   <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -2569,7 +2588,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2578,7 +2597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2593,32 +2612,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2632,21 +2651,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2659,26 +2678,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2691,13 +2710,13 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2710,16 +2729,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="28" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="29" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2766,34 +2785,34 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="33" borderId="24" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="24" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="69" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="33" borderId="11" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="69" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="11" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2816,68 +2835,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="75" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="75" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="75" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="75" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="75">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="75" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="75">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="75" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="33" borderId="23" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="23" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="33" borderId="24" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="24" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="33" borderId="33" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="33" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="33" borderId="23" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="23" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="75" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="75" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="75" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="75" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="76" applyFont="1" applyBorder="1">
@@ -2889,46 +2908,46 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="15" xfId="75" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="15" xfId="75" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="16" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="69" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="69" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="18" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="17" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="17" xfId="75" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="18" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="17" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="17" xfId="75" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="18" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="22" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="18" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="22" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2937,7 +2956,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2983,23 +3002,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3017,125 +3036,125 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="33" borderId="23" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="23" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="33" borderId="24" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="24" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="77" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="77" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="77" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="77" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="33" borderId="10" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="10" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="33" borderId="11" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="11" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="78">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="78">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="78" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="78" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="78" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="78" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="33" borderId="24" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="78" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="24" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="78" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="78" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="14" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="78" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="14" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="78" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="17" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="78" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="17" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="78" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="20" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="20" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="78" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="14" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="15" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="17" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="78" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="20" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="20" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="78" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="14" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="15" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="17" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="78" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3148,112 +3167,122 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="27" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="28" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="95" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="17" xfId="95" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="15" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="18" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="21" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="18" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="15" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="18" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="21" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="18" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="96">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3409,7 +3438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3444,7 +3473,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3656,7 +3685,7 @@
   <dimension ref="B6:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3681,28 +3710,28 @@
     </row>
     <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="291" t="s">
+      <c r="B9" s="303" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="292"/>
-      <c r="D9" s="295" t="s">
+      <c r="C9" s="301"/>
+      <c r="D9" s="298" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="295"/>
-      <c r="F9" s="295"/>
-      <c r="G9" s="292" t="s">
+      <c r="E9" s="298"/>
+      <c r="F9" s="298"/>
+      <c r="G9" s="301" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="292" t="s">
+      <c r="H9" s="301" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="296" t="s">
+      <c r="I9" s="299" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:14" s="138" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="293"/>
-      <c r="C10" s="294"/>
+      <c r="B10" s="305"/>
+      <c r="C10" s="302"/>
       <c r="D10" s="139" t="s">
         <v>87</v>
       </c>
@@ -3712,15 +3741,15 @@
       <c r="F10" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="294"/>
-      <c r="H10" s="294"/>
-      <c r="I10" s="297"/>
+      <c r="G10" s="302"/>
+      <c r="H10" s="302"/>
+      <c r="I10" s="300"/>
     </row>
     <row r="11" spans="2:14" s="138" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="289" t="s">
+      <c r="B11" s="306" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="290"/>
+      <c r="C11" s="307"/>
       <c r="D11" s="141">
         <v>0.25</v>
       </c>
@@ -3744,7 +3773,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="291" t="s">
+      <c r="B12" s="303" t="s">
         <v>95</v>
       </c>
       <c r="C12" s="140" t="s">
@@ -3785,7 +3814,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="298"/>
+      <c r="B13" s="304"/>
       <c r="C13" s="144" t="s">
         <v>92</v>
       </c>
@@ -3812,7 +3841,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="293"/>
+      <c r="B14" s="305"/>
       <c r="C14" s="147" t="s">
         <v>93</v>
       </c>
@@ -3839,7 +3868,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="291" t="s">
+      <c r="B15" s="303" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="140" t="s">
@@ -3868,7 +3897,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="298"/>
+      <c r="B16" s="304"/>
       <c r="C16" s="144" t="s">
         <v>92</v>
       </c>
@@ -3895,7 +3924,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="293"/>
+      <c r="B17" s="305"/>
       <c r="C17" s="147" t="s">
         <v>93</v>
       </c>
@@ -3939,28 +3968,28 @@
     </row>
     <row r="21" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="291" t="s">
+      <c r="B22" s="303" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="292"/>
-      <c r="D22" s="295" t="s">
+      <c r="C22" s="301"/>
+      <c r="D22" s="298" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="295"/>
-      <c r="F22" s="295"/>
-      <c r="G22" s="292" t="s">
+      <c r="E22" s="298"/>
+      <c r="F22" s="298"/>
+      <c r="G22" s="301" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="292" t="s">
+      <c r="H22" s="301" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="296" t="s">
+      <c r="I22" s="299" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="293"/>
-      <c r="C23" s="294"/>
+      <c r="B23" s="305"/>
+      <c r="C23" s="302"/>
       <c r="D23" s="139" t="s">
         <v>87</v>
       </c>
@@ -3970,15 +3999,15 @@
       <c r="F23" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="294"/>
-      <c r="H23" s="294"/>
-      <c r="I23" s="297"/>
+      <c r="G23" s="302"/>
+      <c r="H23" s="302"/>
+      <c r="I23" s="300"/>
     </row>
     <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="289" t="s">
+      <c r="B24" s="306" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="290"/>
+      <c r="C24" s="307"/>
       <c r="D24" s="150">
         <v>1</v>
       </c>
@@ -4003,28 +4032,28 @@
     </row>
     <row r="26" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="291" t="s">
+      <c r="B27" s="303" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="292"/>
-      <c r="D27" s="295" t="s">
+      <c r="C27" s="301"/>
+      <c r="D27" s="298" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="295"/>
-      <c r="F27" s="295"/>
-      <c r="G27" s="292" t="s">
+      <c r="E27" s="298"/>
+      <c r="F27" s="298"/>
+      <c r="G27" s="301" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="292" t="s">
+      <c r="H27" s="301" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="296" t="s">
+      <c r="I27" s="299" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="293"/>
-      <c r="C28" s="294"/>
+      <c r="B28" s="305"/>
+      <c r="C28" s="302"/>
       <c r="D28" s="139" t="s">
         <v>87</v>
       </c>
@@ -4034,15 +4063,15 @@
       <c r="F28" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="294"/>
-      <c r="H28" s="294"/>
-      <c r="I28" s="297"/>
+      <c r="G28" s="302"/>
+      <c r="H28" s="302"/>
+      <c r="I28" s="300"/>
     </row>
     <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="289" t="s">
+      <c r="B29" s="306" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="290"/>
+      <c r="C29" s="307"/>
       <c r="D29" s="150">
         <v>3</v>
       </c>
@@ -4083,12 +4112,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
@@ -4098,13 +4126,14 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B9:C10"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4115,7 +4144,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="N4" sqref="N4:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4128,6 +4157,7 @@
     <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="56"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
@@ -4203,11 +4233,11 @@
         <v>169</v>
       </c>
       <c r="J6" s="142">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K6" s="213">
         <f>I6*J6</f>
-        <v>84500</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
@@ -4228,14 +4258,14 @@
         <v>298</v>
       </c>
       <c r="I7" s="263">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J7" s="265" t="s">
         <v>308</v>
       </c>
       <c r="K7" s="264">
         <f>K6*I7/100</f>
-        <v>12675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4267,23 +4297,23 @@
       </c>
     </row>
     <row r="9" spans="2:11" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="289" t="s">
+      <c r="C9" s="306" t="s">
         <v>304</v>
       </c>
-      <c r="D9" s="290"/>
-      <c r="E9" s="290"/>
+      <c r="D9" s="307"/>
+      <c r="E9" s="307"/>
       <c r="F9" s="277">
         <f>SUM(F6:F8)</f>
         <v>138411</v>
       </c>
-      <c r="H9" s="289" t="s">
+      <c r="H9" s="306" t="s">
         <v>304</v>
       </c>
-      <c r="I9" s="290"/>
-      <c r="J9" s="290"/>
+      <c r="I9" s="307"/>
+      <c r="J9" s="307"/>
       <c r="K9" s="277">
         <f>SUM(K6:K8)</f>
-        <v>97175</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4343,11 +4373,11 @@
       </c>
       <c r="J12" s="142">
         <f>K9</f>
-        <v>97175</v>
+        <v>42250</v>
       </c>
       <c r="K12" s="99">
         <f>I12*J12</f>
-        <v>388700</v>
+        <v>169000</v>
       </c>
     </row>
     <row r="13" spans="2:11" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4379,28 +4409,28 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="289" t="s">
+      <c r="C14" s="306" t="s">
         <v>307</v>
       </c>
-      <c r="D14" s="290"/>
-      <c r="E14" s="299">
+      <c r="D14" s="307"/>
+      <c r="E14" s="308">
         <f>F12</f>
         <v>553644</v>
       </c>
-      <c r="F14" s="300"/>
-      <c r="H14" s="289" t="s">
+      <c r="F14" s="309"/>
+      <c r="H14" s="306" t="s">
         <v>307</v>
       </c>
-      <c r="I14" s="290"/>
-      <c r="J14" s="299">
+      <c r="I14" s="307"/>
+      <c r="J14" s="308">
         <f>K12</f>
-        <v>388700</v>
-      </c>
-      <c r="K14" s="300"/>
+        <v>169000</v>
+      </c>
+      <c r="K14" s="309"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="301"/>
-      <c r="D15" s="301"/>
+      <c r="C15" s="310"/>
+      <c r="D15" s="310"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
@@ -4474,11 +4504,11 @@
       </c>
     </row>
     <row r="22" spans="3:8" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="289" t="s">
+      <c r="C22" s="306" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="290"/>
-      <c r="E22" s="290"/>
+      <c r="D22" s="307"/>
+      <c r="E22" s="307"/>
       <c r="F22" s="277">
         <f>SUM(F19:F21)</f>
         <v>45292</v>
@@ -4551,15 +4581,15 @@
       <c r="H27" s="56"/>
     </row>
     <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="289" t="s">
+      <c r="C28" s="306" t="s">
         <v>307</v>
       </c>
-      <c r="D28" s="290"/>
-      <c r="E28" s="299">
+      <c r="D28" s="307"/>
+      <c r="E28" s="308">
         <f>SUM(F25:F27)</f>
         <v>291168</v>
       </c>
-      <c r="F28" s="300"/>
+      <c r="F28" s="309"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4574,7 +4604,7 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4762,7 +4792,7 @@
       <c r="E22" s="218"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -4895,7 +4925,7 @@
       <c r="C6" s="22">
         <v>2</v>
       </c>
-      <c r="D6" s="310" t="s">
+      <c r="D6" s="297" t="s">
         <v>352</v>
       </c>
       <c r="E6" s="53" t="s">
@@ -5415,7 +5445,7 @@
       <c r="K32" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -6732,7 +6762,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B4:F4"/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6742,7 +6772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -7081,7 +7111,7 @@
         <v>13000</v>
       </c>
       <c r="K11" s="17"/>
-      <c r="L11" s="302" t="s">
+      <c r="L11" s="289" t="s">
         <v>243</v>
       </c>
     </row>
@@ -7134,7 +7164,7 @@
         <v>8000</v>
       </c>
       <c r="K13" s="17"/>
-      <c r="L13" s="302" t="s">
+      <c r="L13" s="289" t="s">
         <v>248</v>
       </c>
     </row>
@@ -7168,7 +7198,7 @@
         <v>9000</v>
       </c>
       <c r="K14" s="17"/>
-      <c r="L14" s="302" t="s">
+      <c r="L14" s="289" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7202,7 +7232,7 @@
         <v>16500</v>
       </c>
       <c r="K15" s="17"/>
-      <c r="L15" s="302" t="s">
+      <c r="L15" s="289" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7261,7 +7291,7 @@
         <v>9000</v>
       </c>
       <c r="K17" s="17"/>
-      <c r="L17" s="302" t="s">
+      <c r="L17" s="289" t="s">
         <v>261</v>
       </c>
     </row>
@@ -7295,7 +7325,7 @@
         <v>9000</v>
       </c>
       <c r="K18" s="17"/>
-      <c r="L18" s="302" t="s">
+      <c r="L18" s="289" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7329,7 +7359,7 @@
         <v>180000</v>
       </c>
       <c r="K19" s="108"/>
-      <c r="L19" s="303" t="s">
+      <c r="L19" s="290" t="s">
         <v>267</v>
       </c>
     </row>
@@ -7363,7 +7393,7 @@
         <v>2420</v>
       </c>
       <c r="K20" s="108"/>
-      <c r="L20" s="303" t="s">
+      <c r="L20" s="290" t="s">
         <v>271</v>
       </c>
     </row>
@@ -7397,7 +7427,7 @@
         <v>101200</v>
       </c>
       <c r="K21" s="108"/>
-      <c r="L21" s="303" t="s">
+      <c r="L21" s="290" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7431,7 +7461,7 @@
         <v>49000</v>
       </c>
       <c r="K22" s="108"/>
-      <c r="L22" s="303" t="s">
+      <c r="L22" s="290" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7488,7 +7518,7 @@
         <v>45000</v>
       </c>
       <c r="K24" s="103"/>
-      <c r="L24" s="309" t="s">
+      <c r="L24" s="296" t="s">
         <v>285</v>
       </c>
     </row>
@@ -7581,7 +7611,7 @@
         <v>7200</v>
       </c>
       <c r="K31" s="35"/>
-      <c r="L31" s="304" t="s">
+      <c r="L31" s="291" t="s">
         <v>54</v>
       </c>
       <c r="M31" s="232" t="s">
@@ -7618,7 +7648,7 @@
         <v>7040</v>
       </c>
       <c r="K32" s="36"/>
-      <c r="L32" s="306" t="s">
+      <c r="L32" s="293" t="s">
         <v>289</v>
       </c>
     </row>
@@ -7670,7 +7700,7 @@
       <c r="C37" s="189" t="s">
         <v>208</v>
       </c>
-      <c r="D37" s="310" t="s">
+      <c r="D37" s="297" t="s">
         <v>352</v>
       </c>
       <c r="E37" s="35" t="s">
@@ -7727,7 +7757,7 @@
         <v>13000</v>
       </c>
       <c r="K38" s="36"/>
-      <c r="L38" s="308" t="s">
+      <c r="L38" s="295" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7814,7 +7844,7 @@
         <v>10500</v>
       </c>
       <c r="K43" s="35"/>
-      <c r="L43" s="304" t="s">
+      <c r="L43" s="291" t="s">
         <v>67</v>
       </c>
     </row>
@@ -7847,7 +7877,7 @@
         <v>2100</v>
       </c>
       <c r="K44" s="105"/>
-      <c r="L44" s="307" t="s">
+      <c r="L44" s="294" t="s">
         <v>70</v>
       </c>
     </row>
@@ -7878,7 +7908,7 @@
         <v>4000</v>
       </c>
       <c r="K45" s="36"/>
-      <c r="L45" s="306" t="s">
+      <c r="L45" s="293" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8002,7 +8032,7 @@
         <v>2000</v>
       </c>
       <c r="K50" s="105"/>
-      <c r="L50" s="307" t="s">
+      <c r="L50" s="294" t="s">
         <v>81</v>
       </c>
     </row>
@@ -8035,7 +8065,7 @@
         <v>2000</v>
       </c>
       <c r="K51" s="36"/>
-      <c r="L51" s="306" t="s">
+      <c r="L51" s="293" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8064,7 +8094,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -8153,7 +8183,7 @@
         <v>6000</v>
       </c>
       <c r="K4" s="19"/>
-      <c r="L4" s="302" t="s">
+      <c r="L4" s="289" t="s">
         <v>326</v>
       </c>
     </row>
@@ -8183,7 +8213,7 @@
         <v>8000</v>
       </c>
       <c r="K5" s="19"/>
-      <c r="L5" s="302" t="s">
+      <c r="L5" s="289" t="s">
         <v>326</v>
       </c>
     </row>
@@ -8213,7 +8243,7 @@
         <v>7000</v>
       </c>
       <c r="K6" s="19"/>
-      <c r="L6" s="302" t="s">
+      <c r="L6" s="289" t="s">
         <v>321</v>
       </c>
     </row>
@@ -8243,7 +8273,7 @@
         <v>2600</v>
       </c>
       <c r="K7" s="19"/>
-      <c r="L7" s="302" t="s">
+      <c r="L7" s="289" t="s">
         <v>323</v>
       </c>
     </row>
@@ -8271,7 +8301,7 @@
         <v>44000</v>
       </c>
       <c r="K8" s="19"/>
-      <c r="L8" s="302" t="s">
+      <c r="L8" s="289" t="s">
         <v>325</v>
       </c>
     </row>
@@ -8428,7 +8458,7 @@
         <v>300</v>
       </c>
       <c r="K20" s="19"/>
-      <c r="L20" s="305" t="s">
+      <c r="L20" s="292" t="s">
         <v>345</v>
       </c>
     </row>
@@ -8462,7 +8492,7 @@
         <v>5000</v>
       </c>
       <c r="K21" s="19"/>
-      <c r="L21" s="305" t="s">
+      <c r="L21" s="292" t="s">
         <v>346</v>
       </c>
     </row>
@@ -8496,7 +8526,7 @@
         <v>5800</v>
       </c>
       <c r="K22" s="19"/>
-      <c r="L22" s="305" t="s">
+      <c r="L22" s="292" t="s">
         <v>347</v>
       </c>
     </row>
@@ -8530,7 +8560,7 @@
         <v>1000</v>
       </c>
       <c r="K23" s="19"/>
-      <c r="L23" s="305" t="s">
+      <c r="L23" s="292" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8564,7 +8594,7 @@
         <v>4300</v>
       </c>
       <c r="K24" s="19"/>
-      <c r="L24" s="305" t="s">
+      <c r="L24" s="292" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8598,7 +8628,7 @@
         <v>4300</v>
       </c>
       <c r="K25" s="19"/>
-      <c r="L25" s="305" t="s">
+      <c r="L25" s="292" t="s">
         <v>350</v>
       </c>
     </row>
@@ -8627,8 +8657,125 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="56" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="272" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="273" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="273" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="274" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="315" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="151">
+        <v>169</v>
+      </c>
+      <c r="E4" s="151">
+        <v>250</v>
+      </c>
+      <c r="F4" s="316">
+        <f>D4*E4</f>
+        <v>42250</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="275" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="276" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="56"/>
+      <c r="C7" s="278" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="311">
+        <v>3</v>
+      </c>
+      <c r="E7" s="142">
+        <v>40000</v>
+      </c>
+      <c r="F7" s="213">
+        <f>D7*E7</f>
+        <v>120000</v>
+      </c>
+      <c r="G7" s="56"/>
+    </row>
+    <row r="8" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="233" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" s="312">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>250000</v>
+      </c>
+      <c r="F8" s="219">
+        <f>D8*E8</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="306" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" s="307"/>
+      <c r="E9" s="313">
+        <f>SUM(F7:F8)</f>
+        <v>620000</v>
+      </c>
+      <c r="F9" s="314"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="7"/>
@@ -15,16 +15,17 @@
     <sheet name="0403" sheetId="10" r:id="rId6"/>
     <sheet name="0409" sheetId="12" r:id="rId7"/>
     <sheet name="0420" sheetId="13" r:id="rId8"/>
+    <sheet name="부품 list" sheetId="14" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">'0314'!$B$4:$F$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="359">
   <si>
     <t>Vendor</t>
   </si>
@@ -1337,6 +1338,22 @@
     <t>Total</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>Transformer</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Main</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF MCU</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1350,8 +1367,8 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="0.0"/>
     <numFmt numFmtId="180" formatCode="0\ &quot;%&quot;"/>
-    <numFmt numFmtId="183" formatCode="0.0\ &quot;ea&quot;"/>
-    <numFmt numFmtId="184" formatCode="0.0\ &quot;일&quot;"/>
+    <numFmt numFmtId="181" formatCode="0.0\ &quot;ea&quot;"/>
+    <numFmt numFmtId="182" formatCode="0.0\ &quot;일&quot;"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -1843,7 +1860,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2290,6 +2307,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2573,7 +2614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -3234,6 +3275,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3243,27 +3309,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="41" fontId="28" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3273,16 +3321,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="34" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="35" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="96">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3438,7 +3635,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3473,7 +3670,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3710,28 +3907,28 @@
     </row>
     <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="303" t="s">
+      <c r="B9" s="305" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="301"/>
-      <c r="D9" s="298" t="s">
+      <c r="C9" s="306"/>
+      <c r="D9" s="309" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="298"/>
-      <c r="F9" s="298"/>
-      <c r="G9" s="301" t="s">
+      <c r="E9" s="309"/>
+      <c r="F9" s="309"/>
+      <c r="G9" s="306" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="301" t="s">
+      <c r="H9" s="306" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="299" t="s">
+      <c r="I9" s="310" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:14" s="138" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="305"/>
-      <c r="C10" s="302"/>
+      <c r="B10" s="307"/>
+      <c r="C10" s="308"/>
       <c r="D10" s="139" t="s">
         <v>87</v>
       </c>
@@ -3741,15 +3938,15 @@
       <c r="F10" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="302"/>
-      <c r="H10" s="302"/>
-      <c r="I10" s="300"/>
+      <c r="G10" s="308"/>
+      <c r="H10" s="308"/>
+      <c r="I10" s="311"/>
     </row>
     <row r="11" spans="2:14" s="138" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="306" t="s">
+      <c r="B11" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="307"/>
+      <c r="C11" s="304"/>
       <c r="D11" s="141">
         <v>0.25</v>
       </c>
@@ -3773,7 +3970,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="303" t="s">
+      <c r="B12" s="305" t="s">
         <v>95</v>
       </c>
       <c r="C12" s="140" t="s">
@@ -3814,7 +4011,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="304"/>
+      <c r="B13" s="312"/>
       <c r="C13" s="144" t="s">
         <v>92</v>
       </c>
@@ -3841,7 +4038,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="305"/>
+      <c r="B14" s="307"/>
       <c r="C14" s="147" t="s">
         <v>93</v>
       </c>
@@ -3868,7 +4065,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="303" t="s">
+      <c r="B15" s="305" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="140" t="s">
@@ -3897,7 +4094,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="304"/>
+      <c r="B16" s="312"/>
       <c r="C16" s="144" t="s">
         <v>92</v>
       </c>
@@ -3924,7 +4121,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="305"/>
+      <c r="B17" s="307"/>
       <c r="C17" s="147" t="s">
         <v>93</v>
       </c>
@@ -3968,28 +4165,28 @@
     </row>
     <row r="21" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="303" t="s">
+      <c r="B22" s="305" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="301"/>
-      <c r="D22" s="298" t="s">
+      <c r="C22" s="306"/>
+      <c r="D22" s="309" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="298"/>
-      <c r="F22" s="298"/>
-      <c r="G22" s="301" t="s">
+      <c r="E22" s="309"/>
+      <c r="F22" s="309"/>
+      <c r="G22" s="306" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="301" t="s">
+      <c r="H22" s="306" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="299" t="s">
+      <c r="I22" s="310" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="305"/>
-      <c r="C23" s="302"/>
+      <c r="B23" s="307"/>
+      <c r="C23" s="308"/>
       <c r="D23" s="139" t="s">
         <v>87</v>
       </c>
@@ -3999,15 +4196,15 @@
       <c r="F23" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="302"/>
-      <c r="H23" s="302"/>
-      <c r="I23" s="300"/>
+      <c r="G23" s="308"/>
+      <c r="H23" s="308"/>
+      <c r="I23" s="311"/>
     </row>
     <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="306" t="s">
+      <c r="B24" s="303" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="307"/>
+      <c r="C24" s="304"/>
       <c r="D24" s="150">
         <v>1</v>
       </c>
@@ -4032,28 +4229,28 @@
     </row>
     <row r="26" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="303" t="s">
+      <c r="B27" s="305" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="301"/>
-      <c r="D27" s="298" t="s">
+      <c r="C27" s="306"/>
+      <c r="D27" s="309" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="298"/>
-      <c r="F27" s="298"/>
-      <c r="G27" s="301" t="s">
+      <c r="E27" s="309"/>
+      <c r="F27" s="309"/>
+      <c r="G27" s="306" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="301" t="s">
+      <c r="H27" s="306" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="299" t="s">
+      <c r="I27" s="310" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="305"/>
-      <c r="C28" s="302"/>
+      <c r="B28" s="307"/>
+      <c r="C28" s="308"/>
       <c r="D28" s="139" t="s">
         <v>87</v>
       </c>
@@ -4063,15 +4260,15 @@
       <c r="F28" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="302"/>
-      <c r="H28" s="302"/>
-      <c r="I28" s="300"/>
+      <c r="G28" s="308"/>
+      <c r="H28" s="308"/>
+      <c r="I28" s="311"/>
     </row>
     <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="306" t="s">
+      <c r="B29" s="303" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="307"/>
+      <c r="C29" s="304"/>
       <c r="D29" s="150">
         <v>3</v>
       </c>
@@ -4112,11 +4309,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B9:C10"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
@@ -4126,12 +4324,11 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4144,7 +4341,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:S11"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4297,20 +4494,20 @@
       </c>
     </row>
     <row r="9" spans="2:11" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="303" t="s">
         <v>304</v>
       </c>
-      <c r="D9" s="307"/>
-      <c r="E9" s="307"/>
+      <c r="D9" s="304"/>
+      <c r="E9" s="304"/>
       <c r="F9" s="277">
         <f>SUM(F6:F8)</f>
         <v>138411</v>
       </c>
-      <c r="H9" s="306" t="s">
+      <c r="H9" s="303" t="s">
         <v>304</v>
       </c>
-      <c r="I9" s="307"/>
-      <c r="J9" s="307"/>
+      <c r="I9" s="304"/>
+      <c r="J9" s="304"/>
       <c r="K9" s="277">
         <f>SUM(K6:K8)</f>
         <v>42250</v>
@@ -4409,28 +4606,28 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="306" t="s">
+      <c r="C14" s="303" t="s">
         <v>307</v>
       </c>
-      <c r="D14" s="307"/>
-      <c r="E14" s="308">
+      <c r="D14" s="304"/>
+      <c r="E14" s="313">
         <f>F12</f>
         <v>553644</v>
       </c>
-      <c r="F14" s="309"/>
-      <c r="H14" s="306" t="s">
+      <c r="F14" s="314"/>
+      <c r="H14" s="303" t="s">
         <v>307</v>
       </c>
-      <c r="I14" s="307"/>
-      <c r="J14" s="308">
+      <c r="I14" s="304"/>
+      <c r="J14" s="313">
         <f>K12</f>
         <v>169000</v>
       </c>
-      <c r="K14" s="309"/>
+      <c r="K14" s="314"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="310"/>
-      <c r="D15" s="310"/>
+      <c r="C15" s="315"/>
+      <c r="D15" s="315"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
@@ -4504,11 +4701,11 @@
       </c>
     </row>
     <row r="22" spans="3:8" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="306" t="s">
+      <c r="C22" s="303" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="307"/>
-      <c r="E22" s="307"/>
+      <c r="D22" s="304"/>
+      <c r="E22" s="304"/>
       <c r="F22" s="277">
         <f>SUM(F19:F21)</f>
         <v>45292</v>
@@ -4581,15 +4778,15 @@
       <c r="H27" s="56"/>
     </row>
     <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="306" t="s">
+      <c r="C28" s="303" t="s">
         <v>307</v>
       </c>
-      <c r="D28" s="307"/>
-      <c r="E28" s="308">
+      <c r="D28" s="304"/>
+      <c r="E28" s="313">
         <f>SUM(F25:F27)</f>
         <v>291168</v>
       </c>
-      <c r="F28" s="309"/>
+      <c r="F28" s="314"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4803,7 +5000,7 @@
   <dimension ref="B2:K32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5456,7 +5653,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6772,8 +6969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8105,7 +8302,7 @@
   <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8698,7 +8895,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="315" t="s">
+      <c r="C4" s="301" t="s">
         <v>299</v>
       </c>
       <c r="D4" s="151">
@@ -8707,7 +8904,7 @@
       <c r="E4" s="151">
         <v>250</v>
       </c>
-      <c r="F4" s="316">
+      <c r="F4" s="302">
         <f>D4*E4</f>
         <v>42250</v>
       </c>
@@ -8732,7 +8929,7 @@
       <c r="C7" s="278" t="s">
         <v>299</v>
       </c>
-      <c r="D7" s="311">
+      <c r="D7" s="299">
         <v>3</v>
       </c>
       <c r="E7" s="142">
@@ -8748,7 +8945,7 @@
       <c r="C8" s="233" t="s">
         <v>353</v>
       </c>
-      <c r="D8" s="312">
+      <c r="D8" s="300">
         <v>2</v>
       </c>
       <c r="E8" s="4">
@@ -8760,15 +8957,15 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="306" t="s">
+      <c r="C9" s="303" t="s">
         <v>354</v>
       </c>
-      <c r="D9" s="307"/>
-      <c r="E9" s="313">
+      <c r="D9" s="304"/>
+      <c r="E9" s="316">
         <f>SUM(F7:F8)</f>
         <v>620000</v>
       </c>
-      <c r="F9" s="314"/>
+      <c r="F9" s="317"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8778,4 +8975,2064 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="298" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="318" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" s="318" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="319" t="s">
+        <v>358</v>
+      </c>
+      <c r="F3" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="333" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="334" t="s">
+        <v>356</v>
+      </c>
+      <c r="D4" s="335"/>
+      <c r="E4" s="335"/>
+      <c r="F4" s="336" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="335">
+        <v>1</v>
+      </c>
+      <c r="H4" s="336" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="358">
+        <v>10</v>
+      </c>
+      <c r="J4" s="358">
+        <v>110</v>
+      </c>
+      <c r="K4" s="359">
+        <v>110</v>
+      </c>
+      <c r="L4" s="358">
+        <v>20</v>
+      </c>
+      <c r="M4" s="360"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="336" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="37"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="337" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D5" s="339"/>
+      <c r="E5" s="339"/>
+      <c r="F5" s="340" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="339">
+        <v>1</v>
+      </c>
+      <c r="H5" s="340" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="361">
+        <v>10</v>
+      </c>
+      <c r="J5" s="361">
+        <v>220</v>
+      </c>
+      <c r="K5" s="357">
+        <v>220</v>
+      </c>
+      <c r="L5" s="361">
+        <v>20</v>
+      </c>
+      <c r="M5" s="321"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="340" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="39"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="337" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" s="339"/>
+      <c r="E6" s="339"/>
+      <c r="F6" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="339">
+        <v>1</v>
+      </c>
+      <c r="H6" s="340" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" s="361">
+        <v>10</v>
+      </c>
+      <c r="J6" s="361">
+        <v>20</v>
+      </c>
+      <c r="K6" s="357">
+        <v>40</v>
+      </c>
+      <c r="L6" s="361">
+        <v>20</v>
+      </c>
+      <c r="M6" s="321"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="340" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" s="39"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="337" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D7" s="339"/>
+      <c r="E7" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="F7" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="339">
+        <v>1</v>
+      </c>
+      <c r="H7" s="340" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="361">
+        <v>10</v>
+      </c>
+      <c r="J7" s="361">
+        <v>20</v>
+      </c>
+      <c r="K7" s="357">
+        <v>20</v>
+      </c>
+      <c r="L7" s="361">
+        <v>40</v>
+      </c>
+      <c r="M7" s="321"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="340" t="s">
+        <v>152</v>
+      </c>
+      <c r="P7" s="39"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="337" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="339"/>
+      <c r="E8" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="F8" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="339">
+        <v>1</v>
+      </c>
+      <c r="H8" s="340" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="361">
+        <v>10</v>
+      </c>
+      <c r="J8" s="361">
+        <v>20</v>
+      </c>
+      <c r="K8" s="357">
+        <v>20</v>
+      </c>
+      <c r="L8" s="361">
+        <v>40</v>
+      </c>
+      <c r="M8" s="321"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="341" t="s">
+        <v>159</v>
+      </c>
+      <c r="P8" s="39"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="337" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="339"/>
+      <c r="E9" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="F9" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="339">
+        <v>1</v>
+      </c>
+      <c r="H9" s="340" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="361">
+        <v>10</v>
+      </c>
+      <c r="J9" s="361">
+        <v>40</v>
+      </c>
+      <c r="K9" s="357">
+        <v>250</v>
+      </c>
+      <c r="L9" s="361">
+        <v>20</v>
+      </c>
+      <c r="M9" s="321"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="341" t="s">
+        <v>155</v>
+      </c>
+      <c r="P9" s="39"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="323" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D10" s="325"/>
+      <c r="E10" s="325"/>
+      <c r="F10" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="325">
+        <v>1</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10" s="357">
+        <v>10</v>
+      </c>
+      <c r="J10" s="357">
+        <v>140</v>
+      </c>
+      <c r="K10" s="357">
+        <v>140</v>
+      </c>
+      <c r="L10" s="357">
+        <v>10</v>
+      </c>
+      <c r="M10" s="321"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="P10" s="39"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="I11" s="321">
+        <v>1</v>
+      </c>
+      <c r="J11" s="321">
+        <v>3520</v>
+      </c>
+      <c r="K11" s="321">
+        <f>J11*L11</f>
+        <v>7040</v>
+      </c>
+      <c r="L11" s="321">
+        <v>2</v>
+      </c>
+      <c r="M11" s="321"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="342" t="s">
+        <v>289</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="337" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" s="339"/>
+      <c r="E12" s="339"/>
+      <c r="F12" s="340" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="339">
+        <v>1</v>
+      </c>
+      <c r="H12" s="340" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="361">
+        <v>1</v>
+      </c>
+      <c r="J12" s="361">
+        <v>720</v>
+      </c>
+      <c r="K12" s="357">
+        <v>1270</v>
+      </c>
+      <c r="L12" s="361">
+        <v>20</v>
+      </c>
+      <c r="M12" s="321"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="340" t="s">
+        <v>145</v>
+      </c>
+      <c r="P12" s="39"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="320" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D13" s="246"/>
+      <c r="E13" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13" s="246" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="22">
+        <v>3</v>
+      </c>
+      <c r="H13" s="246" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="321">
+        <v>1</v>
+      </c>
+      <c r="J13" s="321">
+        <v>60</v>
+      </c>
+      <c r="K13" s="321">
+        <f>J13*L13</f>
+        <v>7200</v>
+      </c>
+      <c r="L13" s="321">
+        <v>120</v>
+      </c>
+      <c r="M13" s="321"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="342" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="337" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14" s="339"/>
+      <c r="E14" s="339"/>
+      <c r="F14" s="340" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="339">
+        <v>1</v>
+      </c>
+      <c r="H14" s="340" t="s">
+        <v>162</v>
+      </c>
+      <c r="I14" s="361">
+        <v>50</v>
+      </c>
+      <c r="J14" s="361">
+        <v>160</v>
+      </c>
+      <c r="K14" s="357">
+        <v>160</v>
+      </c>
+      <c r="L14" s="361">
+        <v>50</v>
+      </c>
+      <c r="M14" s="321"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="340" t="s">
+        <v>163</v>
+      </c>
+      <c r="P14" s="39"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="337" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D15" s="339"/>
+      <c r="E15" s="339"/>
+      <c r="F15" s="340" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="339">
+        <v>1</v>
+      </c>
+      <c r="H15" s="340" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="361">
+        <v>10</v>
+      </c>
+      <c r="J15" s="361">
+        <v>380</v>
+      </c>
+      <c r="K15" s="357">
+        <v>380</v>
+      </c>
+      <c r="L15" s="361">
+        <v>10</v>
+      </c>
+      <c r="M15" s="321"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="340" t="s">
+        <v>118</v>
+      </c>
+      <c r="P15" s="39"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="337" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" s="339"/>
+      <c r="E16" s="339"/>
+      <c r="F16" s="340" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="339">
+        <v>1</v>
+      </c>
+      <c r="H16" s="340" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="361">
+        <v>1</v>
+      </c>
+      <c r="J16" s="361">
+        <v>420</v>
+      </c>
+      <c r="K16" s="357">
+        <v>350</v>
+      </c>
+      <c r="L16" s="361">
+        <v>20</v>
+      </c>
+      <c r="M16" s="321"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="340" t="s">
+        <v>132</v>
+      </c>
+      <c r="P16" s="39"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="337" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D17" s="339"/>
+      <c r="E17" s="339"/>
+      <c r="F17" s="340" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="339">
+        <v>1</v>
+      </c>
+      <c r="H17" s="340" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="361">
+        <v>1</v>
+      </c>
+      <c r="J17" s="361">
+        <v>260</v>
+      </c>
+      <c r="K17" s="357">
+        <v>320</v>
+      </c>
+      <c r="L17" s="361">
+        <v>20</v>
+      </c>
+      <c r="M17" s="321"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="340" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="39"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="337" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D18" s="339"/>
+      <c r="E18" s="339"/>
+      <c r="F18" s="340" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="339">
+        <v>1</v>
+      </c>
+      <c r="H18" s="340" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" s="361">
+        <v>1</v>
+      </c>
+      <c r="J18" s="361">
+        <v>2850</v>
+      </c>
+      <c r="K18" s="357">
+        <v>3240</v>
+      </c>
+      <c r="L18" s="361">
+        <v>20</v>
+      </c>
+      <c r="M18" s="321"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="340" t="s">
+        <v>178</v>
+      </c>
+      <c r="P18" s="39"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="337" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="339"/>
+      <c r="E19" s="339"/>
+      <c r="F19" s="340" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="339">
+        <v>1</v>
+      </c>
+      <c r="H19" s="340" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="361">
+        <v>1</v>
+      </c>
+      <c r="J19" s="361">
+        <v>1750</v>
+      </c>
+      <c r="K19" s="357">
+        <v>1000</v>
+      </c>
+      <c r="L19" s="361">
+        <v>60</v>
+      </c>
+      <c r="M19" s="321"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="340" t="s">
+        <v>181</v>
+      </c>
+      <c r="P19" s="39"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="337" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" s="339"/>
+      <c r="E20" s="339"/>
+      <c r="F20" s="340" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="339">
+        <v>1</v>
+      </c>
+      <c r="H20" s="340" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="361">
+        <v>1</v>
+      </c>
+      <c r="J20" s="361">
+        <v>480</v>
+      </c>
+      <c r="K20" s="357">
+        <v>260</v>
+      </c>
+      <c r="L20" s="361">
+        <v>100</v>
+      </c>
+      <c r="M20" s="321"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="340" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="39"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="337" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D21" s="339"/>
+      <c r="E21" s="339"/>
+      <c r="F21" s="340" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="339">
+        <v>1</v>
+      </c>
+      <c r="H21" s="340" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" s="361">
+        <v>1</v>
+      </c>
+      <c r="J21" s="361">
+        <v>750</v>
+      </c>
+      <c r="K21" s="357">
+        <v>550</v>
+      </c>
+      <c r="L21" s="361">
+        <v>25</v>
+      </c>
+      <c r="M21" s="321"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="340" t="s">
+        <v>174</v>
+      </c>
+      <c r="P21" s="39"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="337" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D22" s="339"/>
+      <c r="E22" s="339"/>
+      <c r="F22" s="340" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="339">
+        <v>1</v>
+      </c>
+      <c r="H22" s="340" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="361">
+        <v>1</v>
+      </c>
+      <c r="J22" s="361">
+        <v>2150</v>
+      </c>
+      <c r="K22" s="357">
+        <v>1880</v>
+      </c>
+      <c r="L22" s="361">
+        <v>20</v>
+      </c>
+      <c r="M22" s="321"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="340" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" s="39"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="337" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D23" s="339"/>
+      <c r="E23" s="339"/>
+      <c r="F23" s="340" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="339">
+        <v>3</v>
+      </c>
+      <c r="H23" s="340" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" s="361">
+        <v>1</v>
+      </c>
+      <c r="J23" s="361">
+        <v>280</v>
+      </c>
+      <c r="K23" s="357">
+        <v>270</v>
+      </c>
+      <c r="L23" s="361">
+        <v>60</v>
+      </c>
+      <c r="M23" s="321"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="340" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" s="39"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="337" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D24" s="339"/>
+      <c r="E24" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" s="340" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="339">
+        <v>1</v>
+      </c>
+      <c r="H24" s="340" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="361">
+        <v>10</v>
+      </c>
+      <c r="J24" s="361">
+        <v>200</v>
+      </c>
+      <c r="K24" s="357">
+        <v>200</v>
+      </c>
+      <c r="L24" s="361">
+        <v>20</v>
+      </c>
+      <c r="M24" s="321"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="340" t="s">
+        <v>113</v>
+      </c>
+      <c r="P24" s="39"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="337" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D25" s="339"/>
+      <c r="E25" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="F25" s="340" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="339">
+        <v>1</v>
+      </c>
+      <c r="H25" s="340" t="s">
+        <v>170</v>
+      </c>
+      <c r="I25" s="361">
+        <v>1</v>
+      </c>
+      <c r="J25" s="361">
+        <v>3970</v>
+      </c>
+      <c r="K25" s="357">
+        <v>2340</v>
+      </c>
+      <c r="L25" s="361">
+        <v>40</v>
+      </c>
+      <c r="M25" s="321"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="340" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" s="39"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="337" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D26" s="339"/>
+      <c r="E26" s="339"/>
+      <c r="F26" s="340" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="339">
+        <v>1</v>
+      </c>
+      <c r="H26" s="340" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="361">
+        <v>1</v>
+      </c>
+      <c r="J26" s="361">
+        <v>520</v>
+      </c>
+      <c r="K26" s="357">
+        <v>380</v>
+      </c>
+      <c r="L26" s="361">
+        <v>20</v>
+      </c>
+      <c r="M26" s="321"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="340" t="s">
+        <v>109</v>
+      </c>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="337" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="D27" s="339"/>
+      <c r="E27" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="F27" s="340" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" s="339">
+        <v>1</v>
+      </c>
+      <c r="H27" s="340" t="s">
+        <v>183</v>
+      </c>
+      <c r="I27" s="361">
+        <v>5</v>
+      </c>
+      <c r="J27" s="361">
+        <v>870</v>
+      </c>
+      <c r="K27" s="357">
+        <v>870</v>
+      </c>
+      <c r="L27" s="361">
+        <v>40</v>
+      </c>
+      <c r="M27" s="321"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="340" t="s">
+        <v>184</v>
+      </c>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="326" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="327"/>
+      <c r="D28" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E28" s="338"/>
+      <c r="F28" s="338"/>
+      <c r="G28" s="328">
+        <v>1</v>
+      </c>
+      <c r="H28" s="329" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="321">
+        <v>50</v>
+      </c>
+      <c r="J28" s="321">
+        <v>100</v>
+      </c>
+      <c r="K28" s="321"/>
+      <c r="L28" s="321">
+        <v>50</v>
+      </c>
+      <c r="M28" s="321">
+        <f>J28*L28</f>
+        <v>5000</v>
+      </c>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="326" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="327"/>
+      <c r="D29" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E29" s="338"/>
+      <c r="F29" s="338"/>
+      <c r="G29" s="328">
+        <v>2</v>
+      </c>
+      <c r="H29" s="329" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="321">
+        <v>1</v>
+      </c>
+      <c r="J29" s="321">
+        <v>1260</v>
+      </c>
+      <c r="K29" s="321"/>
+      <c r="L29" s="321">
+        <v>6</v>
+      </c>
+      <c r="M29" s="321">
+        <f>J29*L29</f>
+        <v>7560</v>
+      </c>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="343" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="344"/>
+      <c r="D30" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E30" s="338"/>
+      <c r="F30" s="338"/>
+      <c r="G30" s="22">
+        <v>2</v>
+      </c>
+      <c r="H30" s="345" t="s">
+        <v>352</v>
+      </c>
+      <c r="I30" s="321">
+        <v>1</v>
+      </c>
+      <c r="J30" s="321">
+        <v>960</v>
+      </c>
+      <c r="K30" s="321"/>
+      <c r="L30" s="321">
+        <v>20</v>
+      </c>
+      <c r="M30" s="321">
+        <v>16400</v>
+      </c>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30" s="322" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="323" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="324"/>
+      <c r="D31" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E31" s="338"/>
+      <c r="F31" s="338"/>
+      <c r="G31" s="325">
+        <v>10</v>
+      </c>
+      <c r="H31" s="324" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="321">
+        <v>5</v>
+      </c>
+      <c r="J31" s="321">
+        <v>2280</v>
+      </c>
+      <c r="K31" s="321"/>
+      <c r="L31" s="321">
+        <v>10</v>
+      </c>
+      <c r="M31" s="321">
+        <f>J31*L31</f>
+        <v>22800</v>
+      </c>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="326" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="327"/>
+      <c r="D32" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E32" s="338"/>
+      <c r="F32" s="338"/>
+      <c r="G32" s="328">
+        <v>1</v>
+      </c>
+      <c r="H32" s="329" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="321">
+        <v>2</v>
+      </c>
+      <c r="J32" s="321">
+        <v>7100</v>
+      </c>
+      <c r="K32" s="321"/>
+      <c r="L32" s="321">
+        <v>2</v>
+      </c>
+      <c r="M32" s="321">
+        <f>J32*L32</f>
+        <v>14200</v>
+      </c>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B33" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="53"/>
+      <c r="D33" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E33" s="338"/>
+      <c r="F33" s="338"/>
+      <c r="G33" s="22">
+        <v>1</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="321">
+        <v>1</v>
+      </c>
+      <c r="J33" s="321">
+        <v>11090</v>
+      </c>
+      <c r="K33" s="321"/>
+      <c r="L33" s="321">
+        <v>2</v>
+      </c>
+      <c r="M33" s="321">
+        <f>J33*L33</f>
+        <v>22180</v>
+      </c>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="P33" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B34" s="330" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="331"/>
+      <c r="D34" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E34" s="338"/>
+      <c r="F34" s="338"/>
+      <c r="G34" s="328">
+        <v>1</v>
+      </c>
+      <c r="H34" s="329" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="321">
+        <v>2</v>
+      </c>
+      <c r="J34" s="321">
+        <v>13200</v>
+      </c>
+      <c r="K34" s="321"/>
+      <c r="L34" s="321">
+        <v>4</v>
+      </c>
+      <c r="M34" s="321">
+        <f>J34*L34</f>
+        <v>52800</v>
+      </c>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="P34" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B35" s="326" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="327"/>
+      <c r="D35" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E35" s="338"/>
+      <c r="F35" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="328">
+        <v>1</v>
+      </c>
+      <c r="H35" s="329" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="321">
+        <v>100</v>
+      </c>
+      <c r="J35" s="321">
+        <v>130</v>
+      </c>
+      <c r="K35" s="321"/>
+      <c r="L35" s="321">
+        <v>100</v>
+      </c>
+      <c r="M35" s="321">
+        <f>J35*L35</f>
+        <v>13000</v>
+      </c>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B36" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="332"/>
+      <c r="D36" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E36" s="338"/>
+      <c r="F36" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="328">
+        <v>1</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="321">
+        <v>5</v>
+      </c>
+      <c r="J36" s="321">
+        <v>210</v>
+      </c>
+      <c r="K36" s="321"/>
+      <c r="L36" s="321">
+        <v>30</v>
+      </c>
+      <c r="M36" s="321">
+        <f>J36*L36</f>
+        <v>6300</v>
+      </c>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B37" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="332"/>
+      <c r="D37" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E37" s="338"/>
+      <c r="F37" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="328">
+        <v>4</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="321">
+        <v>100</v>
+      </c>
+      <c r="J37" s="321">
+        <v>20</v>
+      </c>
+      <c r="K37" s="321"/>
+      <c r="L37" s="356">
+        <v>200</v>
+      </c>
+      <c r="M37" s="321">
+        <f>J37*L37</f>
+        <v>4000</v>
+      </c>
+      <c r="N37" s="346" t="s">
+        <v>41</v>
+      </c>
+      <c r="O37" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="P37" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B38" s="323" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="325"/>
+      <c r="D38" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E38" s="338"/>
+      <c r="F38" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="325">
+        <v>1</v>
+      </c>
+      <c r="H38" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="I38" s="357">
+        <v>10</v>
+      </c>
+      <c r="J38" s="357">
+        <v>230</v>
+      </c>
+      <c r="K38" s="357">
+        <v>230</v>
+      </c>
+      <c r="L38" s="357">
+        <v>20</v>
+      </c>
+      <c r="M38" s="321"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="P38" s="39"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B39" s="323" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="58"/>
+      <c r="D39" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E39" s="338"/>
+      <c r="F39" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="325">
+        <v>8</v>
+      </c>
+      <c r="H39" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="I39" s="357">
+        <v>300</v>
+      </c>
+      <c r="J39" s="357">
+        <v>130</v>
+      </c>
+      <c r="K39" s="357">
+        <v>130</v>
+      </c>
+      <c r="L39" s="357">
+        <v>300</v>
+      </c>
+      <c r="M39" s="321"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="P39" s="39"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B40" s="343" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="344"/>
+      <c r="D40" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E40" s="338"/>
+      <c r="F40" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="325">
+        <v>2</v>
+      </c>
+      <c r="H40" s="345" t="s">
+        <v>352</v>
+      </c>
+      <c r="I40" s="357">
+        <v>1</v>
+      </c>
+      <c r="J40" s="357">
+        <v>1020</v>
+      </c>
+      <c r="K40" s="357">
+        <f>J40*L40</f>
+        <v>20400</v>
+      </c>
+      <c r="L40" s="357">
+        <v>20</v>
+      </c>
+      <c r="M40" s="321"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="P40" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B41" s="323" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="58"/>
+      <c r="D41" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E41" s="338"/>
+      <c r="F41" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="325">
+        <v>1</v>
+      </c>
+      <c r="H41" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="I41" s="357">
+        <v>100</v>
+      </c>
+      <c r="J41" s="357">
+        <v>130</v>
+      </c>
+      <c r="K41" s="357">
+        <f>J41*L41</f>
+        <v>13000</v>
+      </c>
+      <c r="L41" s="357">
+        <v>100</v>
+      </c>
+      <c r="M41" s="321"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="347" t="s">
+        <v>294</v>
+      </c>
+      <c r="P41" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B42" s="320" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="348"/>
+      <c r="D42" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E42" s="338"/>
+      <c r="F42" s="246" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="348">
+        <v>1</v>
+      </c>
+      <c r="H42" s="246" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="362">
+        <v>50</v>
+      </c>
+      <c r="J42" s="362">
+        <v>210</v>
+      </c>
+      <c r="K42" s="362">
+        <v>10500</v>
+      </c>
+      <c r="L42" s="362">
+        <v>50</v>
+      </c>
+      <c r="M42" s="321"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="342" t="s">
+        <v>67</v>
+      </c>
+      <c r="P42" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B43" s="320" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="348"/>
+      <c r="D43" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E43" s="338"/>
+      <c r="F43" s="246" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="348">
+        <v>1</v>
+      </c>
+      <c r="H43" s="246" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="362">
+        <v>10</v>
+      </c>
+      <c r="J43" s="362">
+        <v>210</v>
+      </c>
+      <c r="K43" s="362">
+        <v>2100</v>
+      </c>
+      <c r="L43" s="362">
+        <v>10</v>
+      </c>
+      <c r="M43" s="321"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="342" t="s">
+        <v>70</v>
+      </c>
+      <c r="P43" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B44" s="320" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="348"/>
+      <c r="D44" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E44" s="338"/>
+      <c r="F44" s="246"/>
+      <c r="G44" s="348">
+        <v>2</v>
+      </c>
+      <c r="H44" s="246" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="362">
+        <v>100</v>
+      </c>
+      <c r="J44" s="362">
+        <v>80</v>
+      </c>
+      <c r="K44" s="362">
+        <v>4000</v>
+      </c>
+      <c r="L44" s="362">
+        <v>100</v>
+      </c>
+      <c r="M44" s="321"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="342" t="s">
+        <v>73</v>
+      </c>
+      <c r="P44" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B45" s="320" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="246"/>
+      <c r="D45" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E45" s="338"/>
+      <c r="F45" s="246" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="348">
+        <v>1</v>
+      </c>
+      <c r="H45" s="246" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" s="362"/>
+      <c r="J45" s="362">
+        <v>270</v>
+      </c>
+      <c r="K45" s="362">
+        <v>0</v>
+      </c>
+      <c r="L45" s="362">
+        <v>20</v>
+      </c>
+      <c r="M45" s="321"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="246" t="s">
+        <v>78</v>
+      </c>
+      <c r="P45" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B46" s="320" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="246"/>
+      <c r="D46" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E46" s="338"/>
+      <c r="F46" s="246" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" s="348">
+        <v>1</v>
+      </c>
+      <c r="H46" s="246" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" s="362">
+        <v>10</v>
+      </c>
+      <c r="J46" s="362">
+        <v>200</v>
+      </c>
+      <c r="K46" s="362">
+        <v>2000</v>
+      </c>
+      <c r="L46" s="362">
+        <v>10</v>
+      </c>
+      <c r="M46" s="321"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="342" t="s">
+        <v>81</v>
+      </c>
+      <c r="P46" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B47" s="320" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="246"/>
+      <c r="D47" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="E47" s="338"/>
+      <c r="F47" s="246" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" s="348">
+        <v>1</v>
+      </c>
+      <c r="H47" s="246" t="s">
+        <v>82</v>
+      </c>
+      <c r="I47" s="362">
+        <v>10</v>
+      </c>
+      <c r="J47" s="362">
+        <v>200</v>
+      </c>
+      <c r="K47" s="362">
+        <v>2000</v>
+      </c>
+      <c r="L47" s="362">
+        <v>10</v>
+      </c>
+      <c r="M47" s="321"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="342" t="s">
+        <v>83</v>
+      </c>
+      <c r="P47" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B48" s="349" t="s">
+        <v>332</v>
+      </c>
+      <c r="C48" s="350"/>
+      <c r="D48" s="350"/>
+      <c r="E48" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="F48" s="350" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="366">
+        <v>1</v>
+      </c>
+      <c r="H48" s="350" t="s">
+        <v>340</v>
+      </c>
+      <c r="I48" s="363">
+        <v>100</v>
+      </c>
+      <c r="J48" s="363">
+        <v>50</v>
+      </c>
+      <c r="K48" s="321"/>
+      <c r="L48" s="363">
+        <v>100</v>
+      </c>
+      <c r="M48" s="321">
+        <f>J48*L48</f>
+        <v>5000</v>
+      </c>
+      <c r="N48" s="34"/>
+      <c r="O48" s="351" t="s">
+        <v>346</v>
+      </c>
+      <c r="P48" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B49" s="349" t="s">
+        <v>338</v>
+      </c>
+      <c r="C49" s="350"/>
+      <c r="D49" s="350"/>
+      <c r="E49" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="F49" s="350" t="s">
+        <v>337</v>
+      </c>
+      <c r="G49" s="366">
+        <v>1</v>
+      </c>
+      <c r="H49" s="350" t="s">
+        <v>344</v>
+      </c>
+      <c r="I49" s="363">
+        <v>1</v>
+      </c>
+      <c r="J49" s="363">
+        <v>430</v>
+      </c>
+      <c r="K49" s="321"/>
+      <c r="L49" s="363">
+        <v>10</v>
+      </c>
+      <c r="M49" s="321">
+        <f>J49*L49</f>
+        <v>4300</v>
+      </c>
+      <c r="N49" s="34"/>
+      <c r="O49" s="351" t="s">
+        <v>350</v>
+      </c>
+      <c r="P49" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B50" s="349" t="s">
+        <v>336</v>
+      </c>
+      <c r="C50" s="350"/>
+      <c r="D50" s="350"/>
+      <c r="E50" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="F50" s="350" t="s">
+        <v>337</v>
+      </c>
+      <c r="G50" s="366">
+        <v>1</v>
+      </c>
+      <c r="H50" s="350" t="s">
+        <v>343</v>
+      </c>
+      <c r="I50" s="363">
+        <v>1</v>
+      </c>
+      <c r="J50" s="363">
+        <v>430</v>
+      </c>
+      <c r="K50" s="321"/>
+      <c r="L50" s="363">
+        <v>10</v>
+      </c>
+      <c r="M50" s="321">
+        <f>J50*L50</f>
+        <v>4300</v>
+      </c>
+      <c r="N50" s="34"/>
+      <c r="O50" s="351" t="s">
+        <v>349</v>
+      </c>
+      <c r="P50" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B51" s="349" t="s">
+        <v>333</v>
+      </c>
+      <c r="C51" s="350"/>
+      <c r="D51" s="350"/>
+      <c r="E51" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="F51" s="350" t="s">
+        <v>331</v>
+      </c>
+      <c r="G51" s="366">
+        <v>2</v>
+      </c>
+      <c r="H51" s="350" t="s">
+        <v>341</v>
+      </c>
+      <c r="I51" s="363">
+        <v>1</v>
+      </c>
+      <c r="J51" s="363">
+        <v>290</v>
+      </c>
+      <c r="K51" s="321"/>
+      <c r="L51" s="363">
+        <v>20</v>
+      </c>
+      <c r="M51" s="321">
+        <f>J51*L51</f>
+        <v>5800</v>
+      </c>
+      <c r="N51" s="34"/>
+      <c r="O51" s="351" t="s">
+        <v>347</v>
+      </c>
+      <c r="P51" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B52" s="349" t="s">
+        <v>330</v>
+      </c>
+      <c r="C52" s="350"/>
+      <c r="D52" s="350"/>
+      <c r="E52" s="338" t="s">
+        <v>356</v>
+      </c>
+      <c r="F52" s="350" t="s">
+        <v>331</v>
+      </c>
+      <c r="G52" s="366">
+        <v>1</v>
+      </c>
+      <c r="H52" s="350" t="s">
+        <v>339</v>
+      </c>
+      <c r="I52" s="363">
+        <v>1</v>
+      </c>
+      <c r="J52" s="363">
+        <v>30</v>
+      </c>
+      <c r="K52" s="321"/>
+      <c r="L52" s="363">
+        <v>10</v>
+      </c>
+      <c r="M52" s="321">
+        <f>J52*L52</f>
+        <v>300</v>
+      </c>
+      <c r="N52" s="34"/>
+      <c r="O52" s="351" t="s">
+        <v>345</v>
+      </c>
+      <c r="P52" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="352" t="s">
+        <v>334</v>
+      </c>
+      <c r="C53" s="353"/>
+      <c r="D53" s="353"/>
+      <c r="E53" s="354" t="s">
+        <v>356</v>
+      </c>
+      <c r="F53" s="353" t="s">
+        <v>335</v>
+      </c>
+      <c r="G53" s="367">
+        <v>1</v>
+      </c>
+      <c r="H53" s="353" t="s">
+        <v>342</v>
+      </c>
+      <c r="I53" s="364">
+        <v>10</v>
+      </c>
+      <c r="J53" s="364">
+        <v>100</v>
+      </c>
+      <c r="K53" s="365"/>
+      <c r="L53" s="364">
+        <v>10</v>
+      </c>
+      <c r="M53" s="365">
+        <f>J53*L53</f>
+        <v>1000</v>
+      </c>
+      <c r="N53" s="36"/>
+      <c r="O53" s="355" t="s">
+        <v>348</v>
+      </c>
+      <c r="P53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="368"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="55"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="368"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="55"/>
+    </row>
+  </sheetData>
+  <sortState ref="B48:W53">
+    <sortCondition ref="B48:B53"/>
+  </sortState>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="7"/>
+    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="개발비" sheetId="7" r:id="rId1"/>
     <sheet name="작업비" sheetId="11" r:id="rId2"/>
-    <sheet name="부품 구입비" sheetId="9" r:id="rId3"/>
+    <sheet name="비용" sheetId="9" r:id="rId3"/>
     <sheet name="Transformer" sheetId="1" r:id="rId4"/>
     <sheet name="0314" sheetId="8" r:id="rId5"/>
     <sheet name="0403" sheetId="10" r:id="rId6"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="362">
   <si>
     <t>Vendor</t>
   </si>
@@ -49,22 +49,22 @@
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>상품코드</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ICbanQ</t>
   </si>
   <si>
     <t>ICbanQ</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002101847 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>NTD5802N</t>
@@ -74,11 +74,11 @@
   </si>
   <si>
     <t>53398-0471</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>50058-8000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
@@ -91,11 +91,11 @@
   </si>
   <si>
     <t>51021-0400</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin Housing, Female</t>
@@ -111,90 +111,90 @@
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>P000740132</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>P005634281</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CTX210609-R</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TRANSFORMER CCFL 6W 13V 11MA SMD Turn-R:100</t>
   </si>
   <si>
     <t>CTX210605-R</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>P002058985</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>P005831162</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>P002058197</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007073878 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>부가세</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>부품 Total</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CAP TANT 220UF 16V 10% 2917</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>P008221708</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>장보고 재고 있음</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2/5일 구매</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>T491D227K016AT</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>재고 없음</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007223445 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2/8일 구매</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -222,19 +222,19 @@
       </rPr>
       <t>-R</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>B180212004001</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>주문번호</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2/12일 구매</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>BZT52C5V1S</t>
@@ -337,75 +337,75 @@
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Touch Program</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>작업기간</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Month</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Day[20/Month]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Hour[3/Day]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>시급</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>가중치</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>LF Gen MCU</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>LF Control MCU</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Cost</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1차 작업</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Item</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2차 작업</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Hour[3.5/Day]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>H/W</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>M/E</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Pipette 2차</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Set 수량</t>
@@ -415,11 +415,11 @@
   </si>
   <si>
     <t>구매 Cost</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>STPS120M</t>
@@ -432,7 +432,7 @@
   </si>
   <si>
     <t>P001539333</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>SMBJ12CA</t>
@@ -445,15 +445,15 @@
   </si>
   <si>
     <t>P004928252</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>P007475431</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>LF용 포함 구매</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>DC-011C_SMD</t>
@@ -463,7 +463,7 @@
   </si>
   <si>
     <t>P005658771</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>053048-0310</t>
@@ -473,7 +473,7 @@
   </si>
   <si>
     <t>P005634294</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>053048-0710</t>
@@ -483,7 +483,7 @@
   </si>
   <si>
     <t>P005634298</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>HI05-AG0272</t>
@@ -496,7 +496,7 @@
   </si>
   <si>
     <t>P005659337</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>F0603E2R50FSTR</t>
@@ -509,11 +509,11 @@
   </si>
   <si>
     <t>P001574681</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>1 point 삭제 예정</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MSS5131-153ML</t>
@@ -526,7 +526,7 @@
   </si>
   <si>
     <t xml:space="preserve">P002266417 </t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>LQM2HPZ2R2MG0</t>
@@ -539,7 +539,7 @@
   </si>
   <si>
     <t>P008172717</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ASMT-YTD2-0BB02</t>
@@ -552,7 +552,7 @@
   </si>
   <si>
     <t>P000725384</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>17-21/W1D-ANPHY/3T</t>
@@ -565,7 +565,7 @@
   </si>
   <si>
     <t>P005609815</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>19-21/R6C-AP1Q2/3T</t>
@@ -575,7 +575,7 @@
   </si>
   <si>
     <t>P005609821</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>19-217/W1D-APQHY/3T</t>
@@ -585,11 +585,11 @@
   </si>
   <si>
     <t>P000098995</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>재품이 없어 고휘도 구매</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>19-213/G6C-AN1P2 /3T</t>
@@ -599,7 +599,7 @@
   </si>
   <si>
     <t>P005609818</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>CTT-1139P1</t>
@@ -612,11 +612,11 @@
   </si>
   <si>
     <t>P000092681</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MOQ</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>SKRMABE010</t>
@@ -626,7 +626,7 @@
   </si>
   <si>
     <t xml:space="preserve">P001566090 </t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>STM32F070RBT6</t>
@@ -648,7 +648,7 @@
   </si>
   <si>
     <t>P000166190</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>LM2735XMF</t>
@@ -661,7 +661,7 @@
   </si>
   <si>
     <t>P006290287</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>LM3671MF-3.3</t>
@@ -671,7 +671,7 @@
   </si>
   <si>
     <t>P007302353</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>TPS3801L30</t>
@@ -681,678 +681,690 @@
   </si>
   <si>
     <t>P007092561</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Battery 하네스</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>구매 Cost</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>51021-0300</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch Housing, Female, 3-Pin</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>P005634252</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Transformer 하네스</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>51021-0700</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch Housing, Female, 7-Pin</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>P005634256</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>50058 양단 1007 케이블</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>P005634320</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>50058 양단 케이블 L=100mm, Black</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Item</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cost : </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette V1.0 / LF MCU 일부</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette과 overlap되는 LF MCU 부품 구매</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>053398-0571</t>
+  </si>
+  <si>
+    <t>1.25mm Pitch SMD CON, Vertical 5-Pin</t>
+  </si>
+  <si>
+    <t>구매수량</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX-936ESD</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> EXSO </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>정전기 방지 온도조절형 인두, 소비전력:60W, 온도:220℃ ~ 480℃</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P001909039</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LedSol 3001 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXSO</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 무연인두기, 75W, 온도: 100~500℃</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007193509</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LedSol-100 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아날로그 무연인두기 , 24V 75W, 온도: 200~480℃</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007193511</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LedSol-200 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 무연인두기, 24V 70W, 온도: 200~480℃</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007193512</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX-888D(70W)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 무연인두기, 26V 70W, 온도: 200~480℃</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005688453</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX-951</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 무연인두기, 24V 75W, 온도: 200~450℃</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005688454</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18-K</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO FX-888(FX-8801) 전용 인두 칼팁</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P002116124</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18-3.5K</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18-B</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO FX-888(FX-8801) 전용 인두 팁</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P002116123 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3474</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubber Cleaner</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1561</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO A1561 클리닝와이어</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P004702618</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1559</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO A1559 스폰지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P004704819</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPPON 18</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO 18 SPPON DESOLDERING TOOL</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P004702809</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>18N.18G</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAKKO SPPON NOZZLE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ic114</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>UL1007-AWG20</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>UL전선</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (검정색)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P002329495 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (빨강)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P002329190 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>칩저항 키트</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any vender</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005 사이즈 F급(1%) 160종 칩저항 키트 - (100개들이)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P001907055</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>JL-0232 적색</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any vender</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">더블 바나나플러그 / 적색 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005658758</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>GHG630DCE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOSCH </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>열풍기(히터건) (GHG630DCE)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007320842</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST-LINK/V2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICD/PROGRAMMER, FOR STM8, STM32</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P001648331</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENGINEER SL-04</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENGINEER SL-04 DESK-TOP LOUPE, 렌즈 직경 75mm, 배율 3X</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P004704041 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8611L</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8611L LED조명 확대경, 렌즈 직경 89mm, 배율 3X</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P004704064</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>824-22-003-00-005000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mill-Max</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mill-Max Pin &amp; Socket Connectors </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P008110102</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer PCB</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICBanQ 3/14</t>
+  </si>
+  <si>
+    <t>P007567011</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005634282</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 소진</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette V1.0 부품 및 장비</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험실에서 사용할 장비 및 Pipette 관련 추가 부품</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>부자재</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>수삽</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>소계</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업내용</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이윤</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal mask</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample용 견적</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품비</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF Generator MCU Board</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HIPPO 6구 접지 멀티탭 멀티탭 - 기본 1.5M </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HIPPO 6구 접지 멀티탭 멀티탭 - 3M </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIPPO</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>KFT HT-5023 스트리퍼 (AWG20~30)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">KFT </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P001415029</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이스트 [135-0805]</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P008012287</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>정전기매트 120cm*1M</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P000119604</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P007311227 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험실 물품 구매</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>제이엘텍 - Sample build 견적</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF GEN MCU 부품 구매</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEADER_2.54mm_2x5</t>
+  </si>
+  <si>
+    <t>Anyvendor</t>
+  </si>
+  <si>
+    <t>53047-0210</t>
+  </si>
+  <si>
+    <t>HEADER_2.0mm_2x20</t>
+  </si>
+  <si>
+    <t>YST-1502 SMD</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>ABS07AIG-32.768KHZ-6-D-T</t>
+  </si>
+  <si>
+    <t>ABRACON</t>
+  </si>
+  <si>
+    <t>ABM3-8.000MHZ-D2Y-T</t>
+  </si>
+  <si>
+    <t>2.54mm pitch 10-pin(2x5) Header L=11.5mm(1-molding)</t>
+  </si>
+  <si>
+    <t>1.25mm pitch CON 2-pin, Throgh hole  type</t>
+  </si>
+  <si>
+    <t>2.00mm pitch 40-pin(20x2) Header L=8.8mm(1-molding)</t>
+  </si>
+  <si>
+    <t>TACH Switch 8.0x3.7, T=2.5mm SMD</t>
+  </si>
+  <si>
+    <t>32.768KHz Crystal 6pF 20PPM</t>
+  </si>
+  <si>
+    <t>CRYSTAL 8.0000MHZ 18PF SMD</t>
+  </si>
+  <si>
+    <t>P005666489</t>
+  </si>
+  <si>
+    <t>P005634306</t>
+  </si>
+  <si>
+    <t>P005675364</t>
+  </si>
+  <si>
+    <t>P000096310</t>
+  </si>
+  <si>
+    <t>P007366368</t>
+  </si>
+  <si>
+    <t>P008215485</t>
+  </si>
+  <si>
+    <t>Exso</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB Artwork</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Main</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF MCU</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF GEN MCU Layout 및 제작비</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매비용</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발비</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Transformer Layout 및 제작비</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Proto-type 부품 구매</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transformer V1.0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Total cost : </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette V1.0 / LF MCU 일부</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette과 overlap되는 LF MCU 부품 구매</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
-    <t>053398-0571</t>
-  </si>
-  <si>
-    <t>1.25mm Pitch SMD CON, Vertical 5-Pin</t>
-  </si>
-  <si>
-    <t>구매수량</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>재고</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>EX-936ESD</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> EXSO </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>정전기 방지 온도조절형 인두, 소비전력:60W, 온도:220℃ ~ 480℃</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P001909039</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LedSol 3001 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXSO</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>디지털 무연인두기, 75W, 온도: 100~500℃</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P007193509</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LedSol-100 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>아날로그 무연인두기 , 24V 75W, 온도: 200~480℃</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P007193511</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LedSol-200 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>디지털 무연인두기, 24V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P007193512</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX-888D(70W)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAKKO</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>디지털 무연인두기, 26V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P005688453</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX-951</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>디지털 무연인두기, 24V 75W, 온도: 200~450℃</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P005688454</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>T18-K</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAKKO</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAKKO FX-888(FX-8801) 전용 인두 칼팁</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P002116124</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>T18-3.5K</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>T18-B</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAKKO FX-888(FX-8801) 전용 인두 팁</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">P002116123 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B3474</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rubber Cleaner</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1561</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAKKO A1561 클리닝와이어</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P004702618</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1559</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAKKO A1559 스폰지</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P004704819</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPPON 18</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAKKO 18 SPPON DESOLDERING TOOL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P004702809</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>18N.18G</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAKKO SPPON NOZZLE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ic114</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UL1007-AWG20</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UL전선</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (검정색)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">P002329495 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (빨강)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">P002329190 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>칩저항 키트</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Any vender</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1005 사이즈 F급(1%) 160종 칩저항 키트 - (100개들이)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P001907055</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>JL-0232 적색</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Any vender</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">더블 바나나플러그 / 적색 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P005658758</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>GHG630DCE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> BOSCH </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>열풍기(히터건) (GHG630DCE)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P007320842</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST-LINK/V2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>STMicroelectronics</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICD/PROGRAMMER, FOR STM8, STM32</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P001648331</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENGINEER SL-04</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENGINEER SL-04 DESK-TOP LOUPE, 렌즈 직경 75mm, 배율 3X</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">P004704041 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>8611L</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>8611L LED조명 확대경, 렌즈 직경 89mm, 배율 3X</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P004704064</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>824-22-003-00-005000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mill-Max</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Mill-Max Pin &amp; Socket Connectors </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P008110102</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transformer PCB</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>재고</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICBanQ 3/14</t>
-  </si>
-  <si>
-    <t>P007567011</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
-    <t>P005634282</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
-    <t>재고 소진</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette V1.0 부품 및 장비</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>실험실에서 사용할 장비 및 Pipette 관련 추가 부품</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>부자재</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>수삽</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Point</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>단가</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>금액</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>소계</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업내용</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>합계</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>이윤</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMD</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Metal mask</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sample용 견적</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>부품비</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LF Generator MCU Board</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">HIPPO 6구 접지 멀티탭 멀티탭 - 기본 1.5M </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">HIPPO 6구 접지 멀티탭 멀티탭 - 3M </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIPPO</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>KFT HT-5023 스트리퍼 (AWG20~30)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">KFT </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P001415029</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이스트 [135-0805]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P008012287</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>정전기매트 120cm*1M</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>P000119604</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">P007311227 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>실험실 물품 구매</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>제이엘텍 - Sample build 견적</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LF GEN MCU 부품 구매</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEADER_2.54mm_2x5</t>
-  </si>
-  <si>
-    <t>Anyvendor</t>
-  </si>
-  <si>
-    <t>53047-0210</t>
-  </si>
-  <si>
-    <t>HEADER_2.0mm_2x20</t>
-  </si>
-  <si>
-    <t>YST-1502 SMD</t>
-  </si>
-  <si>
-    <t>????</t>
-  </si>
-  <si>
-    <t>ABS07AIG-32.768KHZ-6-D-T</t>
-  </si>
-  <si>
-    <t>ABRACON</t>
-  </si>
-  <si>
-    <t>ABM3-8.000MHZ-D2Y-T</t>
-  </si>
-  <si>
-    <t>2.54mm pitch 10-pin(2x5) Header L=11.5mm(1-molding)</t>
-  </si>
-  <si>
-    <t>1.25mm pitch CON 2-pin, Throgh hole  type</t>
-  </si>
-  <si>
-    <t>2.00mm pitch 40-pin(20x2) Header L=8.8mm(1-molding)</t>
-  </si>
-  <si>
-    <t>TACH Switch 8.0x3.7, T=2.5mm SMD</t>
-  </si>
-  <si>
-    <t>32.768KHz Crystal 6pF 20PPM</t>
-  </si>
-  <si>
-    <t>CRYSTAL 8.0000MHZ 18PF SMD</t>
-  </si>
-  <si>
-    <t>P005666489</t>
-  </si>
-  <si>
-    <t>P005634306</t>
-  </si>
-  <si>
-    <t>P005675364</t>
-  </si>
-  <si>
-    <t>P000096310</t>
-  </si>
-  <si>
-    <t>P007366368</t>
-  </si>
-  <si>
-    <t>P008215485</t>
-  </si>
-  <si>
-    <t>Exso</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCB Artwork</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transformer</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette Main</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LF MCU</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer V1.0 부품 구매</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1370,12 +1382,20 @@
     <numFmt numFmtId="181" formatCode="0.0\ &quot;ea&quot;"/>
     <numFmt numFmtId="182" formatCode="0.0\ &quot;일&quot;"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1860,7 +1880,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -2331,290 +2351,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="369">
+  <cellXfs count="372">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -2629,7 +2688,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2638,7 +2697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2653,32 +2712,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2692,21 +2751,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2719,26 +2778,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2751,13 +2810,13 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2770,16 +2829,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="29" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="30" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2826,34 +2885,34 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="24" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="24" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="69" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="11" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="69" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="11" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2876,68 +2935,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="75" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="75" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="75" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="75" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="75">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="75" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="75">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="75" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="23" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="23" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="24" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="24" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="33" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="33" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="23" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="23" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="75" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="75" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="75" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="75" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="76" applyFont="1" applyBorder="1">
@@ -2949,46 +3008,46 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="15" xfId="75" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="15" xfId="75" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="16" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="69" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="69" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="18" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="17" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="17" xfId="75" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="18" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="17" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="17" xfId="75" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="18" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="22" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="18" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="22" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2997,7 +3056,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3043,23 +3102,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3071,131 +3127,130 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="23" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="23" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="24" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="24" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="77" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="77" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="77" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="77" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="10" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="10" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="11" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="11" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="78">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="78">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="78" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="78" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="78" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="78" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="24" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="78" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="24" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="78" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="78" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="14" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="78" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="14" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="78" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="17" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="78" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="78" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="20" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="20" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="78" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="14" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="15" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="17" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="78" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="78" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="14" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="15" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="78" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3208,71 +3263,71 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="28" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="29" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="17" xfId="95" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="15" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="18" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="21" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="18" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="17" xfId="95" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="15" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="18" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="21" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="18" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3280,206 +3335,215 @@
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="34" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="35" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="34" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="35" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="96">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3882,7 +3946,7 @@
   <dimension ref="B6:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3907,28 +3971,28 @@
     </row>
     <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="305" t="s">
+      <c r="B9" s="358" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="306"/>
-      <c r="D9" s="309" t="s">
+      <c r="C9" s="356"/>
+      <c r="D9" s="353" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="309"/>
-      <c r="F9" s="309"/>
-      <c r="G9" s="306" t="s">
+      <c r="E9" s="353"/>
+      <c r="F9" s="353"/>
+      <c r="G9" s="356" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="306" t="s">
+      <c r="H9" s="356" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="310" t="s">
+      <c r="I9" s="354" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:14" s="138" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="307"/>
-      <c r="C10" s="308"/>
+      <c r="B10" s="360"/>
+      <c r="C10" s="357"/>
       <c r="D10" s="139" t="s">
         <v>87</v>
       </c>
@@ -3938,15 +4002,15 @@
       <c r="F10" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="308"/>
-      <c r="H10" s="308"/>
-      <c r="I10" s="311"/>
+      <c r="G10" s="357"/>
+      <c r="H10" s="357"/>
+      <c r="I10" s="355"/>
     </row>
     <row r="11" spans="2:14" s="138" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="303" t="s">
+      <c r="B11" s="361" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="304"/>
+      <c r="C11" s="362"/>
       <c r="D11" s="141">
         <v>0.25</v>
       </c>
@@ -3970,7 +4034,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="305" t="s">
+      <c r="B12" s="358" t="s">
         <v>95</v>
       </c>
       <c r="C12" s="140" t="s">
@@ -4011,7 +4075,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="312"/>
+      <c r="B13" s="359"/>
       <c r="C13" s="144" t="s">
         <v>92</v>
       </c>
@@ -4038,7 +4102,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="307"/>
+      <c r="B14" s="360"/>
       <c r="C14" s="147" t="s">
         <v>93</v>
       </c>
@@ -4065,7 +4129,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="305" t="s">
+      <c r="B15" s="358" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="140" t="s">
@@ -4094,7 +4158,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="312"/>
+      <c r="B16" s="359"/>
       <c r="C16" s="144" t="s">
         <v>92</v>
       </c>
@@ -4121,7 +4185,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="307"/>
+      <c r="B17" s="360"/>
       <c r="C17" s="147" t="s">
         <v>93</v>
       </c>
@@ -4165,28 +4229,28 @@
     </row>
     <row r="21" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="305" t="s">
+      <c r="B22" s="358" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="306"/>
-      <c r="D22" s="309" t="s">
+      <c r="C22" s="356"/>
+      <c r="D22" s="353" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="309"/>
-      <c r="F22" s="309"/>
-      <c r="G22" s="306" t="s">
+      <c r="E22" s="353"/>
+      <c r="F22" s="353"/>
+      <c r="G22" s="356" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="306" t="s">
+      <c r="H22" s="356" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="310" t="s">
+      <c r="I22" s="354" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="307"/>
-      <c r="C23" s="308"/>
+      <c r="B23" s="360"/>
+      <c r="C23" s="357"/>
       <c r="D23" s="139" t="s">
         <v>87</v>
       </c>
@@ -4196,15 +4260,15 @@
       <c r="F23" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="308"/>
-      <c r="H23" s="308"/>
-      <c r="I23" s="311"/>
+      <c r="G23" s="357"/>
+      <c r="H23" s="357"/>
+      <c r="I23" s="355"/>
     </row>
     <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="303" t="s">
+      <c r="B24" s="361" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="304"/>
+      <c r="C24" s="362"/>
       <c r="D24" s="150">
         <v>1</v>
       </c>
@@ -4229,28 +4293,28 @@
     </row>
     <row r="26" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="305" t="s">
+      <c r="B27" s="358" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="306"/>
-      <c r="D27" s="309" t="s">
+      <c r="C27" s="356"/>
+      <c r="D27" s="353" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="309"/>
-      <c r="F27" s="309"/>
-      <c r="G27" s="306" t="s">
+      <c r="E27" s="353"/>
+      <c r="F27" s="353"/>
+      <c r="G27" s="356" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="306" t="s">
+      <c r="H27" s="356" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="310" t="s">
+      <c r="I27" s="354" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="307"/>
-      <c r="C28" s="308"/>
+      <c r="B28" s="360"/>
+      <c r="C28" s="357"/>
       <c r="D28" s="139" t="s">
         <v>87</v>
       </c>
@@ -4260,15 +4324,15 @@
       <c r="F28" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="308"/>
-      <c r="H28" s="308"/>
-      <c r="I28" s="311"/>
+      <c r="G28" s="357"/>
+      <c r="H28" s="357"/>
+      <c r="I28" s="355"/>
     </row>
     <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="303" t="s">
+      <c r="B29" s="361" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="304"/>
+      <c r="C29" s="362"/>
       <c r="D29" s="150">
         <v>3</v>
       </c>
@@ -4309,12 +4373,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
@@ -4324,13 +4387,14 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B9:C10"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4341,7 +4405,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4359,7 +4423,7 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" s="56" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4369,49 +4433,49 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="56" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="56" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="272" t="s">
-        <v>305</v>
-      </c>
-      <c r="D5" s="273" t="s">
-        <v>301</v>
-      </c>
-      <c r="E5" s="273" t="s">
+      <c r="C5" s="270" t="s">
         <v>302</v>
       </c>
-      <c r="F5" s="274" t="s">
-        <v>303</v>
-      </c>
-      <c r="H5" s="272" t="s">
-        <v>305</v>
-      </c>
-      <c r="I5" s="273" t="s">
-        <v>301</v>
-      </c>
-      <c r="J5" s="273" t="s">
+      <c r="D5" s="271" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="271" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="272" t="s">
+        <v>300</v>
+      </c>
+      <c r="H5" s="270" t="s">
         <v>302</v>
       </c>
-      <c r="K5" s="274" t="s">
-        <v>303</v>
+      <c r="I5" s="271" t="s">
+        <v>298</v>
+      </c>
+      <c r="J5" s="271" t="s">
+        <v>299</v>
+      </c>
+      <c r="K5" s="272" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="269" t="s">
-        <v>299</v>
+      <c r="C6" s="267" t="s">
+        <v>296</v>
       </c>
       <c r="D6" s="142">
         <v>169</v>
@@ -4419,12 +4483,12 @@
       <c r="E6" s="142">
         <v>630</v>
       </c>
-      <c r="F6" s="213">
+      <c r="F6" s="212">
         <f>D6*E6</f>
         <v>106470</v>
       </c>
-      <c r="H6" s="269" t="s">
-        <v>299</v>
+      <c r="H6" s="267" t="s">
+        <v>296</v>
       </c>
       <c r="I6" s="142">
         <v>169</v>
@@ -4432,83 +4496,83 @@
       <c r="J6" s="142">
         <v>250</v>
       </c>
-      <c r="K6" s="213">
+      <c r="K6" s="212">
         <f>I6*J6</f>
         <v>42250</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="270" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" s="263">
+      <c r="C7" s="268" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="261">
         <v>15</v>
       </c>
-      <c r="E7" s="265" t="s">
-        <v>308</v>
-      </c>
-      <c r="F7" s="264">
+      <c r="E7" s="263" t="s">
+        <v>305</v>
+      </c>
+      <c r="F7" s="262">
         <f>F6*D7/100</f>
         <v>15970.5</v>
       </c>
-      <c r="H7" s="270" t="s">
-        <v>298</v>
-      </c>
-      <c r="I7" s="263">
+      <c r="H7" s="268" t="s">
+        <v>295</v>
+      </c>
+      <c r="I7" s="261">
         <v>0</v>
       </c>
-      <c r="J7" s="265" t="s">
-        <v>308</v>
-      </c>
-      <c r="K7" s="264">
+      <c r="J7" s="263" t="s">
+        <v>305</v>
+      </c>
+      <c r="K7" s="262">
         <f>K6*I7/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="271" t="s">
-        <v>310</v>
-      </c>
-      <c r="D8" s="266">
+      <c r="C8" s="269" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="264">
         <v>15</v>
       </c>
-      <c r="E8" s="267" t="s">
-        <v>309</v>
-      </c>
-      <c r="F8" s="268">
+      <c r="E8" s="265" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="266">
         <f>F6*D8/100</f>
         <v>15970.5</v>
       </c>
-      <c r="H8" s="271" t="s">
-        <v>310</v>
-      </c>
-      <c r="I8" s="266">
+      <c r="H8" s="269" t="s">
+        <v>307</v>
+      </c>
+      <c r="I8" s="264">
         <v>0</v>
       </c>
-      <c r="J8" s="267" t="s">
-        <v>309</v>
-      </c>
-      <c r="K8" s="268">
+      <c r="J8" s="265" t="s">
+        <v>306</v>
+      </c>
+      <c r="K8" s="266">
         <f>K6*I8/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="303" t="s">
-        <v>304</v>
-      </c>
-      <c r="D9" s="304"/>
-      <c r="E9" s="304"/>
-      <c r="F9" s="277">
+      <c r="C9" s="361" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="362"/>
+      <c r="E9" s="362"/>
+      <c r="F9" s="275">
         <f>SUM(F6:F8)</f>
         <v>138411</v>
       </c>
-      <c r="H9" s="303" t="s">
-        <v>304</v>
-      </c>
-      <c r="I9" s="304"/>
-      <c r="J9" s="304"/>
-      <c r="K9" s="277">
+      <c r="H9" s="361" t="s">
+        <v>301</v>
+      </c>
+      <c r="I9" s="362"/>
+      <c r="J9" s="362"/>
+      <c r="K9" s="275">
         <f>SUM(K6:K8)</f>
         <v>42250</v>
       </c>
@@ -4522,34 +4586,34 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="275" t="s">
-        <v>305</v>
-      </c>
-      <c r="D11" s="276" t="s">
-        <v>306</v>
+      <c r="C11" s="273" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="274" t="s">
+        <v>303</v>
       </c>
       <c r="E11" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="H11" s="273" t="s">
         <v>302</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="I11" s="274" t="s">
         <v>303</v>
       </c>
-      <c r="H11" s="275" t="s">
-        <v>305</v>
-      </c>
-      <c r="I11" s="276" t="s">
-        <v>306</v>
-      </c>
       <c r="J11" s="32" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="278" t="s">
-        <v>299</v>
+      <c r="C12" s="276" t="s">
+        <v>296</v>
       </c>
       <c r="D12" s="142">
         <v>4</v>
@@ -4562,8 +4626,8 @@
         <f>D12*E12</f>
         <v>553644</v>
       </c>
-      <c r="H12" s="278" t="s">
-        <v>299</v>
+      <c r="H12" s="276" t="s">
+        <v>296</v>
       </c>
       <c r="I12" s="142">
         <v>4</v>
@@ -4578,8 +4642,8 @@
       </c>
     </row>
     <row r="13" spans="2:11" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="271" t="s">
-        <v>314</v>
+      <c r="C13" s="269" t="s">
+        <v>311</v>
       </c>
       <c r="D13" s="4">
         <v>4</v>
@@ -4587,12 +4651,12 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="279">
+      <c r="F13" s="277">
         <f>D13*E13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="271" t="s">
-        <v>314</v>
+      <c r="H13" s="269" t="s">
+        <v>311</v>
       </c>
       <c r="I13" s="4">
         <v>4</v>
@@ -4600,34 +4664,34 @@
       <c r="J13" s="4">
         <v>0</v>
       </c>
-      <c r="K13" s="279">
+      <c r="K13" s="277">
         <f>I13*J13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="303" t="s">
-        <v>307</v>
-      </c>
-      <c r="D14" s="304"/>
-      <c r="E14" s="313">
+      <c r="C14" s="361" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="362"/>
+      <c r="E14" s="363">
         <f>F12</f>
         <v>553644</v>
       </c>
-      <c r="F14" s="314"/>
-      <c r="H14" s="303" t="s">
-        <v>307</v>
-      </c>
-      <c r="I14" s="304"/>
-      <c r="J14" s="313">
+      <c r="F14" s="364"/>
+      <c r="H14" s="361" t="s">
+        <v>304</v>
+      </c>
+      <c r="I14" s="362"/>
+      <c r="J14" s="363">
         <f>K12</f>
         <v>169000</v>
       </c>
-      <c r="K14" s="314"/>
+      <c r="K14" s="364"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="315"/>
-      <c r="D15" s="315"/>
+      <c r="C15" s="365"/>
+      <c r="D15" s="365"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
@@ -4642,22 +4706,22 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="272" t="s">
-        <v>305</v>
-      </c>
-      <c r="D18" s="273" t="s">
-        <v>301</v>
-      </c>
-      <c r="E18" s="273" t="s">
+      <c r="C18" s="270" t="s">
         <v>302</v>
       </c>
-      <c r="F18" s="274" t="s">
-        <v>303</v>
+      <c r="D18" s="271" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" s="271" t="s">
+        <v>299</v>
+      </c>
+      <c r="F18" s="272" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="269" t="s">
-        <v>311</v>
+      <c r="C19" s="267" t="s">
+        <v>308</v>
       </c>
       <c r="D19" s="142">
         <v>52</v>
@@ -4665,48 +4729,48 @@
       <c r="E19" s="142">
         <v>670</v>
       </c>
-      <c r="F19" s="213">
+      <c r="F19" s="212">
         <f>D19*E19</f>
         <v>34840</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="270" t="s">
-        <v>298</v>
-      </c>
-      <c r="D20" s="263">
+      <c r="C20" s="268" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" s="261">
         <v>15</v>
       </c>
-      <c r="E20" s="265" t="s">
-        <v>308</v>
-      </c>
-      <c r="F20" s="264">
+      <c r="E20" s="263" t="s">
+        <v>305</v>
+      </c>
+      <c r="F20" s="262">
         <f>F19*D20/100</f>
         <v>5226</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="271" t="s">
-        <v>310</v>
-      </c>
-      <c r="D21" s="266">
+      <c r="C21" s="269" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="264">
         <v>15</v>
       </c>
-      <c r="E21" s="267" t="s">
-        <v>309</v>
-      </c>
-      <c r="F21" s="268">
+      <c r="E21" s="265" t="s">
+        <v>306</v>
+      </c>
+      <c r="F21" s="266">
         <f>F19*D21/100</f>
         <v>5226</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="303" t="s">
-        <v>304</v>
-      </c>
-      <c r="D22" s="304"/>
-      <c r="E22" s="304"/>
-      <c r="F22" s="277">
+      <c r="C22" s="361" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" s="362"/>
+      <c r="E22" s="362"/>
+      <c r="F22" s="275">
         <f>SUM(F19:F21)</f>
         <v>45292</v>
       </c>
@@ -4717,22 +4781,22 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="275" t="s">
-        <v>305</v>
-      </c>
-      <c r="D24" s="276" t="s">
-        <v>306</v>
+      <c r="C24" s="273" t="s">
+        <v>302</v>
+      </c>
+      <c r="D24" s="274" t="s">
+        <v>303</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="269" t="s">
-        <v>311</v>
+      <c r="C25" s="267" t="s">
+        <v>308</v>
       </c>
       <c r="D25" s="142">
         <v>4</v>
@@ -4747,8 +4811,8 @@
       </c>
     </row>
     <row r="26" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="271" t="s">
-        <v>312</v>
+      <c r="C26" s="269" t="s">
+        <v>309</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -4756,14 +4820,14 @@
       <c r="E26" s="4">
         <v>110000</v>
       </c>
-      <c r="F26" s="279">
+      <c r="F26" s="277">
         <f>D26*E26</f>
         <v>110000</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="271" t="s">
-        <v>314</v>
+      <c r="C27" s="269" t="s">
+        <v>311</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
@@ -4771,22 +4835,22 @@
       <c r="E27" s="4">
         <v>0</v>
       </c>
-      <c r="F27" s="279">
+      <c r="F27" s="277">
         <f>D27*E27</f>
         <v>0</v>
       </c>
       <c r="H27" s="56"/>
     </row>
     <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="303" t="s">
-        <v>307</v>
-      </c>
-      <c r="D28" s="304"/>
-      <c r="E28" s="313">
+      <c r="C28" s="361" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" s="362"/>
+      <c r="E28" s="363">
         <f>SUM(F25:F27)</f>
         <v>291168</v>
       </c>
-      <c r="F28" s="314"/>
+      <c r="F28" s="364"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4801,7 +4865,7 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4809,187 +4873,221 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E22"/>
+  <dimension ref="B3:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E26" sqref="E26:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.75" style="205" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="203" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="55.75" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="203" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="55.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="207" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D3" s="204">
         <f>SUM(D5:D25)</f>
         <v>1570330</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" s="206" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="204"/>
+    </row>
+    <row r="4" spans="2:6" s="206" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="208" t="s">
         <v>199</v>
       </c>
       <c r="C4" s="209" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="210" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="209" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="211">
+      <c r="D4" s="301" t="s">
+        <v>357</v>
+      </c>
+      <c r="E4" s="301" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" s="368" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="210">
         <v>43075</v>
       </c>
-      <c r="C5" s="212" t="s">
+      <c r="C5" s="211" t="s">
+        <v>360</v>
+      </c>
+      <c r="D5" s="142">
+        <v>62080</v>
+      </c>
+      <c r="E5" s="142"/>
+      <c r="F5" s="369"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="213">
+        <v>43136</v>
+      </c>
+      <c r="C6" s="214" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="3">
+        <v>81880</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="370"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="213">
+        <v>43139</v>
+      </c>
+      <c r="C7" s="214" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="370"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="213">
+        <v>43143</v>
+      </c>
+      <c r="C8" s="214" t="s">
+        <v>359</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>830000</v>
+      </c>
+      <c r="F8" s="370"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="213">
+        <v>43173</v>
+      </c>
+      <c r="C9" s="214" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="213">
-        <v>62080</v>
-      </c>
-      <c r="E5" s="212"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="214">
-        <v>43136</v>
-      </c>
-      <c r="C6" s="215" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="216">
-        <v>81880</v>
-      </c>
-      <c r="E6" s="215"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="214">
-        <v>43139</v>
-      </c>
-      <c r="C7" s="215" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="216">
-        <v>42900</v>
-      </c>
-      <c r="E7" s="215"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="214">
-        <v>43173</v>
-      </c>
-      <c r="C8" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="D8" s="216">
+      <c r="D9" s="3">
         <v>514080</v>
       </c>
-      <c r="E8" s="215" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="214">
+      <c r="E9" s="3"/>
+      <c r="F9" s="370" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="213">
         <v>43193</v>
       </c>
-      <c r="C9" s="215" t="s">
-        <v>296</v>
-      </c>
-      <c r="D9" s="216">
+      <c r="C10" s="214" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" s="3">
         <v>869390</v>
       </c>
-      <c r="E9" s="215" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="214"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="215"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="214"/>
-      <c r="C11" s="215"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="215"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="214"/>
-      <c r="C12" s="215"/>
-      <c r="D12" s="216"/>
-      <c r="E12" s="215"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="214"/>
-      <c r="C13" s="215"/>
-      <c r="D13" s="216"/>
-      <c r="E13" s="215"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="214"/>
-      <c r="C14" s="215"/>
-      <c r="D14" s="216"/>
-      <c r="E14" s="215"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="214"/>
-      <c r="C15" s="215"/>
-      <c r="D15" s="216"/>
-      <c r="E15" s="215"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="214"/>
-      <c r="C16" s="215"/>
-      <c r="D16" s="216"/>
-      <c r="E16" s="215"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="214"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="215"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="214"/>
-      <c r="C18" s="215"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="215"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="214"/>
-      <c r="C19" s="215"/>
-      <c r="D19" s="216"/>
-      <c r="E19" s="215"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="214"/>
-      <c r="C20" s="215"/>
-      <c r="D20" s="216"/>
-      <c r="E20" s="215"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="214"/>
-      <c r="C21" s="215"/>
-      <c r="D21" s="216"/>
-      <c r="E21" s="215"/>
-    </row>
-    <row r="22" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="217"/>
-      <c r="C22" s="218"/>
-      <c r="D22" s="219"/>
-      <c r="E22" s="218"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="370" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="213">
+        <v>43210</v>
+      </c>
+      <c r="C11" s="214" t="s">
+        <v>356</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>620000</v>
+      </c>
+      <c r="F11" s="370"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="213"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="370"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="213"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="370"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="213"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="370"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="213"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="370"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="213"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="370"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="213"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="370"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="213"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="370"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="213"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="370"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="213"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="370"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="213"/>
+      <c r="C21" s="214"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="370"/>
+    </row>
+    <row r="22" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="215"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="371"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5122,8 +5220,8 @@
       <c r="C6" s="22">
         <v>2</v>
       </c>
-      <c r="D6" s="297" t="s">
-        <v>352</v>
+      <c r="D6" s="295" t="s">
+        <v>349</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>9</v>
@@ -5642,7 +5740,7 @@
       <c r="K32" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -6959,7 +7057,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B4:F4"/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6992,7 +7090,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="222" t="s">
+      <c r="B2" s="220" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="81" t="s">
@@ -7004,7 +7102,7 @@
       <c r="E2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="223" t="s">
+      <c r="F2" s="221" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="81" t="s">
@@ -7014,32 +7112,32 @@
         <v>5</v>
       </c>
       <c r="I2" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="K2" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="L2" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="J2" s="81" t="s">
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="222" t="s">
         <v>212</v>
       </c>
-      <c r="K2" s="81" t="s">
+      <c r="C3" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="D3" s="223" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="224" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="225" t="s">
-        <v>217</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="226">
+      <c r="F3" s="224">
         <v>1</v>
       </c>
       <c r="G3" s="21">
@@ -7055,18 +7153,18 @@
       </c>
       <c r="K3" s="35"/>
       <c r="L3" s="37" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="85" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>9</v>
@@ -7087,18 +7185,18 @@
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="85" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>9</v>
@@ -7119,16 +7217,16 @@
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="85" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>9</v>
@@ -7149,18 +7247,18 @@
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="87" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>9</v>
@@ -7183,18 +7281,18 @@
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="89" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="90" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D8" s="92" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E8" s="92" t="s">
         <v>9</v>
@@ -7215,18 +7313,18 @@
       </c>
       <c r="K8" s="92"/>
       <c r="L8" s="95" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="97" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>9</v>
@@ -7247,18 +7345,18 @@
       </c>
       <c r="K9" s="23"/>
       <c r="L9" s="99" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="85" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>9</v>
@@ -7280,13 +7378,13 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="87" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>9</v>
@@ -7308,19 +7406,19 @@
         <v>13000</v>
       </c>
       <c r="K11" s="17"/>
-      <c r="L11" s="289" t="s">
-        <v>243</v>
+      <c r="L11" s="287" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="101" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -7333,13 +7431,13 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="87" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>9</v>
@@ -7361,19 +7459,19 @@
         <v>8000</v>
       </c>
       <c r="K13" s="17"/>
-      <c r="L13" s="289" t="s">
-        <v>248</v>
+      <c r="L13" s="287" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="87" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>9</v>
@@ -7395,19 +7493,19 @@
         <v>9000</v>
       </c>
       <c r="K14" s="17"/>
-      <c r="L14" s="289" t="s">
-        <v>251</v>
+      <c r="L14" s="287" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="87" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>9</v>
@@ -7429,22 +7527,22 @@
         <v>16500</v>
       </c>
       <c r="K15" s="17"/>
-      <c r="L15" s="289" t="s">
-        <v>254</v>
+      <c r="L15" s="287" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="120" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C16" s="116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D16" s="110" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E16" s="110" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F16" s="116">
         <v>1</v>
@@ -7460,13 +7558,13 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="87" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>9</v>
@@ -7488,19 +7586,19 @@
         <v>9000</v>
       </c>
       <c r="K17" s="17"/>
-      <c r="L17" s="289" t="s">
-        <v>261</v>
+      <c r="L17" s="287" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="87" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C18" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>259</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>262</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>9</v>
@@ -7522,19 +7620,19 @@
         <v>9000</v>
       </c>
       <c r="K18" s="17"/>
-      <c r="L18" s="289" t="s">
-        <v>263</v>
+      <c r="L18" s="287" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="114" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C19" s="109" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D19" s="108" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>9</v>
@@ -7556,19 +7654,19 @@
         <v>180000</v>
       </c>
       <c r="K19" s="108"/>
-      <c r="L19" s="290" t="s">
-        <v>267</v>
+      <c r="L19" s="288" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="114" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C20" s="109" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D20" s="108" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>9</v>
@@ -7590,19 +7688,19 @@
         <v>2420</v>
       </c>
       <c r="K20" s="108"/>
-      <c r="L20" s="290" t="s">
-        <v>271</v>
+      <c r="L20" s="288" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="114" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C21" s="109" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D21" s="108" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>9</v>
@@ -7624,19 +7722,19 @@
         <v>101200</v>
       </c>
       <c r="K21" s="108"/>
-      <c r="L21" s="290" t="s">
-        <v>275</v>
+      <c r="L21" s="288" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="114" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C22" s="109" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D22" s="108" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>9</v>
@@ -7653,22 +7751,22 @@
       <c r="I22" s="52">
         <v>2</v>
       </c>
-      <c r="J22" s="227">
+      <c r="J22" s="225">
         <f t="shared" si="1"/>
         <v>49000</v>
       </c>
       <c r="K22" s="108"/>
-      <c r="L22" s="290" t="s">
-        <v>279</v>
+      <c r="L22" s="288" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="117" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C23" s="111"/>
       <c r="D23" s="127" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E23" s="34" t="s">
         <v>9</v>
@@ -7684,16 +7782,16 @@
       <c r="J23" s="129"/>
       <c r="K23" s="127"/>
       <c r="L23" s="130" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="102" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C24" s="103"/>
       <c r="D24" s="103" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>9</v>
@@ -7715,8 +7813,8 @@
         <v>45000</v>
       </c>
       <c r="K24" s="103"/>
-      <c r="L24" s="296" t="s">
-        <v>285</v>
+      <c r="L24" s="294" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
@@ -7744,22 +7842,22 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="228" t="s">
+      <c r="B30" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="229" t="s">
+      <c r="C30" s="227" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="229" t="s">
+      <c r="D30" s="227" t="s">
         <v>58</v>
       </c>
       <c r="E30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="229" t="s">
+      <c r="F30" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="229" t="s">
+      <c r="G30" s="227" t="s">
         <v>59</v>
       </c>
       <c r="H30" s="122" t="s">
@@ -7779,13 +7877,13 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="230" t="s">
+      <c r="B31" s="228" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="231" t="s">
+      <c r="C31" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="231" t="s">
+      <c r="D31" s="229" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="35" t="s">
@@ -7808,22 +7906,22 @@
         <v>7200</v>
       </c>
       <c r="K31" s="35"/>
-      <c r="L31" s="291" t="s">
+      <c r="L31" s="289" t="s">
         <v>54</v>
       </c>
-      <c r="M31" s="232" t="s">
+      <c r="M31" s="230" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="233" t="s">
-        <v>286</v>
+      <c r="B32" s="231" t="s">
+        <v>283</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E32" s="36" t="s">
         <v>9</v>
@@ -7831,7 +7929,7 @@
       <c r="F32" s="75">
         <v>1</v>
       </c>
-      <c r="G32" s="234">
+      <c r="G32" s="232">
         <v>3520</v>
       </c>
       <c r="H32" s="75">
@@ -7840,38 +7938,38 @@
       <c r="I32" s="75">
         <v>2</v>
       </c>
-      <c r="J32" s="235">
+      <c r="J32" s="233">
         <f>G32*I32</f>
         <v>7040</v>
       </c>
       <c r="K32" s="36"/>
-      <c r="L32" s="293" t="s">
-        <v>289</v>
+      <c r="L32" s="291" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="236" t="s">
-        <v>290</v>
+      <c r="B35" s="234" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="220"/>
-      <c r="B36" s="221" t="s">
+      <c r="A36" s="218"/>
+      <c r="B36" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="221" t="s">
+      <c r="C36" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="221" t="s">
+      <c r="D36" s="219" t="s">
         <v>58</v>
       </c>
       <c r="E36" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="221" t="s">
+      <c r="F36" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="221" t="s">
+      <c r="G36" s="219" t="s">
         <v>103</v>
       </c>
       <c r="H36" s="118" t="s">
@@ -7884,10 +7982,10 @@
         <v>62</v>
       </c>
       <c r="K36" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="L36" s="237" t="s">
-        <v>292</v>
+        <v>288</v>
+      </c>
+      <c r="L36" s="235" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7895,10 +7993,10 @@
         <v>38</v>
       </c>
       <c r="C37" s="189" t="s">
-        <v>208</v>
-      </c>
-      <c r="D37" s="297" t="s">
-        <v>352</v>
+        <v>205</v>
+      </c>
+      <c r="D37" s="295" t="s">
+        <v>349</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>9</v>
@@ -7915,24 +8013,24 @@
       <c r="I37" s="189">
         <v>20</v>
       </c>
-      <c r="J37" s="238">
+      <c r="J37" s="236">
         <f>G37*I37</f>
         <v>20400</v>
       </c>
       <c r="K37" s="35"/>
       <c r="L37" s="190" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="189" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C38" s="189" t="s">
         <v>64</v>
       </c>
       <c r="D38" s="189" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>9</v>
@@ -7949,51 +8047,51 @@
       <c r="I38" s="189">
         <v>100</v>
       </c>
-      <c r="J38" s="238">
+      <c r="J38" s="236">
         <f>G38*I38</f>
         <v>13000</v>
       </c>
       <c r="K38" s="36"/>
-      <c r="L38" s="295" t="s">
-        <v>294</v>
+      <c r="L38" s="293" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="236" t="s">
+      <c r="B41" s="234" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="239"/>
-      <c r="D41" s="232"/>
-      <c r="E41" s="232"/>
-      <c r="F41" s="232"/>
-      <c r="G41" s="232"/>
-      <c r="H41" s="232"/>
+      <c r="C41" s="237"/>
+      <c r="D41" s="230"/>
+      <c r="E41" s="230"/>
+      <c r="F41" s="230"/>
+      <c r="G41" s="230"/>
+      <c r="H41" s="230"/>
       <c r="I41" s="121">
         <v>10</v>
       </c>
-      <c r="J41" s="232"/>
-      <c r="K41" s="232"/>
-      <c r="L41" s="240"/>
-      <c r="M41" s="232"/>
-      <c r="N41" s="232"/>
+      <c r="J41" s="230"/>
+      <c r="K41" s="230"/>
+      <c r="L41" s="238"/>
+      <c r="M41" s="230"/>
+      <c r="N41" s="230"/>
     </row>
     <row r="42" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="241" t="s">
+      <c r="B42" s="239" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="241" t="s">
+      <c r="C42" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="241" t="s">
+      <c r="D42" s="239" t="s">
         <v>58</v>
       </c>
       <c r="E42" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="241" t="s">
+      <c r="F42" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="241" t="s">
+      <c r="G42" s="239" t="s">
         <v>59</v>
       </c>
       <c r="H42" s="118" t="s">
@@ -8006,148 +8104,148 @@
         <v>62</v>
       </c>
       <c r="K42" s="32" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L42" s="119" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="242" t="s">
+      <c r="B43" s="240" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="243" t="s">
+      <c r="C43" s="241" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="243" t="s">
+      <c r="D43" s="241" t="s">
         <v>66</v>
       </c>
       <c r="E43" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="231">
-        <v>1</v>
-      </c>
-      <c r="G43" s="244">
+      <c r="F43" s="229">
+        <v>1</v>
+      </c>
+      <c r="G43" s="242">
         <v>210</v>
       </c>
-      <c r="H43" s="231">
+      <c r="H43" s="229">
         <v>50</v>
       </c>
-      <c r="I43" s="231">
+      <c r="I43" s="229">
         <v>50</v>
       </c>
-      <c r="J43" s="244">
+      <c r="J43" s="242">
         <v>10500</v>
       </c>
       <c r="K43" s="35"/>
-      <c r="L43" s="291" t="s">
+      <c r="L43" s="289" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="245" t="s">
+      <c r="B44" s="243" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="246" t="s">
+      <c r="C44" s="244" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="246" t="s">
+      <c r="D44" s="244" t="s">
         <v>69</v>
       </c>
       <c r="E44" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="247">
-        <v>1</v>
-      </c>
-      <c r="G44" s="247">
+      <c r="F44" s="245">
+        <v>1</v>
+      </c>
+      <c r="G44" s="245">
         <v>210</v>
       </c>
-      <c r="H44" s="247">
+      <c r="H44" s="245">
         <v>10</v>
       </c>
-      <c r="I44" s="247">
+      <c r="I44" s="245">
         <v>10</v>
       </c>
-      <c r="J44" s="248">
+      <c r="J44" s="246">
         <v>2100</v>
       </c>
       <c r="K44" s="105"/>
-      <c r="L44" s="294" t="s">
+      <c r="L44" s="292" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="249" t="s">
+      <c r="B45" s="247" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="250"/>
-      <c r="D45" s="250" t="s">
+      <c r="C45" s="248"/>
+      <c r="D45" s="248" t="s">
         <v>72</v>
       </c>
       <c r="E45" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="251">
+      <c r="F45" s="249">
         <v>2</v>
       </c>
-      <c r="G45" s="252">
+      <c r="G45" s="250">
         <v>80</v>
       </c>
-      <c r="H45" s="251">
+      <c r="H45" s="249">
         <v>100</v>
       </c>
-      <c r="I45" s="251">
+      <c r="I45" s="249">
         <v>100</v>
       </c>
-      <c r="J45" s="253">
+      <c r="J45" s="251">
         <v>4000</v>
       </c>
       <c r="K45" s="36"/>
-      <c r="L45" s="293" t="s">
+      <c r="L45" s="291" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="232"/>
-      <c r="C46" s="254"/>
-      <c r="D46" s="255"/>
-      <c r="F46" s="254"/>
-      <c r="G46" s="232"/>
-      <c r="H46" s="256"/>
-      <c r="I46" s="232"/>
-      <c r="J46" s="232"/>
-      <c r="K46" s="256"/>
+      <c r="B46" s="230"/>
+      <c r="C46" s="252"/>
+      <c r="D46" s="253"/>
+      <c r="F46" s="252"/>
+      <c r="G46" s="230"/>
+      <c r="H46" s="254"/>
+      <c r="I46" s="230"/>
+      <c r="J46" s="230"/>
+      <c r="K46" s="254"/>
     </row>
     <row r="47" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="257" t="s">
+      <c r="B47" s="255" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="254"/>
-      <c r="D47" s="255"/>
-      <c r="F47" s="254"/>
-      <c r="G47" s="255"/>
-      <c r="H47" s="256"/>
-      <c r="I47" s="255"/>
-      <c r="J47" s="255"/>
-      <c r="K47" s="256"/>
+      <c r="C47" s="252"/>
+      <c r="D47" s="253"/>
+      <c r="F47" s="252"/>
+      <c r="G47" s="253"/>
+      <c r="H47" s="254"/>
+      <c r="I47" s="253"/>
+      <c r="J47" s="253"/>
+      <c r="K47" s="254"/>
     </row>
     <row r="48" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="228" t="s">
+      <c r="B48" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="229" t="s">
+      <c r="C48" s="227" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="229" t="s">
+      <c r="D48" s="227" t="s">
         <v>58</v>
       </c>
       <c r="E48" s="104"/>
-      <c r="F48" s="229" t="s">
+      <c r="F48" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="229" t="s">
+      <c r="G48" s="227" t="s">
         <v>59</v>
       </c>
       <c r="H48" s="122" t="s">
@@ -8160,109 +8258,109 @@
         <v>62</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L48" s="123" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="230" t="s">
+      <c r="B49" s="228" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="243" t="s">
+      <c r="C49" s="241" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="243" t="s">
+      <c r="D49" s="241" t="s">
         <v>77</v>
       </c>
       <c r="E49" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="231">
-        <v>1</v>
-      </c>
-      <c r="G49" s="258">
+      <c r="F49" s="229">
+        <v>1</v>
+      </c>
+      <c r="G49" s="256">
         <v>270</v>
       </c>
-      <c r="H49" s="231"/>
-      <c r="I49" s="231">
+      <c r="H49" s="229"/>
+      <c r="I49" s="229">
         <v>20</v>
       </c>
-      <c r="J49" s="244">
+      <c r="J49" s="242">
         <v>0</v>
       </c>
       <c r="K49" s="35"/>
-      <c r="L49" s="259" t="s">
+      <c r="L49" s="257" t="s">
         <v>78</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="260" t="s">
+      <c r="B50" s="258" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="247" t="s">
+      <c r="C50" s="245" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="246" t="s">
+      <c r="D50" s="244" t="s">
         <v>79</v>
       </c>
       <c r="E50" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="247">
-        <v>1</v>
-      </c>
-      <c r="G50" s="261">
+      <c r="F50" s="245">
+        <v>1</v>
+      </c>
+      <c r="G50" s="259">
         <v>200</v>
       </c>
-      <c r="H50" s="247">
+      <c r="H50" s="245">
         <v>10</v>
       </c>
-      <c r="I50" s="247">
+      <c r="I50" s="245">
         <v>10</v>
       </c>
-      <c r="J50" s="248">
+      <c r="J50" s="246">
         <v>2000</v>
       </c>
       <c r="K50" s="105"/>
-      <c r="L50" s="294" t="s">
+      <c r="L50" s="292" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="262" t="s">
+      <c r="B51" s="260" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="251" t="s">
+      <c r="C51" s="249" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="250" t="s">
+      <c r="D51" s="248" t="s">
         <v>82</v>
       </c>
       <c r="E51" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="251">
-        <v>1</v>
-      </c>
-      <c r="G51" s="252">
+      <c r="F51" s="249">
+        <v>1</v>
+      </c>
+      <c r="G51" s="250">
         <v>200</v>
       </c>
-      <c r="H51" s="251">
+      <c r="H51" s="249">
         <v>10</v>
       </c>
-      <c r="I51" s="251">
+      <c r="I51" s="249">
         <v>10</v>
       </c>
-      <c r="J51" s="253">
+      <c r="J51" s="251">
         <v>2000</v>
       </c>
       <c r="K51" s="36"/>
-      <c r="L51" s="293" t="s">
+      <c r="L51" s="291" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8291,7 +8389,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -8316,11 +8414,11 @@
   <sheetData>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="56" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="222" t="s">
+      <c r="B3" s="220" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="81" t="s">
@@ -8332,7 +8430,7 @@
       <c r="E3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="223" t="s">
+      <c r="F3" s="221" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="81" t="s">
@@ -8342,24 +8440,24 @@
         <v>5</v>
       </c>
       <c r="I3" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J3" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="L3" s="82" t="s">
         <v>211</v>
-      </c>
-      <c r="J3" s="81" t="s">
-        <v>212</v>
-      </c>
-      <c r="K3" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="L3" s="82" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="85" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -8380,16 +8478,16 @@
         <v>6000</v>
       </c>
       <c r="K4" s="19"/>
-      <c r="L4" s="289" t="s">
-        <v>326</v>
+      <c r="L4" s="287" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="85" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -8410,16 +8508,16 @@
         <v>8000</v>
       </c>
       <c r="K5" s="19"/>
-      <c r="L5" s="289" t="s">
-        <v>326</v>
+      <c r="L5" s="287" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="101" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -8428,7 +8526,7 @@
       <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="280">
+      <c r="G6" s="278">
         <v>7000</v>
       </c>
       <c r="H6" s="19"/>
@@ -8440,16 +8538,16 @@
         <v>7000</v>
       </c>
       <c r="K6" s="19"/>
-      <c r="L6" s="289" t="s">
-        <v>321</v>
+      <c r="L6" s="287" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="101" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -8470,13 +8568,13 @@
         <v>2600</v>
       </c>
       <c r="K7" s="19"/>
-      <c r="L7" s="289" t="s">
-        <v>323</v>
+      <c r="L7" s="287" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="101" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -8486,7 +8584,7 @@
       <c r="F8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="280">
+      <c r="G8" s="278">
         <v>22000</v>
       </c>
       <c r="H8" s="19"/>
@@ -8498,8 +8596,8 @@
         <v>44000</v>
       </c>
       <c r="K8" s="19"/>
-      <c r="L8" s="289" t="s">
-        <v>325</v>
+      <c r="L8" s="287" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -8555,7 +8653,7 @@
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="233"/>
+      <c r="B13" s="231"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -8565,7 +8663,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="279"/>
+      <c r="L13" s="277"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J14" s="48">
@@ -8587,11 +8685,11 @@
     </row>
     <row r="18" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="222" t="s">
+      <c r="B19" s="220" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="81" t="s">
@@ -8603,7 +8701,7 @@
       <c r="E19" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="223" t="s">
+      <c r="F19" s="221" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="81" t="s">
@@ -8613,41 +8711,41 @@
         <v>5</v>
       </c>
       <c r="I19" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="J19" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="K19" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="L19" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="J19" s="81" t="s">
-        <v>212</v>
-      </c>
-      <c r="K19" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="82" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="282" t="s">
-        <v>330</v>
-      </c>
-      <c r="C20" s="282" t="s">
-        <v>331</v>
-      </c>
-      <c r="D20" s="284" t="s">
-        <v>339</v>
+      <c r="B20" s="280" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="280" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" s="282" t="s">
+        <v>336</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="285">
-        <v>1</v>
-      </c>
-      <c r="G20" s="286">
+      <c r="F20" s="283">
+        <v>1</v>
+      </c>
+      <c r="G20" s="284">
         <v>30</v>
       </c>
-      <c r="H20" s="287">
-        <v>1</v>
-      </c>
-      <c r="I20" s="288">
+      <c r="H20" s="285">
+        <v>1</v>
+      </c>
+      <c r="I20" s="286">
         <v>10</v>
       </c>
       <c r="J20" s="41">
@@ -8655,33 +8753,33 @@
         <v>300</v>
       </c>
       <c r="K20" s="19"/>
-      <c r="L20" s="292" t="s">
-        <v>345</v>
+      <c r="L20" s="290" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="281" t="s">
-        <v>332</v>
-      </c>
-      <c r="C21" s="281" t="s">
+      <c r="B21" s="279" t="s">
+        <v>329</v>
+      </c>
+      <c r="C21" s="279" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="283" t="s">
-        <v>340</v>
+      <c r="D21" s="281" t="s">
+        <v>337</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="285">
-        <v>1</v>
-      </c>
-      <c r="G21" s="286">
+      <c r="F21" s="283">
+        <v>1</v>
+      </c>
+      <c r="G21" s="284">
         <v>50</v>
       </c>
-      <c r="H21" s="287">
+      <c r="H21" s="285">
         <v>100</v>
       </c>
-      <c r="I21" s="288">
+      <c r="I21" s="286">
         <v>100</v>
       </c>
       <c r="J21" s="41">
@@ -8689,33 +8787,33 @@
         <v>5000</v>
       </c>
       <c r="K21" s="19"/>
-      <c r="L21" s="292" t="s">
-        <v>346</v>
+      <c r="L21" s="290" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="282" t="s">
-        <v>333</v>
-      </c>
-      <c r="C22" s="282" t="s">
-        <v>331</v>
-      </c>
-      <c r="D22" s="284" t="s">
-        <v>341</v>
+      <c r="B22" s="280" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="280" t="s">
+        <v>328</v>
+      </c>
+      <c r="D22" s="282" t="s">
+        <v>338</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="285">
+      <c r="F22" s="283">
         <v>2</v>
       </c>
-      <c r="G22" s="286">
+      <c r="G22" s="284">
         <v>290</v>
       </c>
-      <c r="H22" s="287">
-        <v>1</v>
-      </c>
-      <c r="I22" s="288">
+      <c r="H22" s="285">
+        <v>1</v>
+      </c>
+      <c r="I22" s="286">
         <v>20</v>
       </c>
       <c r="J22" s="41">
@@ -8723,33 +8821,33 @@
         <v>5800</v>
       </c>
       <c r="K22" s="19"/>
-      <c r="L22" s="292" t="s">
-        <v>347</v>
+      <c r="L22" s="290" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="281" t="s">
-        <v>334</v>
-      </c>
-      <c r="C23" s="281" t="s">
-        <v>335</v>
-      </c>
-      <c r="D23" s="283" t="s">
-        <v>342</v>
+      <c r="B23" s="279" t="s">
+        <v>331</v>
+      </c>
+      <c r="C23" s="279" t="s">
+        <v>332</v>
+      </c>
+      <c r="D23" s="281" t="s">
+        <v>339</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="285">
-        <v>1</v>
-      </c>
-      <c r="G23" s="286">
+      <c r="F23" s="283">
+        <v>1</v>
+      </c>
+      <c r="G23" s="284">
         <v>100</v>
       </c>
-      <c r="H23" s="287">
+      <c r="H23" s="285">
         <v>10</v>
       </c>
-      <c r="I23" s="288">
+      <c r="I23" s="286">
         <v>10</v>
       </c>
       <c r="J23" s="41">
@@ -8757,33 +8855,33 @@
         <v>1000</v>
       </c>
       <c r="K23" s="19"/>
-      <c r="L23" s="292" t="s">
-        <v>348</v>
+      <c r="L23" s="290" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="282" t="s">
-        <v>336</v>
-      </c>
-      <c r="C24" s="281" t="s">
-        <v>337</v>
-      </c>
-      <c r="D24" s="283" t="s">
-        <v>343</v>
+      <c r="B24" s="280" t="s">
+        <v>333</v>
+      </c>
+      <c r="C24" s="279" t="s">
+        <v>334</v>
+      </c>
+      <c r="D24" s="281" t="s">
+        <v>340</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="285">
-        <v>1</v>
-      </c>
-      <c r="G24" s="286">
+      <c r="F24" s="283">
+        <v>1</v>
+      </c>
+      <c r="G24" s="284">
         <v>430</v>
       </c>
-      <c r="H24" s="287">
-        <v>1</v>
-      </c>
-      <c r="I24" s="288">
+      <c r="H24" s="285">
+        <v>1</v>
+      </c>
+      <c r="I24" s="286">
         <v>10</v>
       </c>
       <c r="J24" s="41">
@@ -8791,33 +8889,33 @@
         <v>4300</v>
       </c>
       <c r="K24" s="19"/>
-      <c r="L24" s="292" t="s">
-        <v>349</v>
+      <c r="L24" s="290" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="281" t="s">
-        <v>338</v>
-      </c>
-      <c r="C25" s="281" t="s">
-        <v>337</v>
-      </c>
-      <c r="D25" s="283" t="s">
-        <v>344</v>
+      <c r="B25" s="279" t="s">
+        <v>335</v>
+      </c>
+      <c r="C25" s="279" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" s="281" t="s">
+        <v>341</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="285">
-        <v>1</v>
-      </c>
-      <c r="G25" s="286">
+      <c r="F25" s="283">
+        <v>1</v>
+      </c>
+      <c r="G25" s="284">
         <v>430</v>
       </c>
-      <c r="H25" s="287">
-        <v>1</v>
-      </c>
-      <c r="I25" s="288">
+      <c r="H25" s="285">
+        <v>1</v>
+      </c>
+      <c r="I25" s="286">
         <v>10</v>
       </c>
       <c r="J25" s="41">
@@ -8825,8 +8923,8 @@
         <v>4300</v>
       </c>
       <c r="K25" s="19"/>
-      <c r="L25" s="292" t="s">
-        <v>350</v>
+      <c r="L25" s="290" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
@@ -8854,7 +8952,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -8864,8 +8962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8877,26 +8975,26 @@
   <sheetData>
     <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="56" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="272" t="s">
-        <v>305</v>
-      </c>
-      <c r="D3" s="273" t="s">
-        <v>301</v>
-      </c>
-      <c r="E3" s="273" t="s">
+      <c r="C3" s="270" t="s">
         <v>302</v>
       </c>
-      <c r="F3" s="274" t="s">
-        <v>303</v>
+      <c r="D3" s="271" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="271" t="s">
+        <v>299</v>
+      </c>
+      <c r="F3" s="272" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="301" t="s">
-        <v>299</v>
+      <c r="C4" s="299" t="s">
+        <v>296</v>
       </c>
       <c r="D4" s="151">
         <v>169</v>
@@ -8904,75 +9002,75 @@
       <c r="E4" s="151">
         <v>250</v>
       </c>
-      <c r="F4" s="302">
+      <c r="F4" s="300">
         <f>D4*E4</f>
         <v>42250</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="275" t="s">
-        <v>305</v>
-      </c>
-      <c r="D6" s="276" t="s">
-        <v>306</v>
+      <c r="C6" s="273" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="274" t="s">
+        <v>303</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="56"/>
-      <c r="C7" s="278" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7" s="299">
+      <c r="C7" s="276" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="297">
         <v>3</v>
       </c>
       <c r="E7" s="142">
         <v>40000</v>
       </c>
-      <c r="F7" s="213">
+      <c r="F7" s="212">
         <f>D7*E7</f>
         <v>120000</v>
       </c>
       <c r="G7" s="56"/>
     </row>
     <row r="8" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="233" t="s">
-        <v>353</v>
-      </c>
-      <c r="D8" s="300">
+      <c r="C8" s="231" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="298">
         <v>2</v>
       </c>
       <c r="E8" s="4">
         <v>250000</v>
       </c>
-      <c r="F8" s="219">
+      <c r="F8" s="217">
         <f>D8*E8</f>
         <v>500000</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="303" t="s">
-        <v>354</v>
-      </c>
-      <c r="D9" s="304"/>
-      <c r="E9" s="316">
+      <c r="C9" s="361" t="s">
+        <v>351</v>
+      </c>
+      <c r="D9" s="362"/>
+      <c r="E9" s="366">
         <f>SUM(F7:F8)</f>
         <v>620000</v>
       </c>
-      <c r="F9" s="317"/>
+      <c r="F9" s="367"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="C9:D9"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8981,9 +9079,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8993,7 +9091,7 @@
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="298" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="296" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9" style="1"/>
     <col min="12" max="12" width="10.875" style="1" bestFit="1" customWidth="1"/>
@@ -9015,14 +9113,14 @@
       <c r="B3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="318" t="s">
-        <v>357</v>
-      </c>
-      <c r="D3" s="318" t="s">
+      <c r="C3" s="302" t="s">
+        <v>354</v>
+      </c>
+      <c r="D3" s="302" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="303" t="s">
         <v>355</v>
-      </c>
-      <c r="E3" s="319" t="s">
-        <v>358</v>
       </c>
       <c r="F3" s="159" t="s">
         <v>0</v>
@@ -9059,264 +9157,264 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="333" t="s">
+      <c r="B4" s="317" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="334" t="s">
-        <v>356</v>
-      </c>
-      <c r="D4" s="335"/>
-      <c r="E4" s="335"/>
-      <c r="F4" s="336" t="s">
+      <c r="C4" s="318" t="s">
+        <v>353</v>
+      </c>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="320" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="335">
-        <v>1</v>
-      </c>
-      <c r="H4" s="336" t="s">
+      <c r="G4" s="319">
+        <v>1</v>
+      </c>
+      <c r="H4" s="320" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="358">
+      <c r="I4" s="342">
         <v>10</v>
       </c>
-      <c r="J4" s="358">
+      <c r="J4" s="342">
         <v>110</v>
       </c>
-      <c r="K4" s="359">
+      <c r="K4" s="343">
         <v>110</v>
       </c>
-      <c r="L4" s="358">
+      <c r="L4" s="342">
         <v>20</v>
       </c>
-      <c r="M4" s="360"/>
+      <c r="M4" s="344"/>
       <c r="N4" s="35"/>
-      <c r="O4" s="336" t="s">
+      <c r="O4" s="320" t="s">
         <v>121</v>
       </c>
       <c r="P4" s="37"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="337" t="s">
+      <c r="B5" s="321" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D5" s="339"/>
-      <c r="E5" s="339"/>
-      <c r="F5" s="340" t="s">
+      <c r="C5" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" s="323"/>
+      <c r="E5" s="323"/>
+      <c r="F5" s="324" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="339">
-        <v>1</v>
-      </c>
-      <c r="H5" s="340" t="s">
+      <c r="G5" s="323">
+        <v>1</v>
+      </c>
+      <c r="H5" s="324" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="361">
+      <c r="I5" s="345">
         <v>10</v>
       </c>
-      <c r="J5" s="361">
+      <c r="J5" s="345">
         <v>220</v>
       </c>
-      <c r="K5" s="357">
+      <c r="K5" s="341">
         <v>220</v>
       </c>
-      <c r="L5" s="361">
+      <c r="L5" s="345">
         <v>20</v>
       </c>
-      <c r="M5" s="321"/>
+      <c r="M5" s="305"/>
       <c r="N5" s="34"/>
-      <c r="O5" s="340" t="s">
+      <c r="O5" s="324" t="s">
         <v>124</v>
       </c>
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="337" t="s">
+      <c r="B6" s="321" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D6" s="339"/>
-      <c r="E6" s="339"/>
-      <c r="F6" s="340" t="s">
+      <c r="C6" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="323"/>
+      <c r="E6" s="323"/>
+      <c r="F6" s="324" t="s">
         <v>147</v>
       </c>
-      <c r="G6" s="339">
-        <v>1</v>
-      </c>
-      <c r="H6" s="340" t="s">
+      <c r="G6" s="323">
+        <v>1</v>
+      </c>
+      <c r="H6" s="324" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="361">
+      <c r="I6" s="345">
         <v>10</v>
       </c>
-      <c r="J6" s="361">
+      <c r="J6" s="345">
         <v>20</v>
       </c>
-      <c r="K6" s="357">
+      <c r="K6" s="341">
         <v>40</v>
       </c>
-      <c r="L6" s="361">
+      <c r="L6" s="345">
         <v>20</v>
       </c>
-      <c r="M6" s="321"/>
+      <c r="M6" s="305"/>
       <c r="N6" s="34"/>
-      <c r="O6" s="340" t="s">
+      <c r="O6" s="324" t="s">
         <v>149</v>
       </c>
       <c r="P6" s="39"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="337" t="s">
+      <c r="B7" s="321" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D7" s="339"/>
-      <c r="E7" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="F7" s="340" t="s">
+      <c r="C7" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" s="323"/>
+      <c r="E7" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="324" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="339">
-        <v>1</v>
-      </c>
-      <c r="H7" s="340" t="s">
+      <c r="G7" s="323">
+        <v>1</v>
+      </c>
+      <c r="H7" s="324" t="s">
         <v>151</v>
       </c>
-      <c r="I7" s="361">
+      <c r="I7" s="345">
         <v>10</v>
       </c>
-      <c r="J7" s="361">
+      <c r="J7" s="345">
         <v>20</v>
       </c>
-      <c r="K7" s="357">
+      <c r="K7" s="341">
         <v>20</v>
       </c>
-      <c r="L7" s="361">
+      <c r="L7" s="345">
         <v>40</v>
       </c>
-      <c r="M7" s="321"/>
+      <c r="M7" s="305"/>
       <c r="N7" s="34"/>
-      <c r="O7" s="340" t="s">
+      <c r="O7" s="324" t="s">
         <v>152</v>
       </c>
       <c r="P7" s="39"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="337" t="s">
+      <c r="B8" s="321" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D8" s="339"/>
-      <c r="E8" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="F8" s="340" t="s">
+      <c r="C8" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" s="323"/>
+      <c r="E8" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" s="324" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="339">
-        <v>1</v>
-      </c>
-      <c r="H8" s="340" t="s">
+      <c r="G8" s="323">
+        <v>1</v>
+      </c>
+      <c r="H8" s="324" t="s">
         <v>158</v>
       </c>
-      <c r="I8" s="361">
+      <c r="I8" s="345">
         <v>10</v>
       </c>
-      <c r="J8" s="361">
+      <c r="J8" s="345">
         <v>20</v>
       </c>
-      <c r="K8" s="357">
+      <c r="K8" s="341">
         <v>20</v>
       </c>
-      <c r="L8" s="361">
+      <c r="L8" s="345">
         <v>40</v>
       </c>
-      <c r="M8" s="321"/>
+      <c r="M8" s="305"/>
       <c r="N8" s="34"/>
-      <c r="O8" s="341" t="s">
+      <c r="O8" s="325" t="s">
         <v>159</v>
       </c>
       <c r="P8" s="39"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="337" t="s">
+      <c r="B9" s="321" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D9" s="339"/>
-      <c r="E9" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="F9" s="340" t="s">
+      <c r="C9" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" s="323"/>
+      <c r="E9" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="F9" s="324" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="339">
-        <v>1</v>
-      </c>
-      <c r="H9" s="340" t="s">
+      <c r="G9" s="323">
+        <v>1</v>
+      </c>
+      <c r="H9" s="324" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="361">
+      <c r="I9" s="345">
         <v>10</v>
       </c>
-      <c r="J9" s="361">
+      <c r="J9" s="345">
         <v>40</v>
       </c>
-      <c r="K9" s="357">
+      <c r="K9" s="341">
         <v>250</v>
       </c>
-      <c r="L9" s="361">
+      <c r="L9" s="345">
         <v>20</v>
       </c>
-      <c r="M9" s="321"/>
+      <c r="M9" s="305"/>
       <c r="N9" s="34"/>
-      <c r="O9" s="341" t="s">
+      <c r="O9" s="325" t="s">
         <v>155</v>
       </c>
       <c r="P9" s="39"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="323" t="s">
+      <c r="B10" s="307" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D10" s="325"/>
-      <c r="E10" s="325"/>
+      <c r="C10" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D10" s="309"/>
+      <c r="E10" s="309"/>
       <c r="F10" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="325">
+      <c r="G10" s="309">
         <v>1</v>
       </c>
       <c r="H10" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="I10" s="357">
+      <c r="I10" s="341">
         <v>10</v>
       </c>
-      <c r="J10" s="357">
+      <c r="J10" s="341">
         <v>140</v>
       </c>
-      <c r="K10" s="357">
+      <c r="K10" s="341">
         <v>140</v>
       </c>
-      <c r="L10" s="357">
+      <c r="L10" s="341">
         <v>10</v>
       </c>
-      <c r="M10" s="321"/>
+      <c r="M10" s="305"/>
       <c r="N10" s="34"/>
       <c r="O10" s="58" t="s">
         <v>191</v>
@@ -9325,117 +9423,117 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" s="338" t="s">
-        <v>356</v>
+        <v>283</v>
+      </c>
+      <c r="C11" s="322" t="s">
+        <v>353</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G11" s="22">
         <v>1</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="I11" s="321">
-        <v>1</v>
-      </c>
-      <c r="J11" s="321">
+        <v>285</v>
+      </c>
+      <c r="I11" s="305">
+        <v>1</v>
+      </c>
+      <c r="J11" s="305">
         <v>3520</v>
       </c>
-      <c r="K11" s="321">
+      <c r="K11" s="305">
         <f>J11*L11</f>
         <v>7040</v>
       </c>
-      <c r="L11" s="321">
+      <c r="L11" s="305">
         <v>2</v>
       </c>
-      <c r="M11" s="321"/>
+      <c r="M11" s="305"/>
       <c r="N11" s="34"/>
-      <c r="O11" s="342" t="s">
-        <v>289</v>
+      <c r="O11" s="326" t="s">
+        <v>286</v>
       </c>
       <c r="P11" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="337" t="s">
+      <c r="B12" s="321" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D12" s="339"/>
-      <c r="E12" s="339"/>
-      <c r="F12" s="340" t="s">
+      <c r="C12" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" s="323"/>
+      <c r="E12" s="323"/>
+      <c r="F12" s="324" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="339">
-        <v>1</v>
-      </c>
-      <c r="H12" s="340" t="s">
+      <c r="G12" s="323">
+        <v>1</v>
+      </c>
+      <c r="H12" s="324" t="s">
         <v>144</v>
       </c>
-      <c r="I12" s="361">
-        <v>1</v>
-      </c>
-      <c r="J12" s="361">
+      <c r="I12" s="345">
+        <v>1</v>
+      </c>
+      <c r="J12" s="345">
         <v>720</v>
       </c>
-      <c r="K12" s="357">
+      <c r="K12" s="341">
         <v>1270</v>
       </c>
-      <c r="L12" s="361">
+      <c r="L12" s="345">
         <v>20</v>
       </c>
-      <c r="M12" s="321"/>
+      <c r="M12" s="305"/>
       <c r="N12" s="34"/>
-      <c r="O12" s="340" t="s">
+      <c r="O12" s="324" t="s">
         <v>145</v>
       </c>
       <c r="P12" s="39"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="304" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D13" s="246"/>
-      <c r="E13" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="F13" s="246" t="s">
+      <c r="C13" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D13" s="244"/>
+      <c r="E13" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="F13" s="244" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="22">
         <v>3</v>
       </c>
-      <c r="H13" s="246" t="s">
+      <c r="H13" s="244" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="321">
-        <v>1</v>
-      </c>
-      <c r="J13" s="321">
+      <c r="I13" s="305">
+        <v>1</v>
+      </c>
+      <c r="J13" s="305">
         <v>60</v>
       </c>
-      <c r="K13" s="321">
+      <c r="K13" s="305">
         <f>J13*L13</f>
         <v>7200</v>
       </c>
-      <c r="L13" s="321">
+      <c r="L13" s="305">
         <v>120</v>
       </c>
-      <c r="M13" s="321"/>
+      <c r="M13" s="305"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="342" t="s">
+      <c r="O13" s="326" t="s">
         <v>54</v>
       </c>
       <c r="P13" s="39" t="s">
@@ -9443,558 +9541,558 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="337" t="s">
+      <c r="B14" s="321" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D14" s="339"/>
-      <c r="E14" s="339"/>
-      <c r="F14" s="340" t="s">
+      <c r="C14" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D14" s="323"/>
+      <c r="E14" s="323"/>
+      <c r="F14" s="324" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="339">
-        <v>1</v>
-      </c>
-      <c r="H14" s="340" t="s">
+      <c r="G14" s="323">
+        <v>1</v>
+      </c>
+      <c r="H14" s="324" t="s">
         <v>162</v>
       </c>
-      <c r="I14" s="361">
+      <c r="I14" s="345">
         <v>50</v>
       </c>
-      <c r="J14" s="361">
+      <c r="J14" s="345">
         <v>160</v>
       </c>
-      <c r="K14" s="357">
+      <c r="K14" s="341">
         <v>160</v>
       </c>
-      <c r="L14" s="361">
+      <c r="L14" s="345">
         <v>50</v>
       </c>
-      <c r="M14" s="321"/>
+      <c r="M14" s="305"/>
       <c r="N14" s="34"/>
-      <c r="O14" s="340" t="s">
+      <c r="O14" s="324" t="s">
         <v>163</v>
       </c>
       <c r="P14" s="39"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="337" t="s">
+      <c r="B15" s="321" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D15" s="339"/>
-      <c r="E15" s="339"/>
-      <c r="F15" s="340" t="s">
+      <c r="C15" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" s="323"/>
+      <c r="E15" s="323"/>
+      <c r="F15" s="324" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="339">
-        <v>1</v>
-      </c>
-      <c r="H15" s="340" t="s">
+      <c r="G15" s="323">
+        <v>1</v>
+      </c>
+      <c r="H15" s="324" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="361">
+      <c r="I15" s="345">
         <v>10</v>
       </c>
-      <c r="J15" s="361">
+      <c r="J15" s="345">
         <v>380</v>
       </c>
-      <c r="K15" s="357">
+      <c r="K15" s="341">
         <v>380</v>
       </c>
-      <c r="L15" s="361">
+      <c r="L15" s="345">
         <v>10</v>
       </c>
-      <c r="M15" s="321"/>
+      <c r="M15" s="305"/>
       <c r="N15" s="34"/>
-      <c r="O15" s="340" t="s">
+      <c r="O15" s="324" t="s">
         <v>118</v>
       </c>
       <c r="P15" s="39"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="337" t="s">
+      <c r="B16" s="321" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D16" s="339"/>
-      <c r="E16" s="339"/>
-      <c r="F16" s="340" t="s">
+      <c r="C16" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="323"/>
+      <c r="E16" s="323"/>
+      <c r="F16" s="324" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="339">
-        <v>1</v>
-      </c>
-      <c r="H16" s="340" t="s">
+      <c r="G16" s="323">
+        <v>1</v>
+      </c>
+      <c r="H16" s="324" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="361">
-        <v>1</v>
-      </c>
-      <c r="J16" s="361">
+      <c r="I16" s="345">
+        <v>1</v>
+      </c>
+      <c r="J16" s="345">
         <v>420</v>
       </c>
-      <c r="K16" s="357">
+      <c r="K16" s="341">
         <v>350</v>
       </c>
-      <c r="L16" s="361">
+      <c r="L16" s="345">
         <v>20</v>
       </c>
-      <c r="M16" s="321"/>
+      <c r="M16" s="305"/>
       <c r="N16" s="34"/>
-      <c r="O16" s="340" t="s">
+      <c r="O16" s="324" t="s">
         <v>132</v>
       </c>
       <c r="P16" s="39"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="337" t="s">
+      <c r="B17" s="321" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D17" s="339"/>
-      <c r="E17" s="339"/>
-      <c r="F17" s="340" t="s">
+      <c r="C17" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" s="323"/>
+      <c r="E17" s="323"/>
+      <c r="F17" s="324" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="339">
-        <v>1</v>
-      </c>
-      <c r="H17" s="340" t="s">
+      <c r="G17" s="323">
+        <v>1</v>
+      </c>
+      <c r="H17" s="324" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="361">
-        <v>1</v>
-      </c>
-      <c r="J17" s="361">
+      <c r="I17" s="345">
+        <v>1</v>
+      </c>
+      <c r="J17" s="345">
         <v>260</v>
       </c>
-      <c r="K17" s="357">
+      <c r="K17" s="341">
         <v>320</v>
       </c>
-      <c r="L17" s="361">
+      <c r="L17" s="345">
         <v>20</v>
       </c>
-      <c r="M17" s="321"/>
+      <c r="M17" s="305"/>
       <c r="N17" s="34"/>
-      <c r="O17" s="340" t="s">
+      <c r="O17" s="324" t="s">
         <v>128</v>
       </c>
       <c r="P17" s="39"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="337" t="s">
+      <c r="B18" s="321" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D18" s="339"/>
-      <c r="E18" s="339"/>
-      <c r="F18" s="340" t="s">
+      <c r="C18" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" s="323"/>
+      <c r="E18" s="323"/>
+      <c r="F18" s="324" t="s">
         <v>176</v>
       </c>
-      <c r="G18" s="339">
-        <v>1</v>
-      </c>
-      <c r="H18" s="340" t="s">
+      <c r="G18" s="323">
+        <v>1</v>
+      </c>
+      <c r="H18" s="324" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="361">
-        <v>1</v>
-      </c>
-      <c r="J18" s="361">
+      <c r="I18" s="345">
+        <v>1</v>
+      </c>
+      <c r="J18" s="345">
         <v>2850</v>
       </c>
-      <c r="K18" s="357">
+      <c r="K18" s="341">
         <v>3240</v>
       </c>
-      <c r="L18" s="361">
+      <c r="L18" s="345">
         <v>20</v>
       </c>
-      <c r="M18" s="321"/>
+      <c r="M18" s="305"/>
       <c r="N18" s="34"/>
-      <c r="O18" s="340" t="s">
+      <c r="O18" s="324" t="s">
         <v>178</v>
       </c>
       <c r="P18" s="39"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="337" t="s">
+      <c r="B19" s="321" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D19" s="339"/>
-      <c r="E19" s="339"/>
-      <c r="F19" s="340" t="s">
+      <c r="C19" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D19" s="323"/>
+      <c r="E19" s="323"/>
+      <c r="F19" s="324" t="s">
         <v>176</v>
       </c>
-      <c r="G19" s="339">
-        <v>1</v>
-      </c>
-      <c r="H19" s="340" t="s">
+      <c r="G19" s="323">
+        <v>1</v>
+      </c>
+      <c r="H19" s="324" t="s">
         <v>180</v>
       </c>
-      <c r="I19" s="361">
-        <v>1</v>
-      </c>
-      <c r="J19" s="361">
+      <c r="I19" s="345">
+        <v>1</v>
+      </c>
+      <c r="J19" s="345">
         <v>1750</v>
       </c>
-      <c r="K19" s="357">
+      <c r="K19" s="341">
         <v>1000</v>
       </c>
-      <c r="L19" s="361">
+      <c r="L19" s="345">
         <v>60</v>
       </c>
-      <c r="M19" s="321"/>
+      <c r="M19" s="305"/>
       <c r="N19" s="34"/>
-      <c r="O19" s="340" t="s">
+      <c r="O19" s="324" t="s">
         <v>181</v>
       </c>
       <c r="P19" s="39"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="337" t="s">
+      <c r="B20" s="321" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D20" s="339"/>
-      <c r="E20" s="339"/>
-      <c r="F20" s="340" t="s">
+      <c r="C20" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D20" s="323"/>
+      <c r="E20" s="323"/>
+      <c r="F20" s="324" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="339">
-        <v>1</v>
-      </c>
-      <c r="H20" s="340" t="s">
+      <c r="G20" s="323">
+        <v>1</v>
+      </c>
+      <c r="H20" s="324" t="s">
         <v>140</v>
       </c>
-      <c r="I20" s="361">
-        <v>1</v>
-      </c>
-      <c r="J20" s="361">
+      <c r="I20" s="345">
+        <v>1</v>
+      </c>
+      <c r="J20" s="345">
         <v>480</v>
       </c>
-      <c r="K20" s="357">
+      <c r="K20" s="341">
         <v>260</v>
       </c>
-      <c r="L20" s="361">
+      <c r="L20" s="345">
         <v>100</v>
       </c>
-      <c r="M20" s="321"/>
+      <c r="M20" s="305"/>
       <c r="N20" s="34"/>
-      <c r="O20" s="340" t="s">
+      <c r="O20" s="324" t="s">
         <v>141</v>
       </c>
       <c r="P20" s="39"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="337" t="s">
+      <c r="B21" s="321" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D21" s="339"/>
-      <c r="E21" s="339"/>
-      <c r="F21" s="340" t="s">
+      <c r="C21" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D21" s="323"/>
+      <c r="E21" s="323"/>
+      <c r="F21" s="324" t="s">
         <v>172</v>
       </c>
-      <c r="G21" s="339">
-        <v>1</v>
-      </c>
-      <c r="H21" s="340" t="s">
+      <c r="G21" s="323">
+        <v>1</v>
+      </c>
+      <c r="H21" s="324" t="s">
         <v>173</v>
       </c>
-      <c r="I21" s="361">
-        <v>1</v>
-      </c>
-      <c r="J21" s="361">
+      <c r="I21" s="345">
+        <v>1</v>
+      </c>
+      <c r="J21" s="345">
         <v>750</v>
       </c>
-      <c r="K21" s="357">
+      <c r="K21" s="341">
         <v>550</v>
       </c>
-      <c r="L21" s="361">
+      <c r="L21" s="345">
         <v>25</v>
       </c>
-      <c r="M21" s="321"/>
+      <c r="M21" s="305"/>
       <c r="N21" s="34"/>
-      <c r="O21" s="340" t="s">
+      <c r="O21" s="324" t="s">
         <v>174</v>
       </c>
       <c r="P21" s="39"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="337" t="s">
+      <c r="B22" s="321" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D22" s="339"/>
-      <c r="E22" s="339"/>
-      <c r="F22" s="340" t="s">
+      <c r="C22" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D22" s="323"/>
+      <c r="E22" s="323"/>
+      <c r="F22" s="324" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="339">
-        <v>1</v>
-      </c>
-      <c r="H22" s="340" t="s">
+      <c r="G22" s="323">
+        <v>1</v>
+      </c>
+      <c r="H22" s="324" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="361">
-        <v>1</v>
-      </c>
-      <c r="J22" s="361">
+      <c r="I22" s="345">
+        <v>1</v>
+      </c>
+      <c r="J22" s="345">
         <v>2150</v>
       </c>
-      <c r="K22" s="357">
+      <c r="K22" s="341">
         <v>1880</v>
       </c>
-      <c r="L22" s="361">
+      <c r="L22" s="345">
         <v>20</v>
       </c>
-      <c r="M22" s="321"/>
+      <c r="M22" s="305"/>
       <c r="N22" s="34"/>
-      <c r="O22" s="340" t="s">
+      <c r="O22" s="324" t="s">
         <v>137</v>
       </c>
       <c r="P22" s="39"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="337" t="s">
+      <c r="B23" s="321" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D23" s="339"/>
-      <c r="E23" s="339"/>
-      <c r="F23" s="340" t="s">
+      <c r="C23" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D23" s="323"/>
+      <c r="E23" s="323"/>
+      <c r="F23" s="324" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="339">
+      <c r="G23" s="323">
         <v>3</v>
       </c>
-      <c r="H23" s="340" t="s">
+      <c r="H23" s="324" t="s">
         <v>162</v>
       </c>
-      <c r="I23" s="361">
-        <v>1</v>
-      </c>
-      <c r="J23" s="361">
+      <c r="I23" s="345">
+        <v>1</v>
+      </c>
+      <c r="J23" s="345">
         <v>280</v>
       </c>
-      <c r="K23" s="357">
+      <c r="K23" s="341">
         <v>270</v>
       </c>
-      <c r="L23" s="361">
+      <c r="L23" s="345">
         <v>60</v>
       </c>
-      <c r="M23" s="321"/>
+      <c r="M23" s="305"/>
       <c r="N23" s="34"/>
-      <c r="O23" s="340" t="s">
+      <c r="O23" s="324" t="s">
         <v>167</v>
       </c>
       <c r="P23" s="39"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="337" t="s">
+      <c r="B24" s="321" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D24" s="339"/>
-      <c r="E24" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="F24" s="340" t="s">
+      <c r="C24" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D24" s="323"/>
+      <c r="E24" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="F24" s="324" t="s">
         <v>111</v>
       </c>
-      <c r="G24" s="339">
-        <v>1</v>
-      </c>
-      <c r="H24" s="340" t="s">
+      <c r="G24" s="323">
+        <v>1</v>
+      </c>
+      <c r="H24" s="324" t="s">
         <v>112</v>
       </c>
-      <c r="I24" s="361">
+      <c r="I24" s="345">
         <v>10</v>
       </c>
-      <c r="J24" s="361">
+      <c r="J24" s="345">
         <v>200</v>
       </c>
-      <c r="K24" s="357">
+      <c r="K24" s="341">
         <v>200</v>
       </c>
-      <c r="L24" s="361">
+      <c r="L24" s="345">
         <v>20</v>
       </c>
-      <c r="M24" s="321"/>
+      <c r="M24" s="305"/>
       <c r="N24" s="34"/>
-      <c r="O24" s="340" t="s">
+      <c r="O24" s="324" t="s">
         <v>113</v>
       </c>
       <c r="P24" s="39"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="337" t="s">
+      <c r="B25" s="321" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D25" s="339"/>
-      <c r="E25" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="F25" s="340" t="s">
+      <c r="C25" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D25" s="323"/>
+      <c r="E25" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="F25" s="324" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="339">
-        <v>1</v>
-      </c>
-      <c r="H25" s="340" t="s">
+      <c r="G25" s="323">
+        <v>1</v>
+      </c>
+      <c r="H25" s="324" t="s">
         <v>170</v>
       </c>
-      <c r="I25" s="361">
-        <v>1</v>
-      </c>
-      <c r="J25" s="361">
+      <c r="I25" s="345">
+        <v>1</v>
+      </c>
+      <c r="J25" s="345">
         <v>3970</v>
       </c>
-      <c r="K25" s="357">
+      <c r="K25" s="341">
         <v>2340</v>
       </c>
-      <c r="L25" s="361">
+      <c r="L25" s="345">
         <v>40</v>
       </c>
-      <c r="M25" s="321"/>
+      <c r="M25" s="305"/>
       <c r="N25" s="34"/>
-      <c r="O25" s="340" t="s">
+      <c r="O25" s="324" t="s">
         <v>114</v>
       </c>
       <c r="P25" s="39"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="337" t="s">
+      <c r="B26" s="321" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D26" s="339"/>
-      <c r="E26" s="339"/>
-      <c r="F26" s="340" t="s">
+      <c r="C26" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D26" s="323"/>
+      <c r="E26" s="323"/>
+      <c r="F26" s="324" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="339">
-        <v>1</v>
-      </c>
-      <c r="H26" s="340" t="s">
+      <c r="G26" s="323">
+        <v>1</v>
+      </c>
+      <c r="H26" s="324" t="s">
         <v>108</v>
       </c>
-      <c r="I26" s="361">
-        <v>1</v>
-      </c>
-      <c r="J26" s="361">
+      <c r="I26" s="345">
+        <v>1</v>
+      </c>
+      <c r="J26" s="345">
         <v>520</v>
       </c>
-      <c r="K26" s="357">
+      <c r="K26" s="341">
         <v>380</v>
       </c>
-      <c r="L26" s="361">
+      <c r="L26" s="345">
         <v>20</v>
       </c>
-      <c r="M26" s="321"/>
+      <c r="M26" s="305"/>
       <c r="N26" s="34"/>
-      <c r="O26" s="340" t="s">
+      <c r="O26" s="324" t="s">
         <v>109</v>
       </c>
       <c r="P26" s="39"/>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="337" t="s">
+      <c r="B27" s="321" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="D27" s="339"/>
-      <c r="E27" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="F27" s="340" t="s">
+      <c r="C27" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="D27" s="323"/>
+      <c r="E27" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="F27" s="324" t="s">
         <v>176</v>
       </c>
-      <c r="G27" s="339">
-        <v>1</v>
-      </c>
-      <c r="H27" s="340" t="s">
+      <c r="G27" s="323">
+        <v>1</v>
+      </c>
+      <c r="H27" s="324" t="s">
         <v>183</v>
       </c>
-      <c r="I27" s="361">
+      <c r="I27" s="345">
         <v>5</v>
       </c>
-      <c r="J27" s="361">
+      <c r="J27" s="345">
         <v>870</v>
       </c>
-      <c r="K27" s="357">
+      <c r="K27" s="341">
         <v>870</v>
       </c>
-      <c r="L27" s="361">
+      <c r="L27" s="345">
         <v>40</v>
       </c>
-      <c r="M27" s="321"/>
+      <c r="M27" s="305"/>
       <c r="N27" s="34"/>
-      <c r="O27" s="340" t="s">
+      <c r="O27" s="324" t="s">
         <v>184</v>
       </c>
       <c r="P27" s="39"/>
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="326" t="s">
+      <c r="B28" s="310" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="327"/>
-      <c r="D28" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E28" s="338"/>
-      <c r="F28" s="338"/>
-      <c r="G28" s="328">
-        <v>1</v>
-      </c>
-      <c r="H28" s="329" t="s">
+      <c r="C28" s="311"/>
+      <c r="D28" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E28" s="322"/>
+      <c r="F28" s="322"/>
+      <c r="G28" s="312">
+        <v>1</v>
+      </c>
+      <c r="H28" s="313" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="321">
+      <c r="I28" s="305">
         <v>50</v>
       </c>
-      <c r="J28" s="321">
+      <c r="J28" s="305">
         <v>100</v>
       </c>
-      <c r="K28" s="321"/>
-      <c r="L28" s="321">
+      <c r="K28" s="305"/>
+      <c r="L28" s="305">
         <v>50</v>
       </c>
-      <c r="M28" s="321">
+      <c r="M28" s="305">
         <f>J28*L28</f>
         <v>5000</v>
       </c>
@@ -10007,32 +10105,32 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="326" t="s">
+      <c r="B29" s="310" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="327"/>
-      <c r="D29" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E29" s="338"/>
-      <c r="F29" s="338"/>
-      <c r="G29" s="328">
+      <c r="C29" s="311"/>
+      <c r="D29" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E29" s="322"/>
+      <c r="F29" s="322"/>
+      <c r="G29" s="312">
         <v>2</v>
       </c>
-      <c r="H29" s="329" t="s">
+      <c r="H29" s="313" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="321">
-        <v>1</v>
-      </c>
-      <c r="J29" s="321">
+      <c r="I29" s="305">
+        <v>1</v>
+      </c>
+      <c r="J29" s="305">
         <v>1260</v>
       </c>
-      <c r="K29" s="321"/>
-      <c r="L29" s="321">
+      <c r="K29" s="305"/>
+      <c r="L29" s="305">
         <v>6</v>
       </c>
-      <c r="M29" s="321">
+      <c r="M29" s="305">
         <f>J29*L29</f>
         <v>7560</v>
       </c>
@@ -10045,70 +10143,70 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="343" t="s">
+      <c r="B30" s="327" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="344"/>
-      <c r="D30" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E30" s="338"/>
-      <c r="F30" s="338"/>
+      <c r="C30" s="328"/>
+      <c r="D30" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E30" s="322"/>
+      <c r="F30" s="322"/>
       <c r="G30" s="22">
         <v>2</v>
       </c>
-      <c r="H30" s="345" t="s">
-        <v>352</v>
-      </c>
-      <c r="I30" s="321">
-        <v>1</v>
-      </c>
-      <c r="J30" s="321">
+      <c r="H30" s="329" t="s">
+        <v>349</v>
+      </c>
+      <c r="I30" s="305">
+        <v>1</v>
+      </c>
+      <c r="J30" s="305">
         <v>960</v>
       </c>
-      <c r="K30" s="321"/>
-      <c r="L30" s="321">
+      <c r="K30" s="305"/>
+      <c r="L30" s="305">
         <v>20</v>
       </c>
-      <c r="M30" s="321">
+      <c r="M30" s="305">
         <v>16400</v>
       </c>
       <c r="N30" s="34"/>
       <c r="O30" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="P30" s="322" t="s">
+      <c r="P30" s="306" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="323" t="s">
+      <c r="B31" s="307" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="324"/>
-      <c r="D31" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E31" s="338"/>
-      <c r="F31" s="338"/>
-      <c r="G31" s="325">
+      <c r="C31" s="308"/>
+      <c r="D31" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E31" s="322"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="309">
         <v>10</v>
       </c>
-      <c r="H31" s="324" t="s">
+      <c r="H31" s="308" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="321">
+      <c r="I31" s="305">
         <v>5</v>
       </c>
-      <c r="J31" s="321">
+      <c r="J31" s="305">
         <v>2280</v>
       </c>
-      <c r="K31" s="321"/>
-      <c r="L31" s="321">
+      <c r="K31" s="305"/>
+      <c r="L31" s="305">
         <v>10</v>
       </c>
-      <c r="M31" s="321">
-        <f>J31*L31</f>
+      <c r="M31" s="305">
+        <f t="shared" ref="M31:M37" si="0">J31*L31</f>
         <v>22800</v>
       </c>
       <c r="N31" s="34"/>
@@ -10120,33 +10218,33 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="326" t="s">
+      <c r="B32" s="310" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="327"/>
-      <c r="D32" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E32" s="338"/>
-      <c r="F32" s="338"/>
-      <c r="G32" s="328">
-        <v>1</v>
-      </c>
-      <c r="H32" s="329" t="s">
+      <c r="C32" s="311"/>
+      <c r="D32" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E32" s="322"/>
+      <c r="F32" s="322"/>
+      <c r="G32" s="312">
+        <v>1</v>
+      </c>
+      <c r="H32" s="313" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="321">
+      <c r="I32" s="305">
         <v>2</v>
       </c>
-      <c r="J32" s="321">
+      <c r="J32" s="305">
         <v>7100</v>
       </c>
-      <c r="K32" s="321"/>
-      <c r="L32" s="321">
+      <c r="K32" s="305"/>
+      <c r="L32" s="305">
         <v>2</v>
       </c>
-      <c r="M32" s="321">
-        <f>J32*L32</f>
+      <c r="M32" s="305">
+        <f t="shared" si="0"/>
         <v>14200</v>
       </c>
       <c r="N32" s="34"/>
@@ -10162,29 +10260,29 @@
         <v>28</v>
       </c>
       <c r="C33" s="53"/>
-      <c r="D33" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E33" s="338"/>
-      <c r="F33" s="338"/>
+      <c r="D33" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E33" s="322"/>
+      <c r="F33" s="322"/>
       <c r="G33" s="22">
         <v>1</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="321">
-        <v>1</v>
-      </c>
-      <c r="J33" s="321">
+      <c r="I33" s="305">
+        <v>1</v>
+      </c>
+      <c r="J33" s="305">
         <v>11090</v>
       </c>
-      <c r="K33" s="321"/>
-      <c r="L33" s="321">
+      <c r="K33" s="305"/>
+      <c r="L33" s="305">
         <v>2</v>
       </c>
-      <c r="M33" s="321">
-        <f>J33*L33</f>
+      <c r="M33" s="305">
+        <f t="shared" si="0"/>
         <v>22180</v>
       </c>
       <c r="N33" s="34"/>
@@ -10196,33 +10294,33 @@
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="330" t="s">
+      <c r="B34" s="314" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="331"/>
-      <c r="D34" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E34" s="338"/>
-      <c r="F34" s="338"/>
-      <c r="G34" s="328">
-        <v>1</v>
-      </c>
-      <c r="H34" s="329" t="s">
+      <c r="C34" s="315"/>
+      <c r="D34" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E34" s="322"/>
+      <c r="F34" s="322"/>
+      <c r="G34" s="312">
+        <v>1</v>
+      </c>
+      <c r="H34" s="313" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="321">
+      <c r="I34" s="305">
         <v>2</v>
       </c>
-      <c r="J34" s="321">
+      <c r="J34" s="305">
         <v>13200</v>
       </c>
-      <c r="K34" s="321"/>
-      <c r="L34" s="321">
+      <c r="K34" s="305"/>
+      <c r="L34" s="305">
         <v>4</v>
       </c>
-      <c r="M34" s="321">
-        <f>J34*L34</f>
+      <c r="M34" s="305">
+        <f t="shared" si="0"/>
         <v>52800</v>
       </c>
       <c r="N34" s="34"/>
@@ -10234,35 +10332,35 @@
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="326" t="s">
+      <c r="B35" s="310" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="327"/>
-      <c r="D35" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E35" s="338"/>
+      <c r="C35" s="311"/>
+      <c r="D35" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E35" s="322"/>
       <c r="F35" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="328">
-        <v>1</v>
-      </c>
-      <c r="H35" s="329" t="s">
+      <c r="G35" s="312">
+        <v>1</v>
+      </c>
+      <c r="H35" s="313" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="321">
+      <c r="I35" s="305">
         <v>100</v>
       </c>
-      <c r="J35" s="321">
+      <c r="J35" s="305">
         <v>130</v>
       </c>
-      <c r="K35" s="321"/>
-      <c r="L35" s="321">
+      <c r="K35" s="305"/>
+      <c r="L35" s="305">
         <v>100</v>
       </c>
-      <c r="M35" s="321">
-        <f>J35*L35</f>
+      <c r="M35" s="305">
+        <f t="shared" si="0"/>
         <v>13000</v>
       </c>
       <c r="N35" s="34"/>
@@ -10277,32 +10375,32 @@
       <c r="B36" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="332"/>
-      <c r="D36" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E36" s="338"/>
+      <c r="C36" s="316"/>
+      <c r="D36" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E36" s="322"/>
       <c r="F36" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="328">
+      <c r="G36" s="312">
         <v>1</v>
       </c>
       <c r="H36" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="321">
+      <c r="I36" s="305">
         <v>5</v>
       </c>
-      <c r="J36" s="321">
+      <c r="J36" s="305">
         <v>210</v>
       </c>
-      <c r="K36" s="321"/>
-      <c r="L36" s="321">
+      <c r="K36" s="305"/>
+      <c r="L36" s="305">
         <v>30</v>
       </c>
-      <c r="M36" s="321">
-        <f>J36*L36</f>
+      <c r="M36" s="305">
+        <f t="shared" si="0"/>
         <v>6300</v>
       </c>
       <c r="N36" s="34"/>
@@ -10317,35 +10415,35 @@
       <c r="B37" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="332"/>
-      <c r="D37" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E37" s="338"/>
+      <c r="C37" s="316"/>
+      <c r="D37" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E37" s="322"/>
       <c r="F37" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="328">
+      <c r="G37" s="312">
         <v>4</v>
       </c>
       <c r="H37" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="321">
+      <c r="I37" s="305">
         <v>100</v>
       </c>
-      <c r="J37" s="321">
+      <c r="J37" s="305">
         <v>20</v>
       </c>
-      <c r="K37" s="321"/>
-      <c r="L37" s="356">
+      <c r="K37" s="305"/>
+      <c r="L37" s="340">
         <v>200</v>
       </c>
-      <c r="M37" s="321">
-        <f>J37*L37</f>
+      <c r="M37" s="305">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="N37" s="346" t="s">
+      <c r="N37" s="330" t="s">
         <v>41</v>
       </c>
       <c r="O37" s="34" t="s">
@@ -10356,36 +10454,36 @@
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="323" t="s">
+      <c r="B38" s="307" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="325"/>
-      <c r="D38" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E38" s="338"/>
+      <c r="C38" s="309"/>
+      <c r="D38" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E38" s="322"/>
       <c r="F38" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="325">
+      <c r="G38" s="309">
         <v>1</v>
       </c>
       <c r="H38" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="I38" s="357">
+      <c r="I38" s="341">
         <v>10</v>
       </c>
-      <c r="J38" s="357">
+      <c r="J38" s="341">
         <v>230</v>
       </c>
-      <c r="K38" s="357">
+      <c r="K38" s="341">
         <v>230</v>
       </c>
-      <c r="L38" s="357">
+      <c r="L38" s="341">
         <v>20</v>
       </c>
-      <c r="M38" s="321"/>
+      <c r="M38" s="305"/>
       <c r="N38" s="34"/>
       <c r="O38" s="58" t="s">
         <v>195</v>
@@ -10393,36 +10491,36 @@
       <c r="P38" s="39"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="323" t="s">
+      <c r="B39" s="307" t="s">
         <v>196</v>
       </c>
       <c r="C39" s="58"/>
-      <c r="D39" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E39" s="338"/>
+      <c r="D39" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E39" s="322"/>
       <c r="F39" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="325">
+      <c r="G39" s="309">
         <v>8</v>
       </c>
       <c r="H39" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="I39" s="357">
+      <c r="I39" s="341">
         <v>300</v>
       </c>
-      <c r="J39" s="357">
+      <c r="J39" s="341">
         <v>130</v>
       </c>
-      <c r="K39" s="357">
+      <c r="K39" s="341">
         <v>130</v>
       </c>
-      <c r="L39" s="357">
+      <c r="L39" s="341">
         <v>300</v>
       </c>
-      <c r="M39" s="321"/>
+      <c r="M39" s="305"/>
       <c r="N39" s="34"/>
       <c r="O39" s="58" t="s">
         <v>197</v>
@@ -10430,40 +10528,40 @@
       <c r="P39" s="39"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="343" t="s">
+      <c r="B40" s="327" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="344"/>
-      <c r="D40" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E40" s="338"/>
+      <c r="C40" s="328"/>
+      <c r="D40" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E40" s="322"/>
       <c r="F40" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="G40" s="325">
+        <v>205</v>
+      </c>
+      <c r="G40" s="309">
         <v>2</v>
       </c>
-      <c r="H40" s="345" t="s">
-        <v>352</v>
-      </c>
-      <c r="I40" s="357">
-        <v>1</v>
-      </c>
-      <c r="J40" s="357">
+      <c r="H40" s="329" t="s">
+        <v>349</v>
+      </c>
+      <c r="I40" s="341">
+        <v>1</v>
+      </c>
+      <c r="J40" s="341">
         <v>1020</v>
       </c>
-      <c r="K40" s="357">
+      <c r="K40" s="341">
         <f>J40*L40</f>
         <v>20400</v>
       </c>
-      <c r="L40" s="357">
+      <c r="L40" s="341">
         <v>20</v>
       </c>
-      <c r="M40" s="321"/>
+      <c r="M40" s="305"/>
       <c r="N40" s="34"/>
       <c r="O40" s="58" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P40" s="39" t="s">
         <v>9</v>
@@ -10471,40 +10569,40 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="323" t="s">
-        <v>209</v>
+      <c r="B41" s="307" t="s">
+        <v>206</v>
       </c>
       <c r="C41" s="58"/>
-      <c r="D41" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E41" s="338"/>
+      <c r="D41" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E41" s="322"/>
       <c r="F41" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="325">
+      <c r="G41" s="309">
         <v>1</v>
       </c>
       <c r="H41" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="I41" s="357">
+        <v>207</v>
+      </c>
+      <c r="I41" s="341">
         <v>100</v>
       </c>
-      <c r="J41" s="357">
+      <c r="J41" s="341">
         <v>130</v>
       </c>
-      <c r="K41" s="357">
+      <c r="K41" s="341">
         <f>J41*L41</f>
         <v>13000</v>
       </c>
-      <c r="L41" s="357">
+      <c r="L41" s="341">
         <v>100</v>
       </c>
-      <c r="M41" s="321"/>
+      <c r="M41" s="305"/>
       <c r="N41" s="34"/>
-      <c r="O41" s="347" t="s">
-        <v>294</v>
+      <c r="O41" s="331" t="s">
+        <v>291</v>
       </c>
       <c r="P41" s="39" t="s">
         <v>9</v>
@@ -10512,38 +10610,38 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B42" s="320" t="s">
+      <c r="B42" s="304" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="348"/>
-      <c r="D42" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E42" s="338"/>
-      <c r="F42" s="246" t="s">
+      <c r="C42" s="332"/>
+      <c r="D42" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E42" s="322"/>
+      <c r="F42" s="244" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="348">
-        <v>1</v>
-      </c>
-      <c r="H42" s="246" t="s">
+      <c r="G42" s="332">
+        <v>1</v>
+      </c>
+      <c r="H42" s="244" t="s">
         <v>66</v>
       </c>
-      <c r="I42" s="362">
+      <c r="I42" s="346">
         <v>50</v>
       </c>
-      <c r="J42" s="362">
+      <c r="J42" s="346">
         <v>210</v>
       </c>
-      <c r="K42" s="362">
+      <c r="K42" s="346">
         <v>10500</v>
       </c>
-      <c r="L42" s="362">
+      <c r="L42" s="346">
         <v>50</v>
       </c>
-      <c r="M42" s="321"/>
+      <c r="M42" s="305"/>
       <c r="N42" s="34"/>
-      <c r="O42" s="342" t="s">
+      <c r="O42" s="326" t="s">
         <v>67</v>
       </c>
       <c r="P42" s="39" t="s">
@@ -10552,38 +10650,38 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="320" t="s">
+      <c r="B43" s="304" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="348"/>
-      <c r="D43" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E43" s="338"/>
-      <c r="F43" s="246" t="s">
+      <c r="C43" s="332"/>
+      <c r="D43" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E43" s="322"/>
+      <c r="F43" s="244" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="348">
-        <v>1</v>
-      </c>
-      <c r="H43" s="246" t="s">
+      <c r="G43" s="332">
+        <v>1</v>
+      </c>
+      <c r="H43" s="244" t="s">
         <v>69</v>
       </c>
-      <c r="I43" s="362">
+      <c r="I43" s="346">
         <v>10</v>
       </c>
-      <c r="J43" s="362">
+      <c r="J43" s="346">
         <v>210</v>
       </c>
-      <c r="K43" s="362">
+      <c r="K43" s="346">
         <v>2100</v>
       </c>
-      <c r="L43" s="362">
+      <c r="L43" s="346">
         <v>10</v>
       </c>
-      <c r="M43" s="321"/>
+      <c r="M43" s="305"/>
       <c r="N43" s="34"/>
-      <c r="O43" s="342" t="s">
+      <c r="O43" s="326" t="s">
         <v>70</v>
       </c>
       <c r="P43" s="39" t="s">
@@ -10592,36 +10690,36 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="320" t="s">
+      <c r="B44" s="304" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="348"/>
-      <c r="D44" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E44" s="338"/>
-      <c r="F44" s="246"/>
-      <c r="G44" s="348">
+      <c r="C44" s="332"/>
+      <c r="D44" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E44" s="322"/>
+      <c r="F44" s="244"/>
+      <c r="G44" s="332">
         <v>2</v>
       </c>
-      <c r="H44" s="246" t="s">
+      <c r="H44" s="244" t="s">
         <v>72</v>
       </c>
-      <c r="I44" s="362">
+      <c r="I44" s="346">
         <v>100</v>
       </c>
-      <c r="J44" s="362">
+      <c r="J44" s="346">
         <v>80</v>
       </c>
-      <c r="K44" s="362">
+      <c r="K44" s="346">
         <v>4000</v>
       </c>
-      <c r="L44" s="362">
+      <c r="L44" s="346">
         <v>100</v>
       </c>
-      <c r="M44" s="321"/>
+      <c r="M44" s="305"/>
       <c r="N44" s="34"/>
-      <c r="O44" s="342" t="s">
+      <c r="O44" s="326" t="s">
         <v>73</v>
       </c>
       <c r="P44" s="39" t="s">
@@ -10630,36 +10728,36 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="320" t="s">
+      <c r="B45" s="304" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="246"/>
-      <c r="D45" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E45" s="338"/>
-      <c r="F45" s="246" t="s">
+      <c r="C45" s="244"/>
+      <c r="D45" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E45" s="322"/>
+      <c r="F45" s="244" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="348">
-        <v>1</v>
-      </c>
-      <c r="H45" s="246" t="s">
+      <c r="G45" s="332">
+        <v>1</v>
+      </c>
+      <c r="H45" s="244" t="s">
         <v>77</v>
       </c>
-      <c r="I45" s="362"/>
-      <c r="J45" s="362">
+      <c r="I45" s="346"/>
+      <c r="J45" s="346">
         <v>270</v>
       </c>
-      <c r="K45" s="362">
+      <c r="K45" s="346">
         <v>0</v>
       </c>
-      <c r="L45" s="362">
+      <c r="L45" s="346">
         <v>20</v>
       </c>
-      <c r="M45" s="321"/>
+      <c r="M45" s="305"/>
       <c r="N45" s="34"/>
-      <c r="O45" s="246" t="s">
+      <c r="O45" s="244" t="s">
         <v>78</v>
       </c>
       <c r="P45" s="39" t="s">
@@ -10668,38 +10766,38 @@
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="320" t="s">
+      <c r="B46" s="304" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="246"/>
-      <c r="D46" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E46" s="338"/>
-      <c r="F46" s="246" t="s">
+      <c r="C46" s="244"/>
+      <c r="D46" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E46" s="322"/>
+      <c r="F46" s="244" t="s">
         <v>80</v>
       </c>
-      <c r="G46" s="348">
-        <v>1</v>
-      </c>
-      <c r="H46" s="246" t="s">
+      <c r="G46" s="332">
+        <v>1</v>
+      </c>
+      <c r="H46" s="244" t="s">
         <v>79</v>
       </c>
-      <c r="I46" s="362">
+      <c r="I46" s="346">
         <v>10</v>
       </c>
-      <c r="J46" s="362">
+      <c r="J46" s="346">
         <v>200</v>
       </c>
-      <c r="K46" s="362">
+      <c r="K46" s="346">
         <v>2000</v>
       </c>
-      <c r="L46" s="362">
+      <c r="L46" s="346">
         <v>10</v>
       </c>
-      <c r="M46" s="321"/>
+      <c r="M46" s="305"/>
       <c r="N46" s="34"/>
-      <c r="O46" s="342" t="s">
+      <c r="O46" s="326" t="s">
         <v>81</v>
       </c>
       <c r="P46" s="39" t="s">
@@ -10708,38 +10806,38 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="320" t="s">
+      <c r="B47" s="304" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="246"/>
-      <c r="D47" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="E47" s="338"/>
-      <c r="F47" s="246" t="s">
+      <c r="C47" s="244"/>
+      <c r="D47" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="E47" s="322"/>
+      <c r="F47" s="244" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="348">
-        <v>1</v>
-      </c>
-      <c r="H47" s="246" t="s">
+      <c r="G47" s="332">
+        <v>1</v>
+      </c>
+      <c r="H47" s="244" t="s">
         <v>82</v>
       </c>
-      <c r="I47" s="362">
+      <c r="I47" s="346">
         <v>10</v>
       </c>
-      <c r="J47" s="362">
+      <c r="J47" s="346">
         <v>200</v>
       </c>
-      <c r="K47" s="362">
+      <c r="K47" s="346">
         <v>2000</v>
       </c>
-      <c r="L47" s="362">
+      <c r="L47" s="346">
         <v>10</v>
       </c>
-      <c r="M47" s="321"/>
+      <c r="M47" s="305"/>
       <c r="N47" s="34"/>
-      <c r="O47" s="342" t="s">
+      <c r="O47" s="326" t="s">
         <v>83</v>
       </c>
       <c r="P47" s="39" t="s">
@@ -10748,40 +10846,40 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B48" s="349" t="s">
-        <v>332</v>
-      </c>
-      <c r="C48" s="350"/>
-      <c r="D48" s="350"/>
-      <c r="E48" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="F48" s="350" t="s">
+      <c r="B48" s="333" t="s">
+        <v>329</v>
+      </c>
+      <c r="C48" s="334"/>
+      <c r="D48" s="334"/>
+      <c r="E48" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="F48" s="334" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="366">
-        <v>1</v>
-      </c>
-      <c r="H48" s="350" t="s">
-        <v>340</v>
-      </c>
-      <c r="I48" s="363">
+      <c r="G48" s="350">
+        <v>1</v>
+      </c>
+      <c r="H48" s="334" t="s">
+        <v>337</v>
+      </c>
+      <c r="I48" s="347">
         <v>100</v>
       </c>
-      <c r="J48" s="363">
+      <c r="J48" s="347">
         <v>50</v>
       </c>
-      <c r="K48" s="321"/>
-      <c r="L48" s="363">
+      <c r="K48" s="305"/>
+      <c r="L48" s="347">
         <v>100</v>
       </c>
-      <c r="M48" s="321">
-        <f>J48*L48</f>
+      <c r="M48" s="305">
+        <f t="shared" ref="M48:M53" si="1">J48*L48</f>
         <v>5000</v>
       </c>
       <c r="N48" s="34"/>
-      <c r="O48" s="351" t="s">
-        <v>346</v>
+      <c r="O48" s="335" t="s">
+        <v>343</v>
       </c>
       <c r="P48" s="39" t="s">
         <v>9</v>
@@ -10789,40 +10887,40 @@
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B49" s="349" t="s">
-        <v>338</v>
-      </c>
-      <c r="C49" s="350"/>
-      <c r="D49" s="350"/>
-      <c r="E49" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="F49" s="350" t="s">
-        <v>337</v>
-      </c>
-      <c r="G49" s="366">
-        <v>1</v>
-      </c>
-      <c r="H49" s="350" t="s">
-        <v>344</v>
-      </c>
-      <c r="I49" s="363">
-        <v>1</v>
-      </c>
-      <c r="J49" s="363">
+      <c r="B49" s="333" t="s">
+        <v>335</v>
+      </c>
+      <c r="C49" s="334"/>
+      <c r="D49" s="334"/>
+      <c r="E49" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="F49" s="334" t="s">
+        <v>334</v>
+      </c>
+      <c r="G49" s="350">
+        <v>1</v>
+      </c>
+      <c r="H49" s="334" t="s">
+        <v>341</v>
+      </c>
+      <c r="I49" s="347">
+        <v>1</v>
+      </c>
+      <c r="J49" s="347">
         <v>430</v>
       </c>
-      <c r="K49" s="321"/>
-      <c r="L49" s="363">
+      <c r="K49" s="305"/>
+      <c r="L49" s="347">
         <v>10</v>
       </c>
-      <c r="M49" s="321">
-        <f>J49*L49</f>
+      <c r="M49" s="305">
+        <f t="shared" si="1"/>
         <v>4300</v>
       </c>
       <c r="N49" s="34"/>
-      <c r="O49" s="351" t="s">
-        <v>350</v>
+      <c r="O49" s="335" t="s">
+        <v>347</v>
       </c>
       <c r="P49" s="39" t="s">
         <v>9</v>
@@ -10830,40 +10928,40 @@
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B50" s="349" t="s">
-        <v>336</v>
-      </c>
-      <c r="C50" s="350"/>
-      <c r="D50" s="350"/>
-      <c r="E50" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="F50" s="350" t="s">
-        <v>337</v>
-      </c>
-      <c r="G50" s="366">
-        <v>1</v>
-      </c>
-      <c r="H50" s="350" t="s">
-        <v>343</v>
-      </c>
-      <c r="I50" s="363">
-        <v>1</v>
-      </c>
-      <c r="J50" s="363">
+      <c r="B50" s="333" t="s">
+        <v>333</v>
+      </c>
+      <c r="C50" s="334"/>
+      <c r="D50" s="334"/>
+      <c r="E50" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="F50" s="334" t="s">
+        <v>334</v>
+      </c>
+      <c r="G50" s="350">
+        <v>1</v>
+      </c>
+      <c r="H50" s="334" t="s">
+        <v>340</v>
+      </c>
+      <c r="I50" s="347">
+        <v>1</v>
+      </c>
+      <c r="J50" s="347">
         <v>430</v>
       </c>
-      <c r="K50" s="321"/>
-      <c r="L50" s="363">
+      <c r="K50" s="305"/>
+      <c r="L50" s="347">
         <v>10</v>
       </c>
-      <c r="M50" s="321">
-        <f>J50*L50</f>
+      <c r="M50" s="305">
+        <f t="shared" si="1"/>
         <v>4300</v>
       </c>
       <c r="N50" s="34"/>
-      <c r="O50" s="351" t="s">
-        <v>349</v>
+      <c r="O50" s="335" t="s">
+        <v>346</v>
       </c>
       <c r="P50" s="39" t="s">
         <v>9</v>
@@ -10871,40 +10969,40 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="349" t="s">
-        <v>333</v>
-      </c>
-      <c r="C51" s="350"/>
-      <c r="D51" s="350"/>
-      <c r="E51" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="F51" s="350" t="s">
-        <v>331</v>
-      </c>
-      <c r="G51" s="366">
+      <c r="B51" s="333" t="s">
+        <v>330</v>
+      </c>
+      <c r="C51" s="334"/>
+      <c r="D51" s="334"/>
+      <c r="E51" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="F51" s="334" t="s">
+        <v>328</v>
+      </c>
+      <c r="G51" s="350">
         <v>2</v>
       </c>
-      <c r="H51" s="350" t="s">
-        <v>341</v>
-      </c>
-      <c r="I51" s="363">
-        <v>1</v>
-      </c>
-      <c r="J51" s="363">
+      <c r="H51" s="334" t="s">
+        <v>338</v>
+      </c>
+      <c r="I51" s="347">
+        <v>1</v>
+      </c>
+      <c r="J51" s="347">
         <v>290</v>
       </c>
-      <c r="K51" s="321"/>
-      <c r="L51" s="363">
+      <c r="K51" s="305"/>
+      <c r="L51" s="347">
         <v>20</v>
       </c>
-      <c r="M51" s="321">
-        <f>J51*L51</f>
+      <c r="M51" s="305">
+        <f t="shared" si="1"/>
         <v>5800</v>
       </c>
       <c r="N51" s="34"/>
-      <c r="O51" s="351" t="s">
-        <v>347</v>
+      <c r="O51" s="335" t="s">
+        <v>344</v>
       </c>
       <c r="P51" s="39" t="s">
         <v>9</v>
@@ -10912,40 +11010,40 @@
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B52" s="349" t="s">
-        <v>330</v>
-      </c>
-      <c r="C52" s="350"/>
-      <c r="D52" s="350"/>
-      <c r="E52" s="338" t="s">
-        <v>356</v>
-      </c>
-      <c r="F52" s="350" t="s">
-        <v>331</v>
-      </c>
-      <c r="G52" s="366">
-        <v>1</v>
-      </c>
-      <c r="H52" s="350" t="s">
-        <v>339</v>
-      </c>
-      <c r="I52" s="363">
-        <v>1</v>
-      </c>
-      <c r="J52" s="363">
+      <c r="B52" s="333" t="s">
+        <v>327</v>
+      </c>
+      <c r="C52" s="334"/>
+      <c r="D52" s="334"/>
+      <c r="E52" s="322" t="s">
+        <v>353</v>
+      </c>
+      <c r="F52" s="334" t="s">
+        <v>328</v>
+      </c>
+      <c r="G52" s="350">
+        <v>1</v>
+      </c>
+      <c r="H52" s="334" t="s">
+        <v>336</v>
+      </c>
+      <c r="I52" s="347">
+        <v>1</v>
+      </c>
+      <c r="J52" s="347">
         <v>30</v>
       </c>
-      <c r="K52" s="321"/>
-      <c r="L52" s="363">
+      <c r="K52" s="305"/>
+      <c r="L52" s="347">
         <v>10</v>
       </c>
-      <c r="M52" s="321">
-        <f>J52*L52</f>
+      <c r="M52" s="305">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="N52" s="34"/>
-      <c r="O52" s="351" t="s">
-        <v>345</v>
+      <c r="O52" s="335" t="s">
+        <v>342</v>
       </c>
       <c r="P52" s="39" t="s">
         <v>9</v>
@@ -10953,40 +11051,40 @@
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="352" t="s">
-        <v>334</v>
-      </c>
-      <c r="C53" s="353"/>
-      <c r="D53" s="353"/>
-      <c r="E53" s="354" t="s">
-        <v>356</v>
-      </c>
-      <c r="F53" s="353" t="s">
-        <v>335</v>
-      </c>
-      <c r="G53" s="367">
-        <v>1</v>
-      </c>
-      <c r="H53" s="353" t="s">
-        <v>342</v>
-      </c>
-      <c r="I53" s="364">
+      <c r="B53" s="336" t="s">
+        <v>331</v>
+      </c>
+      <c r="C53" s="337"/>
+      <c r="D53" s="337"/>
+      <c r="E53" s="338" t="s">
+        <v>353</v>
+      </c>
+      <c r="F53" s="337" t="s">
+        <v>332</v>
+      </c>
+      <c r="G53" s="351">
+        <v>1</v>
+      </c>
+      <c r="H53" s="337" t="s">
+        <v>339</v>
+      </c>
+      <c r="I53" s="348">
         <v>10</v>
       </c>
-      <c r="J53" s="364">
+      <c r="J53" s="348">
         <v>100</v>
       </c>
-      <c r="K53" s="365"/>
-      <c r="L53" s="364">
+      <c r="K53" s="349"/>
+      <c r="L53" s="348">
         <v>10</v>
       </c>
-      <c r="M53" s="365">
-        <f>J53*L53</f>
+      <c r="M53" s="349">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="N53" s="36"/>
-      <c r="O53" s="355" t="s">
-        <v>348</v>
+      <c r="O53" s="339" t="s">
+        <v>345</v>
       </c>
       <c r="P53" s="8" t="s">
         <v>9</v>
@@ -10999,7 +11097,7 @@
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
       <c r="F54" s="55"/>
-      <c r="G54" s="368"/>
+      <c r="G54" s="352"/>
       <c r="H54" s="55"/>
       <c r="I54" s="55"/>
       <c r="J54" s="55"/>
@@ -11016,7 +11114,7 @@
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
       <c r="F55" s="55"/>
-      <c r="G55" s="368"/>
+      <c r="G55" s="352"/>
       <c r="H55" s="55"/>
       <c r="I55" s="55"/>
       <c r="J55" s="55"/>
@@ -11031,7 +11129,7 @@
   <sortState ref="B48:W53">
     <sortCondition ref="B48:B53"/>
   </sortState>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>

--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060" activeTab="8"/>
+    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="개발비" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="368">
   <si>
     <t>Vendor</t>
   </si>
@@ -340,10 +340,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Touch Program</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>작업기간</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -401,10 +397,6 @@
   </si>
   <si>
     <t>M/E</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette 2차</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1365,6 +1357,35 @@
   <si>
     <t>Transformer V1.0 부품 구매</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금액</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch Program</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proto-type</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch PC - New</t>
+  </si>
+  <si>
+    <t>Touch PC - WIFI</t>
+  </si>
+  <si>
+    <t>Touch PC - PC Program</t>
   </si>
 </sst>
 </file>
@@ -1880,7 +1901,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -2390,6 +2411,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2673,7 +2763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="372">
+  <cellXfs count="396">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -2931,7 +3021,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2939,15 +3028,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3493,49 +3574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="29" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3544,6 +3583,107 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="36" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="36" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="29" fillId="36" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="96">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3648,9 +3788,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3943,456 +4080,553 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:O34"/>
+  <dimension ref="B2:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.625" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
     <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="5"/>
-      <c r="G6" s="137"/>
-    </row>
-    <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="358" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="356"/>
-      <c r="D9" s="353" t="s">
+    <row r="2" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="351" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="352"/>
+      <c r="D3" s="355" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="355"/>
+      <c r="F3" s="355"/>
+      <c r="G3" s="352" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="352" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="381" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="386" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="364"/>
+      <c r="C4" s="365"/>
+      <c r="D4" s="379" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="353"/>
-      <c r="F9" s="353"/>
-      <c r="G9" s="356" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="356" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="354" t="s">
+      <c r="E4" s="379" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="379" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="365"/>
+      <c r="H4" s="365"/>
+      <c r="I4" s="382"/>
+      <c r="J4" s="387"/>
+    </row>
+    <row r="5" spans="2:15" s="344" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="351" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="392" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" s="393">
+        <v>1</v>
+      </c>
+      <c r="E5" s="366">
+        <f t="shared" ref="E5:E14" si="0">D5*20</f>
+        <v>20</v>
+      </c>
+      <c r="F5" s="366">
+        <f t="shared" ref="F5:F14" si="1">E5*3</f>
+        <v>60</v>
+      </c>
+      <c r="G5" s="367">
+        <v>25000</v>
+      </c>
+      <c r="H5" s="366">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="394">
+        <f t="shared" ref="I5:I14" si="2">F5*G5*H5</f>
+        <v>1200000</v>
+      </c>
+      <c r="J5" s="395">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="353"/>
+      <c r="C6" s="380" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" s="373">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="374">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F6" s="374">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G6" s="375">
+        <v>25000</v>
+      </c>
+      <c r="H6" s="374">
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="384">
+        <f t="shared" si="2"/>
+        <v>600000</v>
+      </c>
+      <c r="J6" s="388"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="351" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" s="138" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="360"/>
-      <c r="C10" s="357"/>
-      <c r="D10" s="139" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="139" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="357"/>
-      <c r="H10" s="357"/>
-      <c r="I10" s="355"/>
-    </row>
-    <row r="11" spans="2:14" s="138" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="361" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="362"/>
-      <c r="D11" s="141">
-        <v>0.25</v>
-      </c>
-      <c r="E11" s="23">
-        <f t="shared" ref="E11:E17" si="0">D11*20</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="23">
-        <f t="shared" ref="F11:F17" si="1">E11*3</f>
-        <v>15</v>
-      </c>
-      <c r="G11" s="142">
-        <v>30000</v>
-      </c>
-      <c r="H11" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="I11" s="143">
-        <f t="shared" ref="I11:I17" si="2">F11*G11*H11</f>
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="358" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="140" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="141">
+      <c r="C7" s="139" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="376">
         <v>1.5</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E7" s="377">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F7" s="377">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="G12" s="142">
-        <v>30000</v>
-      </c>
-      <c r="H12" s="23">
+      <c r="G7" s="378">
+        <v>25000</v>
+      </c>
+      <c r="H7" s="377">
         <v>0.8</v>
       </c>
-      <c r="I12" s="143">
+      <c r="I7" s="383">
         <f t="shared" si="2"/>
-        <v>2160000</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="J7" s="389"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="11">
         <v>4300000</v>
       </c>
-      <c r="M12" s="11">
-        <f>L12/20</f>
+      <c r="M7" s="11">
+        <f>L7/20</f>
         <v>215000</v>
       </c>
-      <c r="N12" s="11">
-        <f>M12/8</f>
+      <c r="N7" s="11">
+        <f>M7/8</f>
         <v>26875</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="359"/>
-      <c r="C13" s="144" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="145">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="358"/>
+      <c r="C8" s="368" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="369">
         <v>0.5</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E8" s="370">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F8" s="370">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G13" s="3">
-        <v>30000</v>
-      </c>
-      <c r="H13" s="19">
+      <c r="G8" s="371">
+        <v>25000</v>
+      </c>
+      <c r="H8" s="370">
         <v>0.8</v>
       </c>
-      <c r="I13" s="146">
+      <c r="I8" s="385">
         <f t="shared" si="2"/>
-        <v>720000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="360"/>
-      <c r="C14" s="147" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="148">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
+        <v>600000</v>
+      </c>
+      <c r="J8" s="390"/>
+    </row>
+    <row r="9" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="353"/>
+      <c r="C9" s="372" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="373">
+        <v>1</v>
+      </c>
+      <c r="E9" s="374">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F9" s="374">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G14" s="4">
-        <v>30000</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G9" s="375">
+        <v>25000</v>
+      </c>
+      <c r="H9" s="374">
         <v>0.8</v>
       </c>
-      <c r="I14" s="149">
+      <c r="I9" s="384">
         <f t="shared" si="2"/>
-        <v>1440000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="358" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="140" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="141">
-        <v>4</v>
-      </c>
-      <c r="E15" s="23">
+        <v>1200000</v>
+      </c>
+      <c r="J9" s="391"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="351" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="139" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" s="376">
+        <v>2</v>
+      </c>
+      <c r="E10" s="377">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="F15" s="23">
+        <v>40</v>
+      </c>
+      <c r="F10" s="377">
         <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="G15" s="142">
-        <v>30000</v>
-      </c>
-      <c r="H15" s="23">
+        <v>120</v>
+      </c>
+      <c r="G10" s="378">
+        <v>25000</v>
+      </c>
+      <c r="H10" s="377">
         <v>0.8</v>
       </c>
-      <c r="I15" s="143">
+      <c r="I10" s="383">
         <f t="shared" si="2"/>
-        <v>5760000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="359"/>
-      <c r="C16" s="144" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="145">
+        <v>2400000</v>
+      </c>
+      <c r="J10" s="389"/>
+    </row>
+    <row r="11" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="358"/>
+      <c r="C11" s="368" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" s="369">
+        <v>1</v>
+      </c>
+      <c r="E11" s="370">
+        <f t="shared" ref="E11:E12" si="3">D11*20</f>
+        <v>20</v>
+      </c>
+      <c r="F11" s="370">
+        <f t="shared" ref="F11:F12" si="4">E11*3</f>
+        <v>60</v>
+      </c>
+      <c r="G11" s="371">
+        <v>25000</v>
+      </c>
+      <c r="H11" s="370">
+        <v>0.8</v>
+      </c>
+      <c r="I11" s="385">
+        <f t="shared" ref="I11:I12" si="5">F11*G11*H11</f>
+        <v>1200000</v>
+      </c>
+      <c r="J11" s="390"/>
+    </row>
+    <row r="12" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="358"/>
+      <c r="C12" s="368" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" s="369">
+        <v>1</v>
+      </c>
+      <c r="E12" s="370">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="F12" s="370">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G12" s="371">
+        <v>25000</v>
+      </c>
+      <c r="H12" s="370">
+        <v>0.8</v>
+      </c>
+      <c r="I12" s="385">
+        <f t="shared" si="5"/>
+        <v>1200000</v>
+      </c>
+      <c r="J12" s="390"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="358"/>
+      <c r="C13" s="368" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="369">
         <v>0</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E13" s="370">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F13" s="370">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="3">
-        <v>30000</v>
-      </c>
-      <c r="H16" s="19">
+      <c r="G13" s="371">
+        <v>25000</v>
+      </c>
+      <c r="H13" s="370">
         <v>0.8</v>
       </c>
-      <c r="I16" s="146">
+      <c r="I13" s="385">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="360"/>
-      <c r="C17" s="147" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="148">
+      <c r="J13" s="390"/>
+    </row>
+    <row r="14" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="353"/>
+      <c r="C14" s="372" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="373">
         <v>0.5</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E14" s="374">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F14" s="374">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G14" s="375">
+        <v>25000</v>
+      </c>
+      <c r="H14" s="374">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="384">
+        <f t="shared" si="2"/>
+        <v>600000</v>
+      </c>
+      <c r="J14" s="391"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G16" s="11"/>
+      <c r="L16">
+        <v>22000</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <v>20</v>
+      </c>
+      <c r="O16" s="5">
+        <f>L16*M16*N16</f>
+        <v>3520000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="351" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="352"/>
+      <c r="D19" s="355" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="355"/>
+      <c r="F19" s="355"/>
+      <c r="G19" s="352" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="352" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="356" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="353"/>
+      <c r="C20" s="354"/>
+      <c r="D20" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="354"/>
+      <c r="H20" s="354"/>
+      <c r="I20" s="357"/>
+    </row>
+    <row r="21" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="349" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="350"/>
+      <c r="D21" s="141">
+        <v>1</v>
+      </c>
+      <c r="E21" s="104">
+        <f>D21*20</f>
+        <v>20</v>
+      </c>
+      <c r="F21" s="104">
+        <f>E21*3.5</f>
+        <v>70</v>
+      </c>
+      <c r="G21" s="142">
         <v>30000</v>
       </c>
-      <c r="H17" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I17" s="149">
-        <f t="shared" si="2"/>
-        <v>720000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="G19" s="11"/>
-      <c r="L19">
+      <c r="H21" s="104">
+        <v>1</v>
+      </c>
+      <c r="I21" s="143">
+        <f>F21*G21*H21</f>
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="351" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="352"/>
+      <c r="D24" s="355" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="355"/>
+      <c r="F24" s="355"/>
+      <c r="G24" s="352" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="352" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="356" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="353"/>
+      <c r="C25" s="354"/>
+      <c r="D25" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="138" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="354"/>
+      <c r="H25" s="354"/>
+      <c r="I25" s="357"/>
+    </row>
+    <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="349" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="350"/>
+      <c r="D26" s="141">
+        <v>3</v>
+      </c>
+      <c r="E26" s="104">
+        <f>D26*20</f>
+        <v>60</v>
+      </c>
+      <c r="F26" s="104">
+        <f>E26*3</f>
+        <v>180</v>
+      </c>
+      <c r="G26" s="142">
         <v>22000</v>
       </c>
-      <c r="M19">
-        <v>8</v>
-      </c>
-      <c r="N19">
-        <v>20</v>
-      </c>
-      <c r="O19" s="5">
-        <f>L19*M19*N19</f>
-        <v>3520000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="358" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="356"/>
-      <c r="D22" s="353" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="353"/>
-      <c r="F22" s="353"/>
-      <c r="G22" s="356" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="356" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="354" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="360"/>
-      <c r="C23" s="357"/>
-      <c r="D23" s="139" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="139" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="357"/>
-      <c r="H23" s="357"/>
-      <c r="I23" s="355"/>
-    </row>
-    <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="361" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="362"/>
-      <c r="D24" s="150">
-        <v>1</v>
-      </c>
-      <c r="E24" s="104">
-        <f>D24*20</f>
-        <v>20</v>
-      </c>
-      <c r="F24" s="104">
-        <f>E24*3.5</f>
-        <v>70</v>
-      </c>
-      <c r="G24" s="151">
-        <v>30000</v>
-      </c>
-      <c r="H24" s="104">
-        <v>1</v>
-      </c>
-      <c r="I24" s="152">
-        <f>F24*G24*H24</f>
-        <v>2100000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="358" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="356"/>
-      <c r="D27" s="353" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="353"/>
-      <c r="F27" s="353"/>
-      <c r="G27" s="356" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="356" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="354" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="360"/>
-      <c r="C28" s="357"/>
-      <c r="D28" s="139" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="139" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="357"/>
-      <c r="H28" s="357"/>
-      <c r="I28" s="355"/>
-    </row>
-    <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="361" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="362"/>
-      <c r="D29" s="150">
-        <v>3</v>
-      </c>
-      <c r="E29" s="104">
-        <f>D29*20</f>
-        <v>60</v>
-      </c>
-      <c r="F29" s="104">
-        <f>E29*3</f>
+      <c r="H26" s="104">
+        <v>1</v>
+      </c>
+      <c r="I26" s="143">
+        <f>F26*G26*H26</f>
+        <v>3960000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="11">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I30">
         <v>180</v>
       </c>
-      <c r="G29" s="151">
-        <v>22000</v>
-      </c>
-      <c r="H29" s="104">
-        <v>1</v>
-      </c>
-      <c r="I29" s="152">
-        <f>F29*G29*H29</f>
-        <v>3960000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I32" s="11">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I33">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I34" s="136">
-        <f>I32/I33</f>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="136">
+        <f>I29/I30</f>
         <v>22222.222222222223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B9:C10"/>
+  <mergeCells count="21">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4423,7 +4657,7 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" s="56" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4433,146 +4667,146 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="56" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="56" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="270" t="s">
-        <v>302</v>
-      </c>
-      <c r="D5" s="271" t="s">
+      <c r="C5" s="261" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="262" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="262" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" s="263" t="s">
         <v>298</v>
       </c>
-      <c r="E5" s="271" t="s">
-        <v>299</v>
-      </c>
-      <c r="F5" s="272" t="s">
+      <c r="H5" s="261" t="s">
         <v>300</v>
       </c>
-      <c r="H5" s="270" t="s">
-        <v>302</v>
-      </c>
-      <c r="I5" s="271" t="s">
+      <c r="I5" s="262" t="s">
+        <v>296</v>
+      </c>
+      <c r="J5" s="262" t="s">
+        <v>297</v>
+      </c>
+      <c r="K5" s="263" t="s">
         <v>298</v>
       </c>
-      <c r="J5" s="271" t="s">
-        <v>299</v>
-      </c>
-      <c r="K5" s="272" t="s">
-        <v>300</v>
-      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="267" t="s">
-        <v>296</v>
-      </c>
-      <c r="D6" s="142">
+      <c r="C6" s="258" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" s="140">
         <v>169</v>
       </c>
-      <c r="E6" s="142">
+      <c r="E6" s="140">
         <v>630</v>
       </c>
-      <c r="F6" s="212">
+      <c r="F6" s="203">
         <f>D6*E6</f>
         <v>106470</v>
       </c>
-      <c r="H6" s="267" t="s">
-        <v>296</v>
-      </c>
-      <c r="I6" s="142">
+      <c r="H6" s="258" t="s">
+        <v>294</v>
+      </c>
+      <c r="I6" s="140">
         <v>169</v>
       </c>
-      <c r="J6" s="142">
+      <c r="J6" s="140">
         <v>250</v>
       </c>
-      <c r="K6" s="212">
+      <c r="K6" s="203">
         <f>I6*J6</f>
         <v>42250</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="268" t="s">
-        <v>295</v>
-      </c>
-      <c r="D7" s="261">
+      <c r="C7" s="259" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="252">
         <v>15</v>
       </c>
-      <c r="E7" s="263" t="s">
-        <v>305</v>
-      </c>
-      <c r="F7" s="262">
+      <c r="E7" s="254" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="253">
         <f>F6*D7/100</f>
         <v>15970.5</v>
       </c>
-      <c r="H7" s="268" t="s">
-        <v>295</v>
-      </c>
-      <c r="I7" s="261">
+      <c r="H7" s="259" t="s">
+        <v>293</v>
+      </c>
+      <c r="I7" s="252">
         <v>0</v>
       </c>
-      <c r="J7" s="263" t="s">
-        <v>305</v>
-      </c>
-      <c r="K7" s="262">
+      <c r="J7" s="254" t="s">
+        <v>303</v>
+      </c>
+      <c r="K7" s="253">
         <f>K6*I7/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="269" t="s">
-        <v>307</v>
-      </c>
-      <c r="D8" s="264">
+      <c r="C8" s="260" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="255">
         <v>15</v>
       </c>
-      <c r="E8" s="265" t="s">
-        <v>306</v>
-      </c>
-      <c r="F8" s="266">
+      <c r="E8" s="256" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" s="257">
         <f>F6*D8/100</f>
         <v>15970.5</v>
       </c>
-      <c r="H8" s="269" t="s">
-        <v>307</v>
-      </c>
-      <c r="I8" s="264">
+      <c r="H8" s="260" t="s">
+        <v>305</v>
+      </c>
+      <c r="I8" s="255">
         <v>0</v>
       </c>
-      <c r="J8" s="265" t="s">
-        <v>306</v>
-      </c>
-      <c r="K8" s="266">
+      <c r="J8" s="256" t="s">
+        <v>304</v>
+      </c>
+      <c r="K8" s="257">
         <f>K6*I8/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="361" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" s="362"/>
-      <c r="E9" s="362"/>
-      <c r="F9" s="275">
+      <c r="C9" s="349" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="350"/>
+      <c r="E9" s="350"/>
+      <c r="F9" s="266">
         <f>SUM(F6:F8)</f>
         <v>138411</v>
       </c>
-      <c r="H9" s="361" t="s">
-        <v>301</v>
-      </c>
-      <c r="I9" s="362"/>
-      <c r="J9" s="362"/>
-      <c r="K9" s="275">
+      <c r="H9" s="349" t="s">
+        <v>299</v>
+      </c>
+      <c r="I9" s="350"/>
+      <c r="J9" s="350"/>
+      <c r="K9" s="266">
         <f>SUM(K6:K8)</f>
         <v>42250</v>
       </c>
@@ -4586,39 +4820,39 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="273" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" s="274" t="s">
-        <v>303</v>
+      <c r="C11" s="264" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="265" t="s">
+        <v>301</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F11" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="H11" s="264" t="s">
         <v>300</v>
       </c>
-      <c r="H11" s="273" t="s">
-        <v>302</v>
-      </c>
-      <c r="I11" s="274" t="s">
-        <v>303</v>
+      <c r="I11" s="265" t="s">
+        <v>301</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="276" t="s">
-        <v>296</v>
-      </c>
-      <c r="D12" s="142">
+      <c r="C12" s="267" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="140">
         <v>4</v>
       </c>
-      <c r="E12" s="142">
+      <c r="E12" s="140">
         <f>F9</f>
         <v>138411</v>
       </c>
@@ -4626,13 +4860,13 @@
         <f>D12*E12</f>
         <v>553644</v>
       </c>
-      <c r="H12" s="276" t="s">
-        <v>296</v>
-      </c>
-      <c r="I12" s="142">
+      <c r="H12" s="267" t="s">
+        <v>294</v>
+      </c>
+      <c r="I12" s="140">
         <v>4</v>
       </c>
-      <c r="J12" s="142">
+      <c r="J12" s="140">
         <f>K9</f>
         <v>42250</v>
       </c>
@@ -4642,8 +4876,8 @@
       </c>
     </row>
     <row r="13" spans="2:11" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="269" t="s">
-        <v>311</v>
+      <c r="C13" s="260" t="s">
+        <v>309</v>
       </c>
       <c r="D13" s="4">
         <v>4</v>
@@ -4651,12 +4885,12 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="277">
+      <c r="F13" s="268">
         <f>D13*E13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="269" t="s">
-        <v>311</v>
+      <c r="H13" s="260" t="s">
+        <v>309</v>
       </c>
       <c r="I13" s="4">
         <v>4</v>
@@ -4664,34 +4898,34 @@
       <c r="J13" s="4">
         <v>0</v>
       </c>
-      <c r="K13" s="277">
+      <c r="K13" s="268">
         <f>I13*J13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="361" t="s">
-        <v>304</v>
-      </c>
-      <c r="D14" s="362"/>
-      <c r="E14" s="363">
+      <c r="C14" s="349" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="350"/>
+      <c r="E14" s="359">
         <f>F12</f>
         <v>553644</v>
       </c>
-      <c r="F14" s="364"/>
-      <c r="H14" s="361" t="s">
-        <v>304</v>
-      </c>
-      <c r="I14" s="362"/>
-      <c r="J14" s="363">
+      <c r="F14" s="360"/>
+      <c r="H14" s="349" t="s">
+        <v>302</v>
+      </c>
+      <c r="I14" s="350"/>
+      <c r="J14" s="359">
         <f>K12</f>
         <v>169000</v>
       </c>
-      <c r="K14" s="364"/>
+      <c r="K14" s="360"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="365"/>
-      <c r="D15" s="365"/>
+      <c r="C15" s="361"/>
+      <c r="D15" s="361"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
@@ -4706,71 +4940,71 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="270" t="s">
-        <v>302</v>
-      </c>
-      <c r="D18" s="271" t="s">
+      <c r="C18" s="261" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" s="262" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" s="262" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" s="263" t="s">
         <v>298</v>
       </c>
-      <c r="E18" s="271" t="s">
-        <v>299</v>
-      </c>
-      <c r="F18" s="272" t="s">
-        <v>300</v>
-      </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="267" t="s">
-        <v>308</v>
-      </c>
-      <c r="D19" s="142">
+      <c r="C19" s="258" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" s="140">
         <v>52</v>
       </c>
-      <c r="E19" s="142">
+      <c r="E19" s="140">
         <v>670</v>
       </c>
-      <c r="F19" s="212">
+      <c r="F19" s="203">
         <f>D19*E19</f>
         <v>34840</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="268" t="s">
-        <v>295</v>
-      </c>
-      <c r="D20" s="261">
+      <c r="C20" s="259" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" s="252">
         <v>15</v>
       </c>
-      <c r="E20" s="263" t="s">
-        <v>305</v>
-      </c>
-      <c r="F20" s="262">
+      <c r="E20" s="254" t="s">
+        <v>303</v>
+      </c>
+      <c r="F20" s="253">
         <f>F19*D20/100</f>
         <v>5226</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="269" t="s">
-        <v>307</v>
-      </c>
-      <c r="D21" s="264">
+      <c r="C21" s="260" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="255">
         <v>15</v>
       </c>
-      <c r="E21" s="265" t="s">
-        <v>306</v>
-      </c>
-      <c r="F21" s="266">
+      <c r="E21" s="256" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21" s="257">
         <f>F19*D21/100</f>
         <v>5226</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="361" t="s">
-        <v>301</v>
-      </c>
-      <c r="D22" s="362"/>
-      <c r="E22" s="362"/>
-      <c r="F22" s="275">
+      <c r="C22" s="349" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22" s="350"/>
+      <c r="E22" s="350"/>
+      <c r="F22" s="266">
         <f>SUM(F19:F21)</f>
         <v>45292</v>
       </c>
@@ -4781,27 +5015,27 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="273" t="s">
-        <v>302</v>
-      </c>
-      <c r="D24" s="274" t="s">
-        <v>303</v>
+      <c r="C24" s="264" t="s">
+        <v>300</v>
+      </c>
+      <c r="D24" s="265" t="s">
+        <v>301</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="267" t="s">
-        <v>308</v>
-      </c>
-      <c r="D25" s="142">
+      <c r="C25" s="258" t="s">
+        <v>306</v>
+      </c>
+      <c r="D25" s="140">
         <v>4</v>
       </c>
-      <c r="E25" s="142">
+      <c r="E25" s="140">
         <f>F22</f>
         <v>45292</v>
       </c>
@@ -4811,8 +5045,8 @@
       </c>
     </row>
     <row r="26" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="269" t="s">
-        <v>309</v>
+      <c r="C26" s="260" t="s">
+        <v>307</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -4820,14 +5054,14 @@
       <c r="E26" s="4">
         <v>110000</v>
       </c>
-      <c r="F26" s="277">
+      <c r="F26" s="268">
         <f>D26*E26</f>
         <v>110000</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="269" t="s">
-        <v>311</v>
+      <c r="C27" s="260" t="s">
+        <v>309</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
@@ -4835,22 +5069,22 @@
       <c r="E27" s="4">
         <v>0</v>
       </c>
-      <c r="F27" s="277">
+      <c r="F27" s="268">
         <f>D27*E27</f>
         <v>0</v>
       </c>
       <c r="H27" s="56"/>
     </row>
     <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="361" t="s">
-        <v>304</v>
-      </c>
-      <c r="D28" s="362"/>
-      <c r="E28" s="363">
+      <c r="C28" s="349" t="s">
+        <v>302</v>
+      </c>
+      <c r="D28" s="350"/>
+      <c r="E28" s="359">
         <f>SUM(F25:F27)</f>
         <v>291168</v>
       </c>
-      <c r="F28" s="364"/>
+      <c r="F28" s="360"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4881,210 +5115,210 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.75" style="205" customWidth="1"/>
-    <col min="3" max="3" width="35.75" style="203" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="196" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="194" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.5" style="5" customWidth="1"/>
     <col min="6" max="6" width="55.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="207" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="204">
+      <c r="C3" s="198" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="195">
         <f>SUM(D5:D25)</f>
         <v>1570330</v>
       </c>
-      <c r="E3" s="204"/>
-    </row>
-    <row r="4" spans="2:6" s="206" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="208" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="209" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="301" t="s">
-        <v>357</v>
-      </c>
-      <c r="E4" s="301" t="s">
+      <c r="E3" s="195"/>
+    </row>
+    <row r="4" spans="2:6" s="197" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="199" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="200" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="292" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4" s="292" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" s="345" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="201">
+        <v>43075</v>
+      </c>
+      <c r="C5" s="202" t="s">
         <v>358</v>
       </c>
-      <c r="F4" s="368" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="210">
-        <v>43075</v>
-      </c>
-      <c r="C5" s="211" t="s">
-        <v>360</v>
-      </c>
-      <c r="D5" s="142">
+      <c r="D5" s="140">
         <v>62080</v>
       </c>
-      <c r="E5" s="142"/>
-      <c r="F5" s="369"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="346"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="213">
+      <c r="B6" s="204">
         <v>43136</v>
       </c>
-      <c r="C6" s="214" t="s">
-        <v>361</v>
+      <c r="C6" s="205" t="s">
+        <v>359</v>
       </c>
       <c r="D6" s="3">
         <v>81880</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="370"/>
+      <c r="F6" s="347"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="213">
+      <c r="B7" s="204">
         <v>43139</v>
       </c>
-      <c r="C7" s="214" t="s">
-        <v>361</v>
+      <c r="C7" s="205" t="s">
+        <v>359</v>
       </c>
       <c r="D7" s="3">
         <v>42900</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="370"/>
+      <c r="F7" s="347"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="213">
+      <c r="B8" s="204">
         <v>43143</v>
       </c>
-      <c r="C8" s="214" t="s">
-        <v>359</v>
+      <c r="C8" s="205" t="s">
+        <v>357</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>830000</v>
       </c>
-      <c r="F8" s="370"/>
+      <c r="F8" s="347"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="213">
+      <c r="B9" s="204">
         <v>43173</v>
       </c>
-      <c r="C9" s="214" t="s">
-        <v>202</v>
+      <c r="C9" s="205" t="s">
+        <v>200</v>
       </c>
       <c r="D9" s="3">
         <v>514080</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="370" t="s">
-        <v>204</v>
+      <c r="F9" s="347" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="213">
+      <c r="B10" s="204">
         <v>43193</v>
       </c>
-      <c r="C10" s="214" t="s">
-        <v>293</v>
+      <c r="C10" s="205" t="s">
+        <v>291</v>
       </c>
       <c r="D10" s="3">
         <v>869390</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="370" t="s">
-        <v>294</v>
+      <c r="F10" s="347" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="213">
+      <c r="B11" s="204">
         <v>43210</v>
       </c>
-      <c r="C11" s="214" t="s">
-        <v>356</v>
+      <c r="C11" s="205" t="s">
+        <v>354</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
         <v>620000</v>
       </c>
-      <c r="F11" s="370"/>
+      <c r="F11" s="347"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="213"/>
-      <c r="C12" s="214"/>
+      <c r="B12" s="204"/>
+      <c r="C12" s="205"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="370"/>
+      <c r="F12" s="347"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="213"/>
-      <c r="C13" s="214"/>
+      <c r="B13" s="204"/>
+      <c r="C13" s="205"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="370"/>
+      <c r="F13" s="347"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="213"/>
-      <c r="C14" s="214"/>
+      <c r="B14" s="204"/>
+      <c r="C14" s="205"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="370"/>
+      <c r="F14" s="347"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="213"/>
-      <c r="C15" s="214"/>
+      <c r="B15" s="204"/>
+      <c r="C15" s="205"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="370"/>
+      <c r="F15" s="347"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="213"/>
-      <c r="C16" s="214"/>
+      <c r="B16" s="204"/>
+      <c r="C16" s="205"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="370"/>
+      <c r="F16" s="347"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="213"/>
-      <c r="C17" s="214"/>
+      <c r="B17" s="204"/>
+      <c r="C17" s="205"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="370"/>
+      <c r="F17" s="347"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="213"/>
-      <c r="C18" s="214"/>
+      <c r="B18" s="204"/>
+      <c r="C18" s="205"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="370"/>
+      <c r="F18" s="347"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="213"/>
-      <c r="C19" s="214"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="205"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="370"/>
+      <c r="F19" s="347"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="213"/>
-      <c r="C20" s="214"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="205"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="370"/>
+      <c r="F20" s="347"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="213"/>
-      <c r="C21" s="214"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="205"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="370"/>
+      <c r="F21" s="347"/>
     </row>
     <row r="22" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="215"/>
-      <c r="C22" s="216"/>
+      <c r="B22" s="206"/>
+      <c r="C22" s="207"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="371"/>
+      <c r="F22" s="348"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -5220,8 +5454,8 @@
       <c r="C6" s="22">
         <v>2</v>
       </c>
-      <c r="D6" s="295" t="s">
-        <v>349</v>
+      <c r="D6" s="286" t="s">
+        <v>347</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>9</v>
@@ -5756,61 +5990,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="155"/>
-    <col min="2" max="2" width="6" style="155" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="156" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="155" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.625" style="155" customWidth="1"/>
-    <col min="6" max="7" width="9" style="155"/>
-    <col min="8" max="8" width="9.375" style="155" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9" style="155"/>
-    <col min="13" max="13" width="9.875" style="155" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="155" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" style="155" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="155"/>
+    <col min="1" max="1" width="9" style="146"/>
+    <col min="2" max="2" width="6" style="146" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="147" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="146" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.625" style="146" customWidth="1"/>
+    <col min="6" max="7" width="9" style="146"/>
+    <col min="8" max="8" width="9.375" style="146" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9" style="146"/>
+    <col min="13" max="13" width="9.875" style="146" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="146" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5" style="146" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="153" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="154"/>
+    <row r="1" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="145"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J2" s="121" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="153" t="s">
-        <v>185</v>
+      <c r="B3" s="144" t="s">
+        <v>183</v>
       </c>
       <c r="J3" s="121">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="157"/>
-      <c r="B4" s="158" t="s">
+      <c r="A4" s="148"/>
+      <c r="B4" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="159" t="s">
+      <c r="E4" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="159" t="s">
+      <c r="F4" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="159" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="160" t="s">
+      <c r="G4" s="150" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="161" t="s">
-        <v>104</v>
+      <c r="I4" s="152" t="s">
+        <v>102</v>
       </c>
       <c r="J4" s="118" t="s">
         <v>60</v>
@@ -5825,979 +6059,979 @@
         <v>62</v>
       </c>
       <c r="N4" s="119" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="153">
+        <v>15</v>
+      </c>
+      <c r="C5" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="154" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="162">
-        <v>15</v>
-      </c>
-      <c r="C5" s="164" t="s">
+      <c r="E5" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="163" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="163" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="163">
-        <v>1</v>
-      </c>
-      <c r="G5" s="163">
+      <c r="F5" s="154">
+        <v>1</v>
+      </c>
+      <c r="G5" s="154">
         <v>520</v>
       </c>
-      <c r="H5" s="165">
+      <c r="H5" s="156">
         <f t="shared" ref="H5:H14" si="0">F5*G5</f>
         <v>520</v>
       </c>
-      <c r="I5" s="170">
+      <c r="I5" s="161">
         <v>380</v>
       </c>
       <c r="J5" s="125">
         <f t="shared" ref="J5:J25" si="1">F5*J$3</f>
         <v>20</v>
       </c>
-      <c r="K5" s="163">
-        <v>1</v>
-      </c>
-      <c r="L5" s="163">
+      <c r="K5" s="154">
+        <v>1</v>
+      </c>
+      <c r="L5" s="154">
         <v>20</v>
       </c>
-      <c r="M5" s="175">
+      <c r="M5" s="166">
         <f t="shared" ref="M5:M11" si="2">I5*L5</f>
         <v>7600</v>
       </c>
-      <c r="N5" s="172" t="s">
+      <c r="N5" s="163" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="157">
+        <v>16</v>
+      </c>
+      <c r="C6" s="159" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="158" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="166">
-        <v>16</v>
-      </c>
-      <c r="C6" s="168" t="s">
+      <c r="E6" s="158" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="167" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="167" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="167">
-        <v>1</v>
-      </c>
-      <c r="G6" s="167">
+      <c r="F6" s="158">
+        <v>1</v>
+      </c>
+      <c r="G6" s="158">
         <v>200</v>
       </c>
-      <c r="H6" s="169">
+      <c r="H6" s="160">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I6" s="173">
+      <c r="I6" s="164">
         <v>200</v>
       </c>
-      <c r="J6" s="174">
+      <c r="J6" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K6" s="167">
+      <c r="K6" s="158">
         <v>10</v>
       </c>
-      <c r="L6" s="167">
+      <c r="L6" s="158">
         <v>20</v>
       </c>
-      <c r="M6" s="175">
+      <c r="M6" s="166">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="N6" s="176" t="s">
-        <v>113</v>
+      <c r="N6" s="167" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="166">
+      <c r="B7" s="157">
         <v>18</v>
       </c>
-      <c r="C7" s="168" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="167" t="s">
+      <c r="C7" s="159" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="167" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="167">
-        <v>1</v>
-      </c>
-      <c r="G7" s="167">
+      <c r="E7" s="158" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="158">
+        <v>1</v>
+      </c>
+      <c r="G7" s="158">
         <v>380</v>
       </c>
-      <c r="H7" s="169">
+      <c r="H7" s="160">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="I7" s="173">
+      <c r="I7" s="164">
         <v>380</v>
       </c>
-      <c r="J7" s="174">
+      <c r="J7" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K7" s="167">
+      <c r="K7" s="158">
         <v>10</v>
       </c>
-      <c r="L7" s="167">
+      <c r="L7" s="158">
         <v>10</v>
       </c>
-      <c r="M7" s="175">
+      <c r="M7" s="166">
         <f t="shared" si="2"/>
         <v>3800</v>
       </c>
-      <c r="N7" s="176" t="s">
+      <c r="N7" s="167" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="157">
+        <v>19</v>
+      </c>
+      <c r="C8" s="159" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="158" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="166">
-        <v>19</v>
-      </c>
-      <c r="C8" s="168" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="167" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="167" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="167">
-        <v>1</v>
-      </c>
-      <c r="G8" s="167">
+      <c r="F8" s="158">
+        <v>1</v>
+      </c>
+      <c r="G8" s="158">
         <v>110</v>
       </c>
-      <c r="H8" s="169">
+      <c r="H8" s="160">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="I8" s="173">
+      <c r="I8" s="164">
         <v>110</v>
       </c>
-      <c r="J8" s="174">
+      <c r="J8" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K8" s="167">
+      <c r="K8" s="158">
         <v>10</v>
       </c>
-      <c r="L8" s="167">
+      <c r="L8" s="158">
         <v>20</v>
       </c>
-      <c r="M8" s="175">
+      <c r="M8" s="166">
         <f t="shared" si="2"/>
         <v>2200</v>
       </c>
-      <c r="N8" s="176" t="s">
+      <c r="N8" s="167" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="157">
+        <v>20</v>
+      </c>
+      <c r="C9" s="159" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="158" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="166">
-        <v>20</v>
-      </c>
-      <c r="C9" s="168" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="167" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="167">
-        <v>1</v>
-      </c>
-      <c r="G9" s="167">
+      <c r="F9" s="158">
+        <v>1</v>
+      </c>
+      <c r="G9" s="158">
         <v>220</v>
       </c>
-      <c r="H9" s="169">
+      <c r="H9" s="160">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="I9" s="173">
+      <c r="I9" s="164">
         <v>220</v>
       </c>
-      <c r="J9" s="174">
+      <c r="J9" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K9" s="167">
+      <c r="K9" s="158">
         <v>10</v>
       </c>
-      <c r="L9" s="167">
+      <c r="L9" s="158">
         <v>20</v>
       </c>
-      <c r="M9" s="175">
+      <c r="M9" s="166">
         <f t="shared" si="2"/>
         <v>4400</v>
       </c>
-      <c r="N9" s="176" t="s">
+      <c r="N9" s="167" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="157">
+        <v>21</v>
+      </c>
+      <c r="C10" s="159" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="158" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="166">
-        <v>21</v>
-      </c>
-      <c r="C10" s="168" t="s">
+      <c r="E10" s="158" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="167" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="167" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="167">
-        <v>1</v>
-      </c>
-      <c r="G10" s="167">
+      <c r="F10" s="158">
+        <v>1</v>
+      </c>
+      <c r="G10" s="158">
         <v>260</v>
       </c>
-      <c r="H10" s="169">
+      <c r="H10" s="160">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="I10" s="173">
+      <c r="I10" s="164">
         <v>320</v>
       </c>
-      <c r="J10" s="174">
+      <c r="J10" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K10" s="167">
-        <v>1</v>
-      </c>
-      <c r="L10" s="167">
+      <c r="K10" s="158">
+        <v>1</v>
+      </c>
+      <c r="L10" s="158">
         <v>20</v>
       </c>
-      <c r="M10" s="175">
+      <c r="M10" s="166">
         <f t="shared" si="2"/>
         <v>6400</v>
       </c>
-      <c r="N10" s="176" t="s">
+      <c r="N10" s="167" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="157">
+        <v>22</v>
+      </c>
+      <c r="C11" s="159" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="158" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="166">
-        <v>22</v>
-      </c>
-      <c r="C11" s="168" t="s">
+      <c r="E11" s="158" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="167" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="167" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="167">
-        <v>1</v>
-      </c>
-      <c r="G11" s="167">
+      <c r="F11" s="158">
+        <v>1</v>
+      </c>
+      <c r="G11" s="158">
         <v>420</v>
       </c>
-      <c r="H11" s="169">
+      <c r="H11" s="160">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="I11" s="173">
+      <c r="I11" s="164">
         <v>350</v>
       </c>
-      <c r="J11" s="174">
+      <c r="J11" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K11" s="167">
-        <v>1</v>
-      </c>
-      <c r="L11" s="178">
+      <c r="K11" s="158">
+        <v>1</v>
+      </c>
+      <c r="L11" s="169">
         <v>20</v>
       </c>
-      <c r="M11" s="175">
+      <c r="M11" s="166">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="N11" s="176" t="s">
+      <c r="N11" s="167" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" s="146" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="157">
+        <v>23</v>
+      </c>
+      <c r="C12" s="159" t="s">
         <v>132</v>
       </c>
-      <c r="O11" s="155" t="s">
+      <c r="D12" s="158" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="166">
-        <v>23</v>
-      </c>
-      <c r="C12" s="168" t="s">
+      <c r="E12" s="158" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="167" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="167" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="167">
-        <v>1</v>
-      </c>
-      <c r="G12" s="167">
+      <c r="F12" s="158">
+        <v>1</v>
+      </c>
+      <c r="G12" s="158">
         <v>2150</v>
       </c>
-      <c r="H12" s="169">
+      <c r="H12" s="160">
         <f t="shared" si="0"/>
         <v>2150</v>
       </c>
-      <c r="I12" s="173">
+      <c r="I12" s="164">
         <v>1880</v>
       </c>
-      <c r="J12" s="174">
+      <c r="J12" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K12" s="167">
-        <v>1</v>
-      </c>
-      <c r="L12" s="167">
+      <c r="K12" s="158">
+        <v>1</v>
+      </c>
+      <c r="L12" s="158">
         <v>20</v>
       </c>
-      <c r="M12" s="175">
+      <c r="M12" s="166">
         <f>I12*L12</f>
         <v>37600</v>
       </c>
-      <c r="N12" s="176" t="s">
+      <c r="N12" s="167" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="157">
+        <v>24</v>
+      </c>
+      <c r="C13" s="159" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="158" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="166">
-        <v>24</v>
-      </c>
-      <c r="C13" s="168" t="s">
+      <c r="E13" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="167" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="167" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="167">
-        <v>1</v>
-      </c>
-      <c r="G13" s="167">
+      <c r="F13" s="158">
+        <v>1</v>
+      </c>
+      <c r="G13" s="158">
         <v>480</v>
       </c>
-      <c r="H13" s="169">
+      <c r="H13" s="160">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="I13" s="173">
+      <c r="I13" s="164">
         <v>260</v>
       </c>
-      <c r="J13" s="174">
+      <c r="J13" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K13" s="167">
-        <v>1</v>
-      </c>
-      <c r="L13" s="177">
+      <c r="K13" s="158">
+        <v>1</v>
+      </c>
+      <c r="L13" s="168">
         <v>100</v>
       </c>
-      <c r="M13" s="175">
+      <c r="M13" s="166">
         <f t="shared" ref="M13:M25" si="3">I13*L13</f>
         <v>26000</v>
       </c>
-      <c r="N13" s="176" t="s">
+      <c r="N13" s="167" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" s="146" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="157">
+        <v>25</v>
+      </c>
+      <c r="C14" s="159" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="158" t="s">
         <v>141</v>
       </c>
-      <c r="O13" s="155" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="166">
-        <v>25</v>
-      </c>
-      <c r="C14" s="168" t="s">
+      <c r="E14" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="167" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="167" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="167">
-        <v>1</v>
-      </c>
-      <c r="G14" s="167">
+      <c r="F14" s="158">
+        <v>1</v>
+      </c>
+      <c r="G14" s="158">
         <v>720</v>
       </c>
-      <c r="H14" s="169">
+      <c r="H14" s="160">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="I14" s="173">
+      <c r="I14" s="164">
         <v>1270</v>
       </c>
-      <c r="J14" s="174">
+      <c r="J14" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K14" s="167">
-        <v>1</v>
-      </c>
-      <c r="L14" s="167">
+      <c r="K14" s="158">
+        <v>1</v>
+      </c>
+      <c r="L14" s="158">
         <v>20</v>
       </c>
-      <c r="M14" s="175">
+      <c r="M14" s="166">
         <f t="shared" si="3"/>
         <v>25400</v>
       </c>
-      <c r="N14" s="176" t="s">
+      <c r="N14" s="167" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="157">
+        <v>26</v>
+      </c>
+      <c r="C15" s="159" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="158" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="166">
-        <v>26</v>
-      </c>
-      <c r="C15" s="168" t="s">
+      <c r="E15" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="167" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="167" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="167">
-        <v>1</v>
-      </c>
-      <c r="G15" s="167">
+      <c r="F15" s="158">
+        <v>1</v>
+      </c>
+      <c r="G15" s="158">
         <v>20</v>
       </c>
-      <c r="H15" s="179">
+      <c r="H15" s="170">
         <v>40</v>
       </c>
-      <c r="I15" s="173">
+      <c r="I15" s="164">
         <v>40</v>
       </c>
-      <c r="J15" s="174">
+      <c r="J15" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K15" s="167">
+      <c r="K15" s="158">
         <v>10</v>
       </c>
-      <c r="L15" s="167">
+      <c r="L15" s="158">
         <v>20</v>
       </c>
-      <c r="M15" s="175">
+      <c r="M15" s="166">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="N15" s="176" t="s">
+      <c r="N15" s="167" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="157">
+        <v>27</v>
+      </c>
+      <c r="C16" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="158" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="158" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="166">
-        <v>27</v>
-      </c>
-      <c r="C16" s="168" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="167" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="167" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="167">
-        <v>1</v>
-      </c>
-      <c r="G16" s="167">
+      <c r="F16" s="158">
+        <v>1</v>
+      </c>
+      <c r="G16" s="158">
         <v>20</v>
       </c>
-      <c r="H16" s="169">
+      <c r="H16" s="160">
         <f t="shared" ref="H16:H21" si="4">F16*G16</f>
         <v>20</v>
       </c>
-      <c r="I16" s="173">
+      <c r="I16" s="164">
         <v>20</v>
       </c>
-      <c r="J16" s="174">
+      <c r="J16" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K16" s="167">
+      <c r="K16" s="158">
         <v>10</v>
       </c>
-      <c r="L16" s="177">
+      <c r="L16" s="168">
         <v>40</v>
       </c>
-      <c r="M16" s="175">
+      <c r="M16" s="166">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="N16" s="176" t="s">
+      <c r="N16" s="167" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" s="146" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="157">
+        <v>28</v>
+      </c>
+      <c r="C17" s="159" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="158" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="158" t="s">
         <v>152</v>
       </c>
-      <c r="O16" s="155" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="166">
-        <v>28</v>
-      </c>
-      <c r="C17" s="168" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="167" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="167" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="167">
-        <v>1</v>
-      </c>
-      <c r="G17" s="167">
+      <c r="F17" s="158">
+        <v>1</v>
+      </c>
+      <c r="G17" s="158">
         <v>40</v>
       </c>
-      <c r="H17" s="169">
+      <c r="H17" s="160">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="I17" s="173">
+      <c r="I17" s="164">
         <v>250</v>
       </c>
-      <c r="J17" s="174">
+      <c r="J17" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K17" s="167">
+      <c r="K17" s="158">
         <v>10</v>
       </c>
-      <c r="L17" s="167">
+      <c r="L17" s="158">
         <v>20</v>
       </c>
-      <c r="M17" s="175">
+      <c r="M17" s="166">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="N17" s="180" t="s">
+      <c r="N17" s="171" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" s="146" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="157">
+        <v>29</v>
+      </c>
+      <c r="C18" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="O17" s="155" t="s">
+      <c r="D18" s="158" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="158" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="166">
-        <v>29</v>
-      </c>
-      <c r="C18" s="168" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="167" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="167" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="167">
-        <v>1</v>
-      </c>
-      <c r="G18" s="167">
+      <c r="F18" s="158">
+        <v>1</v>
+      </c>
+      <c r="G18" s="158">
         <v>20</v>
       </c>
-      <c r="H18" s="169">
+      <c r="H18" s="160">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="I18" s="173">
+      <c r="I18" s="164">
         <v>20</v>
       </c>
-      <c r="J18" s="174">
+      <c r="J18" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K18" s="167">
+      <c r="K18" s="158">
         <v>10</v>
       </c>
-      <c r="L18" s="177">
+      <c r="L18" s="168">
         <v>40</v>
       </c>
-      <c r="M18" s="175">
+      <c r="M18" s="166">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="N18" s="180" t="s">
+      <c r="N18" s="171" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" s="146" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="157">
+        <v>31</v>
+      </c>
+      <c r="C19" s="159" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="O18" s="155" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="166">
-        <v>31</v>
-      </c>
-      <c r="C19" s="168" t="s">
+      <c r="E19" s="158" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="167" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="167">
-        <v>1</v>
-      </c>
-      <c r="G19" s="167">
+      <c r="F19" s="158">
+        <v>1</v>
+      </c>
+      <c r="G19" s="158">
         <v>160</v>
       </c>
-      <c r="H19" s="169">
+      <c r="H19" s="160">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="I19" s="173">
+      <c r="I19" s="164">
         <v>160</v>
       </c>
-      <c r="J19" s="174">
+      <c r="J19" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K19" s="167">
+      <c r="K19" s="158">
         <v>50</v>
       </c>
-      <c r="L19" s="178">
+      <c r="L19" s="169">
         <v>50</v>
       </c>
-      <c r="M19" s="175">
+      <c r="M19" s="166">
         <f t="shared" si="3"/>
         <v>8000</v>
       </c>
-      <c r="N19" s="176" t="s">
+      <c r="N19" s="167" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" s="146" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="157">
+        <v>32</v>
+      </c>
+      <c r="C20" s="159" t="s">
         <v>163</v>
       </c>
-      <c r="O19" s="155" t="s">
+      <c r="D20" s="158" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="166">
-        <v>32</v>
-      </c>
-      <c r="C20" s="168" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="167" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="F20" s="167">
+      <c r="E20" s="158" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="158">
         <v>3</v>
       </c>
-      <c r="G20" s="167">
+      <c r="G20" s="158">
         <v>280</v>
       </c>
-      <c r="H20" s="169">
+      <c r="H20" s="160">
         <f t="shared" si="4"/>
         <v>840</v>
       </c>
-      <c r="I20" s="173">
+      <c r="I20" s="164">
         <v>270</v>
       </c>
-      <c r="J20" s="174">
+      <c r="J20" s="165">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K20" s="167">
-        <v>1</v>
-      </c>
-      <c r="L20" s="167">
+      <c r="K20" s="158">
+        <v>1</v>
+      </c>
+      <c r="L20" s="158">
         <v>60</v>
       </c>
-      <c r="M20" s="175">
+      <c r="M20" s="166">
         <f t="shared" si="3"/>
         <v>16200</v>
       </c>
-      <c r="N20" s="176" t="s">
+      <c r="N20" s="167" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="157">
+        <v>33</v>
+      </c>
+      <c r="C21" s="159" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="158" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="166">
-        <v>33</v>
-      </c>
-      <c r="C21" s="168" t="s">
+      <c r="E21" s="158" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="167" t="s">
-        <v>170</v>
-      </c>
-      <c r="F21" s="167">
-        <v>1</v>
-      </c>
-      <c r="G21" s="167">
+      <c r="F21" s="158">
+        <v>1</v>
+      </c>
+      <c r="G21" s="158">
         <v>3970</v>
       </c>
-      <c r="H21" s="169">
+      <c r="H21" s="160">
         <f t="shared" si="4"/>
         <v>3970</v>
       </c>
-      <c r="I21" s="173">
+      <c r="I21" s="164">
         <v>2340</v>
       </c>
-      <c r="J21" s="174">
+      <c r="J21" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K21" s="167">
-        <v>1</v>
-      </c>
-      <c r="L21" s="177">
+      <c r="K21" s="158">
+        <v>1</v>
+      </c>
+      <c r="L21" s="168">
         <v>40</v>
       </c>
-      <c r="M21" s="175">
+      <c r="M21" s="166">
         <f t="shared" si="3"/>
         <v>93600</v>
       </c>
-      <c r="N21" s="176" t="s">
-        <v>114</v>
-      </c>
-      <c r="O21" s="155" t="s">
-        <v>115</v>
+      <c r="N21" s="167" t="s">
+        <v>112</v>
+      </c>
+      <c r="O21" s="146" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="166">
+      <c r="B22" s="157">
         <v>34</v>
       </c>
-      <c r="C22" s="168" t="s">
+      <c r="C22" s="159" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="158" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="158" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="167" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="167" t="s">
-        <v>173</v>
-      </c>
-      <c r="F22" s="167">
-        <v>1</v>
-      </c>
-      <c r="G22" s="167">
+      <c r="F22" s="158">
+        <v>1</v>
+      </c>
+      <c r="G22" s="158">
         <v>750</v>
       </c>
-      <c r="H22" s="169">
+      <c r="H22" s="160">
         <v>3240</v>
       </c>
-      <c r="I22" s="173">
+      <c r="I22" s="164">
         <v>550</v>
       </c>
-      <c r="J22" s="174">
+      <c r="J22" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K22" s="167">
-        <v>1</v>
-      </c>
-      <c r="L22" s="167">
+      <c r="K22" s="158">
+        <v>1</v>
+      </c>
+      <c r="L22" s="158">
         <v>25</v>
       </c>
-      <c r="M22" s="175">
+      <c r="M22" s="166">
         <f t="shared" si="3"/>
         <v>13750</v>
       </c>
-      <c r="N22" s="176" t="s">
+      <c r="N22" s="167" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="157">
+        <v>35</v>
+      </c>
+      <c r="C23" s="159" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="158" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="166">
-        <v>35</v>
-      </c>
-      <c r="C23" s="168" t="s">
+      <c r="E23" s="158" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="167" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="167" t="s">
-        <v>177</v>
-      </c>
-      <c r="F23" s="167">
-        <v>1</v>
-      </c>
-      <c r="G23" s="167">
+      <c r="F23" s="158">
+        <v>1</v>
+      </c>
+      <c r="G23" s="158">
         <v>2850</v>
       </c>
-      <c r="H23" s="169">
+      <c r="H23" s="160">
         <f>F23*G23</f>
         <v>2850</v>
       </c>
-      <c r="I23" s="173">
+      <c r="I23" s="164">
         <v>3240</v>
       </c>
-      <c r="J23" s="174">
+      <c r="J23" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K23" s="167">
-        <v>1</v>
-      </c>
-      <c r="L23" s="167">
+      <c r="K23" s="158">
+        <v>1</v>
+      </c>
+      <c r="L23" s="158">
         <v>20</v>
       </c>
-      <c r="M23" s="175">
+      <c r="M23" s="166">
         <f t="shared" si="3"/>
         <v>64800</v>
       </c>
-      <c r="N23" s="176" t="s">
+      <c r="N23" s="167" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="157">
+        <v>36</v>
+      </c>
+      <c r="C24" s="159" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="158" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="158" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="166">
-        <v>36</v>
-      </c>
-      <c r="C24" s="168" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="167" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24" s="167" t="s">
-        <v>180</v>
-      </c>
-      <c r="F24" s="167">
-        <v>1</v>
-      </c>
-      <c r="G24" s="167">
+      <c r="F24" s="158">
+        <v>1</v>
+      </c>
+      <c r="G24" s="158">
         <v>1750</v>
       </c>
-      <c r="H24" s="169">
+      <c r="H24" s="160">
         <f>F24*G24</f>
         <v>1750</v>
       </c>
-      <c r="I24" s="173">
+      <c r="I24" s="164">
         <v>1000</v>
       </c>
-      <c r="J24" s="174">
+      <c r="J24" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K24" s="167">
-        <v>1</v>
-      </c>
-      <c r="L24" s="177">
+      <c r="K24" s="158">
+        <v>1</v>
+      </c>
+      <c r="L24" s="168">
         <v>60</v>
       </c>
-      <c r="M24" s="175">
+      <c r="M24" s="166">
         <f t="shared" si="3"/>
         <v>60000</v>
       </c>
-      <c r="N24" s="176" t="s">
+      <c r="N24" s="167" t="s">
+        <v>179</v>
+      </c>
+      <c r="O24" s="146" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="157">
+        <v>37</v>
+      </c>
+      <c r="C25" s="159" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="158" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="158" t="s">
         <v>181</v>
       </c>
-      <c r="O24" s="155" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="166">
-        <v>37</v>
-      </c>
-      <c r="C25" s="168" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="167" t="s">
-        <v>176</v>
-      </c>
-      <c r="E25" s="167" t="s">
-        <v>183</v>
-      </c>
-      <c r="F25" s="167">
-        <v>1</v>
-      </c>
-      <c r="G25" s="167">
+      <c r="F25" s="158">
+        <v>1</v>
+      </c>
+      <c r="G25" s="158">
         <v>870</v>
       </c>
-      <c r="H25" s="169">
+      <c r="H25" s="160">
         <f>F25*G25</f>
         <v>870</v>
       </c>
-      <c r="I25" s="173">
+      <c r="I25" s="164">
         <v>870</v>
       </c>
-      <c r="J25" s="174">
+      <c r="J25" s="165">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K25" s="167">
+      <c r="K25" s="158">
         <v>5</v>
       </c>
-      <c r="L25" s="177">
+      <c r="L25" s="168">
         <v>40</v>
       </c>
-      <c r="M25" s="175">
+      <c r="M25" s="166">
         <f t="shared" si="3"/>
         <v>34800</v>
       </c>
-      <c r="N25" s="176" t="s">
-        <v>184</v>
-      </c>
-      <c r="O25" s="155" t="s">
-        <v>115</v>
+      <c r="N25" s="167" t="s">
+        <v>182</v>
+      </c>
+      <c r="O25" s="146" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H26" s="181">
+      <c r="H26" s="172">
         <f>SUM(H5:H25)</f>
         <v>19260</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="184"/>
-      <c r="B29" s="185" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" s="184"/>
+    <row r="29" spans="1:15" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="175"/>
+      <c r="B29" s="176" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="175"/>
       <c r="K29" s="121">
         <v>10</v>
       </c>
-      <c r="N29" s="187">
+      <c r="N29" s="178">
         <v>43172</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="188" t="s">
+    <row r="30" spans="1:15" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="179" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="59" t="s">
@@ -6813,13 +7047,13 @@
         <v>18</v>
       </c>
       <c r="G30" s="59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H30" s="59" t="s">
         <v>59</v>
       </c>
       <c r="I30" s="122" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J30" s="122" t="s">
         <v>60</v>
@@ -6834,75 +7068,75 @@
         <v>62</v>
       </c>
       <c r="N30" s="123" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="186" customFormat="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="177" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="134">
         <v>2</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="D31" s="189" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="180" t="s">
         <v>64</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="F31" s="189">
-        <v>1</v>
-      </c>
-      <c r="G31" s="189">
+        <v>188</v>
+      </c>
+      <c r="F31" s="180">
+        <v>1</v>
+      </c>
+      <c r="G31" s="180">
         <v>140</v>
       </c>
-      <c r="H31" s="175">
+      <c r="H31" s="166">
         <f>F31*G31</f>
         <v>140</v>
       </c>
-      <c r="I31" s="189">
+      <c r="I31" s="180">
         <v>140</v>
       </c>
-      <c r="J31" s="174">
+      <c r="J31" s="165">
         <f>F31*K$3</f>
         <v>0</v>
       </c>
-      <c r="K31" s="189">
+      <c r="K31" s="180">
         <v>10</v>
       </c>
-      <c r="L31" s="189">
+      <c r="L31" s="180">
         <v>10</v>
       </c>
-      <c r="M31" s="175">
+      <c r="M31" s="166">
         <f t="shared" ref="M31" si="5">I31*L31</f>
         <v>1400</v>
       </c>
-      <c r="N31" s="190" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="186" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="191"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="191"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
+      <c r="N31" s="181" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="177" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="182"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="182"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
       <c r="J32" s="124"/>
-      <c r="M32" s="193"/>
-    </row>
-    <row r="33" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="184"/>
-      <c r="B33" s="185" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" s="184"/>
+      <c r="M32" s="184"/>
+    </row>
+    <row r="33" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="175"/>
+      <c r="B33" s="176" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="175"/>
       <c r="J33" s="121">
         <v>10</v>
       </c>
-      <c r="M33" s="187"/>
-    </row>
-    <row r="34" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="188" t="s">
+      <c r="M33" s="178"/>
+    </row>
+    <row r="34" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="179" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="59" t="s">
@@ -6918,13 +7152,13 @@
         <v>18</v>
       </c>
       <c r="G34" s="59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H34" s="59" t="s">
         <v>59</v>
       </c>
       <c r="I34" s="122" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J34" s="122" t="s">
         <v>60</v>
@@ -6939,118 +7173,118 @@
         <v>62</v>
       </c>
       <c r="N34" s="123" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="186" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="194">
-        <v>1</v>
-      </c>
-      <c r="C35" s="196" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="195" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="177" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="185">
+        <v>1</v>
+      </c>
+      <c r="C35" s="187" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="186" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="197" t="s">
-        <v>194</v>
-      </c>
-      <c r="F35" s="195">
-        <v>1</v>
-      </c>
-      <c r="G35" s="195">
+      <c r="E35" s="188" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="186">
+        <v>1</v>
+      </c>
+      <c r="G35" s="186">
         <v>230</v>
       </c>
-      <c r="H35" s="171">
+      <c r="H35" s="162">
         <f>F35*G35</f>
         <v>230</v>
       </c>
-      <c r="I35" s="195">
+      <c r="I35" s="186">
         <v>230</v>
       </c>
       <c r="J35" s="125">
         <f>F35*K$3</f>
         <v>0</v>
       </c>
-      <c r="K35" s="195">
+      <c r="K35" s="186">
         <v>10</v>
       </c>
-      <c r="L35" s="195">
+      <c r="L35" s="186">
         <v>20</v>
       </c>
-      <c r="M35" s="165">
+      <c r="M35" s="156">
         <f t="shared" ref="M35" si="6">I35*L35</f>
         <v>4600</v>
       </c>
-      <c r="N35" s="198" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N35" s="189" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="135"/>
-      <c r="C36" s="199" t="s">
+      <c r="C36" s="190" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="190" t="s">
         <v>196</v>
       </c>
-      <c r="D36" s="199" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="199" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" s="199">
+      <c r="F36" s="190">
         <v>8</v>
       </c>
-      <c r="G36" s="199">
+      <c r="G36" s="190">
         <v>130</v>
       </c>
-      <c r="H36" s="200">
+      <c r="H36" s="191">
         <f>F36*G36</f>
         <v>1040</v>
       </c>
-      <c r="I36" s="200">
+      <c r="I36" s="191">
         <v>130</v>
       </c>
       <c r="J36" s="126">
         <f>F36*K$3</f>
         <v>0</v>
       </c>
-      <c r="K36" s="199">
+      <c r="K36" s="190">
         <v>300</v>
       </c>
-      <c r="L36" s="199">
+      <c r="L36" s="190">
         <v>300</v>
       </c>
-      <c r="M36" s="201">
+      <c r="M36" s="192">
         <f>I36*L36</f>
         <v>39000</v>
       </c>
-      <c r="N36" s="202" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="186" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="191"/>
-      <c r="D37" s="192"/>
-      <c r="E37" s="191"/>
-      <c r="H37" s="193"/>
-      <c r="I37" s="193"/>
+      <c r="N36" s="193" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="177" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="182"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="182"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="184"/>
       <c r="J37" s="124"/>
-      <c r="M37" s="193"/>
+      <c r="M37" s="184"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M38" s="182">
+      <c r="M38" s="173">
         <f>SUM(M5:M36)</f>
         <v>467950</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M39" s="183">
+      <c r="M39" s="174">
         <f>M38*0.1</f>
         <v>46795</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M40" s="182">
+      <c r="M40" s="173">
         <f>M38+M39</f>
         <v>514745</v>
       </c>
@@ -7090,7 +7324,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="211" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="81" t="s">
@@ -7102,7 +7336,7 @@
       <c r="E2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="221" t="s">
+      <c r="F2" s="212" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="81" t="s">
@@ -7112,32 +7346,32 @@
         <v>5</v>
       </c>
       <c r="I2" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="K2" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="L2" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="K2" s="81" t="s">
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="213" t="s">
         <v>210</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="C3" s="84" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="222" t="s">
+      <c r="D3" s="214" t="s">
         <v>212</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="D3" s="223" t="s">
-        <v>214</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="224">
+      <c r="F3" s="215">
         <v>1</v>
       </c>
       <c r="G3" s="21">
@@ -7153,18 +7387,18 @@
       </c>
       <c r="K3" s="35"/>
       <c r="L3" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>9</v>
@@ -7185,18 +7419,18 @@
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="85" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>9</v>
@@ -7217,16 +7451,16 @@
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="85" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>9</v>
@@ -7247,18 +7481,18 @@
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="87" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>228</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>9</v>
@@ -7281,18 +7515,18 @@
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="89" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D8" s="92" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E8" s="92" t="s">
         <v>9</v>
@@ -7313,18 +7547,18 @@
       </c>
       <c r="K8" s="92"/>
       <c r="L8" s="95" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>233</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>234</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>235</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>9</v>
@@ -7345,18 +7579,18 @@
       </c>
       <c r="K9" s="23"/>
       <c r="L9" s="99" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="85" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>9</v>
@@ -7378,13 +7612,13 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="87" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>9</v>
@@ -7406,19 +7640,19 @@
         <v>13000</v>
       </c>
       <c r="K11" s="17"/>
-      <c r="L11" s="287" t="s">
-        <v>240</v>
+      <c r="L11" s="278" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="101" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -7431,13 +7665,13 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>9</v>
@@ -7459,19 +7693,19 @@
         <v>8000</v>
       </c>
       <c r="K13" s="17"/>
-      <c r="L13" s="287" t="s">
-        <v>245</v>
+      <c r="L13" s="278" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="87" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>9</v>
@@ -7493,19 +7727,19 @@
         <v>9000</v>
       </c>
       <c r="K14" s="17"/>
-      <c r="L14" s="287" t="s">
-        <v>248</v>
+      <c r="L14" s="278" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="87" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>9</v>
@@ -7527,22 +7761,22 @@
         <v>16500</v>
       </c>
       <c r="K15" s="17"/>
-      <c r="L15" s="287" t="s">
-        <v>251</v>
+      <c r="L15" s="278" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="116" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="110" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16" s="110" t="s">
         <v>252</v>
-      </c>
-      <c r="C16" s="116" t="s">
-        <v>227</v>
-      </c>
-      <c r="D16" s="110" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" s="110" t="s">
-        <v>254</v>
       </c>
       <c r="F16" s="116">
         <v>1</v>
@@ -7558,13 +7792,13 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="87" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>255</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>257</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>9</v>
@@ -7586,19 +7820,19 @@
         <v>9000</v>
       </c>
       <c r="K17" s="17"/>
-      <c r="L17" s="287" t="s">
-        <v>258</v>
+      <c r="L17" s="278" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="87" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>9</v>
@@ -7620,19 +7854,19 @@
         <v>9000</v>
       </c>
       <c r="K18" s="17"/>
-      <c r="L18" s="287" t="s">
-        <v>260</v>
+      <c r="L18" s="278" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="114" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="109" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="108" t="s">
         <v>261</v>
-      </c>
-      <c r="C19" s="109" t="s">
-        <v>262</v>
-      </c>
-      <c r="D19" s="108" t="s">
-        <v>263</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>9</v>
@@ -7654,19 +7888,19 @@
         <v>180000</v>
       </c>
       <c r="K19" s="108"/>
-      <c r="L19" s="288" t="s">
-        <v>264</v>
+      <c r="L19" s="279" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="114" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="109" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" s="108" t="s">
         <v>265</v>
-      </c>
-      <c r="C20" s="109" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20" s="108" t="s">
-        <v>267</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>9</v>
@@ -7688,19 +7922,19 @@
         <v>2420</v>
       </c>
       <c r="K20" s="108"/>
-      <c r="L20" s="288" t="s">
-        <v>268</v>
+      <c r="L20" s="279" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="114" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="109" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="108" t="s">
         <v>269</v>
-      </c>
-      <c r="C21" s="109" t="s">
-        <v>270</v>
-      </c>
-      <c r="D21" s="108" t="s">
-        <v>271</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>9</v>
@@ -7722,19 +7956,19 @@
         <v>101200</v>
       </c>
       <c r="K21" s="108"/>
-      <c r="L21" s="288" t="s">
-        <v>272</v>
+      <c r="L21" s="279" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="114" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22" s="109" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="108" t="s">
         <v>273</v>
-      </c>
-      <c r="C22" s="109" t="s">
-        <v>274</v>
-      </c>
-      <c r="D22" s="108" t="s">
-        <v>275</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>9</v>
@@ -7751,22 +7985,22 @@
       <c r="I22" s="52">
         <v>2</v>
       </c>
-      <c r="J22" s="225">
+      <c r="J22" s="216">
         <f t="shared" si="1"/>
         <v>49000</v>
       </c>
       <c r="K22" s="108"/>
-      <c r="L22" s="288" t="s">
-        <v>276</v>
+      <c r="L22" s="279" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="117" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C23" s="111"/>
       <c r="D23" s="127" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E23" s="34" t="s">
         <v>9</v>
@@ -7782,16 +8016,16 @@
       <c r="J23" s="129"/>
       <c r="K23" s="127"/>
       <c r="L23" s="130" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="102" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C24" s="103"/>
       <c r="D24" s="103" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>9</v>
@@ -7813,8 +8047,8 @@
         <v>45000</v>
       </c>
       <c r="K24" s="103"/>
-      <c r="L24" s="294" t="s">
-        <v>282</v>
+      <c r="L24" s="285" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
@@ -7842,22 +8076,22 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="226" t="s">
+      <c r="B30" s="217" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="227" t="s">
+      <c r="C30" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="227" t="s">
+      <c r="D30" s="218" t="s">
         <v>58</v>
       </c>
       <c r="E30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="227" t="s">
+      <c r="F30" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="227" t="s">
+      <c r="G30" s="218" t="s">
         <v>59</v>
       </c>
       <c r="H30" s="122" t="s">
@@ -7877,13 +8111,13 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="228" t="s">
+      <c r="B31" s="219" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="229" t="s">
+      <c r="C31" s="220" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="229" t="s">
+      <c r="D31" s="220" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="35" t="s">
@@ -7892,7 +8126,7 @@
       <c r="F31" s="84">
         <v>3</v>
       </c>
-      <c r="G31" s="142">
+      <c r="G31" s="140">
         <v>60</v>
       </c>
       <c r="H31" s="84">
@@ -7906,22 +8140,22 @@
         <v>7200</v>
       </c>
       <c r="K31" s="35"/>
-      <c r="L31" s="289" t="s">
+      <c r="L31" s="280" t="s">
         <v>54</v>
       </c>
-      <c r="M31" s="230" t="s">
+      <c r="M31" s="221" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="231" t="s">
+      <c r="B32" s="222" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="E32" s="36" t="s">
         <v>9</v>
@@ -7929,7 +8163,7 @@
       <c r="F32" s="75">
         <v>1</v>
       </c>
-      <c r="G32" s="232">
+      <c r="G32" s="223">
         <v>3520</v>
       </c>
       <c r="H32" s="75">
@@ -7938,39 +8172,39 @@
       <c r="I32" s="75">
         <v>2</v>
       </c>
-      <c r="J32" s="233">
+      <c r="J32" s="224">
         <f>G32*I32</f>
         <v>7040</v>
       </c>
       <c r="K32" s="36"/>
-      <c r="L32" s="291" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="234" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="218"/>
-      <c r="B36" s="219" t="s">
+      <c r="L32" s="282" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="225" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="209"/>
+      <c r="B36" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="219" t="s">
+      <c r="C36" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="219" t="s">
+      <c r="D36" s="210" t="s">
         <v>58</v>
       </c>
       <c r="E36" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="219" t="s">
+      <c r="F36" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="219" t="s">
-        <v>103</v>
+      <c r="G36" s="210" t="s">
+        <v>101</v>
       </c>
       <c r="H36" s="118" t="s">
         <v>5</v>
@@ -7982,116 +8216,116 @@
         <v>62</v>
       </c>
       <c r="K36" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="L36" s="235" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+      <c r="L36" s="226" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="189" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" s="295" t="s">
-        <v>349</v>
+      <c r="C37" s="180" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="286" t="s">
+        <v>347</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="189">
+      <c r="F37" s="180">
         <v>2</v>
       </c>
-      <c r="G37" s="189">
+      <c r="G37" s="180">
         <v>1020</v>
       </c>
-      <c r="H37" s="189">
-        <v>1</v>
-      </c>
-      <c r="I37" s="189">
+      <c r="H37" s="180">
+        <v>1</v>
+      </c>
+      <c r="I37" s="180">
         <v>20</v>
       </c>
-      <c r="J37" s="236">
+      <c r="J37" s="227">
         <f>G37*I37</f>
         <v>20400</v>
       </c>
       <c r="K37" s="35"/>
-      <c r="L37" s="190" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="186" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="189" t="s">
-        <v>206</v>
-      </c>
-      <c r="C38" s="189" t="s">
+      <c r="L37" s="181" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="180" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="189" t="s">
-        <v>207</v>
+      <c r="D38" s="180" t="s">
+        <v>205</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="189">
-        <v>1</v>
-      </c>
-      <c r="G38" s="189">
+      <c r="F38" s="180">
+        <v>1</v>
+      </c>
+      <c r="G38" s="180">
         <v>130</v>
       </c>
-      <c r="H38" s="189">
+      <c r="H38" s="180">
         <v>100</v>
       </c>
-      <c r="I38" s="189">
+      <c r="I38" s="180">
         <v>100</v>
       </c>
-      <c r="J38" s="236">
+      <c r="J38" s="227">
         <f>G38*I38</f>
         <v>13000</v>
       </c>
       <c r="K38" s="36"/>
-      <c r="L38" s="293" t="s">
-        <v>291</v>
+      <c r="L38" s="284" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="234" t="s">
+      <c r="B41" s="225" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="237"/>
-      <c r="D41" s="230"/>
-      <c r="E41" s="230"/>
-      <c r="F41" s="230"/>
-      <c r="G41" s="230"/>
-      <c r="H41" s="230"/>
+      <c r="C41" s="228"/>
+      <c r="D41" s="221"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="221"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="221"/>
       <c r="I41" s="121">
         <v>10</v>
       </c>
-      <c r="J41" s="230"/>
-      <c r="K41" s="230"/>
-      <c r="L41" s="238"/>
-      <c r="M41" s="230"/>
-      <c r="N41" s="230"/>
+      <c r="J41" s="221"/>
+      <c r="K41" s="221"/>
+      <c r="L41" s="229"/>
+      <c r="M41" s="221"/>
+      <c r="N41" s="221"/>
     </row>
     <row r="42" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="239" t="s">
+      <c r="B42" s="230" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="239" t="s">
+      <c r="C42" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="239" t="s">
+      <c r="D42" s="230" t="s">
         <v>58</v>
       </c>
       <c r="E42" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="239" t="s">
+      <c r="F42" s="230" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="239" t="s">
+      <c r="G42" s="230" t="s">
         <v>59</v>
       </c>
       <c r="H42" s="118" t="s">
@@ -8104,148 +8338,148 @@
         <v>62</v>
       </c>
       <c r="K42" s="32" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L42" s="119" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="240" t="s">
+      <c r="B43" s="231" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="241" t="s">
+      <c r="C43" s="232" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="241" t="s">
+      <c r="D43" s="232" t="s">
         <v>66</v>
       </c>
       <c r="E43" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="229">
-        <v>1</v>
-      </c>
-      <c r="G43" s="242">
+      <c r="F43" s="220">
+        <v>1</v>
+      </c>
+      <c r="G43" s="233">
         <v>210</v>
       </c>
-      <c r="H43" s="229">
+      <c r="H43" s="220">
         <v>50</v>
       </c>
-      <c r="I43" s="229">
+      <c r="I43" s="220">
         <v>50</v>
       </c>
-      <c r="J43" s="242">
+      <c r="J43" s="233">
         <v>10500</v>
       </c>
       <c r="K43" s="35"/>
-      <c r="L43" s="289" t="s">
+      <c r="L43" s="280" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="243" t="s">
+      <c r="B44" s="234" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="244" t="s">
+      <c r="C44" s="235" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="244" t="s">
+      <c r="D44" s="235" t="s">
         <v>69</v>
       </c>
       <c r="E44" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="245">
-        <v>1</v>
-      </c>
-      <c r="G44" s="245">
+      <c r="F44" s="236">
+        <v>1</v>
+      </c>
+      <c r="G44" s="236">
         <v>210</v>
       </c>
-      <c r="H44" s="245">
+      <c r="H44" s="236">
         <v>10</v>
       </c>
-      <c r="I44" s="245">
+      <c r="I44" s="236">
         <v>10</v>
       </c>
-      <c r="J44" s="246">
+      <c r="J44" s="237">
         <v>2100</v>
       </c>
       <c r="K44" s="105"/>
-      <c r="L44" s="292" t="s">
+      <c r="L44" s="283" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="247" t="s">
+      <c r="B45" s="238" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="248"/>
-      <c r="D45" s="248" t="s">
+      <c r="C45" s="239"/>
+      <c r="D45" s="239" t="s">
         <v>72</v>
       </c>
       <c r="E45" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="249">
+      <c r="F45" s="240">
         <v>2</v>
       </c>
-      <c r="G45" s="250">
+      <c r="G45" s="241">
         <v>80</v>
       </c>
-      <c r="H45" s="249">
+      <c r="H45" s="240">
         <v>100</v>
       </c>
-      <c r="I45" s="249">
+      <c r="I45" s="240">
         <v>100</v>
       </c>
-      <c r="J45" s="251">
+      <c r="J45" s="242">
         <v>4000</v>
       </c>
       <c r="K45" s="36"/>
-      <c r="L45" s="291" t="s">
+      <c r="L45" s="282" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="230"/>
-      <c r="C46" s="252"/>
-      <c r="D46" s="253"/>
-      <c r="F46" s="252"/>
-      <c r="G46" s="230"/>
-      <c r="H46" s="254"/>
-      <c r="I46" s="230"/>
-      <c r="J46" s="230"/>
-      <c r="K46" s="254"/>
+      <c r="B46" s="221"/>
+      <c r="C46" s="243"/>
+      <c r="D46" s="244"/>
+      <c r="F46" s="243"/>
+      <c r="G46" s="221"/>
+      <c r="H46" s="245"/>
+      <c r="I46" s="221"/>
+      <c r="J46" s="221"/>
+      <c r="K46" s="245"/>
     </row>
     <row r="47" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="255" t="s">
+      <c r="B47" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="252"/>
-      <c r="D47" s="253"/>
-      <c r="F47" s="252"/>
-      <c r="G47" s="253"/>
-      <c r="H47" s="254"/>
-      <c r="I47" s="253"/>
-      <c r="J47" s="253"/>
-      <c r="K47" s="254"/>
+      <c r="C47" s="243"/>
+      <c r="D47" s="244"/>
+      <c r="F47" s="243"/>
+      <c r="G47" s="244"/>
+      <c r="H47" s="245"/>
+      <c r="I47" s="244"/>
+      <c r="J47" s="244"/>
+      <c r="K47" s="245"/>
     </row>
     <row r="48" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="226" t="s">
+      <c r="B48" s="217" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="227" t="s">
+      <c r="C48" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="227" t="s">
+      <c r="D48" s="218" t="s">
         <v>58</v>
       </c>
       <c r="E48" s="104"/>
-      <c r="F48" s="227" t="s">
+      <c r="F48" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="227" t="s">
+      <c r="G48" s="218" t="s">
         <v>59</v>
       </c>
       <c r="H48" s="122" t="s">
@@ -8258,109 +8492,109 @@
         <v>62</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L48" s="123" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="228" t="s">
+      <c r="B49" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="241" t="s">
+      <c r="C49" s="232" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="241" t="s">
+      <c r="D49" s="232" t="s">
         <v>77</v>
       </c>
       <c r="E49" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="229">
-        <v>1</v>
-      </c>
-      <c r="G49" s="256">
+      <c r="F49" s="220">
+        <v>1</v>
+      </c>
+      <c r="G49" s="247">
         <v>270</v>
       </c>
-      <c r="H49" s="229"/>
-      <c r="I49" s="229">
+      <c r="H49" s="220"/>
+      <c r="I49" s="220">
         <v>20</v>
       </c>
-      <c r="J49" s="242">
+      <c r="J49" s="233">
         <v>0</v>
       </c>
       <c r="K49" s="35"/>
-      <c r="L49" s="257" t="s">
+      <c r="L49" s="248" t="s">
         <v>78</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="258" t="s">
+      <c r="B50" s="249" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="245" t="s">
+      <c r="C50" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="244" t="s">
+      <c r="D50" s="235" t="s">
         <v>79</v>
       </c>
       <c r="E50" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="245">
-        <v>1</v>
-      </c>
-      <c r="G50" s="259">
+      <c r="F50" s="236">
+        <v>1</v>
+      </c>
+      <c r="G50" s="250">
         <v>200</v>
       </c>
-      <c r="H50" s="245">
+      <c r="H50" s="236">
         <v>10</v>
       </c>
-      <c r="I50" s="245">
+      <c r="I50" s="236">
         <v>10</v>
       </c>
-      <c r="J50" s="246">
+      <c r="J50" s="237">
         <v>2000</v>
       </c>
       <c r="K50" s="105"/>
-      <c r="L50" s="292" t="s">
+      <c r="L50" s="283" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="260" t="s">
+      <c r="B51" s="251" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="249" t="s">
+      <c r="C51" s="240" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="248" t="s">
+      <c r="D51" s="239" t="s">
         <v>82</v>
       </c>
       <c r="E51" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="249">
-        <v>1</v>
-      </c>
-      <c r="G51" s="250">
+      <c r="F51" s="240">
+        <v>1</v>
+      </c>
+      <c r="G51" s="241">
         <v>200</v>
       </c>
-      <c r="H51" s="249">
+      <c r="H51" s="240">
         <v>10</v>
       </c>
-      <c r="I51" s="249">
+      <c r="I51" s="240">
         <v>10</v>
       </c>
-      <c r="J51" s="251">
+      <c r="J51" s="242">
         <v>2000</v>
       </c>
       <c r="K51" s="36"/>
-      <c r="L51" s="291" t="s">
+      <c r="L51" s="282" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8414,11 +8648,11 @@
   <sheetData>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="56" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="211" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="81" t="s">
@@ -8430,7 +8664,7 @@
       <c r="E3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="221" t="s">
+      <c r="F3" s="212" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="81" t="s">
@@ -8440,24 +8674,24 @@
         <v>5</v>
       </c>
       <c r="I3" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="K3" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="L3" s="82" t="s">
         <v>209</v>
-      </c>
-      <c r="K3" s="81" t="s">
-        <v>210</v>
-      </c>
-      <c r="L3" s="82" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="85" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>313</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>315</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -8478,16 +8712,16 @@
         <v>6000</v>
       </c>
       <c r="K4" s="19"/>
-      <c r="L4" s="287" t="s">
-        <v>323</v>
+      <c r="L4" s="278" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="85" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -8508,16 +8742,16 @@
         <v>8000</v>
       </c>
       <c r="K5" s="19"/>
-      <c r="L5" s="287" t="s">
-        <v>323</v>
+      <c r="L5" s="278" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="101" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -8526,7 +8760,7 @@
       <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="278">
+      <c r="G6" s="269">
         <v>7000</v>
       </c>
       <c r="H6" s="19"/>
@@ -8538,16 +8772,16 @@
         <v>7000</v>
       </c>
       <c r="K6" s="19"/>
-      <c r="L6" s="287" t="s">
-        <v>318</v>
+      <c r="L6" s="278" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="101" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -8568,13 +8802,13 @@
         <v>2600</v>
       </c>
       <c r="K7" s="19"/>
-      <c r="L7" s="287" t="s">
-        <v>320</v>
+      <c r="L7" s="278" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="101" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -8584,7 +8818,7 @@
       <c r="F8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="278">
+      <c r="G8" s="269">
         <v>22000</v>
       </c>
       <c r="H8" s="19"/>
@@ -8596,8 +8830,8 @@
         <v>44000</v>
       </c>
       <c r="K8" s="19"/>
-      <c r="L8" s="287" t="s">
-        <v>322</v>
+      <c r="L8" s="278" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -8653,7 +8887,7 @@
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="231"/>
+      <c r="B13" s="222"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -8663,7 +8897,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="277"/>
+      <c r="L13" s="268"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J14" s="48">
@@ -8685,11 +8919,11 @@
     </row>
     <row r="18" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="220" t="s">
+      <c r="B19" s="211" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="81" t="s">
@@ -8701,7 +8935,7 @@
       <c r="E19" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="221" t="s">
+      <c r="F19" s="212" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="81" t="s">
@@ -8711,41 +8945,41 @@
         <v>5</v>
       </c>
       <c r="I19" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="J19" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="J19" s="81" t="s">
+      <c r="L19" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="K19" s="81" t="s">
-        <v>210</v>
-      </c>
-      <c r="L19" s="82" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="280" t="s">
-        <v>327</v>
-      </c>
-      <c r="C20" s="280" t="s">
-        <v>328</v>
-      </c>
-      <c r="D20" s="282" t="s">
-        <v>336</v>
+      <c r="B20" s="271" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20" s="271" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20" s="273" t="s">
+        <v>334</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="283">
-        <v>1</v>
-      </c>
-      <c r="G20" s="284">
+      <c r="F20" s="274">
+        <v>1</v>
+      </c>
+      <c r="G20" s="275">
         <v>30</v>
       </c>
-      <c r="H20" s="285">
-        <v>1</v>
-      </c>
-      <c r="I20" s="286">
+      <c r="H20" s="276">
+        <v>1</v>
+      </c>
+      <c r="I20" s="277">
         <v>10</v>
       </c>
       <c r="J20" s="41">
@@ -8753,33 +8987,33 @@
         <v>300</v>
       </c>
       <c r="K20" s="19"/>
-      <c r="L20" s="290" t="s">
-        <v>342</v>
+      <c r="L20" s="281" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="279" t="s">
-        <v>329</v>
-      </c>
-      <c r="C21" s="279" t="s">
+      <c r="B21" s="270" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" s="270" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="281" t="s">
-        <v>337</v>
+      <c r="D21" s="272" t="s">
+        <v>335</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="283">
-        <v>1</v>
-      </c>
-      <c r="G21" s="284">
+      <c r="F21" s="274">
+        <v>1</v>
+      </c>
+      <c r="G21" s="275">
         <v>50</v>
       </c>
-      <c r="H21" s="285">
+      <c r="H21" s="276">
         <v>100</v>
       </c>
-      <c r="I21" s="286">
+      <c r="I21" s="277">
         <v>100</v>
       </c>
       <c r="J21" s="41">
@@ -8787,33 +9021,33 @@
         <v>5000</v>
       </c>
       <c r="K21" s="19"/>
-      <c r="L21" s="290" t="s">
-        <v>343</v>
+      <c r="L21" s="281" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="280" t="s">
-        <v>330</v>
-      </c>
-      <c r="C22" s="280" t="s">
+      <c r="B22" s="271" t="s">
         <v>328</v>
       </c>
-      <c r="D22" s="282" t="s">
-        <v>338</v>
+      <c r="C22" s="271" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" s="273" t="s">
+        <v>336</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="283">
+      <c r="F22" s="274">
         <v>2</v>
       </c>
-      <c r="G22" s="284">
+      <c r="G22" s="275">
         <v>290</v>
       </c>
-      <c r="H22" s="285">
-        <v>1</v>
-      </c>
-      <c r="I22" s="286">
+      <c r="H22" s="276">
+        <v>1</v>
+      </c>
+      <c r="I22" s="277">
         <v>20</v>
       </c>
       <c r="J22" s="41">
@@ -8821,33 +9055,33 @@
         <v>5800</v>
       </c>
       <c r="K22" s="19"/>
-      <c r="L22" s="290" t="s">
-        <v>344</v>
+      <c r="L22" s="281" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="279" t="s">
-        <v>331</v>
-      </c>
-      <c r="C23" s="279" t="s">
-        <v>332</v>
-      </c>
-      <c r="D23" s="281" t="s">
-        <v>339</v>
+      <c r="B23" s="270" t="s">
+        <v>329</v>
+      </c>
+      <c r="C23" s="270" t="s">
+        <v>330</v>
+      </c>
+      <c r="D23" s="272" t="s">
+        <v>337</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="283">
-        <v>1</v>
-      </c>
-      <c r="G23" s="284">
+      <c r="F23" s="274">
+        <v>1</v>
+      </c>
+      <c r="G23" s="275">
         <v>100</v>
       </c>
-      <c r="H23" s="285">
+      <c r="H23" s="276">
         <v>10</v>
       </c>
-      <c r="I23" s="286">
+      <c r="I23" s="277">
         <v>10</v>
       </c>
       <c r="J23" s="41">
@@ -8855,33 +9089,33 @@
         <v>1000</v>
       </c>
       <c r="K23" s="19"/>
-      <c r="L23" s="290" t="s">
-        <v>345</v>
+      <c r="L23" s="281" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="280" t="s">
-        <v>333</v>
-      </c>
-      <c r="C24" s="279" t="s">
-        <v>334</v>
-      </c>
-      <c r="D24" s="281" t="s">
-        <v>340</v>
+      <c r="B24" s="271" t="s">
+        <v>331</v>
+      </c>
+      <c r="C24" s="270" t="s">
+        <v>332</v>
+      </c>
+      <c r="D24" s="272" t="s">
+        <v>338</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="283">
-        <v>1</v>
-      </c>
-      <c r="G24" s="284">
+      <c r="F24" s="274">
+        <v>1</v>
+      </c>
+      <c r="G24" s="275">
         <v>430</v>
       </c>
-      <c r="H24" s="285">
-        <v>1</v>
-      </c>
-      <c r="I24" s="286">
+      <c r="H24" s="276">
+        <v>1</v>
+      </c>
+      <c r="I24" s="277">
         <v>10</v>
       </c>
       <c r="J24" s="41">
@@ -8889,33 +9123,33 @@
         <v>4300</v>
       </c>
       <c r="K24" s="19"/>
-      <c r="L24" s="290" t="s">
-        <v>346</v>
+      <c r="L24" s="281" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="279" t="s">
-        <v>335</v>
-      </c>
-      <c r="C25" s="279" t="s">
-        <v>334</v>
-      </c>
-      <c r="D25" s="281" t="s">
-        <v>341</v>
+      <c r="B25" s="270" t="s">
+        <v>333</v>
+      </c>
+      <c r="C25" s="270" t="s">
+        <v>332</v>
+      </c>
+      <c r="D25" s="272" t="s">
+        <v>339</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="283">
-        <v>1</v>
-      </c>
-      <c r="G25" s="284">
+      <c r="F25" s="274">
+        <v>1</v>
+      </c>
+      <c r="G25" s="275">
         <v>430</v>
       </c>
-      <c r="H25" s="285">
-        <v>1</v>
-      </c>
-      <c r="I25" s="286">
+      <c r="H25" s="276">
+        <v>1</v>
+      </c>
+      <c r="I25" s="277">
         <v>10</v>
       </c>
       <c r="J25" s="41">
@@ -8923,8 +9157,8 @@
         <v>4300</v>
       </c>
       <c r="K25" s="19"/>
-      <c r="L25" s="290" t="s">
-        <v>347</v>
+      <c r="L25" s="281" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
@@ -8975,95 +9209,95 @@
   <sheetData>
     <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="56" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="270" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" s="271" t="s">
+      <c r="C3" s="261" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="262" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="262" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" s="263" t="s">
         <v>298</v>
       </c>
-      <c r="E3" s="271" t="s">
-        <v>299</v>
-      </c>
-      <c r="F3" s="272" t="s">
-        <v>300</v>
-      </c>
     </row>
     <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="299" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" s="151">
+      <c r="C4" s="290" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="142">
         <v>169</v>
       </c>
-      <c r="E4" s="151">
+      <c r="E4" s="142">
         <v>250</v>
       </c>
-      <c r="F4" s="300">
+      <c r="F4" s="291">
         <f>D4*E4</f>
         <v>42250</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="273" t="s">
-        <v>302</v>
-      </c>
-      <c r="D6" s="274" t="s">
-        <v>303</v>
+      <c r="C6" s="264" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="265" t="s">
+        <v>301</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="56"/>
-      <c r="C7" s="276" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="297">
+      <c r="C7" s="267" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="288">
         <v>3</v>
       </c>
-      <c r="E7" s="142">
+      <c r="E7" s="140">
         <v>40000</v>
       </c>
-      <c r="F7" s="212">
+      <c r="F7" s="203">
         <f>D7*E7</f>
         <v>120000</v>
       </c>
       <c r="G7" s="56"/>
     </row>
     <row r="8" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="231" t="s">
-        <v>350</v>
-      </c>
-      <c r="D8" s="298">
+      <c r="C8" s="222" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="289">
         <v>2</v>
       </c>
       <c r="E8" s="4">
         <v>250000</v>
       </c>
-      <c r="F8" s="217">
+      <c r="F8" s="208">
         <f>D8*E8</f>
         <v>500000</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="361" t="s">
-        <v>351</v>
-      </c>
-      <c r="D9" s="362"/>
-      <c r="E9" s="366">
+      <c r="C9" s="349" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="350"/>
+      <c r="E9" s="362">
         <f>SUM(F7:F8)</f>
         <v>620000</v>
       </c>
-      <c r="F9" s="367"/>
+      <c r="F9" s="363"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9079,9 +9313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9091,7 +9325,7 @@
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="296" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="287" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9" style="1"/>
     <col min="12" max="12" width="10.875" style="1" bestFit="1" customWidth="1"/>
@@ -9113,16 +9347,16 @@
       <c r="B3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="302" t="s">
-        <v>354</v>
-      </c>
-      <c r="D3" s="302" t="s">
+      <c r="C3" s="293" t="s">
         <v>352</v>
       </c>
-      <c r="E3" s="303" t="s">
-        <v>355</v>
-      </c>
-      <c r="F3" s="159" t="s">
+      <c r="D3" s="293" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="294" t="s">
+        <v>353</v>
+      </c>
+      <c r="F3" s="150" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="24" t="s">
@@ -9137,8 +9371,8 @@
       <c r="J3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="161" t="s">
-        <v>104</v>
+      <c r="K3" s="152" t="s">
+        <v>102</v>
       </c>
       <c r="L3" s="32" t="s">
         <v>20</v>
@@ -9157,383 +9391,383 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="317" t="s">
+      <c r="B4" s="308" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="309" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="311" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="310">
+        <v>1</v>
+      </c>
+      <c r="H4" s="311" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="333">
+        <v>10</v>
+      </c>
+      <c r="J4" s="333">
+        <v>110</v>
+      </c>
+      <c r="K4" s="334">
+        <v>110</v>
+      </c>
+      <c r="L4" s="333">
+        <v>20</v>
+      </c>
+      <c r="M4" s="335"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="311" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="318" t="s">
-        <v>353</v>
-      </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="320" t="s">
+      <c r="P4" s="37"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="312" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="314"/>
+      <c r="E5" s="314"/>
+      <c r="F5" s="315" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="319">
-        <v>1</v>
-      </c>
-      <c r="H4" s="320" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="342">
+      <c r="G5" s="314">
+        <v>1</v>
+      </c>
+      <c r="H5" s="315" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="336">
         <v>10</v>
       </c>
-      <c r="J4" s="342">
-        <v>110</v>
-      </c>
-      <c r="K4" s="343">
-        <v>110</v>
-      </c>
-      <c r="L4" s="342">
+      <c r="J5" s="336">
+        <v>220</v>
+      </c>
+      <c r="K5" s="332">
+        <v>220</v>
+      </c>
+      <c r="L5" s="336">
         <v>20</v>
       </c>
-      <c r="M4" s="344"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="320" t="s">
-        <v>121</v>
-      </c>
-      <c r="P4" s="37"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="321" t="s">
+      <c r="M5" s="296"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="315" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D5" s="323"/>
-      <c r="E5" s="323"/>
-      <c r="F5" s="324" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="323">
-        <v>1</v>
-      </c>
-      <c r="H5" s="324" t="s">
-        <v>123</v>
-      </c>
-      <c r="I5" s="345">
+      <c r="P5" s="39"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="312" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="314"/>
+      <c r="E6" s="314"/>
+      <c r="F6" s="315" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="314">
+        <v>1</v>
+      </c>
+      <c r="H6" s="315" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="336">
         <v>10</v>
       </c>
-      <c r="J5" s="345">
-        <v>220</v>
-      </c>
-      <c r="K5" s="341">
-        <v>220</v>
-      </c>
-      <c r="L5" s="345">
+      <c r="J6" s="336">
         <v>20</v>
       </c>
-      <c r="M5" s="305"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="324" t="s">
-        <v>124</v>
-      </c>
-      <c r="P5" s="39"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="321" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D6" s="323"/>
-      <c r="E6" s="323"/>
-      <c r="F6" s="324" t="s">
+      <c r="K6" s="332">
+        <v>40</v>
+      </c>
+      <c r="L6" s="336">
+        <v>20</v>
+      </c>
+      <c r="M6" s="296"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="315" t="s">
         <v>147</v>
       </c>
-      <c r="G6" s="323">
-        <v>1</v>
-      </c>
-      <c r="H6" s="324" t="s">
+      <c r="P6" s="39"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="312" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="345">
+      <c r="C7" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="314"/>
+      <c r="E7" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="315" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="314">
+        <v>1</v>
+      </c>
+      <c r="H7" s="315" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="336">
         <v>10</v>
       </c>
-      <c r="J6" s="345">
+      <c r="J7" s="336">
         <v>20</v>
       </c>
-      <c r="K6" s="341">
+      <c r="K7" s="332">
+        <v>20</v>
+      </c>
+      <c r="L7" s="336">
         <v>40</v>
       </c>
-      <c r="L6" s="345">
+      <c r="M7" s="296"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="315" t="s">
+        <v>150</v>
+      </c>
+      <c r="P7" s="39"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="312" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" s="314"/>
+      <c r="E8" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8" s="315" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="314">
+        <v>1</v>
+      </c>
+      <c r="H8" s="315" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="336">
+        <v>10</v>
+      </c>
+      <c r="J8" s="336">
         <v>20</v>
       </c>
-      <c r="M6" s="305"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="324" t="s">
-        <v>149</v>
-      </c>
-      <c r="P6" s="39"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="321" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D7" s="323"/>
-      <c r="E7" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="F7" s="324" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="323">
-        <v>1</v>
-      </c>
-      <c r="H7" s="324" t="s">
+      <c r="K8" s="332">
+        <v>20</v>
+      </c>
+      <c r="L8" s="336">
+        <v>40</v>
+      </c>
+      <c r="M8" s="296"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="316" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="39"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="312" t="s">
         <v>151</v>
       </c>
-      <c r="I7" s="345">
+      <c r="C9" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D9" s="314"/>
+      <c r="E9" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="315" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="314">
+        <v>1</v>
+      </c>
+      <c r="H9" s="315" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="336">
         <v>10</v>
       </c>
-      <c r="J7" s="345">
+      <c r="J9" s="336">
+        <v>40</v>
+      </c>
+      <c r="K9" s="332">
+        <v>250</v>
+      </c>
+      <c r="L9" s="336">
         <v>20</v>
       </c>
-      <c r="K7" s="341">
-        <v>20</v>
-      </c>
-      <c r="L7" s="345">
-        <v>40</v>
-      </c>
-      <c r="M7" s="305"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="324" t="s">
-        <v>152</v>
-      </c>
-      <c r="P7" s="39"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="321" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D8" s="323"/>
-      <c r="E8" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="F8" s="324" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="323">
-        <v>1</v>
-      </c>
-      <c r="H8" s="324" t="s">
-        <v>158</v>
-      </c>
-      <c r="I8" s="345">
-        <v>10</v>
-      </c>
-      <c r="J8" s="345">
-        <v>20</v>
-      </c>
-      <c r="K8" s="341">
-        <v>20</v>
-      </c>
-      <c r="L8" s="345">
-        <v>40</v>
-      </c>
-      <c r="M8" s="305"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="325" t="s">
-        <v>159</v>
-      </c>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="321" t="s">
+      <c r="M9" s="296"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="316" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D9" s="323"/>
-      <c r="E9" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="F9" s="324" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="323">
-        <v>1</v>
-      </c>
-      <c r="H9" s="324" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" s="345">
-        <v>10</v>
-      </c>
-      <c r="J9" s="345">
-        <v>40</v>
-      </c>
-      <c r="K9" s="341">
-        <v>250</v>
-      </c>
-      <c r="L9" s="345">
-        <v>20</v>
-      </c>
-      <c r="M9" s="305"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="325" t="s">
-        <v>155</v>
-      </c>
       <c r="P9" s="39"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="307" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D10" s="309"/>
-      <c r="E10" s="309"/>
+      <c r="B10" s="298" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" s="300"/>
+      <c r="E10" s="300"/>
       <c r="F10" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="309">
+      <c r="G10" s="300">
         <v>1</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="I10" s="341">
+        <v>188</v>
+      </c>
+      <c r="I10" s="332">
         <v>10</v>
       </c>
-      <c r="J10" s="341">
+      <c r="J10" s="332">
         <v>140</v>
       </c>
-      <c r="K10" s="341">
+      <c r="K10" s="332">
         <v>140</v>
       </c>
-      <c r="L10" s="341">
+      <c r="L10" s="332">
         <v>10</v>
       </c>
-      <c r="M10" s="305"/>
+      <c r="M10" s="296"/>
       <c r="N10" s="34"/>
       <c r="O10" s="58" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P10" s="39"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="322" t="s">
-        <v>353</v>
+        <v>281</v>
+      </c>
+      <c r="C11" s="313" t="s">
+        <v>351</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G11" s="22">
         <v>1</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="I11" s="305">
-        <v>1</v>
-      </c>
-      <c r="J11" s="305">
+        <v>283</v>
+      </c>
+      <c r="I11" s="296">
+        <v>1</v>
+      </c>
+      <c r="J11" s="296">
         <v>3520</v>
       </c>
-      <c r="K11" s="305">
+      <c r="K11" s="296">
         <f>J11*L11</f>
         <v>7040</v>
       </c>
-      <c r="L11" s="305">
+      <c r="L11" s="296">
         <v>2</v>
       </c>
-      <c r="M11" s="305"/>
+      <c r="M11" s="296"/>
       <c r="N11" s="34"/>
-      <c r="O11" s="326" t="s">
-        <v>286</v>
+      <c r="O11" s="317" t="s">
+        <v>284</v>
       </c>
       <c r="P11" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="321" t="s">
+      <c r="B12" s="312" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D12" s="314"/>
+      <c r="E12" s="314"/>
+      <c r="F12" s="315" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="314">
+        <v>1</v>
+      </c>
+      <c r="H12" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D12" s="323"/>
-      <c r="E12" s="323"/>
-      <c r="F12" s="324" t="s">
+      <c r="I12" s="336">
+        <v>1</v>
+      </c>
+      <c r="J12" s="336">
+        <v>720</v>
+      </c>
+      <c r="K12" s="332">
+        <v>1270</v>
+      </c>
+      <c r="L12" s="336">
+        <v>20</v>
+      </c>
+      <c r="M12" s="296"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="315" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="323">
-        <v>1</v>
-      </c>
-      <c r="H12" s="324" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="345">
-        <v>1</v>
-      </c>
-      <c r="J12" s="345">
-        <v>720</v>
-      </c>
-      <c r="K12" s="341">
-        <v>1270</v>
-      </c>
-      <c r="L12" s="345">
-        <v>20</v>
-      </c>
-      <c r="M12" s="305"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="324" t="s">
-        <v>145</v>
-      </c>
       <c r="P12" s="39"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="304" t="s">
+      <c r="B13" s="295" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D13" s="244"/>
-      <c r="E13" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="F13" s="244" t="s">
+      <c r="C13" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="235"/>
+      <c r="E13" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13" s="235" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="22">
         <v>3</v>
       </c>
-      <c r="H13" s="244" t="s">
+      <c r="H13" s="235" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="305">
-        <v>1</v>
-      </c>
-      <c r="J13" s="305">
+      <c r="I13" s="296">
+        <v>1</v>
+      </c>
+      <c r="J13" s="296">
         <v>60</v>
       </c>
-      <c r="K13" s="305">
+      <c r="K13" s="296">
         <f>J13*L13</f>
         <v>7200</v>
       </c>
-      <c r="L13" s="305">
+      <c r="L13" s="296">
         <v>120</v>
       </c>
-      <c r="M13" s="305"/>
+      <c r="M13" s="296"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="326" t="s">
+      <c r="O13" s="317" t="s">
         <v>54</v>
       </c>
       <c r="P13" s="39" t="s">
@@ -9541,558 +9775,558 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="321" t="s">
+      <c r="B14" s="312" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" s="314"/>
+      <c r="E14" s="314"/>
+      <c r="F14" s="315" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="314">
+        <v>1</v>
+      </c>
+      <c r="H14" s="315" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D14" s="323"/>
-      <c r="E14" s="323"/>
-      <c r="F14" s="324" t="s">
+      <c r="I14" s="336">
+        <v>50</v>
+      </c>
+      <c r="J14" s="336">
+        <v>160</v>
+      </c>
+      <c r="K14" s="332">
+        <v>160</v>
+      </c>
+      <c r="L14" s="336">
+        <v>50</v>
+      </c>
+      <c r="M14" s="296"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="315" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="323">
-        <v>1</v>
-      </c>
-      <c r="H14" s="324" t="s">
-        <v>162</v>
-      </c>
-      <c r="I14" s="345">
-        <v>50</v>
-      </c>
-      <c r="J14" s="345">
+      <c r="P14" s="39"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="312" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D15" s="314"/>
+      <c r="E15" s="314"/>
+      <c r="F15" s="315" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="314">
+        <v>1</v>
+      </c>
+      <c r="H15" s="315" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="336">
+        <v>10</v>
+      </c>
+      <c r="J15" s="336">
+        <v>380</v>
+      </c>
+      <c r="K15" s="332">
+        <v>380</v>
+      </c>
+      <c r="L15" s="336">
+        <v>10</v>
+      </c>
+      <c r="M15" s="296"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="315" t="s">
+        <v>116</v>
+      </c>
+      <c r="P15" s="39"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="312" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" s="314"/>
+      <c r="E16" s="314"/>
+      <c r="F16" s="315" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="314">
+        <v>1</v>
+      </c>
+      <c r="H16" s="315" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="336">
+        <v>1</v>
+      </c>
+      <c r="J16" s="336">
+        <v>420</v>
+      </c>
+      <c r="K16" s="332">
+        <v>350</v>
+      </c>
+      <c r="L16" s="336">
+        <v>20</v>
+      </c>
+      <c r="M16" s="296"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="315" t="s">
+        <v>130</v>
+      </c>
+      <c r="P16" s="39"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="312" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="314"/>
+      <c r="E17" s="314"/>
+      <c r="F17" s="315" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="314">
+        <v>1</v>
+      </c>
+      <c r="H17" s="315" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="336">
+        <v>1</v>
+      </c>
+      <c r="J17" s="336">
+        <v>260</v>
+      </c>
+      <c r="K17" s="332">
+        <v>320</v>
+      </c>
+      <c r="L17" s="336">
+        <v>20</v>
+      </c>
+      <c r="M17" s="296"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="315" t="s">
+        <v>126</v>
+      </c>
+      <c r="P17" s="39"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="312" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D18" s="314"/>
+      <c r="E18" s="314"/>
+      <c r="F18" s="315" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="314">
+        <v>1</v>
+      </c>
+      <c r="H18" s="315" t="s">
+        <v>175</v>
+      </c>
+      <c r="I18" s="336">
+        <v>1</v>
+      </c>
+      <c r="J18" s="336">
+        <v>2850</v>
+      </c>
+      <c r="K18" s="332">
+        <v>3240</v>
+      </c>
+      <c r="L18" s="336">
+        <v>20</v>
+      </c>
+      <c r="M18" s="296"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="315" t="s">
+        <v>176</v>
+      </c>
+      <c r="P18" s="39"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="312" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" s="314"/>
+      <c r="E19" s="314"/>
+      <c r="F19" s="315" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="314">
+        <v>1</v>
+      </c>
+      <c r="H19" s="315" t="s">
+        <v>178</v>
+      </c>
+      <c r="I19" s="336">
+        <v>1</v>
+      </c>
+      <c r="J19" s="336">
+        <v>1750</v>
+      </c>
+      <c r="K19" s="332">
+        <v>1000</v>
+      </c>
+      <c r="L19" s="336">
+        <v>60</v>
+      </c>
+      <c r="M19" s="296"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="315" t="s">
+        <v>179</v>
+      </c>
+      <c r="P19" s="39"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="312" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" s="314"/>
+      <c r="E20" s="314"/>
+      <c r="F20" s="315" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="314">
+        <v>1</v>
+      </c>
+      <c r="H20" s="315" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="336">
+        <v>1</v>
+      </c>
+      <c r="J20" s="336">
+        <v>480</v>
+      </c>
+      <c r="K20" s="332">
+        <v>260</v>
+      </c>
+      <c r="L20" s="336">
+        <v>100</v>
+      </c>
+      <c r="M20" s="296"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="315" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="39"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="312" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" s="314"/>
+      <c r="E21" s="314"/>
+      <c r="F21" s="315" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="314">
+        <v>1</v>
+      </c>
+      <c r="H21" s="315" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="336">
+        <v>1</v>
+      </c>
+      <c r="J21" s="336">
+        <v>750</v>
+      </c>
+      <c r="K21" s="332">
+        <v>550</v>
+      </c>
+      <c r="L21" s="336">
+        <v>25</v>
+      </c>
+      <c r="M21" s="296"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="315" t="s">
+        <v>172</v>
+      </c>
+      <c r="P21" s="39"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="312" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="314"/>
+      <c r="E22" s="314"/>
+      <c r="F22" s="315" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="314">
+        <v>1</v>
+      </c>
+      <c r="H22" s="315" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" s="336">
+        <v>1</v>
+      </c>
+      <c r="J22" s="336">
+        <v>2150</v>
+      </c>
+      <c r="K22" s="332">
+        <v>1880</v>
+      </c>
+      <c r="L22" s="336">
+        <v>20</v>
+      </c>
+      <c r="M22" s="296"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="315" t="s">
+        <v>135</v>
+      </c>
+      <c r="P22" s="39"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="312" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D23" s="314"/>
+      <c r="E23" s="314"/>
+      <c r="F23" s="315" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="314">
+        <v>3</v>
+      </c>
+      <c r="H23" s="315" t="s">
         <v>160</v>
       </c>
-      <c r="K14" s="341">
-        <v>160</v>
-      </c>
-      <c r="L14" s="345">
-        <v>50</v>
-      </c>
-      <c r="M14" s="305"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="324" t="s">
-        <v>163</v>
-      </c>
-      <c r="P14" s="39"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="321" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D15" s="323"/>
-      <c r="E15" s="323"/>
-      <c r="F15" s="324" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="323">
-        <v>1</v>
-      </c>
-      <c r="H15" s="324" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" s="345">
+      <c r="I23" s="336">
+        <v>1</v>
+      </c>
+      <c r="J23" s="336">
+        <v>280</v>
+      </c>
+      <c r="K23" s="332">
+        <v>270</v>
+      </c>
+      <c r="L23" s="336">
+        <v>60</v>
+      </c>
+      <c r="M23" s="296"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="315" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="39"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="312" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="314"/>
+      <c r="E24" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" s="315" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="314">
+        <v>1</v>
+      </c>
+      <c r="H24" s="315" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="336">
         <v>10</v>
       </c>
-      <c r="J15" s="345">
+      <c r="J24" s="336">
+        <v>200</v>
+      </c>
+      <c r="K24" s="332">
+        <v>200</v>
+      </c>
+      <c r="L24" s="336">
+        <v>20</v>
+      </c>
+      <c r="M24" s="296"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="315" t="s">
+        <v>111</v>
+      </c>
+      <c r="P24" s="39"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="312" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D25" s="314"/>
+      <c r="E25" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="F25" s="315" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="314">
+        <v>1</v>
+      </c>
+      <c r="H25" s="315" t="s">
+        <v>168</v>
+      </c>
+      <c r="I25" s="336">
+        <v>1</v>
+      </c>
+      <c r="J25" s="336">
+        <v>3970</v>
+      </c>
+      <c r="K25" s="332">
+        <v>2340</v>
+      </c>
+      <c r="L25" s="336">
+        <v>40</v>
+      </c>
+      <c r="M25" s="296"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="315" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="39"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="312" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D26" s="314"/>
+      <c r="E26" s="314"/>
+      <c r="F26" s="315" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="314">
+        <v>1</v>
+      </c>
+      <c r="H26" s="315" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="336">
+        <v>1</v>
+      </c>
+      <c r="J26" s="336">
+        <v>520</v>
+      </c>
+      <c r="K26" s="332">
         <v>380</v>
       </c>
-      <c r="K15" s="341">
-        <v>380</v>
-      </c>
-      <c r="L15" s="345">
-        <v>10</v>
-      </c>
-      <c r="M15" s="305"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="324" t="s">
-        <v>118</v>
-      </c>
-      <c r="P15" s="39"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="321" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D16" s="323"/>
-      <c r="E16" s="323"/>
-      <c r="F16" s="324" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="323">
-        <v>1</v>
-      </c>
-      <c r="H16" s="324" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" s="345">
-        <v>1</v>
-      </c>
-      <c r="J16" s="345">
-        <v>420</v>
-      </c>
-      <c r="K16" s="341">
-        <v>350</v>
-      </c>
-      <c r="L16" s="345">
+      <c r="L26" s="336">
         <v>20</v>
       </c>
-      <c r="M16" s="305"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="324" t="s">
-        <v>132</v>
-      </c>
-      <c r="P16" s="39"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="321" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D17" s="323"/>
-      <c r="E17" s="323"/>
-      <c r="F17" s="324" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="323">
-        <v>1</v>
-      </c>
-      <c r="H17" s="324" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="345">
-        <v>1</v>
-      </c>
-      <c r="J17" s="345">
-        <v>260</v>
-      </c>
-      <c r="K17" s="341">
-        <v>320</v>
-      </c>
-      <c r="L17" s="345">
-        <v>20</v>
-      </c>
-      <c r="M17" s="305"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="324" t="s">
-        <v>128</v>
-      </c>
-      <c r="P17" s="39"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="321" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D18" s="323"/>
-      <c r="E18" s="323"/>
-      <c r="F18" s="324" t="s">
-        <v>176</v>
-      </c>
-      <c r="G18" s="323">
-        <v>1</v>
-      </c>
-      <c r="H18" s="324" t="s">
-        <v>177</v>
-      </c>
-      <c r="I18" s="345">
-        <v>1</v>
-      </c>
-      <c r="J18" s="345">
-        <v>2850</v>
-      </c>
-      <c r="K18" s="341">
-        <v>3240</v>
-      </c>
-      <c r="L18" s="345">
-        <v>20</v>
-      </c>
-      <c r="M18" s="305"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="324" t="s">
-        <v>178</v>
-      </c>
-      <c r="P18" s="39"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="321" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D19" s="323"/>
-      <c r="E19" s="323"/>
-      <c r="F19" s="324" t="s">
-        <v>176</v>
-      </c>
-      <c r="G19" s="323">
-        <v>1</v>
-      </c>
-      <c r="H19" s="324" t="s">
-        <v>180</v>
-      </c>
-      <c r="I19" s="345">
-        <v>1</v>
-      </c>
-      <c r="J19" s="345">
-        <v>1750</v>
-      </c>
-      <c r="K19" s="341">
-        <v>1000</v>
-      </c>
-      <c r="L19" s="345">
-        <v>60</v>
-      </c>
-      <c r="M19" s="305"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="324" t="s">
-        <v>181</v>
-      </c>
-      <c r="P19" s="39"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="321" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D20" s="323"/>
-      <c r="E20" s="323"/>
-      <c r="F20" s="324" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="323">
-        <v>1</v>
-      </c>
-      <c r="H20" s="324" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="345">
-        <v>1</v>
-      </c>
-      <c r="J20" s="345">
-        <v>480</v>
-      </c>
-      <c r="K20" s="341">
-        <v>260</v>
-      </c>
-      <c r="L20" s="345">
-        <v>100</v>
-      </c>
-      <c r="M20" s="305"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="324" t="s">
-        <v>141</v>
-      </c>
-      <c r="P20" s="39"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="321" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D21" s="323"/>
-      <c r="E21" s="323"/>
-      <c r="F21" s="324" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" s="323">
-        <v>1</v>
-      </c>
-      <c r="H21" s="324" t="s">
-        <v>173</v>
-      </c>
-      <c r="I21" s="345">
-        <v>1</v>
-      </c>
-      <c r="J21" s="345">
-        <v>750</v>
-      </c>
-      <c r="K21" s="341">
-        <v>550</v>
-      </c>
-      <c r="L21" s="345">
-        <v>25</v>
-      </c>
-      <c r="M21" s="305"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="324" t="s">
-        <v>174</v>
-      </c>
-      <c r="P21" s="39"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="321" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D22" s="323"/>
-      <c r="E22" s="323"/>
-      <c r="F22" s="324" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" s="323">
-        <v>1</v>
-      </c>
-      <c r="H22" s="324" t="s">
-        <v>136</v>
-      </c>
-      <c r="I22" s="345">
-        <v>1</v>
-      </c>
-      <c r="J22" s="345">
-        <v>2150</v>
-      </c>
-      <c r="K22" s="341">
-        <v>1880</v>
-      </c>
-      <c r="L22" s="345">
-        <v>20</v>
-      </c>
-      <c r="M22" s="305"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="324" t="s">
-        <v>137</v>
-      </c>
-      <c r="P22" s="39"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="321" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D23" s="323"/>
-      <c r="E23" s="323"/>
-      <c r="F23" s="324" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" s="323">
-        <v>3</v>
-      </c>
-      <c r="H23" s="324" t="s">
-        <v>162</v>
-      </c>
-      <c r="I23" s="345">
-        <v>1</v>
-      </c>
-      <c r="J23" s="345">
-        <v>280</v>
-      </c>
-      <c r="K23" s="341">
-        <v>270</v>
-      </c>
-      <c r="L23" s="345">
-        <v>60</v>
-      </c>
-      <c r="M23" s="305"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="324" t="s">
-        <v>167</v>
-      </c>
-      <c r="P23" s="39"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="321" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D24" s="323"/>
-      <c r="E24" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="F24" s="324" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="323">
-        <v>1</v>
-      </c>
-      <c r="H24" s="324" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" s="345">
-        <v>10</v>
-      </c>
-      <c r="J24" s="345">
-        <v>200</v>
-      </c>
-      <c r="K24" s="341">
-        <v>200</v>
-      </c>
-      <c r="L24" s="345">
-        <v>20</v>
-      </c>
-      <c r="M24" s="305"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="324" t="s">
-        <v>113</v>
-      </c>
-      <c r="P24" s="39"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="321" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D25" s="323"/>
-      <c r="E25" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="F25" s="324" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="323">
-        <v>1</v>
-      </c>
-      <c r="H25" s="324" t="s">
-        <v>170</v>
-      </c>
-      <c r="I25" s="345">
-        <v>1</v>
-      </c>
-      <c r="J25" s="345">
-        <v>3970</v>
-      </c>
-      <c r="K25" s="341">
-        <v>2340</v>
-      </c>
-      <c r="L25" s="345">
-        <v>40</v>
-      </c>
-      <c r="M25" s="305"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="324" t="s">
-        <v>114</v>
-      </c>
-      <c r="P25" s="39"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="321" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D26" s="323"/>
-      <c r="E26" s="323"/>
-      <c r="F26" s="324" t="s">
+      <c r="M26" s="296"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="315" t="s">
         <v>107</v>
-      </c>
-      <c r="G26" s="323">
-        <v>1</v>
-      </c>
-      <c r="H26" s="324" t="s">
-        <v>108</v>
-      </c>
-      <c r="I26" s="345">
-        <v>1</v>
-      </c>
-      <c r="J26" s="345">
-        <v>520</v>
-      </c>
-      <c r="K26" s="341">
-        <v>380</v>
-      </c>
-      <c r="L26" s="345">
-        <v>20</v>
-      </c>
-      <c r="M26" s="305"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="324" t="s">
-        <v>109</v>
       </c>
       <c r="P26" s="39"/>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="321" t="s">
+      <c r="B27" s="312" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="D27" s="314"/>
+      <c r="E27" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="F27" s="315" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="314">
+        <v>1</v>
+      </c>
+      <c r="H27" s="315" t="s">
+        <v>181</v>
+      </c>
+      <c r="I27" s="336">
+        <v>5</v>
+      </c>
+      <c r="J27" s="336">
+        <v>870</v>
+      </c>
+      <c r="K27" s="332">
+        <v>870</v>
+      </c>
+      <c r="L27" s="336">
+        <v>40</v>
+      </c>
+      <c r="M27" s="296"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="315" t="s">
         <v>182</v>
-      </c>
-      <c r="C27" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="D27" s="323"/>
-      <c r="E27" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="F27" s="324" t="s">
-        <v>176</v>
-      </c>
-      <c r="G27" s="323">
-        <v>1</v>
-      </c>
-      <c r="H27" s="324" t="s">
-        <v>183</v>
-      </c>
-      <c r="I27" s="345">
-        <v>5</v>
-      </c>
-      <c r="J27" s="345">
-        <v>870</v>
-      </c>
-      <c r="K27" s="341">
-        <v>870</v>
-      </c>
-      <c r="L27" s="345">
-        <v>40</v>
-      </c>
-      <c r="M27" s="305"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="324" t="s">
-        <v>184</v>
       </c>
       <c r="P27" s="39"/>
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="310" t="s">
+      <c r="B28" s="301" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="311"/>
-      <c r="D28" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E28" s="322"/>
-      <c r="F28" s="322"/>
-      <c r="G28" s="312">
-        <v>1</v>
-      </c>
-      <c r="H28" s="313" t="s">
+      <c r="C28" s="302"/>
+      <c r="D28" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E28" s="313"/>
+      <c r="F28" s="313"/>
+      <c r="G28" s="303">
+        <v>1</v>
+      </c>
+      <c r="H28" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="305">
+      <c r="I28" s="296">
         <v>50</v>
       </c>
-      <c r="J28" s="305">
+      <c r="J28" s="296">
         <v>100</v>
       </c>
-      <c r="K28" s="305"/>
-      <c r="L28" s="305">
+      <c r="K28" s="296"/>
+      <c r="L28" s="296">
         <v>50</v>
       </c>
-      <c r="M28" s="305">
+      <c r="M28" s="296">
         <f>J28*L28</f>
         <v>5000</v>
       </c>
@@ -10105,32 +10339,32 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="310" t="s">
+      <c r="B29" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="311"/>
-      <c r="D29" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E29" s="322"/>
-      <c r="F29" s="322"/>
-      <c r="G29" s="312">
+      <c r="C29" s="302"/>
+      <c r="D29" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E29" s="313"/>
+      <c r="F29" s="313"/>
+      <c r="G29" s="303">
         <v>2</v>
       </c>
-      <c r="H29" s="313" t="s">
+      <c r="H29" s="304" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="305">
-        <v>1</v>
-      </c>
-      <c r="J29" s="305">
+      <c r="I29" s="296">
+        <v>1</v>
+      </c>
+      <c r="J29" s="296">
         <v>1260</v>
       </c>
-      <c r="K29" s="305"/>
-      <c r="L29" s="305">
+      <c r="K29" s="296"/>
+      <c r="L29" s="296">
         <v>6</v>
       </c>
-      <c r="M29" s="305">
+      <c r="M29" s="296">
         <f>J29*L29</f>
         <v>7560</v>
       </c>
@@ -10143,69 +10377,69 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="327" t="s">
+      <c r="B30" s="318" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="328"/>
-      <c r="D30" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E30" s="322"/>
-      <c r="F30" s="322"/>
+      <c r="C30" s="319"/>
+      <c r="D30" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E30" s="313"/>
+      <c r="F30" s="313"/>
       <c r="G30" s="22">
         <v>2</v>
       </c>
-      <c r="H30" s="329" t="s">
-        <v>349</v>
-      </c>
-      <c r="I30" s="305">
-        <v>1</v>
-      </c>
-      <c r="J30" s="305">
+      <c r="H30" s="320" t="s">
+        <v>347</v>
+      </c>
+      <c r="I30" s="296">
+        <v>1</v>
+      </c>
+      <c r="J30" s="296">
         <v>960</v>
       </c>
-      <c r="K30" s="305"/>
-      <c r="L30" s="305">
+      <c r="K30" s="296"/>
+      <c r="L30" s="296">
         <v>20</v>
       </c>
-      <c r="M30" s="305">
+      <c r="M30" s="296">
         <v>16400</v>
       </c>
       <c r="N30" s="34"/>
       <c r="O30" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="P30" s="306" t="s">
+      <c r="P30" s="297" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="307" t="s">
+      <c r="B31" s="298" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="308"/>
-      <c r="D31" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E31" s="322"/>
-      <c r="F31" s="322"/>
-      <c r="G31" s="309">
+      <c r="C31" s="299"/>
+      <c r="D31" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E31" s="313"/>
+      <c r="F31" s="313"/>
+      <c r="G31" s="300">
         <v>10</v>
       </c>
-      <c r="H31" s="308" t="s">
+      <c r="H31" s="299" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="305">
+      <c r="I31" s="296">
         <v>5</v>
       </c>
-      <c r="J31" s="305">
+      <c r="J31" s="296">
         <v>2280</v>
       </c>
-      <c r="K31" s="305"/>
-      <c r="L31" s="305">
+      <c r="K31" s="296"/>
+      <c r="L31" s="296">
         <v>10</v>
       </c>
-      <c r="M31" s="305">
+      <c r="M31" s="296">
         <f t="shared" ref="M31:M37" si="0">J31*L31</f>
         <v>22800</v>
       </c>
@@ -10218,32 +10452,32 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="310" t="s">
+      <c r="B32" s="301" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="311"/>
-      <c r="D32" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E32" s="322"/>
-      <c r="F32" s="322"/>
-      <c r="G32" s="312">
-        <v>1</v>
-      </c>
-      <c r="H32" s="313" t="s">
+      <c r="C32" s="302"/>
+      <c r="D32" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E32" s="313"/>
+      <c r="F32" s="313"/>
+      <c r="G32" s="303">
+        <v>1</v>
+      </c>
+      <c r="H32" s="304" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="305">
+      <c r="I32" s="296">
         <v>2</v>
       </c>
-      <c r="J32" s="305">
+      <c r="J32" s="296">
         <v>7100</v>
       </c>
-      <c r="K32" s="305"/>
-      <c r="L32" s="305">
+      <c r="K32" s="296"/>
+      <c r="L32" s="296">
         <v>2</v>
       </c>
-      <c r="M32" s="305">
+      <c r="M32" s="296">
         <f t="shared" si="0"/>
         <v>14200</v>
       </c>
@@ -10260,28 +10494,28 @@
         <v>28</v>
       </c>
       <c r="C33" s="53"/>
-      <c r="D33" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E33" s="322"/>
-      <c r="F33" s="322"/>
+      <c r="D33" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E33" s="313"/>
+      <c r="F33" s="313"/>
       <c r="G33" s="22">
         <v>1</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="305">
-        <v>1</v>
-      </c>
-      <c r="J33" s="305">
+      <c r="I33" s="296">
+        <v>1</v>
+      </c>
+      <c r="J33" s="296">
         <v>11090</v>
       </c>
-      <c r="K33" s="305"/>
-      <c r="L33" s="305">
+      <c r="K33" s="296"/>
+      <c r="L33" s="296">
         <v>2</v>
       </c>
-      <c r="M33" s="305">
+      <c r="M33" s="296">
         <f t="shared" si="0"/>
         <v>22180</v>
       </c>
@@ -10294,32 +10528,32 @@
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="314" t="s">
+      <c r="B34" s="305" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="315"/>
-      <c r="D34" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E34" s="322"/>
-      <c r="F34" s="322"/>
-      <c r="G34" s="312">
-        <v>1</v>
-      </c>
-      <c r="H34" s="313" t="s">
+      <c r="C34" s="306"/>
+      <c r="D34" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E34" s="313"/>
+      <c r="F34" s="313"/>
+      <c r="G34" s="303">
+        <v>1</v>
+      </c>
+      <c r="H34" s="304" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="305">
+      <c r="I34" s="296">
         <v>2</v>
       </c>
-      <c r="J34" s="305">
+      <c r="J34" s="296">
         <v>13200</v>
       </c>
-      <c r="K34" s="305"/>
-      <c r="L34" s="305">
+      <c r="K34" s="296"/>
+      <c r="L34" s="296">
         <v>4</v>
       </c>
-      <c r="M34" s="305">
+      <c r="M34" s="296">
         <f t="shared" si="0"/>
         <v>52800</v>
       </c>
@@ -10332,34 +10566,34 @@
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="310" t="s">
+      <c r="B35" s="301" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="311"/>
-      <c r="D35" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E35" s="322"/>
+      <c r="C35" s="302"/>
+      <c r="D35" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E35" s="313"/>
       <c r="F35" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="312">
-        <v>1</v>
-      </c>
-      <c r="H35" s="313" t="s">
+      <c r="G35" s="303">
+        <v>1</v>
+      </c>
+      <c r="H35" s="304" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="305">
+      <c r="I35" s="296">
         <v>100</v>
       </c>
-      <c r="J35" s="305">
+      <c r="J35" s="296">
         <v>130</v>
       </c>
-      <c r="K35" s="305"/>
-      <c r="L35" s="305">
+      <c r="K35" s="296"/>
+      <c r="L35" s="296">
         <v>100</v>
       </c>
-      <c r="M35" s="305">
+      <c r="M35" s="296">
         <f t="shared" si="0"/>
         <v>13000</v>
       </c>
@@ -10375,31 +10609,31 @@
       <c r="B36" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="316"/>
-      <c r="D36" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E36" s="322"/>
+      <c r="C36" s="307"/>
+      <c r="D36" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E36" s="313"/>
       <c r="F36" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="312">
+      <c r="G36" s="303">
         <v>1</v>
       </c>
       <c r="H36" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="305">
+      <c r="I36" s="296">
         <v>5</v>
       </c>
-      <c r="J36" s="305">
+      <c r="J36" s="296">
         <v>210</v>
       </c>
-      <c r="K36" s="305"/>
-      <c r="L36" s="305">
+      <c r="K36" s="296"/>
+      <c r="L36" s="296">
         <v>30</v>
       </c>
-      <c r="M36" s="305">
+      <c r="M36" s="296">
         <f t="shared" si="0"/>
         <v>6300</v>
       </c>
@@ -10415,35 +10649,35 @@
       <c r="B37" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="316"/>
-      <c r="D37" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E37" s="322"/>
+      <c r="C37" s="307"/>
+      <c r="D37" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E37" s="313"/>
       <c r="F37" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="312">
+      <c r="G37" s="303">
         <v>4</v>
       </c>
       <c r="H37" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="305">
+      <c r="I37" s="296">
         <v>100</v>
       </c>
-      <c r="J37" s="305">
+      <c r="J37" s="296">
         <v>20</v>
       </c>
-      <c r="K37" s="305"/>
-      <c r="L37" s="340">
+      <c r="K37" s="296"/>
+      <c r="L37" s="331">
         <v>200</v>
       </c>
-      <c r="M37" s="305">
+      <c r="M37" s="296">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="N37" s="330" t="s">
+      <c r="N37" s="321" t="s">
         <v>41</v>
       </c>
       <c r="O37" s="34" t="s">
@@ -10454,114 +10688,114 @@
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="307" t="s">
-        <v>193</v>
-      </c>
-      <c r="C38" s="309"/>
-      <c r="D38" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E38" s="322"/>
+      <c r="B38" s="298" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="300"/>
+      <c r="D38" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E38" s="313"/>
       <c r="F38" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="309">
+      <c r="G38" s="300">
         <v>1</v>
       </c>
       <c r="H38" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="I38" s="341">
+        <v>192</v>
+      </c>
+      <c r="I38" s="332">
         <v>10</v>
       </c>
-      <c r="J38" s="341">
+      <c r="J38" s="332">
         <v>230</v>
       </c>
-      <c r="K38" s="341">
+      <c r="K38" s="332">
         <v>230</v>
       </c>
-      <c r="L38" s="341">
+      <c r="L38" s="332">
         <v>20</v>
       </c>
-      <c r="M38" s="305"/>
+      <c r="M38" s="296"/>
       <c r="N38" s="34"/>
       <c r="O38" s="58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P38" s="39"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="307" t="s">
-        <v>196</v>
+      <c r="B39" s="298" t="s">
+        <v>194</v>
       </c>
       <c r="C39" s="58"/>
-      <c r="D39" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E39" s="322"/>
+      <c r="D39" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E39" s="313"/>
       <c r="F39" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="309">
+      <c r="G39" s="300">
         <v>8</v>
       </c>
       <c r="H39" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="I39" s="341">
+        <v>196</v>
+      </c>
+      <c r="I39" s="332">
         <v>300</v>
       </c>
-      <c r="J39" s="341">
+      <c r="J39" s="332">
         <v>130</v>
       </c>
-      <c r="K39" s="341">
+      <c r="K39" s="332">
         <v>130</v>
       </c>
-      <c r="L39" s="341">
+      <c r="L39" s="332">
         <v>300</v>
       </c>
-      <c r="M39" s="305"/>
+      <c r="M39" s="296"/>
       <c r="N39" s="34"/>
       <c r="O39" s="58" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P39" s="39"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="327" t="s">
+      <c r="B40" s="318" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="328"/>
-      <c r="D40" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E40" s="322"/>
+      <c r="C40" s="319"/>
+      <c r="D40" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E40" s="313"/>
       <c r="F40" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="G40" s="309">
+        <v>203</v>
+      </c>
+      <c r="G40" s="300">
         <v>2</v>
       </c>
-      <c r="H40" s="329" t="s">
-        <v>349</v>
-      </c>
-      <c r="I40" s="341">
-        <v>1</v>
-      </c>
-      <c r="J40" s="341">
+      <c r="H40" s="320" t="s">
+        <v>347</v>
+      </c>
+      <c r="I40" s="332">
+        <v>1</v>
+      </c>
+      <c r="J40" s="332">
         <v>1020</v>
       </c>
-      <c r="K40" s="341">
+      <c r="K40" s="332">
         <f>J40*L40</f>
         <v>20400</v>
       </c>
-      <c r="L40" s="341">
+      <c r="L40" s="332">
         <v>20</v>
       </c>
-      <c r="M40" s="305"/>
+      <c r="M40" s="296"/>
       <c r="N40" s="34"/>
       <c r="O40" s="58" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P40" s="39" t="s">
         <v>9</v>
@@ -10569,40 +10803,40 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="307" t="s">
-        <v>206</v>
+      <c r="B41" s="298" t="s">
+        <v>204</v>
       </c>
       <c r="C41" s="58"/>
-      <c r="D41" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E41" s="322"/>
+      <c r="D41" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E41" s="313"/>
       <c r="F41" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="309">
+      <c r="G41" s="300">
         <v>1</v>
       </c>
       <c r="H41" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="I41" s="341">
+        <v>205</v>
+      </c>
+      <c r="I41" s="332">
         <v>100</v>
       </c>
-      <c r="J41" s="341">
+      <c r="J41" s="332">
         <v>130</v>
       </c>
-      <c r="K41" s="341">
+      <c r="K41" s="332">
         <f>J41*L41</f>
         <v>13000</v>
       </c>
-      <c r="L41" s="341">
+      <c r="L41" s="332">
         <v>100</v>
       </c>
-      <c r="M41" s="305"/>
+      <c r="M41" s="296"/>
       <c r="N41" s="34"/>
-      <c r="O41" s="331" t="s">
-        <v>291</v>
+      <c r="O41" s="322" t="s">
+        <v>289</v>
       </c>
       <c r="P41" s="39" t="s">
         <v>9</v>
@@ -10610,38 +10844,38 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B42" s="304" t="s">
+      <c r="B42" s="295" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="332"/>
-      <c r="D42" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E42" s="322"/>
-      <c r="F42" s="244" t="s">
+      <c r="C42" s="323"/>
+      <c r="D42" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E42" s="313"/>
+      <c r="F42" s="235" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="332">
-        <v>1</v>
-      </c>
-      <c r="H42" s="244" t="s">
+      <c r="G42" s="323">
+        <v>1</v>
+      </c>
+      <c r="H42" s="235" t="s">
         <v>66</v>
       </c>
-      <c r="I42" s="346">
+      <c r="I42" s="337">
         <v>50</v>
       </c>
-      <c r="J42" s="346">
+      <c r="J42" s="337">
         <v>210</v>
       </c>
-      <c r="K42" s="346">
+      <c r="K42" s="337">
         <v>10500</v>
       </c>
-      <c r="L42" s="346">
+      <c r="L42" s="337">
         <v>50</v>
       </c>
-      <c r="M42" s="305"/>
+      <c r="M42" s="296"/>
       <c r="N42" s="34"/>
-      <c r="O42" s="326" t="s">
+      <c r="O42" s="317" t="s">
         <v>67</v>
       </c>
       <c r="P42" s="39" t="s">
@@ -10650,38 +10884,38 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="304" t="s">
+      <c r="B43" s="295" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="332"/>
-      <c r="D43" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E43" s="322"/>
-      <c r="F43" s="244" t="s">
+      <c r="C43" s="323"/>
+      <c r="D43" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E43" s="313"/>
+      <c r="F43" s="235" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="332">
-        <v>1</v>
-      </c>
-      <c r="H43" s="244" t="s">
+      <c r="G43" s="323">
+        <v>1</v>
+      </c>
+      <c r="H43" s="235" t="s">
         <v>69</v>
       </c>
-      <c r="I43" s="346">
+      <c r="I43" s="337">
         <v>10</v>
       </c>
-      <c r="J43" s="346">
+      <c r="J43" s="337">
         <v>210</v>
       </c>
-      <c r="K43" s="346">
+      <c r="K43" s="337">
         <v>2100</v>
       </c>
-      <c r="L43" s="346">
+      <c r="L43" s="337">
         <v>10</v>
       </c>
-      <c r="M43" s="305"/>
+      <c r="M43" s="296"/>
       <c r="N43" s="34"/>
-      <c r="O43" s="326" t="s">
+      <c r="O43" s="317" t="s">
         <v>70</v>
       </c>
       <c r="P43" s="39" t="s">
@@ -10690,36 +10924,36 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="304" t="s">
+      <c r="B44" s="295" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="332"/>
-      <c r="D44" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E44" s="322"/>
-      <c r="F44" s="244"/>
-      <c r="G44" s="332">
+      <c r="C44" s="323"/>
+      <c r="D44" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E44" s="313"/>
+      <c r="F44" s="235"/>
+      <c r="G44" s="323">
         <v>2</v>
       </c>
-      <c r="H44" s="244" t="s">
+      <c r="H44" s="235" t="s">
         <v>72</v>
       </c>
-      <c r="I44" s="346">
+      <c r="I44" s="337">
         <v>100</v>
       </c>
-      <c r="J44" s="346">
+      <c r="J44" s="337">
         <v>80</v>
       </c>
-      <c r="K44" s="346">
+      <c r="K44" s="337">
         <v>4000</v>
       </c>
-      <c r="L44" s="346">
+      <c r="L44" s="337">
         <v>100</v>
       </c>
-      <c r="M44" s="305"/>
+      <c r="M44" s="296"/>
       <c r="N44" s="34"/>
-      <c r="O44" s="326" t="s">
+      <c r="O44" s="317" t="s">
         <v>73</v>
       </c>
       <c r="P44" s="39" t="s">
@@ -10728,36 +10962,36 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="304" t="s">
+      <c r="B45" s="295" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="244"/>
-      <c r="D45" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E45" s="322"/>
-      <c r="F45" s="244" t="s">
+      <c r="C45" s="235"/>
+      <c r="D45" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E45" s="313"/>
+      <c r="F45" s="235" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="332">
-        <v>1</v>
-      </c>
-      <c r="H45" s="244" t="s">
+      <c r="G45" s="323">
+        <v>1</v>
+      </c>
+      <c r="H45" s="235" t="s">
         <v>77</v>
       </c>
-      <c r="I45" s="346"/>
-      <c r="J45" s="346">
+      <c r="I45" s="337"/>
+      <c r="J45" s="337">
         <v>270</v>
       </c>
-      <c r="K45" s="346">
+      <c r="K45" s="337">
         <v>0</v>
       </c>
-      <c r="L45" s="346">
+      <c r="L45" s="337">
         <v>20</v>
       </c>
-      <c r="M45" s="305"/>
+      <c r="M45" s="296"/>
       <c r="N45" s="34"/>
-      <c r="O45" s="244" t="s">
+      <c r="O45" s="235" t="s">
         <v>78</v>
       </c>
       <c r="P45" s="39" t="s">
@@ -10766,38 +11000,38 @@
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="304" t="s">
+      <c r="B46" s="295" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="244"/>
-      <c r="D46" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E46" s="322"/>
-      <c r="F46" s="244" t="s">
+      <c r="C46" s="235"/>
+      <c r="D46" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E46" s="313"/>
+      <c r="F46" s="235" t="s">
         <v>80</v>
       </c>
-      <c r="G46" s="332">
-        <v>1</v>
-      </c>
-      <c r="H46" s="244" t="s">
+      <c r="G46" s="323">
+        <v>1</v>
+      </c>
+      <c r="H46" s="235" t="s">
         <v>79</v>
       </c>
-      <c r="I46" s="346">
+      <c r="I46" s="337">
         <v>10</v>
       </c>
-      <c r="J46" s="346">
+      <c r="J46" s="337">
         <v>200</v>
       </c>
-      <c r="K46" s="346">
+      <c r="K46" s="337">
         <v>2000</v>
       </c>
-      <c r="L46" s="346">
+      <c r="L46" s="337">
         <v>10</v>
       </c>
-      <c r="M46" s="305"/>
+      <c r="M46" s="296"/>
       <c r="N46" s="34"/>
-      <c r="O46" s="326" t="s">
+      <c r="O46" s="317" t="s">
         <v>81</v>
       </c>
       <c r="P46" s="39" t="s">
@@ -10806,38 +11040,38 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="304" t="s">
+      <c r="B47" s="295" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="244"/>
-      <c r="D47" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="E47" s="322"/>
-      <c r="F47" s="244" t="s">
+      <c r="C47" s="235"/>
+      <c r="D47" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="E47" s="313"/>
+      <c r="F47" s="235" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="332">
-        <v>1</v>
-      </c>
-      <c r="H47" s="244" t="s">
+      <c r="G47" s="323">
+        <v>1</v>
+      </c>
+      <c r="H47" s="235" t="s">
         <v>82</v>
       </c>
-      <c r="I47" s="346">
+      <c r="I47" s="337">
         <v>10</v>
       </c>
-      <c r="J47" s="346">
+      <c r="J47" s="337">
         <v>200</v>
       </c>
-      <c r="K47" s="346">
+      <c r="K47" s="337">
         <v>2000</v>
       </c>
-      <c r="L47" s="346">
+      <c r="L47" s="337">
         <v>10</v>
       </c>
-      <c r="M47" s="305"/>
+      <c r="M47" s="296"/>
       <c r="N47" s="34"/>
-      <c r="O47" s="326" t="s">
+      <c r="O47" s="317" t="s">
         <v>83</v>
       </c>
       <c r="P47" s="39" t="s">
@@ -10846,40 +11080,40 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B48" s="333" t="s">
-        <v>329</v>
-      </c>
-      <c r="C48" s="334"/>
-      <c r="D48" s="334"/>
-      <c r="E48" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="F48" s="334" t="s">
+      <c r="B48" s="324" t="s">
+        <v>327</v>
+      </c>
+      <c r="C48" s="325"/>
+      <c r="D48" s="325"/>
+      <c r="E48" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="F48" s="325" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="350">
-        <v>1</v>
-      </c>
-      <c r="H48" s="334" t="s">
-        <v>337</v>
-      </c>
-      <c r="I48" s="347">
+      <c r="G48" s="341">
+        <v>1</v>
+      </c>
+      <c r="H48" s="325" t="s">
+        <v>335</v>
+      </c>
+      <c r="I48" s="338">
         <v>100</v>
       </c>
-      <c r="J48" s="347">
+      <c r="J48" s="338">
         <v>50</v>
       </c>
-      <c r="K48" s="305"/>
-      <c r="L48" s="347">
+      <c r="K48" s="296"/>
+      <c r="L48" s="338">
         <v>100</v>
       </c>
-      <c r="M48" s="305">
+      <c r="M48" s="296">
         <f t="shared" ref="M48:M53" si="1">J48*L48</f>
         <v>5000</v>
       </c>
       <c r="N48" s="34"/>
-      <c r="O48" s="335" t="s">
-        <v>343</v>
+      <c r="O48" s="326" t="s">
+        <v>341</v>
       </c>
       <c r="P48" s="39" t="s">
         <v>9</v>
@@ -10887,40 +11121,40 @@
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B49" s="333" t="s">
-        <v>335</v>
-      </c>
-      <c r="C49" s="334"/>
-      <c r="D49" s="334"/>
-      <c r="E49" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="F49" s="334" t="s">
-        <v>334</v>
-      </c>
-      <c r="G49" s="350">
-        <v>1</v>
-      </c>
-      <c r="H49" s="334" t="s">
-        <v>341</v>
-      </c>
-      <c r="I49" s="347">
-        <v>1</v>
-      </c>
-      <c r="J49" s="347">
+      <c r="B49" s="324" t="s">
+        <v>333</v>
+      </c>
+      <c r="C49" s="325"/>
+      <c r="D49" s="325"/>
+      <c r="E49" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="F49" s="325" t="s">
+        <v>332</v>
+      </c>
+      <c r="G49" s="341">
+        <v>1</v>
+      </c>
+      <c r="H49" s="325" t="s">
+        <v>339</v>
+      </c>
+      <c r="I49" s="338">
+        <v>1</v>
+      </c>
+      <c r="J49" s="338">
         <v>430</v>
       </c>
-      <c r="K49" s="305"/>
-      <c r="L49" s="347">
+      <c r="K49" s="296"/>
+      <c r="L49" s="338">
         <v>10</v>
       </c>
-      <c r="M49" s="305">
+      <c r="M49" s="296">
         <f t="shared" si="1"/>
         <v>4300</v>
       </c>
       <c r="N49" s="34"/>
-      <c r="O49" s="335" t="s">
-        <v>347</v>
+      <c r="O49" s="326" t="s">
+        <v>345</v>
       </c>
       <c r="P49" s="39" t="s">
         <v>9</v>
@@ -10928,40 +11162,40 @@
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B50" s="333" t="s">
-        <v>333</v>
-      </c>
-      <c r="C50" s="334"/>
-      <c r="D50" s="334"/>
-      <c r="E50" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="F50" s="334" t="s">
-        <v>334</v>
-      </c>
-      <c r="G50" s="350">
-        <v>1</v>
-      </c>
-      <c r="H50" s="334" t="s">
-        <v>340</v>
-      </c>
-      <c r="I50" s="347">
-        <v>1</v>
-      </c>
-      <c r="J50" s="347">
+      <c r="B50" s="324" t="s">
+        <v>331</v>
+      </c>
+      <c r="C50" s="325"/>
+      <c r="D50" s="325"/>
+      <c r="E50" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="F50" s="325" t="s">
+        <v>332</v>
+      </c>
+      <c r="G50" s="341">
+        <v>1</v>
+      </c>
+      <c r="H50" s="325" t="s">
+        <v>338</v>
+      </c>
+      <c r="I50" s="338">
+        <v>1</v>
+      </c>
+      <c r="J50" s="338">
         <v>430</v>
       </c>
-      <c r="K50" s="305"/>
-      <c r="L50" s="347">
+      <c r="K50" s="296"/>
+      <c r="L50" s="338">
         <v>10</v>
       </c>
-      <c r="M50" s="305">
+      <c r="M50" s="296">
         <f t="shared" si="1"/>
         <v>4300</v>
       </c>
       <c r="N50" s="34"/>
-      <c r="O50" s="335" t="s">
-        <v>346</v>
+      <c r="O50" s="326" t="s">
+        <v>344</v>
       </c>
       <c r="P50" s="39" t="s">
         <v>9</v>
@@ -10969,40 +11203,40 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="333" t="s">
-        <v>330</v>
-      </c>
-      <c r="C51" s="334"/>
-      <c r="D51" s="334"/>
-      <c r="E51" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="F51" s="334" t="s">
+      <c r="B51" s="324" t="s">
         <v>328</v>
       </c>
-      <c r="G51" s="350">
+      <c r="C51" s="325"/>
+      <c r="D51" s="325"/>
+      <c r="E51" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="F51" s="325" t="s">
+        <v>326</v>
+      </c>
+      <c r="G51" s="341">
         <v>2</v>
       </c>
-      <c r="H51" s="334" t="s">
-        <v>338</v>
-      </c>
-      <c r="I51" s="347">
-        <v>1</v>
-      </c>
-      <c r="J51" s="347">
+      <c r="H51" s="325" t="s">
+        <v>336</v>
+      </c>
+      <c r="I51" s="338">
+        <v>1</v>
+      </c>
+      <c r="J51" s="338">
         <v>290</v>
       </c>
-      <c r="K51" s="305"/>
-      <c r="L51" s="347">
+      <c r="K51" s="296"/>
+      <c r="L51" s="338">
         <v>20</v>
       </c>
-      <c r="M51" s="305">
+      <c r="M51" s="296">
         <f t="shared" si="1"/>
         <v>5800</v>
       </c>
       <c r="N51" s="34"/>
-      <c r="O51" s="335" t="s">
-        <v>344</v>
+      <c r="O51" s="326" t="s">
+        <v>342</v>
       </c>
       <c r="P51" s="39" t="s">
         <v>9</v>
@@ -11010,40 +11244,40 @@
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B52" s="333" t="s">
-        <v>327</v>
-      </c>
-      <c r="C52" s="334"/>
-      <c r="D52" s="334"/>
-      <c r="E52" s="322" t="s">
-        <v>353</v>
-      </c>
-      <c r="F52" s="334" t="s">
-        <v>328</v>
-      </c>
-      <c r="G52" s="350">
-        <v>1</v>
-      </c>
-      <c r="H52" s="334" t="s">
-        <v>336</v>
-      </c>
-      <c r="I52" s="347">
-        <v>1</v>
-      </c>
-      <c r="J52" s="347">
+      <c r="B52" s="324" t="s">
+        <v>325</v>
+      </c>
+      <c r="C52" s="325"/>
+      <c r="D52" s="325"/>
+      <c r="E52" s="313" t="s">
+        <v>351</v>
+      </c>
+      <c r="F52" s="325" t="s">
+        <v>326</v>
+      </c>
+      <c r="G52" s="341">
+        <v>1</v>
+      </c>
+      <c r="H52" s="325" t="s">
+        <v>334</v>
+      </c>
+      <c r="I52" s="338">
+        <v>1</v>
+      </c>
+      <c r="J52" s="338">
         <v>30</v>
       </c>
-      <c r="K52" s="305"/>
-      <c r="L52" s="347">
+      <c r="K52" s="296"/>
+      <c r="L52" s="338">
         <v>10</v>
       </c>
-      <c r="M52" s="305">
+      <c r="M52" s="296">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="N52" s="34"/>
-      <c r="O52" s="335" t="s">
-        <v>342</v>
+      <c r="O52" s="326" t="s">
+        <v>340</v>
       </c>
       <c r="P52" s="39" t="s">
         <v>9</v>
@@ -11051,40 +11285,40 @@
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="336" t="s">
-        <v>331</v>
-      </c>
-      <c r="C53" s="337"/>
-      <c r="D53" s="337"/>
-      <c r="E53" s="338" t="s">
-        <v>353</v>
-      </c>
-      <c r="F53" s="337" t="s">
-        <v>332</v>
-      </c>
-      <c r="G53" s="351">
-        <v>1</v>
-      </c>
-      <c r="H53" s="337" t="s">
-        <v>339</v>
-      </c>
-      <c r="I53" s="348">
+      <c r="B53" s="327" t="s">
+        <v>329</v>
+      </c>
+      <c r="C53" s="328"/>
+      <c r="D53" s="328"/>
+      <c r="E53" s="329" t="s">
+        <v>351</v>
+      </c>
+      <c r="F53" s="328" t="s">
+        <v>330</v>
+      </c>
+      <c r="G53" s="342">
+        <v>1</v>
+      </c>
+      <c r="H53" s="328" t="s">
+        <v>337</v>
+      </c>
+      <c r="I53" s="339">
         <v>10</v>
       </c>
-      <c r="J53" s="348">
+      <c r="J53" s="339">
         <v>100</v>
       </c>
-      <c r="K53" s="349"/>
-      <c r="L53" s="348">
+      <c r="K53" s="340"/>
+      <c r="L53" s="339">
         <v>10</v>
       </c>
-      <c r="M53" s="349">
+      <c r="M53" s="340">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="N53" s="36"/>
-      <c r="O53" s="339" t="s">
-        <v>345</v>
+      <c r="O53" s="330" t="s">
+        <v>343</v>
       </c>
       <c r="P53" s="8" t="s">
         <v>9</v>
@@ -11097,7 +11331,7 @@
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
       <c r="F54" s="55"/>
-      <c r="G54" s="352"/>
+      <c r="G54" s="343"/>
       <c r="H54" s="55"/>
       <c r="I54" s="55"/>
       <c r="J54" s="55"/>
@@ -11114,7 +11348,7 @@
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
       <c r="F55" s="55"/>
-      <c r="G55" s="352"/>
+      <c r="G55" s="343"/>
       <c r="H55" s="55"/>
       <c r="I55" s="55"/>
       <c r="J55" s="55"/>

--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060"/>
+    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="개발비" sheetId="7" r:id="rId1"/>
-    <sheet name="작업비" sheetId="11" r:id="rId2"/>
-    <sheet name="비용" sheetId="9" r:id="rId3"/>
+    <sheet name="전체 비용 List" sheetId="9" r:id="rId1"/>
+    <sheet name="HW 개발비" sheetId="15" r:id="rId2"/>
+    <sheet name="SW 개발비" sheetId="7" r:id="rId3"/>
     <sheet name="Transformer" sheetId="1" r:id="rId4"/>
     <sheet name="0314" sheetId="8" r:id="rId5"/>
     <sheet name="0403" sheetId="10" r:id="rId6"/>
     <sheet name="0409" sheetId="12" r:id="rId7"/>
     <sheet name="0420" sheetId="13" r:id="rId8"/>
     <sheet name="부품 list" sheetId="14" r:id="rId9"/>
+    <sheet name="작업비" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">'0314'!$B$4:$F$4</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="389">
   <si>
     <t>Vendor</t>
   </si>
@@ -740,14 +741,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Total cost : </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette V1.0 / LF MCU 일부</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Comment</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1347,45 +1340,137 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>Pipette Proto-type 부품 구매</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer V1.0 부품 구매</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금액</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch Program</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proto-type</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch PC - New</t>
+  </si>
+  <si>
+    <t>Touch PC - WIFI</t>
+  </si>
+  <si>
+    <t>Touch PC - PC Program</t>
+  </si>
+  <si>
+    <t>S/W 개발비</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proto</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 내용</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layout</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gen MCU</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette V1.0 / LF MCU 일부</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>Pipette Transformer Layout 및 제작비</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Pipette Proto-type 부품 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transformer V1.0 부품 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약금액</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Touch Program</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Proto-type</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Touch PC - New</t>
-  </si>
-  <si>
-    <t>Touch PC - WIFI</t>
-  </si>
-  <si>
-    <t>Touch PC - PC Program</t>
+    <t>Pipette Proto-type Layout 및 제작비</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>H/W Layout 및 Manual Solder 비용</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Proto-type F/W 개발비</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1901,7 +1986,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2373,45 +2458,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2480,6 +2526,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2763,7 +2835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="396">
+  <cellXfs count="415">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -3202,7 +3274,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3418,221 +3489,164 @@
     <xf numFmtId="182" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="34" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="35" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="34" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="35" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="36" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3647,33 +3661,18 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3681,7 +3680,135 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="36" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="29" fillId="36" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="29" fillId="36" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="29" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4080,561 +4207,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O31"/>
+  <dimension ref="B3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="196" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="194" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="55.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="351" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="352"/>
-      <c r="D3" s="355" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="355"/>
-      <c r="F3" s="355"/>
-      <c r="G3" s="352" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="352" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="381" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="386" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="364"/>
-      <c r="C4" s="365"/>
-      <c r="D4" s="379" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="379" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="379" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="365"/>
-      <c r="H4" s="365"/>
-      <c r="I4" s="382"/>
-      <c r="J4" s="387"/>
-    </row>
-    <row r="5" spans="2:15" s="344" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="351" t="s">
-        <v>362</v>
-      </c>
-      <c r="C5" s="392" t="s">
-        <v>363</v>
-      </c>
-      <c r="D5" s="393">
-        <v>1</v>
-      </c>
-      <c r="E5" s="366">
-        <f t="shared" ref="E5:E14" si="0">D5*20</f>
-        <v>20</v>
-      </c>
-      <c r="F5" s="366">
-        <f t="shared" ref="F5:F14" si="1">E5*3</f>
-        <v>60</v>
-      </c>
-      <c r="G5" s="367">
-        <v>25000</v>
-      </c>
-      <c r="H5" s="366">
-        <v>0.8</v>
-      </c>
-      <c r="I5" s="394">
-        <f t="shared" ref="I5:I14" si="2">F5*G5*H5</f>
-        <v>1200000</v>
-      </c>
-      <c r="J5" s="395">
+    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="198"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+    </row>
+    <row r="4" spans="2:6" s="197" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="396" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="397" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="398" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" s="398" t="s">
+        <v>354</v>
+      </c>
+      <c r="F4" s="399" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" s="197" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="199" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" s="200"/>
+      <c r="D5" s="343">
+        <f>SUM(D6:D25)</f>
+        <v>1570330</v>
+      </c>
+      <c r="E5" s="343">
+        <f>SUM(E6:E25)</f>
+        <v>3350000</v>
+      </c>
+      <c r="F5" s="395"/>
+    </row>
+    <row r="6" spans="2:6" s="197" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="387">
+        <v>43062</v>
+      </c>
+      <c r="C6" s="388" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="389"/>
+      <c r="E6" s="389">
+        <v>900000</v>
+      </c>
+      <c r="F6" s="384"/>
+    </row>
+    <row r="7" spans="2:6" s="197" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="391">
+        <v>43062</v>
+      </c>
+      <c r="C7" s="392" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="393"/>
+      <c r="E7" s="393">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="353"/>
-      <c r="C6" s="380" t="s">
-        <v>364</v>
-      </c>
-      <c r="D6" s="373">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="374">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F6" s="374">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="G6" s="375">
-        <v>25000</v>
-      </c>
-      <c r="H6" s="374">
-        <v>0.8</v>
-      </c>
-      <c r="I6" s="384">
-        <f t="shared" si="2"/>
-        <v>600000</v>
-      </c>
-      <c r="J6" s="388"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="351" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="139" t="s">
-        <v>361</v>
-      </c>
-      <c r="D7" s="376">
-        <v>1.5</v>
-      </c>
-      <c r="E7" s="377">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F7" s="377">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="G7" s="378">
-        <v>25000</v>
-      </c>
-      <c r="H7" s="377">
-        <v>0.8</v>
-      </c>
-      <c r="I7" s="383">
-        <f t="shared" si="2"/>
-        <v>1800000</v>
-      </c>
-      <c r="J7" s="389"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="11">
-        <v>4300000</v>
-      </c>
-      <c r="M7" s="11">
-        <f>L7/20</f>
-        <v>215000</v>
-      </c>
-      <c r="N7" s="11">
-        <f>M7/8</f>
-        <v>26875</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="358"/>
-      <c r="C8" s="368" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="369">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="370">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F8" s="370">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="G8" s="371">
-        <v>25000</v>
-      </c>
-      <c r="H8" s="370">
-        <v>0.8</v>
-      </c>
-      <c r="I8" s="385">
-        <f t="shared" si="2"/>
-        <v>600000</v>
-      </c>
-      <c r="J8" s="390"/>
-    </row>
-    <row r="9" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="353"/>
-      <c r="C9" s="372" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="373">
-        <v>1</v>
-      </c>
-      <c r="E9" s="374">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F9" s="374">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="G9" s="375">
-        <v>25000</v>
-      </c>
-      <c r="H9" s="374">
-        <v>0.8</v>
-      </c>
-      <c r="I9" s="384">
-        <f t="shared" si="2"/>
-        <v>1200000</v>
-      </c>
-      <c r="J9" s="391"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="351" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="139" t="s">
-        <v>365</v>
-      </c>
-      <c r="D10" s="376">
-        <v>2</v>
-      </c>
-      <c r="E10" s="377">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F10" s="377">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="G10" s="378">
-        <v>25000</v>
-      </c>
-      <c r="H10" s="377">
-        <v>0.8</v>
-      </c>
-      <c r="I10" s="383">
-        <f t="shared" si="2"/>
-        <v>2400000</v>
-      </c>
-      <c r="J10" s="389"/>
-    </row>
-    <row r="11" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="358"/>
-      <c r="C11" s="368" t="s">
-        <v>366</v>
-      </c>
-      <c r="D11" s="369">
-        <v>1</v>
-      </c>
-      <c r="E11" s="370">
-        <f t="shared" ref="E11:E12" si="3">D11*20</f>
-        <v>20</v>
-      </c>
-      <c r="F11" s="370">
-        <f t="shared" ref="F11:F12" si="4">E11*3</f>
-        <v>60</v>
-      </c>
-      <c r="G11" s="371">
-        <v>25000</v>
-      </c>
-      <c r="H11" s="370">
-        <v>0.8</v>
-      </c>
-      <c r="I11" s="385">
-        <f t="shared" ref="I11:I12" si="5">F11*G11*H11</f>
-        <v>1200000</v>
-      </c>
-      <c r="J11" s="390"/>
-    </row>
-    <row r="12" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="358"/>
-      <c r="C12" s="368" t="s">
-        <v>367</v>
-      </c>
-      <c r="D12" s="369">
-        <v>1</v>
-      </c>
-      <c r="E12" s="370">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="F12" s="370">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="G12" s="371">
-        <v>25000</v>
-      </c>
-      <c r="H12" s="370">
-        <v>0.8</v>
-      </c>
-      <c r="I12" s="385">
-        <f t="shared" si="5"/>
-        <v>1200000</v>
-      </c>
-      <c r="J12" s="390"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="358"/>
-      <c r="C13" s="368" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="369">
-        <v>0</v>
-      </c>
-      <c r="E13" s="370">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="370">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="371">
-        <v>25000</v>
-      </c>
-      <c r="H13" s="370">
-        <v>0.8</v>
-      </c>
-      <c r="I13" s="385">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="390"/>
-    </row>
-    <row r="14" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="353"/>
-      <c r="C14" s="372" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="373">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="374">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F14" s="374">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="G14" s="375">
-        <v>25000</v>
-      </c>
-      <c r="H14" s="374">
-        <v>0.8</v>
-      </c>
-      <c r="I14" s="384">
-        <f t="shared" si="2"/>
-        <v>600000</v>
-      </c>
-      <c r="J14" s="391"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="G16" s="11"/>
-      <c r="L16">
-        <v>22000</v>
-      </c>
-      <c r="M16">
-        <v>8</v>
-      </c>
-      <c r="N16">
-        <v>20</v>
-      </c>
-      <c r="O16" s="5">
-        <f>L16*M16*N16</f>
-        <v>3520000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="351" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="352"/>
-      <c r="D19" s="355" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="355"/>
-      <c r="F19" s="355"/>
-      <c r="G19" s="352" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="352" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="356" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="353"/>
-      <c r="C20" s="354"/>
-      <c r="D20" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="138" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="354"/>
-      <c r="H20" s="354"/>
-      <c r="I20" s="357"/>
-    </row>
-    <row r="21" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="349" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="350"/>
-      <c r="D21" s="141">
-        <v>1</v>
-      </c>
-      <c r="E21" s="104">
-        <f>D21*20</f>
-        <v>20</v>
-      </c>
-      <c r="F21" s="104">
-        <f>E21*3.5</f>
-        <v>70</v>
-      </c>
-      <c r="G21" s="142">
-        <v>30000</v>
-      </c>
-      <c r="H21" s="104">
-        <v>1</v>
-      </c>
-      <c r="I21" s="143">
-        <f>F21*G21*H21</f>
-        <v>2100000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="351" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="352"/>
-      <c r="D24" s="355" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="355"/>
-      <c r="F24" s="355"/>
-      <c r="G24" s="352" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="352" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="356" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="353"/>
-      <c r="C25" s="354"/>
-      <c r="D25" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="138" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="354"/>
-      <c r="H25" s="354"/>
-      <c r="I25" s="357"/>
-    </row>
-    <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="349" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="350"/>
-      <c r="D26" s="141">
-        <v>3</v>
-      </c>
-      <c r="E26" s="104">
-        <f>D26*20</f>
-        <v>60</v>
-      </c>
-      <c r="F26" s="104">
-        <f>E26*3</f>
-        <v>180</v>
-      </c>
-      <c r="G26" s="142">
-        <v>22000</v>
-      </c>
-      <c r="H26" s="104">
-        <v>1</v>
-      </c>
-      <c r="I26" s="143">
-        <f>F26*G26*H26</f>
-        <v>3960000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I29" s="11">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I30">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I31" s="136">
-        <f>I29/I30</f>
-        <v>22222.222222222223</v>
-      </c>
+      <c r="F7" s="394"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="203">
+        <v>43075</v>
+      </c>
+      <c r="C8" s="204" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="349">
+        <v>62080</v>
+      </c>
+      <c r="E8" s="349"/>
+      <c r="F8" s="385"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="203">
+        <v>43136</v>
+      </c>
+      <c r="C9" s="204" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="349">
+        <v>81880</v>
+      </c>
+      <c r="E9" s="349"/>
+      <c r="F9" s="385"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="203">
+        <v>43139</v>
+      </c>
+      <c r="C10" s="204" t="s">
+        <v>356</v>
+      </c>
+      <c r="D10" s="349">
+        <v>42900</v>
+      </c>
+      <c r="E10" s="349"/>
+      <c r="F10" s="385"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="203">
+        <v>43143</v>
+      </c>
+      <c r="C11" s="204" t="s">
+        <v>384</v>
+      </c>
+      <c r="D11" s="349"/>
+      <c r="E11" s="349">
+        <v>830000</v>
+      </c>
+      <c r="F11" s="385"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="203">
+        <v>43173</v>
+      </c>
+      <c r="C12" s="204" t="s">
+        <v>383</v>
+      </c>
+      <c r="D12" s="349">
+        <v>514080</v>
+      </c>
+      <c r="E12" s="349"/>
+      <c r="F12" s="385" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="203">
+        <v>43193</v>
+      </c>
+      <c r="C13" s="204" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="349">
+        <v>869390</v>
+      </c>
+      <c r="E13" s="349"/>
+      <c r="F13" s="385" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="203">
+        <v>43210</v>
+      </c>
+      <c r="C14" s="204" t="s">
+        <v>352</v>
+      </c>
+      <c r="D14" s="349"/>
+      <c r="E14" s="349">
+        <v>620000</v>
+      </c>
+      <c r="F14" s="385"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="203"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="349"/>
+      <c r="E15" s="349"/>
+      <c r="F15" s="385"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="203"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="349"/>
+      <c r="E16" s="349"/>
+      <c r="F16" s="385"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="203"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="349"/>
+      <c r="E17" s="349"/>
+      <c r="F17" s="385"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="203"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="349"/>
+      <c r="E18" s="349"/>
+      <c r="F18" s="385"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="203"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="349"/>
+      <c r="E19" s="349"/>
+      <c r="F19" s="385"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="203"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="349"/>
+      <c r="E20" s="349"/>
+      <c r="F20" s="385"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="203"/>
+      <c r="C21" s="204"/>
+      <c r="D21" s="349"/>
+      <c r="E21" s="349"/>
+      <c r="F21" s="385"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="203"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="349"/>
+      <c r="E22" s="349"/>
+      <c r="F22" s="385"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="203"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="349"/>
+      <c r="E23" s="349"/>
+      <c r="F23" s="385"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="203"/>
+      <c r="C24" s="204"/>
+      <c r="D24" s="349"/>
+      <c r="E24" s="349"/>
+      <c r="F24" s="385"/>
+    </row>
+    <row r="25" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="205"/>
+      <c r="C25" s="206"/>
+      <c r="D25" s="353"/>
+      <c r="E25" s="353"/>
+      <c r="F25" s="386"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="194"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F24"/>
-  </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -4657,7 +4489,7 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" s="56" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4667,49 +4499,49 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="56" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="261" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" s="262" t="s">
+      <c r="C5" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="261" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="261" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="262" t="s">
         <v>296</v>
       </c>
-      <c r="E5" s="262" t="s">
-        <v>297</v>
-      </c>
-      <c r="F5" s="263" t="s">
+      <c r="H5" s="260" t="s">
         <v>298</v>
       </c>
-      <c r="H5" s="261" t="s">
-        <v>300</v>
-      </c>
-      <c r="I5" s="262" t="s">
+      <c r="I5" s="261" t="s">
+        <v>294</v>
+      </c>
+      <c r="J5" s="261" t="s">
+        <v>295</v>
+      </c>
+      <c r="K5" s="262" t="s">
         <v>296</v>
       </c>
-      <c r="J5" s="262" t="s">
-        <v>297</v>
-      </c>
-      <c r="K5" s="263" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="258" t="s">
-        <v>294</v>
+      <c r="C6" s="257" t="s">
+        <v>292</v>
       </c>
       <c r="D6" s="140">
         <v>169</v>
@@ -4717,12 +4549,12 @@
       <c r="E6" s="140">
         <v>630</v>
       </c>
-      <c r="F6" s="203">
+      <c r="F6" s="202">
         <f>D6*E6</f>
         <v>106470</v>
       </c>
-      <c r="H6" s="258" t="s">
-        <v>294</v>
+      <c r="H6" s="257" t="s">
+        <v>292</v>
       </c>
       <c r="I6" s="140">
         <v>169</v>
@@ -4730,83 +4562,83 @@
       <c r="J6" s="140">
         <v>250</v>
       </c>
-      <c r="K6" s="203">
+      <c r="K6" s="202">
         <f>I6*J6</f>
         <v>42250</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="259" t="s">
-        <v>293</v>
-      </c>
-      <c r="D7" s="252">
+      <c r="C7" s="258" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="251">
         <v>15</v>
       </c>
-      <c r="E7" s="254" t="s">
-        <v>303</v>
-      </c>
-      <c r="F7" s="253">
+      <c r="E7" s="253" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="252">
         <f>F6*D7/100</f>
         <v>15970.5</v>
       </c>
-      <c r="H7" s="259" t="s">
-        <v>293</v>
-      </c>
-      <c r="I7" s="252">
+      <c r="H7" s="258" t="s">
+        <v>291</v>
+      </c>
+      <c r="I7" s="251">
         <v>0</v>
       </c>
-      <c r="J7" s="254" t="s">
-        <v>303</v>
-      </c>
-      <c r="K7" s="253">
+      <c r="J7" s="253" t="s">
+        <v>301</v>
+      </c>
+      <c r="K7" s="252">
         <f>K6*I7/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="260" t="s">
-        <v>305</v>
-      </c>
-      <c r="D8" s="255">
+      <c r="C8" s="259" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="254">
         <v>15</v>
       </c>
-      <c r="E8" s="256" t="s">
-        <v>304</v>
-      </c>
-      <c r="F8" s="257">
+      <c r="E8" s="255" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="256">
         <f>F6*D8/100</f>
         <v>15970.5</v>
       </c>
-      <c r="H8" s="260" t="s">
-        <v>305</v>
-      </c>
-      <c r="I8" s="255">
+      <c r="H8" s="259" t="s">
+        <v>303</v>
+      </c>
+      <c r="I8" s="254">
         <v>0</v>
       </c>
-      <c r="J8" s="256" t="s">
-        <v>304</v>
-      </c>
-      <c r="K8" s="257">
+      <c r="J8" s="255" t="s">
+        <v>302</v>
+      </c>
+      <c r="K8" s="256">
         <f>K6*I8/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="349" t="s">
-        <v>299</v>
-      </c>
-      <c r="D9" s="350"/>
-      <c r="E9" s="350"/>
-      <c r="F9" s="266">
+      <c r="C9" s="377" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="378"/>
+      <c r="E9" s="378"/>
+      <c r="F9" s="265">
         <f>SUM(F6:F8)</f>
         <v>138411</v>
       </c>
-      <c r="H9" s="349" t="s">
-        <v>299</v>
-      </c>
-      <c r="I9" s="350"/>
-      <c r="J9" s="350"/>
-      <c r="K9" s="266">
+      <c r="H9" s="377" t="s">
+        <v>297</v>
+      </c>
+      <c r="I9" s="378"/>
+      <c r="J9" s="378"/>
+      <c r="K9" s="265">
         <f>SUM(K6:K8)</f>
         <v>42250</v>
       </c>
@@ -4820,34 +4652,34 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="264" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11" s="265" t="s">
-        <v>301</v>
+      <c r="C11" s="263" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" s="264" t="s">
+        <v>299</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F11" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="H11" s="263" t="s">
         <v>298</v>
       </c>
-      <c r="H11" s="264" t="s">
-        <v>300</v>
-      </c>
-      <c r="I11" s="265" t="s">
-        <v>301</v>
+      <c r="I11" s="264" t="s">
+        <v>299</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="267" t="s">
-        <v>294</v>
+      <c r="C12" s="266" t="s">
+        <v>292</v>
       </c>
       <c r="D12" s="140">
         <v>4</v>
@@ -4860,8 +4692,8 @@
         <f>D12*E12</f>
         <v>553644</v>
       </c>
-      <c r="H12" s="267" t="s">
-        <v>294</v>
+      <c r="H12" s="266" t="s">
+        <v>292</v>
       </c>
       <c r="I12" s="140">
         <v>4</v>
@@ -4876,8 +4708,8 @@
       </c>
     </row>
     <row r="13" spans="2:11" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="260" t="s">
-        <v>309</v>
+      <c r="C13" s="259" t="s">
+        <v>307</v>
       </c>
       <c r="D13" s="4">
         <v>4</v>
@@ -4885,12 +4717,12 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="268">
+      <c r="F13" s="267">
         <f>D13*E13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="260" t="s">
-        <v>309</v>
+      <c r="H13" s="259" t="s">
+        <v>307</v>
       </c>
       <c r="I13" s="4">
         <v>4</v>
@@ -4898,34 +4730,34 @@
       <c r="J13" s="4">
         <v>0</v>
       </c>
-      <c r="K13" s="268">
+      <c r="K13" s="267">
         <f>I13*J13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="349" t="s">
-        <v>302</v>
-      </c>
-      <c r="D14" s="350"/>
-      <c r="E14" s="359">
+      <c r="C14" s="377" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="378"/>
+      <c r="E14" s="379">
         <f>F12</f>
         <v>553644</v>
       </c>
-      <c r="F14" s="360"/>
-      <c r="H14" s="349" t="s">
-        <v>302</v>
-      </c>
-      <c r="I14" s="350"/>
-      <c r="J14" s="359">
+      <c r="F14" s="380"/>
+      <c r="H14" s="377" t="s">
+        <v>300</v>
+      </c>
+      <c r="I14" s="378"/>
+      <c r="J14" s="379">
         <f>K12</f>
         <v>169000</v>
       </c>
-      <c r="K14" s="360"/>
+      <c r="K14" s="380"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="361"/>
-      <c r="D15" s="361"/>
+      <c r="C15" s="381"/>
+      <c r="D15" s="381"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
@@ -4940,22 +4772,22 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="261" t="s">
-        <v>300</v>
-      </c>
-      <c r="D18" s="262" t="s">
+      <c r="C18" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" s="261" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="261" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="262" t="s">
         <v>296</v>
       </c>
-      <c r="E18" s="262" t="s">
-        <v>297</v>
-      </c>
-      <c r="F18" s="263" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="258" t="s">
-        <v>306</v>
+      <c r="C19" s="257" t="s">
+        <v>304</v>
       </c>
       <c r="D19" s="140">
         <v>52</v>
@@ -4963,48 +4795,48 @@
       <c r="E19" s="140">
         <v>670</v>
       </c>
-      <c r="F19" s="203">
+      <c r="F19" s="202">
         <f>D19*E19</f>
         <v>34840</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="259" t="s">
-        <v>293</v>
-      </c>
-      <c r="D20" s="252">
+      <c r="C20" s="258" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" s="251">
         <v>15</v>
       </c>
-      <c r="E20" s="254" t="s">
-        <v>303</v>
-      </c>
-      <c r="F20" s="253">
+      <c r="E20" s="253" t="s">
+        <v>301</v>
+      </c>
+      <c r="F20" s="252">
         <f>F19*D20/100</f>
         <v>5226</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="260" t="s">
-        <v>305</v>
-      </c>
-      <c r="D21" s="255">
+      <c r="C21" s="259" t="s">
+        <v>303</v>
+      </c>
+      <c r="D21" s="254">
         <v>15</v>
       </c>
-      <c r="E21" s="256" t="s">
-        <v>304</v>
-      </c>
-      <c r="F21" s="257">
+      <c r="E21" s="255" t="s">
+        <v>302</v>
+      </c>
+      <c r="F21" s="256">
         <f>F19*D21/100</f>
         <v>5226</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="349" t="s">
-        <v>299</v>
-      </c>
-      <c r="D22" s="350"/>
-      <c r="E22" s="350"/>
-      <c r="F22" s="266">
+      <c r="C22" s="377" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22" s="378"/>
+      <c r="E22" s="378"/>
+      <c r="F22" s="265">
         <f>SUM(F19:F21)</f>
         <v>45292</v>
       </c>
@@ -5015,22 +4847,22 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="264" t="s">
-        <v>300</v>
-      </c>
-      <c r="D24" s="265" t="s">
-        <v>301</v>
+      <c r="C24" s="263" t="s">
+        <v>298</v>
+      </c>
+      <c r="D24" s="264" t="s">
+        <v>299</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="258" t="s">
-        <v>306</v>
+      <c r="C25" s="257" t="s">
+        <v>304</v>
       </c>
       <c r="D25" s="140">
         <v>4</v>
@@ -5045,8 +4877,8 @@
       </c>
     </row>
     <row r="26" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="260" t="s">
-        <v>307</v>
+      <c r="C26" s="259" t="s">
+        <v>305</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -5054,14 +4886,14 @@
       <c r="E26" s="4">
         <v>110000</v>
       </c>
-      <c r="F26" s="268">
+      <c r="F26" s="267">
         <f>D26*E26</f>
         <v>110000</v>
       </c>
     </row>
     <row r="27" spans="3:8" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="260" t="s">
-        <v>309</v>
+      <c r="C27" s="259" t="s">
+        <v>307</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
@@ -5069,22 +4901,22 @@
       <c r="E27" s="4">
         <v>0</v>
       </c>
-      <c r="F27" s="268">
+      <c r="F27" s="267">
         <f>D27*E27</f>
         <v>0</v>
       </c>
       <c r="H27" s="56"/>
     </row>
     <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="349" t="s">
-        <v>302</v>
-      </c>
-      <c r="D28" s="350"/>
-      <c r="E28" s="359">
+      <c r="C28" s="377" t="s">
+        <v>300</v>
+      </c>
+      <c r="D28" s="378"/>
+      <c r="E28" s="379">
         <f>SUM(F25:F27)</f>
         <v>291168</v>
       </c>
-      <c r="F28" s="360"/>
+      <c r="F28" s="380"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5105,225 +4937,922 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F22"/>
+  <dimension ref="B2:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E27"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.75" style="196" customWidth="1"/>
-    <col min="3" max="3" width="35.75" style="194" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="55.75" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="198" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="195">
-        <f>SUM(D5:D25)</f>
-        <v>1570330</v>
-      </c>
-      <c r="E3" s="195"/>
-    </row>
-    <row r="4" spans="2:6" s="197" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="199" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="200" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="292" t="s">
-        <v>355</v>
-      </c>
-      <c r="E4" s="292" t="s">
-        <v>356</v>
-      </c>
-      <c r="F4" s="345" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="56" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="260" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="261" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" s="261" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" s="261" t="s">
+        <v>370</v>
+      </c>
+      <c r="F4" s="261" t="s">
+        <v>373</v>
+      </c>
+      <c r="G4" s="261" t="s">
+        <v>371</v>
+      </c>
+      <c r="H4" s="261" t="s">
+        <v>372</v>
+      </c>
+      <c r="I4" s="262" t="s">
+        <v>375</v>
+      </c>
+      <c r="K4" s="400" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="401"/>
+      <c r="M4" s="402" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="402"/>
+      <c r="O4" s="402"/>
+      <c r="P4" s="401" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="401" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4" s="413" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="201">
-        <v>43075</v>
-      </c>
-      <c r="C5" s="202" t="s">
-        <v>358</v>
-      </c>
-      <c r="D5" s="140">
-        <v>62080</v>
-      </c>
-      <c r="E5" s="140"/>
-      <c r="F5" s="346"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="204">
-        <v>43136</v>
-      </c>
-      <c r="C6" s="205" t="s">
-        <v>359</v>
-      </c>
-      <c r="D6" s="3">
-        <v>81880</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="347"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="204">
-        <v>43139</v>
-      </c>
-      <c r="C7" s="205" t="s">
-        <v>359</v>
-      </c>
-      <c r="D7" s="3">
-        <v>42900</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="347"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="204">
+        <v>43062</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>378</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="G5" s="355">
+        <v>3</v>
+      </c>
+      <c r="H5" s="356">
+        <v>250000</v>
+      </c>
+      <c r="I5" s="202">
+        <f>G5*H5</f>
+        <v>750000</v>
+      </c>
+      <c r="K5" s="410"/>
+      <c r="L5" s="411"/>
+      <c r="M5" s="412" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="412" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="412" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="411"/>
+      <c r="Q5" s="411"/>
+      <c r="R5" s="414"/>
+    </row>
+    <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="203">
+        <v>43062</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>378</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>376</v>
+      </c>
+      <c r="G6" s="348">
+        <v>3</v>
+      </c>
+      <c r="H6" s="349">
+        <v>50000</v>
+      </c>
+      <c r="I6" s="390">
+        <f>G6*H6</f>
+        <v>150000</v>
+      </c>
+      <c r="K6" s="377" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="378"/>
+      <c r="M6" s="141">
+        <v>1</v>
+      </c>
+      <c r="N6" s="104">
+        <f>M6*20</f>
+        <v>20</v>
+      </c>
+      <c r="O6" s="104">
+        <f>N6*3.5</f>
+        <v>70</v>
+      </c>
+      <c r="P6" s="142">
+        <v>30000</v>
+      </c>
+      <c r="Q6" s="104">
+        <v>1</v>
+      </c>
+      <c r="R6" s="143">
+        <f>O6*P6*Q6</f>
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="203">
         <v>43143</v>
       </c>
-      <c r="C8" s="205" t="s">
-        <v>357</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <v>830000</v>
-      </c>
-      <c r="F8" s="347"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="204">
-        <v>43173</v>
-      </c>
-      <c r="C9" s="205" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" s="3">
-        <v>514080</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="347" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="204">
-        <v>43193</v>
-      </c>
-      <c r="C10" s="205" t="s">
-        <v>291</v>
-      </c>
-      <c r="D10" s="3">
-        <v>869390</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="347" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="204">
+      <c r="C7" s="86" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>379</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>380</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>374</v>
+      </c>
+      <c r="G7" s="348">
+        <v>3</v>
+      </c>
+      <c r="H7" s="349">
+        <v>250000</v>
+      </c>
+      <c r="I7" s="390">
+        <f>G7*H7</f>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="203">
+        <v>43143</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>379</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>380</v>
+      </c>
+      <c r="F8" s="86" t="s">
+        <v>376</v>
+      </c>
+      <c r="G8" s="348">
+        <v>8</v>
+      </c>
+      <c r="H8" s="349">
+        <v>10000</v>
+      </c>
+      <c r="I8" s="390">
+        <f>G8*H8</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="203">
         <v>43210</v>
       </c>
-      <c r="C11" s="205" t="s">
-        <v>354</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>620000</v>
-      </c>
-      <c r="F11" s="347"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="204"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="347"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="204"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="347"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="204"/>
-      <c r="C14" s="205"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="347"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="204"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="347"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="204"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="347"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="204"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="347"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="204"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="347"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="204"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="347"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="204"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="347"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="204"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="347"/>
-    </row>
-    <row r="22" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="206"/>
-      <c r="C22" s="207"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="348"/>
+      <c r="C9" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>382</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>380</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9" s="348">
+        <v>2</v>
+      </c>
+      <c r="H9" s="349">
+        <v>250000</v>
+      </c>
+      <c r="I9" s="390">
+        <f>G9*H9</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="203">
+        <v>43210</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>382</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>380</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>376</v>
+      </c>
+      <c r="G10" s="348">
+        <v>3</v>
+      </c>
+      <c r="H10" s="349">
+        <v>40000</v>
+      </c>
+      <c r="I10" s="390">
+        <f>G10*H10</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="85"/>
+      <c r="C11" s="348"/>
+      <c r="D11" s="348"/>
+      <c r="E11" s="348"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="348"/>
+      <c r="H11" s="349"/>
+      <c r="I11" s="390"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="85"/>
+      <c r="C12" s="348"/>
+      <c r="D12" s="348"/>
+      <c r="E12" s="348"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="348"/>
+      <c r="H12" s="349"/>
+      <c r="I12" s="390"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="85"/>
+      <c r="C13" s="348"/>
+      <c r="D13" s="348"/>
+      <c r="E13" s="348"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="348"/>
+      <c r="H13" s="349"/>
+      <c r="I13" s="390"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="85"/>
+      <c r="C14" s="348"/>
+      <c r="D14" s="348"/>
+      <c r="E14" s="348"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="348"/>
+      <c r="H14" s="349"/>
+      <c r="I14" s="390"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="85"/>
+      <c r="C15" s="348"/>
+      <c r="D15" s="348"/>
+      <c r="E15" s="348"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="348"/>
+      <c r="H15" s="349"/>
+      <c r="I15" s="390"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="85"/>
+      <c r="C16" s="348"/>
+      <c r="D16" s="348"/>
+      <c r="E16" s="348"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="348"/>
+      <c r="H16" s="349"/>
+      <c r="I16" s="390"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="85"/>
+      <c r="C17" s="348"/>
+      <c r="D17" s="348"/>
+      <c r="E17" s="348"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="348"/>
+      <c r="H17" s="348"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="85"/>
+      <c r="C18" s="348"/>
+      <c r="D18" s="348"/>
+      <c r="E18" s="348"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="348"/>
+      <c r="H18" s="348"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="85"/>
+      <c r="C19" s="348"/>
+      <c r="D19" s="348"/>
+      <c r="E19" s="348"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="348"/>
+      <c r="H19" s="348"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="85"/>
+      <c r="C20" s="348"/>
+      <c r="D20" s="348"/>
+      <c r="E20" s="348"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="348"/>
+      <c r="H20" s="348"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="85"/>
+      <c r="C21" s="348"/>
+      <c r="D21" s="348"/>
+      <c r="E21" s="348"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="348"/>
+      <c r="H21" s="348"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="85"/>
+      <c r="C22" s="348"/>
+      <c r="D22" s="348"/>
+      <c r="E22" s="348"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="348"/>
+      <c r="H22" s="348"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="85"/>
+      <c r="C23" s="348"/>
+      <c r="D23" s="348"/>
+      <c r="E23" s="348"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="348"/>
+      <c r="H23" s="348"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="221"/>
+      <c r="C24" s="352"/>
+      <c r="D24" s="352"/>
+      <c r="E24" s="352"/>
+      <c r="F24" s="352"/>
+      <c r="G24" s="352"/>
+      <c r="H24" s="352"/>
+      <c r="I24" s="267"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:P5"/>
+  </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="56" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="400" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="401"/>
+      <c r="D3" s="402" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="402"/>
+      <c r="F3" s="402"/>
+      <c r="G3" s="401" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="401" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="403" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="408" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="404"/>
+      <c r="C4" s="405"/>
+      <c r="D4" s="406" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="406" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="406" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="405"/>
+      <c r="H4" s="405"/>
+      <c r="I4" s="407"/>
+      <c r="J4" s="409"/>
+    </row>
+    <row r="5" spans="2:15" s="342" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="369" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="365" t="s">
+        <v>360</v>
+      </c>
+      <c r="D5" s="366">
+        <v>1</v>
+      </c>
+      <c r="E5" s="344">
+        <f t="shared" ref="E5:E14" si="0">D5*20</f>
+        <v>20</v>
+      </c>
+      <c r="F5" s="344">
+        <f t="shared" ref="F5:F14" si="1">E5*3</f>
+        <v>60</v>
+      </c>
+      <c r="G5" s="345">
+        <v>25000</v>
+      </c>
+      <c r="H5" s="344">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="367">
+        <f t="shared" ref="I5:I14" si="2">F5*G5*H5</f>
+        <v>1200000</v>
+      </c>
+      <c r="J5" s="368">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="370"/>
+      <c r="C6" s="357" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="351">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="352">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F6" s="352">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G6" s="353">
+        <v>25000</v>
+      </c>
+      <c r="H6" s="352">
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="359">
+        <f t="shared" si="2"/>
+        <v>600000</v>
+      </c>
+      <c r="J6" s="361"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="369" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" s="354">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="355">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F7" s="355">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G7" s="356">
+        <v>25000</v>
+      </c>
+      <c r="H7" s="355">
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="358">
+        <f t="shared" si="2"/>
+        <v>1800000</v>
+      </c>
+      <c r="J7" s="362"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="11">
+        <v>4300000</v>
+      </c>
+      <c r="M7" s="11">
+        <f>L7/20</f>
+        <v>215000</v>
+      </c>
+      <c r="N7" s="11">
+        <f>M7/8</f>
+        <v>26875</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="373"/>
+      <c r="C8" s="346" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="347">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="348">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F8" s="348">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G8" s="349">
+        <v>25000</v>
+      </c>
+      <c r="H8" s="348">
+        <v>0.8</v>
+      </c>
+      <c r="I8" s="360">
+        <f t="shared" si="2"/>
+        <v>600000</v>
+      </c>
+      <c r="J8" s="363"/>
+    </row>
+    <row r="9" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="370"/>
+      <c r="C9" s="350" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="351">
+        <v>1</v>
+      </c>
+      <c r="E9" s="352">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F9" s="352">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G9" s="353">
+        <v>25000</v>
+      </c>
+      <c r="H9" s="352">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="359">
+        <f t="shared" si="2"/>
+        <v>1200000</v>
+      </c>
+      <c r="J9" s="364"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="369" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="139" t="s">
+        <v>362</v>
+      </c>
+      <c r="D10" s="354">
+        <v>2</v>
+      </c>
+      <c r="E10" s="355">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F10" s="355">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G10" s="356">
+        <v>25000</v>
+      </c>
+      <c r="H10" s="355">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="358">
+        <f t="shared" si="2"/>
+        <v>2400000</v>
+      </c>
+      <c r="J10" s="362"/>
+    </row>
+    <row r="11" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="373"/>
+      <c r="C11" s="346" t="s">
+        <v>363</v>
+      </c>
+      <c r="D11" s="347">
+        <v>1</v>
+      </c>
+      <c r="E11" s="348">
+        <f t="shared" ref="E11:E12" si="3">D11*20</f>
+        <v>20</v>
+      </c>
+      <c r="F11" s="348">
+        <f t="shared" ref="F11:F12" si="4">E11*3</f>
+        <v>60</v>
+      </c>
+      <c r="G11" s="349">
+        <v>25000</v>
+      </c>
+      <c r="H11" s="348">
+        <v>0.8</v>
+      </c>
+      <c r="I11" s="360">
+        <f t="shared" ref="I11:I12" si="5">F11*G11*H11</f>
+        <v>1200000</v>
+      </c>
+      <c r="J11" s="363"/>
+    </row>
+    <row r="12" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="373"/>
+      <c r="C12" s="346" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" s="347">
+        <v>1</v>
+      </c>
+      <c r="E12" s="348">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="F12" s="348">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G12" s="349">
+        <v>25000</v>
+      </c>
+      <c r="H12" s="348">
+        <v>0.8</v>
+      </c>
+      <c r="I12" s="360">
+        <f t="shared" si="5"/>
+        <v>1200000</v>
+      </c>
+      <c r="J12" s="363"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="373"/>
+      <c r="C13" s="346" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="347">
+        <v>0</v>
+      </c>
+      <c r="E13" s="348">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="348">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="349">
+        <v>25000</v>
+      </c>
+      <c r="H13" s="348">
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="360">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="363"/>
+    </row>
+    <row r="14" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="370"/>
+      <c r="C14" s="350" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="351">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="352">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F14" s="352">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G14" s="353">
+        <v>25000</v>
+      </c>
+      <c r="H14" s="352">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="359">
+        <f t="shared" si="2"/>
+        <v>600000</v>
+      </c>
+      <c r="J14" s="364"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G16" s="11"/>
+      <c r="L16">
+        <v>22000</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <v>20</v>
+      </c>
+      <c r="O16" s="5">
+        <f>L16*M16*N16</f>
+        <v>3520000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="369" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="372"/>
+      <c r="D24" s="371" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="371"/>
+      <c r="F24" s="371"/>
+      <c r="G24" s="372" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="372" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="375" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="370"/>
+      <c r="C25" s="374"/>
+      <c r="D25" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="138" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="374"/>
+      <c r="H25" s="374"/>
+      <c r="I25" s="376"/>
+    </row>
+    <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="377" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="378"/>
+      <c r="D26" s="141">
+        <v>3</v>
+      </c>
+      <c r="E26" s="104">
+        <f>D26*20</f>
+        <v>60</v>
+      </c>
+      <c r="F26" s="104">
+        <f>E26*3</f>
+        <v>180</v>
+      </c>
+      <c r="G26" s="142">
+        <v>22000</v>
+      </c>
+      <c r="H26" s="104">
+        <v>1</v>
+      </c>
+      <c r="I26" s="143">
+        <f>F26*G26*H26</f>
+        <v>3960000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="11">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="136">
+        <f>I29/I30</f>
+        <v>22222.222222222223</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5454,8 +5983,8 @@
       <c r="C6" s="22">
         <v>2</v>
       </c>
-      <c r="D6" s="286" t="s">
-        <v>347</v>
+      <c r="D6" s="285" t="s">
+        <v>345</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>9</v>
@@ -7301,7 +7830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
@@ -7324,7 +7853,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="210" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="81" t="s">
@@ -7336,7 +7865,7 @@
       <c r="E2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="212" t="s">
+      <c r="F2" s="211" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="81" t="s">
@@ -7346,32 +7875,32 @@
         <v>5</v>
       </c>
       <c r="I2" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="J2" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="L2" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="K2" s="81" t="s">
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="212" t="s">
         <v>208</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="C3" s="84" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="213" t="s">
+      <c r="D3" s="213" t="s">
         <v>210</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="214" t="s">
-        <v>212</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="215">
+      <c r="F3" s="214">
         <v>1</v>
       </c>
       <c r="G3" s="21">
@@ -7387,18 +7916,18 @@
       </c>
       <c r="K3" s="35"/>
       <c r="L3" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="85" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>214</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>216</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>9</v>
@@ -7419,18 +7948,18 @@
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="85" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>9</v>
@@ -7451,16 +7980,16 @@
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="85" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>9</v>
@@ -7481,18 +8010,18 @@
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>226</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>9</v>
@@ -7515,18 +8044,18 @@
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="89" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="90" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D8" s="92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E8" s="92" t="s">
         <v>9</v>
@@ -7547,18 +8076,18 @@
       </c>
       <c r="K8" s="92"/>
       <c r="L8" s="95" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>231</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>232</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>233</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>9</v>
@@ -7579,18 +8108,18 @@
       </c>
       <c r="K9" s="23"/>
       <c r="L9" s="99" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="85" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>9</v>
@@ -7612,13 +8141,13 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="87" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>9</v>
@@ -7640,19 +8169,19 @@
         <v>13000</v>
       </c>
       <c r="K11" s="17"/>
-      <c r="L11" s="278" t="s">
-        <v>238</v>
+      <c r="L11" s="277" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="101" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -7665,13 +8194,13 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="87" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>9</v>
@@ -7693,19 +8222,19 @@
         <v>8000</v>
       </c>
       <c r="K13" s="17"/>
-      <c r="L13" s="278" t="s">
-        <v>243</v>
+      <c r="L13" s="277" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="87" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>9</v>
@@ -7727,19 +8256,19 @@
         <v>9000</v>
       </c>
       <c r="K14" s="17"/>
-      <c r="L14" s="278" t="s">
-        <v>246</v>
+      <c r="L14" s="277" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="87" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>9</v>
@@ -7761,22 +8290,22 @@
         <v>16500</v>
       </c>
       <c r="K15" s="17"/>
-      <c r="L15" s="278" t="s">
-        <v>249</v>
+      <c r="L15" s="277" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="116" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="110" t="s">
+        <v>249</v>
+      </c>
+      <c r="E16" s="110" t="s">
         <v>250</v>
-      </c>
-      <c r="C16" s="116" t="s">
-        <v>225</v>
-      </c>
-      <c r="D16" s="110" t="s">
-        <v>251</v>
-      </c>
-      <c r="E16" s="110" t="s">
-        <v>252</v>
       </c>
       <c r="F16" s="116">
         <v>1</v>
@@ -7792,13 +8321,13 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>253</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>255</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>9</v>
@@ -7820,19 +8349,19 @@
         <v>9000</v>
       </c>
       <c r="K17" s="17"/>
-      <c r="L17" s="278" t="s">
-        <v>256</v>
+      <c r="L17" s="277" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="87" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>9</v>
@@ -7854,19 +8383,19 @@
         <v>9000</v>
       </c>
       <c r="K18" s="17"/>
-      <c r="L18" s="278" t="s">
-        <v>258</v>
+      <c r="L18" s="277" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="114" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="109" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="108" t="s">
         <v>259</v>
-      </c>
-      <c r="C19" s="109" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" s="108" t="s">
-        <v>261</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>9</v>
@@ -7888,19 +8417,19 @@
         <v>180000</v>
       </c>
       <c r="K19" s="108"/>
-      <c r="L19" s="279" t="s">
-        <v>262</v>
+      <c r="L19" s="278" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="114" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" s="108" t="s">
         <v>263</v>
-      </c>
-      <c r="C20" s="109" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" s="108" t="s">
-        <v>265</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>9</v>
@@ -7922,19 +8451,19 @@
         <v>2420</v>
       </c>
       <c r="K20" s="108"/>
-      <c r="L20" s="279" t="s">
-        <v>266</v>
+      <c r="L20" s="278" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="114" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="109" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="108" t="s">
         <v>267</v>
-      </c>
-      <c r="C21" s="109" t="s">
-        <v>268</v>
-      </c>
-      <c r="D21" s="108" t="s">
-        <v>269</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>9</v>
@@ -7956,19 +8485,19 @@
         <v>101200</v>
       </c>
       <c r="K21" s="108"/>
-      <c r="L21" s="279" t="s">
-        <v>270</v>
+      <c r="L21" s="278" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="114" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="108" t="s">
         <v>271</v>
-      </c>
-      <c r="C22" s="109" t="s">
-        <v>272</v>
-      </c>
-      <c r="D22" s="108" t="s">
-        <v>273</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>9</v>
@@ -7985,22 +8514,22 @@
       <c r="I22" s="52">
         <v>2</v>
       </c>
-      <c r="J22" s="216">
+      <c r="J22" s="215">
         <f t="shared" si="1"/>
         <v>49000</v>
       </c>
       <c r="K22" s="108"/>
-      <c r="L22" s="279" t="s">
-        <v>274</v>
+      <c r="L22" s="278" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="117" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C23" s="111"/>
       <c r="D23" s="127" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E23" s="34" t="s">
         <v>9</v>
@@ -8016,16 +8545,16 @@
       <c r="J23" s="129"/>
       <c r="K23" s="127"/>
       <c r="L23" s="130" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="102" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C24" s="103"/>
       <c r="D24" s="103" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>9</v>
@@ -8047,8 +8576,8 @@
         <v>45000</v>
       </c>
       <c r="K24" s="103"/>
-      <c r="L24" s="285" t="s">
-        <v>280</v>
+      <c r="L24" s="284" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
@@ -8076,22 +8605,22 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="217" t="s">
+      <c r="B30" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="218" t="s">
+      <c r="C30" s="217" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="218" t="s">
+      <c r="D30" s="217" t="s">
         <v>58</v>
       </c>
       <c r="E30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="218" t="s">
+      <c r="F30" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="218" t="s">
+      <c r="G30" s="217" t="s">
         <v>59</v>
       </c>
       <c r="H30" s="122" t="s">
@@ -8111,13 +8640,13 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="219" t="s">
+      <c r="B31" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="220" t="s">
+      <c r="C31" s="219" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="220" t="s">
+      <c r="D31" s="219" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="35" t="s">
@@ -8140,22 +8669,22 @@
         <v>7200</v>
       </c>
       <c r="K31" s="35"/>
-      <c r="L31" s="280" t="s">
+      <c r="L31" s="279" t="s">
         <v>54</v>
       </c>
-      <c r="M31" s="221" t="s">
+      <c r="M31" s="220" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="222" t="s">
+      <c r="B32" s="221" t="s">
+        <v>279</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="E32" s="36" t="s">
         <v>9</v>
@@ -8163,7 +8692,7 @@
       <c r="F32" s="75">
         <v>1</v>
       </c>
-      <c r="G32" s="223">
+      <c r="G32" s="222">
         <v>3520</v>
       </c>
       <c r="H32" s="75">
@@ -8172,38 +8701,38 @@
       <c r="I32" s="75">
         <v>2</v>
       </c>
-      <c r="J32" s="224">
+      <c r="J32" s="223">
         <f>G32*I32</f>
         <v>7040</v>
       </c>
       <c r="K32" s="36"/>
-      <c r="L32" s="282" t="s">
-        <v>284</v>
+      <c r="L32" s="281" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="225" t="s">
-        <v>285</v>
+      <c r="B35" s="224" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="209"/>
-      <c r="B36" s="210" t="s">
+      <c r="A36" s="208"/>
+      <c r="B36" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="210" t="s">
+      <c r="C36" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="210" t="s">
+      <c r="D36" s="209" t="s">
         <v>58</v>
       </c>
       <c r="E36" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="210" t="s">
+      <c r="F36" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="210" t="s">
+      <c r="G36" s="209" t="s">
         <v>101</v>
       </c>
       <c r="H36" s="118" t="s">
@@ -8216,10 +8745,10 @@
         <v>62</v>
       </c>
       <c r="K36" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="L36" s="226" t="s">
-        <v>287</v>
+        <v>284</v>
+      </c>
+      <c r="L36" s="225" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8227,10 +8756,10 @@
         <v>38</v>
       </c>
       <c r="C37" s="180" t="s">
-        <v>203</v>
-      </c>
-      <c r="D37" s="286" t="s">
-        <v>347</v>
+        <v>201</v>
+      </c>
+      <c r="D37" s="285" t="s">
+        <v>345</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>9</v>
@@ -8247,24 +8776,24 @@
       <c r="I37" s="180">
         <v>20</v>
       </c>
-      <c r="J37" s="227">
+      <c r="J37" s="226">
         <f>G37*I37</f>
         <v>20400</v>
       </c>
       <c r="K37" s="35"/>
       <c r="L37" s="181" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="180" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C38" s="180" t="s">
         <v>64</v>
       </c>
       <c r="D38" s="180" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>9</v>
@@ -8281,51 +8810,51 @@
       <c r="I38" s="180">
         <v>100</v>
       </c>
-      <c r="J38" s="227">
+      <c r="J38" s="226">
         <f>G38*I38</f>
         <v>13000</v>
       </c>
       <c r="K38" s="36"/>
-      <c r="L38" s="284" t="s">
-        <v>289</v>
+      <c r="L38" s="283" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="225" t="s">
+      <c r="B41" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="228"/>
-      <c r="D41" s="221"/>
-      <c r="E41" s="221"/>
-      <c r="F41" s="221"/>
-      <c r="G41" s="221"/>
-      <c r="H41" s="221"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="220"/>
+      <c r="E41" s="220"/>
+      <c r="F41" s="220"/>
+      <c r="G41" s="220"/>
+      <c r="H41" s="220"/>
       <c r="I41" s="121">
         <v>10</v>
       </c>
-      <c r="J41" s="221"/>
-      <c r="K41" s="221"/>
-      <c r="L41" s="229"/>
-      <c r="M41" s="221"/>
-      <c r="N41" s="221"/>
+      <c r="J41" s="220"/>
+      <c r="K41" s="220"/>
+      <c r="L41" s="228"/>
+      <c r="M41" s="220"/>
+      <c r="N41" s="220"/>
     </row>
     <row r="42" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="230" t="s">
+      <c r="B42" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="230" t="s">
+      <c r="C42" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="230" t="s">
+      <c r="D42" s="229" t="s">
         <v>58</v>
       </c>
       <c r="E42" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="230" t="s">
+      <c r="F42" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="230" t="s">
+      <c r="G42" s="229" t="s">
         <v>59</v>
       </c>
       <c r="H42" s="118" t="s">
@@ -8338,148 +8867,148 @@
         <v>62</v>
       </c>
       <c r="K42" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L42" s="119" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="231" t="s">
+      <c r="B43" s="230" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="232" t="s">
+      <c r="C43" s="231" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="232" t="s">
+      <c r="D43" s="231" t="s">
         <v>66</v>
       </c>
       <c r="E43" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="220">
-        <v>1</v>
-      </c>
-      <c r="G43" s="233">
+      <c r="F43" s="219">
+        <v>1</v>
+      </c>
+      <c r="G43" s="232">
         <v>210</v>
       </c>
-      <c r="H43" s="220">
+      <c r="H43" s="219">
         <v>50</v>
       </c>
-      <c r="I43" s="220">
+      <c r="I43" s="219">
         <v>50</v>
       </c>
-      <c r="J43" s="233">
+      <c r="J43" s="232">
         <v>10500</v>
       </c>
       <c r="K43" s="35"/>
-      <c r="L43" s="280" t="s">
+      <c r="L43" s="279" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="234" t="s">
+      <c r="B44" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="235" t="s">
+      <c r="C44" s="234" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="235" t="s">
+      <c r="D44" s="234" t="s">
         <v>69</v>
       </c>
       <c r="E44" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="236">
-        <v>1</v>
-      </c>
-      <c r="G44" s="236">
+      <c r="F44" s="235">
+        <v>1</v>
+      </c>
+      <c r="G44" s="235">
         <v>210</v>
       </c>
-      <c r="H44" s="236">
+      <c r="H44" s="235">
         <v>10</v>
       </c>
-      <c r="I44" s="236">
+      <c r="I44" s="235">
         <v>10</v>
       </c>
-      <c r="J44" s="237">
+      <c r="J44" s="236">
         <v>2100</v>
       </c>
       <c r="K44" s="105"/>
-      <c r="L44" s="283" t="s">
+      <c r="L44" s="282" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="238" t="s">
+      <c r="B45" s="237" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="239"/>
-      <c r="D45" s="239" t="s">
+      <c r="C45" s="238"/>
+      <c r="D45" s="238" t="s">
         <v>72</v>
       </c>
       <c r="E45" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="240">
+      <c r="F45" s="239">
         <v>2</v>
       </c>
-      <c r="G45" s="241">
+      <c r="G45" s="240">
         <v>80</v>
       </c>
-      <c r="H45" s="240">
+      <c r="H45" s="239">
         <v>100</v>
       </c>
-      <c r="I45" s="240">
+      <c r="I45" s="239">
         <v>100</v>
       </c>
-      <c r="J45" s="242">
+      <c r="J45" s="241">
         <v>4000</v>
       </c>
       <c r="K45" s="36"/>
-      <c r="L45" s="282" t="s">
+      <c r="L45" s="281" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="221"/>
-      <c r="C46" s="243"/>
-      <c r="D46" s="244"/>
-      <c r="F46" s="243"/>
-      <c r="G46" s="221"/>
-      <c r="H46" s="245"/>
-      <c r="I46" s="221"/>
-      <c r="J46" s="221"/>
-      <c r="K46" s="245"/>
+      <c r="B46" s="220"/>
+      <c r="C46" s="242"/>
+      <c r="D46" s="243"/>
+      <c r="F46" s="242"/>
+      <c r="G46" s="220"/>
+      <c r="H46" s="244"/>
+      <c r="I46" s="220"/>
+      <c r="J46" s="220"/>
+      <c r="K46" s="244"/>
     </row>
     <row r="47" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="246" t="s">
+      <c r="B47" s="245" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="243"/>
-      <c r="D47" s="244"/>
-      <c r="F47" s="243"/>
-      <c r="G47" s="244"/>
-      <c r="H47" s="245"/>
-      <c r="I47" s="244"/>
-      <c r="J47" s="244"/>
-      <c r="K47" s="245"/>
+      <c r="C47" s="242"/>
+      <c r="D47" s="243"/>
+      <c r="F47" s="242"/>
+      <c r="G47" s="243"/>
+      <c r="H47" s="244"/>
+      <c r="I47" s="243"/>
+      <c r="J47" s="243"/>
+      <c r="K47" s="244"/>
     </row>
     <row r="48" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="217" t="s">
+      <c r="B48" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="218" t="s">
+      <c r="C48" s="217" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="218" t="s">
+      <c r="D48" s="217" t="s">
         <v>58</v>
       </c>
       <c r="E48" s="104"/>
-      <c r="F48" s="218" t="s">
+      <c r="F48" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="218" t="s">
+      <c r="G48" s="217" t="s">
         <v>59</v>
       </c>
       <c r="H48" s="122" t="s">
@@ -8492,109 +9021,109 @@
         <v>62</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L48" s="123" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="219" t="s">
+      <c r="B49" s="218" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="232" t="s">
+      <c r="C49" s="231" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="232" t="s">
+      <c r="D49" s="231" t="s">
         <v>77</v>
       </c>
       <c r="E49" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="220">
-        <v>1</v>
-      </c>
-      <c r="G49" s="247">
+      <c r="F49" s="219">
+        <v>1</v>
+      </c>
+      <c r="G49" s="246">
         <v>270</v>
       </c>
-      <c r="H49" s="220"/>
-      <c r="I49" s="220">
+      <c r="H49" s="219"/>
+      <c r="I49" s="219">
         <v>20</v>
       </c>
-      <c r="J49" s="233">
+      <c r="J49" s="232">
         <v>0</v>
       </c>
       <c r="K49" s="35"/>
-      <c r="L49" s="248" t="s">
+      <c r="L49" s="247" t="s">
         <v>78</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="249" t="s">
+      <c r="B50" s="248" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="236" t="s">
+      <c r="C50" s="235" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="235" t="s">
+      <c r="D50" s="234" t="s">
         <v>79</v>
       </c>
       <c r="E50" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="236">
-        <v>1</v>
-      </c>
-      <c r="G50" s="250">
+      <c r="F50" s="235">
+        <v>1</v>
+      </c>
+      <c r="G50" s="249">
         <v>200</v>
       </c>
-      <c r="H50" s="236">
+      <c r="H50" s="235">
         <v>10</v>
       </c>
-      <c r="I50" s="236">
+      <c r="I50" s="235">
         <v>10</v>
       </c>
-      <c r="J50" s="237">
+      <c r="J50" s="236">
         <v>2000</v>
       </c>
       <c r="K50" s="105"/>
-      <c r="L50" s="283" t="s">
+      <c r="L50" s="282" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="251" t="s">
+      <c r="B51" s="250" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="240" t="s">
+      <c r="C51" s="239" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="239" t="s">
+      <c r="D51" s="238" t="s">
         <v>82</v>
       </c>
       <c r="E51" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="240">
-        <v>1</v>
-      </c>
-      <c r="G51" s="241">
+      <c r="F51" s="239">
+        <v>1</v>
+      </c>
+      <c r="G51" s="240">
         <v>200</v>
       </c>
-      <c r="H51" s="240">
+      <c r="H51" s="239">
         <v>10</v>
       </c>
-      <c r="I51" s="240">
+      <c r="I51" s="239">
         <v>10</v>
       </c>
-      <c r="J51" s="242">
+      <c r="J51" s="241">
         <v>2000</v>
       </c>
       <c r="K51" s="36"/>
-      <c r="L51" s="282" t="s">
+      <c r="L51" s="281" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8648,11 +9177,11 @@
   <sheetData>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="56" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="210" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="81" t="s">
@@ -8664,7 +9193,7 @@
       <c r="E3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="212" t="s">
+      <c r="F3" s="211" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="81" t="s">
@@ -8674,24 +9203,24 @@
         <v>5</v>
       </c>
       <c r="I3" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="J3" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="K3" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="L3" s="82" t="s">
         <v>207</v>
-      </c>
-      <c r="K3" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="L3" s="82" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="85" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>311</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>313</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -8712,16 +9241,16 @@
         <v>6000</v>
       </c>
       <c r="K4" s="19"/>
-      <c r="L4" s="278" t="s">
-        <v>321</v>
+      <c r="L4" s="277" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="85" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -8742,16 +9271,16 @@
         <v>8000</v>
       </c>
       <c r="K5" s="19"/>
-      <c r="L5" s="278" t="s">
-        <v>321</v>
+      <c r="L5" s="277" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="101" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -8760,7 +9289,7 @@
       <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="269">
+      <c r="G6" s="268">
         <v>7000</v>
       </c>
       <c r="H6" s="19"/>
@@ -8772,16 +9301,16 @@
         <v>7000</v>
       </c>
       <c r="K6" s="19"/>
-      <c r="L6" s="278" t="s">
-        <v>316</v>
+      <c r="L6" s="277" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="101" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -8802,13 +9331,13 @@
         <v>2600</v>
       </c>
       <c r="K7" s="19"/>
-      <c r="L7" s="278" t="s">
-        <v>318</v>
+      <c r="L7" s="277" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="101" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -8818,7 +9347,7 @@
       <c r="F8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="269">
+      <c r="G8" s="268">
         <v>22000</v>
       </c>
       <c r="H8" s="19"/>
@@ -8830,8 +9359,8 @@
         <v>44000</v>
       </c>
       <c r="K8" s="19"/>
-      <c r="L8" s="278" t="s">
-        <v>320</v>
+      <c r="L8" s="277" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -8887,7 +9416,7 @@
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="222"/>
+      <c r="B13" s="221"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -8897,7 +9426,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="268"/>
+      <c r="L13" s="267"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J14" s="48">
@@ -8919,11 +9448,11 @@
     </row>
     <row r="18" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="211" t="s">
+      <c r="B19" s="210" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="81" t="s">
@@ -8935,7 +9464,7 @@
       <c r="E19" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="212" t="s">
+      <c r="F19" s="211" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="81" t="s">
@@ -8945,41 +9474,41 @@
         <v>5</v>
       </c>
       <c r="I19" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="J19" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="K19" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="J19" s="81" t="s">
+      <c r="L19" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="K19" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="L19" s="82" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="271" t="s">
-        <v>325</v>
-      </c>
-      <c r="C20" s="271" t="s">
-        <v>326</v>
-      </c>
-      <c r="D20" s="273" t="s">
-        <v>334</v>
+      <c r="B20" s="270" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20" s="270" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" s="272" t="s">
+        <v>332</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="274">
-        <v>1</v>
-      </c>
-      <c r="G20" s="275">
+      <c r="F20" s="273">
+        <v>1</v>
+      </c>
+      <c r="G20" s="274">
         <v>30</v>
       </c>
-      <c r="H20" s="276">
-        <v>1</v>
-      </c>
-      <c r="I20" s="277">
+      <c r="H20" s="275">
+        <v>1</v>
+      </c>
+      <c r="I20" s="276">
         <v>10</v>
       </c>
       <c r="J20" s="41">
@@ -8987,33 +9516,33 @@
         <v>300</v>
       </c>
       <c r="K20" s="19"/>
-      <c r="L20" s="281" t="s">
-        <v>340</v>
+      <c r="L20" s="280" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="270" t="s">
-        <v>327</v>
-      </c>
-      <c r="C21" s="270" t="s">
+      <c r="B21" s="269" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21" s="269" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="272" t="s">
-        <v>335</v>
+      <c r="D21" s="271" t="s">
+        <v>333</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="274">
-        <v>1</v>
-      </c>
-      <c r="G21" s="275">
+      <c r="F21" s="273">
+        <v>1</v>
+      </c>
+      <c r="G21" s="274">
         <v>50</v>
       </c>
-      <c r="H21" s="276">
+      <c r="H21" s="275">
         <v>100</v>
       </c>
-      <c r="I21" s="277">
+      <c r="I21" s="276">
         <v>100</v>
       </c>
       <c r="J21" s="41">
@@ -9021,33 +9550,33 @@
         <v>5000</v>
       </c>
       <c r="K21" s="19"/>
-      <c r="L21" s="281" t="s">
-        <v>341</v>
+      <c r="L21" s="280" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="271" t="s">
-        <v>328</v>
-      </c>
-      <c r="C22" s="271" t="s">
+      <c r="B22" s="270" t="s">
         <v>326</v>
       </c>
-      <c r="D22" s="273" t="s">
-        <v>336</v>
+      <c r="C22" s="270" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="272" t="s">
+        <v>334</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="274">
+      <c r="F22" s="273">
         <v>2</v>
       </c>
-      <c r="G22" s="275">
+      <c r="G22" s="274">
         <v>290</v>
       </c>
-      <c r="H22" s="276">
-        <v>1</v>
-      </c>
-      <c r="I22" s="277">
+      <c r="H22" s="275">
+        <v>1</v>
+      </c>
+      <c r="I22" s="276">
         <v>20</v>
       </c>
       <c r="J22" s="41">
@@ -9055,33 +9584,33 @@
         <v>5800</v>
       </c>
       <c r="K22" s="19"/>
-      <c r="L22" s="281" t="s">
-        <v>342</v>
+      <c r="L22" s="280" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="270" t="s">
-        <v>329</v>
-      </c>
-      <c r="C23" s="270" t="s">
-        <v>330</v>
-      </c>
-      <c r="D23" s="272" t="s">
-        <v>337</v>
+      <c r="B23" s="269" t="s">
+        <v>327</v>
+      </c>
+      <c r="C23" s="269" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="271" t="s">
+        <v>335</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="274">
-        <v>1</v>
-      </c>
-      <c r="G23" s="275">
+      <c r="F23" s="273">
+        <v>1</v>
+      </c>
+      <c r="G23" s="274">
         <v>100</v>
       </c>
-      <c r="H23" s="276">
+      <c r="H23" s="275">
         <v>10</v>
       </c>
-      <c r="I23" s="277">
+      <c r="I23" s="276">
         <v>10</v>
       </c>
       <c r="J23" s="41">
@@ -9089,33 +9618,33 @@
         <v>1000</v>
       </c>
       <c r="K23" s="19"/>
-      <c r="L23" s="281" t="s">
-        <v>343</v>
+      <c r="L23" s="280" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="271" t="s">
-        <v>331</v>
-      </c>
-      <c r="C24" s="270" t="s">
-        <v>332</v>
-      </c>
-      <c r="D24" s="272" t="s">
-        <v>338</v>
+      <c r="B24" s="270" t="s">
+        <v>329</v>
+      </c>
+      <c r="C24" s="269" t="s">
+        <v>330</v>
+      </c>
+      <c r="D24" s="271" t="s">
+        <v>336</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="274">
-        <v>1</v>
-      </c>
-      <c r="G24" s="275">
+      <c r="F24" s="273">
+        <v>1</v>
+      </c>
+      <c r="G24" s="274">
         <v>430</v>
       </c>
-      <c r="H24" s="276">
-        <v>1</v>
-      </c>
-      <c r="I24" s="277">
+      <c r="H24" s="275">
+        <v>1</v>
+      </c>
+      <c r="I24" s="276">
         <v>10</v>
       </c>
       <c r="J24" s="41">
@@ -9123,33 +9652,33 @@
         <v>4300</v>
       </c>
       <c r="K24" s="19"/>
-      <c r="L24" s="281" t="s">
-        <v>344</v>
+      <c r="L24" s="280" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="270" t="s">
-        <v>333</v>
-      </c>
-      <c r="C25" s="270" t="s">
-        <v>332</v>
-      </c>
-      <c r="D25" s="272" t="s">
-        <v>339</v>
+      <c r="B25" s="269" t="s">
+        <v>331</v>
+      </c>
+      <c r="C25" s="269" t="s">
+        <v>330</v>
+      </c>
+      <c r="D25" s="271" t="s">
+        <v>337</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="274">
-        <v>1</v>
-      </c>
-      <c r="G25" s="275">
+      <c r="F25" s="273">
+        <v>1</v>
+      </c>
+      <c r="G25" s="274">
         <v>430</v>
       </c>
-      <c r="H25" s="276">
-        <v>1</v>
-      </c>
-      <c r="I25" s="277">
+      <c r="H25" s="275">
+        <v>1</v>
+      </c>
+      <c r="I25" s="276">
         <v>10</v>
       </c>
       <c r="J25" s="41">
@@ -9157,8 +9686,8 @@
         <v>4300</v>
       </c>
       <c r="K25" s="19"/>
-      <c r="L25" s="281" t="s">
-        <v>345</v>
+      <c r="L25" s="280" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
@@ -9197,7 +9726,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9209,26 +9738,26 @@
   <sheetData>
     <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="56" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="261" t="s">
-        <v>300</v>
-      </c>
-      <c r="D3" s="262" t="s">
+      <c r="C3" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="261" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="261" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="262" t="s">
         <v>296</v>
       </c>
-      <c r="E3" s="262" t="s">
-        <v>297</v>
-      </c>
-      <c r="F3" s="263" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="290" t="s">
-        <v>294</v>
+      <c r="C4" s="289" t="s">
+        <v>292</v>
       </c>
       <c r="D4" s="142">
         <v>169</v>
@@ -9236,68 +9765,68 @@
       <c r="E4" s="142">
         <v>250</v>
       </c>
-      <c r="F4" s="291">
+      <c r="F4" s="290">
         <f>D4*E4</f>
         <v>42250</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="264" t="s">
-        <v>300</v>
-      </c>
-      <c r="D6" s="265" t="s">
-        <v>301</v>
+      <c r="C6" s="263" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="264" t="s">
+        <v>299</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="56"/>
-      <c r="C7" s="267" t="s">
-        <v>294</v>
-      </c>
-      <c r="D7" s="288">
+      <c r="C7" s="266" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="287">
         <v>3</v>
       </c>
       <c r="E7" s="140">
         <v>40000</v>
       </c>
-      <c r="F7" s="203">
+      <c r="F7" s="202">
         <f>D7*E7</f>
         <v>120000</v>
       </c>
       <c r="G7" s="56"/>
     </row>
     <row r="8" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="222" t="s">
-        <v>348</v>
-      </c>
-      <c r="D8" s="289">
+      <c r="C8" s="221" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" s="288">
         <v>2</v>
       </c>
       <c r="E8" s="4">
         <v>250000</v>
       </c>
-      <c r="F8" s="208">
+      <c r="F8" s="207">
         <f>D8*E8</f>
         <v>500000</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="349" t="s">
-        <v>349</v>
-      </c>
-      <c r="D9" s="350"/>
-      <c r="E9" s="362">
+      <c r="C9" s="377" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" s="378"/>
+      <c r="E9" s="382">
         <f>SUM(F7:F8)</f>
         <v>620000</v>
       </c>
-      <c r="F9" s="363"/>
+      <c r="F9" s="383"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9325,7 +9854,7 @@
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="287" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="286" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9" style="1"/>
     <col min="12" max="12" width="10.875" style="1" bestFit="1" customWidth="1"/>
@@ -9347,14 +9876,14 @@
       <c r="B3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="293" t="s">
-        <v>352</v>
-      </c>
-      <c r="D3" s="293" t="s">
+      <c r="C3" s="291" t="s">
         <v>350</v>
       </c>
-      <c r="E3" s="294" t="s">
-        <v>353</v>
+      <c r="D3" s="291" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" s="292" t="s">
+        <v>351</v>
       </c>
       <c r="F3" s="150" t="s">
         <v>0</v>
@@ -9391,264 +9920,264 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="308" t="s">
+      <c r="B4" s="306" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="309" t="s">
-        <v>351</v>
-      </c>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="311" t="s">
+      <c r="C4" s="307" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="308"/>
+      <c r="E4" s="308"/>
+      <c r="F4" s="309" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="310">
-        <v>1</v>
-      </c>
-      <c r="H4" s="311" t="s">
+      <c r="G4" s="308">
+        <v>1</v>
+      </c>
+      <c r="H4" s="309" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="333">
+      <c r="I4" s="331">
         <v>10</v>
       </c>
-      <c r="J4" s="333">
+      <c r="J4" s="331">
         <v>110</v>
       </c>
-      <c r="K4" s="334">
+      <c r="K4" s="332">
         <v>110</v>
       </c>
-      <c r="L4" s="333">
+      <c r="L4" s="331">
         <v>20</v>
       </c>
-      <c r="M4" s="335"/>
+      <c r="M4" s="333"/>
       <c r="N4" s="35"/>
-      <c r="O4" s="311" t="s">
+      <c r="O4" s="309" t="s">
         <v>119</v>
       </c>
       <c r="P4" s="37"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="312" t="s">
+      <c r="B5" s="310" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="315" t="s">
+      <c r="C5" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="313" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="314">
-        <v>1</v>
-      </c>
-      <c r="H5" s="315" t="s">
+      <c r="G5" s="312">
+        <v>1</v>
+      </c>
+      <c r="H5" s="313" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="336">
+      <c r="I5" s="334">
         <v>10</v>
       </c>
-      <c r="J5" s="336">
+      <c r="J5" s="334">
         <v>220</v>
       </c>
-      <c r="K5" s="332">
+      <c r="K5" s="330">
         <v>220</v>
       </c>
-      <c r="L5" s="336">
+      <c r="L5" s="334">
         <v>20</v>
       </c>
-      <c r="M5" s="296"/>
+      <c r="M5" s="294"/>
       <c r="N5" s="34"/>
-      <c r="O5" s="315" t="s">
+      <c r="O5" s="313" t="s">
         <v>122</v>
       </c>
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="312" t="s">
+      <c r="B6" s="310" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D6" s="314"/>
-      <c r="E6" s="314"/>
-      <c r="F6" s="315" t="s">
+      <c r="C6" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="312"/>
+      <c r="E6" s="312"/>
+      <c r="F6" s="313" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="314">
-        <v>1</v>
-      </c>
-      <c r="H6" s="315" t="s">
+      <c r="G6" s="312">
+        <v>1</v>
+      </c>
+      <c r="H6" s="313" t="s">
         <v>146</v>
       </c>
-      <c r="I6" s="336">
+      <c r="I6" s="334">
         <v>10</v>
       </c>
-      <c r="J6" s="336">
+      <c r="J6" s="334">
         <v>20</v>
       </c>
-      <c r="K6" s="332">
+      <c r="K6" s="330">
         <v>40</v>
       </c>
-      <c r="L6" s="336">
+      <c r="L6" s="334">
         <v>20</v>
       </c>
-      <c r="M6" s="296"/>
+      <c r="M6" s="294"/>
       <c r="N6" s="34"/>
-      <c r="O6" s="315" t="s">
+      <c r="O6" s="313" t="s">
         <v>147</v>
       </c>
       <c r="P6" s="39"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="312" t="s">
+      <c r="B7" s="310" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D7" s="314"/>
-      <c r="E7" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="F7" s="315" t="s">
+      <c r="C7" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="312"/>
+      <c r="E7" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="F7" s="313" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="314">
-        <v>1</v>
-      </c>
-      <c r="H7" s="315" t="s">
+      <c r="G7" s="312">
+        <v>1</v>
+      </c>
+      <c r="H7" s="313" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="336">
+      <c r="I7" s="334">
         <v>10</v>
       </c>
-      <c r="J7" s="336">
+      <c r="J7" s="334">
         <v>20</v>
       </c>
-      <c r="K7" s="332">
+      <c r="K7" s="330">
         <v>20</v>
       </c>
-      <c r="L7" s="336">
+      <c r="L7" s="334">
         <v>40</v>
       </c>
-      <c r="M7" s="296"/>
+      <c r="M7" s="294"/>
       <c r="N7" s="34"/>
-      <c r="O7" s="315" t="s">
+      <c r="O7" s="313" t="s">
         <v>150</v>
       </c>
       <c r="P7" s="39"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="312" t="s">
+      <c r="B8" s="310" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D8" s="314"/>
-      <c r="E8" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="F8" s="315" t="s">
+      <c r="C8" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="312"/>
+      <c r="E8" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="313" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="314">
-        <v>1</v>
-      </c>
-      <c r="H8" s="315" t="s">
+      <c r="G8" s="312">
+        <v>1</v>
+      </c>
+      <c r="H8" s="313" t="s">
         <v>156</v>
       </c>
-      <c r="I8" s="336">
+      <c r="I8" s="334">
         <v>10</v>
       </c>
-      <c r="J8" s="336">
+      <c r="J8" s="334">
         <v>20</v>
       </c>
-      <c r="K8" s="332">
+      <c r="K8" s="330">
         <v>20</v>
       </c>
-      <c r="L8" s="336">
+      <c r="L8" s="334">
         <v>40</v>
       </c>
-      <c r="M8" s="296"/>
+      <c r="M8" s="294"/>
       <c r="N8" s="34"/>
-      <c r="O8" s="316" t="s">
+      <c r="O8" s="314" t="s">
         <v>157</v>
       </c>
       <c r="P8" s="39"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="312" t="s">
+      <c r="B9" s="310" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D9" s="314"/>
-      <c r="E9" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="F9" s="315" t="s">
+      <c r="C9" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="312"/>
+      <c r="E9" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" s="313" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="314">
-        <v>1</v>
-      </c>
-      <c r="H9" s="315" t="s">
+      <c r="G9" s="312">
+        <v>1</v>
+      </c>
+      <c r="H9" s="313" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="336">
+      <c r="I9" s="334">
         <v>10</v>
       </c>
-      <c r="J9" s="336">
+      <c r="J9" s="334">
         <v>40</v>
       </c>
-      <c r="K9" s="332">
+      <c r="K9" s="330">
         <v>250</v>
       </c>
-      <c r="L9" s="336">
+      <c r="L9" s="334">
         <v>20</v>
       </c>
-      <c r="M9" s="296"/>
+      <c r="M9" s="294"/>
       <c r="N9" s="34"/>
-      <c r="O9" s="316" t="s">
+      <c r="O9" s="314" t="s">
         <v>153</v>
       </c>
       <c r="P9" s="39"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="298" t="s">
+      <c r="B10" s="296" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D10" s="300"/>
-      <c r="E10" s="300"/>
+      <c r="C10" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" s="298"/>
+      <c r="E10" s="298"/>
       <c r="F10" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="300">
+      <c r="G10" s="298">
         <v>1</v>
       </c>
       <c r="H10" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="I10" s="332">
+      <c r="I10" s="330">
         <v>10</v>
       </c>
-      <c r="J10" s="332">
+      <c r="J10" s="330">
         <v>140</v>
       </c>
-      <c r="K10" s="332">
+      <c r="K10" s="330">
         <v>140</v>
       </c>
-      <c r="L10" s="332">
+      <c r="L10" s="330">
         <v>10</v>
       </c>
-      <c r="M10" s="296"/>
+      <c r="M10" s="294"/>
       <c r="N10" s="34"/>
       <c r="O10" s="58" t="s">
         <v>189</v>
@@ -9657,117 +10186,117 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="C11" s="313" t="s">
-        <v>351</v>
+        <v>279</v>
+      </c>
+      <c r="C11" s="311" t="s">
+        <v>349</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G11" s="22">
         <v>1</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="I11" s="296">
-        <v>1</v>
-      </c>
-      <c r="J11" s="296">
+        <v>281</v>
+      </c>
+      <c r="I11" s="294">
+        <v>1</v>
+      </c>
+      <c r="J11" s="294">
         <v>3520</v>
       </c>
-      <c r="K11" s="296">
+      <c r="K11" s="294">
         <f>J11*L11</f>
         <v>7040</v>
       </c>
-      <c r="L11" s="296">
+      <c r="L11" s="294">
         <v>2</v>
       </c>
-      <c r="M11" s="296"/>
+      <c r="M11" s="294"/>
       <c r="N11" s="34"/>
-      <c r="O11" s="317" t="s">
-        <v>284</v>
+      <c r="O11" s="315" t="s">
+        <v>282</v>
       </c>
       <c r="P11" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="312" t="s">
+      <c r="B12" s="310" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D12" s="314"/>
-      <c r="E12" s="314"/>
-      <c r="F12" s="315" t="s">
+      <c r="C12" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="312"/>
+      <c r="E12" s="312"/>
+      <c r="F12" s="313" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="314">
-        <v>1</v>
-      </c>
-      <c r="H12" s="315" t="s">
+      <c r="G12" s="312">
+        <v>1</v>
+      </c>
+      <c r="H12" s="313" t="s">
         <v>142</v>
       </c>
-      <c r="I12" s="336">
-        <v>1</v>
-      </c>
-      <c r="J12" s="336">
+      <c r="I12" s="334">
+        <v>1</v>
+      </c>
+      <c r="J12" s="334">
         <v>720</v>
       </c>
-      <c r="K12" s="332">
+      <c r="K12" s="330">
         <v>1270</v>
       </c>
-      <c r="L12" s="336">
+      <c r="L12" s="334">
         <v>20</v>
       </c>
-      <c r="M12" s="296"/>
+      <c r="M12" s="294"/>
       <c r="N12" s="34"/>
-      <c r="O12" s="315" t="s">
+      <c r="O12" s="313" t="s">
         <v>143</v>
       </c>
       <c r="P12" s="39"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="295" t="s">
+      <c r="B13" s="293" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D13" s="235"/>
-      <c r="E13" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="F13" s="235" t="s">
+      <c r="C13" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" s="234"/>
+      <c r="E13" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="F13" s="234" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="22">
         <v>3</v>
       </c>
-      <c r="H13" s="235" t="s">
+      <c r="H13" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="296">
-        <v>1</v>
-      </c>
-      <c r="J13" s="296">
+      <c r="I13" s="294">
+        <v>1</v>
+      </c>
+      <c r="J13" s="294">
         <v>60</v>
       </c>
-      <c r="K13" s="296">
+      <c r="K13" s="294">
         <f>J13*L13</f>
         <v>7200</v>
       </c>
-      <c r="L13" s="296">
+      <c r="L13" s="294">
         <v>120</v>
       </c>
-      <c r="M13" s="296"/>
+      <c r="M13" s="294"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="317" t="s">
+      <c r="O13" s="315" t="s">
         <v>54</v>
       </c>
       <c r="P13" s="39" t="s">
@@ -9775,558 +10304,558 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="312" t="s">
+      <c r="B14" s="310" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D14" s="314"/>
-      <c r="E14" s="314"/>
-      <c r="F14" s="315" t="s">
+      <c r="C14" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D14" s="312"/>
+      <c r="E14" s="312"/>
+      <c r="F14" s="313" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="314">
-        <v>1</v>
-      </c>
-      <c r="H14" s="315" t="s">
+      <c r="G14" s="312">
+        <v>1</v>
+      </c>
+      <c r="H14" s="313" t="s">
         <v>160</v>
       </c>
-      <c r="I14" s="336">
+      <c r="I14" s="334">
         <v>50</v>
       </c>
-      <c r="J14" s="336">
+      <c r="J14" s="334">
         <v>160</v>
       </c>
-      <c r="K14" s="332">
+      <c r="K14" s="330">
         <v>160</v>
       </c>
-      <c r="L14" s="336">
+      <c r="L14" s="334">
         <v>50</v>
       </c>
-      <c r="M14" s="296"/>
+      <c r="M14" s="294"/>
       <c r="N14" s="34"/>
-      <c r="O14" s="315" t="s">
+      <c r="O14" s="313" t="s">
         <v>161</v>
       </c>
       <c r="P14" s="39"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="312" t="s">
+      <c r="B15" s="310" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D15" s="314"/>
-      <c r="E15" s="314"/>
-      <c r="F15" s="315" t="s">
+      <c r="C15" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D15" s="312"/>
+      <c r="E15" s="312"/>
+      <c r="F15" s="313" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="314">
-        <v>1</v>
-      </c>
-      <c r="H15" s="315" t="s">
+      <c r="G15" s="312">
+        <v>1</v>
+      </c>
+      <c r="H15" s="313" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="336">
+      <c r="I15" s="334">
         <v>10</v>
       </c>
-      <c r="J15" s="336">
+      <c r="J15" s="334">
         <v>380</v>
       </c>
-      <c r="K15" s="332">
+      <c r="K15" s="330">
         <v>380</v>
       </c>
-      <c r="L15" s="336">
+      <c r="L15" s="334">
         <v>10</v>
       </c>
-      <c r="M15" s="296"/>
+      <c r="M15" s="294"/>
       <c r="N15" s="34"/>
-      <c r="O15" s="315" t="s">
+      <c r="O15" s="313" t="s">
         <v>116</v>
       </c>
       <c r="P15" s="39"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="312" t="s">
+      <c r="B16" s="310" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D16" s="314"/>
-      <c r="E16" s="314"/>
-      <c r="F16" s="315" t="s">
+      <c r="C16" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D16" s="312"/>
+      <c r="E16" s="312"/>
+      <c r="F16" s="313" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="314">
-        <v>1</v>
-      </c>
-      <c r="H16" s="315" t="s">
+      <c r="G16" s="312">
+        <v>1</v>
+      </c>
+      <c r="H16" s="313" t="s">
         <v>129</v>
       </c>
-      <c r="I16" s="336">
-        <v>1</v>
-      </c>
-      <c r="J16" s="336">
+      <c r="I16" s="334">
+        <v>1</v>
+      </c>
+      <c r="J16" s="334">
         <v>420</v>
       </c>
-      <c r="K16" s="332">
+      <c r="K16" s="330">
         <v>350</v>
       </c>
-      <c r="L16" s="336">
+      <c r="L16" s="334">
         <v>20</v>
       </c>
-      <c r="M16" s="296"/>
+      <c r="M16" s="294"/>
       <c r="N16" s="34"/>
-      <c r="O16" s="315" t="s">
+      <c r="O16" s="313" t="s">
         <v>130</v>
       </c>
       <c r="P16" s="39"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="312" t="s">
+      <c r="B17" s="310" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D17" s="314"/>
-      <c r="E17" s="314"/>
-      <c r="F17" s="315" t="s">
+      <c r="C17" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D17" s="312"/>
+      <c r="E17" s="312"/>
+      <c r="F17" s="313" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="314">
-        <v>1</v>
-      </c>
-      <c r="H17" s="315" t="s">
+      <c r="G17" s="312">
+        <v>1</v>
+      </c>
+      <c r="H17" s="313" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="336">
-        <v>1</v>
-      </c>
-      <c r="J17" s="336">
+      <c r="I17" s="334">
+        <v>1</v>
+      </c>
+      <c r="J17" s="334">
         <v>260</v>
       </c>
-      <c r="K17" s="332">
+      <c r="K17" s="330">
         <v>320</v>
       </c>
-      <c r="L17" s="336">
+      <c r="L17" s="334">
         <v>20</v>
       </c>
-      <c r="M17" s="296"/>
+      <c r="M17" s="294"/>
       <c r="N17" s="34"/>
-      <c r="O17" s="315" t="s">
+      <c r="O17" s="313" t="s">
         <v>126</v>
       </c>
       <c r="P17" s="39"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="312" t="s">
+      <c r="B18" s="310" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D18" s="314"/>
-      <c r="E18" s="314"/>
-      <c r="F18" s="315" t="s">
+      <c r="C18" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" s="312"/>
+      <c r="E18" s="312"/>
+      <c r="F18" s="313" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="314">
-        <v>1</v>
-      </c>
-      <c r="H18" s="315" t="s">
+      <c r="G18" s="312">
+        <v>1</v>
+      </c>
+      <c r="H18" s="313" t="s">
         <v>175</v>
       </c>
-      <c r="I18" s="336">
-        <v>1</v>
-      </c>
-      <c r="J18" s="336">
+      <c r="I18" s="334">
+        <v>1</v>
+      </c>
+      <c r="J18" s="334">
         <v>2850</v>
       </c>
-      <c r="K18" s="332">
+      <c r="K18" s="330">
         <v>3240</v>
       </c>
-      <c r="L18" s="336">
+      <c r="L18" s="334">
         <v>20</v>
       </c>
-      <c r="M18" s="296"/>
+      <c r="M18" s="294"/>
       <c r="N18" s="34"/>
-      <c r="O18" s="315" t="s">
+      <c r="O18" s="313" t="s">
         <v>176</v>
       </c>
       <c r="P18" s="39"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="312" t="s">
+      <c r="B19" s="310" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D19" s="314"/>
-      <c r="E19" s="314"/>
-      <c r="F19" s="315" t="s">
+      <c r="C19" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D19" s="312"/>
+      <c r="E19" s="312"/>
+      <c r="F19" s="313" t="s">
         <v>174</v>
       </c>
-      <c r="G19" s="314">
-        <v>1</v>
-      </c>
-      <c r="H19" s="315" t="s">
+      <c r="G19" s="312">
+        <v>1</v>
+      </c>
+      <c r="H19" s="313" t="s">
         <v>178</v>
       </c>
-      <c r="I19" s="336">
-        <v>1</v>
-      </c>
-      <c r="J19" s="336">
+      <c r="I19" s="334">
+        <v>1</v>
+      </c>
+      <c r="J19" s="334">
         <v>1750</v>
       </c>
-      <c r="K19" s="332">
+      <c r="K19" s="330">
         <v>1000</v>
       </c>
-      <c r="L19" s="336">
+      <c r="L19" s="334">
         <v>60</v>
       </c>
-      <c r="M19" s="296"/>
+      <c r="M19" s="294"/>
       <c r="N19" s="34"/>
-      <c r="O19" s="315" t="s">
+      <c r="O19" s="313" t="s">
         <v>179</v>
       </c>
       <c r="P19" s="39"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="312" t="s">
+      <c r="B20" s="310" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D20" s="314"/>
-      <c r="E20" s="314"/>
-      <c r="F20" s="315" t="s">
+      <c r="C20" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D20" s="312"/>
+      <c r="E20" s="312"/>
+      <c r="F20" s="313" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="314">
-        <v>1</v>
-      </c>
-      <c r="H20" s="315" t="s">
+      <c r="G20" s="312">
+        <v>1</v>
+      </c>
+      <c r="H20" s="313" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="336">
-        <v>1</v>
-      </c>
-      <c r="J20" s="336">
+      <c r="I20" s="334">
+        <v>1</v>
+      </c>
+      <c r="J20" s="334">
         <v>480</v>
       </c>
-      <c r="K20" s="332">
+      <c r="K20" s="330">
         <v>260</v>
       </c>
-      <c r="L20" s="336">
+      <c r="L20" s="334">
         <v>100</v>
       </c>
-      <c r="M20" s="296"/>
+      <c r="M20" s="294"/>
       <c r="N20" s="34"/>
-      <c r="O20" s="315" t="s">
+      <c r="O20" s="313" t="s">
         <v>139</v>
       </c>
       <c r="P20" s="39"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="312" t="s">
+      <c r="B21" s="310" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D21" s="314"/>
-      <c r="E21" s="314"/>
-      <c r="F21" s="315" t="s">
+      <c r="C21" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D21" s="312"/>
+      <c r="E21" s="312"/>
+      <c r="F21" s="313" t="s">
         <v>170</v>
       </c>
-      <c r="G21" s="314">
-        <v>1</v>
-      </c>
-      <c r="H21" s="315" t="s">
+      <c r="G21" s="312">
+        <v>1</v>
+      </c>
+      <c r="H21" s="313" t="s">
         <v>171</v>
       </c>
-      <c r="I21" s="336">
-        <v>1</v>
-      </c>
-      <c r="J21" s="336">
+      <c r="I21" s="334">
+        <v>1</v>
+      </c>
+      <c r="J21" s="334">
         <v>750</v>
       </c>
-      <c r="K21" s="332">
+      <c r="K21" s="330">
         <v>550</v>
       </c>
-      <c r="L21" s="336">
+      <c r="L21" s="334">
         <v>25</v>
       </c>
-      <c r="M21" s="296"/>
+      <c r="M21" s="294"/>
       <c r="N21" s="34"/>
-      <c r="O21" s="315" t="s">
+      <c r="O21" s="313" t="s">
         <v>172</v>
       </c>
       <c r="P21" s="39"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="312" t="s">
+      <c r="B22" s="310" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D22" s="314"/>
-      <c r="E22" s="314"/>
-      <c r="F22" s="315" t="s">
+      <c r="C22" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" s="312"/>
+      <c r="E22" s="312"/>
+      <c r="F22" s="313" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="314">
-        <v>1</v>
-      </c>
-      <c r="H22" s="315" t="s">
+      <c r="G22" s="312">
+        <v>1</v>
+      </c>
+      <c r="H22" s="313" t="s">
         <v>134</v>
       </c>
-      <c r="I22" s="336">
-        <v>1</v>
-      </c>
-      <c r="J22" s="336">
+      <c r="I22" s="334">
+        <v>1</v>
+      </c>
+      <c r="J22" s="334">
         <v>2150</v>
       </c>
-      <c r="K22" s="332">
+      <c r="K22" s="330">
         <v>1880</v>
       </c>
-      <c r="L22" s="336">
+      <c r="L22" s="334">
         <v>20</v>
       </c>
-      <c r="M22" s="296"/>
+      <c r="M22" s="294"/>
       <c r="N22" s="34"/>
-      <c r="O22" s="315" t="s">
+      <c r="O22" s="313" t="s">
         <v>135</v>
       </c>
       <c r="P22" s="39"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="312" t="s">
+      <c r="B23" s="310" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D23" s="314"/>
-      <c r="E23" s="314"/>
-      <c r="F23" s="315" t="s">
+      <c r="C23" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" s="312"/>
+      <c r="E23" s="312"/>
+      <c r="F23" s="313" t="s">
         <v>164</v>
       </c>
-      <c r="G23" s="314">
+      <c r="G23" s="312">
         <v>3</v>
       </c>
-      <c r="H23" s="315" t="s">
+      <c r="H23" s="313" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="336">
-        <v>1</v>
-      </c>
-      <c r="J23" s="336">
+      <c r="I23" s="334">
+        <v>1</v>
+      </c>
+      <c r="J23" s="334">
         <v>280</v>
       </c>
-      <c r="K23" s="332">
+      <c r="K23" s="330">
         <v>270</v>
       </c>
-      <c r="L23" s="336">
+      <c r="L23" s="334">
         <v>60</v>
       </c>
-      <c r="M23" s="296"/>
+      <c r="M23" s="294"/>
       <c r="N23" s="34"/>
-      <c r="O23" s="315" t="s">
+      <c r="O23" s="313" t="s">
         <v>165</v>
       </c>
       <c r="P23" s="39"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="312" t="s">
+      <c r="B24" s="310" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D24" s="314"/>
-      <c r="E24" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="F24" s="315" t="s">
+      <c r="C24" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" s="312"/>
+      <c r="E24" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="F24" s="313" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="314">
-        <v>1</v>
-      </c>
-      <c r="H24" s="315" t="s">
+      <c r="G24" s="312">
+        <v>1</v>
+      </c>
+      <c r="H24" s="313" t="s">
         <v>110</v>
       </c>
-      <c r="I24" s="336">
+      <c r="I24" s="334">
         <v>10</v>
       </c>
-      <c r="J24" s="336">
+      <c r="J24" s="334">
         <v>200</v>
       </c>
-      <c r="K24" s="332">
+      <c r="K24" s="330">
         <v>200</v>
       </c>
-      <c r="L24" s="336">
+      <c r="L24" s="334">
         <v>20</v>
       </c>
-      <c r="M24" s="296"/>
+      <c r="M24" s="294"/>
       <c r="N24" s="34"/>
-      <c r="O24" s="315" t="s">
+      <c r="O24" s="313" t="s">
         <v>111</v>
       </c>
       <c r="P24" s="39"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="312" t="s">
+      <c r="B25" s="310" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D25" s="314"/>
-      <c r="E25" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="F25" s="315" t="s">
+      <c r="C25" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="312"/>
+      <c r="E25" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="F25" s="313" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="314">
-        <v>1</v>
-      </c>
-      <c r="H25" s="315" t="s">
+      <c r="G25" s="312">
+        <v>1</v>
+      </c>
+      <c r="H25" s="313" t="s">
         <v>168</v>
       </c>
-      <c r="I25" s="336">
-        <v>1</v>
-      </c>
-      <c r="J25" s="336">
+      <c r="I25" s="334">
+        <v>1</v>
+      </c>
+      <c r="J25" s="334">
         <v>3970</v>
       </c>
-      <c r="K25" s="332">
+      <c r="K25" s="330">
         <v>2340</v>
       </c>
-      <c r="L25" s="336">
+      <c r="L25" s="334">
         <v>40</v>
       </c>
-      <c r="M25" s="296"/>
+      <c r="M25" s="294"/>
       <c r="N25" s="34"/>
-      <c r="O25" s="315" t="s">
+      <c r="O25" s="313" t="s">
         <v>112</v>
       </c>
       <c r="P25" s="39"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="312" t="s">
+      <c r="B26" s="310" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D26" s="314"/>
-      <c r="E26" s="314"/>
-      <c r="F26" s="315" t="s">
+      <c r="C26" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D26" s="312"/>
+      <c r="E26" s="312"/>
+      <c r="F26" s="313" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="314">
-        <v>1</v>
-      </c>
-      <c r="H26" s="315" t="s">
+      <c r="G26" s="312">
+        <v>1</v>
+      </c>
+      <c r="H26" s="313" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="336">
-        <v>1</v>
-      </c>
-      <c r="J26" s="336">
+      <c r="I26" s="334">
+        <v>1</v>
+      </c>
+      <c r="J26" s="334">
         <v>520</v>
       </c>
-      <c r="K26" s="332">
+      <c r="K26" s="330">
         <v>380</v>
       </c>
-      <c r="L26" s="336">
+      <c r="L26" s="334">
         <v>20</v>
       </c>
-      <c r="M26" s="296"/>
+      <c r="M26" s="294"/>
       <c r="N26" s="34"/>
-      <c r="O26" s="315" t="s">
+      <c r="O26" s="313" t="s">
         <v>107</v>
       </c>
       <c r="P26" s="39"/>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="310" t="s">
         <v>180</v>
       </c>
-      <c r="C27" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="D27" s="314"/>
-      <c r="E27" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="F27" s="315" t="s">
+      <c r="C27" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="D27" s="312"/>
+      <c r="E27" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="F27" s="313" t="s">
         <v>174</v>
       </c>
-      <c r="G27" s="314">
-        <v>1</v>
-      </c>
-      <c r="H27" s="315" t="s">
+      <c r="G27" s="312">
+        <v>1</v>
+      </c>
+      <c r="H27" s="313" t="s">
         <v>181</v>
       </c>
-      <c r="I27" s="336">
+      <c r="I27" s="334">
         <v>5</v>
       </c>
-      <c r="J27" s="336">
+      <c r="J27" s="334">
         <v>870</v>
       </c>
-      <c r="K27" s="332">
+      <c r="K27" s="330">
         <v>870</v>
       </c>
-      <c r="L27" s="336">
+      <c r="L27" s="334">
         <v>40</v>
       </c>
-      <c r="M27" s="296"/>
+      <c r="M27" s="294"/>
       <c r="N27" s="34"/>
-      <c r="O27" s="315" t="s">
+      <c r="O27" s="313" t="s">
         <v>182</v>
       </c>
       <c r="P27" s="39"/>
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="301" t="s">
+      <c r="B28" s="299" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="302"/>
-      <c r="D28" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E28" s="313"/>
-      <c r="F28" s="313"/>
-      <c r="G28" s="303">
-        <v>1</v>
-      </c>
-      <c r="H28" s="304" t="s">
+      <c r="C28" s="300"/>
+      <c r="D28" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E28" s="311"/>
+      <c r="F28" s="311"/>
+      <c r="G28" s="301">
+        <v>1</v>
+      </c>
+      <c r="H28" s="302" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="296">
+      <c r="I28" s="294">
         <v>50</v>
       </c>
-      <c r="J28" s="296">
+      <c r="J28" s="294">
         <v>100</v>
       </c>
-      <c r="K28" s="296"/>
-      <c r="L28" s="296">
+      <c r="K28" s="294"/>
+      <c r="L28" s="294">
         <v>50</v>
       </c>
-      <c r="M28" s="296">
+      <c r="M28" s="294">
         <f>J28*L28</f>
         <v>5000</v>
       </c>
@@ -10339,32 +10868,32 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="301" t="s">
+      <c r="B29" s="299" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="302"/>
-      <c r="D29" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E29" s="313"/>
-      <c r="F29" s="313"/>
-      <c r="G29" s="303">
+      <c r="C29" s="300"/>
+      <c r="D29" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E29" s="311"/>
+      <c r="F29" s="311"/>
+      <c r="G29" s="301">
         <v>2</v>
       </c>
-      <c r="H29" s="304" t="s">
+      <c r="H29" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="296">
-        <v>1</v>
-      </c>
-      <c r="J29" s="296">
+      <c r="I29" s="294">
+        <v>1</v>
+      </c>
+      <c r="J29" s="294">
         <v>1260</v>
       </c>
-      <c r="K29" s="296"/>
-      <c r="L29" s="296">
+      <c r="K29" s="294"/>
+      <c r="L29" s="294">
         <v>6</v>
       </c>
-      <c r="M29" s="296">
+      <c r="M29" s="294">
         <f>J29*L29</f>
         <v>7560</v>
       </c>
@@ -10377,69 +10906,69 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="318" t="s">
+      <c r="B30" s="316" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="319"/>
-      <c r="D30" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E30" s="313"/>
-      <c r="F30" s="313"/>
+      <c r="C30" s="317"/>
+      <c r="D30" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E30" s="311"/>
+      <c r="F30" s="311"/>
       <c r="G30" s="22">
         <v>2</v>
       </c>
-      <c r="H30" s="320" t="s">
-        <v>347</v>
-      </c>
-      <c r="I30" s="296">
-        <v>1</v>
-      </c>
-      <c r="J30" s="296">
+      <c r="H30" s="318" t="s">
+        <v>345</v>
+      </c>
+      <c r="I30" s="294">
+        <v>1</v>
+      </c>
+      <c r="J30" s="294">
         <v>960</v>
       </c>
-      <c r="K30" s="296"/>
-      <c r="L30" s="296">
+      <c r="K30" s="294"/>
+      <c r="L30" s="294">
         <v>20</v>
       </c>
-      <c r="M30" s="296">
+      <c r="M30" s="294">
         <v>16400</v>
       </c>
       <c r="N30" s="34"/>
       <c r="O30" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="P30" s="297" t="s">
+      <c r="P30" s="295" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="298" t="s">
+      <c r="B31" s="296" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="299"/>
-      <c r="D31" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E31" s="313"/>
-      <c r="F31" s="313"/>
-      <c r="G31" s="300">
+      <c r="C31" s="297"/>
+      <c r="D31" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E31" s="311"/>
+      <c r="F31" s="311"/>
+      <c r="G31" s="298">
         <v>10</v>
       </c>
-      <c r="H31" s="299" t="s">
+      <c r="H31" s="297" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="296">
+      <c r="I31" s="294">
         <v>5</v>
       </c>
-      <c r="J31" s="296">
+      <c r="J31" s="294">
         <v>2280</v>
       </c>
-      <c r="K31" s="296"/>
-      <c r="L31" s="296">
+      <c r="K31" s="294"/>
+      <c r="L31" s="294">
         <v>10</v>
       </c>
-      <c r="M31" s="296">
+      <c r="M31" s="294">
         <f t="shared" ref="M31:M37" si="0">J31*L31</f>
         <v>22800</v>
       </c>
@@ -10452,32 +10981,32 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="301" t="s">
+      <c r="B32" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="302"/>
-      <c r="D32" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E32" s="313"/>
-      <c r="F32" s="313"/>
-      <c r="G32" s="303">
-        <v>1</v>
-      </c>
-      <c r="H32" s="304" t="s">
+      <c r="C32" s="300"/>
+      <c r="D32" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E32" s="311"/>
+      <c r="F32" s="311"/>
+      <c r="G32" s="301">
+        <v>1</v>
+      </c>
+      <c r="H32" s="302" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="296">
+      <c r="I32" s="294">
         <v>2</v>
       </c>
-      <c r="J32" s="296">
+      <c r="J32" s="294">
         <v>7100</v>
       </c>
-      <c r="K32" s="296"/>
-      <c r="L32" s="296">
+      <c r="K32" s="294"/>
+      <c r="L32" s="294">
         <v>2</v>
       </c>
-      <c r="M32" s="296">
+      <c r="M32" s="294">
         <f t="shared" si="0"/>
         <v>14200</v>
       </c>
@@ -10494,28 +11023,28 @@
         <v>28</v>
       </c>
       <c r="C33" s="53"/>
-      <c r="D33" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E33" s="313"/>
-      <c r="F33" s="313"/>
+      <c r="D33" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E33" s="311"/>
+      <c r="F33" s="311"/>
       <c r="G33" s="22">
         <v>1</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="296">
-        <v>1</v>
-      </c>
-      <c r="J33" s="296">
+      <c r="I33" s="294">
+        <v>1</v>
+      </c>
+      <c r="J33" s="294">
         <v>11090</v>
       </c>
-      <c r="K33" s="296"/>
-      <c r="L33" s="296">
+      <c r="K33" s="294"/>
+      <c r="L33" s="294">
         <v>2</v>
       </c>
-      <c r="M33" s="296">
+      <c r="M33" s="294">
         <f t="shared" si="0"/>
         <v>22180</v>
       </c>
@@ -10528,32 +11057,32 @@
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="305" t="s">
+      <c r="B34" s="303" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="306"/>
-      <c r="D34" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E34" s="313"/>
-      <c r="F34" s="313"/>
-      <c r="G34" s="303">
-        <v>1</v>
-      </c>
-      <c r="H34" s="304" t="s">
+      <c r="C34" s="304"/>
+      <c r="D34" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E34" s="311"/>
+      <c r="F34" s="311"/>
+      <c r="G34" s="301">
+        <v>1</v>
+      </c>
+      <c r="H34" s="302" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="296">
+      <c r="I34" s="294">
         <v>2</v>
       </c>
-      <c r="J34" s="296">
+      <c r="J34" s="294">
         <v>13200</v>
       </c>
-      <c r="K34" s="296"/>
-      <c r="L34" s="296">
+      <c r="K34" s="294"/>
+      <c r="L34" s="294">
         <v>4</v>
       </c>
-      <c r="M34" s="296">
+      <c r="M34" s="294">
         <f t="shared" si="0"/>
         <v>52800</v>
       </c>
@@ -10566,34 +11095,34 @@
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="301" t="s">
+      <c r="B35" s="299" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="302"/>
-      <c r="D35" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E35" s="313"/>
+      <c r="C35" s="300"/>
+      <c r="D35" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E35" s="311"/>
       <c r="F35" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="303">
-        <v>1</v>
-      </c>
-      <c r="H35" s="304" t="s">
+      <c r="G35" s="301">
+        <v>1</v>
+      </c>
+      <c r="H35" s="302" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="296">
+      <c r="I35" s="294">
         <v>100</v>
       </c>
-      <c r="J35" s="296">
+      <c r="J35" s="294">
         <v>130</v>
       </c>
-      <c r="K35" s="296"/>
-      <c r="L35" s="296">
+      <c r="K35" s="294"/>
+      <c r="L35" s="294">
         <v>100</v>
       </c>
-      <c r="M35" s="296">
+      <c r="M35" s="294">
         <f t="shared" si="0"/>
         <v>13000</v>
       </c>
@@ -10609,31 +11138,31 @@
       <c r="B36" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="307"/>
-      <c r="D36" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E36" s="313"/>
+      <c r="C36" s="305"/>
+      <c r="D36" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E36" s="311"/>
       <c r="F36" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="303">
+      <c r="G36" s="301">
         <v>1</v>
       </c>
       <c r="H36" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="296">
+      <c r="I36" s="294">
         <v>5</v>
       </c>
-      <c r="J36" s="296">
+      <c r="J36" s="294">
         <v>210</v>
       </c>
-      <c r="K36" s="296"/>
-      <c r="L36" s="296">
+      <c r="K36" s="294"/>
+      <c r="L36" s="294">
         <v>30</v>
       </c>
-      <c r="M36" s="296">
+      <c r="M36" s="294">
         <f t="shared" si="0"/>
         <v>6300</v>
       </c>
@@ -10649,35 +11178,35 @@
       <c r="B37" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="307"/>
-      <c r="D37" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E37" s="313"/>
+      <c r="C37" s="305"/>
+      <c r="D37" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E37" s="311"/>
       <c r="F37" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="303">
+      <c r="G37" s="301">
         <v>4</v>
       </c>
       <c r="H37" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="296">
+      <c r="I37" s="294">
         <v>100</v>
       </c>
-      <c r="J37" s="296">
+      <c r="J37" s="294">
         <v>20</v>
       </c>
-      <c r="K37" s="296"/>
-      <c r="L37" s="331">
+      <c r="K37" s="294"/>
+      <c r="L37" s="329">
         <v>200</v>
       </c>
-      <c r="M37" s="296">
+      <c r="M37" s="294">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="N37" s="321" t="s">
+      <c r="N37" s="319" t="s">
         <v>41</v>
       </c>
       <c r="O37" s="34" t="s">
@@ -10688,36 +11217,36 @@
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="298" t="s">
+      <c r="B38" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="300"/>
-      <c r="D38" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E38" s="313"/>
+      <c r="C38" s="298"/>
+      <c r="D38" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E38" s="311"/>
       <c r="F38" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="300">
+      <c r="G38" s="298">
         <v>1</v>
       </c>
       <c r="H38" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="I38" s="332">
+      <c r="I38" s="330">
         <v>10</v>
       </c>
-      <c r="J38" s="332">
+      <c r="J38" s="330">
         <v>230</v>
       </c>
-      <c r="K38" s="332">
+      <c r="K38" s="330">
         <v>230</v>
       </c>
-      <c r="L38" s="332">
+      <c r="L38" s="330">
         <v>20</v>
       </c>
-      <c r="M38" s="296"/>
+      <c r="M38" s="294"/>
       <c r="N38" s="34"/>
       <c r="O38" s="58" t="s">
         <v>193</v>
@@ -10725,36 +11254,36 @@
       <c r="P38" s="39"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="298" t="s">
+      <c r="B39" s="296" t="s">
         <v>194</v>
       </c>
       <c r="C39" s="58"/>
-      <c r="D39" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E39" s="313"/>
+      <c r="D39" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E39" s="311"/>
       <c r="F39" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="300">
+      <c r="G39" s="298">
         <v>8</v>
       </c>
       <c r="H39" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="I39" s="332">
+      <c r="I39" s="330">
         <v>300</v>
       </c>
-      <c r="J39" s="332">
+      <c r="J39" s="330">
         <v>130</v>
       </c>
-      <c r="K39" s="332">
+      <c r="K39" s="330">
         <v>130</v>
       </c>
-      <c r="L39" s="332">
+      <c r="L39" s="330">
         <v>300</v>
       </c>
-      <c r="M39" s="296"/>
+      <c r="M39" s="294"/>
       <c r="N39" s="34"/>
       <c r="O39" s="58" t="s">
         <v>195</v>
@@ -10762,40 +11291,40 @@
       <c r="P39" s="39"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="318" t="s">
+      <c r="B40" s="316" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="319"/>
-      <c r="D40" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E40" s="313"/>
+      <c r="C40" s="317"/>
+      <c r="D40" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E40" s="311"/>
       <c r="F40" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="G40" s="300">
+        <v>201</v>
+      </c>
+      <c r="G40" s="298">
         <v>2</v>
       </c>
-      <c r="H40" s="320" t="s">
-        <v>347</v>
-      </c>
-      <c r="I40" s="332">
-        <v>1</v>
-      </c>
-      <c r="J40" s="332">
+      <c r="H40" s="318" t="s">
+        <v>345</v>
+      </c>
+      <c r="I40" s="330">
+        <v>1</v>
+      </c>
+      <c r="J40" s="330">
         <v>1020</v>
       </c>
-      <c r="K40" s="332">
+      <c r="K40" s="330">
         <f>J40*L40</f>
         <v>20400</v>
       </c>
-      <c r="L40" s="332">
+      <c r="L40" s="330">
         <v>20</v>
       </c>
-      <c r="M40" s="296"/>
+      <c r="M40" s="294"/>
       <c r="N40" s="34"/>
       <c r="O40" s="58" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P40" s="39" t="s">
         <v>9</v>
@@ -10803,40 +11332,40 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="298" t="s">
-        <v>204</v>
+      <c r="B41" s="296" t="s">
+        <v>202</v>
       </c>
       <c r="C41" s="58"/>
-      <c r="D41" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E41" s="313"/>
+      <c r="D41" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E41" s="311"/>
       <c r="F41" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="300">
+      <c r="G41" s="298">
         <v>1</v>
       </c>
       <c r="H41" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="I41" s="332">
+        <v>203</v>
+      </c>
+      <c r="I41" s="330">
         <v>100</v>
       </c>
-      <c r="J41" s="332">
+      <c r="J41" s="330">
         <v>130</v>
       </c>
-      <c r="K41" s="332">
+      <c r="K41" s="330">
         <f>J41*L41</f>
         <v>13000</v>
       </c>
-      <c r="L41" s="332">
+      <c r="L41" s="330">
         <v>100</v>
       </c>
-      <c r="M41" s="296"/>
+      <c r="M41" s="294"/>
       <c r="N41" s="34"/>
-      <c r="O41" s="322" t="s">
-        <v>289</v>
+      <c r="O41" s="320" t="s">
+        <v>287</v>
       </c>
       <c r="P41" s="39" t="s">
         <v>9</v>
@@ -10844,38 +11373,38 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B42" s="295" t="s">
+      <c r="B42" s="293" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="323"/>
-      <c r="D42" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E42" s="313"/>
-      <c r="F42" s="235" t="s">
+      <c r="C42" s="321"/>
+      <c r="D42" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E42" s="311"/>
+      <c r="F42" s="234" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="323">
-        <v>1</v>
-      </c>
-      <c r="H42" s="235" t="s">
+      <c r="G42" s="321">
+        <v>1</v>
+      </c>
+      <c r="H42" s="234" t="s">
         <v>66</v>
       </c>
-      <c r="I42" s="337">
+      <c r="I42" s="335">
         <v>50</v>
       </c>
-      <c r="J42" s="337">
+      <c r="J42" s="335">
         <v>210</v>
       </c>
-      <c r="K42" s="337">
+      <c r="K42" s="335">
         <v>10500</v>
       </c>
-      <c r="L42" s="337">
+      <c r="L42" s="335">
         <v>50</v>
       </c>
-      <c r="M42" s="296"/>
+      <c r="M42" s="294"/>
       <c r="N42" s="34"/>
-      <c r="O42" s="317" t="s">
+      <c r="O42" s="315" t="s">
         <v>67</v>
       </c>
       <c r="P42" s="39" t="s">
@@ -10884,38 +11413,38 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="295" t="s">
+      <c r="B43" s="293" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="323"/>
-      <c r="D43" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E43" s="313"/>
-      <c r="F43" s="235" t="s">
+      <c r="C43" s="321"/>
+      <c r="D43" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E43" s="311"/>
+      <c r="F43" s="234" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="323">
-        <v>1</v>
-      </c>
-      <c r="H43" s="235" t="s">
+      <c r="G43" s="321">
+        <v>1</v>
+      </c>
+      <c r="H43" s="234" t="s">
         <v>69</v>
       </c>
-      <c r="I43" s="337">
+      <c r="I43" s="335">
         <v>10</v>
       </c>
-      <c r="J43" s="337">
+      <c r="J43" s="335">
         <v>210</v>
       </c>
-      <c r="K43" s="337">
+      <c r="K43" s="335">
         <v>2100</v>
       </c>
-      <c r="L43" s="337">
+      <c r="L43" s="335">
         <v>10</v>
       </c>
-      <c r="M43" s="296"/>
+      <c r="M43" s="294"/>
       <c r="N43" s="34"/>
-      <c r="O43" s="317" t="s">
+      <c r="O43" s="315" t="s">
         <v>70</v>
       </c>
       <c r="P43" s="39" t="s">
@@ -10924,36 +11453,36 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="295" t="s">
+      <c r="B44" s="293" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="323"/>
-      <c r="D44" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E44" s="313"/>
-      <c r="F44" s="235"/>
-      <c r="G44" s="323">
+      <c r="C44" s="321"/>
+      <c r="D44" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E44" s="311"/>
+      <c r="F44" s="234"/>
+      <c r="G44" s="321">
         <v>2</v>
       </c>
-      <c r="H44" s="235" t="s">
+      <c r="H44" s="234" t="s">
         <v>72</v>
       </c>
-      <c r="I44" s="337">
+      <c r="I44" s="335">
         <v>100</v>
       </c>
-      <c r="J44" s="337">
+      <c r="J44" s="335">
         <v>80</v>
       </c>
-      <c r="K44" s="337">
+      <c r="K44" s="335">
         <v>4000</v>
       </c>
-      <c r="L44" s="337">
+      <c r="L44" s="335">
         <v>100</v>
       </c>
-      <c r="M44" s="296"/>
+      <c r="M44" s="294"/>
       <c r="N44" s="34"/>
-      <c r="O44" s="317" t="s">
+      <c r="O44" s="315" t="s">
         <v>73</v>
       </c>
       <c r="P44" s="39" t="s">
@@ -10962,36 +11491,36 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="295" t="s">
+      <c r="B45" s="293" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="235"/>
-      <c r="D45" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E45" s="313"/>
-      <c r="F45" s="235" t="s">
+      <c r="C45" s="234"/>
+      <c r="D45" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E45" s="311"/>
+      <c r="F45" s="234" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="323">
-        <v>1</v>
-      </c>
-      <c r="H45" s="235" t="s">
+      <c r="G45" s="321">
+        <v>1</v>
+      </c>
+      <c r="H45" s="234" t="s">
         <v>77</v>
       </c>
-      <c r="I45" s="337"/>
-      <c r="J45" s="337">
+      <c r="I45" s="335"/>
+      <c r="J45" s="335">
         <v>270</v>
       </c>
-      <c r="K45" s="337">
+      <c r="K45" s="335">
         <v>0</v>
       </c>
-      <c r="L45" s="337">
+      <c r="L45" s="335">
         <v>20</v>
       </c>
-      <c r="M45" s="296"/>
+      <c r="M45" s="294"/>
       <c r="N45" s="34"/>
-      <c r="O45" s="235" t="s">
+      <c r="O45" s="234" t="s">
         <v>78</v>
       </c>
       <c r="P45" s="39" t="s">
@@ -11000,38 +11529,38 @@
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="295" t="s">
+      <c r="B46" s="293" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="235"/>
-      <c r="D46" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E46" s="313"/>
-      <c r="F46" s="235" t="s">
+      <c r="C46" s="234"/>
+      <c r="D46" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E46" s="311"/>
+      <c r="F46" s="234" t="s">
         <v>80</v>
       </c>
-      <c r="G46" s="323">
-        <v>1</v>
-      </c>
-      <c r="H46" s="235" t="s">
+      <c r="G46" s="321">
+        <v>1</v>
+      </c>
+      <c r="H46" s="234" t="s">
         <v>79</v>
       </c>
-      <c r="I46" s="337">
+      <c r="I46" s="335">
         <v>10</v>
       </c>
-      <c r="J46" s="337">
+      <c r="J46" s="335">
         <v>200</v>
       </c>
-      <c r="K46" s="337">
+      <c r="K46" s="335">
         <v>2000</v>
       </c>
-      <c r="L46" s="337">
+      <c r="L46" s="335">
         <v>10</v>
       </c>
-      <c r="M46" s="296"/>
+      <c r="M46" s="294"/>
       <c r="N46" s="34"/>
-      <c r="O46" s="317" t="s">
+      <c r="O46" s="315" t="s">
         <v>81</v>
       </c>
       <c r="P46" s="39" t="s">
@@ -11040,38 +11569,38 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="295" t="s">
+      <c r="B47" s="293" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="235"/>
-      <c r="D47" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="E47" s="313"/>
-      <c r="F47" s="235" t="s">
+      <c r="C47" s="234"/>
+      <c r="D47" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="E47" s="311"/>
+      <c r="F47" s="234" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="323">
-        <v>1</v>
-      </c>
-      <c r="H47" s="235" t="s">
+      <c r="G47" s="321">
+        <v>1</v>
+      </c>
+      <c r="H47" s="234" t="s">
         <v>82</v>
       </c>
-      <c r="I47" s="337">
+      <c r="I47" s="335">
         <v>10</v>
       </c>
-      <c r="J47" s="337">
+      <c r="J47" s="335">
         <v>200</v>
       </c>
-      <c r="K47" s="337">
+      <c r="K47" s="335">
         <v>2000</v>
       </c>
-      <c r="L47" s="337">
+      <c r="L47" s="335">
         <v>10</v>
       </c>
-      <c r="M47" s="296"/>
+      <c r="M47" s="294"/>
       <c r="N47" s="34"/>
-      <c r="O47" s="317" t="s">
+      <c r="O47" s="315" t="s">
         <v>83</v>
       </c>
       <c r="P47" s="39" t="s">
@@ -11080,40 +11609,40 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B48" s="324" t="s">
-        <v>327</v>
-      </c>
-      <c r="C48" s="325"/>
-      <c r="D48" s="325"/>
-      <c r="E48" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="F48" s="325" t="s">
+      <c r="B48" s="322" t="s">
+        <v>325</v>
+      </c>
+      <c r="C48" s="323"/>
+      <c r="D48" s="323"/>
+      <c r="E48" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="F48" s="323" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="341">
-        <v>1</v>
-      </c>
-      <c r="H48" s="325" t="s">
-        <v>335</v>
-      </c>
-      <c r="I48" s="338">
+      <c r="G48" s="339">
+        <v>1</v>
+      </c>
+      <c r="H48" s="323" t="s">
+        <v>333</v>
+      </c>
+      <c r="I48" s="336">
         <v>100</v>
       </c>
-      <c r="J48" s="338">
+      <c r="J48" s="336">
         <v>50</v>
       </c>
-      <c r="K48" s="296"/>
-      <c r="L48" s="338">
+      <c r="K48" s="294"/>
+      <c r="L48" s="336">
         <v>100</v>
       </c>
-      <c r="M48" s="296">
+      <c r="M48" s="294">
         <f t="shared" ref="M48:M53" si="1">J48*L48</f>
         <v>5000</v>
       </c>
       <c r="N48" s="34"/>
-      <c r="O48" s="326" t="s">
-        <v>341</v>
+      <c r="O48" s="324" t="s">
+        <v>339</v>
       </c>
       <c r="P48" s="39" t="s">
         <v>9</v>
@@ -11121,40 +11650,40 @@
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B49" s="324" t="s">
-        <v>333</v>
-      </c>
-      <c r="C49" s="325"/>
-      <c r="D49" s="325"/>
-      <c r="E49" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="F49" s="325" t="s">
-        <v>332</v>
-      </c>
-      <c r="G49" s="341">
-        <v>1</v>
-      </c>
-      <c r="H49" s="325" t="s">
-        <v>339</v>
-      </c>
-      <c r="I49" s="338">
-        <v>1</v>
-      </c>
-      <c r="J49" s="338">
+      <c r="B49" s="322" t="s">
+        <v>331</v>
+      </c>
+      <c r="C49" s="323"/>
+      <c r="D49" s="323"/>
+      <c r="E49" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="F49" s="323" t="s">
+        <v>330</v>
+      </c>
+      <c r="G49" s="339">
+        <v>1</v>
+      </c>
+      <c r="H49" s="323" t="s">
+        <v>337</v>
+      </c>
+      <c r="I49" s="336">
+        <v>1</v>
+      </c>
+      <c r="J49" s="336">
         <v>430</v>
       </c>
-      <c r="K49" s="296"/>
-      <c r="L49" s="338">
+      <c r="K49" s="294"/>
+      <c r="L49" s="336">
         <v>10</v>
       </c>
-      <c r="M49" s="296">
+      <c r="M49" s="294">
         <f t="shared" si="1"/>
         <v>4300</v>
       </c>
       <c r="N49" s="34"/>
-      <c r="O49" s="326" t="s">
-        <v>345</v>
+      <c r="O49" s="324" t="s">
+        <v>343</v>
       </c>
       <c r="P49" s="39" t="s">
         <v>9</v>
@@ -11162,40 +11691,40 @@
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B50" s="324" t="s">
-        <v>331</v>
-      </c>
-      <c r="C50" s="325"/>
-      <c r="D50" s="325"/>
-      <c r="E50" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="F50" s="325" t="s">
-        <v>332</v>
-      </c>
-      <c r="G50" s="341">
-        <v>1</v>
-      </c>
-      <c r="H50" s="325" t="s">
-        <v>338</v>
-      </c>
-      <c r="I50" s="338">
-        <v>1</v>
-      </c>
-      <c r="J50" s="338">
+      <c r="B50" s="322" t="s">
+        <v>329</v>
+      </c>
+      <c r="C50" s="323"/>
+      <c r="D50" s="323"/>
+      <c r="E50" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="F50" s="323" t="s">
+        <v>330</v>
+      </c>
+      <c r="G50" s="339">
+        <v>1</v>
+      </c>
+      <c r="H50" s="323" t="s">
+        <v>336</v>
+      </c>
+      <c r="I50" s="336">
+        <v>1</v>
+      </c>
+      <c r="J50" s="336">
         <v>430</v>
       </c>
-      <c r="K50" s="296"/>
-      <c r="L50" s="338">
+      <c r="K50" s="294"/>
+      <c r="L50" s="336">
         <v>10</v>
       </c>
-      <c r="M50" s="296">
+      <c r="M50" s="294">
         <f t="shared" si="1"/>
         <v>4300</v>
       </c>
       <c r="N50" s="34"/>
-      <c r="O50" s="326" t="s">
-        <v>344</v>
+      <c r="O50" s="324" t="s">
+        <v>342</v>
       </c>
       <c r="P50" s="39" t="s">
         <v>9</v>
@@ -11203,40 +11732,40 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="324" t="s">
-        <v>328</v>
-      </c>
-      <c r="C51" s="325"/>
-      <c r="D51" s="325"/>
-      <c r="E51" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="F51" s="325" t="s">
+      <c r="B51" s="322" t="s">
         <v>326</v>
       </c>
-      <c r="G51" s="341">
+      <c r="C51" s="323"/>
+      <c r="D51" s="323"/>
+      <c r="E51" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="F51" s="323" t="s">
+        <v>324</v>
+      </c>
+      <c r="G51" s="339">
         <v>2</v>
       </c>
-      <c r="H51" s="325" t="s">
-        <v>336</v>
-      </c>
-      <c r="I51" s="338">
-        <v>1</v>
-      </c>
-      <c r="J51" s="338">
+      <c r="H51" s="323" t="s">
+        <v>334</v>
+      </c>
+      <c r="I51" s="336">
+        <v>1</v>
+      </c>
+      <c r="J51" s="336">
         <v>290</v>
       </c>
-      <c r="K51" s="296"/>
-      <c r="L51" s="338">
+      <c r="K51" s="294"/>
+      <c r="L51" s="336">
         <v>20</v>
       </c>
-      <c r="M51" s="296">
+      <c r="M51" s="294">
         <f t="shared" si="1"/>
         <v>5800</v>
       </c>
       <c r="N51" s="34"/>
-      <c r="O51" s="326" t="s">
-        <v>342</v>
+      <c r="O51" s="324" t="s">
+        <v>340</v>
       </c>
       <c r="P51" s="39" t="s">
         <v>9</v>
@@ -11244,40 +11773,40 @@
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B52" s="324" t="s">
-        <v>325</v>
-      </c>
-      <c r="C52" s="325"/>
-      <c r="D52" s="325"/>
-      <c r="E52" s="313" t="s">
-        <v>351</v>
-      </c>
-      <c r="F52" s="325" t="s">
-        <v>326</v>
-      </c>
-      <c r="G52" s="341">
-        <v>1</v>
-      </c>
-      <c r="H52" s="325" t="s">
-        <v>334</v>
-      </c>
-      <c r="I52" s="338">
-        <v>1</v>
-      </c>
-      <c r="J52" s="338">
+      <c r="B52" s="322" t="s">
+        <v>323</v>
+      </c>
+      <c r="C52" s="323"/>
+      <c r="D52" s="323"/>
+      <c r="E52" s="311" t="s">
+        <v>349</v>
+      </c>
+      <c r="F52" s="323" t="s">
+        <v>324</v>
+      </c>
+      <c r="G52" s="339">
+        <v>1</v>
+      </c>
+      <c r="H52" s="323" t="s">
+        <v>332</v>
+      </c>
+      <c r="I52" s="336">
+        <v>1</v>
+      </c>
+      <c r="J52" s="336">
         <v>30</v>
       </c>
-      <c r="K52" s="296"/>
-      <c r="L52" s="338">
+      <c r="K52" s="294"/>
+      <c r="L52" s="336">
         <v>10</v>
       </c>
-      <c r="M52" s="296">
+      <c r="M52" s="294">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="N52" s="34"/>
-      <c r="O52" s="326" t="s">
-        <v>340</v>
+      <c r="O52" s="324" t="s">
+        <v>338</v>
       </c>
       <c r="P52" s="39" t="s">
         <v>9</v>
@@ -11285,40 +11814,40 @@
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="327" t="s">
-        <v>329</v>
-      </c>
-      <c r="C53" s="328"/>
-      <c r="D53" s="328"/>
-      <c r="E53" s="329" t="s">
-        <v>351</v>
-      </c>
-      <c r="F53" s="328" t="s">
-        <v>330</v>
-      </c>
-      <c r="G53" s="342">
-        <v>1</v>
-      </c>
-      <c r="H53" s="328" t="s">
-        <v>337</v>
-      </c>
-      <c r="I53" s="339">
+      <c r="B53" s="325" t="s">
+        <v>327</v>
+      </c>
+      <c r="C53" s="326"/>
+      <c r="D53" s="326"/>
+      <c r="E53" s="327" t="s">
+        <v>349</v>
+      </c>
+      <c r="F53" s="326" t="s">
+        <v>328</v>
+      </c>
+      <c r="G53" s="340">
+        <v>1</v>
+      </c>
+      <c r="H53" s="326" t="s">
+        <v>335</v>
+      </c>
+      <c r="I53" s="337">
         <v>10</v>
       </c>
-      <c r="J53" s="339">
+      <c r="J53" s="337">
         <v>100</v>
       </c>
-      <c r="K53" s="340"/>
-      <c r="L53" s="339">
+      <c r="K53" s="338"/>
+      <c r="L53" s="337">
         <v>10</v>
       </c>
-      <c r="M53" s="340">
+      <c r="M53" s="338">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="N53" s="36"/>
-      <c r="O53" s="330" t="s">
-        <v>343</v>
+      <c r="O53" s="328" t="s">
+        <v>341</v>
       </c>
       <c r="P53" s="8" t="s">
         <v>9</v>
@@ -11331,7 +11860,7 @@
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
       <c r="F54" s="55"/>
-      <c r="G54" s="343"/>
+      <c r="G54" s="341"/>
       <c r="H54" s="55"/>
       <c r="I54" s="55"/>
       <c r="J54" s="55"/>
@@ -11348,7 +11877,7 @@
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
       <c r="F55" s="55"/>
-      <c r="G55" s="343"/>
+      <c r="G55" s="341"/>
       <c r="H55" s="55"/>
       <c r="I55" s="55"/>
       <c r="J55" s="55"/>

--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060" activeTab="2"/>
+    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="전체 비용 List" sheetId="9" r:id="rId1"/>
@@ -21,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">'0314'!$B$4:$F$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="392">
   <si>
     <t>Vendor</t>
   </si>
@@ -1336,10 +1336,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>개발비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Pipette Proto-type 부품 구매</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1470,6 +1466,22 @@
   </si>
   <si>
     <t>Total</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>H/W 개발비</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/W 개발비</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>P004707690</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA645</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2835,7 +2847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="415">
+  <cellXfs count="421">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -3683,49 +3695,7 @@
     <xf numFmtId="41" fontId="29" fillId="36" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="29" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3766,50 +3736,106 @@
     <xf numFmtId="14" fontId="29" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="96">
@@ -4207,45 +4233,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F30"/>
+  <dimension ref="B3:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.75" style="196" customWidth="1"/>
     <col min="3" max="3" width="35.75" style="194" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="55.75" customWidth="1"/>
+    <col min="4" max="6" width="12.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="55.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="198"/>
       <c r="D3" s="195"/>
       <c r="E3" s="195"/>
-    </row>
-    <row r="4" spans="2:6" s="197" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="396" t="s">
+      <c r="F3" s="195"/>
+    </row>
+    <row r="4" spans="2:7" s="197" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="382" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="397" t="s">
+      <c r="C4" s="383" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="398" t="s">
+      <c r="D4" s="384" t="s">
         <v>353</v>
       </c>
-      <c r="E4" s="398" t="s">
-        <v>354</v>
-      </c>
-      <c r="F4" s="399" t="s">
+      <c r="E4" s="384" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="384" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" s="385" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="2:6" s="197" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="197" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="199" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C5" s="200"/>
       <c r="D5" s="343">
@@ -4254,104 +4284,115 @@
       </c>
       <c r="E5" s="343">
         <f>SUM(E6:E25)</f>
-        <v>3350000</v>
-      </c>
-      <c r="F5" s="395"/>
-    </row>
-    <row r="6" spans="2:6" s="197" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="387">
+        <v>2350000</v>
+      </c>
+      <c r="F5" s="369">
+        <f>SUM(F6:F25)</f>
+        <v>1000000</v>
+      </c>
+      <c r="G5" s="381"/>
+    </row>
+    <row r="6" spans="2:7" s="197" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="373">
         <v>43062</v>
       </c>
-      <c r="C6" s="388" t="s">
-        <v>385</v>
-      </c>
-      <c r="D6" s="389"/>
-      <c r="E6" s="389">
+      <c r="C6" s="374" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" s="375"/>
+      <c r="E6" s="375">
         <v>900000</v>
       </c>
-      <c r="F6" s="384"/>
-    </row>
-    <row r="7" spans="2:6" s="197" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="391">
+      <c r="F6" s="388"/>
+      <c r="G6" s="370"/>
+    </row>
+    <row r="7" spans="2:7" s="197" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="377">
         <v>43062</v>
       </c>
-      <c r="C7" s="392" t="s">
-        <v>387</v>
-      </c>
-      <c r="D7" s="393"/>
-      <c r="E7" s="393">
+      <c r="C7" s="378" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" s="379"/>
+      <c r="E7" s="379"/>
+      <c r="F7" s="379">
         <v>1000000</v>
       </c>
-      <c r="F7" s="394"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="380"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="203">
         <v>43075</v>
       </c>
       <c r="C8" s="204" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D8" s="349">
         <v>62080</v>
       </c>
       <c r="E8" s="349"/>
-      <c r="F8" s="385"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="389"/>
+      <c r="G8" s="371"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="203">
         <v>43136</v>
       </c>
       <c r="C9" s="204" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D9" s="349">
         <v>81880</v>
       </c>
       <c r="E9" s="349"/>
-      <c r="F9" s="385"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="389"/>
+      <c r="G9" s="371"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="203">
         <v>43139</v>
       </c>
       <c r="C10" s="204" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D10" s="349">
         <v>42900</v>
       </c>
       <c r="E10" s="349"/>
-      <c r="F10" s="385"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="389"/>
+      <c r="G10" s="371"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="203">
         <v>43143</v>
       </c>
       <c r="C11" s="204" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D11" s="349"/>
       <c r="E11" s="349">
         <v>830000</v>
       </c>
-      <c r="F11" s="385"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="389"/>
+      <c r="G11" s="371"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="203">
         <v>43173</v>
       </c>
       <c r="C12" s="204" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D12" s="349">
         <v>514080</v>
       </c>
       <c r="E12" s="349"/>
-      <c r="F12" s="385" t="s">
+      <c r="F12" s="389"/>
+      <c r="G12" s="371" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="203">
         <v>43193</v>
       </c>
@@ -4362,11 +4403,12 @@
         <v>869390</v>
       </c>
       <c r="E13" s="349"/>
-      <c r="F13" s="385" t="s">
+      <c r="F13" s="389"/>
+      <c r="G13" s="371" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="203">
         <v>43210</v>
       </c>
@@ -4377,86 +4419,98 @@
       <c r="E14" s="349">
         <v>620000</v>
       </c>
-      <c r="F14" s="385"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="389"/>
+      <c r="G14" s="371"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="203"/>
       <c r="C15" s="204"/>
       <c r="D15" s="349"/>
       <c r="E15" s="349"/>
-      <c r="F15" s="385"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="389"/>
+      <c r="G15" s="371"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="203"/>
       <c r="C16" s="204"/>
       <c r="D16" s="349"/>
       <c r="E16" s="349"/>
-      <c r="F16" s="385"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="389"/>
+      <c r="G16" s="371"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="203"/>
       <c r="C17" s="204"/>
       <c r="D17" s="349"/>
       <c r="E17" s="349"/>
-      <c r="F17" s="385"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="389"/>
+      <c r="G17" s="371"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="203"/>
       <c r="C18" s="204"/>
       <c r="D18" s="349"/>
       <c r="E18" s="349"/>
-      <c r="F18" s="385"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="389"/>
+      <c r="G18" s="371"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="203"/>
       <c r="C19" s="204"/>
       <c r="D19" s="349"/>
       <c r="E19" s="349"/>
-      <c r="F19" s="385"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="389"/>
+      <c r="G19" s="371"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="203"/>
       <c r="C20" s="204"/>
       <c r="D20" s="349"/>
       <c r="E20" s="349"/>
-      <c r="F20" s="385"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="389"/>
+      <c r="G20" s="371"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="203"/>
       <c r="C21" s="204"/>
       <c r="D21" s="349"/>
       <c r="E21" s="349"/>
-      <c r="F21" s="385"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="389"/>
+      <c r="G21" s="371"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="203"/>
       <c r="C22" s="204"/>
       <c r="D22" s="349"/>
       <c r="E22" s="349"/>
-      <c r="F22" s="385"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="389"/>
+      <c r="G22" s="371"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="203"/>
       <c r="C23" s="204"/>
       <c r="D23" s="349"/>
       <c r="E23" s="349"/>
-      <c r="F23" s="385"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="389"/>
+      <c r="G23" s="371"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="203"/>
       <c r="C24" s="204"/>
       <c r="D24" s="349"/>
       <c r="E24" s="349"/>
-      <c r="F24" s="385"/>
-    </row>
-    <row r="25" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="389"/>
+      <c r="G24" s="371"/>
+    </row>
+    <row r="25" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="205"/>
       <c r="C25" s="206"/>
       <c r="D25" s="353"/>
       <c r="E25" s="353"/>
-      <c r="F25" s="386"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="390"/>
+      <c r="G25" s="372"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="194"/>
     </row>
   </sheetData>
@@ -4468,10 +4522,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4487,22 +4541,22 @@
     <col min="17" max="17" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="56" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
       <c r="H2" s="56"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="56" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="56" t="s">
         <v>321</v>
       </c>
@@ -4512,8 +4566,14 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="260" t="s">
         <v>298</v>
       </c>
@@ -4538,8 +4598,20 @@
       <c r="K5" s="262" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M5" s="260" t="s">
+        <v>298</v>
+      </c>
+      <c r="N5" s="261" t="s">
+        <v>294</v>
+      </c>
+      <c r="O5" s="261" t="s">
+        <v>295</v>
+      </c>
+      <c r="P5" s="262" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C6" s="257" t="s">
         <v>292</v>
       </c>
@@ -4566,8 +4638,21 @@
         <f>I6*J6</f>
         <v>42250</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M6" s="257" t="s">
+        <v>292</v>
+      </c>
+      <c r="N6" s="356">
+        <v>179</v>
+      </c>
+      <c r="O6" s="356">
+        <v>250</v>
+      </c>
+      <c r="P6" s="202">
+        <f>N6*O6</f>
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C7" s="258" t="s">
         <v>291</v>
       </c>
@@ -4594,8 +4679,21 @@
         <f>K6*I7/100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="258" t="s">
+        <v>291</v>
+      </c>
+      <c r="N7" s="251">
+        <v>0</v>
+      </c>
+      <c r="O7" s="253" t="s">
+        <v>301</v>
+      </c>
+      <c r="P7" s="252">
+        <f>P6*N7/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="259" t="s">
         <v>303</v>
       </c>
@@ -4622,36 +4720,62 @@
         <f>K6*I8/100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="377" t="s">
+      <c r="M8" s="259" t="s">
+        <v>303</v>
+      </c>
+      <c r="N8" s="254">
+        <v>0</v>
+      </c>
+      <c r="O8" s="255" t="s">
+        <v>301</v>
+      </c>
+      <c r="P8" s="256">
+        <f>P6*N8/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="395" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="378"/>
-      <c r="E9" s="378"/>
+      <c r="D9" s="396"/>
+      <c r="E9" s="396"/>
       <c r="F9" s="265">
         <f>SUM(F6:F8)</f>
         <v>138411</v>
       </c>
-      <c r="H9" s="377" t="s">
+      <c r="H9" s="395" t="s">
         <v>297</v>
       </c>
-      <c r="I9" s="378"/>
-      <c r="J9" s="378"/>
+      <c r="I9" s="396"/>
+      <c r="J9" s="396"/>
       <c r="K9" s="265">
         <f>SUM(K6:K8)</f>
         <v>42250</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="395" t="s">
+        <v>297</v>
+      </c>
+      <c r="N9" s="396"/>
+      <c r="O9" s="396"/>
+      <c r="P9" s="265">
+        <f>SUM(P6:P8)</f>
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="56"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="263" t="s">
         <v>298</v>
       </c>
@@ -4676,8 +4800,20 @@
       <c r="K11" s="33" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M11" s="263" t="s">
+        <v>298</v>
+      </c>
+      <c r="N11" s="264" t="s">
+        <v>299</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C12" s="266" t="s">
         <v>292</v>
       </c>
@@ -4706,8 +4842,21 @@
         <f>I12*J12</f>
         <v>169000</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="266" t="s">
+        <v>292</v>
+      </c>
+      <c r="N12" s="356">
+        <v>3</v>
+      </c>
+      <c r="O12" s="356">
+        <v>50000</v>
+      </c>
+      <c r="P12" s="99">
+        <f>N12*O12</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="259" t="s">
         <v>307</v>
       </c>
@@ -4734,34 +4883,56 @@
         <f>I13*J13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="377" t="s">
+      <c r="M13" s="259" t="s">
+        <v>307</v>
+      </c>
+      <c r="N13" s="353">
+        <v>3</v>
+      </c>
+      <c r="O13" s="353">
+        <v>0</v>
+      </c>
+      <c r="P13" s="267">
+        <f>N13*O13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="395" t="s">
         <v>300</v>
       </c>
-      <c r="D14" s="378"/>
-      <c r="E14" s="379">
+      <c r="D14" s="396"/>
+      <c r="E14" s="416">
         <f>F12</f>
         <v>553644</v>
       </c>
-      <c r="F14" s="380"/>
-      <c r="H14" s="377" t="s">
+      <c r="F14" s="417"/>
+      <c r="H14" s="395" t="s">
         <v>300</v>
       </c>
-      <c r="I14" s="378"/>
-      <c r="J14" s="379">
+      <c r="I14" s="396"/>
+      <c r="J14" s="416">
         <f>K12</f>
         <v>169000</v>
       </c>
-      <c r="K14" s="380"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="381"/>
-      <c r="D15" s="381"/>
+      <c r="K14" s="417"/>
+      <c r="M14" s="395" t="s">
+        <v>300</v>
+      </c>
+      <c r="N14" s="396"/>
+      <c r="O14" s="416">
+        <f>P12</f>
+        <v>150000</v>
+      </c>
+      <c r="P14" s="417"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="418"/>
+      <c r="D15" s="418"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -4831,11 +5002,11 @@
       </c>
     </row>
     <row r="22" spans="3:8" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="377" t="s">
+      <c r="C22" s="395" t="s">
         <v>297</v>
       </c>
-      <c r="D22" s="378"/>
-      <c r="E22" s="378"/>
+      <c r="D22" s="396"/>
+      <c r="E22" s="396"/>
       <c r="F22" s="265">
         <f>SUM(F19:F21)</f>
         <v>45292</v>
@@ -4908,20 +5079,18 @@
       <c r="H27" s="56"/>
     </row>
     <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="377" t="s">
+      <c r="C28" s="395" t="s">
         <v>300</v>
       </c>
-      <c r="D28" s="378"/>
-      <c r="E28" s="379">
+      <c r="D28" s="396"/>
+      <c r="E28" s="416">
         <f>SUM(F25:F27)</f>
         <v>291168</v>
       </c>
-      <c r="F28" s="380"/>
+      <c r="F28" s="417"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C22:E22"/>
+  <mergeCells count="13">
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="H9:J9"/>
@@ -4930,6 +5099,11 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C22:E22"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4942,7 +5116,7 @@
   <dimension ref="B2:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4952,7 +5126,8 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
@@ -4963,51 +5138,51 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="56" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="260" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="261" t="s">
         <v>366</v>
       </c>
-      <c r="C4" s="261" t="s">
-        <v>367</v>
-      </c>
       <c r="D4" s="261" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E4" s="261" t="s">
+        <v>369</v>
+      </c>
+      <c r="F4" s="261" t="s">
+        <v>372</v>
+      </c>
+      <c r="G4" s="261" t="s">
         <v>370</v>
       </c>
-      <c r="F4" s="261" t="s">
-        <v>373</v>
-      </c>
-      <c r="G4" s="261" t="s">
+      <c r="H4" s="261" t="s">
         <v>371</v>
       </c>
-      <c r="H4" s="261" t="s">
-        <v>372</v>
-      </c>
       <c r="I4" s="262" t="s">
-        <v>375</v>
-      </c>
-      <c r="K4" s="400" t="s">
+        <v>374</v>
+      </c>
+      <c r="K4" s="397" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="401"/>
-      <c r="M4" s="402" t="s">
+      <c r="L4" s="391"/>
+      <c r="M4" s="399" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="402"/>
-      <c r="O4" s="402"/>
-      <c r="P4" s="401" t="s">
+      <c r="N4" s="399"/>
+      <c r="O4" s="399"/>
+      <c r="P4" s="391" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="401" t="s">
+      <c r="Q4" s="391" t="s">
         <v>90</v>
       </c>
-      <c r="R4" s="413" t="s">
+      <c r="R4" s="393" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5016,16 +5191,16 @@
         <v>43062</v>
       </c>
       <c r="C5" s="84" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="84" t="s">
         <v>368</v>
       </c>
-      <c r="D5" s="84" t="s">
-        <v>378</v>
-      </c>
-      <c r="E5" s="84" t="s">
-        <v>369</v>
-      </c>
       <c r="F5" s="84" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G5" s="355">
         <v>3</v>
@@ -5034,39 +5209,39 @@
         <v>250000</v>
       </c>
       <c r="I5" s="202">
-        <f>G5*H5</f>
+        <f t="shared" ref="I5:I10" si="0">G5*H5</f>
         <v>750000</v>
       </c>
-      <c r="K5" s="410"/>
-      <c r="L5" s="411"/>
-      <c r="M5" s="412" t="s">
+      <c r="K5" s="398"/>
+      <c r="L5" s="392"/>
+      <c r="M5" s="387" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="412" t="s">
+      <c r="N5" s="387" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="412" t="s">
+      <c r="O5" s="387" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="411"/>
-      <c r="Q5" s="411"/>
-      <c r="R5" s="414"/>
+      <c r="P5" s="392"/>
+      <c r="Q5" s="392"/>
+      <c r="R5" s="394"/>
     </row>
     <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="203">
         <v>43062</v>
       </c>
       <c r="C6" s="86" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" s="86" t="s">
         <v>368</v>
       </c>
-      <c r="D6" s="86" t="s">
-        <v>378</v>
-      </c>
-      <c r="E6" s="86" t="s">
-        <v>369</v>
-      </c>
       <c r="F6" s="86" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G6" s="348">
         <v>3</v>
@@ -5074,14 +5249,14 @@
       <c r="H6" s="349">
         <v>50000</v>
       </c>
-      <c r="I6" s="390">
-        <f>G6*H6</f>
+      <c r="I6" s="376">
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K6" s="377" t="s">
+      <c r="K6" s="395" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="378"/>
+      <c r="L6" s="396"/>
       <c r="M6" s="141">
         <v>1</v>
       </c>
@@ -5109,16 +5284,16 @@
         <v>43143</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D7" s="86" t="s">
+        <v>378</v>
+      </c>
+      <c r="E7" s="86" t="s">
         <v>379</v>
       </c>
-      <c r="E7" s="86" t="s">
-        <v>380</v>
-      </c>
       <c r="F7" s="86" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G7" s="348">
         <v>3</v>
@@ -5126,8 +5301,8 @@
       <c r="H7" s="349">
         <v>250000</v>
       </c>
-      <c r="I7" s="390">
-        <f>G7*H7</f>
+      <c r="I7" s="376">
+        <f t="shared" si="0"/>
         <v>750000</v>
       </c>
     </row>
@@ -5136,16 +5311,16 @@
         <v>43143</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D8" s="86" t="s">
+        <v>378</v>
+      </c>
+      <c r="E8" s="86" t="s">
         <v>379</v>
       </c>
-      <c r="E8" s="86" t="s">
-        <v>380</v>
-      </c>
       <c r="F8" s="86" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G8" s="348">
         <v>8</v>
@@ -5153,8 +5328,8 @@
       <c r="H8" s="349">
         <v>10000</v>
       </c>
-      <c r="I8" s="390">
-        <f>G8*H8</f>
+      <c r="I8" s="376">
+        <f t="shared" si="0"/>
         <v>80000</v>
       </c>
     </row>
@@ -5163,16 +5338,16 @@
         <v>43210</v>
       </c>
       <c r="C9" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="D9" s="86" t="s">
         <v>381</v>
       </c>
-      <c r="D9" s="86" t="s">
-        <v>382</v>
-      </c>
       <c r="E9" s="86" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F9" s="86" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G9" s="348">
         <v>2</v>
@@ -5180,8 +5355,8 @@
       <c r="H9" s="349">
         <v>250000</v>
       </c>
-      <c r="I9" s="390">
-        <f>G9*H9</f>
+      <c r="I9" s="376">
+        <f t="shared" si="0"/>
         <v>500000</v>
       </c>
     </row>
@@ -5190,16 +5365,16 @@
         <v>43210</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="D10" s="86" t="s">
         <v>381</v>
       </c>
-      <c r="D10" s="86" t="s">
-        <v>382</v>
-      </c>
       <c r="E10" s="86" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F10" s="86" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G10" s="348">
         <v>3</v>
@@ -5207,73 +5382,107 @@
       <c r="H10" s="349">
         <v>40000</v>
       </c>
-      <c r="I10" s="390">
-        <f>G10*H10</f>
+      <c r="I10" s="376">
+        <f t="shared" si="0"/>
         <v>120000</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="85"/>
-      <c r="C11" s="348"/>
-      <c r="D11" s="348"/>
-      <c r="E11" s="348"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="348"/>
-      <c r="H11" s="349"/>
-      <c r="I11" s="390"/>
+      <c r="B11" s="203">
+        <v>43219</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>377</v>
+      </c>
+      <c r="E11" s="86" t="s">
+        <v>360</v>
+      </c>
+      <c r="F11" s="86" t="s">
+        <v>373</v>
+      </c>
+      <c r="G11" s="348">
+        <v>5</v>
+      </c>
+      <c r="H11" s="349">
+        <v>250000</v>
+      </c>
+      <c r="I11" s="376">
+        <f t="shared" ref="I11:I12" si="1">G11*H11</f>
+        <v>1250000</v>
+      </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="85"/>
-      <c r="C12" s="348"/>
-      <c r="D12" s="348"/>
-      <c r="E12" s="348"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="348"/>
-      <c r="H12" s="349"/>
-      <c r="I12" s="390"/>
+      <c r="B12" s="203">
+        <v>43219</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>358</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>377</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>360</v>
+      </c>
+      <c r="F12" s="86" t="s">
+        <v>375</v>
+      </c>
+      <c r="G12" s="348">
+        <v>3</v>
+      </c>
+      <c r="H12" s="349">
+        <v>50000</v>
+      </c>
+      <c r="I12" s="376">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="85"/>
+      <c r="B13" s="203"/>
       <c r="C13" s="348"/>
       <c r="D13" s="348"/>
       <c r="E13" s="348"/>
       <c r="F13" s="86"/>
       <c r="G13" s="348"/>
       <c r="H13" s="349"/>
-      <c r="I13" s="390"/>
+      <c r="I13" s="376"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="85"/>
+      <c r="B14" s="203"/>
       <c r="C14" s="348"/>
       <c r="D14" s="348"/>
       <c r="E14" s="348"/>
       <c r="F14" s="86"/>
       <c r="G14" s="348"/>
       <c r="H14" s="349"/>
-      <c r="I14" s="390"/>
+      <c r="I14" s="376"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="85"/>
+      <c r="B15" s="203"/>
       <c r="C15" s="348"/>
       <c r="D15" s="348"/>
       <c r="E15" s="348"/>
       <c r="F15" s="86"/>
       <c r="G15" s="348"/>
       <c r="H15" s="349"/>
-      <c r="I15" s="390"/>
+      <c r="I15" s="376"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="85"/>
+      <c r="B16" s="203"/>
       <c r="C16" s="348"/>
       <c r="D16" s="348"/>
       <c r="E16" s="348"/>
       <c r="F16" s="86"/>
       <c r="G16" s="348"/>
       <c r="H16" s="349"/>
-      <c r="I16" s="390"/>
+      <c r="I16" s="376"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="85"/>
+      <c r="B17" s="203"/>
       <c r="C17" s="348"/>
       <c r="D17" s="348"/>
       <c r="E17" s="348"/>
@@ -5283,7 +5492,7 @@
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="85"/>
+      <c r="B18" s="203"/>
       <c r="C18" s="348"/>
       <c r="D18" s="348"/>
       <c r="E18" s="348"/>
@@ -5293,7 +5502,7 @@
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="85"/>
+      <c r="B19" s="203"/>
       <c r="C19" s="348"/>
       <c r="D19" s="348"/>
       <c r="E19" s="348"/>
@@ -5303,7 +5512,7 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="85"/>
+      <c r="B20" s="203"/>
       <c r="C20" s="348"/>
       <c r="D20" s="348"/>
       <c r="E20" s="348"/>
@@ -5370,8 +5579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5393,55 +5602,55 @@
   <sheetData>
     <row r="2" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="400" t="s">
+      <c r="B3" s="397" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="401"/>
-      <c r="D3" s="402" t="s">
+      <c r="C3" s="391"/>
+      <c r="D3" s="399" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="402"/>
-      <c r="F3" s="402"/>
-      <c r="G3" s="401" t="s">
+      <c r="E3" s="399"/>
+      <c r="F3" s="399"/>
+      <c r="G3" s="391" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="401" t="s">
+      <c r="H3" s="391" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="403" t="s">
+      <c r="I3" s="409" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="408" t="s">
-        <v>357</v>
+      <c r="J3" s="407" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="404"/>
-      <c r="C4" s="405"/>
-      <c r="D4" s="406" t="s">
+      <c r="B4" s="413"/>
+      <c r="C4" s="411"/>
+      <c r="D4" s="386" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="406" t="s">
+      <c r="E4" s="386" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="406" t="s">
+      <c r="F4" s="386" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="405"/>
-      <c r="H4" s="405"/>
-      <c r="I4" s="407"/>
-      <c r="J4" s="409"/>
+      <c r="G4" s="411"/>
+      <c r="H4" s="411"/>
+      <c r="I4" s="410"/>
+      <c r="J4" s="408"/>
     </row>
     <row r="5" spans="2:15" s="342" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="369" t="s">
+      <c r="B5" s="404" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="365" t="s">
         <v>359</v>
-      </c>
-      <c r="C5" s="365" t="s">
-        <v>360</v>
       </c>
       <c r="D5" s="366">
         <v>1</v>
@@ -5469,9 +5678,9 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="370"/>
+      <c r="B6" s="406"/>
       <c r="C6" s="357" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D6" s="351">
         <v>0.5</v>
@@ -5497,11 +5706,11 @@
       <c r="J6" s="361"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="369" t="s">
+      <c r="B7" s="404" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="139" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D7" s="354">
         <v>1.5</v>
@@ -5539,7 +5748,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="373"/>
+      <c r="B8" s="405"/>
       <c r="C8" s="346" t="s">
         <v>91</v>
       </c>
@@ -5567,7 +5776,7 @@
       <c r="J8" s="363"/>
     </row>
     <row r="9" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="370"/>
+      <c r="B9" s="406"/>
       <c r="C9" s="350" t="s">
         <v>92</v>
       </c>
@@ -5595,11 +5804,11 @@
       <c r="J9" s="364"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="369" t="s">
+      <c r="B10" s="404" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="139" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D10" s="354">
         <v>2</v>
@@ -5625,9 +5834,9 @@
       <c r="J10" s="362"/>
     </row>
     <row r="11" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="373"/>
+      <c r="B11" s="405"/>
       <c r="C11" s="346" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D11" s="347">
         <v>1</v>
@@ -5653,9 +5862,9 @@
       <c r="J11" s="363"/>
     </row>
     <row r="12" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="373"/>
+      <c r="B12" s="405"/>
       <c r="C12" s="346" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D12" s="347">
         <v>1</v>
@@ -5681,7 +5890,7 @@
       <c r="J12" s="363"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="373"/>
+      <c r="B13" s="405"/>
       <c r="C13" s="346" t="s">
         <v>91</v>
       </c>
@@ -5709,7 +5918,7 @@
       <c r="J13" s="363"/>
     </row>
     <row r="14" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="370"/>
+      <c r="B14" s="406"/>
       <c r="C14" s="350" t="s">
         <v>92</v>
       </c>
@@ -5754,28 +5963,28 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="369" t="s">
+      <c r="B24" s="404" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="372"/>
-      <c r="D24" s="371" t="s">
+      <c r="C24" s="400"/>
+      <c r="D24" s="412" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="371"/>
-      <c r="F24" s="371"/>
-      <c r="G24" s="372" t="s">
+      <c r="E24" s="412"/>
+      <c r="F24" s="412"/>
+      <c r="G24" s="400" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="372" t="s">
+      <c r="H24" s="400" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="375" t="s">
+      <c r="I24" s="402" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="370"/>
-      <c r="C25" s="374"/>
+      <c r="B25" s="406"/>
+      <c r="C25" s="401"/>
       <c r="D25" s="138" t="s">
         <v>86</v>
       </c>
@@ -5785,15 +5994,15 @@
       <c r="F25" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="374"/>
-      <c r="H25" s="374"/>
-      <c r="I25" s="376"/>
+      <c r="G25" s="401"/>
+      <c r="H25" s="401"/>
+      <c r="I25" s="403"/>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="377" t="s">
+      <c r="B26" s="395" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="378"/>
+      <c r="C26" s="396"/>
       <c r="D26" s="141">
         <v>3</v>
       </c>
@@ -9818,15 +10027,15 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="377" t="s">
+      <c r="C9" s="395" t="s">
         <v>347</v>
       </c>
-      <c r="D9" s="378"/>
-      <c r="E9" s="382">
+      <c r="D9" s="396"/>
+      <c r="E9" s="414">
         <f>SUM(F7:F8)</f>
         <v>620000</v>
       </c>
-      <c r="F9" s="383"/>
+      <c r="F9" s="415"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9842,9 +10051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11491,8 +11700,8 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="293" t="s">
-        <v>75</v>
+      <c r="B45" s="420" t="s">
+        <v>391</v>
       </c>
       <c r="C45" s="234"/>
       <c r="D45" s="311" t="s">
@@ -11520,8 +11729,8 @@
       </c>
       <c r="M45" s="294"/>
       <c r="N45" s="34"/>
-      <c r="O45" s="234" t="s">
-        <v>78</v>
+      <c r="O45" s="419" t="s">
+        <v>390</v>
       </c>
       <c r="P45" s="39" t="s">
         <v>9</v>

--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060" activeTab="8"/>
+    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="전체 비용 List" sheetId="9" r:id="rId1"/>
@@ -21,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">'0314'!$B$4:$F$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="393">
   <si>
     <t>Vendor</t>
   </si>
@@ -50,22 +50,22 @@
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>상품코드</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ICbanQ</t>
   </si>
   <si>
     <t>ICbanQ</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002101847 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>NTD5802N</t>
@@ -75,11 +75,11 @@
   </si>
   <si>
     <t>53398-0471</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>50058-8000</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
@@ -92,11 +92,11 @@
   </si>
   <si>
     <t>51021-0400</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin Housing, Female</t>
@@ -112,90 +112,90 @@
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P000740132</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P005634281</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CTX210609-R</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>TRANSFORMER CCFL 6W 13V 11MA SMD Turn-R:100</t>
   </si>
   <si>
     <t>CTX210605-R</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P002058985</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P005831162</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P002058197</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007073878 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부가세</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부품 Total</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CAP TANT 220UF 16V 10% 2917</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P008221708</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>장보고 재고 있음</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2/5일 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>T491D227K016AT</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>재고 없음</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007223445 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2/8일 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -223,19 +223,19 @@
       </rPr>
       <t>-R</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>B180212004001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>주문번호</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2/12일 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>BZT52C5V1S</t>
@@ -338,67 +338,67 @@
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>작업기간</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Month</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Day[20/Month]</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Hour[3/Day]</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>시급</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>가중치</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LF Gen MCU</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LF Control MCU</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Cost</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1차 작업</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Item</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2차 작업</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Hour[3.5/Day]</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>H/W</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>M/E</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Set 수량</t>
@@ -408,11 +408,11 @@
   </si>
   <si>
     <t>구매 Cost</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>STPS120M</t>
@@ -425,7 +425,7 @@
   </si>
   <si>
     <t>P001539333</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>SMBJ12CA</t>
@@ -438,15 +438,15 @@
   </si>
   <si>
     <t>P004928252</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>P007475431</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>LF용 포함 구매</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DC-011C_SMD</t>
@@ -456,7 +456,7 @@
   </si>
   <si>
     <t>P005658771</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>053048-0310</t>
@@ -466,7 +466,7 @@
   </si>
   <si>
     <t>P005634294</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>053048-0710</t>
@@ -476,7 +476,7 @@
   </si>
   <si>
     <t>P005634298</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>HI05-AG0272</t>
@@ -489,7 +489,7 @@
   </si>
   <si>
     <t>P005659337</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>F0603E2R50FSTR</t>
@@ -502,11 +502,11 @@
   </si>
   <si>
     <t>P001574681</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1 point 삭제 예정</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MSS5131-153ML</t>
@@ -519,7 +519,7 @@
   </si>
   <si>
     <t xml:space="preserve">P002266417 </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>LQM2HPZ2R2MG0</t>
@@ -532,7 +532,7 @@
   </si>
   <si>
     <t>P008172717</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ASMT-YTD2-0BB02</t>
@@ -545,7 +545,7 @@
   </si>
   <si>
     <t>P000725384</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>17-21/W1D-ANPHY/3T</t>
@@ -558,7 +558,7 @@
   </si>
   <si>
     <t>P005609815</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>19-21/R6C-AP1Q2/3T</t>
@@ -568,7 +568,7 @@
   </si>
   <si>
     <t>P005609821</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>19-217/W1D-APQHY/3T</t>
@@ -578,11 +578,11 @@
   </si>
   <si>
     <t>P000098995</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>재품이 없어 고휘도 구매</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>19-213/G6C-AN1P2 /3T</t>
@@ -592,7 +592,7 @@
   </si>
   <si>
     <t>P005609818</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>CTT-1139P1</t>
@@ -605,11 +605,11 @@
   </si>
   <si>
     <t>P000092681</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MOQ</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>SKRMABE010</t>
@@ -619,7 +619,7 @@
   </si>
   <si>
     <t xml:space="preserve">P001566090 </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>STM32F070RBT6</t>
@@ -641,7 +641,7 @@
   </si>
   <si>
     <t>P000166190</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>LM2735XMF</t>
@@ -654,7 +654,7 @@
   </si>
   <si>
     <t>P006290287</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>LM3671MF-3.3</t>
@@ -664,7 +664,7 @@
   </si>
   <si>
     <t>P007302353</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>TPS3801L30</t>
@@ -674,79 +674,79 @@
   </si>
   <si>
     <t>P007092561</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Battery 하네스</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>구매 Cost</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>51021-0300</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch Housing, Female, 3-Pin</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>P005634252</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Transformer 하네스</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>51021-0700</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch Housing, Female, 7-Pin</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>P005634256</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>50058 양단 1007 케이블</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>P005634320</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>50058 양단 케이블 L=100mm, Black</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Item</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Pipette과 overlap되는 LF MCU 부품 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ON Semiconductor</t>
@@ -759,478 +759,478 @@
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>주문번호</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>EX-936ESD</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> EXSO </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>정전기 방지 온도조절형 인두, 소비전력:60W, 온도:220℃ ~ 480℃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P001909039</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol 3001 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>EXSO</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 75W, 온도: 100~500℃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P007193509</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol-100 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>아날로그 무연인두기 , 24V 75W, 온도: 200~480℃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P007193511</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol-200 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 24V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P007193512</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FX-888D(70W)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 26V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P005688453</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FX-951</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 24V 75W, 온도: 200~450℃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P005688454</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>T18-K</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO FX-888(FX-8801) 전용 인두 칼팁</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P002116124</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>T18-3.5K</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>T18-B</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO FX-888(FX-8801) 전용 인두 팁</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002116123 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>B3474</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Rubber Cleaner</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>A1561</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO A1561 클리닝와이어</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P004702618</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>A1559</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO A1559 스폰지</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P004704819</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>SPPON 18</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO 18 SPPON DESOLDERING TOOL</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P004702809</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>18N.18G</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO SPPON NOZZLE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ic114</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>UL1007-AWG20</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>UL전선</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (검정색)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002329495 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (빨강)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002329190 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>칩저항 키트</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Any vender</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1005 사이즈 F급(1%) 160종 칩저항 키트 - (100개들이)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P001907055</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>JL-0232 적색</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Any vender</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">더블 바나나플러그 / 적색 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P005658758</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GHG630DCE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> BOSCH </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>열풍기(히터건) (GHG630DCE)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P007320842</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ST-LINK/V2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>STMicroelectronics</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ICD/PROGRAMMER, FOR STM8, STM32</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P001648331</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ENGINEER SL-04</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ENGINEER SL-04 DESK-TOP LOUPE, 렌즈 직경 75mm, 배율 3X</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P004704041 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>8611L</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>8611L LED조명 확대경, 렌즈 직경 89mm, 배율 3X</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P004704064</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>824-22-003-00-005000</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Mill-Max</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Mill-Max Pin &amp; Socket Connectors </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P008110102</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Transformer PCB</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>P005634282</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>재고 소진</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Pipette V1.0 부품 및 장비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>실험실에서 사용할 장비 및 Pipette 관련 추가 부품</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부자재</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>수삽</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>개인</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Point</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>단가</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>금액</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>소계</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>작업내용</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>합계</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>이윤</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>SMD</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Metal mask</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Sample용 견적</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부품비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LF Generator MCU Board</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">HIPPO 6구 접지 멀티탭 멀티탭 - 기본 1.5M </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">HIPPO 6구 접지 멀티탭 멀티탭 - 3M </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HIPPO</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>KFT HT-5023 스트리퍼 (AWG20~30)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">KFT </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P001415029</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>페이스트 [135-0805]</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P008012287</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>정전기매트 120cm*1M</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P000119604</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007311227 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>실험실 물품 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>제이엘텍 - Sample build 견적</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LF GEN MCU 부품 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HEADER_2.54mm_2x5</t>
@@ -1297,71 +1297,71 @@
   </si>
   <si>
     <t>Exso</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>PCB Artwork</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Transformer</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LF MCU</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LF GEN MCU Layout 및 제작비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>구매비용</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Proto-type 부품 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Transformer V1.0 부품 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>계약금액</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Touch Program</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Pipette</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Proto-type</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>V1.0</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Touch PC - New</t>
@@ -1374,115 +1374,119 @@
   </si>
   <si>
     <t>S/W 개발비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Pipette</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Proto</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Version</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>단가</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>작업 내용</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Layout</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>금액</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>제작</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>PCB</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Main</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Transformer</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>V1.0</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LF</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Gen MCU</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Transformer Layout 및 제작비</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Proto-type Layout 및 제작비</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>H/W Layout 및 Manual Solder 비용</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Proto-type F/W 개발비</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>H/W 개발비</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/W 개발비</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>P004707690</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA645</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Pipette V1.0 / LF MCU 일부</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette Transformer Layout 및 제작비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette Proto-type Layout 및 제작비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>H/W Layout 및 Manual Solder 비용</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette Proto-type F/W 개발비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>H/W 개발비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>S/W 개발비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>P004707690</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA645</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Main V1.0 PCB 제작</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1500,12 +1504,20 @@
     <numFmt numFmtId="181" formatCode="0.0\ &quot;ea&quot;"/>
     <numFmt numFmtId="182" formatCode="0.0\ &quot;일&quot;"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2567,283 +2579,283 @@
   </borders>
   <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2862,7 +2874,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2871,7 +2883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2886,32 +2898,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2925,21 +2937,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2952,26 +2964,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2984,13 +2996,13 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3003,16 +3015,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="31" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3059,34 +3071,34 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="24" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="24" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="69" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="11" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="69" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="11" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3108,60 +3120,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="75" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="75" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="75" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="75" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="75">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="75" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="75">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="75" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="23" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="23" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="24" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="24" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="33" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="33" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="23" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="23" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="75" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="75" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="75" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="75" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="76" applyFont="1" applyBorder="1">
@@ -3173,46 +3185,46 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="15" xfId="75" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="15" xfId="75" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="16" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="69" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="69" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="18" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="17" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="17" xfId="75" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="18" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="17" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="17" xfId="75" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="18" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="22" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="18" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="22" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3221,7 +3233,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3267,20 +3279,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3296,125 +3308,125 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="23" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="23" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="24" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="24" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="77" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="77" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="77" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="77" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="10" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="10" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="11" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="11" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="78">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="78">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="78" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="78" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="78" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="78" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="24" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="78" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="24" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="78" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="78" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="14" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="78" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="14" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="78" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="78" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="17" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="78" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="78" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="14" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="15" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="78" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="20" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="20" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="78" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="14" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="15" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="17" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="78" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3427,71 +3439,71 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="29" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="30" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="17" xfId="95" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="15" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="18" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="21" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="18" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="95" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="15" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="18" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="21" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="18" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3499,15 +3511,15 @@
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="34" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="34" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="35" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="33" borderId="35" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3525,103 +3537,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3630,25 +3642,25 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3657,23 +3669,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="36" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3685,157 +3697,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="36" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="29" fillId="36" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="30" fillId="36" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="29" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="30" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="96">
@@ -3942,6 +3954,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3989,7 +4004,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4024,7 +4039,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4235,8 +4250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4264,10 +4279,10 @@
         <v>353</v>
       </c>
       <c r="E4" s="384" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4" s="384" t="s">
         <v>388</v>
-      </c>
-      <c r="F4" s="384" t="s">
-        <v>389</v>
       </c>
       <c r="G4" s="385" t="s">
         <v>199</v>
@@ -4275,12 +4290,12 @@
     </row>
     <row r="5" spans="2:7" s="197" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="199" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C5" s="200"/>
       <c r="D5" s="343">
         <f>SUM(D6:D25)</f>
-        <v>1570330</v>
+        <v>1658330</v>
       </c>
       <c r="E5" s="343">
         <f>SUM(E6:E25)</f>
@@ -4297,7 +4312,7 @@
         <v>43062</v>
       </c>
       <c r="C6" s="374" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D6" s="375"/>
       <c r="E6" s="375">
@@ -4311,7 +4326,7 @@
         <v>43062</v>
       </c>
       <c r="C7" s="378" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D7" s="379"/>
       <c r="E7" s="379"/>
@@ -4367,7 +4382,7 @@
         <v>43143</v>
       </c>
       <c r="C11" s="204" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D11" s="349"/>
       <c r="E11" s="349">
@@ -4381,7 +4396,7 @@
         <v>43173</v>
       </c>
       <c r="C12" s="204" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D12" s="349">
         <v>514080</v>
@@ -4423,9 +4438,15 @@
       <c r="G14" s="371"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="203"/>
-      <c r="C15" s="204"/>
-      <c r="D15" s="349"/>
+      <c r="B15" s="203">
+        <v>43220</v>
+      </c>
+      <c r="C15" s="204" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" s="349">
+        <v>88000</v>
+      </c>
       <c r="E15" s="349"/>
       <c r="F15" s="389"/>
       <c r="G15" s="371"/>
@@ -4514,7 +4535,7 @@
       <c r="B30" s="194"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -4735,29 +4756,29 @@
       </c>
     </row>
     <row r="9" spans="2:16" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="395" t="s">
+      <c r="C9" s="397" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="396"/>
-      <c r="E9" s="396"/>
+      <c r="D9" s="398"/>
+      <c r="E9" s="398"/>
       <c r="F9" s="265">
         <f>SUM(F6:F8)</f>
         <v>138411</v>
       </c>
-      <c r="H9" s="395" t="s">
+      <c r="H9" s="397" t="s">
         <v>297</v>
       </c>
-      <c r="I9" s="396"/>
-      <c r="J9" s="396"/>
+      <c r="I9" s="398"/>
+      <c r="J9" s="398"/>
       <c r="K9" s="265">
         <f>SUM(K6:K8)</f>
         <v>42250</v>
       </c>
-      <c r="M9" s="395" t="s">
+      <c r="M9" s="397" t="s">
         <v>297</v>
       </c>
-      <c r="N9" s="396"/>
-      <c r="O9" s="396"/>
+      <c r="N9" s="398"/>
+      <c r="O9" s="398"/>
       <c r="P9" s="265">
         <f>SUM(P6:P8)</f>
         <v>44750</v>
@@ -4898,37 +4919,37 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="395" t="s">
+      <c r="C14" s="397" t="s">
         <v>300</v>
       </c>
-      <c r="D14" s="396"/>
-      <c r="E14" s="416">
+      <c r="D14" s="398"/>
+      <c r="E14" s="418">
         <f>F12</f>
         <v>553644</v>
       </c>
-      <c r="F14" s="417"/>
-      <c r="H14" s="395" t="s">
+      <c r="F14" s="419"/>
+      <c r="H14" s="397" t="s">
         <v>300</v>
       </c>
-      <c r="I14" s="396"/>
-      <c r="J14" s="416">
+      <c r="I14" s="398"/>
+      <c r="J14" s="418">
         <f>K12</f>
         <v>169000</v>
       </c>
-      <c r="K14" s="417"/>
-      <c r="M14" s="395" t="s">
+      <c r="K14" s="419"/>
+      <c r="M14" s="397" t="s">
         <v>300</v>
       </c>
-      <c r="N14" s="396"/>
-      <c r="O14" s="416">
+      <c r="N14" s="398"/>
+      <c r="O14" s="418">
         <f>P12</f>
         <v>150000</v>
       </c>
-      <c r="P14" s="417"/>
+      <c r="P14" s="419"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C15" s="418"/>
-      <c r="D15" s="418"/>
+      <c r="C15" s="420"/>
+      <c r="D15" s="420"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
@@ -5002,11 +5023,11 @@
       </c>
     </row>
     <row r="22" spans="3:8" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="395" t="s">
+      <c r="C22" s="397" t="s">
         <v>297</v>
       </c>
-      <c r="D22" s="396"/>
-      <c r="E22" s="396"/>
+      <c r="D22" s="398"/>
+      <c r="E22" s="398"/>
       <c r="F22" s="265">
         <f>SUM(F19:F21)</f>
         <v>45292</v>
@@ -5079,18 +5100,23 @@
       <c r="H27" s="56"/>
     </row>
     <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="395" t="s">
+      <c r="C28" s="397" t="s">
         <v>300</v>
       </c>
-      <c r="D28" s="396"/>
-      <c r="E28" s="416">
+      <c r="D28" s="398"/>
+      <c r="E28" s="418">
         <f>SUM(F25:F27)</f>
         <v>291168</v>
       </c>
-      <c r="F28" s="417"/>
+      <c r="F28" s="419"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="H9:J9"/>
@@ -5099,13 +5125,8 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C22:E22"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5138,7 +5159,7 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="56" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -5167,22 +5188,22 @@
       <c r="I4" s="262" t="s">
         <v>374</v>
       </c>
-      <c r="K4" s="397" t="s">
+      <c r="K4" s="399" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="391"/>
-      <c r="M4" s="399" t="s">
+      <c r="L4" s="393"/>
+      <c r="M4" s="401" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="399"/>
-      <c r="O4" s="399"/>
-      <c r="P4" s="391" t="s">
+      <c r="N4" s="401"/>
+      <c r="O4" s="401"/>
+      <c r="P4" s="393" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="391" t="s">
+      <c r="Q4" s="393" t="s">
         <v>90</v>
       </c>
-      <c r="R4" s="393" t="s">
+      <c r="R4" s="395" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5212,8 +5233,8 @@
         <f t="shared" ref="I5:I10" si="0">G5*H5</f>
         <v>750000</v>
       </c>
-      <c r="K5" s="398"/>
-      <c r="L5" s="392"/>
+      <c r="K5" s="400"/>
+      <c r="L5" s="394"/>
       <c r="M5" s="387" t="s">
         <v>86</v>
       </c>
@@ -5223,9 +5244,9 @@
       <c r="O5" s="387" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="392"/>
-      <c r="Q5" s="392"/>
-      <c r="R5" s="394"/>
+      <c r="P5" s="394"/>
+      <c r="Q5" s="394"/>
+      <c r="R5" s="396"/>
     </row>
     <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="203">
@@ -5253,10 +5274,10 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K6" s="395" t="s">
+      <c r="K6" s="397" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="396"/>
+      <c r="L6" s="398"/>
       <c r="M6" s="141">
         <v>1</v>
       </c>
@@ -5570,7 +5591,7 @@
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="P4:P5"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5606,31 +5627,31 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="397" t="s">
+      <c r="B3" s="399" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="391"/>
-      <c r="D3" s="399" t="s">
+      <c r="C3" s="393"/>
+      <c r="D3" s="401" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="399"/>
-      <c r="F3" s="399"/>
-      <c r="G3" s="391" t="s">
+      <c r="E3" s="401"/>
+      <c r="F3" s="401"/>
+      <c r="G3" s="393" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="391" t="s">
+      <c r="H3" s="393" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="409" t="s">
+      <c r="I3" s="414" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="407" t="s">
+      <c r="J3" s="412" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="4" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="413"/>
-      <c r="C4" s="411"/>
+      <c r="B4" s="408"/>
+      <c r="C4" s="409"/>
       <c r="D4" s="386" t="s">
         <v>86</v>
       </c>
@@ -5640,13 +5661,13 @@
       <c r="F4" s="386" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="411"/>
-      <c r="H4" s="411"/>
-      <c r="I4" s="410"/>
-      <c r="J4" s="408"/>
+      <c r="G4" s="409"/>
+      <c r="H4" s="409"/>
+      <c r="I4" s="415"/>
+      <c r="J4" s="413"/>
     </row>
     <row r="5" spans="2:15" s="342" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="404" t="s">
+      <c r="B5" s="402" t="s">
         <v>358</v>
       </c>
       <c r="C5" s="365" t="s">
@@ -5678,7 +5699,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="406"/>
+      <c r="B6" s="404"/>
       <c r="C6" s="357" t="s">
         <v>360</v>
       </c>
@@ -5706,7 +5727,7 @@
       <c r="J6" s="361"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="404" t="s">
+      <c r="B7" s="402" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="139" t="s">
@@ -5748,7 +5769,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="405"/>
+      <c r="B8" s="407"/>
       <c r="C8" s="346" t="s">
         <v>91</v>
       </c>
@@ -5776,7 +5797,7 @@
       <c r="J8" s="363"/>
     </row>
     <row r="9" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="406"/>
+      <c r="B9" s="404"/>
       <c r="C9" s="350" t="s">
         <v>92</v>
       </c>
@@ -5804,7 +5825,7 @@
       <c r="J9" s="364"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="404" t="s">
+      <c r="B10" s="402" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="139" t="s">
@@ -5834,7 +5855,7 @@
       <c r="J10" s="362"/>
     </row>
     <row r="11" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="405"/>
+      <c r="B11" s="407"/>
       <c r="C11" s="346" t="s">
         <v>362</v>
       </c>
@@ -5862,7 +5883,7 @@
       <c r="J11" s="363"/>
     </row>
     <row r="12" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="405"/>
+      <c r="B12" s="407"/>
       <c r="C12" s="346" t="s">
         <v>363</v>
       </c>
@@ -5890,7 +5911,7 @@
       <c r="J12" s="363"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="405"/>
+      <c r="B13" s="407"/>
       <c r="C13" s="346" t="s">
         <v>91</v>
       </c>
@@ -5918,7 +5939,7 @@
       <c r="J13" s="363"/>
     </row>
     <row r="14" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="406"/>
+      <c r="B14" s="404"/>
       <c r="C14" s="350" t="s">
         <v>92</v>
       </c>
@@ -5963,28 +5984,28 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="404" t="s">
+      <c r="B24" s="402" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="400"/>
-      <c r="D24" s="412" t="s">
+      <c r="C24" s="403"/>
+      <c r="D24" s="406" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="412"/>
-      <c r="F24" s="412"/>
-      <c r="G24" s="400" t="s">
+      <c r="E24" s="406"/>
+      <c r="F24" s="406"/>
+      <c r="G24" s="403" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="400" t="s">
+      <c r="H24" s="403" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="402" t="s">
+      <c r="I24" s="410" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="406"/>
-      <c r="C25" s="401"/>
+      <c r="B25" s="404"/>
+      <c r="C25" s="405"/>
       <c r="D25" s="138" t="s">
         <v>86</v>
       </c>
@@ -5994,15 +6015,15 @@
       <c r="F25" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="401"/>
-      <c r="H25" s="401"/>
-      <c r="I25" s="403"/>
+      <c r="G25" s="405"/>
+      <c r="H25" s="405"/>
+      <c r="I25" s="411"/>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="395" t="s">
+      <c r="B26" s="397" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="396"/>
+      <c r="C26" s="398"/>
       <c r="D26" s="141">
         <v>3</v>
       </c>
@@ -6043,11 +6064,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B3:C4"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="I24:I25"/>
@@ -6058,8 +6074,13 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B3:C4"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6712,7 +6733,7 @@
       <c r="K32" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -8029,7 +8050,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B4:F4"/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9361,7 +9382,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -9924,7 +9945,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -10027,22 +10048,22 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="395" t="s">
+      <c r="C9" s="397" t="s">
         <v>347</v>
       </c>
-      <c r="D9" s="396"/>
-      <c r="E9" s="414">
+      <c r="D9" s="398"/>
+      <c r="E9" s="416">
         <f>SUM(F7:F8)</f>
         <v>620000</v>
       </c>
-      <c r="F9" s="415"/>
+      <c r="F9" s="417"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="C9:D9"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10051,7 +10072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
@@ -11700,8 +11721,8 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="420" t="s">
-        <v>391</v>
+      <c r="B45" s="392" t="s">
+        <v>390</v>
       </c>
       <c r="C45" s="234"/>
       <c r="D45" s="311" t="s">
@@ -11729,8 +11750,8 @@
       </c>
       <c r="M45" s="294"/>
       <c r="N45" s="34"/>
-      <c r="O45" s="419" t="s">
-        <v>390</v>
+      <c r="O45" s="391" t="s">
+        <v>389</v>
       </c>
       <c r="P45" s="39" t="s">
         <v>9</v>
@@ -12101,7 +12122,7 @@
   <sortState ref="B48:W53">
     <sortCondition ref="B48:B53"/>
   </sortState>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>

--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060" activeTab="2"/>
+    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="전체 비용 List" sheetId="9" r:id="rId1"/>
@@ -21,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">'0314'!$B$4:$F$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="393">
   <si>
     <t>Vendor</t>
   </si>
@@ -50,22 +50,22 @@
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>상품코드</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ICbanQ</t>
   </si>
   <si>
     <t>ICbanQ</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002101847 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>NTD5802N</t>
@@ -75,11 +75,11 @@
   </si>
   <si>
     <t>53398-0471</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>50058-8000</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
@@ -92,11 +92,11 @@
   </si>
   <si>
     <t>51021-0400</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin Housing, Female</t>
@@ -112,90 +112,90 @@
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P000740132</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P005634281</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CTX210609-R</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>TRANSFORMER CCFL 6W 13V 11MA SMD Turn-R:100</t>
   </si>
   <si>
     <t>CTX210605-R</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P002058985</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P005831162</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P002058197</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007073878 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부가세</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부품 Total</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CAP TANT 220UF 16V 10% 2917</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P008221708</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>장보고 재고 있음</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2/5일 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>T491D227K016AT</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>재고 없음</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007223445 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2/8일 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -223,19 +223,19 @@
       </rPr>
       <t>-R</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>B180212004001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>주문번호</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2/12일 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>BZT52C5V1S</t>
@@ -338,67 +338,67 @@
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>작업기간</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Month</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Day[20/Month]</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Hour[3/Day]</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>시급</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>가중치</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LF Gen MCU</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LF Control MCU</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Cost</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1차 작업</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Item</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2차 작업</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Hour[3.5/Day]</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>H/W</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>M/E</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Set 수량</t>
@@ -408,11 +408,11 @@
   </si>
   <si>
     <t>구매 Cost</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>STPS120M</t>
@@ -425,7 +425,7 @@
   </si>
   <si>
     <t>P001539333</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>SMBJ12CA</t>
@@ -438,15 +438,15 @@
   </si>
   <si>
     <t>P004928252</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>P007475431</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>LF용 포함 구매</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DC-011C_SMD</t>
@@ -456,7 +456,7 @@
   </si>
   <si>
     <t>P005658771</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>053048-0310</t>
@@ -466,7 +466,7 @@
   </si>
   <si>
     <t>P005634294</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>053048-0710</t>
@@ -476,7 +476,7 @@
   </si>
   <si>
     <t>P005634298</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>HI05-AG0272</t>
@@ -489,7 +489,7 @@
   </si>
   <si>
     <t>P005659337</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>F0603E2R50FSTR</t>
@@ -502,11 +502,11 @@
   </si>
   <si>
     <t>P001574681</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1 point 삭제 예정</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MSS5131-153ML</t>
@@ -519,7 +519,7 @@
   </si>
   <si>
     <t xml:space="preserve">P002266417 </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>LQM2HPZ2R2MG0</t>
@@ -532,7 +532,7 @@
   </si>
   <si>
     <t>P008172717</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ASMT-YTD2-0BB02</t>
@@ -545,7 +545,7 @@
   </si>
   <si>
     <t>P000725384</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>17-21/W1D-ANPHY/3T</t>
@@ -558,7 +558,7 @@
   </si>
   <si>
     <t>P005609815</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>19-21/R6C-AP1Q2/3T</t>
@@ -568,7 +568,7 @@
   </si>
   <si>
     <t>P005609821</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>19-217/W1D-APQHY/3T</t>
@@ -578,11 +578,11 @@
   </si>
   <si>
     <t>P000098995</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>재품이 없어 고휘도 구매</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>19-213/G6C-AN1P2 /3T</t>
@@ -592,7 +592,7 @@
   </si>
   <si>
     <t>P005609818</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>CTT-1139P1</t>
@@ -605,11 +605,11 @@
   </si>
   <si>
     <t>P000092681</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MOQ</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>SKRMABE010</t>
@@ -619,7 +619,7 @@
   </si>
   <si>
     <t xml:space="preserve">P001566090 </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>STM32F070RBT6</t>
@@ -641,7 +641,7 @@
   </si>
   <si>
     <t>P000166190</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>LM2735XMF</t>
@@ -654,7 +654,7 @@
   </si>
   <si>
     <t>P006290287</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>LM3671MF-3.3</t>
@@ -664,7 +664,7 @@
   </si>
   <si>
     <t>P007302353</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>TPS3801L30</t>
@@ -674,79 +674,79 @@
   </si>
   <si>
     <t>P007092561</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Battery 하네스</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>구매 Cost</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>51021-0300</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch Housing, Female, 3-Pin</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>P005634252</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Transformer 하네스</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>51021-0700</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch Housing, Female, 7-Pin</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>P005634256</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>50058 양단 1007 케이블</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>P005634320</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>50058 양단 케이블 L=100mm, Black</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Item</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Pipette과 overlap되는 LF MCU 부품 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ON Semiconductor</t>
@@ -759,478 +759,478 @@
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>주문번호</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>EX-936ESD</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> EXSO </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>정전기 방지 온도조절형 인두, 소비전력:60W, 온도:220℃ ~ 480℃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P001909039</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol 3001 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>EXSO</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 75W, 온도: 100~500℃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P007193509</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol-100 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>아날로그 무연인두기 , 24V 75W, 온도: 200~480℃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P007193511</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol-200 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 24V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P007193512</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FX-888D(70W)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 26V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P005688453</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FX-951</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 24V 75W, 온도: 200~450℃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P005688454</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>T18-K</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO FX-888(FX-8801) 전용 인두 칼팁</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P002116124</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>T18-3.5K</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>T18-B</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO FX-888(FX-8801) 전용 인두 팁</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002116123 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>B3474</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Rubber Cleaner</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>A1561</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO A1561 클리닝와이어</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P004702618</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>A1559</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO A1559 스폰지</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P004704819</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>SPPON 18</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO 18 SPPON DESOLDERING TOOL</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P004702809</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>18N.18G</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO SPPON NOZZLE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ic114</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>UL1007-AWG20</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>UL전선</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (검정색)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002329495 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (빨강)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002329190 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>칩저항 키트</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Any vender</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1005 사이즈 F급(1%) 160종 칩저항 키트 - (100개들이)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P001907055</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>JL-0232 적색</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Any vender</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">더블 바나나플러그 / 적색 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P005658758</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GHG630DCE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> BOSCH </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>열풍기(히터건) (GHG630DCE)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P007320842</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ST-LINK/V2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>STMicroelectronics</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ICD/PROGRAMMER, FOR STM8, STM32</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P001648331</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ENGINEER SL-04</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ENGINEER SL-04 DESK-TOP LOUPE, 렌즈 직경 75mm, 배율 3X</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P004704041 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>8611L</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>8611L LED조명 확대경, 렌즈 직경 89mm, 배율 3X</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P004704064</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>824-22-003-00-005000</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Mill-Max</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Mill-Max Pin &amp; Socket Connectors </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P008110102</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Transformer PCB</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>P005634282</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>재고 소진</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Pipette V1.0 부품 및 장비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>실험실에서 사용할 장비 및 Pipette 관련 추가 부품</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부자재</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>수삽</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>개인</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Point</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>단가</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>금액</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>소계</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>작업내용</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>합계</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>이윤</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>SMD</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Metal mask</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Sample용 견적</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부품비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LF Generator MCU Board</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">HIPPO 6구 접지 멀티탭 멀티탭 - 기본 1.5M </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">HIPPO 6구 접지 멀티탭 멀티탭 - 3M </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HIPPO</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>KFT HT-5023 스트리퍼 (AWG20~30)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">KFT </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P001415029</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>페이스트 [135-0805]</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P008012287</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>정전기매트 120cm*1M</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P000119604</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007311227 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>실험실 물품 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>제이엘텍 - Sample build 견적</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LF GEN MCU 부품 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HEADER_2.54mm_2x5</t>
@@ -1297,75 +1297,71 @@
   </si>
   <si>
     <t>Exso</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>PCB Artwork</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Transformer</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LF MCU</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LF GEN MCU Layout 및 제작비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>구매비용</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Proto-type 부품 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Transformer V1.0 부품 구매</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>계약금액</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Touch Program</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Pipette</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Proto-type</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>V1.0</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Touch PC - New</t>
@@ -1378,99 +1374,119 @@
   </si>
   <si>
     <t>S/W 개발비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Pipette</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Proto</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Version</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>단가</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>작업 내용</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Layout</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>금액</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>제작</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>PCB</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Main</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Transformer</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>V1.0</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LF</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Gen MCU</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Transformer Layout 및 제작비</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Proto-type Layout 및 제작비</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>H/W Layout 및 Manual Solder 비용</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Proto-type F/W 개발비</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>H/W 개발비</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/W 개발비</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>P004707690</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA645</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Pipette V1.0 / LF MCU 일부</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette Transformer Layout 및 제작비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette Proto-type Layout 및 제작비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>H/W Layout 및 Manual Solder 비용</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette Proto-type F/W 개발비</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Main V1.0 PCB 제작</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1488,12 +1504,20 @@
     <numFmt numFmtId="181" formatCode="0.0\ &quot;ea&quot;"/>
     <numFmt numFmtId="182" formatCode="0.0\ &quot;일&quot;"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2555,287 +2579,287 @@
   </borders>
   <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillI